--- a/src/main/resources/baseFiles/excel/Sheet.xlsx
+++ b/src/main/resources/baseFiles/excel/Sheet.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="151">
   <si>
     <t>Firm</t>
   </si>
@@ -279,6 +279,216 @@
   </si>
   <si>
     <t>82234040662</t>
+  </si>
+  <si>
+    <t>Richard Sheldon</t>
+  </si>
+  <si>
+    <t>Guernsey</t>
+  </si>
+  <si>
+    <t>rsheldon@applebyglobal.com</t>
+  </si>
+  <si>
+    <t>441481755904</t>
+  </si>
+  <si>
+    <t>John Bisson</t>
+  </si>
+  <si>
+    <t>Jersey</t>
+  </si>
+  <si>
+    <t>jbisson@applebyglobal.com</t>
+  </si>
+  <si>
+    <t>441534818024</t>
+  </si>
+  <si>
+    <t>Duncan Card</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>dcard@applebyglobal.com</t>
+  </si>
+  <si>
+    <t>14412983270</t>
+  </si>
+  <si>
+    <t>Aaron Kam</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>aaron.kam@ashurst.com</t>
+  </si>
+  <si>
+    <t>61292586014</t>
+  </si>
+  <si>
+    <t>Adam Kidane</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>adam.kidane@ashurst.com</t>
+  </si>
+  <si>
+    <t>3226419949</t>
+  </si>
+  <si>
+    <t>Andrew Shaoyu Chen</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>andrew.chen@cn.arnoldporter.com</t>
+  </si>
+  <si>
+    <t>8602122083650</t>
+  </si>
+  <si>
+    <t>Luc Gyselen</t>
+  </si>
+  <si>
+    <t>luc.gyselen@arnoldporter.com</t>
+  </si>
+  <si>
+    <t>32022907831</t>
+  </si>
+  <si>
+    <t>Johannes Egelhof</t>
+  </si>
+  <si>
+    <t>BNT</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>johannes.egelhof@bnt.eu</t>
+  </si>
+  <si>
+    <t>49911569610</t>
+  </si>
+  <si>
+    <t>Kamila Kościerzyńska Ll M</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>kamila.koscierzynska@bnt.eu</t>
+  </si>
+  <si>
+    <t>48583404385</t>
+  </si>
+  <si>
+    <t>Ovidiu Văleanu</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>ovidiu.valeanu@bnt.eu</t>
+  </si>
+  <si>
+    <t>40723239347</t>
+  </si>
+  <si>
+    <t>Grzegorz Wąsiewski</t>
+  </si>
+  <si>
+    <t>grzegorz.wasiewski@bnt.eu</t>
+  </si>
+  <si>
+    <t>48222793100</t>
+  </si>
+  <si>
+    <t>Radu Gilescu</t>
+  </si>
+  <si>
+    <t>radu.gilescu@bnt.eu</t>
+  </si>
+  <si>
+    <t>40722283644</t>
+  </si>
+  <si>
+    <t>Daniel Gößling</t>
+  </si>
+  <si>
+    <t>Bulgaria, Germany, Poland</t>
+  </si>
+  <si>
+    <t>daniel.goessling@bnt.eu</t>
+  </si>
+  <si>
+    <t>Maciej Prusak</t>
+  </si>
+  <si>
+    <t>maciej.prusak@bnt.eu</t>
+  </si>
+  <si>
+    <t>Adela Raluca Fara - Trion</t>
+  </si>
+  <si>
+    <t>adela.fara@bnt.eu</t>
+  </si>
+  <si>
+    <t>40356007033</t>
+  </si>
+  <si>
+    <t>Zuzana Chudáčková</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>zuzana.chudackova@bnt.eu</t>
+  </si>
+  <si>
+    <t>421233104733</t>
+  </si>
+  <si>
+    <t>Franco Agopyan</t>
+  </si>
+  <si>
+    <t>BonelliErede</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>franco.agopyan@belex.com</t>
+  </si>
+  <si>
+    <t>3902771131</t>
+  </si>
+  <si>
+    <t>Angelo Bonetta</t>
+  </si>
+  <si>
+    <t>angelo.bonetta@belex.com</t>
+  </si>
+  <si>
+    <t>Aoife Bradley</t>
+  </si>
+  <si>
+    <t>Byrne Wallace</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>abradley@byrnewallaceshields.com</t>
+  </si>
+  <si>
+    <t>35316371583</t>
   </si>
 </sst>
 </file>
@@ -755,16 +965,16 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="1">
-        <v>76</v>
+        <v>146</v>
       </c>
       <c r="B2" t="s" s="1">
         <v>9</v>
       </c>
       <c r="C2" t="s" s="1">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="D2" t="s" s="5">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="E2" t="s" s="5">
         <v>22</v>
@@ -773,10 +983,10 @@
         <v>22</v>
       </c>
       <c r="G2" t="s" s="5">
-        <v>79</v>
+        <v>149</v>
       </c>
       <c r="H2" t="s" s="5">
-        <v>80</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/baseFiles/excel/Sheet.xlsx
+++ b/src/main/resources/baseFiles/excel/Sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\IdeaProjects\contactsK\src\main\resources\baseFiles\excel\RawXL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB81CC94-208B-4196-B57B-336E4DE116DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B510A0D-9A4C-43D4-A75A-713448F11C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{EDD5D14D-B0D8-4A16-98F2-AF3F46E1EA6C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="260">
   <si>
     <t>Firm</t>
   </si>
@@ -62,52 +62,88 @@
     <t>Phone</t>
   </si>
   <si>
-    <t>John P Doe</t>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>https://www.gop.it/people_view.php?id=50</t>
+  </si>
+  <si>
+    <t>Origoni Gianbattista</t>
   </si>
   <si>
     <t>Partner</t>
   </si>
   <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>Corporate Law</t>
-  </si>
-  <si>
-    <t>----</t>
+    <t>Gianni And Origoni</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>-----</t>
+  </si>
+  <si>
+    <t>Litigation and Arbitration</t>
+  </si>
+  <si>
+    <t>gorigoni@gop.it</t>
+  </si>
+  <si>
+    <t>3902763741</t>
+  </si>
+  <si>
+    <t>https://www.gop.it/people_view.php?id=550</t>
+  </si>
+  <si>
+    <t>De Rosa Davide</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Corporate. Mergers &amp; Acquisitions</t>
+  </si>
+  <si>
+    <t>dderosa@gop.it</t>
+  </si>
+  <si>
+    <t>85221563490</t>
+  </si>
+  <si>
+    <t>https://www.gop.it/people_view.php?id=126</t>
+  </si>
+  <si>
+    <t>Cirillo Elena</t>
+  </si>
+  <si>
+    <t>Counsel</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>Financial Markets</t>
+  </si>
+  <si>
+    <t>ecirillo@gop.it</t>
+  </si>
+  <si>
+    <t>442073971700</t>
+  </si>
+  <si>
+    <t>https://www.gop.it/people_view.php?id=1205</t>
+  </si>
+  <si>
+    <t>Andreani Giulio</t>
+  </si>
+  <si>
+    <t>gandreani@gop.it</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>john.doe@example.com</t>
-  </si>
-  <si>
-    <t>10001234567</t>
-  </si>
-  <si>
-    <t>Jane Smith</t>
-  </si>
-  <si>
-    <t>Counsel</t>
-  </si>
-  <si>
-    <t>Doe &amp; Co.</t>
-  </si>
-  <si>
-    <t>UK</t>
-  </si>
-  <si>
-    <t>jane.smith@smithllp.co.uk</t>
-  </si>
-  <si>
-    <t>4402079460958</t>
-  </si>
-  <si>
-    <t>-----</t>
-  </si>
-  <si>
-    <t>Carbto</t>
+    <t>https://almtlegal.com/mumbai-partner/</t>
   </si>
   <si>
     <t>smishra *****</t>
@@ -125,88 +161,424 @@
     <t>912240010000</t>
   </si>
   <si>
-    <t>dgabija *****</t>
-  </si>
-  <si>
-    <t>dgabija@almtlegal.com</t>
-  </si>
-  <si>
-    <t>ssrinivasan *****</t>
-  </si>
-  <si>
-    <t>ssrinivasan@almtlegal.com</t>
-  </si>
-  <si>
-    <t>sbhaskar *****</t>
-  </si>
-  <si>
-    <t>sbhaskar@almtlegal.com</t>
+    <t>https://www.ashurst.com/en/people/aaron-cole/</t>
+  </si>
+  <si>
+    <t>Aaron Cole</t>
+  </si>
+  <si>
+    <t>Ashurst</t>
+  </si>
+  <si>
+    <t>aaron.cole@ashurst.com</t>
+  </si>
+  <si>
+    <t>442078591302</t>
+  </si>
+  <si>
+    <t>https://www.ashurst.com/en/people/aaron-kam/</t>
+  </si>
+  <si>
+    <t>Aaron Kam</t>
+  </si>
+  <si>
+    <t>Senior Associate</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>aaron.kam@ashurst.com</t>
+  </si>
+  <si>
+    <t>61292586014</t>
+  </si>
+  <si>
+    <t>https://www.ashurst.com/en/people/adam-kidane/</t>
+  </si>
+  <si>
+    <t>Adam Kidane</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>adam.kidane@ashurst.com</t>
+  </si>
+  <si>
+    <t>3226419949</t>
+  </si>
+  <si>
+    <t>https://www.conyers.com/people/view/crystal-au-yeung/</t>
+  </si>
+  <si>
+    <t>Crystal Au-yeung</t>
+  </si>
+  <si>
+    <t>Conyers</t>
+  </si>
+  <si>
+    <t>crystal.au-yeung@conyers.com</t>
+  </si>
+  <si>
+    <t>85228429595</t>
+  </si>
+  <si>
+    <t>https://www.conyers.com/people/view/satjivan-aujla/</t>
+  </si>
+  <si>
+    <t>Satjivan S Aujla</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>satjivan.aujla@conyers.com</t>
+  </si>
+  <si>
+    <t>14412987887</t>
+  </si>
+  <si>
+    <t>https://www.conyers.com/people/view/clare-bradin/</t>
+  </si>
+  <si>
+    <t>Clare Bradin</t>
+  </si>
+  <si>
+    <t>the Cayman Islands</t>
+  </si>
+  <si>
+    <t>clare.bradin@conyers.com</t>
+  </si>
+  <si>
+    <t>13458147366</t>
+  </si>
+  <si>
+    <t>https://www.collascrill.com/people/team-members/kate-anderson/</t>
+  </si>
+  <si>
+    <t>Kate Anderson</t>
+  </si>
+  <si>
+    <t>Collas Crill</t>
+  </si>
+  <si>
+    <t>Jersey</t>
+  </si>
+  <si>
+    <t>kate.anderson@collascrill.com</t>
+  </si>
+  <si>
+    <t>441534601679</t>
+  </si>
+  <si>
+    <t>https://www.collascrill.com/people/team-members/kirsten-bailey/</t>
+  </si>
+  <si>
+    <t>Kirsten Bailey</t>
+  </si>
+  <si>
+    <t>kirsten.bailey@collascrill.com</t>
+  </si>
+  <si>
+    <t>13459149658</t>
+  </si>
+  <si>
+    <t>https://www.collascrill.com/people/team-members/annabel-bishop/</t>
+  </si>
+  <si>
+    <t>Annabel Bishop</t>
+  </si>
+  <si>
+    <t>the British Virgin Islands</t>
+  </si>
+  <si>
+    <t>annabel.bishop@collascrill.com</t>
+  </si>
+  <si>
+    <t>2848526332</t>
+  </si>
+  <si>
+    <t>https://byrnewallaceshields.com/about-us/our-team/aoife-bradley.html</t>
+  </si>
+  <si>
+    <t>Aoife Bradley</t>
+  </si>
+  <si>
+    <t>Byrne Wallace</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Employment Law</t>
+  </si>
+  <si>
+    <t>abradley@byrnewallaceshields.com</t>
+  </si>
+  <si>
+    <t>35316371583</t>
+  </si>
+  <si>
+    <t>https://www.campbellslegal.com/person/shaun-folpp/</t>
+  </si>
+  <si>
+    <t>Shaun Folpp</t>
+  </si>
+  <si>
+    <t>Campbells Legal</t>
+  </si>
+  <si>
+    <t>sfolpp@campbellslegal.com</t>
+  </si>
+  <si>
+    <t>85237083010</t>
+  </si>
+  <si>
+    <t>https://www.campbellslegal.com/person/grant-carroll/</t>
+  </si>
+  <si>
+    <t>Grant Carroll</t>
+  </si>
+  <si>
+    <t>gcarroll@campbellslegal.com</t>
+  </si>
+  <si>
+    <t>12848526160</t>
+  </si>
+  <si>
+    <t>https://www.campbellslegal.com/person/simon-thomas/</t>
+  </si>
+  <si>
+    <t>Simon Thomas</t>
+  </si>
+  <si>
+    <t>sthomas@campbellslegal.com</t>
+  </si>
+  <si>
+    <t>13459145843</t>
+  </si>
+  <si>
+    <t>https://www.tamimi.com/find-a-lawyer/ahmad-saleh/</t>
   </si>
   <si>
     <t>Ahmad Saleh</t>
   </si>
   <si>
-    <t>Partner, Head of Innovation, Patents &amp; Industrial Property</t>
-  </si>
-  <si>
     <t>Al Tamimi</t>
   </si>
   <si>
-    <t>------</t>
-  </si>
-  <si>
     <t>ah.saleh@tamimi.com</t>
   </si>
   <si>
     <t>918040160000</t>
   </si>
   <si>
-    <t>Ahmed Al Barwani</t>
-  </si>
-  <si>
-    <t>Partner, Head of Office - Oman</t>
-  </si>
-  <si>
-    <t>a.albarwani@tamimi.com</t>
-  </si>
-  <si>
-    <t>Ahmed Allouz</t>
-  </si>
-  <si>
-    <t>Partner, Regional Co-Head of Dispute Resolution</t>
-  </si>
-  <si>
-    <t>a.allouz@tamimi.com</t>
-  </si>
-  <si>
-    <t>Ahmed Jaafir</t>
-  </si>
-  <si>
-    <t>Partner, Head of Corporate Structuring - Qatar</t>
-  </si>
-  <si>
-    <t>a.jaafir@tamimi.com</t>
-  </si>
-  <si>
-    <t>Aisha Al Marzouqi</t>
-  </si>
-  <si>
-    <t>a.almarzouqi@tamimi.com</t>
-  </si>
-  <si>
-    <t>Malcolm Moller</t>
+    <t>https://arnontl.com/team/shimon-aviran/</t>
+  </si>
+  <si>
+    <t>Shimon Aviran</t>
+  </si>
+  <si>
+    <t>Aron Tadmor Levy</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>shimon.a@arnontl.com</t>
+  </si>
+  <si>
+    <t>972733386274</t>
+  </si>
+  <si>
+    <t>https://www.bkl.co.kr/law/member/memberView.do?lang=en&amp;memberNo=1250&amp;logFunction=goView</t>
+  </si>
+  <si>
+    <t>Junghwan Bae</t>
+  </si>
+  <si>
+    <t>Bae Kim And Lee</t>
+  </si>
+  <si>
+    <t>Korea (South)</t>
+  </si>
+  <si>
+    <t>junghwan.bae@bkl.co.kr</t>
+  </si>
+  <si>
+    <t>82234040662</t>
+  </si>
+  <si>
+    <t>https://www.applebyglobal.com/people/richard-sheldon/</t>
+  </si>
+  <si>
+    <t>Richard Sheldon</t>
   </si>
   <si>
     <t>Appleby Global</t>
   </si>
   <si>
-    <t>Mauritius</t>
-  </si>
-  <si>
-    <t>mmoller@applebyglobal.com?subject=website%20enquiry</t>
-  </si>
-  <si>
-    <t>2302034301</t>
+    <t>Guernsey</t>
+  </si>
+  <si>
+    <t>rsheldon@applebyglobal.com</t>
+  </si>
+  <si>
+    <t>441481755904</t>
+  </si>
+  <si>
+    <t>https://www.applebyglobal.com/people/john-bisson/</t>
+  </si>
+  <si>
+    <t>John Bisson</t>
+  </si>
+  <si>
+    <t>jbisson@applebyglobal.com</t>
+  </si>
+  <si>
+    <t>441534818024</t>
+  </si>
+  <si>
+    <t>https://www.applebyglobal.com/people/duncan-card/</t>
+  </si>
+  <si>
+    <t>Duncan Card</t>
+  </si>
+  <si>
+    <t>dcard@applebyglobal.com</t>
+  </si>
+  <si>
+    <t>14412983270</t>
+  </si>
+  <si>
+    <t>https://foyen.no/en/people/annabel-gasvand/</t>
+  </si>
+  <si>
+    <t>Annabel Gåsvand</t>
+  </si>
+  <si>
+    <t>Foyen</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>annabel.gasvand@foyen.no</t>
+  </si>
+  <si>
+    <t>4792423174</t>
+  </si>
+  <si>
+    <t>https://www.deacons.com/profile/karen-chan/</t>
+  </si>
+  <si>
+    <t>Karen Chan</t>
+  </si>
+  <si>
+    <t>Deacons</t>
+  </si>
+  <si>
+    <t>Property</t>
+  </si>
+  <si>
+    <t>karen.chan@deacons.com</t>
+  </si>
+  <si>
+    <t>85228259553</t>
+  </si>
+  <si>
+    <t>https://www.dilloneustace.com/people/audrey-burke/</t>
+  </si>
+  <si>
+    <t>Audrey Burke</t>
+  </si>
+  <si>
+    <t>Dillon Eustace</t>
+  </si>
+  <si>
+    <t>Litigation and Dispute Resolution</t>
+  </si>
+  <si>
+    <t>audrey.burke@dilloneustace.ie</t>
+  </si>
+  <si>
+    <t>35316731816</t>
+  </si>
+  <si>
+    <t>https://www.dilloneustace.com/people/niall-dodd/</t>
+  </si>
+  <si>
+    <t>Niall Dodd</t>
+  </si>
+  <si>
+    <t>Commercial Litigation and Dispute Resolution (Cayman)</t>
+  </si>
+  <si>
+    <t>niall.dodd@dilloneustace.ie</t>
+  </si>
+  <si>
+    <t>13458144055</t>
+  </si>
+  <si>
+    <t>https://www.belex.com/en/professional/franco-agopyan/</t>
+  </si>
+  <si>
+    <t>Franco Agopyan</t>
+  </si>
+  <si>
+    <t>BonelliErede</t>
+  </si>
+  <si>
+    <t>Corporate</t>
+  </si>
+  <si>
+    <t>franco.agopyan@belex.com</t>
+  </si>
+  <si>
+    <t>3902771131</t>
+  </si>
+  <si>
+    <t>https://www.careyolsen.com/people/alexander-collis</t>
+  </si>
+  <si>
+    <t>Alexander Collis</t>
+  </si>
+  <si>
+    <t>Carey Olsen</t>
+  </si>
+  <si>
+    <t>alexander.collis@careyolsen.com</t>
+  </si>
+  <si>
+    <t>14415424284</t>
+  </si>
+  <si>
+    <t>https://www.careyolsen.com/people/matthew-ecobichon</t>
+  </si>
+  <si>
+    <t>Matthew Ecobichon</t>
+  </si>
+  <si>
+    <t>matthew.ecobichon@careyolsen.com</t>
+  </si>
+  <si>
+    <t>4401534822299</t>
+  </si>
+  <si>
+    <t>https://www.careyolsen.com/people/jarrod-farley</t>
+  </si>
+  <si>
+    <t>Jarrod Farley</t>
+  </si>
+  <si>
+    <t>jarrod.farley@careyolsen.com</t>
+  </si>
+  <si>
+    <t>13457492004</t>
+  </si>
+  <si>
+    <t>https://www.anandandanand.com/attorney/vidisha-garg/</t>
   </si>
   <si>
     <t>Vidisha Garg</t>
@@ -221,124 +593,124 @@
     <t>911204059300</t>
   </si>
   <si>
+    <t>https://www.cfnlaw.com.hk/en/team-single.php?conid=278&amp;id=4</t>
+  </si>
+  <si>
+    <t>Patrick Wong</t>
+  </si>
+  <si>
+    <t>CFN Law</t>
+  </si>
+  <si>
+    <t>patrick.wong@cfnlaw.com.hk</t>
+  </si>
+  <si>
+    <t>85235830263</t>
+  </si>
+  <si>
+    <t>https://consortiumlegal.com/en/people/alejandra-fuentes/</t>
+  </si>
+  <si>
+    <t>Alejandra Fuentes-pieruccini</t>
+  </si>
+  <si>
+    <t>Consortium Legal</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>afuentespieruccini@consortiumlegal.com</t>
+  </si>
+  <si>
+    <t>https://consortiumlegal.com/en/people/maria-lizeth-prado/</t>
+  </si>
+  <si>
+    <t>María Lizeth Prado</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>mprado@consortiumlegal.com</t>
+  </si>
+  <si>
+    <t>https://consortiumlegal.com/en/people/armando-manzanares/</t>
+  </si>
+  <si>
+    <t>Armando Manzanares</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>amanzanares@consortiumlegal.com</t>
+  </si>
+  <si>
+    <t>https://bnt.eu/attorneys/johannes-egelhof/</t>
+  </si>
+  <si>
+    <t>Johannes Egelhof</t>
+  </si>
+  <si>
+    <t>BNT</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>johannes.egelhof@bnt.eu</t>
+  </si>
+  <si>
+    <t>49911569610</t>
+  </si>
+  <si>
+    <t>https://bnt.eu/attorneys/kamila-koscierzynska/</t>
+  </si>
+  <si>
+    <t>Kamila Kościerzyńska Ll M</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>kamila.koscierzynska@bnt.eu</t>
+  </si>
+  <si>
+    <t>48583404385</t>
+  </si>
+  <si>
+    <t>https://bnt.eu/attorneys/ovidiu-valeanu/</t>
+  </si>
+  <si>
+    <t>Ovidiu Văleanu</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>ovidiu.valeanu@bnt.eu</t>
+  </si>
+  <si>
+    <t>40723239347</t>
+  </si>
+  <si>
+    <t>https://www.arnoldporter.com/en/people/a/abreo-eleri-f</t>
+  </si>
+  <si>
     <t>Eleri F Abreo (williams)</t>
   </si>
   <si>
-    <t>Senior Associate</t>
-  </si>
-  <si>
     <t>Arnold And Porter</t>
   </si>
   <si>
     <t>eleri.abreo@arnoldporter.com</t>
   </si>
   <si>
-    <t>England</t>
-  </si>
-  <si>
     <t>4402077866195</t>
   </si>
   <si>
-    <t>Shimon Aviran</t>
-  </si>
-  <si>
-    <t>Aron Tadmor Levy</t>
-  </si>
-  <si>
-    <t>Israel</t>
-  </si>
-  <si>
-    <t>shimon.a@arnontl.com</t>
-  </si>
-  <si>
-    <t>972733386274</t>
-  </si>
-  <si>
-    <t>Aaron Cole</t>
-  </si>
-  <si>
-    <t>Ashurst</t>
-  </si>
-  <si>
-    <t>aaron.cole@ashurst.com</t>
-  </si>
-  <si>
-    <t>442078591302</t>
-  </si>
-  <si>
-    <t>Junghwan Bae</t>
-  </si>
-  <si>
-    <t>Bae Kim And Lee</t>
-  </si>
-  <si>
-    <t>Korea (South)</t>
-  </si>
-  <si>
-    <t>junghwan.bae@bkl.co.kr</t>
-  </si>
-  <si>
-    <t>82234040662</t>
-  </si>
-  <si>
-    <t>Richard Sheldon</t>
-  </si>
-  <si>
-    <t>Guernsey</t>
-  </si>
-  <si>
-    <t>rsheldon@applebyglobal.com</t>
-  </si>
-  <si>
-    <t>441481755904</t>
-  </si>
-  <si>
-    <t>John Bisson</t>
-  </si>
-  <si>
-    <t>Jersey</t>
-  </si>
-  <si>
-    <t>jbisson@applebyglobal.com</t>
-  </si>
-  <si>
-    <t>441534818024</t>
-  </si>
-  <si>
-    <t>Duncan Card</t>
-  </si>
-  <si>
-    <t>Bermuda</t>
-  </si>
-  <si>
-    <t>dcard@applebyglobal.com</t>
-  </si>
-  <si>
-    <t>14412983270</t>
-  </si>
-  <si>
-    <t>Aaron Kam</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>aaron.kam@ashurst.com</t>
-  </si>
-  <si>
-    <t>61292586014</t>
-  </si>
-  <si>
-    <t>Adam Kidane</t>
-  </si>
-  <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t>adam.kidane@ashurst.com</t>
-  </si>
-  <si>
-    <t>3226419949</t>
+    <t>https://www.arnoldporter.com/en/people/c/chen-andrew-shaoyu</t>
   </si>
   <si>
     <t>Andrew Shaoyu Chen</t>
@@ -353,6 +725,9 @@
     <t>8602122083650</t>
   </si>
   <si>
+    <t>https://www.arnoldporter.com/en/people/g/gyselen-luc</t>
+  </si>
+  <si>
     <t>Luc Gyselen</t>
   </si>
   <si>
@@ -362,133 +737,85 @@
     <t>32022907831</t>
   </si>
   <si>
-    <t>Johannes Egelhof</t>
-  </si>
-  <si>
-    <t>BNT</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>johannes.egelhof@bnt.eu</t>
-  </si>
-  <si>
-    <t>49911569610</t>
-  </si>
-  <si>
-    <t>Kamila Kościerzyńska Ll M</t>
-  </si>
-  <si>
-    <t>Poland</t>
-  </si>
-  <si>
-    <t>kamila.koscierzynska@bnt.eu</t>
-  </si>
-  <si>
-    <t>48583404385</t>
-  </si>
-  <si>
-    <t>Ovidiu Văleanu</t>
-  </si>
-  <si>
-    <t>Romania</t>
-  </si>
-  <si>
-    <t>ovidiu.valeanu@bnt.eu</t>
-  </si>
-  <si>
-    <t>40723239347</t>
-  </si>
-  <si>
-    <t>Grzegorz Wąsiewski</t>
-  </si>
-  <si>
-    <t>grzegorz.wasiewski@bnt.eu</t>
-  </si>
-  <si>
-    <t>48222793100</t>
-  </si>
-  <si>
-    <t>Radu Gilescu</t>
-  </si>
-  <si>
-    <t>radu.gilescu@bnt.eu</t>
-  </si>
-  <si>
-    <t>40722283644</t>
-  </si>
-  <si>
-    <t>Daniel Gößling</t>
-  </si>
-  <si>
-    <t>Bulgaria, Germany, Poland</t>
-  </si>
-  <si>
-    <t>daniel.goessling@bnt.eu</t>
-  </si>
-  <si>
-    <t>Maciej Prusak</t>
-  </si>
-  <si>
-    <t>maciej.prusak@bnt.eu</t>
-  </si>
-  <si>
-    <t>Adela Raluca Fara - Trion</t>
-  </si>
-  <si>
-    <t>adela.fara@bnt.eu</t>
-  </si>
-  <si>
-    <t>40356007033</t>
-  </si>
-  <si>
-    <t>Zuzana Chudáčková</t>
-  </si>
-  <si>
-    <t>Slovakia</t>
-  </si>
-  <si>
-    <t>zuzana.chudackova@bnt.eu</t>
-  </si>
-  <si>
-    <t>421233104733</t>
-  </si>
-  <si>
-    <t>Franco Agopyan</t>
-  </si>
-  <si>
-    <t>BonelliErede</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>franco.agopyan@belex.com</t>
-  </si>
-  <si>
-    <t>3902771131</t>
-  </si>
-  <si>
-    <t>Angelo Bonetta</t>
-  </si>
-  <si>
-    <t>angelo.bonetta@belex.com</t>
-  </si>
-  <si>
-    <t>Aoife Bradley</t>
-  </si>
-  <si>
-    <t>Byrne Wallace</t>
-  </si>
-  <si>
-    <t>Ireland</t>
-  </si>
-  <si>
-    <t>abradley@byrnewallaceshields.com</t>
-  </si>
-  <si>
-    <t>35316371583</t>
+    <t>https://clemenslaw.dk/en/medarbejdere/kim-nielsen/</t>
+  </si>
+  <si>
+    <t>Kim Nielsen</t>
+  </si>
+  <si>
+    <t>Clemens Law</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>kn@clemenslaw.com</t>
+  </si>
+  <si>
+    <t>4520254014</t>
+  </si>
+  <si>
+    <t>https://www.dechert.com/content/dechert/en/people/d/eric-deltour.html</t>
+  </si>
+  <si>
+    <t>Eric Deltour</t>
+  </si>
+  <si>
+    <t>Dechert LLP</t>
+  </si>
+  <si>
+    <t>CORPORATE</t>
+  </si>
+  <si>
+    <t>eric.deltour@dechert.com</t>
+  </si>
+  <si>
+    <t>3225355418</t>
+  </si>
+  <si>
+    <t>https://www.dechert.com/content/dechert/en/people/p/federico-pappalardo.html</t>
+  </si>
+  <si>
+    <t>Federico G Pappalardo</t>
+  </si>
+  <si>
+    <t>federico.pappalardo@dechert.com</t>
+  </si>
+  <si>
+    <t>498921216311</t>
+  </si>
+  <si>
+    <t>https://www.dechert.com/content/dechert/en/people/b/olivia-bernardeau-paupe.html</t>
+  </si>
+  <si>
+    <t>Olivia Bernardeau-paupe</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>INTELLECTUAL PROPERTY</t>
+  </si>
+  <si>
+    <t>olivia.bernardeaupaupe@dechert.com</t>
+  </si>
+  <si>
+    <t>33157578043</t>
+  </si>
+  <si>
+    <t>https://www.dahllaw.dk/en/people/christoffer-belmann-mirasola/</t>
+  </si>
+  <si>
+    <t>Christoffer Belmann Mirasola</t>
+  </si>
+  <si>
+    <t>Dahl Law</t>
+  </si>
+  <si>
+    <t>cbm@dahllaw.dk</t>
+  </si>
+  <si>
+    <t>4523350084</t>
   </si>
 </sst>
 </file>
@@ -921,72 +1248,1412 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A350BCBC-CDDB-414C-9A72-BE6A09964F3F}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" customWidth="true" style="1" width="27.6640625"/>
-    <col min="4" max="4" customWidth="true" style="5" width="16.109375"/>
-    <col min="5" max="5" customWidth="true" style="5" width="17.88671875"/>
-    <col min="6" max="6" customWidth="true" style="5" width="19.88671875"/>
-    <col min="7" max="7" customWidth="true" style="5" width="23.109375"/>
-    <col min="8" max="8" customWidth="true" style="5" width="19.0"/>
+    <col min="1" max="4" customWidth="true" style="1" width="27.6640625"/>
+    <col min="5" max="5" customWidth="true" style="5" width="16.109375"/>
+    <col min="6" max="6" customWidth="true" style="5" width="17.88671875"/>
+    <col min="7" max="7" customWidth="true" style="5" width="19.88671875"/>
+    <col min="8" max="8" customWidth="true" style="5" width="23.109375"/>
+    <col min="9" max="9" customWidth="true" style="5" width="19.0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="1">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s" s="5">
+        <v>33</v>
+      </c>
+      <c r="I2" t="s" s="5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s" s="5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s" s="5">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s" s="5">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s" s="5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="1">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s" s="1">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s" s="1">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s" s="1">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s" s="5">
+        <v>38</v>
+      </c>
+      <c r="F5" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s" s="5">
+        <v>39</v>
+      </c>
+      <c r="I5" t="s" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="1">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s" s="1">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s" s="5">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s" s="5">
+        <v>44</v>
+      </c>
+      <c r="I6" t="s" s="5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s" s="1">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="D7" t="s" s="1">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s" s="5">
+        <v>49</v>
+      </c>
+      <c r="F7" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s" s="5">
+        <v>50</v>
+      </c>
+      <c r="I7" t="s" s="5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="D8" t="s" s="1">
+        <v>43</v>
+      </c>
+      <c r="E8" t="s" s="5">
+        <v>54</v>
+      </c>
+      <c r="F8" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s" s="5">
+        <v>55</v>
+      </c>
+      <c r="I8" t="s" s="5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="B9" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="C9" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="E9" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s" s="5">
+        <v>60</v>
+      </c>
+      <c r="I9" t="s" s="5">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="B10" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="C10" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="E10" t="s" s="5">
+        <v>64</v>
+      </c>
+      <c r="F10" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s" s="5">
+        <v>65</v>
+      </c>
+      <c r="I10" t="s" s="5">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="B11" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="C11" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="E11" t="s" s="5">
+        <v>69</v>
+      </c>
+      <c r="F11" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s" s="5">
+        <v>70</v>
+      </c>
+      <c r="I11" t="s" s="5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="B12" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="C12" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="E12" t="s" s="5">
+        <v>75</v>
+      </c>
+      <c r="F12" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s" s="5">
+        <v>76</v>
+      </c>
+      <c r="I12" t="s" s="5">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="1">
+        <v>78</v>
+      </c>
+      <c r="B13" t="s" s="1">
+        <v>79</v>
+      </c>
+      <c r="C13" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="D13" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="E13" t="s" s="5">
+        <v>69</v>
+      </c>
+      <c r="F13" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H13" t="s" s="5">
+        <v>80</v>
+      </c>
+      <c r="I13" t="s" s="5">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="1">
+        <v>82</v>
+      </c>
+      <c r="B14" t="s" s="1">
+        <v>83</v>
+      </c>
+      <c r="C14" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="D14" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="E14" t="s" s="5">
+        <v>84</v>
+      </c>
+      <c r="F14" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s" s="5">
+        <v>85</v>
+      </c>
+      <c r="I14" t="s" s="5">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="1">
+        <v>87</v>
+      </c>
+      <c r="B15" t="s" s="1">
+        <v>88</v>
+      </c>
+      <c r="C15" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s" s="1">
+        <v>89</v>
+      </c>
+      <c r="E15" t="s" s="5">
+        <v>90</v>
+      </c>
+      <c r="F15" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s" s="5">
+        <v>91</v>
+      </c>
+      <c r="H15" t="s" s="5">
+        <v>92</v>
+      </c>
+      <c r="I15" t="s" s="5">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="1">
+        <v>94</v>
+      </c>
+      <c r="B16" t="s" s="1">
+        <v>95</v>
+      </c>
+      <c r="C16" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s" s="1">
+        <v>96</v>
+      </c>
+      <c r="E16" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="F16" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G16" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H16" t="s" s="5">
+        <v>97</v>
+      </c>
+      <c r="I16" t="s" s="5">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="1">
+        <v>99</v>
+      </c>
+      <c r="B17" t="s" s="1">
+        <v>100</v>
+      </c>
+      <c r="C17" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s" s="1">
+        <v>96</v>
+      </c>
+      <c r="E17" t="s" s="5">
+        <v>84</v>
+      </c>
+      <c r="F17" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H17" t="s" s="5">
+        <v>101</v>
+      </c>
+      <c r="I17" t="s" s="5">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="1">
+        <v>103</v>
+      </c>
+      <c r="B18" t="s" s="1">
+        <v>104</v>
+      </c>
+      <c r="C18" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s" s="1">
+        <v>96</v>
+      </c>
+      <c r="E18" t="s" s="5">
+        <v>69</v>
+      </c>
+      <c r="F18" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G18" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H18" t="s" s="5">
+        <v>105</v>
+      </c>
+      <c r="I18" t="s" s="5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="1">
+        <v>107</v>
+      </c>
+      <c r="B19" t="s" s="1">
+        <v>108</v>
+      </c>
+      <c r="C19" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s" s="1">
+        <v>109</v>
+      </c>
+      <c r="E19" t="s" s="5">
+        <v>34</v>
+      </c>
+      <c r="F19" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G19" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H19" t="s" s="5">
+        <v>110</v>
+      </c>
+      <c r="I19" t="s" s="5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="1">
+        <v>112</v>
+      </c>
+      <c r="B20" t="s" s="1">
+        <v>113</v>
+      </c>
+      <c r="C20" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s" s="1">
+        <v>114</v>
+      </c>
+      <c r="E20" t="s" s="5">
+        <v>115</v>
+      </c>
+      <c r="F20" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G20" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s" s="5">
+        <v>116</v>
+      </c>
+      <c r="I20" t="s" s="5">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="1">
+        <v>118</v>
+      </c>
+      <c r="B21" t="s" s="1">
+        <v>119</v>
+      </c>
+      <c r="C21" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s" s="1">
+        <v>120</v>
+      </c>
+      <c r="E21" t="s" s="5">
+        <v>121</v>
+      </c>
+      <c r="F21" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G21" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H21" t="s" s="5">
+        <v>122</v>
+      </c>
+      <c r="I21" t="s" s="5">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="1">
+        <v>124</v>
+      </c>
+      <c r="B22" t="s" s="1">
+        <v>125</v>
+      </c>
+      <c r="C22" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s" s="1">
+        <v>126</v>
+      </c>
+      <c r="E22" t="s" s="5">
+        <v>127</v>
+      </c>
+      <c r="F22" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G22" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H22" t="s" s="5">
+        <v>128</v>
+      </c>
+      <c r="I22" t="s" s="5">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="1">
+        <v>130</v>
+      </c>
+      <c r="B23" t="s" s="1">
+        <v>131</v>
+      </c>
+      <c r="C23" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s" s="1">
+        <v>126</v>
+      </c>
+      <c r="E23" t="s" s="5">
+        <v>75</v>
+      </c>
+      <c r="F23" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G23" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H23" t="s" s="5">
+        <v>132</v>
+      </c>
+      <c r="I23" t="s" s="5">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="1">
+        <v>134</v>
+      </c>
+      <c r="B24" t="s" s="1">
+        <v>135</v>
+      </c>
+      <c r="C24" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s" s="1">
+        <v>126</v>
+      </c>
+      <c r="E24" t="s" s="5">
+        <v>64</v>
+      </c>
+      <c r="F24" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G24" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H24" t="s" s="5">
+        <v>136</v>
+      </c>
+      <c r="I24" t="s" s="5">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="1">
+        <v>138</v>
+      </c>
+      <c r="B25" t="s" s="1">
+        <v>139</v>
+      </c>
+      <c r="C25" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="D25" t="s" s="1">
+        <v>140</v>
+      </c>
+      <c r="E25" t="s" s="5">
+        <v>141</v>
+      </c>
+      <c r="F25" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G25" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H25" t="s" s="5">
+        <v>142</v>
+      </c>
+      <c r="I25" t="s" s="5">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="1">
+        <v>144</v>
+      </c>
+      <c r="B26" t="s" s="1">
+        <v>145</v>
+      </c>
+      <c r="C26" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s" s="1">
         <v>146</v>
       </c>
-      <c r="B2" t="s" s="1">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s" s="1">
+      <c r="E26" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="F26" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G26" t="s" s="5">
         <v>147</v>
       </c>
-      <c r="D2" t="s" s="5">
+      <c r="H26" t="s" s="5">
         <v>148</v>
       </c>
-      <c r="E2" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s" s="5">
+      <c r="I26" t="s" s="5">
         <v>149</v>
       </c>
-      <c r="H2" t="s" s="5">
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="1">
         <v>150</v>
+      </c>
+      <c r="B27" t="s" s="1">
+        <v>151</v>
+      </c>
+      <c r="C27" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="D27" t="s" s="1">
+        <v>152</v>
+      </c>
+      <c r="E27" t="s" s="5">
+        <v>90</v>
+      </c>
+      <c r="F27" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G27" t="s" s="5">
+        <v>153</v>
+      </c>
+      <c r="H27" t="s" s="5">
+        <v>154</v>
+      </c>
+      <c r="I27" t="s" s="5">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="1">
+        <v>156</v>
+      </c>
+      <c r="B28" t="s" s="1">
+        <v>157</v>
+      </c>
+      <c r="C28" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s" s="1">
+        <v>152</v>
+      </c>
+      <c r="E28" t="s" s="5">
+        <v>69</v>
+      </c>
+      <c r="F28" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G28" t="s" s="5">
+        <v>158</v>
+      </c>
+      <c r="H28" t="s" s="5">
+        <v>159</v>
+      </c>
+      <c r="I28" t="s" s="5">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="1">
+        <v>161</v>
+      </c>
+      <c r="B29" t="s" s="1">
+        <v>162</v>
+      </c>
+      <c r="C29" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="D29" t="s" s="1">
+        <v>163</v>
+      </c>
+      <c r="E29" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="F29" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G29" t="s" s="5">
+        <v>164</v>
+      </c>
+      <c r="H29" t="s" s="5">
+        <v>165</v>
+      </c>
+      <c r="I29" t="s" s="5">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="1">
+        <v>167</v>
+      </c>
+      <c r="B30" t="s" s="1">
+        <v>168</v>
+      </c>
+      <c r="C30" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s" s="1">
+        <v>169</v>
+      </c>
+      <c r="E30" t="s" s="5">
+        <v>64</v>
+      </c>
+      <c r="F30" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G30" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H30" t="s" s="5">
+        <v>170</v>
+      </c>
+      <c r="I30" t="s" s="5">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="1">
+        <v>172</v>
+      </c>
+      <c r="B31" t="s" s="1">
+        <v>173</v>
+      </c>
+      <c r="C31" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s" s="1">
+        <v>169</v>
+      </c>
+      <c r="E31" t="s" s="5">
+        <v>75</v>
+      </c>
+      <c r="F31" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G31" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H31" t="s" s="5">
+        <v>174</v>
+      </c>
+      <c r="I31" t="s" s="5">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="1">
+        <v>176</v>
+      </c>
+      <c r="B32" t="s" s="1">
+        <v>177</v>
+      </c>
+      <c r="C32" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s" s="1">
+        <v>169</v>
+      </c>
+      <c r="E32" t="s" s="5">
+        <v>69</v>
+      </c>
+      <c r="F32" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G32" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H32" t="s" s="5">
+        <v>178</v>
+      </c>
+      <c r="I32" t="s" s="5">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="1">
+        <v>180</v>
+      </c>
+      <c r="B33" t="s" s="1">
+        <v>181</v>
+      </c>
+      <c r="C33" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s" s="1">
+        <v>182</v>
+      </c>
+      <c r="E33" t="s" s="5">
+        <v>38</v>
+      </c>
+      <c r="F33" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G33" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H33" t="s" s="5">
+        <v>183</v>
+      </c>
+      <c r="I33" t="s" s="5">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="1">
+        <v>185</v>
+      </c>
+      <c r="B34" t="s" s="1">
+        <v>186</v>
+      </c>
+      <c r="C34" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s" s="1">
+        <v>187</v>
+      </c>
+      <c r="E34" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="F34" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G34" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H34" t="s" s="5">
+        <v>188</v>
+      </c>
+      <c r="I34" t="s" s="5">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="1">
+        <v>190</v>
+      </c>
+      <c r="B35" t="s" s="1">
+        <v>191</v>
+      </c>
+      <c r="C35" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="D35" t="s" s="1">
+        <v>192</v>
+      </c>
+      <c r="E35" t="s" s="5">
+        <v>193</v>
+      </c>
+      <c r="F35" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G35" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H35" t="s" s="5">
+        <v>194</v>
+      </c>
+      <c r="I35" t="s" s="5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="1">
+        <v>195</v>
+      </c>
+      <c r="B36" t="s" s="1">
+        <v>196</v>
+      </c>
+      <c r="C36" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="D36" t="s" s="1">
+        <v>192</v>
+      </c>
+      <c r="E36" t="s" s="5">
+        <v>197</v>
+      </c>
+      <c r="F36" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G36" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H36" t="s" s="5">
+        <v>198</v>
+      </c>
+      <c r="I36" t="s" s="5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="1">
+        <v>199</v>
+      </c>
+      <c r="B37" t="s" s="1">
+        <v>200</v>
+      </c>
+      <c r="C37" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s" s="1">
+        <v>192</v>
+      </c>
+      <c r="E37" t="s" s="5">
+        <v>201</v>
+      </c>
+      <c r="F37" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G37" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H37" t="s" s="5">
+        <v>202</v>
+      </c>
+      <c r="I37" t="s" s="5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="1">
+        <v>203</v>
+      </c>
+      <c r="B38" t="s" s="1">
+        <v>204</v>
+      </c>
+      <c r="C38" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s" s="1">
+        <v>205</v>
+      </c>
+      <c r="E38" t="s" s="5">
+        <v>206</v>
+      </c>
+      <c r="F38" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G38" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H38" t="s" s="5">
+        <v>207</v>
+      </c>
+      <c r="I38" t="s" s="5">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="1">
+        <v>209</v>
+      </c>
+      <c r="B39" t="s" s="1">
+        <v>210</v>
+      </c>
+      <c r="C39" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s" s="1">
+        <v>205</v>
+      </c>
+      <c r="E39" t="s" s="5">
+        <v>211</v>
+      </c>
+      <c r="F39" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G39" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H39" t="s" s="5">
+        <v>212</v>
+      </c>
+      <c r="I39" t="s" s="5">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="1">
+        <v>214</v>
+      </c>
+      <c r="B40" t="s" s="1">
+        <v>215</v>
+      </c>
+      <c r="C40" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s" s="1">
+        <v>205</v>
+      </c>
+      <c r="E40" t="s" s="5">
+        <v>216</v>
+      </c>
+      <c r="F40" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G40" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H40" t="s" s="5">
+        <v>217</v>
+      </c>
+      <c r="I40" t="s" s="5">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="1">
+        <v>219</v>
+      </c>
+      <c r="B41" t="s" s="1">
+        <v>220</v>
+      </c>
+      <c r="C41" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="D41" t="s" s="1">
+        <v>221</v>
+      </c>
+      <c r="E41" t="s" s="5">
+        <v>27</v>
+      </c>
+      <c r="F41" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G41" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H41" t="s" s="5">
+        <v>222</v>
+      </c>
+      <c r="I41" t="s" s="5">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="1">
+        <v>224</v>
+      </c>
+      <c r="B42" t="s" s="1">
+        <v>225</v>
+      </c>
+      <c r="C42" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="D42" t="s" s="1">
+        <v>221</v>
+      </c>
+      <c r="E42" t="s" s="5">
+        <v>226</v>
+      </c>
+      <c r="F42" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G42" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H42" t="s" s="5">
+        <v>227</v>
+      </c>
+      <c r="I42" t="s" s="5">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="1">
+        <v>229</v>
+      </c>
+      <c r="B43" t="s" s="1">
+        <v>230</v>
+      </c>
+      <c r="C43" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="D43" t="s" s="1">
+        <v>221</v>
+      </c>
+      <c r="E43" t="s" s="5">
+        <v>54</v>
+      </c>
+      <c r="F43" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G43" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H43" t="s" s="5">
+        <v>231</v>
+      </c>
+      <c r="I43" t="s" s="5">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="1">
+        <v>233</v>
+      </c>
+      <c r="B44" t="s" s="1">
+        <v>234</v>
+      </c>
+      <c r="C44" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s" s="1">
+        <v>235</v>
+      </c>
+      <c r="E44" t="s" s="5">
+        <v>236</v>
+      </c>
+      <c r="F44" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G44" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H44" t="s" s="5">
+        <v>237</v>
+      </c>
+      <c r="I44" t="s" s="5">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="1">
+        <v>239</v>
+      </c>
+      <c r="B45" t="s" s="1">
+        <v>240</v>
+      </c>
+      <c r="C45" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="D45" t="s" s="1">
+        <v>241</v>
+      </c>
+      <c r="E45" t="s" s="5">
+        <v>54</v>
+      </c>
+      <c r="F45" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G45" t="s" s="5">
+        <v>242</v>
+      </c>
+      <c r="H45" t="s" s="5">
+        <v>243</v>
+      </c>
+      <c r="I45" t="s" s="5">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="1">
+        <v>245</v>
+      </c>
+      <c r="B46" t="s" s="1">
+        <v>246</v>
+      </c>
+      <c r="C46" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s" s="1">
+        <v>241</v>
+      </c>
+      <c r="E46" t="s" s="5">
+        <v>206</v>
+      </c>
+      <c r="F46" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G46" t="s" s="5">
+        <v>242</v>
+      </c>
+      <c r="H46" t="s" s="5">
+        <v>247</v>
+      </c>
+      <c r="I46" t="s" s="5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="1">
+        <v>249</v>
+      </c>
+      <c r="B47" t="s" s="1">
+        <v>250</v>
+      </c>
+      <c r="C47" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s" s="1">
+        <v>241</v>
+      </c>
+      <c r="E47" t="s" s="5">
+        <v>251</v>
+      </c>
+      <c r="F47" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G47" t="s" s="5">
+        <v>252</v>
+      </c>
+      <c r="H47" t="s" s="5">
+        <v>253</v>
+      </c>
+      <c r="I47" t="s" s="5">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="1">
+        <v>255</v>
+      </c>
+      <c r="B48" t="s" s="1">
+        <v>256</v>
+      </c>
+      <c r="C48" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s" s="1">
+        <v>257</v>
+      </c>
+      <c r="E48" t="s" s="5">
+        <v>236</v>
+      </c>
+      <c r="F48" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G48" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H48" t="s" s="5">
+        <v>258</v>
+      </c>
+      <c r="I48" t="s" s="5">
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/baseFiles/excel/Sheet.xlsx
+++ b/src/main/resources/baseFiles/excel/Sheet.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1800" uniqueCount="951">
   <si>
     <t>Firm</t>
   </si>
@@ -1515,6 +1515,1380 @@
   </si>
   <si>
     <t>810345102219</t>
+  </si>
+  <si>
+    <t>https://www.hankunlaw.com/en/portal/article/index/cid/2/id/14715.html</t>
+  </si>
+  <si>
+    <t>Bang (steve) Lin</t>
+  </si>
+  <si>
+    <t>Hakun Law</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>steve.lin@hankunlaw.com</t>
+  </si>
+  <si>
+    <t>861085245826</t>
+  </si>
+  <si>
+    <t>https://www.hankunlaw.com/en/portal/article/index/cid/2/id/12332.html</t>
+  </si>
+  <si>
+    <t>Chunzi Wang</t>
+  </si>
+  <si>
+    <t>chunzi.wang@hankunlaw.com</t>
+  </si>
+  <si>
+    <t>862160800224</t>
+  </si>
+  <si>
+    <t>https://www.hannessnellman.com/people/josefina-aalto/</t>
+  </si>
+  <si>
+    <t>Josefina Aalto</t>
+  </si>
+  <si>
+    <t>Hannes Snellman</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>josefina.aalto@hannessnellman.com</t>
+  </si>
+  <si>
+    <t>358505057427</t>
+  </si>
+  <si>
+    <t>https://www.hannessnellman.com/people/maria-aholainen/</t>
+  </si>
+  <si>
+    <t>Maria Aholainen</t>
+  </si>
+  <si>
+    <t>maria.aholainen@hannessnellman.com</t>
+  </si>
+  <si>
+    <t>358407755010</t>
+  </si>
+  <si>
+    <t>https://www.havelpartners.com/team/ivan-rames/</t>
+  </si>
+  <si>
+    <t>Ivan Rámeš</t>
+  </si>
+  <si>
+    <t>Havel Partners</t>
+  </si>
+  <si>
+    <t>the Czech Republic</t>
+  </si>
+  <si>
+    <t>ivan.rames@havelpartners.cz</t>
+  </si>
+  <si>
+    <t>https://www.havelpartners.com/team/lukas-syrovy/</t>
+  </si>
+  <si>
+    <t>Lukáš Syrový</t>
+  </si>
+  <si>
+    <t>lukas.syrovy@havelpartners.cz</t>
+  </si>
+  <si>
+    <t>https://www.hfw.com/people/anas-al-tarawneh/</t>
+  </si>
+  <si>
+    <t>Anas Al-tarawneh</t>
+  </si>
+  <si>
+    <t>HFW</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>anas.altarawneh@hfw.com</t>
+  </si>
+  <si>
+    <t>97144230556</t>
+  </si>
+  <si>
+    <t>https://www.hfw.com/people/sammy-beedan/</t>
+  </si>
+  <si>
+    <t>Sammy Beedan Registered Foreign Lawyer</t>
+  </si>
+  <si>
+    <t>hong-kong</t>
+  </si>
+  <si>
+    <t>sammy.beedan@hfw.com</t>
+  </si>
+  <si>
+    <t>85239837707</t>
+  </si>
+  <si>
+    <t>https://www.hfw.com/people/simon-billing/</t>
+  </si>
+  <si>
+    <t>Simon Billing</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>simon.billing@hfw.com</t>
+  </si>
+  <si>
+    <t>610894224716</t>
+  </si>
+  <si>
+    <t>https://www.hfw.com/people/nick-braganza/</t>
+  </si>
+  <si>
+    <t>Nick Braganza</t>
+  </si>
+  <si>
+    <t>nicholas.braganza@hfw.com</t>
+  </si>
+  <si>
+    <t>97144230587</t>
+  </si>
+  <si>
+    <t>https://www.hfw.com/people/guillaume-brajeux/</t>
+  </si>
+  <si>
+    <t>Guillaume Brajeux</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>guillaume.brajeux@hfw.com</t>
+  </si>
+  <si>
+    <t>33144944050</t>
+  </si>
+  <si>
+    <t>https://www.hfw.com/people/michael-buisset/</t>
+  </si>
+  <si>
+    <t>Michael Buisset</t>
+  </si>
+  <si>
+    <t>michael.buisset@hfw.com</t>
+  </si>
+  <si>
+    <t>410223224801</t>
+  </si>
+  <si>
+    <t>https://www.hfw.com/people/aileen-camacho-vallejo/</t>
+  </si>
+  <si>
+    <t>Aileen Camacho Vallejo</t>
+  </si>
+  <si>
+    <t>aileen.camacho@hfw.com</t>
+  </si>
+  <si>
+    <t>17137064909</t>
+  </si>
+  <si>
+    <t>https://www.hfw.com/people/wing-cheung/</t>
+  </si>
+  <si>
+    <t>Wing Cheung</t>
+  </si>
+  <si>
+    <t>hongkong</t>
+  </si>
+  <si>
+    <t>wing.cheung@hfw.com</t>
+  </si>
+  <si>
+    <t>85239837618</t>
+  </si>
+  <si>
+    <t>https://www.hfw.com/people/geoffrey-conlin/</t>
+  </si>
+  <si>
+    <t>Geoffrey Conlin</t>
+  </si>
+  <si>
+    <t>riodejaneiro</t>
+  </si>
+  <si>
+    <t>geoffrey.conlin@hfw.com</t>
+  </si>
+  <si>
+    <t>551131792902</t>
+  </si>
+  <si>
+    <t>https://www.hfw.com/people/alix-darjuzon/</t>
+  </si>
+  <si>
+    <t>Alix D’arjuzon</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>alix.darjuzon@hfw.com</t>
+  </si>
+  <si>
+    <t>3226433438</t>
+  </si>
+  <si>
+    <t>https://www.hfw.com/people/ruth-dawes/</t>
+  </si>
+  <si>
+    <t>Ruth Dawes</t>
+  </si>
+  <si>
+    <t>ruth.dawes@hfw.com</t>
+  </si>
+  <si>
+    <t>610293204637</t>
+  </si>
+  <si>
+    <t>https://www.hfw.com/people/diane-de-mouy/</t>
+  </si>
+  <si>
+    <t>Diane De Moüy</t>
+  </si>
+  <si>
+    <t>diane.demouy@hfw.com</t>
+  </si>
+  <si>
+    <t>33144943132</t>
+  </si>
+  <si>
+    <t>https://www.hfw.com/people/dimitris-exarchou/</t>
+  </si>
+  <si>
+    <t>Dimitris Exarchou</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>dimitris.exarchou@hfw.com</t>
+  </si>
+  <si>
+    <t>302104293978</t>
+  </si>
+  <si>
+    <t>https://www.hfw.com/people/francesco-fiorilli/</t>
+  </si>
+  <si>
+    <t>Francesco Fiorilli</t>
+  </si>
+  <si>
+    <t>francesco.fiorilli@hfw.com</t>
+  </si>
+  <si>
+    <t>966112978085</t>
+  </si>
+  <si>
+    <t>https://www.hfw.com/people/vince-gordon/</t>
+  </si>
+  <si>
+    <t>Vince Gordon</t>
+  </si>
+  <si>
+    <t>abudhabi</t>
+  </si>
+  <si>
+    <t>vince.gordon@hfw.com</t>
+  </si>
+  <si>
+    <t>97122354901</t>
+  </si>
+  <si>
+    <t>https://www.hfw.com/people/thilo-jahn/</t>
+  </si>
+  <si>
+    <t>Thilo Jahn</t>
+  </si>
+  <si>
+    <t>thilo.jahn@hfw.com</t>
+  </si>
+  <si>
+    <t>862120801175</t>
+  </si>
+  <si>
+    <t>https://www.hfw.com/people/shyamal-jeewoolall/</t>
+  </si>
+  <si>
+    <t>Shyamal Jeewoolall</t>
+  </si>
+  <si>
+    <t>shyamal.jeewoolall@hfw.com</t>
+  </si>
+  <si>
+    <t>97144230568</t>
+  </si>
+  <si>
+    <t>https://www.hfw.com/people/james-jordan/</t>
+  </si>
+  <si>
+    <t>James Jordan</t>
+  </si>
+  <si>
+    <t>james.jordan@hfw.com</t>
+  </si>
+  <si>
+    <t>6581233558</t>
+  </si>
+  <si>
+    <t>https://www.hfw.com/people/kashif-syed/</t>
+  </si>
+  <si>
+    <t>Kashif Syed</t>
+  </si>
+  <si>
+    <t>kashif.syed@hfw.com</t>
+  </si>
+  <si>
+    <t>96522066751</t>
+  </si>
+  <si>
+    <t>https://www.hfw.com/people/michelle-chance/</t>
+  </si>
+  <si>
+    <t>Michelle Chance</t>
+  </si>
+  <si>
+    <t>michelle.chance@hfw.com</t>
+  </si>
+  <si>
+    <t>4402072648384</t>
+  </si>
+  <si>
+    <t>https://www.hfw.com/people/michael-debney/</t>
+  </si>
+  <si>
+    <t>Michael Debney</t>
+  </si>
+  <si>
+    <t>michael.debney@hfw.com</t>
+  </si>
+  <si>
+    <t>610293204603</t>
+  </si>
+  <si>
+    <t>https://www.hfw.com/people/thomas-forin/</t>
+  </si>
+  <si>
+    <t>Thomas Forin</t>
+  </si>
+  <si>
+    <t>thomas.forin@hfw.com</t>
+  </si>
+  <si>
+    <t>https://www.hfw.com/people/gordon-gardiner/</t>
+  </si>
+  <si>
+    <t>Gordon Gardiner</t>
+  </si>
+  <si>
+    <t>gordon.gardiner@hfw.com</t>
+  </si>
+  <si>
+    <t>85239837710</t>
+  </si>
+  <si>
+    <t>https://www.hfw.com/people/sarah-hunt/</t>
+  </si>
+  <si>
+    <t>Sarah Hunt</t>
+  </si>
+  <si>
+    <t>sarah.hunt@hfw.com</t>
+  </si>
+  <si>
+    <t>410223224816</t>
+  </si>
+  <si>
+    <t>https://www.hfw.com/people/slava-kiryushin/</t>
+  </si>
+  <si>
+    <t>Slava Kiryushin</t>
+  </si>
+  <si>
+    <t>slava.kiryushin@hfw.com</t>
+  </si>
+  <si>
+    <t>97145606623</t>
+  </si>
+  <si>
+    <t>https://www.hfw.com/people/ronan-le-du/</t>
+  </si>
+  <si>
+    <t>Ronan Le Du</t>
+  </si>
+  <si>
+    <t>ronan.ledu@hfw.com</t>
+  </si>
+  <si>
+    <t>https://www.hfw.com/people/helen-lee/</t>
+  </si>
+  <si>
+    <t>Helen Lee</t>
+  </si>
+  <si>
+    <t>helen.lee@hfw.com</t>
+  </si>
+  <si>
+    <t>6564115338</t>
+  </si>
+  <si>
+    <t>https://www.hfw.com/people/euan-pinkerton/</t>
+  </si>
+  <si>
+    <t>Euan Pinkerton</t>
+  </si>
+  <si>
+    <t>euan.pinkerton@hfw.com</t>
+  </si>
+  <si>
+    <t>966112978090</t>
+  </si>
+  <si>
+    <t>https://www.hfw.com/people/danielle-peng/</t>
+  </si>
+  <si>
+    <t>Danielle Peng</t>
+  </si>
+  <si>
+    <t>danielle.peng@hfw.com</t>
+  </si>
+  <si>
+    <t>862120801059</t>
+  </si>
+  <si>
+    <t>https://www.hfw.com/people/tarek-abu-mariam/</t>
+  </si>
+  <si>
+    <t>Tarek Abu Mariam</t>
+  </si>
+  <si>
+    <t>tarek.abumariam@hfw.com</t>
+  </si>
+  <si>
+    <t>96522066766</t>
+  </si>
+  <si>
+    <t>https://www.hfw.com/people/george-kaye/</t>
+  </si>
+  <si>
+    <t>George Kaye</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>george.kaye@hfw.com</t>
+  </si>
+  <si>
+    <t>37792001326</t>
+  </si>
+  <si>
+    <t>https://www.hfw.com/people/aoife-mulford/</t>
+  </si>
+  <si>
+    <t>Aoife Mulford</t>
+  </si>
+  <si>
+    <t>aoife.mulford@hfw.com</t>
+  </si>
+  <si>
+    <t>https://www.hfw.com/people/nadia-sanchez/</t>
+  </si>
+  <si>
+    <t>Nadia Sanchez</t>
+  </si>
+  <si>
+    <t>nadia.sanchez@hfw.com</t>
+  </si>
+  <si>
+    <t>32026433418</t>
+  </si>
+  <si>
+    <t>https://www.hilldickinson.com/people/anastasia-alexaki</t>
+  </si>
+  <si>
+    <t>Anastasia Alexaki</t>
+  </si>
+  <si>
+    <t>Hill Dickinson</t>
+  </si>
+  <si>
+    <t>anastasia.alexaki@hilldickinson.com</t>
+  </si>
+  <si>
+    <t>2306980956703</t>
+  </si>
+  <si>
+    <t>https://www.hilldickinson.com/people/martha-allen</t>
+  </si>
+  <si>
+    <t>Martha Allen</t>
+  </si>
+  <si>
+    <t>martha.allen@hilldickinson.com</t>
+  </si>
+  <si>
+    <t>244280291516008081</t>
+  </si>
+  <si>
+    <t>https://www.hilldickinson.com/people/bhieman-anandakumar</t>
+  </si>
+  <si>
+    <t>Bhieman Anandakumar</t>
+  </si>
+  <si>
+    <t>bhieman.anandakumar@hilldickinson.com</t>
+  </si>
+  <si>
+    <t>282652965764740</t>
+  </si>
+  <si>
+    <t>https://www.hilldickinson.com/people/mark-aspinall</t>
+  </si>
+  <si>
+    <t>Mark Aspinall</t>
+  </si>
+  <si>
+    <t>mark.aspinall@hilldickinson.com</t>
+  </si>
+  <si>
+    <t>244280292072809373</t>
+  </si>
+  <si>
+    <t>https://www.hilldickinson.com/people/in%C3%A8s-audran</t>
+  </si>
+  <si>
+    <t>Inès Audran</t>
+  </si>
+  <si>
+    <t>ines.audran@hilldickinson.com</t>
+  </si>
+  <si>
+    <t>237797700466</t>
+  </si>
+  <si>
+    <t>https://www.hilldickinson.com/people/jasel-chauhan</t>
+  </si>
+  <si>
+    <t>Jasel Chauhan</t>
+  </si>
+  <si>
+    <t>jasel.chauhan@hilldickinson.com</t>
+  </si>
+  <si>
+    <t>2302104284770</t>
+  </si>
+  <si>
+    <t>https://www.hilldickinson.com/people/felix-cheung</t>
+  </si>
+  <si>
+    <t>Felix Cheung</t>
+  </si>
+  <si>
+    <t>felix.cheung@hilldickinson.com</t>
+  </si>
+  <si>
+    <t>285225257571</t>
+  </si>
+  <si>
+    <t>https://www.hilldickinson.com/people/ester-toumpouris</t>
+  </si>
+  <si>
+    <t>Ester Toumpouris</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>ester.toumpouris@hilldickinson.com.cy</t>
+  </si>
+  <si>
+    <t>235725772071</t>
+  </si>
+  <si>
+    <t>https://www.howsewilliams.com/en/https://www.howsewilliams.com/en/oonagh-toner/</t>
+  </si>
+  <si>
+    <t>Oonagh Toner</t>
+  </si>
+  <si>
+    <t>Howse Williams</t>
+  </si>
+  <si>
+    <t>Clinical Negligence &amp; Healthcare</t>
+  </si>
+  <si>
+    <t>oonagh.toner@howsewilliams.com</t>
+  </si>
+  <si>
+    <t>85228033697</t>
+  </si>
+  <si>
+    <t>https://www.howsewilliams.com/en/https://www.howsewilliams.com/en/william-leung/</t>
+  </si>
+  <si>
+    <t>William Leung</t>
+  </si>
+  <si>
+    <t>Dispute Resolution</t>
+  </si>
+  <si>
+    <t>william.leung@howsewilliams.com</t>
+  </si>
+  <si>
+    <t>85228033782</t>
+  </si>
+  <si>
+    <t>https://www.jonesday.com/en/lawyers/b/jason-beer</t>
+  </si>
+  <si>
+    <t>Jason A Beer</t>
+  </si>
+  <si>
+    <t>Jones Day</t>
+  </si>
+  <si>
+    <t>Antitrust &amp; Competition Law; Energy Transition &amp; Infrastructure; ESG (Environmental</t>
+  </si>
+  <si>
+    <t>jbeer@jonesday.com</t>
+  </si>
+  <si>
+    <t>442070395263</t>
+  </si>
+  <si>
+    <t>https://www.jonesday.com/en/lawyers/b/simon-brown</t>
+  </si>
+  <si>
+    <t>Simon Brown</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>sbrown@jonesday.com</t>
+  </si>
+  <si>
+    <t>61730857040</t>
+  </si>
+  <si>
+    <t>https://www.jonesday.com/en/lawyers/c/stefano-crosio</t>
+  </si>
+  <si>
+    <t>Stefano Crosio</t>
+  </si>
+  <si>
+    <t>adamconway@jonesday.com</t>
+  </si>
+  <si>
+    <t>390276454001</t>
+  </si>
+  <si>
+    <t>https://www.jonesday.com/en/lawyers/e/quirine-eenhorst</t>
+  </si>
+  <si>
+    <t>Quirine Eenhorst</t>
+  </si>
+  <si>
+    <t>Financial Markets</t>
+  </si>
+  <si>
+    <t>jdwyer@jonesday.com</t>
+  </si>
+  <si>
+    <t>31203054222</t>
+  </si>
+  <si>
+    <t>https://www.jonesday.com/en/lawyers/f/edouard-fortunet</t>
+  </si>
+  <si>
+    <t>Edouard Fortunet</t>
+  </si>
+  <si>
+    <t>Intellectual Property</t>
+  </si>
+  <si>
+    <t>efortunet@jonesday.com</t>
+  </si>
+  <si>
+    <t>33156593834</t>
+  </si>
+  <si>
+    <t>https://www.jonesday.com/en/lawyers/h/lillian-he</t>
+  </si>
+  <si>
+    <t>Lillian He</t>
+  </si>
+  <si>
+    <t>fmguidi@jonesday.com</t>
+  </si>
+  <si>
+    <t>862122018034</t>
+  </si>
+  <si>
+    <t>https://www.jonesday.com/en/lawyers/k/nicole-kadel</t>
+  </si>
+  <si>
+    <t>Nicole Kadel</t>
+  </si>
+  <si>
+    <t>ljohnson@jonesday.com</t>
+  </si>
+  <si>
+    <t>496997263939</t>
+  </si>
+  <si>
+    <t>https://www.jonesday.com/en/lawyers/l/philippe-laconte</t>
+  </si>
+  <si>
+    <t>Philippe Laconte</t>
+  </si>
+  <si>
+    <t>Government Regulation</t>
+  </si>
+  <si>
+    <t>flabrousse@jonesday.com</t>
+  </si>
+  <si>
+    <t>3226451561</t>
+  </si>
+  <si>
+    <t>https://www.jonesday.com/en/lawyers/l/mingwei-lo</t>
+  </si>
+  <si>
+    <t>Ming-wei Lo</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>jrlittle@jonesday.com</t>
+  </si>
+  <si>
+    <t>886277123224</t>
+  </si>
+  <si>
+    <t>https://www.jonesday.com/en/lawyers/m/javier-muoz-mndez</t>
+  </si>
+  <si>
+    <t>Javier Muñoz Méndez</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Real Estate</t>
+  </si>
+  <si>
+    <t>jmunozmendez@jonesday.com</t>
+  </si>
+  <si>
+    <t>34915203967</t>
+  </si>
+  <si>
+    <t>https://www.jonesday.com/en/lawyers/r/luis-riesgo</t>
+  </si>
+  <si>
+    <t>Luis Riesgo</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Global Disputes</t>
+  </si>
+  <si>
+    <t>jpickavance@jonesday.com</t>
+  </si>
+  <si>
+    <t>551130183939</t>
+  </si>
+  <si>
+    <t>https://www.jonesday.com/en/lawyers/s/tadakatsu-sano</t>
+  </si>
+  <si>
+    <t>Tadakatsu Sano</t>
+  </si>
+  <si>
+    <t>Private Equity</t>
+  </si>
+  <si>
+    <t>jarunnicles@jonesday.com</t>
+  </si>
+  <si>
+    <t>81368001886</t>
+  </si>
+  <si>
+    <t>https://www.jonesday.com/en/lawyers/v/frank-voon</t>
+  </si>
+  <si>
+    <t>Frank Voon</t>
+  </si>
+  <si>
+    <t>atreadgold@jonesday.com</t>
+  </si>
+  <si>
+    <t>85231897386</t>
+  </si>
+  <si>
+    <t>https://www.jonesday.com/en/lawyers/w/kayjannes-wegner-1</t>
+  </si>
+  <si>
+    <t>Kay-jannes Wegner</t>
+  </si>
+  <si>
+    <t>pjwang@jonesday.com</t>
+  </si>
+  <si>
+    <t>6562335531</t>
+  </si>
+  <si>
+    <t>https://www.kinstellar.com/our-team/detail/akhmetov-yerlan</t>
+  </si>
+  <si>
+    <t>Yerlan Akhmetov</t>
+  </si>
+  <si>
+    <t>Kinstellar</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>yerlan.akhmetov@kinstellar.com</t>
+  </si>
+  <si>
+    <t>https://www.kinstellar.com/our-team/detail/andreko-zsuzsa</t>
+  </si>
+  <si>
+    <t>Zsuzsa Andrékó</t>
+  </si>
+  <si>
+    <t>Managing Associate</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>zsuzsa.andreko@kinstellar.com</t>
+  </si>
+  <si>
+    <t>https://www.kinstellar.com/our-team/detail/antal-jozsef</t>
+  </si>
+  <si>
+    <t>József Antal</t>
+  </si>
+  <si>
+    <t>jozsef.antal@kinstellar.com</t>
+  </si>
+  <si>
+    <t>3620120428204433</t>
+  </si>
+  <si>
+    <t>https://www.kinstellar.com/our-team/detail/arambasic-ana</t>
+  </si>
+  <si>
+    <t>Ana Arambašić</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>ana.arambasic@kinstellar.com</t>
+  </si>
+  <si>
+    <t>381206920328220807</t>
+  </si>
+  <si>
+    <t>https://www.kinstellar.com/our-team/detail/artenie-theodor</t>
+  </si>
+  <si>
+    <t>Theodor Artenie</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>theodor.artenie@kinstellar.com</t>
+  </si>
+  <si>
+    <t>40202120307201502</t>
+  </si>
+  <si>
+    <t>https://www.kinstellar.com/our-team/detail/azatov-jakhongir</t>
+  </si>
+  <si>
+    <t>Jakhongir Azatov</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>jakhongir.azatov@kinstellar.com</t>
+  </si>
+  <si>
+    <t>998781506221</t>
+  </si>
+  <si>
+    <t>https://www.kinstellar.com/our-team/detail/baizakov-kairat</t>
+  </si>
+  <si>
+    <t>Kairat Baizakov</t>
+  </si>
+  <si>
+    <t>kairat.baizakov@kinstellar.com</t>
+  </si>
+  <si>
+    <t>77273550557</t>
+  </si>
+  <si>
+    <t>https://www.kinstellar.com/our-team/detail/bajzathova-dominika</t>
+  </si>
+  <si>
+    <t>Dominika Bajzáthová</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>dominika.bajzathova@kinstellar.com</t>
+  </si>
+  <si>
+    <t>421259291139</t>
+  </si>
+  <si>
+    <t>https://www.kinstellar.com/our-team/detail/bilinska-iva</t>
+  </si>
+  <si>
+    <t>Iva Bilinská</t>
+  </si>
+  <si>
+    <t>iva.bilinska@kinstellar.com</t>
+  </si>
+  <si>
+    <t>420221622135</t>
+  </si>
+  <si>
+    <t>https://www.kinstellar.com/our-team/detail/borisova-anita</t>
+  </si>
+  <si>
+    <t>Anita Borisova</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>anita.borisova@kinstellar.com</t>
+  </si>
+  <si>
+    <t>359876833976</t>
+  </si>
+  <si>
+    <t>https://www.kinstellar.com/our-team/detail/ebhardt-horst</t>
+  </si>
+  <si>
+    <t>Horst Ebhardt</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>horst.ebhardt@kinstellar.com</t>
+  </si>
+  <si>
+    <t>4313860702</t>
+  </si>
+  <si>
+    <t>https://www.kinstellar.com/our-team/detail/fadljevic-franciska</t>
+  </si>
+  <si>
+    <t>Franciska Fadljević</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>franciska.fadljevic@kinstellar.com</t>
+  </si>
+  <si>
+    <t>38515555648</t>
+  </si>
+  <si>
+    <t>https://www.kinstellar.com/our-team/detail/lezatkova-barbora</t>
+  </si>
+  <si>
+    <t>Barbora Ležatková</t>
+  </si>
+  <si>
+    <t>+420 221 622 224</t>
+  </si>
+  <si>
+    <t>barbora.lezatkova@kinstellar.com</t>
+  </si>
+  <si>
+    <t>420221622224</t>
+  </si>
+  <si>
+    <t>https://www.krogerus.com/people/johan-aalto</t>
+  </si>
+  <si>
+    <t>Johan Aalto</t>
+  </si>
+  <si>
+    <t>Krogerus</t>
+  </si>
+  <si>
+    <t>johan.aalto@krogerus.com</t>
+  </si>
+  <si>
+    <t>3580400609755</t>
+  </si>
+  <si>
+    <t>https://kromannreumert.com/en/people/adrian-kielberg</t>
+  </si>
+  <si>
+    <t>Adrian Kielberg</t>
+  </si>
+  <si>
+    <t>Kromann Reumert</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>absi@kromannreumert.com</t>
+  </si>
+  <si>
+    <t>4538771172</t>
+  </si>
+  <si>
+    <t>https://www.lw.com/en/people/douglas-abernethy</t>
+  </si>
+  <si>
+    <t>Douglas Abernethy</t>
+  </si>
+  <si>
+    <t>Latham And Watkins</t>
+  </si>
+  <si>
+    <t>manny.abascal@lw.com</t>
+  </si>
+  <si>
+    <t>12138917889</t>
+  </si>
+  <si>
+    <t>https://www.lw.com/en/people/nicole-kubalek</t>
+  </si>
+  <si>
+    <t>Nicole Kubalek</t>
+  </si>
+  <si>
+    <t>nicole.kubalek@lw.com</t>
+  </si>
+  <si>
+    <t>494041403372</t>
+  </si>
+  <si>
+    <t>https://www.lw.com/en/people/bruce-bell</t>
+  </si>
+  <si>
+    <t>Bruce Bell</t>
+  </si>
+  <si>
+    <t>bruce.bell@lw.com</t>
+  </si>
+  <si>
+    <t>442077101145</t>
+  </si>
+  <si>
+    <t>https://www.lw.com/en/people/giuditta-caldini</t>
+  </si>
+  <si>
+    <t>Giuditta Caldini</t>
+  </si>
+  <si>
+    <t>richard.butterwick@lw.com</t>
+  </si>
+  <si>
+    <t>442077101143</t>
+  </si>
+  <si>
+    <t>https://www.lw.com/en/people/dominic-geiser</t>
+  </si>
+  <si>
+    <t>Dominic Geiser</t>
+  </si>
+  <si>
+    <t>dominic.geiser@lw.com</t>
+  </si>
+  <si>
+    <t>85229122738</t>
+  </si>
+  <si>
+    <t>https://www.lw.com/en/people/sebastian-max-hauser</t>
+  </si>
+  <si>
+    <t>Max Hauser</t>
+  </si>
+  <si>
+    <t>frankfurt / düsseldorf</t>
+  </si>
+  <si>
+    <t>michael.hardy@lw.com</t>
+  </si>
+  <si>
+    <t>85229122785</t>
+  </si>
+  <si>
+    <t>https://www.lw.com/en/people/shayne-kennedy</t>
+  </si>
+  <si>
+    <t>B Shayne Kennedy</t>
+  </si>
+  <si>
+    <t>orange county / san francisco / silicon valley</t>
+  </si>
+  <si>
+    <t>shayne.kennedy@lw.com</t>
+  </si>
+  <si>
+    <t>17147558181</t>
+  </si>
+  <si>
+    <t>https://www.lw.com/en/people/tobias-leder</t>
+  </si>
+  <si>
+    <t>Tobias Leder</t>
+  </si>
+  <si>
+    <t>tobias.leder@lw.com</t>
+  </si>
+  <si>
+    <t>4989208038000</t>
+  </si>
+  <si>
+    <t>https://www.lw.com/en/people/marc-makary</t>
+  </si>
+  <si>
+    <t>Marc Makary</t>
+  </si>
+  <si>
+    <t>marc.makary@lw.com</t>
+  </si>
+  <si>
+    <t>966112072504</t>
+  </si>
+  <si>
+    <t>https://www.lw.com/en/people/yohei-nakagawa</t>
+  </si>
+  <si>
+    <t>Yohei Nakagawa</t>
+  </si>
+  <si>
+    <t>rob.moulton@lw.com</t>
+  </si>
+  <si>
+    <t>442077104523</t>
+  </si>
+  <si>
+    <t>https://www.lw.com/en/people/ivan-rabanillo</t>
+  </si>
+  <si>
+    <t>Ivan Rabanillo</t>
+  </si>
+  <si>
+    <t>jonathan.parker@lw.com</t>
+  </si>
+  <si>
+    <t>442077104513</t>
+  </si>
+  <si>
+    <t>https://www.lw.com/en/people/xavier-renard</t>
+  </si>
+  <si>
+    <t>Xavier Renard</t>
+  </si>
+  <si>
+    <t>daniel.rees@lw.com</t>
+  </si>
+  <si>
+    <t>17147552244</t>
+  </si>
+  <si>
+    <t>https://www.lw.com/en/people/antongiulio-scialpi</t>
+  </si>
+  <si>
+    <t>Antongiulio Scialpi</t>
+  </si>
+  <si>
+    <t>lucas.schweitzer@lw.com</t>
+  </si>
+  <si>
+    <t>4921188284600</t>
+  </si>
+  <si>
+    <t>https://www.lw.com/en/people/villiers-terblanche</t>
+  </si>
+  <si>
+    <t>Villiers Terblanche</t>
+  </si>
+  <si>
+    <t>john-patrick.sweny@lw.com</t>
+  </si>
+  <si>
+    <t>442077101870</t>
+  </si>
+  <si>
+    <t>https://www.lw.com/en/people/thomas-vogel</t>
+  </si>
+  <si>
+    <t>Thomas Vogel</t>
+  </si>
+  <si>
+    <t>paris / frankfurt</t>
+  </si>
+  <si>
+    <t>thomas.vogel@lw.com</t>
+  </si>
+  <si>
+    <t>33140622047</t>
+  </si>
+  <si>
+    <t>https://www.lw.com/en/people/allison-blanco</t>
+  </si>
+  <si>
+    <t>Allison S Blanco</t>
+  </si>
+  <si>
+    <t>orange county / los angeles</t>
+  </si>
+  <si>
+    <t>fernando.mantilla@lw.com</t>
+  </si>
+  <si>
+    <t>33140622000</t>
+  </si>
+  <si>
+    <t>https://www.lw.com/en/people/liyun-louise-deng</t>
+  </si>
+  <si>
+    <t>Liyun (louise) Deng</t>
+  </si>
+  <si>
+    <t>louise.deng@lw.com</t>
+  </si>
+  <si>
+    <t>861059657000</t>
+  </si>
+  <si>
+    <t>https://www.lw.com/en/people/diona-park</t>
+  </si>
+  <si>
+    <t>Diona Narae Park</t>
+  </si>
+  <si>
+    <t>richard.kim@lw.com</t>
+  </si>
+  <si>
+    <t>81362127823</t>
+  </si>
+  <si>
+    <t>https://www.lw.com/en/people/jeremy-wang</t>
+  </si>
+  <si>
+    <t>Jeremy Wang</t>
+  </si>
+  <si>
+    <t>koushik.prasad@lw.com</t>
+  </si>
+  <si>
+    <t>442077101060</t>
+  </si>
+  <si>
+    <t>https://www.lw.com/en/people/qian-elyn-xing</t>
+  </si>
+  <si>
+    <t>Qian (elyn) Xing</t>
+  </si>
+  <si>
+    <t>singapore / hong kong</t>
+  </si>
+  <si>
+    <t>howemin.wee@lw.com</t>
+  </si>
+  <si>
+    <t>6564375422</t>
+  </si>
+  <si>
+    <t>https://www.lw.com/en/people/josef-athanas</t>
+  </si>
+  <si>
+    <t>Josef S Athanas</t>
+  </si>
+  <si>
+    <t>chicago / hong kong</t>
+  </si>
+  <si>
+    <t>maria.yip@lw.com</t>
+  </si>
+  <si>
+    <t>442077101128</t>
+  </si>
+  <si>
+    <t>https://www.lw.com/en/people/basil-zotiades</t>
+  </si>
+  <si>
+    <t>Basil Zotiades</t>
+  </si>
+  <si>
+    <t>london / paris</t>
+  </si>
+  <si>
+    <t>jenny.allen@lw.com</t>
+  </si>
+  <si>
+    <t>17147552229</t>
+  </si>
+  <si>
+    <t>https://www.leeko.com/leenko/member/memberDetail.do?lang=EN&amp;memberNo=767&amp;schReturnType=REDIRECT</t>
+  </si>
+  <si>
+    <t>Chaemin Jung</t>
+  </si>
+  <si>
+    <t>Lee And Ko</t>
+  </si>
+  <si>
+    <t>chaemin.jung@leeko.com</t>
+  </si>
+  <si>
+    <t>https://www.leeko.com/leenko/member/memberDetail.do?lang=EN&amp;memberNo=324&amp;schReturnType=REDIRECT</t>
+  </si>
+  <si>
+    <t>Chaeyoung Han</t>
+  </si>
+  <si>
+    <t>chaeyoung.han@leeko.com</t>
+  </si>
+  <si>
+    <t>82263866231</t>
   </si>
 </sst>
 </file>
@@ -1947,7 +3321,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A350BCBC-CDDB-414C-9A72-BE6A09964F3F}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1994,321 +3368,31 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="1">
-        <v>448</v>
+        <v>947</v>
       </c>
       <c r="B2" t="s" s="1">
-        <v>449</v>
+        <v>948</v>
       </c>
       <c r="C2" t="s" s="1">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s" s="1">
-        <v>129</v>
+        <v>945</v>
       </c>
       <c r="E2" t="s" s="5">
-        <v>450</v>
+        <v>80</v>
       </c>
       <c r="F2" t="s" s="5">
         <v>14</v>
       </c>
       <c r="G2" t="s" s="5">
-        <v>137</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s" s="5">
-        <v>451</v>
+        <v>949</v>
       </c>
       <c r="I2" t="s" s="5">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="1">
-        <v>452</v>
-      </c>
-      <c r="B3" t="s" s="1">
-        <v>453</v>
-      </c>
-      <c r="C3" t="s" s="1">
-        <v>128</v>
-      </c>
-      <c r="D3" t="s" s="1">
-        <v>129</v>
-      </c>
-      <c r="E3" t="s" s="5">
-        <v>55</v>
-      </c>
-      <c r="F3" t="s" s="5">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s" s="5">
-        <v>290</v>
-      </c>
-      <c r="H3" t="s" s="5">
-        <v>454</v>
-      </c>
-      <c r="I3" t="s" s="5">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="1">
-        <v>456</v>
-      </c>
-      <c r="B4" t="s" s="1">
-        <v>457</v>
-      </c>
-      <c r="C4" t="s" s="1">
-        <v>128</v>
-      </c>
-      <c r="D4" t="s" s="1">
-        <v>129</v>
-      </c>
-      <c r="E4" t="s" s="5">
-        <v>458</v>
-      </c>
-      <c r="F4" t="s" s="5">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s" s="5">
-        <v>312</v>
-      </c>
-      <c r="H4" t="s" s="5">
-        <v>459</v>
-      </c>
-      <c r="I4" t="s" s="5">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="1">
-        <v>461</v>
-      </c>
-      <c r="B5" t="s" s="1">
-        <v>462</v>
-      </c>
-      <c r="C5" t="s" s="1">
-        <v>70</v>
-      </c>
-      <c r="D5" t="s" s="1">
-        <v>129</v>
-      </c>
-      <c r="E5" t="s" s="5">
-        <v>463</v>
-      </c>
-      <c r="F5" t="s" s="5">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s" s="5">
-        <v>464</v>
-      </c>
-      <c r="H5" t="s" s="5">
-        <v>465</v>
-      </c>
-      <c r="I5" t="s" s="5">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="1">
-        <v>467</v>
-      </c>
-      <c r="B6" t="s" s="1">
-        <v>468</v>
-      </c>
-      <c r="C6" t="s" s="1">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s" s="1">
-        <v>129</v>
-      </c>
-      <c r="E6" t="s" s="5">
-        <v>417</v>
-      </c>
-      <c r="F6" t="s" s="5">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s" s="5">
-        <v>158</v>
-      </c>
-      <c r="H6" t="s" s="5">
-        <v>469</v>
-      </c>
-      <c r="I6" t="s" s="5">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="1">
-        <v>471</v>
-      </c>
-      <c r="B7" t="s" s="1">
-        <v>472</v>
-      </c>
-      <c r="C7" t="s" s="1">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s" s="1">
-        <v>129</v>
-      </c>
-      <c r="E7" t="s" s="5">
-        <v>400</v>
-      </c>
-      <c r="F7" t="s" s="5">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s" s="5">
-        <v>180</v>
-      </c>
-      <c r="H7" t="s" s="5">
-        <v>473</v>
-      </c>
-      <c r="I7" t="s" s="5">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="1">
-        <v>475</v>
-      </c>
-      <c r="B8" t="s" s="1">
-        <v>476</v>
-      </c>
-      <c r="C8" t="s" s="1">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s" s="1">
-        <v>129</v>
-      </c>
-      <c r="E8" t="s" s="5">
-        <v>412</v>
-      </c>
-      <c r="F8" t="s" s="5">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s" s="5">
-        <v>152</v>
-      </c>
-      <c r="H8" t="s" s="5">
-        <v>477</v>
-      </c>
-      <c r="I8" t="s" s="5">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="1">
-        <v>478</v>
-      </c>
-      <c r="B9" t="s" s="1">
-        <v>479</v>
-      </c>
-      <c r="C9" t="s" s="1">
-        <v>128</v>
-      </c>
-      <c r="D9" t="s" s="1">
-        <v>129</v>
-      </c>
-      <c r="E9" t="s" s="5">
-        <v>406</v>
-      </c>
-      <c r="F9" t="s" s="5">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s" s="5">
-        <v>202</v>
-      </c>
-      <c r="H9" t="s" s="5">
-        <v>480</v>
-      </c>
-      <c r="I9" t="s" s="5">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="1">
-        <v>481</v>
-      </c>
-      <c r="B10" t="s" s="1">
-        <v>482</v>
-      </c>
-      <c r="C10" t="s" s="1">
-        <v>128</v>
-      </c>
-      <c r="D10" t="s" s="1">
-        <v>129</v>
-      </c>
-      <c r="E10" t="s" s="5">
-        <v>91</v>
-      </c>
-      <c r="F10" t="s" s="5">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s" s="5">
-        <v>180</v>
-      </c>
-      <c r="H10" t="s" s="5">
-        <v>483</v>
-      </c>
-      <c r="I10" t="s" s="5">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="1">
-        <v>485</v>
-      </c>
-      <c r="B11" t="s" s="1">
-        <v>486</v>
-      </c>
-      <c r="C11" t="s" s="1">
-        <v>128</v>
-      </c>
-      <c r="D11" t="s" s="1">
-        <v>129</v>
-      </c>
-      <c r="E11" t="s" s="5">
-        <v>427</v>
-      </c>
-      <c r="F11" t="s" s="5">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s" s="5">
-        <v>180</v>
-      </c>
-      <c r="H11" t="s" s="5">
-        <v>487</v>
-      </c>
-      <c r="I11" t="s" s="5">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="1">
-        <v>489</v>
-      </c>
-      <c r="B12" t="s" s="1">
-        <v>490</v>
-      </c>
-      <c r="C12" t="s" s="1">
-        <v>128</v>
-      </c>
-      <c r="D12" t="s" s="1">
-        <v>129</v>
-      </c>
-      <c r="E12" t="s" s="5">
-        <v>432</v>
-      </c>
-      <c r="F12" t="s" s="5">
-        <v>14</v>
-      </c>
-      <c r="G12" t="s" s="5">
-        <v>137</v>
-      </c>
-      <c r="H12" t="s" s="5">
-        <v>491</v>
-      </c>
-      <c r="I12" t="s" s="5">
-        <v>492</v>
+        <v>950</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/baseFiles/excel/Sheet.xlsx
+++ b/src/main/resources/baseFiles/excel/Sheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\IdeaProjects\contactsK\src\main\resources\baseFiles\excel\RawXL\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="286">
   <si>
     <t>Firm</t>
   </si>
@@ -63,12 +63,844 @@
   </si>
   <si>
     <t>Link</t>
+  </si>
+  <si>
+    <t>https://www.schoenherr.eu/people/detail/ilona-fedurek</t>
+  </si>
+  <si>
+    <t>Ilona Fedurek</t>
+  </si>
+  <si>
+    <t>Partner</t>
+  </si>
+  <si>
+    <t>Schoenherr</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>-----</t>
+  </si>
+  <si>
+    <t>il.fedurek@schoenherr.eu</t>
+  </si>
+  <si>
+    <t>48728668538</t>
+  </si>
+  <si>
+    <t>https://www.schoenherr.eu/people/detail/evelin-hlina</t>
+  </si>
+  <si>
+    <t>Evelin Hlina</t>
+  </si>
+  <si>
+    <t>Counsel</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>e.hlina@schoenherr.eu</t>
+  </si>
+  <si>
+    <t>43664800604045</t>
+  </si>
+  <si>
+    <t>https://reliancecs.co/people/sunil-shrestha/</t>
+  </si>
+  <si>
+    <t>Sunil Shrestha</t>
+  </si>
+  <si>
+    <t>Reliance Corporate Advisors</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>sunilgojashrestha@gmail.com</t>
+  </si>
+  <si>
+    <t>9779851099361</t>
+  </si>
+  <si>
+    <t>https://www.spruson.com/our-people/soo-ee-lin/</t>
+  </si>
+  <si>
+    <t>Soo Ee Lin</t>
+  </si>
+  <si>
+    <t>Director</t>
+  </si>
+  <si>
+    <t>Spruson And Ferguson</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Patents: Life Science</t>
+  </si>
+  <si>
+    <t>eelin.soo@spruson.com</t>
+  </si>
+  <si>
+    <t>6563337200</t>
+  </si>
+  <si>
+    <t>https://www.spruson.com/our-people/andrew-cale/</t>
+  </si>
+  <si>
+    <t>Andrew Cale</t>
+  </si>
+  <si>
+    <t>Principal</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Patents: Engineering &amp; ICT, Designs</t>
+  </si>
+  <si>
+    <t>andrew.cale@spruson.com</t>
+  </si>
+  <si>
+    <t>61730112200</t>
+  </si>
+  <si>
+    <t>https://www.spruson.com/our-people/michael-huang/</t>
+  </si>
+  <si>
+    <t>Michael Huang</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Patents: Chemical &amp; Life Science</t>
+  </si>
+  <si>
+    <t>michael.huang@spruson.com</t>
+  </si>
+  <si>
+    <t>85221619999</t>
+  </si>
+  <si>
+    <t>https://www.winston.com/en/professionals/cittadini-julie</t>
+  </si>
+  <si>
+    <t>Julie Cittadini</t>
+  </si>
+  <si>
+    <t>Winston And Strawn</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>jcittadini@winston.com</t>
+  </si>
+  <si>
+    <t>33153648340</t>
+  </si>
+  <si>
+    <t>https://www.winston.com/en/professionals/howard-adam</t>
+  </si>
+  <si>
+    <t>Adam Howard</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>amhoward@winston.com</t>
+  </si>
+  <si>
+    <t>442070118765</t>
+  </si>
+  <si>
+    <t>https://www.whitecase.com/people/craig-atkinson</t>
+  </si>
+  <si>
+    <t>Craig Atkinson</t>
+  </si>
+  <si>
+    <t>White And Case</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>craig.atkinson@whitecase.com</t>
+  </si>
+  <si>
+    <t>966114167370</t>
+  </si>
+  <si>
+    <t>https://www.whitecase.com/people/charles-balmain</t>
+  </si>
+  <si>
+    <t>Charles Balmain</t>
+  </si>
+  <si>
+    <t>cbalmain@whitecase.com</t>
+  </si>
+  <si>
+    <t>442075321807</t>
+  </si>
+  <si>
+    <t>https://www.whitecase.com/people/david-bond</t>
+  </si>
+  <si>
+    <t>David E Bond</t>
+  </si>
+  <si>
+    <t>washington</t>
+  </si>
+  <si>
+    <t>dbond@whitecase.com</t>
+  </si>
+  <si>
+    <t>12027292307</t>
+  </si>
+  <si>
+    <t>https://www.walkersglobal.com/en/People/b/Ballantyne_Drewe-Christine</t>
+  </si>
+  <si>
+    <t>Christine Ballantyne-drewe</t>
+  </si>
+  <si>
+    <t>Walkers</t>
+  </si>
+  <si>
+    <t>the Cayman Islands</t>
+  </si>
+  <si>
+    <t>christine.ballantyne-drewe@walkersglobal.com</t>
+  </si>
+  <si>
+    <t>13458144550</t>
+  </si>
+  <si>
+    <t>https://www.walkersglobal.com/en/People/b/Benjamin-Renell</t>
+  </si>
+  <si>
+    <t>Renell Benjamin</t>
+  </si>
+  <si>
+    <t>Senior Associate</t>
+  </si>
+  <si>
+    <t>the British Virgin Islands</t>
+  </si>
+  <si>
+    <t>renell.benjamin@walkersglobal.com</t>
+  </si>
+  <si>
+    <t>12848522251</t>
+  </si>
+  <si>
+    <t>https://www.walkersglobal.com/en/People/b/Bookless-Jamie</t>
+  </si>
+  <si>
+    <t>Jamie Bookless</t>
+  </si>
+  <si>
+    <t>Guernsey</t>
+  </si>
+  <si>
+    <t>jamie.bookless@walkersglobal.com</t>
+  </si>
+  <si>
+    <t>4401481748926</t>
+  </si>
+  <si>
+    <t>https://meitar.com/en/people/avrahami-hagit/</t>
+  </si>
+  <si>
+    <t>Hagit Avrahami</t>
+  </si>
+  <si>
+    <t>Meitar Law</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>hagita@meitar.com</t>
+  </si>
+  <si>
+    <t>97236103122</t>
+  </si>
+  <si>
+    <t>mailto:asanka@tiruchelvam.com</t>
+  </si>
+  <si>
+    <t>Asanka Abeysekera</t>
+  </si>
+  <si>
+    <t>Tiruchelvam Associates</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>asanka@tiruchelvam.com</t>
+  </si>
+  <si>
+    <t>94112698110</t>
+  </si>
+  <si>
+    <t>https://www.crowell.com/en/professionals/michael-k-atkinson</t>
+  </si>
+  <si>
+    <t>Michael K Atkinson</t>
+  </si>
+  <si>
+    <t>Crowell And Moring</t>
+  </si>
+  <si>
+    <t>washington  d c</t>
+  </si>
+  <si>
+    <t>White Collar and Regulatory Enforcement</t>
+  </si>
+  <si>
+    <t>matkinson@crowell.com</t>
+  </si>
+  <si>
+    <t>212026242540</t>
+  </si>
+  <si>
+    <t>https://www.crowell.com/en/professionals/sari-depreeuw</t>
+  </si>
+  <si>
+    <t>Sari Depreeuw</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Intellectual Property — Brussels Practice</t>
+  </si>
+  <si>
+    <t>sdepreeuw@crowell.com</t>
+  </si>
+  <si>
+    <t>23222821849</t>
+  </si>
+  <si>
+    <t>https://www.crowell.com/en/professionals/marie-jansson-heeks</t>
+  </si>
+  <si>
+    <t>Marie Jansson Heeks</t>
+  </si>
+  <si>
+    <t>European IP Law</t>
+  </si>
+  <si>
+    <t>mjanssonheeks@crowell.com</t>
+  </si>
+  <si>
+    <t>2442046202109</t>
+  </si>
+  <si>
+    <t>https://www.tuca.ro/attorneys/stefan-damian</t>
+  </si>
+  <si>
+    <t>Ștefan Damian</t>
+  </si>
+  <si>
+    <t>Managing Partner</t>
+  </si>
+  <si>
+    <t>Tuca Zbarcea</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>stefan.damian@tuca.ro</t>
+  </si>
+  <si>
+    <t>40212048890</t>
+  </si>
+  <si>
+    <t>https://mzmlegal.com/team/</t>
+  </si>
+  <si>
+    <t>Chirag Naik</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>MZM Legal</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>chirag.naik@mzmlegal.com</t>
+  </si>
+  <si>
+    <t>912222643333</t>
+  </si>
+  <si>
+    <t>https://www.titovlaw.se/en/17/21/bjorn-djupmark/</t>
+  </si>
+  <si>
+    <t>Björn Djupmark</t>
+  </si>
+  <si>
+    <t>Titov</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>bjorn.djupmark@titovlaw.se</t>
+  </si>
+  <si>
+    <t>46739838633</t>
+  </si>
+  <si>
+    <t>https://www.taylorwessing.com/en/people/united-kingdom/london/stuart-broom</t>
+  </si>
+  <si>
+    <t>Stuart Broom</t>
+  </si>
+  <si>
+    <t>Taylor Wessing</t>
+  </si>
+  <si>
+    <t>s.broom@taylorwessing.com</t>
+  </si>
+  <si>
+    <t>442073007111</t>
+  </si>
+  <si>
+    <t>https://www.taylorwessing.com/en/people/germany/berlin/dr-sebastian-buder</t>
+  </si>
+  <si>
+    <t>Sebastian Buder</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>s.buder@taylorwessing.com</t>
+  </si>
+  <si>
+    <t>49308856360</t>
+  </si>
+  <si>
+    <t>https://www.taylorwessing.com/en/people/france/paris/christophe-flaicher</t>
+  </si>
+  <si>
+    <t>Christophe Flaicher</t>
+  </si>
+  <si>
+    <t>c.flaicher@taylorwessing.com</t>
+  </si>
+  <si>
+    <t>33172740317</t>
+  </si>
+  <si>
+    <t>https://www.ropesgray.com/en/people/b/will-bryant</t>
+  </si>
+  <si>
+    <t>Will Bryant</t>
+  </si>
+  <si>
+    <t>Ropes And Gray</t>
+  </si>
+  <si>
+    <t>will.bryant@ropesgray.com</t>
+  </si>
+  <si>
+    <t>442032011517</t>
+  </si>
+  <si>
+    <t>https://www.ropesgray.com/en/people/i/saeko-inaba</t>
+  </si>
+  <si>
+    <t>Saeko Inaba</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>saeko.inaba@ropesgray.com</t>
+  </si>
+  <si>
+    <t>81362593532</t>
+  </si>
+  <si>
+    <t>https://www.ropesgray.com/en/people/m/emmanuel-mimin</t>
+  </si>
+  <si>
+    <t>Emmanuel Mimin</t>
+  </si>
+  <si>
+    <t>emmanuel.mimin@ropesgray.com</t>
+  </si>
+  <si>
+    <t>33159585041</t>
+  </si>
+  <si>
+    <t>https://www.lex.is/en/people/arnar-thor-stefansson</t>
+  </si>
+  <si>
+    <t>Arnar Þór Stefánsson</t>
+  </si>
+  <si>
+    <t>LEX Logmannsstofa</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>arnar@lex.is</t>
+  </si>
+  <si>
+    <t>3545902600</t>
+  </si>
+  <si>
+    <t>https://finreg360.com/quienes-somos/</t>
+  </si>
+  <si>
+    <t>Montserrat Arroyo Sánchez</t>
+  </si>
+  <si>
+    <t>asociada</t>
+  </si>
+  <si>
+    <t>Finreg 360</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>marroyo@finreg360.com</t>
+  </si>
+  <si>
+    <t>34910496459</t>
+  </si>
+  <si>
+    <t>https://www.shinkim.com/eng/member/view/3721</t>
+  </si>
+  <si>
+    <t>Byung Kuk Kim</t>
+  </si>
+  <si>
+    <t>Advisor</t>
+  </si>
+  <si>
+    <t>ShinAndKim</t>
+  </si>
+  <si>
+    <t>Korea (South)</t>
+  </si>
+  <si>
+    <t>bkkim@shinkim.com</t>
+  </si>
+  <si>
+    <t>8223164353</t>
+  </si>
+  <si>
+    <t>https://npp.de/ceemes/en/personen/geschaeftsfuehrung.html</t>
+  </si>
+  <si>
+    <t>Stephan Buchert</t>
+  </si>
+  <si>
+    <t>Managing Director</t>
+  </si>
+  <si>
+    <t>NPP Legal</t>
+  </si>
+  <si>
+    <t>Economist</t>
+  </si>
+  <si>
+    <t>s.buchert@npp.de</t>
+  </si>
+  <si>
+    <t>4904033446530</t>
+  </si>
+  <si>
+    <t>https://www.spencer-west.com/team/mira-arezina/</t>
+  </si>
+  <si>
+    <t>Mira Arezina</t>
+  </si>
+  <si>
+    <t>Spencer West</t>
+  </si>
+  <si>
+    <t>England, Scotland, the Channel Islands</t>
+  </si>
+  <si>
+    <t>Property Litigation</t>
+  </si>
+  <si>
+    <t>mira.arezina@spencer-west.com</t>
+  </si>
+  <si>
+    <t>442079258080</t>
+  </si>
+  <si>
+    <t>https://www.spencer-west.com/team/mel-bevan-evans/</t>
+  </si>
+  <si>
+    <t>Mel Bevan-evans</t>
+  </si>
+  <si>
+    <t>------</t>
+  </si>
+  <si>
+    <t>Family, Real Estate</t>
+  </si>
+  <si>
+    <t>mel.bevan-evans@spencer-west.com</t>
+  </si>
+  <si>
+    <t>7984049544</t>
+  </si>
+  <si>
+    <t>https://www.spencer-west.com/team/sonia-alexandra-ferreira/</t>
+  </si>
+  <si>
+    <t>Sónia Alexandra Ferreira</t>
+  </si>
+  <si>
+    <t>Founding Partner</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Corporate &amp; Real Estate</t>
+  </si>
+  <si>
+    <t>sonia.ferreira@spencer-west.com</t>
+  </si>
+  <si>
+    <t>351917484818</t>
+  </si>
+  <si>
+    <t>https://www.wfw.com/people/john-ahern/</t>
+  </si>
+  <si>
+    <t>John Ahern</t>
+  </si>
+  <si>
+    <t>Watson Farley And Williams</t>
+  </si>
+  <si>
+    <t>jahern@wfw.com</t>
+  </si>
+  <si>
+    <t>442033146336</t>
+  </si>
+  <si>
+    <t>https://www.wfw.com/people/rodrigo-berasategui/</t>
+  </si>
+  <si>
+    <t>rberasategui *****</t>
+  </si>
+  <si>
+    <t>rberasategui@wfw.com</t>
+  </si>
+  <si>
+    <t>34915156302</t>
+  </si>
+  <si>
+    <t>https://www.wfw.com/people/vassiliki-georgopoulos/</t>
+  </si>
+  <si>
+    <t>Vassiliki Georgopoulos</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>vgeorgopoulos@wfw.com</t>
+  </si>
+  <si>
+    <t>302104557337</t>
+  </si>
+  <si>
+    <t>https://panetta.it/persone/davide-montanaro/</t>
+  </si>
+  <si>
+    <t>Davide Montanaro</t>
+  </si>
+  <si>
+    <t>Panetta Consulting Group</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>d.montanaro@panetta.it</t>
+  </si>
+  <si>
+    <t>390668210129</t>
+  </si>
+  <si>
+    <t>https://www.njordlaw.com/bjarke-sanbeck</t>
+  </si>
+  <si>
+    <t>Bjarke Sanbeck</t>
+  </si>
+  <si>
+    <t>Njord</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>bsa@njordlaw.com</t>
+  </si>
+  <si>
+    <t>4577401029</t>
+  </si>
+  <si>
+    <t>https://www.njordlaw.com/dmitri-nikolaenko</t>
+  </si>
+  <si>
+    <t>Dmitri Nikolaenko</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>dn@njordlaw.lv</t>
+  </si>
+  <si>
+    <t>37167313315</t>
+  </si>
+  <si>
+    <t>https://www.vba.mt/our-people/</t>
+  </si>
+  <si>
+    <t>Nicole Briffa</t>
+  </si>
+  <si>
+    <t>VB Advocates</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>nicole.briffa@vba.mt</t>
+  </si>
+  <si>
+    <t>35627229236</t>
+  </si>
+  <si>
+    <t>https://www.seumlaw.com/professionals/53</t>
+  </si>
+  <si>
+    <t>Jungok Yun</t>
+  </si>
+  <si>
+    <t>SEUM</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>M&amp;A</t>
+  </si>
+  <si>
+    <t>jungok.yun@seumlaw.com</t>
+  </si>
+  <si>
+    <t>8225623115</t>
+  </si>
+  <si>
+    <t>https://www.malley.co.nzhttps://www.malley.co.nz/team/creon-upton</t>
+  </si>
+  <si>
+    <t>Creon Upton</t>
+  </si>
+  <si>
+    <t>Malley And Co</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>creon.upton@malley.co.nz</t>
+  </si>
+  <si>
+    <t>6433636350</t>
+  </si>
+  <si>
+    <t>https://www.matheson.com/people/geraldine-carr</t>
+  </si>
+  <si>
+    <t>Geraldine Carr</t>
+  </si>
+  <si>
+    <t>Matheson</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>geraldine.carr@matheson.com</t>
+  </si>
+  <si>
+    <t>35312322400</t>
+  </si>
+  <si>
+    <t>https://www.wolftheiss.com/lawyer/andreea-carare/</t>
+  </si>
+  <si>
+    <t>Andreea Carare</t>
+  </si>
+  <si>
+    <t>Wolf Theiss</t>
+  </si>
+  <si>
+    <t>andreea.carare@wolftheiss.com</t>
+  </si>
+  <si>
+    <t>40213088144</t>
+  </si>
+  <si>
+    <t>https://www.wolftheiss.com/lawyer/nikolaus-dinhof/</t>
+  </si>
+  <si>
+    <t>Nikolaus Dinhof-renezeder</t>
+  </si>
+  <si>
+    <t>nikolaus.dinhof@wolftheiss.com</t>
+  </si>
+  <si>
+    <t>431515105392</t>
+  </si>
+  <si>
+    <t>https://www.wolftheiss.com/lawyer/berislav-draskovic/</t>
+  </si>
+  <si>
+    <t>Berislav Draskovic</t>
+  </si>
+  <si>
+    <t>berislav.draskovic@wolftheiss.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -494,7 +1326,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A350BCBC-CDDB-414C-9A72-BE6A09964F3F}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -502,12 +1334,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="27.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.88671875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="23.109375" style="5" customWidth="1"/>
-    <col min="9" max="9" width="19" style="5" customWidth="1"/>
+    <col min="1" max="4" customWidth="true" style="1" width="27.6640625"/>
+    <col min="5" max="5" customWidth="true" style="5" width="16.109375"/>
+    <col min="6" max="6" customWidth="true" style="5" width="17.88671875"/>
+    <col min="7" max="7" customWidth="true" style="5" width="19.88671875"/>
+    <col min="8" max="8" customWidth="true" style="5" width="23.109375"/>
+    <col min="9" max="9" customWidth="true" style="5" width="19.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -539,6 +1371,1398 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s" s="5">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s" s="5">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s" s="5">
+        <v>27</v>
+      </c>
+      <c r="I4" t="s" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s" s="1">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s" s="5">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s" s="5">
+        <v>34</v>
+      </c>
+      <c r="H5" t="s" s="5">
+        <v>35</v>
+      </c>
+      <c r="I5" t="s" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="1">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s" s="1">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s" s="5">
+        <v>41</v>
+      </c>
+      <c r="H6" t="s" s="5">
+        <v>42</v>
+      </c>
+      <c r="I6" t="s" s="5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s" s="5">
+        <v>46</v>
+      </c>
+      <c r="F7" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s" s="5">
+        <v>47</v>
+      </c>
+      <c r="H7" t="s" s="5">
+        <v>48</v>
+      </c>
+      <c r="I7" t="s" s="5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="E8" t="s" s="5">
+        <v>53</v>
+      </c>
+      <c r="F8" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s" s="5">
+        <v>54</v>
+      </c>
+      <c r="I8" t="s" s="5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="C9" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="E9" t="s" s="5">
+        <v>58</v>
+      </c>
+      <c r="F9" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s" s="5">
+        <v>59</v>
+      </c>
+      <c r="I9" t="s" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="B10" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="C10" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="E10" t="s" s="5">
+        <v>64</v>
+      </c>
+      <c r="F10" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s" s="5">
+        <v>65</v>
+      </c>
+      <c r="I10" t="s" s="5">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="B11" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="C11" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="E11" t="s" s="5">
+        <v>58</v>
+      </c>
+      <c r="F11" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s" s="5">
+        <v>69</v>
+      </c>
+      <c r="I11" t="s" s="5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="B12" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="C12" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="E12" t="s" s="5">
+        <v>73</v>
+      </c>
+      <c r="F12" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s" s="5">
+        <v>74</v>
+      </c>
+      <c r="I12" t="s" s="5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="1">
+        <v>76</v>
+      </c>
+      <c r="B13" t="s" s="1">
+        <v>77</v>
+      </c>
+      <c r="C13" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s" s="1">
+        <v>78</v>
+      </c>
+      <c r="E13" t="s" s="5">
+        <v>79</v>
+      </c>
+      <c r="F13" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H13" t="s" s="5">
+        <v>80</v>
+      </c>
+      <c r="I13" t="s" s="5">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="1">
+        <v>82</v>
+      </c>
+      <c r="B14" t="s" s="1">
+        <v>83</v>
+      </c>
+      <c r="C14" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="D14" t="s" s="1">
+        <v>78</v>
+      </c>
+      <c r="E14" t="s" s="5">
+        <v>85</v>
+      </c>
+      <c r="F14" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s" s="5">
+        <v>86</v>
+      </c>
+      <c r="I14" t="s" s="5">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="1">
+        <v>88</v>
+      </c>
+      <c r="B15" t="s" s="1">
+        <v>89</v>
+      </c>
+      <c r="C15" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s" s="1">
+        <v>78</v>
+      </c>
+      <c r="E15" t="s" s="5">
+        <v>90</v>
+      </c>
+      <c r="F15" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H15" t="s" s="5">
+        <v>91</v>
+      </c>
+      <c r="I15" t="s" s="5">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="1">
+        <v>93</v>
+      </c>
+      <c r="B16" t="s" s="1">
+        <v>94</v>
+      </c>
+      <c r="C16" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s" s="1">
+        <v>95</v>
+      </c>
+      <c r="E16" t="s" s="5">
+        <v>96</v>
+      </c>
+      <c r="F16" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G16" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H16" t="s" s="5">
+        <v>97</v>
+      </c>
+      <c r="I16" t="s" s="5">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="1">
+        <v>99</v>
+      </c>
+      <c r="B17" t="s" s="1">
+        <v>100</v>
+      </c>
+      <c r="C17" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s" s="1">
+        <v>101</v>
+      </c>
+      <c r="E17" t="s" s="5">
+        <v>102</v>
+      </c>
+      <c r="F17" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H17" t="s" s="5">
+        <v>103</v>
+      </c>
+      <c r="I17" t="s" s="5">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="1">
+        <v>105</v>
+      </c>
+      <c r="B18" t="s" s="1">
+        <v>106</v>
+      </c>
+      <c r="C18" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s" s="1">
+        <v>107</v>
+      </c>
+      <c r="E18" t="s" s="5">
+        <v>108</v>
+      </c>
+      <c r="F18" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G18" t="s" s="5">
+        <v>109</v>
+      </c>
+      <c r="H18" t="s" s="5">
+        <v>110</v>
+      </c>
+      <c r="I18" t="s" s="5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="1">
+        <v>112</v>
+      </c>
+      <c r="B19" t="s" s="1">
+        <v>113</v>
+      </c>
+      <c r="C19" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s" s="1">
+        <v>107</v>
+      </c>
+      <c r="E19" t="s" s="5">
+        <v>114</v>
+      </c>
+      <c r="F19" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G19" t="s" s="5">
+        <v>115</v>
+      </c>
+      <c r="H19" t="s" s="5">
+        <v>116</v>
+      </c>
+      <c r="I19" t="s" s="5">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="1">
+        <v>118</v>
+      </c>
+      <c r="B20" t="s" s="1">
+        <v>119</v>
+      </c>
+      <c r="C20" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s" s="1">
+        <v>107</v>
+      </c>
+      <c r="E20" t="s" s="5">
+        <v>58</v>
+      </c>
+      <c r="F20" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G20" t="s" s="5">
+        <v>120</v>
+      </c>
+      <c r="H20" t="s" s="5">
+        <v>121</v>
+      </c>
+      <c r="I20" t="s" s="5">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="1">
+        <v>123</v>
+      </c>
+      <c r="B21" t="s" s="1">
+        <v>124</v>
+      </c>
+      <c r="C21" t="s" s="1">
+        <v>125</v>
+      </c>
+      <c r="D21" t="s" s="1">
+        <v>126</v>
+      </c>
+      <c r="E21" t="s" s="5">
+        <v>127</v>
+      </c>
+      <c r="F21" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G21" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H21" t="s" s="5">
+        <v>128</v>
+      </c>
+      <c r="I21" t="s" s="5">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="1">
+        <v>130</v>
+      </c>
+      <c r="B22" t="s" s="1">
+        <v>131</v>
+      </c>
+      <c r="C22" t="s" s="1">
+        <v>132</v>
+      </c>
+      <c r="D22" t="s" s="1">
+        <v>133</v>
+      </c>
+      <c r="E22" t="s" s="5">
+        <v>134</v>
+      </c>
+      <c r="F22" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G22" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H22" t="s" s="5">
+        <v>135</v>
+      </c>
+      <c r="I22" t="s" s="5">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="1">
+        <v>137</v>
+      </c>
+      <c r="B23" t="s" s="1">
+        <v>138</v>
+      </c>
+      <c r="C23" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s" s="1">
+        <v>139</v>
+      </c>
+      <c r="E23" t="s" s="5">
+        <v>140</v>
+      </c>
+      <c r="F23" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G23" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H23" t="s" s="5">
+        <v>141</v>
+      </c>
+      <c r="I23" t="s" s="5">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="1">
+        <v>143</v>
+      </c>
+      <c r="B24" t="s" s="1">
+        <v>144</v>
+      </c>
+      <c r="C24" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s" s="1">
+        <v>145</v>
+      </c>
+      <c r="E24" t="s" s="5">
+        <v>58</v>
+      </c>
+      <c r="F24" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G24" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H24" t="s" s="5">
+        <v>146</v>
+      </c>
+      <c r="I24" t="s" s="5">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="1">
+        <v>148</v>
+      </c>
+      <c r="B25" t="s" s="1">
+        <v>149</v>
+      </c>
+      <c r="C25" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s" s="1">
+        <v>145</v>
+      </c>
+      <c r="E25" t="s" s="5">
+        <v>150</v>
+      </c>
+      <c r="F25" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G25" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H25" t="s" s="5">
+        <v>151</v>
+      </c>
+      <c r="I25" t="s" s="5">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="1">
+        <v>153</v>
+      </c>
+      <c r="B26" t="s" s="1">
+        <v>154</v>
+      </c>
+      <c r="C26" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s" s="1">
+        <v>145</v>
+      </c>
+      <c r="E26" t="s" s="5">
+        <v>53</v>
+      </c>
+      <c r="F26" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G26" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H26" t="s" s="5">
+        <v>155</v>
+      </c>
+      <c r="I26" t="s" s="5">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="1">
+        <v>157</v>
+      </c>
+      <c r="B27" t="s" s="1">
+        <v>158</v>
+      </c>
+      <c r="C27" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s" s="1">
+        <v>159</v>
+      </c>
+      <c r="E27" t="s" s="5">
+        <v>58</v>
+      </c>
+      <c r="F27" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G27" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H27" t="s" s="5">
+        <v>160</v>
+      </c>
+      <c r="I27" t="s" s="5">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="1">
+        <v>162</v>
+      </c>
+      <c r="B28" t="s" s="1">
+        <v>163</v>
+      </c>
+      <c r="C28" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s" s="1">
+        <v>159</v>
+      </c>
+      <c r="E28" t="s" s="5">
+        <v>164</v>
+      </c>
+      <c r="F28" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G28" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H28" t="s" s="5">
+        <v>165</v>
+      </c>
+      <c r="I28" t="s" s="5">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="1">
+        <v>167</v>
+      </c>
+      <c r="B29" t="s" s="1">
+        <v>168</v>
+      </c>
+      <c r="C29" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s" s="1">
+        <v>159</v>
+      </c>
+      <c r="E29" t="s" s="5">
+        <v>53</v>
+      </c>
+      <c r="F29" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G29" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H29" t="s" s="5">
+        <v>169</v>
+      </c>
+      <c r="I29" t="s" s="5">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="1">
+        <v>171</v>
+      </c>
+      <c r="B30" t="s" s="1">
+        <v>172</v>
+      </c>
+      <c r="C30" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s" s="1">
+        <v>173</v>
+      </c>
+      <c r="E30" t="s" s="5">
+        <v>174</v>
+      </c>
+      <c r="F30" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G30" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H30" t="s" s="5">
+        <v>175</v>
+      </c>
+      <c r="I30" t="s" s="5">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="1">
+        <v>177</v>
+      </c>
+      <c r="B31" t="s" s="1">
+        <v>178</v>
+      </c>
+      <c r="C31" t="s" s="1">
+        <v>179</v>
+      </c>
+      <c r="D31" t="s" s="1">
+        <v>180</v>
+      </c>
+      <c r="E31" t="s" s="5">
+        <v>181</v>
+      </c>
+      <c r="F31" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G31" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H31" t="s" s="5">
+        <v>182</v>
+      </c>
+      <c r="I31" t="s" s="5">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="1">
+        <v>184</v>
+      </c>
+      <c r="B32" t="s" s="1">
+        <v>185</v>
+      </c>
+      <c r="C32" t="s" s="1">
+        <v>186</v>
+      </c>
+      <c r="D32" t="s" s="1">
+        <v>187</v>
+      </c>
+      <c r="E32" t="s" s="5">
+        <v>188</v>
+      </c>
+      <c r="F32" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G32" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H32" t="s" s="5">
+        <v>189</v>
+      </c>
+      <c r="I32" t="s" s="5">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="1">
+        <v>191</v>
+      </c>
+      <c r="B33" t="s" s="1">
+        <v>192</v>
+      </c>
+      <c r="C33" t="s" s="1">
+        <v>193</v>
+      </c>
+      <c r="D33" t="s" s="1">
+        <v>194</v>
+      </c>
+      <c r="E33" t="s" s="5">
+        <v>150</v>
+      </c>
+      <c r="F33" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G33" t="s" s="5">
+        <v>195</v>
+      </c>
+      <c r="H33" t="s" s="5">
+        <v>196</v>
+      </c>
+      <c r="I33" t="s" s="5">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="1">
+        <v>198</v>
+      </c>
+      <c r="B34" t="s" s="1">
+        <v>199</v>
+      </c>
+      <c r="C34" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s" s="1">
+        <v>200</v>
+      </c>
+      <c r="E34" t="s" s="5">
+        <v>201</v>
+      </c>
+      <c r="F34" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G34" t="s" s="5">
+        <v>202</v>
+      </c>
+      <c r="H34" t="s" s="5">
+        <v>203</v>
+      </c>
+      <c r="I34" t="s" s="5">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="1">
+        <v>205</v>
+      </c>
+      <c r="B35" t="s" s="1">
+        <v>206</v>
+      </c>
+      <c r="C35" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s" s="1">
+        <v>200</v>
+      </c>
+      <c r="E35" t="s" s="5">
+        <v>207</v>
+      </c>
+      <c r="F35" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G35" t="s" s="5">
+        <v>208</v>
+      </c>
+      <c r="H35" t="s" s="5">
+        <v>209</v>
+      </c>
+      <c r="I35" t="s" s="5">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="1">
+        <v>211</v>
+      </c>
+      <c r="B36" t="s" s="1">
+        <v>212</v>
+      </c>
+      <c r="C36" t="s" s="1">
+        <v>213</v>
+      </c>
+      <c r="D36" t="s" s="1">
+        <v>200</v>
+      </c>
+      <c r="E36" t="s" s="5">
+        <v>214</v>
+      </c>
+      <c r="F36" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G36" t="s" s="5">
+        <v>215</v>
+      </c>
+      <c r="H36" t="s" s="5">
+        <v>216</v>
+      </c>
+      <c r="I36" t="s" s="5">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="1">
+        <v>218</v>
+      </c>
+      <c r="B37" t="s" s="1">
+        <v>219</v>
+      </c>
+      <c r="C37" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s" s="1">
+        <v>220</v>
+      </c>
+      <c r="E37" t="s" s="5">
+        <v>58</v>
+      </c>
+      <c r="F37" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G37" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H37" t="s" s="5">
+        <v>221</v>
+      </c>
+      <c r="I37" t="s" s="5">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="1">
+        <v>223</v>
+      </c>
+      <c r="B38" t="s" s="1">
+        <v>224</v>
+      </c>
+      <c r="C38" t="s" s="1">
+        <v>132</v>
+      </c>
+      <c r="D38" t="s" s="1">
+        <v>220</v>
+      </c>
+      <c r="E38" t="s" s="5">
+        <v>132</v>
+      </c>
+      <c r="F38" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G38" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H38" t="s" s="5">
+        <v>225</v>
+      </c>
+      <c r="I38" t="s" s="5">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="1">
+        <v>227</v>
+      </c>
+      <c r="B39" t="s" s="1">
+        <v>228</v>
+      </c>
+      <c r="C39" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s" s="1">
+        <v>220</v>
+      </c>
+      <c r="E39" t="s" s="5">
+        <v>229</v>
+      </c>
+      <c r="F39" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G39" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H39" t="s" s="5">
+        <v>230</v>
+      </c>
+      <c r="I39" t="s" s="5">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="1">
+        <v>232</v>
+      </c>
+      <c r="B40" t="s" s="1">
+        <v>233</v>
+      </c>
+      <c r="C40" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="D40" t="s" s="1">
+        <v>234</v>
+      </c>
+      <c r="E40" t="s" s="5">
+        <v>235</v>
+      </c>
+      <c r="F40" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G40" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H40" t="s" s="5">
+        <v>236</v>
+      </c>
+      <c r="I40" t="s" s="5">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="1">
+        <v>238</v>
+      </c>
+      <c r="B41" t="s" s="1">
+        <v>239</v>
+      </c>
+      <c r="C41" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s" s="1">
+        <v>240</v>
+      </c>
+      <c r="E41" t="s" s="5">
+        <v>241</v>
+      </c>
+      <c r="F41" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G41" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H41" t="s" s="5">
+        <v>242</v>
+      </c>
+      <c r="I41" t="s" s="5">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="1">
+        <v>244</v>
+      </c>
+      <c r="B42" t="s" s="1">
+        <v>245</v>
+      </c>
+      <c r="C42" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s" s="1">
+        <v>240</v>
+      </c>
+      <c r="E42" t="s" s="5">
+        <v>246</v>
+      </c>
+      <c r="F42" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G42" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H42" t="s" s="5">
+        <v>247</v>
+      </c>
+      <c r="I42" t="s" s="5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="1">
+        <v>249</v>
+      </c>
+      <c r="B43" t="s" s="1">
+        <v>250</v>
+      </c>
+      <c r="C43" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="D43" t="s" s="1">
+        <v>251</v>
+      </c>
+      <c r="E43" t="s" s="5">
+        <v>252</v>
+      </c>
+      <c r="F43" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G43" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H43" t="s" s="5">
+        <v>253</v>
+      </c>
+      <c r="I43" t="s" s="5">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="1">
+        <v>255</v>
+      </c>
+      <c r="B44" t="s" s="1">
+        <v>256</v>
+      </c>
+      <c r="C44" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s" s="1">
+        <v>257</v>
+      </c>
+      <c r="E44" t="s" s="5">
+        <v>258</v>
+      </c>
+      <c r="F44" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G44" t="s" s="5">
+        <v>259</v>
+      </c>
+      <c r="H44" t="s" s="5">
+        <v>260</v>
+      </c>
+      <c r="I44" t="s" s="5">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="1">
+        <v>262</v>
+      </c>
+      <c r="B45" t="s" s="1">
+        <v>263</v>
+      </c>
+      <c r="C45" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s" s="1">
+        <v>264</v>
+      </c>
+      <c r="E45" t="s" s="5">
+        <v>265</v>
+      </c>
+      <c r="F45" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G45" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H45" t="s" s="5">
+        <v>266</v>
+      </c>
+      <c r="I45" t="s" s="5">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="1">
+        <v>268</v>
+      </c>
+      <c r="B46" t="s" s="1">
+        <v>269</v>
+      </c>
+      <c r="C46" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s" s="1">
+        <v>270</v>
+      </c>
+      <c r="E46" t="s" s="5">
+        <v>271</v>
+      </c>
+      <c r="F46" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G46" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H46" t="s" s="5">
+        <v>272</v>
+      </c>
+      <c r="I46" t="s" s="5">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="1">
+        <v>274</v>
+      </c>
+      <c r="B47" t="s" s="1">
+        <v>275</v>
+      </c>
+      <c r="C47" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="D47" t="s" s="1">
+        <v>276</v>
+      </c>
+      <c r="E47" t="s" s="5">
+        <v>127</v>
+      </c>
+      <c r="F47" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G47" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H47" t="s" s="5">
+        <v>277</v>
+      </c>
+      <c r="I47" t="s" s="5">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="1">
+        <v>279</v>
+      </c>
+      <c r="B48" t="s" s="1">
+        <v>280</v>
+      </c>
+      <c r="C48" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="D48" t="s" s="1">
+        <v>276</v>
+      </c>
+      <c r="E48" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="F48" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G48" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H48" t="s" s="5">
+        <v>281</v>
+      </c>
+      <c r="I48" t="s" s="5">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="1">
+        <v>283</v>
+      </c>
+      <c r="B49" t="s" s="1">
+        <v>284</v>
+      </c>
+      <c r="C49" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="D49" t="s" s="1">
+        <v>276</v>
+      </c>
+      <c r="E49" t="s" s="5">
+        <v>132</v>
+      </c>
+      <c r="F49" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G49" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H49" t="s" s="5">
+        <v>285</v>
+      </c>
+      <c r="I49" t="s" s="5">
+        <v>132</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/resources/baseFiles/excel/Sheet.xlsx
+++ b/src/main/resources/baseFiles/excel/Sheet.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="672">
   <si>
     <t>Firm</t>
   </si>
@@ -1731,6 +1731,327 @@
   </si>
   <si>
     <t>6493539922</t>
+  </si>
+  <si>
+    <t>https://pglex.it/en/professionals/alessandra-arrighi/</t>
+  </si>
+  <si>
+    <t>Alessandra Arrighi</t>
+  </si>
+  <si>
+    <t>Pedersoli</t>
+  </si>
+  <si>
+    <t>aarrighi@pglex.it</t>
+  </si>
+  <si>
+    <t>39200220303051</t>
+  </si>
+  <si>
+    <t>https://duncancotterill.com/people/amanda-bradley/</t>
+  </si>
+  <si>
+    <t>Amanda Bradley</t>
+  </si>
+  <si>
+    <t>amanda.bradley@duncancotterill.com</t>
+  </si>
+  <si>
+    <t>64202720836204174</t>
+  </si>
+  <si>
+    <t>https://ga-p.com/en/person/pablo-fernandez-cortijo/</t>
+  </si>
+  <si>
+    <t>Pablo Fernández Cortijo</t>
+  </si>
+  <si>
+    <t>pfernandez@ga-p.com</t>
+  </si>
+  <si>
+    <t>https://ga-p.com/en/person/rodrigo-vilhena/</t>
+  </si>
+  <si>
+    <t>Rodrigo Vilhena</t>
+  </si>
+  <si>
+    <t>rvcunha@ga-p.com</t>
+  </si>
+  <si>
+    <t>https://www.rdj.ie/our-people/padraic-brennan</t>
+  </si>
+  <si>
+    <t>padraic brennan *****</t>
+  </si>
+  <si>
+    <t>padraic.brennan@rdj.ie</t>
+  </si>
+  <si>
+    <t>35391895313</t>
+  </si>
+  <si>
+    <t>https://stikeman.com/en-ca/people/a/kevin-ackhurst</t>
+  </si>
+  <si>
+    <t>Kevin Ackhurst</t>
+  </si>
+  <si>
+    <t>Stikeman Elliott</t>
+  </si>
+  <si>
+    <t>sabraham@stikeman.com</t>
+  </si>
+  <si>
+    <t>https://www.ogier.com/people/natalie-bell/</t>
+  </si>
+  <si>
+    <t>Natalie Bell</t>
+  </si>
+  <si>
+    <t>natalie.bell@ogier.com</t>
+  </si>
+  <si>
+    <t>13458151866</t>
+  </si>
+  <si>
+    <t>https://www.ogier.com/people/christina-blacklaws/</t>
+  </si>
+  <si>
+    <t>Christina Blacklaws</t>
+  </si>
+  <si>
+    <t>Business Services Team</t>
+  </si>
+  <si>
+    <t>christina.blacklaws@ogier.com</t>
+  </si>
+  <si>
+    <t>441534514000</t>
+  </si>
+  <si>
+    <t>https://www.ogier.com/people/nicholas-burkill/</t>
+  </si>
+  <si>
+    <t>Nicholas Burkill</t>
+  </si>
+  <si>
+    <t>nicholas.burkill@ogier.com</t>
+  </si>
+  <si>
+    <t>12848527372</t>
+  </si>
+  <si>
+    <t>mailto:mirva.arvola@dittmar.fi</t>
+  </si>
+  <si>
+    <t>Mirva Arvola</t>
+  </si>
+  <si>
+    <t>Dittmar And Indrenius</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>mirva.arvola@dittmar.fi</t>
+  </si>
+  <si>
+    <t>358204020136203055</t>
+  </si>
+  <si>
+    <t>https://wildlaw.ca/people/rory-cattanach</t>
+  </si>
+  <si>
+    <t>rory *****</t>
+  </si>
+  <si>
+    <t>rory@wildlaw.ca</t>
+  </si>
+  <si>
+    <t>4163614766</t>
+  </si>
+  <si>
+    <t>https://www.williamfry.com/people/colette-brady/</t>
+  </si>
+  <si>
+    <t>Colette Brady</t>
+  </si>
+  <si>
+    <t>colette.brady@williamfry.com</t>
+  </si>
+  <si>
+    <t>35314896516</t>
+  </si>
+  <si>
+    <t>https://www.williamfry.com/people/aisling-ogorman/</t>
+  </si>
+  <si>
+    <t>Aisling O’gorman</t>
+  </si>
+  <si>
+    <t>aisling.ogorman@williamfry.com</t>
+  </si>
+  <si>
+    <t>35316395167</t>
+  </si>
+  <si>
+    <t>https://www.jgsa.pt/en/team/Pedro-Leao-Trigo/20/#!detail</t>
+  </si>
+  <si>
+    <t>Pedro Leão Trigo</t>
+  </si>
+  <si>
+    <t>Of Counsel</t>
+  </si>
+  <si>
+    <t>Commercial and Corporate Law</t>
+  </si>
+  <si>
+    <t>pleaotrigo@jgsa.pt</t>
+  </si>
+  <si>
+    <t>https://www.cassidylevy.com/person/isabel-fressynet/</t>
+  </si>
+  <si>
+    <t>Isabel Fressynet</t>
+  </si>
+  <si>
+    <t>Cassidy Levy Kent</t>
+  </si>
+  <si>
+    <t>ifressynet@cassidylevy.com</t>
+  </si>
+  <si>
+    <t>32028831220</t>
+  </si>
+  <si>
+    <t>https://www.cassidylevy.com/person/hugh-cheetham/</t>
+  </si>
+  <si>
+    <t>Hugh Cheetham</t>
+  </si>
+  <si>
+    <t>hcheetham@cassidylevy.com</t>
+  </si>
+  <si>
+    <t>16132620356</t>
+  </si>
+  <si>
+    <t>https://www.hfw.com/people/anas-al-tarawneh/</t>
+  </si>
+  <si>
+    <t>Anas Al-tarawneh</t>
+  </si>
+  <si>
+    <t>HFW</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>anas.altarawneh@hfw.com</t>
+  </si>
+  <si>
+    <t>97144230556</t>
+  </si>
+  <si>
+    <t>https://www.hfw.com/people/sammy-beedan/</t>
+  </si>
+  <si>
+    <t>Sammy Beedan Registered Foreign Lawyer</t>
+  </si>
+  <si>
+    <t>sammy.beedan@hfw.com</t>
+  </si>
+  <si>
+    <t>85239837707</t>
+  </si>
+  <si>
+    <t>https://www.hfw.com/people/simon-billing/</t>
+  </si>
+  <si>
+    <t>Simon Billing</t>
+  </si>
+  <si>
+    <t>simon.billing@hfw.com</t>
+  </si>
+  <si>
+    <t>610894224716</t>
+  </si>
+  <si>
+    <t>https://www.werksmans.com/our-people/chris-moraitis/</t>
+  </si>
+  <si>
+    <t>Chris Moraitis</t>
+  </si>
+  <si>
+    <t>Head</t>
+  </si>
+  <si>
+    <t>cmoraitis@werksmans.com</t>
+  </si>
+  <si>
+    <t>27115358271</t>
+  </si>
+  <si>
+    <t>https://www.hna.ca/en/expert/gcarbonneau/</t>
+  </si>
+  <si>
+    <t>Guy Carbonneau</t>
+  </si>
+  <si>
+    <t>gcarbonneau@hna.ca</t>
+  </si>
+  <si>
+    <t>14388026949</t>
+  </si>
+  <si>
+    <t>https://www.magnussonlaw.com/people/ligita-biliune/</t>
+  </si>
+  <si>
+    <t>Ligita Biliūnė</t>
+  </si>
+  <si>
+    <t>Magnusson Law</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>ligita.kuliesaite@magnussonlaw.com</t>
+  </si>
+  <si>
+    <t>37052487388</t>
+  </si>
+  <si>
+    <t>https://www.magnussonlaw.com/people/morvarid-dorkhan-nilsson/</t>
+  </si>
+  <si>
+    <t>Morvarid Dorkhan Nilsson</t>
+  </si>
+  <si>
+    <t>Public procurement</t>
+  </si>
+  <si>
+    <t>morvarid.dorkhan@magnussonlaw.com</t>
+  </si>
+  <si>
+    <t>4684637500</t>
+  </si>
+  <si>
+    <t>https://www.minterellison.co.nz/people/holly-hill</t>
+  </si>
+  <si>
+    <t>Holly Hill</t>
+  </si>
+  <si>
+    <t>Property and real estate</t>
+  </si>
+  <si>
+    <t>holly.hill@minterellison.co.nz</t>
+  </si>
+  <si>
+    <t>6444985173</t>
   </si>
 </sst>
 </file>
@@ -2163,7 +2484,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A350BCBC-CDDB-414C-9A72-BE6A09964F3F}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2210,31 +2531,698 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="1">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="B2" t="s" s="1">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="C2" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="D2" t="s" s="1">
+        <v>567</v>
+      </c>
+      <c r="E2" t="s" s="5">
+        <v>235</v>
+      </c>
+      <c r="F2" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s" s="5">
+        <v>568</v>
+      </c>
+      <c r="I2" t="s" s="5">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="1">
+        <v>570</v>
+      </c>
+      <c r="B3" t="s" s="1">
+        <v>571</v>
+      </c>
+      <c r="C3" t="s" s="1">
         <v>11</v>
       </c>
-      <c r="D2" t="s" s="1">
+      <c r="D3" t="s" s="1">
+        <v>552</v>
+      </c>
+      <c r="E3" t="s" s="5">
+        <v>265</v>
+      </c>
+      <c r="F3" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s" s="5">
+        <v>572</v>
+      </c>
+      <c r="I3" t="s" s="5">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="1">
+        <v>574</v>
+      </c>
+      <c r="B4" t="s" s="1">
+        <v>575</v>
+      </c>
+      <c r="C4" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s" s="1">
+        <v>288</v>
+      </c>
+      <c r="E4" t="s" s="5">
+        <v>181</v>
+      </c>
+      <c r="F4" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s" s="5">
+        <v>576</v>
+      </c>
+      <c r="I4" t="s" s="5">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="1">
+        <v>577</v>
+      </c>
+      <c r="B5" t="s" s="1">
+        <v>578</v>
+      </c>
+      <c r="C5" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="D5" t="s" s="1">
+        <v>288</v>
+      </c>
+      <c r="E5" t="s" s="5">
+        <v>214</v>
+      </c>
+      <c r="F5" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s" s="5">
+        <v>579</v>
+      </c>
+      <c r="I5" t="s" s="5">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="1">
+        <v>580</v>
+      </c>
+      <c r="B6" t="s" s="1">
+        <v>581</v>
+      </c>
+      <c r="C6" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s" s="1">
+        <v>444</v>
+      </c>
+      <c r="E6" t="s" s="5">
+        <v>271</v>
+      </c>
+      <c r="F6" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s" s="5">
+        <v>582</v>
+      </c>
+      <c r="I6" t="s" s="5">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="1">
+        <v>584</v>
+      </c>
+      <c r="B7" t="s" s="1">
+        <v>585</v>
+      </c>
+      <c r="C7" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s" s="1">
+        <v>586</v>
+      </c>
+      <c r="E7" t="s" s="5">
+        <v>398</v>
+      </c>
+      <c r="F7" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s" s="5">
+        <v>587</v>
+      </c>
+      <c r="I7" t="s" s="5">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="1">
+        <v>588</v>
+      </c>
+      <c r="B8" t="s" s="1">
+        <v>589</v>
+      </c>
+      <c r="C8" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s" s="1">
+        <v>449</v>
+      </c>
+      <c r="E8" t="s" s="5">
+        <v>79</v>
+      </c>
+      <c r="F8" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s" s="5">
+        <v>456</v>
+      </c>
+      <c r="H8" t="s" s="5">
+        <v>590</v>
+      </c>
+      <c r="I8" t="s" s="5">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="1">
+        <v>592</v>
+      </c>
+      <c r="B9" t="s" s="1">
+        <v>593</v>
+      </c>
+      <c r="C9" t="s" s="1">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s" s="1">
+        <v>449</v>
+      </c>
+      <c r="E9" t="s" s="5">
+        <v>469</v>
+      </c>
+      <c r="F9" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s" s="5">
+        <v>594</v>
+      </c>
+      <c r="H9" t="s" s="5">
+        <v>595</v>
+      </c>
+      <c r="I9" t="s" s="5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="1">
+        <v>597</v>
+      </c>
+      <c r="B10" t="s" s="1">
+        <v>598</v>
+      </c>
+      <c r="C10" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="1">
+        <v>449</v>
+      </c>
+      <c r="E10" t="s" s="5">
+        <v>85</v>
+      </c>
+      <c r="F10" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s" s="5">
+        <v>456</v>
+      </c>
+      <c r="H10" t="s" s="5">
+        <v>599</v>
+      </c>
+      <c r="I10" t="s" s="5">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="1">
+        <v>601</v>
+      </c>
+      <c r="B11" t="s" s="1">
+        <v>602</v>
+      </c>
+      <c r="C11" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="D11" t="s" s="1">
+        <v>603</v>
+      </c>
+      <c r="E11" t="s" s="5">
+        <v>604</v>
+      </c>
+      <c r="F11" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s" s="5">
+        <v>605</v>
+      </c>
+      <c r="I11" t="s" s="5">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="1">
+        <v>607</v>
+      </c>
+      <c r="B12" t="s" s="1">
+        <v>608</v>
+      </c>
+      <c r="C12" t="s" s="1">
+        <v>132</v>
+      </c>
+      <c r="D12" t="s" s="1">
+        <v>397</v>
+      </c>
+      <c r="E12" t="s" s="5">
+        <v>398</v>
+      </c>
+      <c r="F12" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s" s="5">
+        <v>609</v>
+      </c>
+      <c r="I12" t="s" s="5">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="1">
+        <v>611</v>
+      </c>
+      <c r="B13" t="s" s="1">
+        <v>612</v>
+      </c>
+      <c r="C13" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s" s="1">
+        <v>426</v>
+      </c>
+      <c r="E13" t="s" s="5">
+        <v>271</v>
+      </c>
+      <c r="F13" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H13" t="s" s="5">
+        <v>613</v>
+      </c>
+      <c r="I13" t="s" s="5">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="1">
+        <v>615</v>
+      </c>
+      <c r="B14" t="s" s="1">
+        <v>616</v>
+      </c>
+      <c r="C14" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s" s="1">
+        <v>426</v>
+      </c>
+      <c r="E14" t="s" s="5">
+        <v>58</v>
+      </c>
+      <c r="F14" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s" s="5">
+        <v>617</v>
+      </c>
+      <c r="I14" t="s" s="5">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="1">
+        <v>619</v>
+      </c>
+      <c r="B15" t="s" s="1">
+        <v>620</v>
+      </c>
+      <c r="C15" t="s" s="1">
+        <v>621</v>
+      </c>
+      <c r="D15" t="s" s="1">
+        <v>419</v>
+      </c>
+      <c r="E15" t="s" s="5">
+        <v>214</v>
+      </c>
+      <c r="F15" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s" s="5">
+        <v>622</v>
+      </c>
+      <c r="H15" t="s" s="5">
+        <v>623</v>
+      </c>
+      <c r="I15" t="s" s="5">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="1">
+        <v>624</v>
+      </c>
+      <c r="B16" t="s" s="1">
+        <v>625</v>
+      </c>
+      <c r="C16" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="D16" t="s" s="1">
+        <v>626</v>
+      </c>
+      <c r="E16" t="s" s="5">
+        <v>114</v>
+      </c>
+      <c r="F16" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G16" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H16" t="s" s="5">
+        <v>627</v>
+      </c>
+      <c r="I16" t="s" s="5">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="1">
+        <v>629</v>
+      </c>
+      <c r="B17" t="s" s="1">
+        <v>630</v>
+      </c>
+      <c r="C17" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s" s="1">
+        <v>626</v>
+      </c>
+      <c r="E17" t="s" s="5">
+        <v>398</v>
+      </c>
+      <c r="F17" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H17" t="s" s="5">
+        <v>631</v>
+      </c>
+      <c r="I17" t="s" s="5">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="1">
+        <v>633</v>
+      </c>
+      <c r="B18" t="s" s="1">
+        <v>634</v>
+      </c>
+      <c r="C18" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s" s="1">
+        <v>635</v>
+      </c>
+      <c r="E18" t="s" s="5">
+        <v>636</v>
+      </c>
+      <c r="F18" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G18" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H18" t="s" s="5">
+        <v>637</v>
+      </c>
+      <c r="I18" t="s" s="5">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="1">
+        <v>639</v>
+      </c>
+      <c r="B19" t="s" s="1">
+        <v>640</v>
+      </c>
+      <c r="C19" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s" s="1">
+        <v>635</v>
+      </c>
+      <c r="E19" t="s" s="5">
+        <v>258</v>
+      </c>
+      <c r="F19" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G19" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H19" t="s" s="5">
+        <v>641</v>
+      </c>
+      <c r="I19" t="s" s="5">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="1">
+        <v>643</v>
+      </c>
+      <c r="B20" t="s" s="1">
+        <v>644</v>
+      </c>
+      <c r="C20" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s" s="1">
+        <v>635</v>
+      </c>
+      <c r="E20" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="F20" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G20" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s" s="5">
+        <v>645</v>
+      </c>
+      <c r="I20" t="s" s="5">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="1">
+        <v>647</v>
+      </c>
+      <c r="B21" t="s" s="1">
+        <v>648</v>
+      </c>
+      <c r="C21" t="s" s="1">
+        <v>649</v>
+      </c>
+      <c r="D21" t="s" s="1">
+        <v>413</v>
+      </c>
+      <c r="E21" t="s" s="5">
+        <v>414</v>
+      </c>
+      <c r="F21" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G21" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H21" t="s" s="5">
+        <v>650</v>
+      </c>
+      <c r="I21" t="s" s="5">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="1">
+        <v>652</v>
+      </c>
+      <c r="B22" t="s" s="1">
+        <v>653</v>
+      </c>
+      <c r="C22" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s" s="1">
+        <v>403</v>
+      </c>
+      <c r="E22" t="s" s="5">
+        <v>398</v>
+      </c>
+      <c r="F22" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G22" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="H22" t="s" s="5">
+        <v>654</v>
+      </c>
+      <c r="I22" t="s" s="5">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="1">
+        <v>656</v>
+      </c>
+      <c r="B23" t="s" s="1">
+        <v>657</v>
+      </c>
+      <c r="C23" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="D23" t="s" s="1">
+        <v>658</v>
+      </c>
+      <c r="E23" t="s" s="5">
+        <v>659</v>
+      </c>
+      <c r="F23" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G23" t="s" s="5">
+        <v>299</v>
+      </c>
+      <c r="H23" t="s" s="5">
+        <v>660</v>
+      </c>
+      <c r="I23" t="s" s="5">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="1">
+        <v>662</v>
+      </c>
+      <c r="B24" t="s" s="1">
+        <v>663</v>
+      </c>
+      <c r="C24" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s" s="1">
+        <v>658</v>
+      </c>
+      <c r="E24" t="s" s="5">
+        <v>140</v>
+      </c>
+      <c r="F24" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G24" t="s" s="5">
+        <v>664</v>
+      </c>
+      <c r="H24" t="s" s="5">
+        <v>665</v>
+      </c>
+      <c r="I24" t="s" s="5">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="1">
+        <v>667</v>
+      </c>
+      <c r="B25" t="s" s="1">
+        <v>668</v>
+      </c>
+      <c r="C25" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s" s="1">
         <v>561</v>
       </c>
-      <c r="E2" t="s" s="5">
+      <c r="E25" t="s" s="5">
         <v>265</v>
       </c>
-      <c r="F2" t="s" s="5">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s" s="5">
-        <v>562</v>
-      </c>
-      <c r="H2" t="s" s="5">
-        <v>563</v>
-      </c>
-      <c r="I2" t="s" s="5">
-        <v>564</v>
+      <c r="F25" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="G25" t="s" s="5">
+        <v>669</v>
+      </c>
+      <c r="H25" t="s" s="5">
+        <v>670</v>
+      </c>
+      <c r="I25" t="s" s="5">
+        <v>671</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/baseFiles/excel/Sheet.xlsx
+++ b/src/main/resources/baseFiles/excel/Sheet.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5780" uniqueCount="2365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23150" uniqueCount="4546">
   <si>
     <t>Name</t>
   </si>
@@ -7122,6 +7122,6549 @@
   </si>
   <si>
     <t>https://www.dentons.com/en/mohamad-alrifai</t>
+  </si>
+  <si>
+    <t>Anna-marie Curran</t>
+  </si>
+  <si>
+    <t>amcurran@algoodbody.com</t>
+  </si>
+  <si>
+    <t>35316492227</t>
+  </si>
+  <si>
+    <t>Competition &amp; Procurement</t>
+  </si>
+  <si>
+    <t>https://www.algoodbody.com/our-people/anna-marie-curran</t>
+  </si>
+  <si>
+    <t>Ciaran Mcalinney</t>
+  </si>
+  <si>
+    <t>cmcalinney@algoodbody.com</t>
+  </si>
+  <si>
+    <t>442890727435</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>https://www.algoodbody.com/our-people/ciaran-mcalinney</t>
+  </si>
+  <si>
+    <t>aisling barry *****</t>
+  </si>
+  <si>
+    <t>aisling.barry@rdj.ie</t>
+  </si>
+  <si>
+    <t>35316054238</t>
+  </si>
+  <si>
+    <t>https://www.rdj.ie/our-people/aisling-barry</t>
+  </si>
+  <si>
+    <t>RDJ</t>
+  </si>
+  <si>
+    <t>Iñigo Erlaiz</t>
+  </si>
+  <si>
+    <t>ierlaiz@ga-p.com</t>
+  </si>
+  <si>
+    <t>34915829100</t>
+  </si>
+  <si>
+    <t>https://ga-p.com/en/person/inigo-erlaiz/</t>
+  </si>
+  <si>
+    <t>Gomez Acebo And Pombo</t>
+  </si>
+  <si>
+    <t>Filipe Santos Barata</t>
+  </si>
+  <si>
+    <t>fsbarata@ga-p.com</t>
+  </si>
+  <si>
+    <t>351213408600</t>
+  </si>
+  <si>
+    <t>https://ga-p.com/en/person/filipe-santos-barata/</t>
+  </si>
+  <si>
+    <t>James Bellis</t>
+  </si>
+  <si>
+    <t>james.bellis@frontier-economics.com</t>
+  </si>
+  <si>
+    <t>https://www.frontier-economics.com/uk/en/about/people/people-i1321-james-bellis/</t>
+  </si>
+  <si>
+    <t>Christoph Gatzen</t>
+  </si>
+  <si>
+    <t>christoph.gatzen@frontier-economics.com</t>
+  </si>
+  <si>
+    <t>https://www.frontier-economics.com/uk/en/about/people/people-i1364-christoph-gatzen/</t>
+  </si>
+  <si>
+    <t>Angelo Bonetta</t>
+  </si>
+  <si>
+    <t>angelo.bonetta@belex.com</t>
+  </si>
+  <si>
+    <t>3902771131</t>
+  </si>
+  <si>
+    <t>Litigation &amp; Dispute Resolution</t>
+  </si>
+  <si>
+    <t>https://www.belex.com/en/professional/angelo-bonetta/</t>
+  </si>
+  <si>
+    <t>BonelliErede</t>
+  </si>
+  <si>
+    <t>DR And AJU</t>
+  </si>
+  <si>
+    <t>Nicolas Gosselin</t>
+  </si>
+  <si>
+    <t>nicolas.gosselin@bcf.ca</t>
+  </si>
+  <si>
+    <t>5143978500</t>
+  </si>
+  <si>
+    <t>https://www.bcf.ca/en/team/nicolas-gosselin</t>
+  </si>
+  <si>
+    <t>Karine Dion</t>
+  </si>
+  <si>
+    <t>karine.dion@nelliganlaw.ca</t>
+  </si>
+  <si>
+    <t>6132388080</t>
+  </si>
+  <si>
+    <t>https://nelliganlaw.ca/team/karine-dion/</t>
+  </si>
+  <si>
+    <t>Nelligan Law</t>
+  </si>
+  <si>
+    <t>Edward Evans</t>
+  </si>
+  <si>
+    <t>e.evans@beauchamps.ie</t>
+  </si>
+  <si>
+    <t>353014180970</t>
+  </si>
+  <si>
+    <t>Corporate, Commercial &amp; M&amp;A, Mergers &amp; Acquisitions, Public &amp; Regulatory, Inward Investment, Public Sector</t>
+  </si>
+  <si>
+    <t>https://www.beauchamps.ie/our-people/edward-evans</t>
+  </si>
+  <si>
+    <t>Bryce Davey</t>
+  </si>
+  <si>
+    <t>bryce.davey@tompkinswake.co.nz</t>
+  </si>
+  <si>
+    <t>6493091054</t>
+  </si>
+  <si>
+    <t>https://www.tompkinswake.com/people/bryce-davey/</t>
+  </si>
+  <si>
+    <t>Bishal Panthi</t>
+  </si>
+  <si>
+    <t>bishal@reliancecs.co</t>
+  </si>
+  <si>
+    <t>9779851060084</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>https://reliancecs.co/people/bishal-panthi/</t>
+  </si>
+  <si>
+    <t>Reliance Corporate Advisors</t>
+  </si>
+  <si>
+    <t>Michael Paiva</t>
+  </si>
+  <si>
+    <t>michael@tiruchelvam.com</t>
+  </si>
+  <si>
+    <t>94112698110</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>mailto:michael@tiruchelvam.com</t>
+  </si>
+  <si>
+    <t>Tiruchelvam Associates</t>
+  </si>
+  <si>
+    <t>József Antal</t>
+  </si>
+  <si>
+    <t>jozsef.antal@kinstellar.com</t>
+  </si>
+  <si>
+    <t>3620120428204433</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>https://www.kinstellar.com/our-team/detail/antal-jozsef</t>
+  </si>
+  <si>
+    <t>Kairat Baizakov</t>
+  </si>
+  <si>
+    <t>kairat.baizakov@kinstellar.com</t>
+  </si>
+  <si>
+    <t>77273550557</t>
+  </si>
+  <si>
+    <t>https://www.kinstellar.com/our-team/detail/baizakov-kairat</t>
+  </si>
+  <si>
+    <t>Andrei Balus</t>
+  </si>
+  <si>
+    <t>andrei.balus@kinstellar.com</t>
+  </si>
+  <si>
+    <t>40213071503</t>
+  </si>
+  <si>
+    <t>https://www.kinstellar.com/our-team/detail/balus-andrei</t>
+  </si>
+  <si>
+    <t>Paul Carroll</t>
+  </si>
+  <si>
+    <t>paul.carroll@matheson.com</t>
+  </si>
+  <si>
+    <t>35312322191</t>
+  </si>
+  <si>
+    <t>https://www.matheson.com/people/paul-carroll</t>
+  </si>
+  <si>
+    <t>Matheson</t>
+  </si>
+  <si>
+    <t>Juan Federico Fischer</t>
+  </si>
+  <si>
+    <t>juan.fischer@uy.andersen.com</t>
+  </si>
+  <si>
+    <t>59829151252</t>
+  </si>
+  <si>
+    <t>https://uy.andersen.com/cv_juan_federico_fischer.php</t>
+  </si>
+  <si>
+    <t>Andersen</t>
+  </si>
+  <si>
+    <t>Nicholas Garner</t>
+  </si>
+  <si>
+    <t>ngarner@patentable.com</t>
+  </si>
+  <si>
+    <t>6046693432</t>
+  </si>
+  <si>
+    <t>https://patentable.com/lawyers/nicholas-garner/</t>
+  </si>
+  <si>
+    <t>Oyen Wiggs</t>
+  </si>
+  <si>
+    <t>Elizabeth Godfrey</t>
+  </si>
+  <si>
+    <t>egodfrey@dcc.com</t>
+  </si>
+  <si>
+    <t>61392542777</t>
+  </si>
+  <si>
+    <t>https://dcc.com/people/elizabeth-godfrey/</t>
+  </si>
+  <si>
+    <t>Managing Principal</t>
+  </si>
+  <si>
+    <t>DCC Law</t>
+  </si>
+  <si>
+    <t>Esther Seow</t>
+  </si>
+  <si>
+    <t>eseow@dcc.com</t>
+  </si>
+  <si>
+    <t>6567273777</t>
+  </si>
+  <si>
+    <t>https://dcc.com/people/esther-seow/</t>
+  </si>
+  <si>
+    <t>Stan Tîrnoveanu</t>
+  </si>
+  <si>
+    <t>stan.tirnoveanu@zrvp.ro</t>
+  </si>
+  <si>
+    <t>40213110517</t>
+  </si>
+  <si>
+    <t>https://zrvp.ro/our-people/stan-tirnoveanu/</t>
+  </si>
+  <si>
+    <t>Zamfirescu Racoti Predoiu</t>
+  </si>
+  <si>
+    <t>Feroze Abbas</t>
+  </si>
+  <si>
+    <t>feroze.abbas@stephensonharwood.com</t>
+  </si>
+  <si>
+    <t>447958118628</t>
+  </si>
+  <si>
+    <t>https://www.stephensonharwood.com/people/feroze-abbas</t>
+  </si>
+  <si>
+    <t>Diwakar Agarwal</t>
+  </si>
+  <si>
+    <t>diwakar.agarwal@stephensonharwood.com</t>
+  </si>
+  <si>
+    <t>97144073905</t>
+  </si>
+  <si>
+    <t>https://www.stephensonharwood.com/people/diwakar-agarwal</t>
+  </si>
+  <si>
+    <t>Georgia Asimakopoulos</t>
+  </si>
+  <si>
+    <t>georgia.asimakopoulos@stephensonharwood.com</t>
+  </si>
+  <si>
+    <t>302104295160</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>https://www.stephensonharwood.com/people/georgia-asimakopoulos</t>
+  </si>
+  <si>
+    <t>Ligita Biliūnė</t>
+  </si>
+  <si>
+    <t>ligita.kuliesaite@magnussonlaw.com</t>
+  </si>
+  <si>
+    <t>37052487388</t>
+  </si>
+  <si>
+    <t>https://www.magnussonlaw.com/people/ligita-biliune/</t>
+  </si>
+  <si>
+    <t>Magnusson Law</t>
+  </si>
+  <si>
+    <t>Morvarid Dorkhan Nilsson</t>
+  </si>
+  <si>
+    <t>morvarid.dorkhan@magnussonlaw.com</t>
+  </si>
+  <si>
+    <t>4684637500</t>
+  </si>
+  <si>
+    <t>Public procurement</t>
+  </si>
+  <si>
+    <t>https://www.magnussonlaw.com/people/morvarid-dorkhan-nilsson/</t>
+  </si>
+  <si>
+    <t>Chaeyoung Han</t>
+  </si>
+  <si>
+    <t>chaeyoung.han@leeko.com</t>
+  </si>
+  <si>
+    <t>82263866231</t>
+  </si>
+  <si>
+    <t>https://www.leeko.com/leenko/member/memberDetail.do?lang=EN&amp;memberNo=324&amp;schReturnType=REDIRECT</t>
+  </si>
+  <si>
+    <t>Lee And Ko</t>
+  </si>
+  <si>
+    <t>Scott Barry</t>
+  </si>
+  <si>
+    <t>sbarry@stewartmckelvey.com</t>
+  </si>
+  <si>
+    <t>19026294582</t>
+  </si>
+  <si>
+    <t>https://stewartmckelvey.com/people/barry-scott/</t>
+  </si>
+  <si>
+    <t>jbrown *****</t>
+  </si>
+  <si>
+    <t>jbrown@wildlaw.ca</t>
+  </si>
+  <si>
+    <t>4163612934</t>
+  </si>
+  <si>
+    <t>https://wildlaw.ca/people/james-brown</t>
+  </si>
+  <si>
+    <t>Wildeboer Dellelce</t>
+  </si>
+  <si>
+    <t>Hayley Gagin</t>
+  </si>
+  <si>
+    <t>hgagin@dbh.com.au</t>
+  </si>
+  <si>
+    <t>882163318</t>
+  </si>
+  <si>
+    <t>https://dbh.com.au/team/hayley-gagin/</t>
+  </si>
+  <si>
+    <t>Catarina Afonso Margarido</t>
+  </si>
+  <si>
+    <t>cmargarido@jgsa.pt</t>
+  </si>
+  <si>
+    <t>351213812690</t>
+  </si>
+  <si>
+    <t>Real Estate Law</t>
+  </si>
+  <si>
+    <t>https://www.jgsa.pt/en/team/Catarina-Afonso-Margarido/24/#!detail</t>
+  </si>
+  <si>
+    <t>JGSA</t>
+  </si>
+  <si>
+    <t>Dominique Devos</t>
+  </si>
+  <si>
+    <t>d.devos@liedekerke.com</t>
+  </si>
+  <si>
+    <t>3225511555</t>
+  </si>
+  <si>
+    <t>https://liedekerke.com/en/lawyers/devos-dominique</t>
+  </si>
+  <si>
+    <t>Grzegorz Wąsiewski</t>
+  </si>
+  <si>
+    <t>grzegorz.wasiewski@bnt.eu</t>
+  </si>
+  <si>
+    <t>48222793100</t>
+  </si>
+  <si>
+    <t>https://bnt.eu/attorneys/grzegorz-wasiewski/</t>
+  </si>
+  <si>
+    <t>BNT</t>
+  </si>
+  <si>
+    <t>Radu Gilescu</t>
+  </si>
+  <si>
+    <t>radu.gilescu@bnt.eu</t>
+  </si>
+  <si>
+    <t>40722283644</t>
+  </si>
+  <si>
+    <t>https://bnt.eu/attorneys/radu-gilescu/</t>
+  </si>
+  <si>
+    <t>Daniel Gößling</t>
+  </si>
+  <si>
+    <t>daniel.goessling@bnt.eu</t>
+  </si>
+  <si>
+    <t>49911569610</t>
+  </si>
+  <si>
+    <t>Bulgaria, Germany, Poland</t>
+  </si>
+  <si>
+    <t>https://bnt.eu/attorneys/daniel-goessling/</t>
+  </si>
+  <si>
+    <t>Amanda Chapman</t>
+  </si>
+  <si>
+    <t>achapman@barristonlaw.com</t>
+  </si>
+  <si>
+    <t>7057929200</t>
+  </si>
+  <si>
+    <t>https://www.barristonlaw.com/lawyers/amanda-chapman/</t>
+  </si>
+  <si>
+    <t>Saara Cousins</t>
+  </si>
+  <si>
+    <t>saara.cousins@borenius.com</t>
+  </si>
+  <si>
+    <t>358207133175</t>
+  </si>
+  <si>
+    <t>https://www.borenius.com/people/saara-cousins/</t>
+  </si>
+  <si>
+    <t>Alexis Borestel</t>
+  </si>
+  <si>
+    <t>alexis.borestel@ogletree.com</t>
+  </si>
+  <si>
+    <t>33186260801</t>
+  </si>
+  <si>
+    <t>https://ogletree.fr/people/alexis-borestel/?lang=en</t>
+  </si>
+  <si>
+    <t>Tonia Brugh</t>
+  </si>
+  <si>
+    <t>tonia.brugh@jamesandwells.com</t>
+  </si>
+  <si>
+    <t>6479284476</t>
+  </si>
+  <si>
+    <t>https://www.jamesandwells.com/intl/our-team/tonia-brugh/</t>
+  </si>
+  <si>
+    <t>James And Wells</t>
+  </si>
+  <si>
+    <t>Andrew Clarke</t>
+  </si>
+  <si>
+    <t>andrew.clarke@jamesandwells.com</t>
+  </si>
+  <si>
+    <t>61731853350</t>
+  </si>
+  <si>
+    <t>https://www.jamesandwells.com/intl/our-team/dr-andrew-clarke/</t>
+  </si>
+  <si>
+    <t>Catalina Jaramillo Hernández</t>
+  </si>
+  <si>
+    <t>cjaramillo@bu.com.co</t>
+  </si>
+  <si>
+    <t>5760134620118364</t>
+  </si>
+  <si>
+    <t>https://www.bu.com.co/en/abogados/catalina-jaramillo-hernandez</t>
+  </si>
+  <si>
+    <t>Charis Wong</t>
+  </si>
+  <si>
+    <t>charis.wong@covenantchambers.com</t>
+  </si>
+  <si>
+    <t>https://www.covenantchambers.com/charis-wong</t>
+  </si>
+  <si>
+    <t>Annemette Thorgaard</t>
+  </si>
+  <si>
+    <t>amt@dahllaw.dk</t>
+  </si>
+  <si>
+    <t>4525100588</t>
+  </si>
+  <si>
+    <t>https://www.dahllaw.dk/en/people/annemette-thorgaard/</t>
+  </si>
+  <si>
+    <t>Dahl Law</t>
+  </si>
+  <si>
+    <t>mbickel *****</t>
+  </si>
+  <si>
+    <t>mbickel@barlaw.co.il</t>
+  </si>
+  <si>
+    <t>https://barlaw.co.il/attorneys/moran-bickel/</t>
+  </si>
+  <si>
+    <t>kbest *****</t>
+  </si>
+  <si>
+    <t>kbest@wfw.com</t>
+  </si>
+  <si>
+    <t>442078638925</t>
+  </si>
+  <si>
+    <t>https://www.wfw.com/people/katherine-best/</t>
+  </si>
+  <si>
+    <t>Watson Farley And Williams</t>
+  </si>
+  <si>
+    <t>cbijlani *****</t>
+  </si>
+  <si>
+    <t>cbijlani@wfw.com</t>
+  </si>
+  <si>
+    <t>97142782308</t>
+  </si>
+  <si>
+    <t>https://www.wfw.com/people/charlotte-bijlani/</t>
+  </si>
+  <si>
+    <t>mboemke *****</t>
+  </si>
+  <si>
+    <t>mboemke@wfw.com</t>
+  </si>
+  <si>
+    <t>4940800084326</t>
+  </si>
+  <si>
+    <t>https://www.wfw.com/people/maximilian-boemke/</t>
+  </si>
+  <si>
+    <t>Isabel Fressynet</t>
+  </si>
+  <si>
+    <t>ifressynet@cassidylevy.com</t>
+  </si>
+  <si>
+    <t>32028831220</t>
+  </si>
+  <si>
+    <t>https://www.cassidylevy.com/person/isabel-fressynet/</t>
+  </si>
+  <si>
+    <t>Cassidy Levy Kent</t>
+  </si>
+  <si>
+    <t>Hugh Cheetham</t>
+  </si>
+  <si>
+    <t>hcheetham@cassidylevy.com</t>
+  </si>
+  <si>
+    <t>16132620356</t>
+  </si>
+  <si>
+    <t>https://www.cassidylevy.com/person/hugh-cheetham/</t>
+  </si>
+  <si>
+    <t>Piers Alexander</t>
+  </si>
+  <si>
+    <t>telpiers.alexander@conyers.com</t>
+  </si>
+  <si>
+    <t>85228429525</t>
+  </si>
+  <si>
+    <t>https://www.conyers.com/people/view/piers-alexander/</t>
+  </si>
+  <si>
+    <t>Conyers</t>
+  </si>
+  <si>
+    <t>Andrew Barnes</t>
+  </si>
+  <si>
+    <t>andrew.barnes@conyers.com</t>
+  </si>
+  <si>
+    <t>14412788054</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>https://www.conyers.com/people/view/andrew-barnes/</t>
+  </si>
+  <si>
+    <t>Clare Bradin</t>
+  </si>
+  <si>
+    <t>telclare.bradin@conyers.com</t>
+  </si>
+  <si>
+    <t>13458147366</t>
+  </si>
+  <si>
+    <t>the Cayman Islands</t>
+  </si>
+  <si>
+    <t>https://www.conyers.com/people/view/clare-bradin/</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>STRING</t>
+  </si>
+  <si>
+    <t>Bradley Chaplick</t>
+  </si>
+  <si>
+    <t>bchaplick@lddclawyers.com</t>
+  </si>
+  <si>
+    <t>4165127440232</t>
+  </si>
+  <si>
+    <t>Dimas Coetsier</t>
+  </si>
+  <si>
+    <t>dimas.coetsier@aoshearman.com</t>
+  </si>
+  <si>
+    <t>3232877541</t>
+  </si>
+  <si>
+    <t>Jürgen Toome</t>
+  </si>
+  <si>
+    <t>jyrgen@aaa.ee</t>
+  </si>
+  <si>
+    <t>Olivier Moreau</t>
+  </si>
+  <si>
+    <t>moreau@chatainassocies.com</t>
+  </si>
+  <si>
+    <t>33140538385</t>
+  </si>
+  <si>
+    <t>Insurance Litigation</t>
+  </si>
+  <si>
+    <t>Cécile Ferouelle</t>
+  </si>
+  <si>
+    <t>cecile.ferouelle@advant-altana.com</t>
+  </si>
+  <si>
+    <t>330179979322</t>
+  </si>
+  <si>
+    <t>Rachel Bernasconi</t>
+  </si>
+  <si>
+    <t>rbernasconi@seyfarth.com</t>
+  </si>
+  <si>
+    <t>61282560416</t>
+  </si>
+  <si>
+    <t>Elizabeth Atkins</t>
+  </si>
+  <si>
+    <t>elizabeth.atkins@akingump.com</t>
+  </si>
+  <si>
+    <t>442070129817</t>
+  </si>
+  <si>
+    <t>Giffy Pardede</t>
+  </si>
+  <si>
+    <t>giffy.pardede@agasia.law</t>
+  </si>
+  <si>
+    <t>Urban Kropivšek</t>
+  </si>
+  <si>
+    <t>urban.kropivsek@andric.si</t>
+  </si>
+  <si>
+    <t>Insolvency</t>
+  </si>
+  <si>
+    <t>Grant Nicholson</t>
+  </si>
+  <si>
+    <t>grant.nicholson@ah.co.nz</t>
+  </si>
+  <si>
+    <t>6493562621</t>
+  </si>
+  <si>
+    <t>Antoineportelange</t>
+  </si>
+  <si>
+    <t>antoine.portelange@arendt.com</t>
+  </si>
+  <si>
+    <t>3524078789267</t>
+  </si>
+  <si>
+    <t>Mita Kartohadiprodjo</t>
+  </si>
+  <si>
+    <t>mita.kartohadiprodjo@ahp.id</t>
+  </si>
+  <si>
+    <t>622125559972</t>
+  </si>
+  <si>
+    <t>Luiza Wyrębkowska</t>
+  </si>
+  <si>
+    <t>luiza.wyrebkowska@b2rlaw.com</t>
+  </si>
+  <si>
+    <t>48223754046</t>
+  </si>
+  <si>
+    <t>Adam Dawson</t>
+  </si>
+  <si>
+    <t>adam.dawson@bakerbotts.com</t>
+  </si>
+  <si>
+    <t>3228917319</t>
+  </si>
+  <si>
+    <t>Eric Meier</t>
+  </si>
+  <si>
+    <t>eric.meier@bakermckenzie.com</t>
+  </si>
+  <si>
+    <t>Corrado Rampini</t>
+  </si>
+  <si>
+    <t>corrado.rampini@baerkarrer.ch</t>
+  </si>
+  <si>
+    <t>41796199857</t>
+  </si>
+  <si>
+    <t>Nicolà Barandun</t>
+  </si>
+  <si>
+    <t>nicola.barandun@barandun-law.ch</t>
+  </si>
+  <si>
+    <t>41442665616</t>
+  </si>
+  <si>
+    <t>Alberto Ferreiro</t>
+  </si>
+  <si>
+    <t>a.ferreiro@barrilero.es</t>
+  </si>
+  <si>
+    <t>Sarah De Wulf</t>
+  </si>
+  <si>
+    <t>sarah.dewulf@aoshearman.com</t>
+  </si>
+  <si>
+    <t>3232877324</t>
+  </si>
+  <si>
+    <t>Rémy Blain</t>
+  </si>
+  <si>
+    <t>remy.blain@aglaw.com</t>
+  </si>
+  <si>
+    <t>330184134935</t>
+  </si>
+  <si>
+    <t>Bart Franceus</t>
+  </si>
+  <si>
+    <t>bart.franceus@aoshearman.com</t>
+  </si>
+  <si>
+    <t>3232877446</t>
+  </si>
+  <si>
+    <t>Sofie Haelterman</t>
+  </si>
+  <si>
+    <t>sofie.haelterman@aoshearman.com</t>
+  </si>
+  <si>
+    <t>3232877536</t>
+  </si>
+  <si>
+    <t>Judith Fleuret</t>
+  </si>
+  <si>
+    <t>judith.fleuret@advant-altana.com</t>
+  </si>
+  <si>
+    <t>330179979300</t>
+  </si>
+  <si>
+    <t>Tony Barnes</t>
+  </si>
+  <si>
+    <t>tony.barnes@akingump.com</t>
+  </si>
+  <si>
+    <t>442076615340</t>
+  </si>
+  <si>
+    <t>Corporate Restructuring</t>
+  </si>
+  <si>
+    <t>Mark Veldon</t>
+  </si>
+  <si>
+    <t>mveldon@alixpartners.com</t>
+  </si>
+  <si>
+    <t>447771373826</t>
+  </si>
+  <si>
+    <t>Jenny Baldwin</t>
+  </si>
+  <si>
+    <t>jenny.baldwin@ah.co.nz</t>
+  </si>
+  <si>
+    <t>6493562628</t>
+  </si>
+  <si>
+    <t>Yann spielmann</t>
+  </si>
+  <si>
+    <t>yann.spielmann@arendt.com</t>
+  </si>
+  <si>
+    <t>3524078782132</t>
+  </si>
+  <si>
+    <t>Muhamad Kamal Fikri</t>
+  </si>
+  <si>
+    <t>kamal.fikri@ahp.id</t>
+  </si>
+  <si>
+    <t>622125557824</t>
+  </si>
+  <si>
+    <t>Dawid Malinowski</t>
+  </si>
+  <si>
+    <t>dawid.malinowski@b2rlaw.com</t>
+  </si>
+  <si>
+    <t>48223754047</t>
+  </si>
+  <si>
+    <t>Sofia Doudountsaki</t>
+  </si>
+  <si>
+    <t>sofia.doudountsaki@bakerbotts.com</t>
+  </si>
+  <si>
+    <t>3228917347</t>
+  </si>
+  <si>
+    <t>Eva Leygonie</t>
+  </si>
+  <si>
+    <t>eva.leygonie@bakermckenzie.com</t>
+  </si>
+  <si>
+    <t>Mani Reinert</t>
+  </si>
+  <si>
+    <t>mani.reinert@baerkarrer.ch</t>
+  </si>
+  <si>
+    <t>41582625288</t>
+  </si>
+  <si>
+    <t>Remy Bärlocher</t>
+  </si>
+  <si>
+    <t>remy.baerlocher@barandun-law.ch</t>
+  </si>
+  <si>
+    <t>41442665646</t>
+  </si>
+  <si>
+    <t>Maria Garcia</t>
+  </si>
+  <si>
+    <t>maria.garcia@barrilero.es</t>
+  </si>
+  <si>
+    <t>Sung Kwan Ban</t>
+  </si>
+  <si>
+    <t>sungkwan.ban@barunlaw.com</t>
+  </si>
+  <si>
+    <t>234792693</t>
+  </si>
+  <si>
+    <t>White Collar Defense</t>
+  </si>
+  <si>
+    <t>José Miguel Tuirán Salas</t>
+  </si>
+  <si>
+    <t>mtuiran@basham.com.mx</t>
+  </si>
+  <si>
+    <t>528113408817</t>
+  </si>
+  <si>
+    <t>Tax Consulting</t>
+  </si>
+  <si>
+    <t>Enrico Moretti</t>
+  </si>
+  <si>
+    <t>em@bmlaw.ch</t>
+  </si>
+  <si>
+    <t>Brigit Morrison</t>
+  </si>
+  <si>
+    <t>brigit.morrison@bellgully.com</t>
+  </si>
+  <si>
+    <t>6499168921</t>
+  </si>
+  <si>
+    <t>Jason M Berall</t>
+  </si>
+  <si>
+    <t>berallj@bennettjones.com</t>
+  </si>
+  <si>
+    <t>4167775480</t>
+  </si>
+  <si>
+    <t>Stanislas Richoillez</t>
+  </si>
+  <si>
+    <t>richoillez@bg2v.com</t>
+  </si>
+  <si>
+    <t>33148886055</t>
+  </si>
+  <si>
+    <t>Camille De Verdelhan</t>
+  </si>
+  <si>
+    <t>verdelhan@bg2v.com</t>
+  </si>
+  <si>
+    <t>33171703435</t>
+  </si>
+  <si>
+    <t>Christopher Maierhöfer</t>
+  </si>
+  <si>
+    <t>christopher.maierhoefer@twobirds.com</t>
+  </si>
+  <si>
+    <t>Alain Massicotte</t>
+  </si>
+  <si>
+    <t>alain.massicotte@blakes.com</t>
+  </si>
+  <si>
+    <t>15149824007</t>
+  </si>
+  <si>
+    <t>Pia Hesse</t>
+  </si>
+  <si>
+    <t>pia.hesse@blomstein.com</t>
+  </si>
+  <si>
+    <t>Brian Dingle</t>
+  </si>
+  <si>
+    <t>bdingle@blg.com</t>
+  </si>
+  <si>
+    <t>Albrecht Von Breitenbuch</t>
+  </si>
+  <si>
+    <t>albrecht.breitenbuch@bclplaw.com</t>
+  </si>
+  <si>
+    <t>49030684096161</t>
+  </si>
+  <si>
+    <t>Ida Holst Bekker-jensen</t>
+  </si>
+  <si>
+    <t>ih@buddeschou.dk</t>
+  </si>
+  <si>
+    <t>Lisa Digernes</t>
+  </si>
+  <si>
+    <t>ld@bull.no</t>
+  </si>
+  <si>
+    <t>4747772116</t>
+  </si>
+  <si>
+    <t>Colm Hanley</t>
+  </si>
+  <si>
+    <t>chanley@byrnewallaceshields.com</t>
+  </si>
+  <si>
+    <t>Emanuel Callejas</t>
+  </si>
+  <si>
+    <t>emanuel.callejas@carrillolaw.com</t>
+  </si>
+  <si>
+    <t>50224215741</t>
+  </si>
+  <si>
+    <t>Raquel Frías Rivera</t>
+  </si>
+  <si>
+    <t>raquel.frias@caseslacambra.com</t>
+  </si>
+  <si>
+    <t>34644258220</t>
+  </si>
+  <si>
+    <t>Jed Blackburn</t>
+  </si>
+  <si>
+    <t>jblackburn@cassels.com</t>
+  </si>
+  <si>
+    <t>4168606725</t>
+  </si>
+  <si>
+    <t>Heidi Paalanen-koev</t>
+  </si>
+  <si>
+    <t>heidi.paalanen-koev@castren.fi</t>
+  </si>
+  <si>
+    <t>358405026713</t>
+  </si>
+  <si>
+    <t>Harald Stingl</t>
+  </si>
+  <si>
+    <t>harald.stingl@cerhahempel.com</t>
+  </si>
+  <si>
+    <t>Alison Goldthorp</t>
+  </si>
+  <si>
+    <t>alison.goldthorp@crsblaw.com</t>
+  </si>
+  <si>
+    <t>Laurent Legein</t>
+  </si>
+  <si>
+    <t>llegein@cgsh.com</t>
+  </si>
+  <si>
+    <t>3222872122</t>
+  </si>
+  <si>
+    <t>Timothy Baker</t>
+  </si>
+  <si>
+    <t>timothy.baker@cdhlegal.com</t>
+  </si>
+  <si>
+    <t>270214816308</t>
+  </si>
+  <si>
+    <t>Fei Kwok</t>
+  </si>
+  <si>
+    <t>fei.kwok@clydeco.com</t>
+  </si>
+  <si>
+    <t>85222872668</t>
+  </si>
+  <si>
+    <t>Babita Ambekar</t>
+  </si>
+  <si>
+    <t>babita.ambekar@cms-cmno.com</t>
+  </si>
+  <si>
+    <t>Anna Walker</t>
+  </si>
+  <si>
+    <t>anna.walker@controlrisks.com</t>
+  </si>
+  <si>
+    <t>442079401959</t>
+  </si>
+  <si>
+    <t>Paul Mccann</t>
+  </si>
+  <si>
+    <t>p.mccann@cornwallsnsw.com.au</t>
+  </si>
+  <si>
+    <t>Sam Mcgrath</t>
+  </si>
+  <si>
+    <t>smcgrath@cowellclarke.com.au</t>
+  </si>
+  <si>
+    <t>Rohan Saha</t>
+  </si>
+  <si>
+    <t>rsaha@cravath.com</t>
+  </si>
+  <si>
+    <t>442074531060</t>
+  </si>
+  <si>
+    <t>Kate Mcgrann</t>
+  </si>
+  <si>
+    <t>kmcgrann@cmblaw.ca</t>
+  </si>
+  <si>
+    <t>4162170850</t>
+  </si>
+  <si>
+    <t>Jaime Moya</t>
+  </si>
+  <si>
+    <t>jaime.moya@cuatrecasas.com</t>
+  </si>
+  <si>
+    <t>Elias benhamou</t>
+  </si>
+  <si>
+    <t>ebenhamou@dwpv.com</t>
+  </si>
+  <si>
+    <t>5148416427</t>
+  </si>
+  <si>
+    <t>Christopher Bona</t>
+  </si>
+  <si>
+    <t>christopher.bona@delphi.se</t>
+  </si>
+  <si>
+    <t>46709252627</t>
+  </si>
+  <si>
+    <t>Christiane Meneghini Silva De Siqueira</t>
+  </si>
+  <si>
+    <t>cmsiqueira@demarest.com.br</t>
+  </si>
+  <si>
+    <t>551133561854</t>
+  </si>
+  <si>
+    <t>Leila Hawa</t>
+  </si>
+  <si>
+    <t>leila.hawa@desgouttes.ch</t>
+  </si>
+  <si>
+    <t>Rosemary Kanan</t>
+  </si>
+  <si>
+    <t>rosemary.kanan@deutschmiller.com</t>
+  </si>
+  <si>
+    <t>292107745</t>
+  </si>
+  <si>
+    <t>Laurent geelhand</t>
+  </si>
+  <si>
+    <t>laurent.geelhand@dlapiper.com</t>
+  </si>
+  <si>
+    <t>32025001642</t>
+  </si>
+  <si>
+    <t>Anna Jones</t>
+  </si>
+  <si>
+    <t>anna.jones@doane.gt.ca</t>
+  </si>
+  <si>
+    <t>17788411149</t>
+  </si>
+  <si>
+    <t>Florian Kremslehner</t>
+  </si>
+  <si>
+    <t>florian.kremslehner@dorda.at</t>
+  </si>
+  <si>
+    <t>Milcíades M Rodríguez</t>
+  </si>
+  <si>
+    <t>m.rodriguez@drr-law.com</t>
+  </si>
+  <si>
+    <t>Carolina Serra</t>
+  </si>
+  <si>
+    <t>cserra@beccarvarela.com</t>
+  </si>
+  <si>
+    <t>Michael Röhsner</t>
+  </si>
+  <si>
+    <t>michael.roehsner@eversheds-sutherland.at</t>
+  </si>
+  <si>
+    <t>Data Protection</t>
+  </si>
+  <si>
+    <t>Roberto Baumgarten Kuster</t>
+  </si>
+  <si>
+    <t>roberto.kuster@faleck.com.br</t>
+  </si>
+  <si>
+    <t>Business Disputes</t>
+  </si>
+  <si>
+    <t>Christian paquette</t>
+  </si>
+  <si>
+    <t>cpaquette@fasken.com</t>
+  </si>
+  <si>
+    <t>Jamie G Knight</t>
+  </si>
+  <si>
+    <t>jknight@filion.on.ca</t>
+  </si>
+  <si>
+    <t>14164085509</t>
+  </si>
+  <si>
+    <t>Ángel Blesa</t>
+  </si>
+  <si>
+    <t>angel.blesa@filslegal.com</t>
+  </si>
+  <si>
+    <t>Juan Pablo Philippi</t>
+  </si>
+  <si>
+    <t>jpp@fkeconomics.com</t>
+  </si>
+  <si>
+    <t>Christian Bochmann Ll M</t>
+  </si>
+  <si>
+    <t>christian.bochmann@fgs.de</t>
+  </si>
+  <si>
+    <t>49403070850</t>
+  </si>
+  <si>
+    <t>Christian Nicholls</t>
+  </si>
+  <si>
+    <t>cnicholls@forensicrisk.com</t>
+  </si>
+  <si>
+    <t>447860837620</t>
+  </si>
+  <si>
+    <t>Farid Sigari-majd</t>
+  </si>
+  <si>
+    <t>farid.sigari@freshfields.com</t>
+  </si>
+  <si>
+    <t>431515150</t>
+  </si>
+  <si>
+    <t>John Batchelor</t>
+  </si>
+  <si>
+    <t>john.batchelor@fticonsulting.com</t>
+  </si>
+  <si>
+    <t>61396040628</t>
+  </si>
+  <si>
+    <t>Corporate Recovery</t>
+  </si>
+  <si>
+    <t>Johan Norén</t>
+  </si>
+  <si>
+    <t>johan.noren@fylgia.se</t>
+  </si>
+  <si>
+    <t>4684425300</t>
+  </si>
+  <si>
+    <t>Anders Junker-nilsson</t>
+  </si>
+  <si>
+    <t>ajunkernilsson@gbsdisputes.com</t>
+  </si>
+  <si>
+    <t>33772389890</t>
+  </si>
+  <si>
+    <t>Cross Border Commercial</t>
+  </si>
+  <si>
+    <t>Simone D’avolio</t>
+  </si>
+  <si>
+    <t>sdavolio@gop.it</t>
+  </si>
+  <si>
+    <t>Benoit Pape</t>
+  </si>
+  <si>
+    <t>benoit.pape@gide.com</t>
+  </si>
+  <si>
+    <t>2120522489028</t>
+  </si>
+  <si>
+    <t>Niklaus Glatthard</t>
+  </si>
+  <si>
+    <t>niklaus.glatthard@glatthard.law</t>
+  </si>
+  <si>
+    <t>41583112028</t>
+  </si>
+  <si>
+    <t>Cecilia Malm</t>
+  </si>
+  <si>
+    <t>cecilia.malm@glimstedt.se</t>
+  </si>
+  <si>
+    <t>Jakob Krogsøe</t>
+  </si>
+  <si>
+    <t>jak@gorrissenfederspiel.com</t>
+  </si>
+  <si>
+    <t>Mark Giavedoni</t>
+  </si>
+  <si>
+    <t>mark.giavedoni@gowlingwlg.com</t>
+  </si>
+  <si>
+    <t>19055402493</t>
+  </si>
+  <si>
+    <t>He Lifeng</t>
+  </si>
+  <si>
+    <t>helifeng@grandall.com.cn</t>
+  </si>
+  <si>
+    <t>Anthony Cowle</t>
+  </si>
+  <si>
+    <t>anthony.cowle@halfords.com.au</t>
+  </si>
+  <si>
+    <t>Gilbert Licudi</t>
+  </si>
+  <si>
+    <t>gilbert.licudi@hassans.gi</t>
+  </si>
+  <si>
+    <t>Alex Smith</t>
+  </si>
+  <si>
+    <t>asmith@hhllp.ca</t>
+  </si>
+  <si>
+    <t>Christoph Roth</t>
+  </si>
+  <si>
+    <t>christoph.roth@hengeler.com</t>
+  </si>
+  <si>
+    <t>4989383388196</t>
+  </si>
+  <si>
+    <t>Peiwen Chen</t>
+  </si>
+  <si>
+    <t>peiwen.chen@hsfkramer.com</t>
+  </si>
+  <si>
+    <t>6568689825</t>
+  </si>
+  <si>
+    <t>Roelof Vos</t>
+  </si>
+  <si>
+    <t>vos@hertoghsadvocaten.nl</t>
+  </si>
+  <si>
+    <t>310885202252</t>
+  </si>
+  <si>
+    <t>Phil Kienstra</t>
+  </si>
+  <si>
+    <t>philipkienstra@hka.com</t>
+  </si>
+  <si>
+    <t>61730316800</t>
+  </si>
+  <si>
+    <t>Grace Guo</t>
+  </si>
+  <si>
+    <t>grace.guo@hoganlovells.com</t>
+  </si>
+  <si>
+    <t>861065829488</t>
+  </si>
+  <si>
+    <t>Dilber Devitre</t>
+  </si>
+  <si>
+    <t>dilber.devitre@homburger.ch</t>
+  </si>
+  <si>
+    <t>Rhidian David</t>
+  </si>
+  <si>
+    <t>rhidian.david@hugheshubbard.com</t>
+  </si>
+  <si>
+    <t>330144057613</t>
+  </si>
+  <si>
+    <t>Helen Christinson</t>
+  </si>
+  <si>
+    <t>helen@hugolawgroup.com.au</t>
+  </si>
+  <si>
+    <t>296961361</t>
+  </si>
+  <si>
+    <t>Dillon Loh</t>
+  </si>
+  <si>
+    <t>enquiry@intellect-worldwide.com</t>
+  </si>
+  <si>
+    <t>6042291100</t>
+  </si>
+  <si>
+    <t>Gustavo Enrique Vicetto</t>
+  </si>
+  <si>
+    <t>gvicetto@izquierdo.com.ar</t>
+  </si>
+  <si>
+    <t>Beatriz Pereira Da Cruz</t>
+  </si>
+  <si>
+    <t>beatrizcruz@jpcruz.pt</t>
+  </si>
+  <si>
+    <t>Francisco Grob</t>
+  </si>
+  <si>
+    <t>fgrob@janagil.com</t>
+  </si>
+  <si>
+    <t>56227577809</t>
+  </si>
+  <si>
+    <t>Alexae fournier- De faÿ</t>
+  </si>
+  <si>
+    <t>afournierdefay@jeantet.fr</t>
+  </si>
+  <si>
+    <t>Anouchka Halperin</t>
+  </si>
+  <si>
+    <t>ahalperin@avocats.ch</t>
+  </si>
+  <si>
+    <t>Karoline Bopp</t>
+  </si>
+  <si>
+    <t>karoline.bopp@kadorpartner.com</t>
+  </si>
+  <si>
+    <t>Laura Fussek</t>
+  </si>
+  <si>
+    <t>laura.fussek@kantenwein.de</t>
+  </si>
+  <si>
+    <t>Kristiina Aasna</t>
+  </si>
+  <si>
+    <t>kristiina.aasna@kaosaar.ee</t>
+  </si>
+  <si>
+    <t>Adrian Dan</t>
+  </si>
+  <si>
+    <t>adrian.dan@kellerhals-carrard.ch</t>
+  </si>
+  <si>
+    <t>41582003200</t>
+  </si>
+  <si>
+    <t>Davinia Sánchez</t>
+  </si>
+  <si>
+    <t>dsanchez@keplerkarst.com</t>
+  </si>
+  <si>
+    <t>34911095710</t>
+  </si>
+  <si>
+    <t>Sylvain Zihlmann</t>
+  </si>
+  <si>
+    <t>zihlmann@keplaw.ch</t>
+  </si>
+  <si>
+    <t>Enrica Schaefer</t>
+  </si>
+  <si>
+    <t>enrica.schaefer@kirkland.com</t>
+  </si>
+  <si>
+    <t>3228818219</t>
+  </si>
+  <si>
+    <t>Burkard Göpfert</t>
+  </si>
+  <si>
+    <t>burkard.goepfert@kliemt.de</t>
+  </si>
+  <si>
+    <t>490892123103315</t>
+  </si>
+  <si>
+    <t>Aleksandra Burr Dixon</t>
+  </si>
+  <si>
+    <t>abd@khl.co.za</t>
+  </si>
+  <si>
+    <t>270116696111</t>
+  </si>
+  <si>
+    <t>Commercial M&amp;A</t>
+  </si>
+  <si>
+    <t>Karolina Piotrowska-andryszczyk</t>
+  </si>
+  <si>
+    <t>k.andryszczyk@kondrackicelej.pl</t>
+  </si>
+  <si>
+    <t>Daniel Loft</t>
+  </si>
+  <si>
+    <t>dlr@kromannreumert.com</t>
+  </si>
+  <si>
+    <t>Jarosław Kulikowski</t>
+  </si>
+  <si>
+    <t>jkulikowski@kulikowski.pl</t>
+  </si>
+  <si>
+    <t>Adrien Canivet</t>
+  </si>
+  <si>
+    <t>acanivet@lalive.law</t>
+  </si>
+  <si>
+    <t>Lester Miller</t>
+  </si>
+  <si>
+    <t>lester.miller@laminarip.com</t>
+  </si>
+  <si>
+    <t>Olivier Gihana</t>
+  </si>
+  <si>
+    <t>gihana@landmarkadvocates.com</t>
+  </si>
+  <si>
+    <t>Catherine Biron</t>
+  </si>
+  <si>
+    <t>catherine.biron@langlois.ca</t>
+  </si>
+  <si>
+    <t>14388447833</t>
+  </si>
+  <si>
+    <t>Alfonso Lamadrid</t>
+  </si>
+  <si>
+    <t>alfonso.lamadrid@lw.com</t>
+  </si>
+  <si>
+    <t>3227886310</t>
+  </si>
+  <si>
+    <t>Mark Hyde</t>
+  </si>
+  <si>
+    <t>mark.hyde@lavan.com.au</t>
+  </si>
+  <si>
+    <t>61892886680</t>
+  </si>
+  <si>
+    <t>Denise Jen</t>
+  </si>
+  <si>
+    <t>denisejen@lcs.com.tw</t>
+  </si>
+  <si>
+    <t>Samuel Sauphanor</t>
+  </si>
+  <si>
+    <t>samuel.sauphanor@le16law.com</t>
+  </si>
+  <si>
+    <t>33621823769</t>
+  </si>
+  <si>
+    <t>Clair Y W Gao</t>
+  </si>
+  <si>
+    <t>clairgao@leeandli.com</t>
+  </si>
+  <si>
+    <t>8862276380002365</t>
+  </si>
+  <si>
+    <t>Rodrigo Junqueira</t>
+  </si>
+  <si>
+    <t>rodrigo.junqueira@lefosse.com</t>
+  </si>
+  <si>
+    <t>551130246129</t>
+  </si>
+  <si>
+    <t>Laure Baumann</t>
+  </si>
+  <si>
+    <t>laure.baumann@lenzstaehelin.com</t>
+  </si>
+  <si>
+    <t>Immigration</t>
+  </si>
+  <si>
+    <t>Laurent Julienne</t>
+  </si>
+  <si>
+    <t>ljulienne@lerins.com</t>
+  </si>
+  <si>
+    <t>Spencer F Toole</t>
+  </si>
+  <si>
+    <t>stoole@lddclawyers.com</t>
+  </si>
+  <si>
+    <t>4165127440231</t>
+  </si>
+  <si>
+    <t>Freya Mareels</t>
+  </si>
+  <si>
+    <t>f.mareels@liedekerke.com</t>
+  </si>
+  <si>
+    <t>3225511534</t>
+  </si>
+  <si>
+    <t>Nadia Campion</t>
+  </si>
+  <si>
+    <t>ncampion@lolg.ca</t>
+  </si>
+  <si>
+    <t>4166423134</t>
+  </si>
+  <si>
+    <t>Freek Hilberdink</t>
+  </si>
+  <si>
+    <t>freek.hilberdink@loyensloeff.com</t>
+  </si>
+  <si>
+    <t>Danilo Gallardo Correia</t>
+  </si>
+  <si>
+    <t>danilo.gallardo@mvga.com.br</t>
+  </si>
+  <si>
+    <t>Fanny Margairaz</t>
+  </si>
+  <si>
+    <t>fanny.margairaz@mangeat.ch</t>
+  </si>
+  <si>
+    <t>Financial Crime</t>
+  </si>
+  <si>
+    <t>Emil Boström</t>
+  </si>
+  <si>
+    <t>emil.bostrom@msa.se</t>
+  </si>
+  <si>
+    <t>46709777112</t>
+  </si>
+  <si>
+    <t>Diego S Kelly</t>
+  </si>
+  <si>
+    <t>dsk@marval.com</t>
+  </si>
+  <si>
+    <t>André Luiz Freire</t>
+  </si>
+  <si>
+    <t>andre.freire@mattosfilho.com.br</t>
+  </si>
+  <si>
+    <t>5511997345902</t>
+  </si>
+  <si>
+    <t>Ciara O Herlihy</t>
+  </si>
+  <si>
+    <t>ciara.oherlihy@mccannfitzgerald.com</t>
+  </si>
+  <si>
+    <t>Patricio Trad</t>
+  </si>
+  <si>
+    <t>ptrad@macf.com.mx</t>
+  </si>
+  <si>
+    <t>525552017415</t>
+  </si>
+  <si>
+    <t>Kate Colman</t>
+  </si>
+  <si>
+    <t>kcolman@milbank.com</t>
+  </si>
+  <si>
+    <t>442076153143</t>
+  </si>
+  <si>
+    <t>Andrew Chan</t>
+  </si>
+  <si>
+    <t>achan@millsoakley.com.au</t>
+  </si>
+  <si>
+    <t>Geread Dooley</t>
+  </si>
+  <si>
+    <t>geread.dooley@minterellison.com</t>
+  </si>
+  <si>
+    <t>Renato Bucher</t>
+  </si>
+  <si>
+    <t>renato.bucher@mll-legal.com</t>
+  </si>
+  <si>
+    <t>41585520742</t>
+  </si>
+  <si>
+    <t>Dimitri M Rotter</t>
+  </si>
+  <si>
+    <t>dimitri.rotter@mll-legal.com</t>
+  </si>
+  <si>
+    <t>Juan Segarra</t>
+  </si>
+  <si>
+    <t>jsegarra@molins.eu</t>
+  </si>
+  <si>
+    <t>Natalia Hidalgo</t>
+  </si>
+  <si>
+    <t>nhidalgo@mbk.law</t>
+  </si>
+  <si>
+    <t>Jose Carrizo</t>
+  </si>
+  <si>
+    <t>jose.carrizo@morimor.com</t>
+  </si>
+  <si>
+    <t>Claudia Götz Staehelin</t>
+  </si>
+  <si>
+    <t>goetz@ndlegal.ch</t>
+  </si>
+  <si>
+    <t>41442504511</t>
+  </si>
+  <si>
+    <t>Gonzalo Esses</t>
+  </si>
+  <si>
+    <t>gesses@nyc.com.ar</t>
+  </si>
+  <si>
+    <t>Juerg Bloch</t>
+  </si>
+  <si>
+    <t>juerg.bloch@nkf.ch</t>
+  </si>
+  <si>
+    <t>41588008364</t>
+  </si>
+  <si>
+    <t>Karim Piguet</t>
+  </si>
+  <si>
+    <t>karim.piguet@nkf.ch</t>
+  </si>
+  <si>
+    <t>41588008565</t>
+  </si>
+  <si>
+    <t>Jasper De Jong</t>
+  </si>
+  <si>
+    <t>jasper.dejong@aoshearman.com</t>
+  </si>
+  <si>
+    <t>31206741754</t>
+  </si>
+  <si>
+    <t>Eckart Budelmann</t>
+  </si>
+  <si>
+    <t>eckart.budelmann@aglaw.com</t>
+  </si>
+  <si>
+    <t>4904087406012</t>
+  </si>
+  <si>
+    <t>Zeeger De Jongh</t>
+  </si>
+  <si>
+    <t>zeeger.dejongh@aoshearman.com</t>
+  </si>
+  <si>
+    <t>31206741239</t>
+  </si>
+  <si>
+    <t>Felix Dörfelt</t>
+  </si>
+  <si>
+    <t>felix.doerfelt@aglaw.com</t>
+  </si>
+  <si>
+    <t>4904087406029</t>
+  </si>
+  <si>
+    <t>Chloé Girard</t>
+  </si>
+  <si>
+    <t>chloe.girard@advant-altana.com</t>
+  </si>
+  <si>
+    <t>33179979300</t>
+  </si>
+  <si>
+    <t>E Scott Morvillo</t>
+  </si>
+  <si>
+    <t>smorvillo@seyfarth.com</t>
+  </si>
+  <si>
+    <t>12122186481</t>
+  </si>
+  <si>
+    <t>Christopher Beardmore</t>
+  </si>
+  <si>
+    <t>christopher.beardmore@akingump.com</t>
+  </si>
+  <si>
+    <t>442070129704</t>
+  </si>
+  <si>
+    <t>Desmond Liew</t>
+  </si>
+  <si>
+    <t>desmond.liew@rahmatlim.com</t>
+  </si>
+  <si>
+    <t>60322993998</t>
+  </si>
+  <si>
+    <t>Jessica Hanning</t>
+  </si>
+  <si>
+    <t>jessica.hanning@ah.co.nz</t>
+  </si>
+  <si>
+    <t>6439645842</t>
+  </si>
+  <si>
+    <t>Stéphane badey</t>
+  </si>
+  <si>
+    <t>stephane.badey@arendt.com</t>
+  </si>
+  <si>
+    <t>3522609107743</t>
+  </si>
+  <si>
+    <t>Muhammad Iqsan Sirie</t>
+  </si>
+  <si>
+    <t>iqsan.sirie@ahp.id</t>
+  </si>
+  <si>
+    <t>622125557805</t>
+  </si>
+  <si>
+    <t>Catriona Hatton</t>
+  </si>
+  <si>
+    <t>catriona.hatton@bakerbotts.com</t>
+  </si>
+  <si>
+    <t>3228917310</t>
+  </si>
+  <si>
+    <t>François-xavier Naime</t>
+  </si>
+  <si>
+    <t>francois-xavier.naime@bakermckenzie.com</t>
+  </si>
+  <si>
+    <t>Dieter Dubs</t>
+  </si>
+  <si>
+    <t>dieter.dubs@baerkarrer.ch</t>
+  </si>
+  <si>
+    <t>41582615000</t>
+  </si>
+  <si>
+    <t>Rolf Häfliger</t>
+  </si>
+  <si>
+    <t>rolf.haefliger@barandun-law.ch</t>
+  </si>
+  <si>
+    <t>41413495664</t>
+  </si>
+  <si>
+    <t>Javier García Martínez</t>
+  </si>
+  <si>
+    <t>j.garcia@barrilero.es</t>
+  </si>
+  <si>
+    <t>34915763424</t>
+  </si>
+  <si>
+    <t>Sang Yup Byon</t>
+  </si>
+  <si>
+    <t>sybyon@barunlaw.com</t>
+  </si>
+  <si>
+    <t>234795725</t>
+  </si>
+  <si>
+    <t>Juan Carlos Hernández Campos</t>
+  </si>
+  <si>
+    <t>jhernandez@basham.com.mx</t>
+  </si>
+  <si>
+    <t>525552610496</t>
+  </si>
+  <si>
+    <t>Sarah Coopman</t>
+  </si>
+  <si>
+    <t>sc@bmlaw.ch</t>
+  </si>
+  <si>
+    <t>Campbell Pentney</t>
+  </si>
+  <si>
+    <t>campbell.pentney@bellgully.com</t>
+  </si>
+  <si>
+    <t>6499168917</t>
+  </si>
+  <si>
+    <t>Rémi Dias</t>
+  </si>
+  <si>
+    <t>rdias@bg2v.com</t>
+  </si>
+  <si>
+    <t>33179356821</t>
+  </si>
+  <si>
+    <t>Julien Vernet</t>
+  </si>
+  <si>
+    <t>vernet@bg2v.com</t>
+  </si>
+  <si>
+    <t>33148886060</t>
+  </si>
+  <si>
+    <t>Claus Becker</t>
+  </si>
+  <si>
+    <t>claus.becker@twobirds.com</t>
+  </si>
+  <si>
+    <t>Aletha Pangman</t>
+  </si>
+  <si>
+    <t>aletha.pangman@blakes.com</t>
+  </si>
+  <si>
+    <t>16046314607</t>
+  </si>
+  <si>
+    <t>Tobias Ackermann</t>
+  </si>
+  <si>
+    <t>tobias.ackermann@blomstein.com</t>
+  </si>
+  <si>
+    <t>Stéphane Lagonico</t>
+  </si>
+  <si>
+    <t>sl@bonnard-lawson.com</t>
+  </si>
+  <si>
+    <t>410213481188</t>
+  </si>
+  <si>
+    <t>André Dufour</t>
+  </si>
+  <si>
+    <t>adufour@blg.com</t>
+  </si>
+  <si>
+    <t>Alberto Carpani</t>
+  </si>
+  <si>
+    <t>acarpani@thinkbrg.com</t>
+  </si>
+  <si>
+    <t>447788442664</t>
+  </si>
+  <si>
+    <t>Dirk Ehleben</t>
+  </si>
+  <si>
+    <t>dirk.ehleben@bclplaw.com</t>
+  </si>
+  <si>
+    <t>49030684096136</t>
+  </si>
+  <si>
+    <t>Tom G Eilertsen</t>
+  </si>
+  <si>
+    <t>te@bull.no</t>
+  </si>
+  <si>
+    <t>4790792550</t>
+  </si>
+  <si>
+    <t>Daniel Holohan</t>
+  </si>
+  <si>
+    <t>dholohan@byrnewallaceshields.com</t>
+  </si>
+  <si>
+    <t>Alberto Gil</t>
+  </si>
+  <si>
+    <t>alberto.gil@caseslacambra.com</t>
+  </si>
+  <si>
+    <t>376389504</t>
+  </si>
+  <si>
+    <t>Lucas Blair</t>
+  </si>
+  <si>
+    <t>lblair@cassels.com</t>
+  </si>
+  <si>
+    <t>4168606447</t>
+  </si>
+  <si>
+    <t>Jerker Pitkänen</t>
+  </si>
+  <si>
+    <t>jerker.pitkanen@castren.fi</t>
+  </si>
+  <si>
+    <t>358407335558</t>
+  </si>
+  <si>
+    <t>Caroline Greenwell</t>
+  </si>
+  <si>
+    <t>caroline.greenwell@crsblaw.com</t>
+  </si>
+  <si>
+    <t>Nicholas Levy</t>
+  </si>
+  <si>
+    <t>nlevy@cgsh.com</t>
+  </si>
+  <si>
+    <t>3222872311</t>
+  </si>
+  <si>
+    <t>Gretchen Barkhuizen-barbosa</t>
+  </si>
+  <si>
+    <t>gretchen.barkhuizen@cdhlegal.com</t>
+  </si>
+  <si>
+    <t>270115621250</t>
+  </si>
+  <si>
+    <t>Matthew Lam</t>
+  </si>
+  <si>
+    <t>matthew.lam@clydeco.com</t>
+  </si>
+  <si>
+    <t>85222872825</t>
+  </si>
+  <si>
+    <t>Ben Booker-moore</t>
+  </si>
+  <si>
+    <t>ben.booker-moore@cms-cmno.com</t>
+  </si>
+  <si>
+    <t>Sophie Inwood</t>
+  </si>
+  <si>
+    <t>s.inwood@cornwalls.com.au</t>
+  </si>
+  <si>
+    <t>Richard Mcneil</t>
+  </si>
+  <si>
+    <t>rmcneil@cowellclarke.com.au</t>
+  </si>
+  <si>
+    <t>Philip Stopford</t>
+  </si>
+  <si>
+    <t>pstopford@cravath.com</t>
+  </si>
+  <si>
+    <t>442074531050</t>
+  </si>
+  <si>
+    <t>Matthew Scott</t>
+  </si>
+  <si>
+    <t>mscott@cmblaw.ca</t>
+  </si>
+  <si>
+    <t>4162170870</t>
+  </si>
+  <si>
+    <t>Juan Carlos Puentes</t>
+  </si>
+  <si>
+    <t>juancarlos.puentes@cuatrecasas.com</t>
+  </si>
+  <si>
+    <t>Oscar Brandin</t>
+  </si>
+  <si>
+    <t>oscar.brandin@delphi.se</t>
+  </si>
+  <si>
+    <t>46709252633</t>
+  </si>
+  <si>
+    <t>Christiano Chagas Monteiro De Melo</t>
+  </si>
+  <si>
+    <t>cchagas@demarest.com.br</t>
+  </si>
+  <si>
+    <t>551133562004</t>
+  </si>
+  <si>
+    <t>Jean-paul Vulliéty</t>
+  </si>
+  <si>
+    <t>jpvulliety@desgouttes.ch</t>
+  </si>
+  <si>
+    <t>Simon Correggia</t>
+  </si>
+  <si>
+    <t>simon.correggia@deutschmiller.com</t>
+  </si>
+  <si>
+    <t>292107767</t>
+  </si>
+  <si>
+    <t>Daniel colgan</t>
+  </si>
+  <si>
+    <t>daniel.colgan@dlapiper.com</t>
+  </si>
+  <si>
+    <t>3225006504</t>
+  </si>
+  <si>
+    <t>Casiana Silveyra Perdriel</t>
+  </si>
+  <si>
+    <t>csilveyraperdriel@beccarvarela.com</t>
+  </si>
+  <si>
+    <t>Silva Palzer</t>
+  </si>
+  <si>
+    <t>silva.palzer@eversheds-sutherland.at</t>
+  </si>
+  <si>
+    <t>43151620125</t>
+  </si>
+  <si>
+    <t>Ronan Ramos Jr</t>
+  </si>
+  <si>
+    <t>ronan.junior@faleck.com.br</t>
+  </si>
+  <si>
+    <t>Emilie paquin-holmested</t>
+  </si>
+  <si>
+    <t>epaquin@fasken.com</t>
+  </si>
+  <si>
+    <t>Esther Pérez</t>
+  </si>
+  <si>
+    <t>esther.perez@filslegal.com</t>
+  </si>
+  <si>
+    <t>Jan Bron Ll M</t>
+  </si>
+  <si>
+    <t>jan.bron@fgs.de</t>
+  </si>
+  <si>
+    <t>4969717030</t>
+  </si>
+  <si>
+    <t>Claire Wynne-jones</t>
+  </si>
+  <si>
+    <t>cwynne-jones@forensicrisk.com</t>
+  </si>
+  <si>
+    <t>447702959083</t>
+  </si>
+  <si>
+    <t>White Collar</t>
+  </si>
+  <si>
+    <t>Katharina Kubik</t>
+  </si>
+  <si>
+    <t>katharina.kubik@freshfields.com</t>
+  </si>
+  <si>
+    <t>Michael Bates</t>
+  </si>
+  <si>
+    <t>michael.bates@fticonsulting.com</t>
+  </si>
+  <si>
+    <t>61411253949</t>
+  </si>
+  <si>
+    <t>Lars Nylund</t>
+  </si>
+  <si>
+    <t>lars.nylund@fylgia.se</t>
+  </si>
+  <si>
+    <t>46708798768</t>
+  </si>
+  <si>
+    <t>Maude Lebois</t>
+  </si>
+  <si>
+    <t>mlebois@gbsdisputes.com</t>
+  </si>
+  <si>
+    <t>33623152655</t>
+  </si>
+  <si>
+    <t>Eugenio Falcone</t>
+  </si>
+  <si>
+    <t>efalcone@gop.it</t>
+  </si>
+  <si>
+    <t>Frédéric Pia</t>
+  </si>
+  <si>
+    <t>frederic.pia@gide.com</t>
+  </si>
+  <si>
+    <t>2120522489033</t>
+  </si>
+  <si>
+    <t>Sophie Stählin</t>
+  </si>
+  <si>
+    <t>sophie.staehlin@glatthard.law</t>
+  </si>
+  <si>
+    <t>41442606050</t>
+  </si>
+  <si>
+    <t>Christian Wahlström</t>
+  </si>
+  <si>
+    <t>christian.wahlstrom@glimstedt.se</t>
+  </si>
+  <si>
+    <t>Jakob Plesner Mathiasen</t>
+  </si>
+  <si>
+    <t>jpm@gorrissenfederspiel.com</t>
+  </si>
+  <si>
+    <t>Dom Glavota</t>
+  </si>
+  <si>
+    <t>dom.glavota@gowlingwlg.com</t>
+  </si>
+  <si>
+    <t>14168623607</t>
+  </si>
+  <si>
+    <t>Cynthia Hu</t>
+  </si>
+  <si>
+    <t>huxintian@grandall.com.cn</t>
+  </si>
+  <si>
+    <t>Aparna Watal</t>
+  </si>
+  <si>
+    <t>aparna.watal@halfords.com.au</t>
+  </si>
+  <si>
+    <t>Ian Farrell</t>
+  </si>
+  <si>
+    <t>ian.farrell@hassans.gi</t>
+  </si>
+  <si>
+    <t>Ewa Krajewska</t>
+  </si>
+  <si>
+    <t>ekrajewska@hhllp.ca</t>
+  </si>
+  <si>
+    <t>Estate Disputes</t>
+  </si>
+  <si>
+    <t>Johannes Adolff</t>
+  </si>
+  <si>
+    <t>johannes.adolff@hengeler.com</t>
+  </si>
+  <si>
+    <t>496917095299</t>
+  </si>
+  <si>
+    <t>William Ku</t>
+  </si>
+  <si>
+    <t>william.ku@hsfkramer.com</t>
+  </si>
+  <si>
+    <t>85221014028</t>
+  </si>
+  <si>
+    <t>Stephen Rae</t>
+  </si>
+  <si>
+    <t>stephenrae@hka.com</t>
+  </si>
+  <si>
+    <t>61415582595</t>
+  </si>
+  <si>
+    <t>Alle Fan</t>
+  </si>
+  <si>
+    <t>alle.fan@hoganlovells.com</t>
+  </si>
+  <si>
+    <t>861065822418</t>
+  </si>
+  <si>
+    <t>Micha Fankhauser</t>
+  </si>
+  <si>
+    <t>micha.fankhauser@homburger.ch</t>
+  </si>
+  <si>
+    <t>Mathieu Rossignol</t>
+  </si>
+  <si>
+    <t>mathieu.rossignol@hugheshubbard.com</t>
+  </si>
+  <si>
+    <t>330144058030</t>
+  </si>
+  <si>
+    <t>Edward hamilton</t>
+  </si>
+  <si>
+    <t>ehamilton@hunton.com</t>
+  </si>
+  <si>
+    <t>4402072205649</t>
+  </si>
+  <si>
+    <t>Juan Bautista Vicetto</t>
+  </si>
+  <si>
+    <t>Victoria Demarchi</t>
+  </si>
+  <si>
+    <t>vdemarchi@janagil.com</t>
+  </si>
+  <si>
+    <t>56227577666</t>
+  </si>
+  <si>
+    <t>Hélène Gelas</t>
+  </si>
+  <si>
+    <t>hgelas@jeantet.fr</t>
+  </si>
+  <si>
+    <t>Zena Goossens-badran</t>
+  </si>
+  <si>
+    <t>zgoossensbadran@avocats.ch</t>
+  </si>
+  <si>
+    <t>Lukas Ginthum</t>
+  </si>
+  <si>
+    <t>lukas.ginthum@kantenwein.de</t>
+  </si>
+  <si>
+    <t>Tax Litigation</t>
+  </si>
+  <si>
+    <t>Kärt Kuuseväli</t>
+  </si>
+  <si>
+    <t>kart.kuusevali@kaosaar.ee</t>
+  </si>
+  <si>
+    <t>Christoph P Zimmerli</t>
+  </si>
+  <si>
+    <t>christoph.zimmerli@kellerhals-carrard.ch</t>
+  </si>
+  <si>
+    <t>41582003500</t>
+  </si>
+  <si>
+    <t>Corporate Governance</t>
+  </si>
+  <si>
+    <t>Armando Betancor</t>
+  </si>
+  <si>
+    <t>betancor@keplerkarst.com</t>
+  </si>
+  <si>
+    <t>Athina Van Melkebeke</t>
+  </si>
+  <si>
+    <t>athina.vanmelkebeke@kirkland.com</t>
+  </si>
+  <si>
+    <t>3228818220</t>
+  </si>
+  <si>
+    <t>Ferdinand Groß</t>
+  </si>
+  <si>
+    <t>ferdinand.gross@kliemt.de</t>
+  </si>
+  <si>
+    <t>49069710410180</t>
+  </si>
+  <si>
+    <t>Katherine Arnold</t>
+  </si>
+  <si>
+    <t>kma@khl.co.za</t>
+  </si>
+  <si>
+    <t>270116696101</t>
+  </si>
+  <si>
+    <t>Arkadiusz Klejnowski</t>
+  </si>
+  <si>
+    <t>a.klejnowski@kondrackicelej.pl</t>
+  </si>
+  <si>
+    <t>Lisa Antoniou</t>
+  </si>
+  <si>
+    <t>lisa.antoniou@kroll.com</t>
+  </si>
+  <si>
+    <t>442070295296</t>
+  </si>
+  <si>
+    <t>Frederik Vest-maagensen</t>
+  </si>
+  <si>
+    <t>frve@kromannreumert.com</t>
+  </si>
+  <si>
+    <t>Robert Denison</t>
+  </si>
+  <si>
+    <t>rdenison@lalive.law</t>
+  </si>
+  <si>
+    <t>442035748568</t>
+  </si>
+  <si>
+    <t>Ariane-sophie Blais</t>
+  </si>
+  <si>
+    <t>ariane-sophie.blais@langlois.ca</t>
+  </si>
+  <si>
+    <t>14186507017</t>
+  </si>
+  <si>
+    <t>David Little</t>
+  </si>
+  <si>
+    <t>david.little@lw.com</t>
+  </si>
+  <si>
+    <t>3227886224</t>
+  </si>
+  <si>
+    <t>Derek La Ferla</t>
+  </si>
+  <si>
+    <t>derek.laferla@lavan.com.au</t>
+  </si>
+  <si>
+    <t>61892886928</t>
+  </si>
+  <si>
+    <t>Grace Ku</t>
+  </si>
+  <si>
+    <t>graceku@lcs.com.tw</t>
+  </si>
+  <si>
+    <t>Anne-claire Hans</t>
+  </si>
+  <si>
+    <t>anne-claire.hans@le16law.com</t>
+  </si>
+  <si>
+    <t>Ellen Hsu</t>
+  </si>
+  <si>
+    <t>hya@leeandli.com</t>
+  </si>
+  <si>
+    <t>8862276380002237</t>
+  </si>
+  <si>
+    <t>Rubens Granja</t>
+  </si>
+  <si>
+    <t>rubens.granja@lefosse.com</t>
+  </si>
+  <si>
+    <t>551130253322</t>
+  </si>
+  <si>
+    <t>Eleni Christou</t>
+  </si>
+  <si>
+    <t>eleni.christou@lenzstaehelin.com</t>
+  </si>
+  <si>
+    <t>Bruno Lorit</t>
+  </si>
+  <si>
+    <t>blorit@lerins.com</t>
+  </si>
+  <si>
+    <t>Jacques Meunier</t>
+  </si>
+  <si>
+    <t>j.meunier@liedekerke.com</t>
+  </si>
+  <si>
+    <t>3225511620</t>
+  </si>
+  <si>
+    <t>Crawford Smith</t>
+  </si>
+  <si>
+    <t>csmith@lolg.ca</t>
+  </si>
+  <si>
+    <t>4165988648</t>
+  </si>
+  <si>
+    <t>Gerco Van Eck</t>
+  </si>
+  <si>
+    <t>gerco.van.eck@loyensloeff.com</t>
+  </si>
+  <si>
+    <t>Pierre Rüttimann</t>
+  </si>
+  <si>
+    <t>pierre.ruttimann@mangeat.ch</t>
+  </si>
+  <si>
+    <t>Stefan Brocker</t>
+  </si>
+  <si>
+    <t>stefan.brocker@msa.se</t>
+  </si>
+  <si>
+    <t>46709777687</t>
+  </si>
+  <si>
+    <t>Diego S Krischcautzky</t>
+  </si>
+  <si>
+    <t>dk@marval.com</t>
+  </si>
+  <si>
+    <t>Antonio Augusto Reis</t>
+  </si>
+  <si>
+    <t>antonio.reis@mattosfilho.com.br</t>
+  </si>
+  <si>
+    <t>5521968896393</t>
+  </si>
+  <si>
+    <t>Environmental Litigation</t>
+  </si>
+  <si>
+    <t>Ciara Ryan</t>
+  </si>
+  <si>
+    <t>ciara.ryan@mccannfitzgerald.com</t>
+  </si>
+  <si>
+    <t>Manuel Echave</t>
+  </si>
+  <si>
+    <t>mechave@macf.com.mx</t>
+  </si>
+  <si>
+    <t>525552017436</t>
+  </si>
+  <si>
+    <t>Rachel Croft</t>
+  </si>
+  <si>
+    <t>rachelcroft@milbank.com</t>
+  </si>
+  <si>
+    <t>442076153135</t>
+  </si>
+  <si>
+    <t>Andrew Crean</t>
+  </si>
+  <si>
+    <t>acrean@millsoakley.com.au</t>
+  </si>
+  <si>
+    <t>James Beaton</t>
+  </si>
+  <si>
+    <t>james.beaton@minterellison.com</t>
+  </si>
+  <si>
+    <t>Serge Calame</t>
+  </si>
+  <si>
+    <t>serge.calame@mll-legal.com</t>
+  </si>
+  <si>
+    <t>41585520100</t>
+  </si>
+  <si>
+    <t>Dmitry A Pentsov</t>
+  </si>
+  <si>
+    <t>dmitry.pentsov@mll-legal.com</t>
+  </si>
+  <si>
+    <t>Paz Valles</t>
+  </si>
+  <si>
+    <t>pvalles@molins.eu</t>
+  </si>
+  <si>
+    <t>Edouard Kaiflin</t>
+  </si>
+  <si>
+    <t>ekaiflin@mbk.law</t>
+  </si>
+  <si>
+    <t>Asset Recovery</t>
+  </si>
+  <si>
+    <t>Ana Carolina Castillo</t>
+  </si>
+  <si>
+    <t>ana.castillo@morimor.com</t>
+  </si>
+  <si>
+    <t>Patrik Salzmann</t>
+  </si>
+  <si>
+    <t>salzmann@ndlegal.ch</t>
+  </si>
+  <si>
+    <t>41442504560</t>
+  </si>
+  <si>
+    <t>Cross Border Litigation</t>
+  </si>
+  <si>
+    <t>Juan Carlos Etchebehere</t>
+  </si>
+  <si>
+    <t>jce@nyc.com.ar</t>
+  </si>
+  <si>
+    <t>Morgan Boëffard</t>
+  </si>
+  <si>
+    <t>morgan.boeffard@nkf.ch</t>
+  </si>
+  <si>
+    <t>41588008477</t>
+  </si>
+  <si>
+    <t>Jacques Pittet</t>
+  </si>
+  <si>
+    <t>jacques.pittet@nkf.ch</t>
+  </si>
+  <si>
+    <t>41588008595</t>
+  </si>
+  <si>
+    <t>Natalie Daghles</t>
+  </si>
+  <si>
+    <t>natalie.daghles@noerr.com</t>
+  </si>
+  <si>
+    <t>4921149986157</t>
+  </si>
+  <si>
+    <t>Alfredo Rangel</t>
+  </si>
+  <si>
+    <t>arangel@nye.com.mx</t>
+  </si>
+  <si>
+    <t>Oscar Podda</t>
+  </si>
+  <si>
+    <t>o.podda@nmlex.it</t>
+  </si>
+  <si>
+    <t>Sébastien Bettschart</t>
+  </si>
+  <si>
+    <t>sbettschart@obersonabels.com</t>
+  </si>
+  <si>
+    <t>Maciej Wesołowski</t>
+  </si>
+  <si>
+    <t>maciej.wesolowski@octolegal.com</t>
+  </si>
+  <si>
+    <t>Rafael alcácer Guirao</t>
+  </si>
+  <si>
+    <t>r.alcacer@oliva-ayala.com</t>
+  </si>
+  <si>
+    <t>Oliver Cain</t>
+  </si>
+  <si>
+    <t>oliver.cain@ontier.co.uk</t>
+  </si>
+  <si>
+    <t>Asheesh Arora</t>
+  </si>
+  <si>
+    <t>asheesh@originlaw.ca</t>
+  </si>
+  <si>
+    <t>Ragnhild Haugli Bråten</t>
+  </si>
+  <si>
+    <t>rbr@osloeconomics.no</t>
+  </si>
+  <si>
+    <t>4799714482</t>
+  </si>
+  <si>
+    <t>Nicole Robins</t>
+  </si>
+  <si>
+    <t>nicole.robins@oxera.com</t>
+  </si>
+  <si>
+    <t>32027930714</t>
+  </si>
+  <si>
+    <t>Emma Brooks</t>
+  </si>
+  <si>
+    <t>ebrooks@pcb-byrne.com</t>
+  </si>
+  <si>
+    <t>2078421648</t>
+  </si>
+  <si>
+    <t>Lara Dorigo</t>
+  </si>
+  <si>
+    <t>lara.dorigo@pestalozzilaw.com</t>
+  </si>
+  <si>
+    <t>41442179215</t>
+  </si>
+  <si>
+    <t>Luiz Roberto Peroba Barbosa</t>
+  </si>
+  <si>
+    <t>lperoba@pn.com.br</t>
+  </si>
+  <si>
+    <t>551132478959</t>
+  </si>
+  <si>
+    <t>Michael Sheville</t>
+  </si>
+  <si>
+    <t>michael.sheville@pinneytalfourd.co.uk</t>
+  </si>
+  <si>
+    <t>1708511000</t>
+  </si>
+  <si>
+    <t>Divorce</t>
+  </si>
+  <si>
+    <t>Daniel Pfaff</t>
+  </si>
+  <si>
+    <t>dpfaff@pohlmann-company.com</t>
+  </si>
+  <si>
+    <t>4989217584186</t>
+  </si>
+  <si>
+    <t>Jaime Enrique Gómez</t>
+  </si>
+  <si>
+    <t>jaime.gomez@phrlegal.com</t>
+  </si>
+  <si>
+    <t>Bodil Søes Petersen</t>
+  </si>
+  <si>
+    <t>pet@poulschmith.dk</t>
+  </si>
+  <si>
+    <t>Stephanie Seidner</t>
+  </si>
+  <si>
+    <t>stephanie.seidner@psp-bz.it</t>
+  </si>
+  <si>
+    <t>Anna Franziska Hauer</t>
+  </si>
+  <si>
+    <t>hauer@pwwl.de</t>
+  </si>
+  <si>
+    <t>496934876390</t>
+  </si>
+  <si>
+    <t>Donald Sham</t>
+  </si>
+  <si>
+    <t>donald.sham@reedsmith.com</t>
+  </si>
+  <si>
+    <t>Hadrien Bourrellis</t>
+  </si>
+  <si>
+    <t>hadrien.bourrellis@rmt.fr</t>
+  </si>
+  <si>
+    <t>Fabienne Beauvais</t>
+  </si>
+  <si>
+    <t>fbeauvais@rsslex.com</t>
+  </si>
+  <si>
+    <t>5143937478</t>
+  </si>
+  <si>
+    <t>Victorina E Calma</t>
+  </si>
+  <si>
+    <t>victorina.calma@romulo.com</t>
+  </si>
+  <si>
+    <t>63285559596</t>
+  </si>
+  <si>
+    <t>Ray Byrne</t>
+  </si>
+  <si>
+    <t>ray.byrne@aglaw.com</t>
+  </si>
+  <si>
+    <t>353012026578</t>
+  </si>
+  <si>
+    <t>Philippe Goossens</t>
+  </si>
+  <si>
+    <t>philippe.goossens@advant-altana.com</t>
+  </si>
+  <si>
+    <t>Cybersecurity</t>
+  </si>
+  <si>
+    <t>Stephen Mcloughlin</t>
+  </si>
+  <si>
+    <t>s.mcloughlin@aglaw.com</t>
+  </si>
+  <si>
+    <t>35312026440</t>
+  </si>
+  <si>
+    <t>Neil Bourke</t>
+  </si>
+  <si>
+    <t>n.bourke@aglaw.com</t>
+  </si>
+  <si>
+    <t>35312026416</t>
+  </si>
+  <si>
+    <t>Marie Hindré</t>
+  </si>
+  <si>
+    <t>marie.hindre@advant-altana.com</t>
+  </si>
+  <si>
+    <t>Yannick Ramsamy</t>
+  </si>
+  <si>
+    <t>yramsamy@seyfarth.com</t>
+  </si>
+  <si>
+    <t>442077632567</t>
+  </si>
+  <si>
+    <t>Charis Ma</t>
+  </si>
+  <si>
+    <t>charis.ma@akingump.com</t>
+  </si>
+  <si>
+    <t>85236943017</t>
+  </si>
+  <si>
+    <t>Etienne Sebaux</t>
+  </si>
+  <si>
+    <t>esebaux@alixpartners.com</t>
+  </si>
+  <si>
+    <t>33638366512</t>
+  </si>
+  <si>
+    <t>Consumer Products</t>
+  </si>
+  <si>
+    <t>Christian Chin</t>
+  </si>
+  <si>
+    <t>christian.chin@agasia.law</t>
+  </si>
+  <si>
+    <t>Joey James</t>
+  </si>
+  <si>
+    <t>joey.james@ah.co.nz</t>
+  </si>
+  <si>
+    <t>6439645839</t>
+  </si>
+  <si>
+    <t>Yannick baer</t>
+  </si>
+  <si>
+    <t>yannick.baer@arendt.com</t>
+  </si>
+  <si>
+    <t>3524078784966</t>
+  </si>
+  <si>
+    <t>Nazly Parlindungan Siregar</t>
+  </si>
+  <si>
+    <t>nazly.siregar@ahp.id</t>
+  </si>
+  <si>
+    <t>622125559952</t>
+  </si>
+  <si>
+    <t>Guillaume Le Camus</t>
+  </si>
+  <si>
+    <t>guillaume.lecamus@bakermckenzie.com</t>
+  </si>
+  <si>
+    <t>Joel Fischer</t>
+  </si>
+  <si>
+    <t>joel.fischer@baerkarrer.ch</t>
+  </si>
+  <si>
+    <t>41582615624</t>
+  </si>
+  <si>
+    <t>Catrina Luchsinger Gähwiler</t>
+  </si>
+  <si>
+    <t>catrina.luchsinger@barandun-law.ch</t>
+  </si>
+  <si>
+    <t>41442665620</t>
+  </si>
+  <si>
+    <t>Roberto Giralt</t>
+  </si>
+  <si>
+    <t>r.giralt@barrilero.es</t>
+  </si>
+  <si>
+    <t>932001277</t>
+  </si>
+  <si>
+    <t>Hee Kyung Chae</t>
+  </si>
+  <si>
+    <t>christine.chae@barunlaw.com</t>
+  </si>
+  <si>
+    <t>234797510</t>
+  </si>
+  <si>
+    <t>Juan José López De Silanes</t>
+  </si>
+  <si>
+    <t>juanjoselopez@basham.com.mx</t>
+  </si>
+  <si>
+    <t>Seraina Herold</t>
+  </si>
+  <si>
+    <t>sh@bmlaw.ch</t>
+  </si>
+  <si>
+    <t>Charles Wong</t>
+  </si>
+  <si>
+    <t>charles.wong@bellgully.com</t>
+  </si>
+  <si>
+    <t>6499168650</t>
+  </si>
+  <si>
+    <t>Léa Dubrul</t>
+  </si>
+  <si>
+    <t>dubrul@bg2v.com</t>
+  </si>
+  <si>
+    <t>33179356828</t>
+  </si>
+  <si>
+    <t>Daniela Kinkeldey</t>
+  </si>
+  <si>
+    <t>daniela.kinkeldey@twobirds.com</t>
+  </si>
+  <si>
+    <t>Alex Macmillan</t>
+  </si>
+  <si>
+    <t>xcm@blakes.com</t>
+  </si>
+  <si>
+    <t>14168635844</t>
+  </si>
+  <si>
+    <t>Fabrice Robert-tissot</t>
+  </si>
+  <si>
+    <t>frt@bonnard-lawson.com</t>
+  </si>
+  <si>
+    <t>Jean-marie Fontaine</t>
+  </si>
+  <si>
+    <t>jfontaine@blg.com</t>
+  </si>
+  <si>
+    <t>Jennifer Lange</t>
+  </si>
+  <si>
+    <t>jennifer.lange@bclplaw.com</t>
+  </si>
+  <si>
+    <t>49030684096141</t>
+  </si>
+  <si>
+    <t>Anders Evjenth</t>
+  </si>
+  <si>
+    <t>ae@bull.no</t>
+  </si>
+  <si>
+    <t>4790186418</t>
+  </si>
+  <si>
+    <t>David Naughton</t>
+  </si>
+  <si>
+    <t>dnaughton@byrnewallaceshields.com</t>
+  </si>
+  <si>
+    <t>Marta González-llera</t>
+  </si>
+  <si>
+    <t>marta.gonzalezllera@caseslacambra.com</t>
+  </si>
+  <si>
+    <t>667487983</t>
+  </si>
+  <si>
+    <t>Randall Blom</t>
+  </si>
+  <si>
+    <t>rblom@cassels.com</t>
+  </si>
+  <si>
+    <t>4168695352</t>
+  </si>
+  <si>
+    <t>Robin Grove</t>
+  </si>
+  <si>
+    <t>robin.grove@crsblaw.com</t>
+  </si>
+  <si>
+    <t>Commercial Property</t>
+  </si>
+  <si>
+    <t>Anita Magraner Oliver</t>
+  </si>
+  <si>
+    <t>amagraneroliver@cgsh.com</t>
+  </si>
+  <si>
+    <t>3222872133</t>
+  </si>
+  <si>
+    <t>Loyiso Bavuma</t>
+  </si>
+  <si>
+    <t>loyiso.bavuma@cdhlegal.com</t>
+  </si>
+  <si>
+    <t>270115621098</t>
+  </si>
+  <si>
+    <t>Bill Carr</t>
+  </si>
+  <si>
+    <t>bill.carr@cms-cmno.com</t>
+  </si>
+  <si>
+    <t>Busani Moyo-majwabu</t>
+  </si>
+  <si>
+    <t>enquiries@controlrisks.com</t>
+  </si>
+  <si>
+    <t>442079702100</t>
+  </si>
+  <si>
+    <t>Paul Agnew</t>
+  </si>
+  <si>
+    <t>p.agnew@cornwallsqld.com.au</t>
+  </si>
+  <si>
+    <t>Joe Murphy</t>
+  </si>
+  <si>
+    <t>jmurphy@cowellclarke.com.au</t>
+  </si>
+  <si>
+    <t>Marc Bode</t>
+  </si>
+  <si>
+    <t>mbode@cravath.com</t>
+  </si>
+  <si>
+    <t>442074531022</t>
+  </si>
+  <si>
+    <t>Clarke Tedesco</t>
+  </si>
+  <si>
+    <t>ctedesco@cmblaw.ca</t>
+  </si>
+  <si>
+    <t>4162170884</t>
+  </si>
+  <si>
+    <t>Manuel Quinche</t>
+  </si>
+  <si>
+    <t>manuel.quinche@cuatrecasas.com</t>
+  </si>
+  <si>
+    <t>Mats Dahlberg</t>
+  </si>
+  <si>
+    <t>mats.dahlberg@delphi.se</t>
+  </si>
+  <si>
+    <t>46709252594</t>
+  </si>
+  <si>
+    <t>Daniel Caramaschi</t>
+  </si>
+  <si>
+    <t>dcaramaschi@demarest.com.br</t>
+  </si>
+  <si>
+    <t>551931234309</t>
+  </si>
+  <si>
+    <t>Marie-noëlle Zen-ruffinen</t>
+  </si>
+  <si>
+    <t>marie-noelle.zen-ruffinen@desgouttes.ch</t>
+  </si>
+  <si>
+    <t>Sarah-jane Sale</t>
+  </si>
+  <si>
+    <t>sarah-jane.sale@deutschmiller.com</t>
+  </si>
+  <si>
+    <t>61292107776</t>
+  </si>
+  <si>
+    <t>Erwin simons</t>
+  </si>
+  <si>
+    <t>erwin.simons@dlapiper.com</t>
+  </si>
+  <si>
+    <t>32025001694</t>
+  </si>
+  <si>
+    <t>Daniel Antonio Seoane</t>
+  </si>
+  <si>
+    <t>dseoane@beccarvarela.com</t>
+  </si>
+  <si>
+    <t>Alexander Stolitzka</t>
+  </si>
+  <si>
+    <t>alexander.stolitzka@eversheds-sutherland.at</t>
+  </si>
+  <si>
+    <t>43151620150</t>
+  </si>
+  <si>
+    <t>Elisa Vanzella De Lucena</t>
+  </si>
+  <si>
+    <t>elisa.lucena@faleck.com.br</t>
+  </si>
+  <si>
+    <t>Henrick simard</t>
+  </si>
+  <si>
+    <t>hsimard@fasken.com</t>
+  </si>
+  <si>
+    <t>Arturo Ventura</t>
+  </si>
+  <si>
+    <t>arturo.ventura@filslegal.com</t>
+  </si>
+  <si>
+    <t>Florian Klimscha</t>
+  </si>
+  <si>
+    <t>florian.klimscha@freshfields.com</t>
+  </si>
+  <si>
+    <t>Jo Blades</t>
+  </si>
+  <si>
+    <t>joanne.blades@fticonsulting.com</t>
+  </si>
+  <si>
+    <t>61732254900</t>
+  </si>
+  <si>
+    <t>Tobias Peedu</t>
+  </si>
+  <si>
+    <t>tobias.peedu@fylgia.se</t>
+  </si>
+  <si>
+    <t>46762828672</t>
+  </si>
+  <si>
+    <t>André Marini</t>
+  </si>
+  <si>
+    <t>amarini@gbsdisputes.com</t>
+  </si>
+  <si>
+    <t>33635137504</t>
+  </si>
+  <si>
+    <t>Salim Zobiri</t>
+  </si>
+  <si>
+    <t>salim.zobiri@gide.com</t>
+  </si>
+  <si>
+    <t>330140752928</t>
+  </si>
+  <si>
+    <t>Dan Nordblad</t>
+  </si>
+  <si>
+    <t>dan.nordblad@glimstedt.se</t>
+  </si>
+  <si>
+    <t>Jesper Avnborg Lentz</t>
+  </si>
+  <si>
+    <t>jln@gorrissenfederspiel.com</t>
+  </si>
+  <si>
+    <t>Lori Hall</t>
+  </si>
+  <si>
+    <t>lori.hall@gowlingwlg.com</t>
+  </si>
+  <si>
+    <t>19055403275</t>
+  </si>
+  <si>
+    <t>He Ping</t>
+  </si>
+  <si>
+    <t>heping@grandall.com.cn</t>
+  </si>
+  <si>
+    <t>Isaac Levy</t>
+  </si>
+  <si>
+    <t>isaac.levy@hassans.gi</t>
+  </si>
+  <si>
+    <t>Peter Henein</t>
+  </si>
+  <si>
+    <t>phenein@hhllp.ca</t>
+  </si>
+  <si>
+    <t>Hilary Lau</t>
+  </si>
+  <si>
+    <t>hilary.lau@hsfkramer.com</t>
+  </si>
+  <si>
+    <t>85221014164</t>
+  </si>
+  <si>
+    <t>Chris Clark</t>
+  </si>
+  <si>
+    <t>chrisclark@hka.com</t>
+  </si>
+  <si>
+    <t>61892884454</t>
+  </si>
+  <si>
+    <t>Denny Sun</t>
+  </si>
+  <si>
+    <t>denny.sun@hoganlovells.com</t>
+  </si>
+  <si>
+    <t>David hesse</t>
+  </si>
+  <si>
+    <t>dhesse@hunton.com</t>
+  </si>
+  <si>
+    <t>4402072205611</t>
+  </si>
+  <si>
+    <t>Pascal Georges</t>
+  </si>
+  <si>
+    <t>pgeorges@jeantet.fr</t>
+  </si>
+  <si>
+    <t>Selina Muller</t>
+  </si>
+  <si>
+    <t>smuller@avocats.ch</t>
+  </si>
+  <si>
+    <t>Employment Contracts</t>
+  </si>
+  <si>
+    <t>Stefan Hackel</t>
+  </si>
+  <si>
+    <t>stefan.hackel@kantenwein.de</t>
+  </si>
+  <si>
+    <t>Adrien Renaudo</t>
+  </si>
+  <si>
+    <t>adrien.renaudo@kaosaar.ee</t>
+  </si>
+  <si>
+    <t>Kathrin Enderli</t>
+  </si>
+  <si>
+    <t>kathrin.enderli@kellerhals-carrard.ch</t>
+  </si>
+  <si>
+    <t>Víctor Manuel Miranda</t>
+  </si>
+  <si>
+    <t>vmiranda@keplerkarst.com</t>
+  </si>
+  <si>
+    <t>Till Heimann</t>
+  </si>
+  <si>
+    <t>till.heimann@kliemt.de</t>
+  </si>
+  <si>
+    <t>49069710410245</t>
+  </si>
+  <si>
+    <t>Sarah Haken</t>
+  </si>
+  <si>
+    <t>sh@khl.co.za</t>
+  </si>
+  <si>
+    <t>116696013</t>
+  </si>
+  <si>
+    <t>Juliana Armstrong</t>
+  </si>
+  <si>
+    <t>juliana.armstrong@kroll.com</t>
+  </si>
+  <si>
+    <t>442070295323</t>
+  </si>
+  <si>
+    <t>Heela Lakanval</t>
+  </si>
+  <si>
+    <t>hlv@kromannreumert.com</t>
+  </si>
+  <si>
+    <t>Adam Grant</t>
+  </si>
+  <si>
+    <t>agrant@lalive.law</t>
+  </si>
+  <si>
+    <t>Geneviève Blouin Gagnon</t>
+  </si>
+  <si>
+    <t>genevieve.blouingagnon@langlois.ca</t>
+  </si>
+  <si>
+    <t>14186507072</t>
+  </si>
+  <si>
+    <t>Christos Malamataris</t>
+  </si>
+  <si>
+    <t>christos.malamataris@lw.com</t>
+  </si>
+  <si>
+    <t>3227886232</t>
+  </si>
+  <si>
+    <t>Lawrence Lee</t>
+  </si>
+  <si>
+    <t>lawrence.lee@lavan.com.au</t>
+  </si>
+  <si>
+    <t>61892886936</t>
+  </si>
+  <si>
+    <t>Hu Tan</t>
+  </si>
+  <si>
+    <t>hutan@lcs.com.tw</t>
+  </si>
+  <si>
+    <t>Frank Hsu</t>
+  </si>
+  <si>
+    <t>frankhsu@leeandli.com</t>
+  </si>
+  <si>
+    <t>8862276380002766</t>
+  </si>
+  <si>
+    <t>Rébecca Dorasamy</t>
+  </si>
+  <si>
+    <t>rebecca.dorasamy@lenzstaehelin.com</t>
+  </si>
+  <si>
+    <t>Bruno Martin</t>
+  </si>
+  <si>
+    <t>bmartin@lerins.com</t>
+  </si>
+  <si>
+    <t>Vincent Ost</t>
+  </si>
+  <si>
+    <t>v.ost@liedekerke.com</t>
+  </si>
+  <si>
+    <t>3225511610</t>
+  </si>
+  <si>
+    <t>Paul Michell</t>
+  </si>
+  <si>
+    <t>pmichell@lolg.ca</t>
+  </si>
+  <si>
+    <t>4166445359</t>
+  </si>
+  <si>
+    <t>Gianluca Kreuze</t>
+  </si>
+  <si>
+    <t>gianluca.kreuze@loyensloeff.com</t>
+  </si>
+  <si>
+    <t>Jessica Schwalm</t>
+  </si>
+  <si>
+    <t>jessica.schwalm@mangeat.ch</t>
+  </si>
+  <si>
+    <t>Anna Bryngelsson</t>
+  </si>
+  <si>
+    <t>anna.bryngelsson@msa.se</t>
+  </si>
+  <si>
+    <t>46709777837</t>
+  </si>
+  <si>
+    <t>Elías F Bestani</t>
+  </si>
+  <si>
+    <t>efb@marval.com</t>
+  </si>
+  <si>
+    <t>Aviation</t>
+  </si>
+  <si>
+    <t>Ariane Guimarães</t>
+  </si>
+  <si>
+    <t>ariane.guimaraes@mattosfilho.com.br</t>
+  </si>
+  <si>
+    <t>5561993187650</t>
+  </si>
+  <si>
+    <t>Clare Gillett</t>
+  </si>
+  <si>
+    <t>clare.gillett@mccannfitzgerald.com</t>
+  </si>
+  <si>
+    <t>Francisco Ibáñez</t>
+  </si>
+  <si>
+    <t>fibanez@macf.com.mx</t>
+  </si>
+  <si>
+    <t>525552017423</t>
+  </si>
+  <si>
+    <t>Seyda Duman</t>
+  </si>
+  <si>
+    <t>sduman@milbank.com</t>
+  </si>
+  <si>
+    <t>442076153269</t>
+  </si>
+  <si>
+    <t>Andrew Spalding</t>
+  </si>
+  <si>
+    <t>aspalding@millsoakley.com.au</t>
+  </si>
+  <si>
+    <t>Jason Mcquillen</t>
+  </si>
+  <si>
+    <t>jason.mcquillen@minterellison.com</t>
+  </si>
+  <si>
+    <t>Guillaume Fournier</t>
+  </si>
+  <si>
+    <t>guillaume.fournier@mll-legal.com</t>
+  </si>
+  <si>
+    <t>41585520310</t>
+  </si>
+  <si>
+    <t>Raul Castro</t>
+  </si>
+  <si>
+    <t>raul.castro@morimor.com</t>
+  </si>
+  <si>
+    <t>Benjamin Schumacher</t>
+  </si>
+  <si>
+    <t>schumacher@ndlegal.ch</t>
+  </si>
+  <si>
+    <t>41442504590</t>
+  </si>
+  <si>
+    <t>Juan Manuel Sampietro</t>
+  </si>
+  <si>
+    <t>jsampietro@nyc.com.ar</t>
+  </si>
+  <si>
+    <t>Jacques Bonvin</t>
+  </si>
+  <si>
+    <t>jacques.bonvin@nkf.ch</t>
+  </si>
+  <si>
+    <t>41588008585</t>
+  </si>
+  <si>
+    <t>Frank Spoorenberg</t>
+  </si>
+  <si>
+    <t>frank.spoorenberg@nkf.ch</t>
+  </si>
+  <si>
+    <t>41588008520</t>
+  </si>
+  <si>
+    <t>Kolja Dörrscheidt</t>
+  </si>
+  <si>
+    <t>kolja.doerrscheidt@noerr.com</t>
+  </si>
+  <si>
+    <t>493020942052</t>
+  </si>
+  <si>
+    <t>Leonardo Mena</t>
+  </si>
+  <si>
+    <t>lmena@nye.com.mx</t>
+  </si>
+  <si>
+    <t>Employment Litigation</t>
+  </si>
+  <si>
+    <t>Corrado Rosano</t>
+  </si>
+  <si>
+    <t>c.rosano@nmlex.it</t>
+  </si>
+  <si>
+    <t>3906695181</t>
+  </si>
+  <si>
+    <t>Nicolas Buchel</t>
+  </si>
+  <si>
+    <t>nbuchel@obersonabels.com</t>
+  </si>
+  <si>
+    <t>Piotr Witecki</t>
+  </si>
+  <si>
+    <t>piotr.witecki@octolegal.com</t>
+  </si>
+  <si>
+    <t>Íñigo ortiz De Urbina Gimeno</t>
+  </si>
+  <si>
+    <t>i.ortizdeurbina@oliva-ayala.com</t>
+  </si>
+  <si>
+    <t>Economic Crime</t>
+  </si>
+  <si>
+    <t>Christoffer Bugge</t>
+  </si>
+  <si>
+    <t>cbu@osloeconomics.no</t>
+  </si>
+  <si>
+    <t>4798636221</t>
+  </si>
+  <si>
+    <t>Ben Davies</t>
+  </si>
+  <si>
+    <t>bdavies@pcb-byrne.com</t>
+  </si>
+  <si>
+    <t>2078421651</t>
+  </si>
+  <si>
+    <t>Sarah Drukarch</t>
+  </si>
+  <si>
+    <t>sarah.drukarch@pestalozzilaw.com</t>
+  </si>
+  <si>
+    <t>41442179323</t>
+  </si>
+  <si>
+    <t>Marcello Alfredo Bernardes</t>
+  </si>
+  <si>
+    <t>mbernardes@pn.com.br</t>
+  </si>
+  <si>
+    <t>552125061622</t>
+  </si>
+  <si>
+    <t>Jesus Albarran</t>
+  </si>
+  <si>
+    <t>jesus.albarran@phrlegal.com</t>
+  </si>
+  <si>
+    <t>Boris Frederiksen</t>
+  </si>
+  <si>
+    <t>bor@poulschmith.dk</t>
+  </si>
+  <si>
+    <t>Josef Radl</t>
+  </si>
+  <si>
+    <t>josef.radl@psp-bz.it</t>
+  </si>
+  <si>
+    <t>390472766090</t>
+  </si>
+  <si>
+    <t>Thorben Klopp</t>
+  </si>
+  <si>
+    <t>klopp@pwwl.de</t>
+  </si>
+  <si>
+    <t>494030068720</t>
+  </si>
+  <si>
+    <t>Gregory Wang</t>
+  </si>
+  <si>
+    <t>gregory.wang@reedsmith.com</t>
+  </si>
+  <si>
+    <t>Justin Beeby</t>
+  </si>
+  <si>
+    <t>jbeeby@rsslex.com</t>
+  </si>
+  <si>
+    <t>5143934048</t>
+  </si>
+  <si>
+    <t>Yvette C Chua</t>
+  </si>
+  <si>
+    <t>yvette.chua@romulo.com</t>
+  </si>
+  <si>
+    <t>63285559626</t>
+  </si>
+  <si>
+    <t>Pontus Enquist</t>
+  </si>
+  <si>
+    <t>pontus.enquist@roschier.com</t>
+  </si>
+  <si>
+    <t>46727004603</t>
+  </si>
+  <si>
+    <t>Tom Spiller</t>
+  </si>
+  <si>
+    <t>tom.spiller@rosenblatt.law</t>
+  </si>
+  <si>
+    <t>Karsten Bender</t>
+  </si>
+  <si>
+    <t>karsten.bender@ebnerstolz.de</t>
+  </si>
+  <si>
+    <t>4971120491195</t>
+  </si>
+  <si>
+    <t>Guillaume Vodoz</t>
+  </si>
+  <si>
+    <t>gvodoz@rvmh.ch</t>
+  </si>
+  <si>
+    <t>Marek Durski</t>
+  </si>
+  <si>
+    <t>marek.durski@rzmlaw.com</t>
+  </si>
+  <si>
+    <t>48225204435</t>
+  </si>
+  <si>
+    <t>Carlotta Gobino</t>
+  </si>
+  <si>
+    <t>carlotta.gobino@sagliettibianco.com</t>
+  </si>
+  <si>
+    <t>Pierre Savoy</t>
+  </si>
+  <si>
+    <t>ps@lawyersgeneva.ch</t>
+  </si>
+  <si>
+    <t>Sophie Bastardoz</t>
+  </si>
+  <si>
+    <t>sophie.bastardoz@swlegal.ch</t>
+  </si>
+  <si>
+    <t>41227078136</t>
+  </si>
+  <si>
+    <t>Markus Grötschl</t>
+  </si>
+  <si>
+    <t>groetschl@schwarz-schoenherr.com</t>
+  </si>
+  <si>
+    <t>Ivy Tse</t>
+  </si>
+  <si>
+    <t>itse@secretariat-intl.com</t>
+  </si>
+  <si>
+    <t>16473133318</t>
+  </si>
+  <si>
+    <t>Corinna Bihn</t>
+  </si>
+  <si>
+    <t>c.bihn@seitzpartner.de</t>
+  </si>
+  <si>
+    <t>4922156960510</t>
+  </si>
+  <si>
+    <t>Anja Fanebust</t>
+  </si>
+  <si>
+    <t>a.fanebust@selmer.no</t>
+  </si>
+  <si>
+    <t>4741367798</t>
+  </si>
+  <si>
+    <t>Erik Thimfors</t>
+  </si>
+  <si>
+    <t>erik.thimfors@setterwalls.se</t>
+  </si>
+  <si>
+    <t>46317011796</t>
+  </si>
+  <si>
+    <t>Mattheus Goon Kin Zhi</t>
+  </si>
+  <si>
+    <t>mattheus@shearndelamore.com</t>
+  </si>
+  <si>
+    <t>60320272762</t>
+  </si>
+  <si>
+    <t>China Desk</t>
+  </si>
+  <si>
+    <t>Jeremy Hoyland</t>
+  </si>
+  <si>
+    <t>jeremy.hoyland@simmons-simmons.com</t>
+  </si>
+  <si>
+    <t>442076282020</t>
+  </si>
+  <si>
+    <t>Bronwyn Heenan</t>
+  </si>
+  <si>
+    <t>bronwyn.heenan@simpsongrierson.com</t>
+  </si>
+  <si>
+    <t>6449243557</t>
+  </si>
+  <si>
+    <t>Hans De Jong</t>
+  </si>
+  <si>
+    <t>dejong@svs.law</t>
+  </si>
+  <si>
+    <t>Kerry O Connell</t>
+  </si>
+  <si>
+    <t>kerry.oconnell@slaughterandmay.com</t>
+  </si>
+  <si>
+    <t>32027379412</t>
+  </si>
+  <si>
+    <t>Michał Dawidowicz</t>
+  </si>
+  <si>
+    <t>michal.dawidowicz@skslegal.pl</t>
+  </si>
+  <si>
+    <t>48226087160</t>
+  </si>
+  <si>
+    <t>Mateusz Bartosiak</t>
+  </si>
+  <si>
+    <t>m.bartosiak@spcg.pl</t>
+  </si>
+  <si>
+    <t>Anthony Gioe De Stefano</t>
+  </si>
+  <si>
+    <t>agioedestefano@squairlaw.com</t>
+  </si>
+  <si>
+    <t>Quentin Maujeul</t>
+  </si>
+  <si>
+    <t>qmaujeul@squairlaw.com</t>
+  </si>
+  <si>
+    <t>David Cantrell</t>
+  </si>
+  <si>
+    <t>d.cantrell@aglaw.com</t>
+  </si>
+  <si>
+    <t>353012026437</t>
+  </si>
+  <si>
+    <t>Jordan Illouz</t>
+  </si>
+  <si>
+    <t>jordan.illouz@advant-altana.com</t>
+  </si>
+  <si>
+    <t>330179976174</t>
+  </si>
+  <si>
+    <t>Michel Jockey</t>
+  </si>
+  <si>
+    <t>michel.jockey@advant-altana.com</t>
+  </si>
+  <si>
+    <t>Julia K Sutherland</t>
+  </si>
+  <si>
+    <t>jsutherland@seyfarth.com</t>
+  </si>
+  <si>
+    <t>442077632516</t>
+  </si>
+  <si>
+    <t>David Tai</t>
+  </si>
+  <si>
+    <t>dtai@akingump.com</t>
+  </si>
+  <si>
+    <t>6565799030</t>
+  </si>
+  <si>
+    <t>Michael Glaschke</t>
+  </si>
+  <si>
+    <t>mglaschke@alixpartners.com</t>
+  </si>
+  <si>
+    <t>491734766831</t>
+  </si>
+  <si>
+    <t>Chong Boon Leong</t>
+  </si>
+  <si>
+    <t>chong.boonleong@agasia.law</t>
+  </si>
+  <si>
+    <t>Karen Kemp</t>
+  </si>
+  <si>
+    <t>karen.kemp@ah.co.nz</t>
+  </si>
+  <si>
+    <t>6499206466</t>
+  </si>
+  <si>
+    <t>Simone baier</t>
+  </si>
+  <si>
+    <t>simone.baier@arendt.com</t>
+  </si>
+  <si>
+    <t>352407878910</t>
+  </si>
+  <si>
+    <t>Neil Coulson</t>
+  </si>
+  <si>
+    <t>neil.coulson@bakerbotts.com</t>
+  </si>
+  <si>
+    <t>442077263478</t>
+  </si>
+  <si>
+    <t>Guillaume Nataf</t>
+  </si>
+  <si>
+    <t>guillaume.nataf@bakermckenzie.com</t>
+  </si>
+  <si>
+    <t>Andrew M Garbarski</t>
+  </si>
+  <si>
+    <t>andrew.garbarski@baerkarrer.ch</t>
+  </si>
+  <si>
+    <t>41582615722</t>
+  </si>
+  <si>
+    <t>Jasmin Malla</t>
+  </si>
+  <si>
+    <t>jasmin.malla@barandun-law.ch</t>
+  </si>
+  <si>
+    <t>41442665636</t>
+  </si>
+  <si>
+    <t>Gonzalo Grijelmo</t>
+  </si>
+  <si>
+    <t>g.grijelmo@barrilero.es</t>
+  </si>
+  <si>
+    <t>In Whan Chang</t>
+  </si>
+  <si>
+    <t>inwhan.chang@barunlaw.com</t>
+  </si>
+  <si>
+    <t>234792390</t>
+  </si>
+  <si>
+    <t>Luis Antonio Álvarez Cervantes</t>
+  </si>
+  <si>
+    <t>lalvarez@basham.com.mx</t>
+  </si>
+  <si>
+    <t>Maria Ingold</t>
+  </si>
+  <si>
+    <t>mi@bmlaw.ch</t>
+  </si>
+  <si>
+    <t>Chris Goddard</t>
+  </si>
+  <si>
+    <t>chris.goddard@bellgully.com</t>
+  </si>
+  <si>
+    <t>6499168603</t>
+  </si>
+  <si>
+    <t>Domitille Huart</t>
+  </si>
+  <si>
+    <t>huart@bg2v.com</t>
+  </si>
+  <si>
+    <t>33179356830</t>
+  </si>
+  <si>
+    <t>Fabian Niemann</t>
+  </si>
+  <si>
+    <t>fabian.niemann@twobirds.com</t>
+  </si>
+  <si>
+    <t>Alexis Levine</t>
+  </si>
+  <si>
+    <t>alexis.levine@blakes.com</t>
+  </si>
+  <si>
+    <t>14168633089</t>
+  </si>
+  <si>
+    <t>Simon Grégoire</t>
+  </si>
+  <si>
+    <t>sgregoire@blg.com</t>
+  </si>
+  <si>
+    <t>Christian Spatz</t>
+  </si>
+  <si>
+    <t>christian.spatz@bclplaw.com</t>
+  </si>
+  <si>
+    <t>49030684096133</t>
+  </si>
+  <si>
+    <t>Kristian Foss</t>
+  </si>
+  <si>
+    <t>kf@bull.no</t>
+  </si>
+  <si>
+    <t>4797062655</t>
+  </si>
+  <si>
+    <t>Deirdre Mcbennett</t>
+  </si>
+  <si>
+    <t>dmcbennett@byrnewallaceshields.com</t>
+  </si>
+  <si>
+    <t>Ernesto Lacambra</t>
+  </si>
+  <si>
+    <t>ernesto.lacambra@caseslacambra.com</t>
+  </si>
+  <si>
+    <t>34936119232</t>
+  </si>
+  <si>
+    <t>Robyn Blumberg</t>
+  </si>
+  <si>
+    <t>rblumberg@cassels.com</t>
+  </si>
+  <si>
+    <t>4168606891</t>
+  </si>
+  <si>
+    <t>Jamie Kennaugh</t>
+  </si>
+  <si>
+    <t>jamie.kennaugh@crsblaw.com</t>
+  </si>
+  <si>
+    <t>Amaryllis Müller</t>
+  </si>
+  <si>
+    <t>amueller@cgsh.com</t>
+  </si>
+  <si>
+    <t>3222872009</t>
+  </si>
+  <si>
+    <t>Junxiang Koh</t>
+  </si>
+  <si>
+    <t>junxiang.koh@clasisllc.com</t>
+  </si>
+  <si>
+    <t>6565446586</t>
+  </si>
+  <si>
+    <t>Billy Bradley</t>
+  </si>
+  <si>
+    <t>billy.bradley@cms-cmno.com</t>
+  </si>
+  <si>
+    <t>Charles Brown</t>
+  </si>
+  <si>
+    <t>charles.brown@controlrisks.com</t>
+  </si>
+  <si>
+    <t>447814772857</t>
+  </si>
+  <si>
+    <t>Paul Evans</t>
+  </si>
+  <si>
+    <t>p.evans@cornwallsqld.com.au</t>
+  </si>
+  <si>
+    <t>Emma Peters</t>
+  </si>
+  <si>
+    <t>epeters@cowellclarke.com.au</t>
+  </si>
+  <si>
+    <t>Alfonso Reina</t>
+  </si>
+  <si>
+    <t>alfonso.reina@cuatrecasas.com</t>
+  </si>
+  <si>
+    <t>34915247100</t>
+  </si>
+  <si>
+    <t>Daniel Oliveira Andreoli</t>
+  </si>
+  <si>
+    <t>dandreoli@demarest.com.br</t>
+  </si>
+  <si>
+    <t>551133561679</t>
+  </si>
+  <si>
+    <t>Anaïs Abdel Sattar</t>
+  </si>
+  <si>
+    <t>anais.abdel_sattar@desgouttes.ch</t>
+  </si>
+  <si>
+    <t>Joseph spinks</t>
+  </si>
+  <si>
+    <t>joseph.spinks@dlapiper.com</t>
+  </si>
+  <si>
+    <t>32025001556</t>
+  </si>
+  <si>
+    <t>Daniel Levi</t>
+  </si>
+  <si>
+    <t>dlevi@beccarvarela.com</t>
+  </si>
+  <si>
+    <t>Gabriel Ribeiro</t>
+  </si>
+  <si>
+    <t>gabriel.ribeiro@faleck.com.br</t>
+  </si>
+  <si>
+    <t>Brad schneider</t>
+  </si>
+  <si>
+    <t>bschneider@fasken.com</t>
+  </si>
+  <si>
+    <t>María Rodrigo</t>
+  </si>
+  <si>
+    <t>maria.rodrigo@filslegal.com</t>
+  </si>
+  <si>
+    <t>Marcela Pittelli</t>
+  </si>
+  <si>
+    <t>mpittelli@forensicrisk.com</t>
+  </si>
+  <si>
+    <t>33699030242</t>
+  </si>
+  <si>
+    <t>Melanie Blain</t>
+  </si>
+  <si>
+    <t>melanie.blain@fticonsulting.com</t>
+  </si>
+  <si>
+    <t>61864301323</t>
+  </si>
+  <si>
+    <t>Johan Sandberg</t>
+  </si>
+  <si>
+    <t>johan.sandberg@fylgia.se</t>
+  </si>
+  <si>
+    <t>46704326430</t>
+  </si>
+  <si>
+    <t>Thomas Parigot</t>
+  </si>
+  <si>
+    <t>tparigot@gbsdisputes.com</t>
+  </si>
+  <si>
+    <t>33623147016</t>
+  </si>
+  <si>
+    <t>David Karlsson</t>
+  </si>
+  <si>
+    <t>david.karlsson@glimstedt.se</t>
+  </si>
+  <si>
+    <t>Johan Casper Hennings</t>
+  </si>
+  <si>
+    <t>jch@gorrissenfederspiel.com</t>
+  </si>
+  <si>
+    <t>Stephanie Harvey</t>
+  </si>
+  <si>
+    <t>stephanie.harvey@gowlingwlg.com</t>
+  </si>
+  <si>
+    <t>19055402469</t>
+  </si>
+  <si>
+    <t>He Xiaoli</t>
+  </si>
+  <si>
+    <t>hexiaoli@grandall.com.cn</t>
+  </si>
+  <si>
+    <t>James Lasry</t>
+  </si>
+  <si>
+    <t>james.lasry@hassans.gi</t>
+  </si>
+  <si>
+    <t>Stephanie Digiuseppe</t>
+  </si>
+  <si>
+    <t>sdigiuseppe@hhllp.ca</t>
+  </si>
+  <si>
+    <t>Adelaide Luke</t>
+  </si>
+  <si>
+    <t>adelaide.luke@hsfkramer.com</t>
+  </si>
+  <si>
+    <t>85221014135</t>
+  </si>
+  <si>
+    <t>Kourosh Kayvani</t>
+  </si>
+  <si>
+    <t>kouroshkayvani@hka.com</t>
+  </si>
+  <si>
+    <t>Joyce Zheng</t>
+  </si>
+  <si>
+    <t>joyce.zheng@hoganlovells.com</t>
+  </si>
+  <si>
+    <t>Tanagorn thimasarn</t>
+  </si>
+  <si>
+    <t>tanagorn@hunton.com</t>
+  </si>
+  <si>
+    <t>6626458872</t>
+  </si>
+  <si>
+    <t>Lorine Meylan</t>
+  </si>
+  <si>
+    <t>lmeylan@avocats.ch</t>
+  </si>
+  <si>
+    <t>Michel Hannwacker</t>
+  </si>
+  <si>
+    <t>michel.hannwacker@kantenwein.de</t>
+  </si>
+  <si>
+    <t>Umberto Milano</t>
+  </si>
+  <si>
+    <t>umberto.milano@kellerhals-carrard.ch</t>
+  </si>
+  <si>
+    <t>41582003900</t>
+  </si>
+  <si>
+    <t>Antonio Montesdeoca</t>
+  </si>
+  <si>
+    <t>amontesdeoca@keplerkarst.com</t>
+  </si>
+  <si>
+    <t>Jason Mogg</t>
+  </si>
+  <si>
+    <t>jason.mogg@kinstellar.com</t>
+  </si>
+  <si>
+    <t>420221622150</t>
+  </si>
+  <si>
+    <t>Anna Maria Alexandrou</t>
+  </si>
+  <si>
+    <t>anna.alexandrou@kirkland.com</t>
+  </si>
+  <si>
+    <t>442079532657</t>
+  </si>
+  <si>
+    <t>Jan Heuer</t>
+  </si>
+  <si>
+    <t>jan.heuer@kliemt.de</t>
+  </si>
+  <si>
+    <t>4902216505090</t>
+  </si>
+  <si>
+    <t>Rob Armstrong</t>
+  </si>
+  <si>
+    <t>rob.armstrong@kroll.com</t>
+  </si>
+  <si>
+    <t>4402070890959</t>
+  </si>
+  <si>
+    <t>Jakob Dahl Mikkelsen</t>
+  </si>
+  <si>
+    <t>jdm@kromannreumert.com</t>
+  </si>
+  <si>
+    <t>Sharaf Hijazin</t>
+  </si>
+  <si>
+    <t>shijazin@lalive.law</t>
+  </si>
+  <si>
+    <t>Nathalie Boulanger</t>
+  </si>
+  <si>
+    <t>nathalie.boulanger@langlois.ca</t>
+  </si>
+  <si>
+    <t>14388447806</t>
+  </si>
+  <si>
+    <t>Tomas Nilsson</t>
+  </si>
+  <si>
+    <t>tomas.nilsson@lw.com</t>
+  </si>
+  <si>
+    <t>3227886317</t>
+  </si>
+  <si>
+    <t>Alex Mcglue</t>
+  </si>
+  <si>
+    <t>alex.mcglue@lavan.com.au</t>
+  </si>
+  <si>
+    <t>61892886890</t>
+  </si>
+  <si>
+    <t>Kevin Chang</t>
+  </si>
+  <si>
+    <t>kevinchang@lcs.com.tw</t>
+  </si>
+  <si>
+    <t>Benoît Barré</t>
+  </si>
+  <si>
+    <t>benoit.barre@le16law.com</t>
+  </si>
+  <si>
+    <t>Grace Kao</t>
+  </si>
+  <si>
+    <t>gracekao@leeandli.com</t>
+  </si>
+  <si>
+    <t>8862276380002376</t>
+  </si>
+  <si>
+    <t>Simone Ehrsam</t>
+  </si>
+  <si>
+    <t>simone.ehrsam@lenzstaehelin.com</t>
+  </si>
+  <si>
+    <t>Stéphanie Nègre</t>
+  </si>
+  <si>
+    <t>snegre@lerins.com</t>
+  </si>
+  <si>
+    <t>Laurent Pyls</t>
+  </si>
+  <si>
+    <t>l.pyls@liedekerke.com</t>
+  </si>
+  <si>
+    <t>3225511530</t>
+  </si>
+  <si>
+    <t>Guido Koop</t>
+  </si>
+  <si>
+    <t>guido.koop@loyensloeff.com</t>
+  </si>
+  <si>
+    <t>Romain Wavre</t>
+  </si>
+  <si>
+    <t>romain.wavre@mangeat.ch</t>
+  </si>
+  <si>
+    <t>Hillevi Börjesson</t>
+  </si>
+  <si>
+    <t>hillevi.borjesson@msa.se</t>
+  </si>
+  <si>
+    <t>46709777627</t>
+  </si>
+  <si>
+    <t>Enrique M Stile</t>
+  </si>
+  <si>
+    <t>ems@marval.com</t>
+  </si>
+  <si>
+    <t>Bernardo Môcho</t>
+  </si>
+  <si>
+    <t>bernardo.mocho@mattosfilho.com.br</t>
+  </si>
+  <si>
+    <t>5511971112131</t>
+  </si>
+  <si>
+    <t>Colm Fanning</t>
+  </si>
+  <si>
+    <t>colm.fanning@mccannfitzgerald.com</t>
+  </si>
+  <si>
+    <t>Martín Sánchez</t>
+  </si>
+  <si>
+    <t>msanchez@macf.com.mx</t>
+  </si>
+  <si>
+    <t>525552017467</t>
+  </si>
+  <si>
+    <t>Nicholas Dunstone</t>
+  </si>
+  <si>
+    <t>ndunstone@milbank.com</t>
+  </si>
+  <si>
+    <t>442076153051</t>
+  </si>
+  <si>
+    <t>Andrew Wallis</t>
+  </si>
+  <si>
+    <t>awallis@millsoakley.com.au</t>
+  </si>
+  <si>
+    <t>Construction Contracts</t>
+  </si>
+  <si>
+    <t>Kristy Edser</t>
+  </si>
+  <si>
+    <t>kristy.edser@minterellison.com</t>
+  </si>
+  <si>
+    <t>Louisa Galbraith</t>
+  </si>
+  <si>
+    <t>louisa.galbraith@mll-legal.com</t>
+  </si>
+  <si>
+    <t>41585520298</t>
+  </si>
+  <si>
+    <t>Hélène Weidmann</t>
+  </si>
+  <si>
+    <t>helene.weidmann@mll-legal.com</t>
+  </si>
+  <si>
+    <t>Enrique De Alba</t>
+  </si>
+  <si>
+    <t>enrique.dealba@morimor.com</t>
+  </si>
+  <si>
+    <t>International Shipping &amp; Maritime</t>
+  </si>
+  <si>
+    <t>Nino Sievi</t>
+  </si>
+  <si>
+    <t>sievi@ndlegal.ch</t>
+  </si>
+  <si>
+    <t>41442504551</t>
+  </si>
+  <si>
+    <t>Lucas A Piaggio</t>
+  </si>
+  <si>
+    <t>lpiaggio@nyc.com.ar</t>
+  </si>
+  <si>
+    <t>Thomas Brönnimann</t>
+  </si>
+  <si>
+    <t>thomas.m.broennimann@nkf.ch</t>
+  </si>
+  <si>
+    <t>41588008353</t>
+  </si>
+  <si>
+    <t>Boris Vittoz</t>
+  </si>
+  <si>
+    <t>boris.vittoz@nkf.ch</t>
+  </si>
+  <si>
+    <t>41588008570</t>
+  </si>
+  <si>
+    <t>Torsten Fett</t>
+  </si>
+  <si>
+    <t>torsten.fett@noerr.com</t>
+  </si>
+  <si>
+    <t>4969971477252</t>
+  </si>
+  <si>
+    <t>Fabio Capezzone</t>
+  </si>
+  <si>
+    <t>f.capezzone@nmlex.it</t>
+  </si>
+  <si>
+    <t>Vanessa Déglise</t>
+  </si>
+  <si>
+    <t>vdeglise@obersonabels.com</t>
+  </si>
+  <si>
+    <t>Michał Miąskiewicz</t>
+  </si>
+  <si>
+    <t>michal.miaskiewicz@octolegal.com</t>
+  </si>
+  <si>
+    <t>Guido Tancredi</t>
+  </si>
+  <si>
+    <t>gtancredi@ontier.net</t>
+  </si>
+  <si>
+    <t>Asbjørn Englund</t>
+  </si>
+  <si>
+    <t>aen@osloeconomics.no</t>
+  </si>
+  <si>
+    <t>4791318802</t>
+  </si>
+  <si>
+    <t>Catherine Eason</t>
+  </si>
+  <si>
+    <t>ceason@pcb-byrne.com</t>
+  </si>
+  <si>
+    <t>2078421672</t>
+  </si>
+  <si>
+    <t>Christophe Emonet</t>
+  </si>
+  <si>
+    <t>christophe.emonet@pestalozzilaw.com</t>
+  </si>
+  <si>
+    <t>41229999610</t>
+  </si>
+  <si>
+    <t>Marcello Lobo</t>
+  </si>
+  <si>
+    <t>mlobo@pn.com.br</t>
+  </si>
+  <si>
+    <t>552125061609</t>
+  </si>
+  <si>
+    <t>José Alejandro Torres</t>
+  </si>
+  <si>
+    <t>josealejandro.torres@phrlegal.com</t>
+  </si>
+  <si>
+    <t>Carina Vang Kristoffersen</t>
+  </si>
+  <si>
+    <t>cavk@poulschmith.dk</t>
+  </si>
+  <si>
+    <t>Christian Unterhauser</t>
+  </si>
+  <si>
+    <t>christian.unterhauser@psp-bz.it</t>
+  </si>
+  <si>
+    <t>390471819770</t>
+  </si>
+  <si>
+    <t>Alexander Lorenz</t>
+  </si>
+  <si>
+    <t>lorenz@pwwl.de</t>
+  </si>
+  <si>
+    <t>Ivy Lai</t>
+  </si>
+  <si>
+    <t>ivy.lai@reedsmith.com</t>
+  </si>
+  <si>
+    <t>Ingrid Boghossian</t>
+  </si>
+  <si>
+    <t>iboghossian@rsslex.com</t>
+  </si>
+  <si>
+    <t>5143937423</t>
+  </si>
+  <si>
+    <t>Cristina Collantes-garcia</t>
+  </si>
+  <si>
+    <t>cristina.collantes@romulo.com</t>
+  </si>
+  <si>
+    <t>63285559530</t>
+  </si>
+  <si>
+    <t>Erik Ficks</t>
+  </si>
+  <si>
+    <t>erik.ficks@roschier.com</t>
+  </si>
+  <si>
+    <t>46761289092</t>
+  </si>
+  <si>
+    <t>Elizabeth Weeks</t>
+  </si>
+  <si>
+    <t>elizabeth.weeks@rosenblatt.law</t>
+  </si>
+  <si>
+    <t>Thorsten Benthien</t>
+  </si>
+  <si>
+    <t>thorsten.benthien@ebnerstolz.de</t>
+  </si>
+  <si>
+    <t>494037097168</t>
+  </si>
+  <si>
+    <t>Philippe Müller</t>
+  </si>
+  <si>
+    <t>phmuller@rvmh.ch</t>
+  </si>
+  <si>
+    <t>Łukasz Dynysiuk</t>
+  </si>
+  <si>
+    <t>lukasz.dynysiuk@rzmlaw.com</t>
+  </si>
+  <si>
+    <t>48225204058</t>
+  </si>
+  <si>
+    <t>Denis Cinieri</t>
+  </si>
+  <si>
+    <t>denis.cinieri@sagliettibianco.com</t>
+  </si>
+  <si>
+    <t>Karina Beaud</t>
+  </si>
+  <si>
+    <t>karina.beaud@swlegal.ch</t>
+  </si>
+  <si>
+    <t>41227078057</t>
+  </si>
+  <si>
+    <t>Hortensia Ballestas</t>
+  </si>
+  <si>
+    <t>ballestas@schwarz-schoenherr.com</t>
+  </si>
+  <si>
+    <t>Georges Bader</t>
+  </si>
+  <si>
+    <t>gbader@secretariat-intl.com</t>
+  </si>
+  <si>
+    <t>15147171670</t>
+  </si>
+  <si>
+    <t>Jeremy Bister</t>
+  </si>
+  <si>
+    <t>j.bister@seitzpartner.de</t>
+  </si>
+  <si>
+    <t>4922156960575</t>
+  </si>
+  <si>
+    <t>Anja Lange</t>
+  </si>
+  <si>
+    <t>a.lange@selmer.no</t>
+  </si>
+  <si>
+    <t>4797572936</t>
+  </si>
+  <si>
+    <t>Emmelie Tedfelt</t>
+  </si>
+  <si>
+    <t>emmelie.tedfelt@setterwalls.se</t>
+  </si>
+  <si>
+    <t>46317011753</t>
+  </si>
+  <si>
+    <t>Jeevitha T Thurai Rathnam</t>
+  </si>
+  <si>
+    <t>jeevitha@shearndelamore.com</t>
+  </si>
+  <si>
+    <t>60320272612</t>
+  </si>
+  <si>
+    <t>Mahrie Webb</t>
+  </si>
+  <si>
+    <t>mahrie.webb@simmons-simmons.com</t>
+  </si>
+  <si>
+    <t>442078252077</t>
+  </si>
+  <si>
+    <t>Dominic Toomey</t>
+  </si>
+  <si>
+    <t>dominic.toomey@simpsongrierson.com</t>
+  </si>
+  <si>
+    <t>6499775385</t>
+  </si>
+  <si>
+    <t>Léon De Jager</t>
+  </si>
+  <si>
+    <t>dejager@svs.law</t>
+  </si>
+  <si>
+    <t>Jonathan Slade</t>
+  </si>
+  <si>
+    <t>jonathan.slade@slaughterandmay.com</t>
+  </si>
+  <si>
+    <t>32027379436</t>
+  </si>
+  <si>
+    <t>Olivier Maizou</t>
+  </si>
+  <si>
+    <t>omaizou@squairlaw.com</t>
+  </si>
+  <si>
+    <t>Joana Brisson Lopes</t>
+  </si>
+  <si>
+    <t>joana.brissonlopes@srslegal.pt</t>
+  </si>
+  <si>
+    <t>351937237851</t>
+  </si>
+  <si>
+    <t>managing-associate</t>
+  </si>
+  <si>
+    <t>Helen Conlan</t>
+  </si>
+  <si>
+    <t>helen.conlan@stephensonharwood.com</t>
+  </si>
+  <si>
+    <t>442078092205</t>
+  </si>
+  <si>
+    <t>Spencer Campbell</t>
+  </si>
+  <si>
+    <t>scampbell@stewartmckelvey.com</t>
+  </si>
+  <si>
+    <t>Monique Van Der Linden</t>
+  </si>
+  <si>
+    <t>monique.vanderlinden@stibbe.com</t>
+  </si>
+  <si>
+    <t>31205460055</t>
+  </si>
+  <si>
+    <t>Lisa Els</t>
+  </si>
+  <si>
+    <t>lisar@sstlaw.co.za</t>
+  </si>
+  <si>
+    <t>Conveyancing</t>
+  </si>
+  <si>
+    <t>Martin Feick</t>
+  </si>
+  <si>
+    <t>martin.feick@sza.de</t>
+  </si>
+  <si>
+    <t>496214257221</t>
+  </si>
+  <si>
+    <t>Inheritance Tax</t>
+  </si>
+  <si>
+    <t>Stephan Brandes</t>
+  </si>
+  <si>
+    <t>stephan.brandes@sza.de</t>
+  </si>
+  <si>
+    <t>49699769601251</t>
+  </si>
+  <si>
+    <t>Alexandre Reynaud</t>
+  </si>
+  <si>
+    <t>alexandre.reynaud@talma.legal</t>
+  </si>
+  <si>
+    <t>33188400677</t>
+  </si>
+  <si>
+    <t>Kirsti Pent</t>
+  </si>
+  <si>
+    <t>kirsti.pent@tgsbaltic.com</t>
+  </si>
+  <si>
+    <t>37253411175</t>
+  </si>
+  <si>
+    <t>Simon M Hohler</t>
+  </si>
+  <si>
+    <t>s.hohler@thouvenin.com</t>
+  </si>
+  <si>
+    <t>41417237040</t>
+  </si>
+  <si>
+    <t>Eduardo Mariotti</t>
+  </si>
+  <si>
+    <t>emariotti@tozzinifreire.com.br</t>
+  </si>
+  <si>
+    <t>555130252229</t>
+  </si>
+  <si>
+    <t>Iratxe Celaya</t>
+  </si>
+  <si>
+    <t>iratxe.celaya@uria.com</t>
+  </si>
+  <si>
+    <t>Carolina Amadeu Vasconcelos Rossini</t>
+  </si>
+  <si>
+    <t>carolina.vasconcelos@veirano.com.br</t>
+  </si>
+  <si>
+    <t>551123135760</t>
+  </si>
+  <si>
+    <t>Alfredo Colorado</t>
+  </si>
+  <si>
+    <t>alfredo@via.es</t>
+  </si>
+  <si>
+    <t>Henrik Ossborn</t>
+  </si>
+  <si>
+    <t>henrik.ossborn@vinge.se</t>
+  </si>
+  <si>
+    <t>Adrien Alberini</t>
+  </si>
+  <si>
+    <t>adrien.alberini@walderwyss.com</t>
+  </si>
+  <si>
+    <t>41586583161</t>
+  </si>
+  <si>
+    <t>Guilherme Ferreira Coelho Lippi</t>
+  </si>
+  <si>
+    <t>glippi@warde.com.br</t>
+  </si>
+  <si>
+    <t>Paweł Ciećwierz</t>
+  </si>
+  <si>
+    <t>pawel.ciecwierz@wardynski.com.pl</t>
+  </si>
+  <si>
+    <t>Marcin Schulz</t>
+  </si>
+  <si>
+    <t>marcin.schulz@aglaw.com</t>
+  </si>
+  <si>
+    <t>48225265075</t>
+  </si>
+  <si>
+    <t>Elise Kosman</t>
+  </si>
+  <si>
+    <t>elise.kosman@advant-altana.com</t>
+  </si>
+  <si>
+    <t>Daniel Cousens</t>
+  </si>
+  <si>
+    <t>daniel.cousens@aglaw.com</t>
+  </si>
+  <si>
+    <t>48225265113</t>
+  </si>
+  <si>
+    <t>Valérie Lafarge-sarkozy</t>
+  </si>
+  <si>
+    <t>valerie.lafarge-sarkozy@advant-altana.com</t>
+  </si>
+  <si>
+    <t>Personal Injury</t>
+  </si>
+  <si>
+    <t>Delphine Lapillonne</t>
+  </si>
+  <si>
+    <t>delphine.lapillonne@advant-altana.com</t>
+  </si>
+  <si>
+    <t>330179979282</t>
+  </si>
+  <si>
+    <t>Emma Tullberg</t>
+  </si>
+  <si>
+    <t>etullberg@seyfarth.com</t>
+  </si>
+  <si>
+    <t>442077632554</t>
+  </si>
+  <si>
+    <t>Chiara Klaui</t>
+  </si>
+  <si>
+    <t>chiara.klaui@akingump.com</t>
+  </si>
+  <si>
+    <t>Anir Bhattacharyya</t>
+  </si>
+  <si>
+    <t>abhattacharyya@alixpartners.com</t>
+  </si>
+  <si>
+    <t>85262879282</t>
+  </si>
+  <si>
+    <t>Cheryl Chong</t>
+  </si>
+  <si>
+    <t>cheryl.chong@agasia.law</t>
+  </si>
+  <si>
+    <t>Lance Jones</t>
+  </si>
+  <si>
+    <t>lance.jones@ah.co.nz</t>
+  </si>
+  <si>
+    <t>6499209267</t>
+  </si>
+  <si>
+    <t>Martial barbian</t>
+  </si>
+  <si>
+    <t>martial.barbian@arendt.com</t>
+  </si>
+  <si>
+    <t>3524078785647</t>
+  </si>
+  <si>
+    <t>Herve Jegou</t>
+  </si>
+  <si>
+    <t>herve.jegou@bakermckenzie.com</t>
+  </si>
+  <si>
+    <t>Pascal Hachem</t>
+  </si>
+  <si>
+    <t>pascal.hachem@baerkarrer.ch</t>
+  </si>
+  <si>
+    <t>41582615491</t>
+  </si>
+  <si>
+    <t>Pascal Sieger</t>
+  </si>
+  <si>
+    <t>pascal.sieger@barandun-law.ch</t>
+  </si>
+  <si>
+    <t>41442665633</t>
+  </si>
+  <si>
+    <t>Inés Idigoras</t>
+  </si>
+  <si>
+    <t>i.idigoras@barrilero.es</t>
+  </si>
+  <si>
+    <t>Hyun Kwan Cho</t>
+  </si>
+  <si>
+    <t>hyunkwan.cho@barunlaw.com</t>
+  </si>
+  <si>
+    <t>234792466</t>
+  </si>
+  <si>
+    <t>Luis Luján Sauri</t>
+  </si>
+  <si>
+    <t>lujan@basham.com.mx</t>
+  </si>
+  <si>
+    <t>524421032100</t>
+  </si>
+  <si>
+    <t>Nicolas Le Rossignol</t>
+  </si>
+  <si>
+    <t>lerossignol@bg2v.com</t>
+  </si>
+  <si>
+    <t>33148886066</t>
+  </si>
+  <si>
+    <t>Felix Harbsmeier</t>
+  </si>
+  <si>
+    <t>felix.harbsmeier@twobirds.com</t>
+  </si>
+  <si>
+    <t>Allan Morgan</t>
+  </si>
+  <si>
+    <t>allan.morgan@blakes.com</t>
+  </si>
+  <si>
+    <t>14032609757</t>
+  </si>
+  <si>
+    <t>Michael Grodinsky</t>
+  </si>
+  <si>
+    <t>mgrodinsky@blg.com</t>
+  </si>
+  <si>
+    <t>Kirsten-inger Wöhrn</t>
+  </si>
+  <si>
+    <t>kirsten-inger.woehrn@bclplaw.com</t>
+  </si>
+  <si>
+    <t>49030684096117</t>
+  </si>
+  <si>
+    <t>Klemet Ingvar Gaski</t>
+  </si>
+  <si>
+    <t>kig@bull.no</t>
+  </si>
+  <si>
+    <t>4741916583</t>
+  </si>
+  <si>
+    <t>Donal O Donovan</t>
+  </si>
+  <si>
+    <t>dodonovan@byrnewallaceshields.com</t>
+  </si>
+  <si>
+    <t>Jose Manuel Llanos Alperi</t>
+  </si>
+  <si>
+    <t>josemanuel.llanos@caseslacambra.com</t>
+  </si>
+  <si>
+    <t>34910612450</t>
+  </si>
+  <si>
+    <t>André Boivin</t>
+  </si>
+  <si>
+    <t>aboivin@cassels.com</t>
+  </si>
+  <si>
+    <t>4168606580</t>
+  </si>
+  <si>
+    <t>Lee Medlock</t>
+  </si>
+  <si>
+    <t>lee.medlock@crsblaw.com</t>
+  </si>
+  <si>
+    <t>Lu Yuan Leong</t>
+  </si>
+  <si>
+    <t>luyuan.leong@clasisllc.com</t>
+  </si>
+  <si>
+    <t>6565446530</t>
+  </si>
+  <si>
+    <t>David Bunker</t>
+  </si>
+  <si>
+    <t>david.bunker@cms-cmno.com</t>
+  </si>
+  <si>
+    <t>Charles Simpson</t>
+  </si>
+  <si>
+    <t>charles.simpson@controlrisks.com</t>
+  </si>
+  <si>
+    <t>Duncan Travis</t>
+  </si>
+  <si>
+    <t>d.travis@cornwalls.com.au</t>
+  </si>
+  <si>
+    <t>Peter Slegers</t>
+  </si>
+  <si>
+    <t>pslegers@cowellclarke.com.au</t>
+  </si>
+  <si>
+    <t>Ana María Sánchez</t>
+  </si>
+  <si>
+    <t>anamaria.sanchez@cuatrecasas.com</t>
+  </si>
+  <si>
+    <t>David Meiler</t>
+  </si>
+  <si>
+    <t>dmeiler@demarest.com.br</t>
+  </si>
+  <si>
+    <t>552137239860</t>
+  </si>
+  <si>
+    <t>Robert Fiechter</t>
+  </si>
+  <si>
+    <t>robert.fiechter@desgouttes.ch</t>
+  </si>
+  <si>
+    <t>Ilse van De Mierop</t>
+  </si>
+  <si>
+    <t>ilse.vandemierop@dlapiper.com</t>
+  </si>
+  <si>
+    <t>32025001576</t>
+  </si>
+  <si>
+    <t>Enrique López Rivarola</t>
+  </si>
+  <si>
+    <t>elopezrivarola@beccarvarela.com</t>
+  </si>
+  <si>
+    <t>Annie Lam</t>
+  </si>
+  <si>
+    <t>annielam@eversheds-sutherland.com</t>
+  </si>
+  <si>
+    <t>85221863233</t>
+  </si>
+  <si>
+    <t>Sean s  stevens</t>
+  </si>
+  <si>
+    <t>sstevens@fasken.com</t>
+  </si>
+  <si>
+    <t>Ming Lu</t>
+  </si>
+  <si>
+    <t>mlu@forensicrisk.com</t>
+  </si>
+  <si>
+    <t>33764624299</t>
+  </si>
+  <si>
+    <t>Onno Brouwer</t>
+  </si>
+  <si>
+    <t>onno.brouwer@freshfields.com</t>
+  </si>
+  <si>
+    <t>Ross Blakeley</t>
+  </si>
+  <si>
+    <t>ross.blakeley@fticonsulting.com</t>
+  </si>
+  <si>
+    <t>61396040600</t>
+  </si>
+  <si>
+    <t>Fredrik Sarman</t>
+  </si>
+  <si>
+    <t>fredrik.sarman@fylgia.se</t>
+  </si>
+  <si>
+    <t>46706518437</t>
+  </si>
+  <si>
+    <t>Mohamed Shelbaya</t>
+  </si>
+  <si>
+    <t>mshelbaya@gbsdisputes.com</t>
+  </si>
+  <si>
+    <t>33623152668</t>
+  </si>
+  <si>
+    <t>Filip Laudon</t>
+  </si>
+  <si>
+    <t>filip.laudon@glimstedt.se</t>
+  </si>
+  <si>
+    <t>John Sommer Schmidt</t>
+  </si>
+  <si>
+    <t>jss@gorrissenfederspiel.com</t>
+  </si>
+  <si>
+    <t>David Howell</t>
+  </si>
+  <si>
+    <t>david.howell@gowlingwlg.com</t>
+  </si>
+  <si>
+    <t>19055402505</t>
+  </si>
+  <si>
+    <t>Heng Xue</t>
+  </si>
+  <si>
+    <t>hengxue@grandall.com.cn</t>
+  </si>
+  <si>
+    <t>Intellectual Property Litigation</t>
+  </si>
+  <si>
+    <t>Justine Picardo</t>
+  </si>
+  <si>
+    <t>justine.picardo@hassans.gi</t>
+  </si>
+  <si>
+    <t>Brian Studniberg</t>
+  </si>
+  <si>
+    <t>bstudniberg@hhllp.ca</t>
+  </si>
+  <si>
+    <t>Kyle Wombolt</t>
+  </si>
+  <si>
+    <t>kyle.wombolt@hsfkramer.com</t>
+  </si>
+  <si>
+    <t>85221014005</t>
+  </si>
+  <si>
+    <t>Patricia Tiller</t>
+  </si>
+  <si>
+    <t>patriciatiller@hunton.com</t>
+  </si>
+  <si>
+    <t>97144019164</t>
+  </si>
+  <si>
+    <t>Anne-sarah Skrebers</t>
+  </si>
+  <si>
+    <t>askrebers@avocats.ch</t>
+  </si>
+  <si>
+    <t>Anna Haszprunar</t>
+  </si>
+  <si>
+    <t>anna.haszprunar@kantenwein.de</t>
+  </si>
+  <si>
+    <t>Tax Compliance</t>
+  </si>
+  <si>
+    <t>Angelica Maria Schwarz</t>
+  </si>
+  <si>
+    <t>angelica.schwarz@kellerhals-carrard.ch</t>
+  </si>
+  <si>
+    <t>Rodrigo Olivares-caminal</t>
+  </si>
+  <si>
+    <t>rolivares@keplerkarst.com</t>
+  </si>
+  <si>
+    <t>Merih Altay</t>
+  </si>
+  <si>
+    <t>merih.altay@kirkland.com</t>
+  </si>
+  <si>
+    <t>442074692177</t>
+  </si>
+  <si>
+    <t>Michael Kliemt</t>
+  </si>
+  <si>
+    <t>michael.kliemt@kliemt.de</t>
+  </si>
+  <si>
+    <t>49021188288115</t>
+  </si>
+  <si>
+    <t>George Asbury</t>
+  </si>
+  <si>
+    <t>george.asbury@kroll.com</t>
+  </si>
+  <si>
+    <t>442070894815</t>
+  </si>
+  <si>
+    <t>Jakob Hans Johansen</t>
+  </si>
+  <si>
+    <t>jaj@kromannreumert.com</t>
+  </si>
+  <si>
+    <t>Kevin J Huber</t>
+  </si>
+  <si>
+    <t>khuber@lalive.law</t>
+  </si>
+  <si>
+    <t>Paul Mcqueen</t>
+  </si>
+  <si>
+    <t>paul.mcqueen@lavan.com.au</t>
+  </si>
+  <si>
+    <t>61892886943</t>
+  </si>
+  <si>
+    <t>Lucia Yiou</t>
+  </si>
+  <si>
+    <t>luciayiou@lcs.com.tw</t>
+  </si>
+  <si>
+    <t>Jacky Chang</t>
+  </si>
+  <si>
+    <t>sscchang@leeandli.com</t>
+  </si>
+  <si>
+    <t>8862276380002169</t>
+  </si>
+  <si>
+    <t>Roland Fischer</t>
+  </si>
+  <si>
+    <t>roland.fischer@lenzstaehelin.com</t>
+  </si>
+  <si>
+    <t>Arnaud Picard</t>
+  </si>
+  <si>
+    <t>apicard@lerins.com</t>
+  </si>
+  <si>
+    <t>François Tulkens</t>
+  </si>
+  <si>
+    <t>f.tulkens@liedekerke.com</t>
+  </si>
+  <si>
+    <t>3225511615</t>
+  </si>
+  <si>
+    <t>Harmen Van Dam</t>
+  </si>
+  <si>
+    <t>harmen.van.dam@loyensloeff.com</t>
+  </si>
+  <si>
+    <t>Enrique V Veramendi</t>
+  </si>
+  <si>
+    <t>evve@marval.com</t>
+  </si>
+  <si>
+    <t>Bruno Chedid</t>
+  </si>
+  <si>
+    <t>bruno.chedid@mattosfilho.com.br</t>
+  </si>
+  <si>
+    <t>5521991855235</t>
+  </si>
+  <si>
+    <t>Mining</t>
+  </si>
+  <si>
+    <t>Conor Cunningham</t>
+  </si>
+  <si>
+    <t>conor.cunningham@mccannfitzgerald.com</t>
+  </si>
+  <si>
+    <t>Ignacio Armida</t>
+  </si>
+  <si>
+    <t>iarmida@macf.com.mx</t>
+  </si>
+  <si>
+    <t>525552017441</t>
+  </si>
+  <si>
+    <t>Tristram Gargent</t>
+  </si>
+  <si>
+    <t>tgargent@milbank.com</t>
+  </si>
+  <si>
+    <t>442076153812</t>
+  </si>
+  <si>
+    <t>Andy Milidoni</t>
+  </si>
+  <si>
+    <t>amilidoni@millsoakley.com.au</t>
+  </si>
+  <si>
+    <t>Luke Walker</t>
+  </si>
+  <si>
+    <t>luke.walker@minterellison.com</t>
+  </si>
+  <si>
+    <t>Alain Gros</t>
+  </si>
+  <si>
+    <t>alain.gros@mll-legal.com</t>
+  </si>
+  <si>
+    <t>Jacques Johner</t>
+  </si>
+  <si>
+    <t>jacques.johner@mll-legal.com</t>
+  </si>
+  <si>
+    <t>Fanny Evans</t>
+  </si>
+  <si>
+    <t>fanny.evans@morimor.com</t>
+  </si>
+  <si>
+    <t>Estate Planning</t>
+  </si>
+  <si>
+    <t>Mladen Stojiljković</t>
+  </si>
+  <si>
+    <t>stojiljkovic@ndlegal.ch</t>
+  </si>
+  <si>
+    <t>41442504561</t>
+  </si>
+  <si>
+    <t>Luis Rodolfo Bullrich</t>
+  </si>
+  <si>
+    <t>lbullrich@nyc.com.ar</t>
+  </si>
+  <si>
+    <t>Philipp Candreia</t>
+  </si>
+  <si>
+    <t>philipp.candreia@nkf.ch</t>
+  </si>
+  <si>
+    <t>41588008429</t>
+  </si>
+  <si>
+    <t>Stefano Guiso Gallisay</t>
+  </si>
+  <si>
+    <t>s.guisogallisay@nmlex.it</t>
+  </si>
+  <si>
+    <t>Stefan Eberhard</t>
+  </si>
+  <si>
+    <t>seberhard@obersonabels.com</t>
+  </si>
+  <si>
+    <t>Natalia Godula</t>
+  </si>
+  <si>
+    <t>natalia.godula@octolegal.com</t>
+  </si>
+  <si>
+    <t>Simone Riva</t>
+  </si>
+  <si>
+    <t>sriva@ontier.net</t>
+  </si>
+  <si>
+    <t>Ove Skaug Halsos</t>
+  </si>
+  <si>
+    <t>osh@osloeconomics.no</t>
+  </si>
+  <si>
+    <t>4741521059</t>
+  </si>
+  <si>
+    <t>Matthew Frankland</t>
+  </si>
+  <si>
+    <t>mfrankland@pcb-byrne.com</t>
+  </si>
+  <si>
+    <t>Marcos Chaves Ladeira</t>
+  </si>
+  <si>
+    <t>mladeira@pn.com.br</t>
+  </si>
+  <si>
+    <t>551132478928</t>
+  </si>
+  <si>
+    <t>Casper Christiansen</t>
+  </si>
+  <si>
+    <t>cch@poulschmith.dk</t>
+  </si>
+  <si>
+    <t>Christian Messner</t>
+  </si>
+  <si>
+    <t>christian.messner@psp-bz.it</t>
+  </si>
+  <si>
+    <t>Meike Christine Rehner</t>
+  </si>
+  <si>
+    <t>rehner@pwwl.de</t>
+  </si>
+  <si>
+    <t>498921539280</t>
+  </si>
+  <si>
+    <t>Janet Bo Chun Cheung</t>
+  </si>
+  <si>
+    <t>janet.cheung@reedsmith.com</t>
+  </si>
+  <si>
+    <t>Alice Bourgault-roy</t>
+  </si>
+  <si>
+    <t>abourgaultroy@rsslex.com</t>
+  </si>
+  <si>
+    <t>5143937450</t>
+  </si>
+  <si>
+    <t>Madeleine Binkley</t>
+  </si>
+  <si>
+    <t>madeleine.binkley@rosenblatt.law</t>
+  </si>
+  <si>
+    <t>Alexander Bohn</t>
+  </si>
+  <si>
+    <t>alexander.bohn@ebnerstolz.de</t>
+  </si>
+  <si>
+    <t>4922120643487</t>
+  </si>
+  <si>
+    <t>Tax Auditing</t>
+  </si>
+  <si>
+    <t>Pierre-damien Eggly</t>
+  </si>
+  <si>
+    <t>peggly@rvmh.ch</t>
+  </si>
+  <si>
+    <t>Piotr Fedorowicz</t>
+  </si>
+  <si>
+    <t>piotr.fedorowicz@rzmlaw.com</t>
+  </si>
+  <si>
+    <t>48225204378</t>
+  </si>
+  <si>
+    <t>Philip Andrea Berti</t>
+  </si>
+  <si>
+    <t>philipandrea.berti@swlegal.ch</t>
+  </si>
+  <si>
+    <t>41442153656</t>
+  </si>
+  <si>
+    <t>Etienne Berge</t>
+  </si>
+  <si>
+    <t>eberge@secretariat-intl.com</t>
+  </si>
+  <si>
+    <t>12633804324</t>
+  </si>
+  <si>
+    <t>Matthias Böglmüller</t>
+  </si>
+  <si>
+    <t>m.boeglmueller@seitzpartner.de</t>
+  </si>
+  <si>
+    <t>4989356276160</t>
+  </si>
+  <si>
+    <t>Are Fagerhaug</t>
+  </si>
+  <si>
+    <t>a.fagerhaug@selmer.no</t>
+  </si>
+  <si>
+    <t>4798267017</t>
+  </si>
+  <si>
+    <t>Angelica Ström</t>
+  </si>
+  <si>
+    <t>angelica.strom@setterwalls.se</t>
+  </si>
+  <si>
+    <t>46859889139</t>
+  </si>
+  <si>
+    <t>Charlie Wong Jing Xiong</t>
+  </si>
+  <si>
+    <t>charliewong@shearndelamore.com</t>
+  </si>
+  <si>
+    <t>60320272700</t>
+  </si>
+  <si>
+    <t>Alexander Brown</t>
+  </si>
+  <si>
+    <t>alexander.brown@simmons-simmons.com</t>
+  </si>
+  <si>
+    <t>442078254954</t>
+  </si>
+  <si>
+    <t>Donna Hurley</t>
+  </si>
+  <si>
+    <t>donna.hurley@simpsongrierson.com</t>
+  </si>
+  <si>
+    <t>6449243500</t>
+  </si>
+  <si>
+    <t>Linda Van Der Hut</t>
+  </si>
+  <si>
+    <t>vanderhut@svs.law</t>
+  </si>
+  <si>
+    <t>31703467472</t>
+  </si>
+  <si>
+    <t>Amandine Rossignol</t>
+  </si>
+  <si>
+    <t>arossignol@squairlaw.com</t>
+  </si>
+  <si>
+    <t>Business Contracts</t>
+  </si>
+  <si>
+    <t>Dani Azmi</t>
+  </si>
+  <si>
+    <t>hardani.azmi@stephensonharwood.com</t>
+  </si>
+  <si>
+    <t>442078092410</t>
+  </si>
+  <si>
+    <t>Tyana R Caplan</t>
+  </si>
+  <si>
+    <t>tcaplan@stewartmckelvey.com</t>
+  </si>
+  <si>
+    <t>Nima Lorjé</t>
+  </si>
+  <si>
+    <t>nima.lorje@stibbe.com</t>
+  </si>
+  <si>
+    <t>31205460353</t>
+  </si>
+  <si>
+    <t>Marc Löbbe</t>
+  </si>
+  <si>
+    <t>marc.loebbe@sza.de</t>
+  </si>
+  <si>
+    <t>49894111417111</t>
+  </si>
+  <si>
+    <t>Inheritance</t>
+  </si>
+  <si>
+    <t>Aloïs Blin</t>
+  </si>
+  <si>
+    <t>alois.blin@talma.legal</t>
+  </si>
+  <si>
+    <t>3318840067680</t>
+  </si>
+  <si>
+    <t>Maris Vutt</t>
+  </si>
+  <si>
+    <t>maris.vutt@tgsbaltic.com</t>
+  </si>
+  <si>
+    <t>3726264300</t>
+  </si>
+  <si>
+    <t>Thomas Loher</t>
+  </si>
+  <si>
+    <t>t.loher@thouvenin.com</t>
+  </si>
+  <si>
+    <t>Ilija Mitrev Penushliski</t>
+  </si>
+  <si>
+    <t>ilija.mitrev-penushliski@threecrownsllp.com</t>
+  </si>
+  <si>
+    <t>33183790956</t>
+  </si>
+  <si>
+    <t>Elias Marques De Medeiros Neto</t>
+  </si>
+  <si>
+    <t>emarques@tozzinifreire.com.br</t>
+  </si>
+  <si>
+    <t>551150865559</t>
+  </si>
+  <si>
+    <t>Ismael Clemente</t>
+  </si>
+  <si>
+    <t>ismael.clemente@uria.com</t>
+  </si>
+  <si>
+    <t>Cintia De Morais Andrade</t>
+  </si>
+  <si>
+    <t>cintia.andrade@veirano.com.br</t>
+  </si>
+  <si>
+    <t>552138244655</t>
+  </si>
+  <si>
+    <t>Jerker Kjellander</t>
+  </si>
+  <si>
+    <t>jerker.kjellander@vinge.se</t>
+  </si>
+  <si>
+    <t>Fabienne Anner</t>
+  </si>
+  <si>
+    <t>fabienne.anner@walderwyss.com</t>
+  </si>
+  <si>
+    <t>41586585672</t>
+  </si>
+  <si>
+    <t>Henrique Machado Fernandes Moreira</t>
+  </si>
+  <si>
+    <t>machado@warde.com.br</t>
+  </si>
+  <si>
+    <t>Sandra Derdoń</t>
+  </si>
+  <si>
+    <t>sandra.derdon@wardynski.com.pl</t>
+  </si>
+  <si>
+    <t>Advisor</t>
+  </si>
+  <si>
+    <t>Dominic hägler</t>
+  </si>
+  <si>
+    <t>d.haegler@wartmann-merker.ch</t>
+  </si>
+  <si>
+    <t>41442121011</t>
+  </si>
+  <si>
+    <t>Nathan Eastwood</t>
+  </si>
+  <si>
+    <t>neastwood@wfw.com</t>
+  </si>
+  <si>
+    <t>61292767613</t>
+  </si>
+  <si>
+    <t>Alexandra Rees</t>
+  </si>
+  <si>
+    <t>alexandra.rees@webberwentzel.com</t>
+  </si>
+  <si>
+    <t>27115305750</t>
+  </si>
+  <si>
+    <t>Georg Zondler</t>
+  </si>
+  <si>
+    <t>g.zondler@wengervieli.ch</t>
+  </si>
+  <si>
+    <t>41589585555</t>
+  </si>
+  <si>
+    <t>Alexis Fong</t>
+  </si>
+  <si>
+    <t>afong@whitecase.com</t>
+  </si>
+  <si>
+    <t>61384868054</t>
+  </si>
+  <si>
+    <t>Elisabeth Lian Haugsdal</t>
+  </si>
+  <si>
+    <t>elha@wiersholm.no</t>
+  </si>
+  <si>
+    <t>Andreas ihle</t>
+  </si>
+  <si>
+    <t>anihle@wr.no</t>
+  </si>
+  <si>
+    <t>4798110673</t>
+  </si>
+  <si>
+    <t>Richard breen</t>
+  </si>
+  <si>
+    <t>richard.breen@williamfry.com</t>
+  </si>
+  <si>
+    <t>35316395378</t>
+  </si>
+  <si>
+    <t>Enrique J Martin</t>
+  </si>
+  <si>
+    <t>emartin@winston.com</t>
+  </si>
+  <si>
+    <t>13059100777</t>
+  </si>
+  <si>
+    <t>Annabel Kang</t>
+  </si>
+  <si>
+    <t>annabel.kang@wongpartnership.com</t>
+  </si>
+  <si>
+    <t>6564162483</t>
+  </si>
+  <si>
+    <t>Corporate Real Estate</t>
+  </si>
+  <si>
+    <t>Elliott Davies</t>
+  </si>
+  <si>
+    <t>elliott.davies@wynne-jones.com</t>
+  </si>
+  <si>
+    <t>Head</t>
+  </si>
+  <si>
+    <t>Saskia Bong</t>
+  </si>
+  <si>
+    <t>saskia.bong@ypog.law</t>
+  </si>
+  <si>
+    <t>49307675975141</t>
+  </si>
+  <si>
+    <t>Jonathan Lim Hon Kiat</t>
+  </si>
+  <si>
+    <t>jonathanhklim@ziclegal.com</t>
+  </si>
+  <si>
+    <t>60320879903</t>
+  </si>
+  <si>
+    <t>Amos Khaw</t>
+  </si>
+  <si>
+    <t>amos.khaw@zicoip.com</t>
+  </si>
+  <si>
+    <t>Kamolchanok Sinhaseni</t>
+  </si>
+  <si>
+    <t>kamolchanok.s@zicoip.com</t>
+  </si>
+  <si>
+    <t>Ha Thi Mai Anh</t>
+  </si>
+  <si>
+    <t>maianh.ha@bizlink.vn</t>
+  </si>
+  <si>
+    <t>84934293895</t>
+  </si>
+  <si>
+    <t>https://bizlink.vn/partners/Do_Dzung.html</t>
+  </si>
+  <si>
+    <t>Nat Boonjunwetvat</t>
+  </si>
+  <si>
+    <t>nat@thanathippartners.com</t>
+  </si>
+  <si>
+    <t>6620898988</t>
+  </si>
+  <si>
+    <t>Priyalatha Naidu</t>
+  </si>
+  <si>
+    <t>priya@advocatus.sg</t>
+  </si>
+  <si>
+    <t>6566039202</t>
+  </si>
+  <si>
+    <t>Kristof Geukens</t>
+  </si>
+  <si>
+    <t>kristof.geukens@aoshearman.com</t>
+  </si>
+  <si>
+    <t>3232877052</t>
+  </si>
+  <si>
+    <t>Margaret Austin</t>
+  </si>
+  <si>
+    <t>m.austin@aglaw.com</t>
+  </si>
+  <si>
+    <t>353012026434</t>
+  </si>
+  <si>
+    <t>Pierre Lubet</t>
+  </si>
+  <si>
+    <t>pierre.lubet@advant-altana.com</t>
+  </si>
+  <si>
+    <t>Paul Whinder</t>
+  </si>
+  <si>
+    <t>pwhinder@seyfarth.com</t>
+  </si>
+  <si>
+    <t>442077632518</t>
+  </si>
+  <si>
+    <t>Niko Kolsi</t>
+  </si>
+  <si>
+    <t>niko.kolsi@dottirlaw.com</t>
+  </si>
+  <si>
+    <t>358505208428</t>
+  </si>
+  <si>
+    <t>https://www.dottirlaw.com/team/niko-kolsi</t>
+  </si>
+  <si>
+    <t>Chen Xinda</t>
+  </si>
+  <si>
+    <t>chenxind@guantao.com</t>
+  </si>
+  <si>
+    <t>Administrative Law</t>
+  </si>
+  <si>
+    <t>https://www.guantao.com/en/page4550</t>
   </si>
 </sst>
 </file>
@@ -8211,7 +14754,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
@@ -8265,22 +14808,22 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="1">
-        <v>2324</v>
+        <v>4542</v>
       </c>
       <c r="B2" t="s" s="1">
-        <v>2325</v>
+        <v>4543</v>
       </c>
       <c r="C2" t="s" s="1">
-        <v>2326</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s" s="1">
-        <v>1912</v>
+        <v>168</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>14</v>
+        <v>4544</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>2327</v>
+        <v>4545</v>
       </c>
       <c r="G2" t="s" s="2">
         <v>16</v>
@@ -8289,266 +14832,10 @@
         <v>17</v>
       </c>
       <c r="I2" t="s" s="3">
-        <v>2328</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s" s="4">
-        <v>2310</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="1">
-        <v>2329</v>
-      </c>
-      <c r="B3" t="s" s="1">
-        <v>2330</v>
-      </c>
-      <c r="C3" t="s" s="1">
-        <v>2331</v>
-      </c>
-      <c r="D3" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="E3" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s" s="2">
-        <v>2332</v>
-      </c>
-      <c r="G3" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I3" t="s" s="3">
-        <v>31</v>
-      </c>
-      <c r="J3" t="s" s="4">
-        <v>2310</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="1">
-        <v>2333</v>
-      </c>
-      <c r="B4" t="s" s="1">
-        <v>2334</v>
-      </c>
-      <c r="C4" t="s" s="1">
-        <v>2335</v>
-      </c>
-      <c r="D4" t="s" s="1">
-        <v>2336</v>
-      </c>
-      <c r="E4" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s" s="2">
-        <v>2337</v>
-      </c>
-      <c r="G4" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I4" t="s" s="3">
-        <v>25</v>
-      </c>
-      <c r="J4" t="s" s="4">
-        <v>2310</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="1">
-        <v>2338</v>
-      </c>
-      <c r="B5" t="s" s="1">
-        <v>2339</v>
-      </c>
-      <c r="C5" t="s" s="1">
-        <v>2340</v>
-      </c>
-      <c r="D5" t="s" s="1">
-        <v>2341</v>
-      </c>
-      <c r="E5" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s" s="2">
-        <v>2342</v>
-      </c>
-      <c r="G5" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I5" t="s" s="3">
-        <v>25</v>
-      </c>
-      <c r="J5" t="s" s="4">
-        <v>2310</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="1">
-        <v>2343</v>
-      </c>
-      <c r="B6" t="s" s="1">
-        <v>2344</v>
-      </c>
-      <c r="C6" t="s" s="1">
-        <v>2345</v>
-      </c>
-      <c r="D6" t="s" s="1">
-        <v>2346</v>
-      </c>
-      <c r="E6" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s" s="2">
-        <v>2347</v>
-      </c>
-      <c r="G6" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H6" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I6" t="s" s="3">
-        <v>25</v>
-      </c>
-      <c r="J6" t="s" s="4">
-        <v>2310</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="1">
-        <v>2348</v>
-      </c>
-      <c r="B7" t="s" s="1">
-        <v>2349</v>
-      </c>
-      <c r="C7" t="s" s="1">
-        <v>2350</v>
-      </c>
-      <c r="D7" t="s" s="1">
-        <v>77</v>
-      </c>
-      <c r="E7" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s" s="2">
-        <v>2351</v>
-      </c>
-      <c r="G7" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I7" t="s" s="3">
-        <v>25</v>
-      </c>
-      <c r="J7" t="s" s="4">
-        <v>2310</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="1">
-        <v>2352</v>
-      </c>
-      <c r="B8" t="s" s="1">
-        <v>2353</v>
-      </c>
-      <c r="C8" t="s" s="1">
-        <v>2354</v>
-      </c>
-      <c r="D8" t="s" s="1">
-        <v>46</v>
-      </c>
-      <c r="E8" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s" s="2">
-        <v>2355</v>
-      </c>
-      <c r="G8" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H8" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I8" t="s" s="3">
-        <v>25</v>
-      </c>
-      <c r="J8" t="s" s="4">
-        <v>2310</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="1">
-        <v>2356</v>
-      </c>
-      <c r="B9" t="s" s="1">
-        <v>2357</v>
-      </c>
-      <c r="C9" t="s" s="1">
-        <v>2358</v>
-      </c>
-      <c r="D9" t="s" s="1">
-        <v>2359</v>
-      </c>
-      <c r="E9" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="F9" t="s" s="2">
-        <v>2360</v>
-      </c>
-      <c r="G9" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H9" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I9" t="s" s="3">
-        <v>25</v>
-      </c>
-      <c r="J9" t="s" s="4">
-        <v>2310</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="1">
-        <v>2361</v>
-      </c>
-      <c r="B10" t="s" s="1">
-        <v>2362</v>
-      </c>
-      <c r="C10" t="s" s="1">
-        <v>2363</v>
-      </c>
-      <c r="D10" t="s" s="1">
-        <v>1333</v>
-      </c>
-      <c r="E10" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s" s="2">
-        <v>2364</v>
-      </c>
-      <c r="G10" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H10" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I10" t="s" s="3">
-        <v>25</v>
-      </c>
-      <c r="J10" t="s" s="4">
-        <v>2310</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/baseFiles/excel/Sheet.xlsx
+++ b/src/main/resources/baseFiles/excel/Sheet.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="93">
   <si>
     <t>Name</t>
   </si>
@@ -291,6 +291,21 @@
   </si>
   <si>
     <t>Horten</t>
+  </si>
+  <si>
+    <t>Dong Wu</t>
+  </si>
+  <si>
+    <t>wudong@huiyelaw.com</t>
+  </si>
+  <si>
+    <t>862152370950</t>
+  </si>
+  <si>
+    <t>https://www.huiyelaw.com/zyry-1.html</t>
+  </si>
+  <si>
+    <t>Huiye Law</t>
   </si>
 </sst>
 </file>
@@ -1397,7 +1412,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:J3"/>
@@ -1449,38 +1464,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="1">
-        <v>81</v>
-      </c>
-      <c r="B2" t="s" s="1">
-        <v>82</v>
-      </c>
-      <c r="C2" t="s" s="1">
-        <v>83</v>
-      </c>
-      <c r="D2" t="s" s="1">
-        <v>84</v>
-      </c>
-      <c r="E2" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="F2" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G2" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s" s="3">
-        <v>26</v>
-      </c>
-      <c r="J2" t="s" s="2">
-        <v>87</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="+32 2 551 15 72" tooltip="https://liedekerke.com/en/lawyers/tel:+3225511572"/>

--- a/src/main/resources/baseFiles/excel/Sheet.xlsx
+++ b/src/main/resources/baseFiles/excel/Sheet.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5000" uniqueCount="2236">
   <si>
     <t>Name</t>
   </si>
@@ -306,6 +306,6435 @@
   </si>
   <si>
     <t>Huiye Law</t>
+  </si>
+  <si>
+    <t>Niels De Waele</t>
+  </si>
+  <si>
+    <t>niels.dewaele@aoshearman.com</t>
+  </si>
+  <si>
+    <t>3232877351</t>
+  </si>
+  <si>
+    <t>Counsel</t>
+  </si>
+  <si>
+    <t>A&amp;O Shearman</t>
+  </si>
+  <si>
+    <t>Mikas Miniotas</t>
+  </si>
+  <si>
+    <t>mikas@aaa.ee</t>
+  </si>
+  <si>
+    <t>3726605910</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Copyrights</t>
+  </si>
+  <si>
+    <t>AAA Legal Services</t>
+  </si>
+  <si>
+    <t>Camille Potier</t>
+  </si>
+  <si>
+    <t>potier@chatainassocies.com</t>
+  </si>
+  <si>
+    <t>33140531002</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Compliance</t>
+  </si>
+  <si>
+    <t>AARPI Chatain Associés</t>
+  </si>
+  <si>
+    <t>Sarah Baillie</t>
+  </si>
+  <si>
+    <t>sarah.baillie@addleshawgoddard.com</t>
+  </si>
+  <si>
+    <t>4401415742322</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Addleshaw Goddard</t>
+  </si>
+  <si>
+    <t>Benjamin Dors</t>
+  </si>
+  <si>
+    <t>benjamin.dors@advant-altana.com</t>
+  </si>
+  <si>
+    <t>330179976178</t>
+  </si>
+  <si>
+    <t>White Collar Crime</t>
+  </si>
+  <si>
+    <t>Advant Altana</t>
+  </si>
+  <si>
+    <t>Ethan Aitchison</t>
+  </si>
+  <si>
+    <t>eaitchison@seyfarth.com</t>
+  </si>
+  <si>
+    <t>61282560445</t>
+  </si>
+  <si>
+    <t>Cross Border Labour &amp; Employment</t>
+  </si>
+  <si>
+    <t>Akerman LLP</t>
+  </si>
+  <si>
+    <t>Hermione Allen</t>
+  </si>
+  <si>
+    <t>hermione.allen@akingump.com</t>
+  </si>
+  <si>
+    <t>442076615439</t>
+  </si>
+  <si>
+    <t>Restructuring</t>
+  </si>
+  <si>
+    <t>Akin</t>
+  </si>
+  <si>
+    <t>Roger Valdes</t>
+  </si>
+  <si>
+    <t>r.valdesfdez@aldecoaelias.com</t>
+  </si>
+  <si>
+    <t>525553353871</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Patents</t>
+  </si>
+  <si>
+    <t>Aldecoa &amp; Elias SRL</t>
+  </si>
+  <si>
+    <t>Sanjay Bailur</t>
+  </si>
+  <si>
+    <t>sbailur@alixpartners.com</t>
+  </si>
+  <si>
+    <t>447891164898</t>
+  </si>
+  <si>
+    <t>Retail Industry</t>
+  </si>
+  <si>
+    <t>Alix Partners</t>
+  </si>
+  <si>
+    <t>Patrick Bance</t>
+  </si>
+  <si>
+    <t>pbance@alixpartners.com</t>
+  </si>
+  <si>
+    <t>6591510537</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Due Diligence</t>
+  </si>
+  <si>
+    <t>Veronica Werner</t>
+  </si>
+  <si>
+    <t>vwerner@alixpartners.com</t>
+  </si>
+  <si>
+    <t>541150312900</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Director</t>
+  </si>
+  <si>
+    <t>AlixPartners</t>
+  </si>
+  <si>
+    <t>Kevin Mccafferty</t>
+  </si>
+  <si>
+    <t>kmccafferty@alixpartners.com</t>
+  </si>
+  <si>
+    <t>14169173136</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>Kevin Sidharta</t>
+  </si>
+  <si>
+    <t>kevin.sidharta@agasia.law</t>
+  </si>
+  <si>
+    <t>622138250800</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Allen &amp; Gledhill</t>
+  </si>
+  <si>
+    <t>Guillaume Jeangros</t>
+  </si>
+  <si>
+    <t>jeangros@altenburger.ch</t>
+  </si>
+  <si>
+    <t>41588102233</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Commercial Litigation</t>
+  </si>
+  <si>
+    <t>Altenburger</t>
+  </si>
+  <si>
+    <t>Matej Brajnik</t>
+  </si>
+  <si>
+    <t>matej.brajnik@andric.si</t>
+  </si>
+  <si>
+    <t>38614300333</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Commercial Real Estate</t>
+  </si>
+  <si>
+    <t>Andrić &amp; Partners</t>
+  </si>
+  <si>
+    <t>Grant Goldsmith</t>
+  </si>
+  <si>
+    <t>grant.goldsmith@ah.co.nz</t>
+  </si>
+  <si>
+    <t>6499206477</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Property</t>
+  </si>
+  <si>
+    <t>Anthony Harper</t>
+  </si>
+  <si>
+    <t>Flavio Ponzano</t>
+  </si>
+  <si>
+    <t>flavio.ponzano@arblit.com</t>
+  </si>
+  <si>
+    <t>390284254810</t>
+  </si>
+  <si>
+    <t>International Arbitration</t>
+  </si>
+  <si>
+    <t>ARBLIT</t>
+  </si>
+  <si>
+    <t>Yves philippart De Foy</t>
+  </si>
+  <si>
+    <t>yves.philippartdefoy@arendt.com</t>
+  </si>
+  <si>
+    <t>442074569804</t>
+  </si>
+  <si>
+    <t>Tax</t>
+  </si>
+  <si>
+    <t>Arendt &amp; Medernach</t>
+  </si>
+  <si>
+    <t>Matthew Wood</t>
+  </si>
+  <si>
+    <t>matthew.wood@ashurst.com</t>
+  </si>
+  <si>
+    <t>442078592040</t>
+  </si>
+  <si>
+    <t>Oil &amp; Gas</t>
+  </si>
+  <si>
+    <t>Ashurst</t>
+  </si>
+  <si>
+    <t>Mohammad Renaldi Zulkarnain</t>
+  </si>
+  <si>
+    <t>mohammad.zulkarnain@ahp.id</t>
+  </si>
+  <si>
+    <t>622125557803</t>
+  </si>
+  <si>
+    <t>Assegaf Hamzah &amp; Partners</t>
+  </si>
+  <si>
+    <t>Paulina Milewska – Mróz</t>
+  </si>
+  <si>
+    <t>paulina.milewska@b2rlaw.com</t>
+  </si>
+  <si>
+    <t>48223754045</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Commercial</t>
+  </si>
+  <si>
+    <t>B2RLAW</t>
+  </si>
+  <si>
+    <t>Michael Bookman</t>
+  </si>
+  <si>
+    <t>mbookman@babinbessnerspry.com</t>
+  </si>
+  <si>
+    <t>4163090941</t>
+  </si>
+  <si>
+    <t>Babin Bessner Spry LLP</t>
+  </si>
+  <si>
+    <t>Anniken Tenden Borch</t>
+  </si>
+  <si>
+    <t>anbor@bahr.no</t>
+  </si>
+  <si>
+    <t>47404739399</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>BAHR</t>
+  </si>
+  <si>
+    <t>Brian R Byrne</t>
+  </si>
+  <si>
+    <t>brian.byrne@bakerbotts.com</t>
+  </si>
+  <si>
+    <t>3228917325</t>
+  </si>
+  <si>
+    <t>Litigation</t>
+  </si>
+  <si>
+    <t>Baker Botts</t>
+  </si>
+  <si>
+    <t>Clotilde Guyot-rechard</t>
+  </si>
+  <si>
+    <t>clotilde.guyot-rechard@bakermckenzie.com</t>
+  </si>
+  <si>
+    <t>Baker McKenzie</t>
+  </si>
+  <si>
+    <t>Vera Naegeli</t>
+  </si>
+  <si>
+    <t>vera.naegeli@baerkarrer.ch</t>
+  </si>
+  <si>
+    <t>41582615589</t>
+  </si>
+  <si>
+    <t>Cross Border M&amp;A</t>
+  </si>
+  <si>
+    <t>Bär &amp; Karrer</t>
+  </si>
+  <si>
+    <t>Stefan Wiesli</t>
+  </si>
+  <si>
+    <t>stefan.wiesli@barandun-law.ch</t>
+  </si>
+  <si>
+    <t>41442665665</t>
+  </si>
+  <si>
+    <t>M&amp;A</t>
+  </si>
+  <si>
+    <t>Managing Partner</t>
+  </si>
+  <si>
+    <t>Barandun AG</t>
+  </si>
+  <si>
+    <t>Miguel Etchart</t>
+  </si>
+  <si>
+    <t>m.etchart@barrilero.es</t>
+  </si>
+  <si>
+    <t>34944793400</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Bankruptcy</t>
+  </si>
+  <si>
+    <t>Barrilero and Associates</t>
+  </si>
+  <si>
+    <t>Jeong Mo Ban</t>
+  </si>
+  <si>
+    <t>jeongmo.ban@barunlaw.com</t>
+  </si>
+  <si>
+    <t>234797813</t>
+  </si>
+  <si>
+    <t>Korea (South)</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>Barun Law LLC</t>
+  </si>
+  <si>
+    <t>Jorge G De Presno Arizpe</t>
+  </si>
+  <si>
+    <t>jorgedepresno@basham.com.mx</t>
+  </si>
+  <si>
+    <t>525552610400</t>
+  </si>
+  <si>
+    <t>Labour &amp; Employment</t>
+  </si>
+  <si>
+    <t>Basham, Ringe y Correa</t>
+  </si>
+  <si>
+    <t>Thomas Sprenger</t>
+  </si>
+  <si>
+    <t>sp@bmlaw.ch</t>
+  </si>
+  <si>
+    <t>41442154477</t>
+  </si>
+  <si>
+    <t>Baumgartner Mächler Rechtsanwälte AG</t>
+  </si>
+  <si>
+    <t>Brad Ward</t>
+  </si>
+  <si>
+    <t>brad.ward@bellgully.com</t>
+  </si>
+  <si>
+    <t>6499168875</t>
+  </si>
+  <si>
+    <t>Bell Gully</t>
+  </si>
+  <si>
+    <t>Jonathan G Bell</t>
+  </si>
+  <si>
+    <t>bellj@bennettjones.com</t>
+  </si>
+  <si>
+    <t>4167776511</t>
+  </si>
+  <si>
+    <t>Bennett Jones LLP</t>
+  </si>
+  <si>
+    <t>Quentin Leroux</t>
+  </si>
+  <si>
+    <t>leroux@bg2v.com</t>
+  </si>
+  <si>
+    <t>33148886067</t>
+  </si>
+  <si>
+    <t>Real Estate</t>
+  </si>
+  <si>
+    <t>BG2V</t>
+  </si>
+  <si>
+    <t>Jean-marc Valot</t>
+  </si>
+  <si>
+    <t>valot@bg2v.com</t>
+  </si>
+  <si>
+    <t>33148886061</t>
+  </si>
+  <si>
+    <t>Corporate Tax</t>
+  </si>
+  <si>
+    <t>Founding Partner</t>
+  </si>
+  <si>
+    <t>BG2V </t>
+  </si>
+  <si>
+    <t>Christian Lindenthal</t>
+  </si>
+  <si>
+    <t>christian.lindenthal@twobirds.com</t>
+  </si>
+  <si>
+    <t>Life Sciences</t>
+  </si>
+  <si>
+    <t>Bird &amp; Bird</t>
+  </si>
+  <si>
+    <t>Aimee Yee</t>
+  </si>
+  <si>
+    <t>aimee.yee@blakes.com</t>
+  </si>
+  <si>
+    <t>14168632689</t>
+  </si>
+  <si>
+    <t>Cross Border Finance</t>
+  </si>
+  <si>
+    <t>Blakes</t>
+  </si>
+  <si>
+    <t>Marie-luise Heuer</t>
+  </si>
+  <si>
+    <t>marie-luise.heuer@blomstein.com</t>
+  </si>
+  <si>
+    <t>4930214802700</t>
+  </si>
+  <si>
+    <t>EU Competition</t>
+  </si>
+  <si>
+    <t>Blomstein mbb</t>
+  </si>
+  <si>
+    <t>Madeleine Brion</t>
+  </si>
+  <si>
+    <t>mbr@bonnard-lawson.com</t>
+  </si>
+  <si>
+    <t>330145020800</t>
+  </si>
+  <si>
+    <t>Bonnard Lawson</t>
+  </si>
+  <si>
+    <t>Luke Dineley</t>
+  </si>
+  <si>
+    <t>ldineley@blg.com</t>
+  </si>
+  <si>
+    <t>Insurance</t>
+  </si>
+  <si>
+    <t>Borden Ladner Gervais LLP</t>
+  </si>
+  <si>
+    <t>Mario Denni</t>
+  </si>
+  <si>
+    <t>mdenni@thinkbrg.com</t>
+  </si>
+  <si>
+    <t>32455185563</t>
+  </si>
+  <si>
+    <t>Competition</t>
+  </si>
+  <si>
+    <t>BRG</t>
+  </si>
+  <si>
+    <t>Norbert Impelmann</t>
+  </si>
+  <si>
+    <t>norbert.impelmann@bclplaw.com</t>
+  </si>
+  <si>
+    <t>49030684096160</t>
+  </si>
+  <si>
+    <t>Bryan Cave Leighton Paisner</t>
+  </si>
+  <si>
+    <t>Jan Sørensen</t>
+  </si>
+  <si>
+    <t>js@buddeschou.dk</t>
+  </si>
+  <si>
+    <t>4570250900</t>
+  </si>
+  <si>
+    <t>Trademarks</t>
+  </si>
+  <si>
+    <t>Budde Schou A/S</t>
+  </si>
+  <si>
+    <t>André M Carlsen</t>
+  </si>
+  <si>
+    <t>amc@bull.no</t>
+  </si>
+  <si>
+    <t>4797546458</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>Bull &amp; Co </t>
+  </si>
+  <si>
+    <t>Ciara O’kennedy</t>
+  </si>
+  <si>
+    <t>cokennedy@byrnewallaceshields.com</t>
+  </si>
+  <si>
+    <t>35316385870</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Byrne Wallace Shields LLP</t>
+  </si>
+  <si>
+    <t>Rodrigo Callejas</t>
+  </si>
+  <si>
+    <t>rodrigo.callejas@carrillolaw.com</t>
+  </si>
+  <si>
+    <t>50224215782</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Carrillo &amp; Asociados</t>
+  </si>
+  <si>
+    <t>Joaquín Fabré</t>
+  </si>
+  <si>
+    <t>joaquin.fabre@caseslacambra.com</t>
+  </si>
+  <si>
+    <t>620213271</t>
+  </si>
+  <si>
+    <t>Banking &amp; Finance</t>
+  </si>
+  <si>
+    <t>Cases &amp; Lacambra</t>
+  </si>
+  <si>
+    <t>John Birch</t>
+  </si>
+  <si>
+    <t>jbirch@cassels.com</t>
+  </si>
+  <si>
+    <t>4168605225</t>
+  </si>
+  <si>
+    <t>Cassels</t>
+  </si>
+  <si>
+    <t>Jan Örndahl</t>
+  </si>
+  <si>
+    <t>jan.orndahl@castren.fi</t>
+  </si>
+  <si>
+    <t>358400427750</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>Castrén &amp; Snellman</t>
+  </si>
+  <si>
+    <t>Christoph Reiter</t>
+  </si>
+  <si>
+    <t>christoph.reiter@cerhahempel.com</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>TMT</t>
+  </si>
+  <si>
+    <t>CERHA HEMPEL</t>
+  </si>
+  <si>
+    <t>Celia Chan</t>
+  </si>
+  <si>
+    <t>celia.chan@chakandassociates.com</t>
+  </si>
+  <si>
+    <t>85235888003</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Chak &amp; Associates</t>
+  </si>
+  <si>
+    <t>Aaron Everitt</t>
+  </si>
+  <si>
+    <t>aeveritt@crai.com</t>
+  </si>
+  <si>
+    <t>447920473652</t>
+  </si>
+  <si>
+    <t>Principal</t>
+  </si>
+  <si>
+    <t>Charles River Associates</t>
+  </si>
+  <si>
+    <t>Suzi Gatward</t>
+  </si>
+  <si>
+    <t>suzi.gatward@crsblaw.com</t>
+  </si>
+  <si>
+    <t>Charles Russell Speechlys</t>
+  </si>
+  <si>
+    <t>Moh Fauzi</t>
+  </si>
+  <si>
+    <t>info@cididlawfirm.co.id</t>
+  </si>
+  <si>
+    <t>622157895991</t>
+  </si>
+  <si>
+    <t>Corporate</t>
+  </si>
+  <si>
+    <t>CIDID LAW</t>
+  </si>
+  <si>
+    <t>François‑charles Laprévote</t>
+  </si>
+  <si>
+    <t>fclaprevote@cgsh.com</t>
+  </si>
+  <si>
+    <t>3222872184</t>
+  </si>
+  <si>
+    <t>Cleary Gottlieb Steen &amp; Hamilton</t>
+  </si>
+  <si>
+    <t>Michael Bailey</t>
+  </si>
+  <si>
+    <t>michael.bailey@cdhlegal.com</t>
+  </si>
+  <si>
+    <t>270115621378</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Cliffe Dekker Hofmeyr</t>
+  </si>
+  <si>
+    <t>Christopher Jobson</t>
+  </si>
+  <si>
+    <t>christopher.jobson@clydeco.com</t>
+  </si>
+  <si>
+    <t>85222872879</t>
+  </si>
+  <si>
+    <t>Dispute Resolution</t>
+  </si>
+  <si>
+    <t>Clyde &amp; Co</t>
+  </si>
+  <si>
+    <t>Anna Burchner</t>
+  </si>
+  <si>
+    <t>anna.burchner@cms-cmno.com</t>
+  </si>
+  <si>
+    <t>Funds &amp; Investment</t>
+  </si>
+  <si>
+    <t>CMS</t>
+  </si>
+  <si>
+    <t>Andy Cox</t>
+  </si>
+  <si>
+    <t>andy.cox@controlrisks.com</t>
+  </si>
+  <si>
+    <t>442079702151</t>
+  </si>
+  <si>
+    <t>Security Consulting</t>
+  </si>
+  <si>
+    <t>Control Risks</t>
+  </si>
+  <si>
+    <t>Ian Heathwood</t>
+  </si>
+  <si>
+    <t>i.heathwood@cornwallsqld.com.au</t>
+  </si>
+  <si>
+    <t>Shipping &amp; Maritime</t>
+  </si>
+  <si>
+    <t>Cornwalls</t>
+  </si>
+  <si>
+    <t>Symoane Mercurio</t>
+  </si>
+  <si>
+    <t>smercurio@cowellclarke.com.au</t>
+  </si>
+  <si>
+    <t>Contracts Disputes</t>
+  </si>
+  <si>
+    <t>Cowell Clarke</t>
+  </si>
+  <si>
+    <t>Margaret R M Rallings</t>
+  </si>
+  <si>
+    <t>mrallings@cravath.com</t>
+  </si>
+  <si>
+    <t>442074531081</t>
+  </si>
+  <si>
+    <t>Cravath, Swaine &amp; Moore</t>
+  </si>
+  <si>
+    <t>Linda Fuerst</t>
+  </si>
+  <si>
+    <t>lfuerst@cmblaw.ca</t>
+  </si>
+  <si>
+    <t>4162170853</t>
+  </si>
+  <si>
+    <t>Crawley MacKewn Brush</t>
+  </si>
+  <si>
+    <t>Felipe Mariño</t>
+  </si>
+  <si>
+    <t>felipe.marino@cuatrecasas.com</t>
+  </si>
+  <si>
+    <t>576015802470</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Cuatrecasas</t>
+  </si>
+  <si>
+    <t>Marie-claude bellemare</t>
+  </si>
+  <si>
+    <t>mcbellemare@dwpv.com</t>
+  </si>
+  <si>
+    <t>5148416489</t>
+  </si>
+  <si>
+    <t>Davies</t>
+  </si>
+  <si>
+    <t>Hans L Bergqvist</t>
+  </si>
+  <si>
+    <t>hans.bergqvist@delphi.se</t>
+  </si>
+  <si>
+    <t>46709252551</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Banckrupcy</t>
+  </si>
+  <si>
+    <t>Delphi </t>
+  </si>
+  <si>
+    <t>César Rossi Machado</t>
+  </si>
+  <si>
+    <t>crmachado@demarest.com.br</t>
+  </si>
+  <si>
+    <t>551133562196</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Demarest</t>
+  </si>
+  <si>
+    <t>Carla Reyes</t>
+  </si>
+  <si>
+    <t>carla.reyes@desgouttes.ch</t>
+  </si>
+  <si>
+    <t>41227043050</t>
+  </si>
+  <si>
+    <t>Business Crime</t>
+  </si>
+  <si>
+    <t>Des Gouttes &amp; Associés</t>
+  </si>
+  <si>
+    <t>Chris Stevens</t>
+  </si>
+  <si>
+    <t>chris.stevens@deutschmiller.com</t>
+  </si>
+  <si>
+    <t>61292107771</t>
+  </si>
+  <si>
+    <t>Deutsch Miller</t>
+  </si>
+  <si>
+    <t>Pierre dion</t>
+  </si>
+  <si>
+    <t>pierre.dion@dlapiper.com</t>
+  </si>
+  <si>
+    <t>32025001536</t>
+  </si>
+  <si>
+    <t>DLA Piper</t>
+  </si>
+  <si>
+    <t>Angie Brown</t>
+  </si>
+  <si>
+    <t>angie.brown@doane.gt.ca</t>
+  </si>
+  <si>
+    <t>17097788841</t>
+  </si>
+  <si>
+    <t>Business Advisory</t>
+  </si>
+  <si>
+    <t>Doane Grant Thornton LLP</t>
+  </si>
+  <si>
+    <t>Christian Ritschka</t>
+  </si>
+  <si>
+    <t>christian.ritschka@dorda.at</t>
+  </si>
+  <si>
+    <t>DORDA</t>
+  </si>
+  <si>
+    <t>Luis M Rivas</t>
+  </si>
+  <si>
+    <t>l.rivas@drr-law.com</t>
+  </si>
+  <si>
+    <t>8095087100</t>
+  </si>
+  <si>
+    <t>the Dominican Republic</t>
+  </si>
+  <si>
+    <t>DRR Law</t>
+  </si>
+  <si>
+    <t>Augusto Vechio</t>
+  </si>
+  <si>
+    <t>avechio@beccarvarela.com</t>
+  </si>
+  <si>
+    <t>International Trade</t>
+  </si>
+  <si>
+    <t>Estudio Beccar Varela</t>
+  </si>
+  <si>
+    <t>Víctor Rolando Sousa Huanambal</t>
+  </si>
+  <si>
+    <t>rsousa@snakazaki.com</t>
+  </si>
+  <si>
+    <t>51923526338</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Criminal</t>
+  </si>
+  <si>
+    <t>ESTUDIO SOUSA &amp; NAKAZAKI</t>
+  </si>
+  <si>
+    <t>Manuel Boka</t>
+  </si>
+  <si>
+    <t>manuel.boka@eversheds-sutherland.at</t>
+  </si>
+  <si>
+    <t>43151620160</t>
+  </si>
+  <si>
+    <t>EU Data Protection</t>
+  </si>
+  <si>
+    <t>Eversheds Sutherland</t>
+  </si>
+  <si>
+    <t>Sanghwan Park</t>
+  </si>
+  <si>
+    <t>psh@ezpat.com</t>
+  </si>
+  <si>
+    <t>262055741</t>
+  </si>
+  <si>
+    <t>EZ International Patent &amp; Trademark Law</t>
+  </si>
+  <si>
+    <t>Luiz Ricardo De Oliveira Santos</t>
+  </si>
+  <si>
+    <t>luiz.ricardo@faleck.com.br</t>
+  </si>
+  <si>
+    <t>551130524233</t>
+  </si>
+  <si>
+    <t>Contracts</t>
+  </si>
+  <si>
+    <t>Faleck &amp; Associados</t>
+  </si>
+  <si>
+    <t>Paul logan</t>
+  </si>
+  <si>
+    <t>plogan@fasken.com</t>
+  </si>
+  <si>
+    <t>Fasken</t>
+  </si>
+  <si>
+    <t>Jane Gooding</t>
+  </si>
+  <si>
+    <t>jgooding@filion.on.ca</t>
+  </si>
+  <si>
+    <t>19055268904</t>
+  </si>
+  <si>
+    <t>Filion Wakely Thorup Angeletti</t>
+  </si>
+  <si>
+    <t>Irene Duran</t>
+  </si>
+  <si>
+    <t>irene.duran@filslegal.com</t>
+  </si>
+  <si>
+    <t>34935951409</t>
+  </si>
+  <si>
+    <t>Tax Audit</t>
+  </si>
+  <si>
+    <t>Fils Legal</t>
+  </si>
+  <si>
+    <t>M Valentina Konow</t>
+  </si>
+  <si>
+    <t>mvkonow@fkeconomics.com</t>
+  </si>
+  <si>
+    <t>56942740884</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>FK Economics</t>
+  </si>
+  <si>
+    <t>Mathias Bülow Maître</t>
+  </si>
+  <si>
+    <t>mathias.buelow@fgs.de</t>
+  </si>
+  <si>
+    <t>49302100200</t>
+  </si>
+  <si>
+    <t>Flick Gocke Schaumburg</t>
+  </si>
+  <si>
+    <t>Charlie Patrick</t>
+  </si>
+  <si>
+    <t>cpatrick@forensicrisk.com</t>
+  </si>
+  <si>
+    <t>447738732561</t>
+  </si>
+  <si>
+    <t>FRA</t>
+  </si>
+  <si>
+    <t>Eric Leikin</t>
+  </si>
+  <si>
+    <t>eric.leikin@freshfields.com</t>
+  </si>
+  <si>
+    <t>43151515520</t>
+  </si>
+  <si>
+    <t>Freshfields</t>
+  </si>
+  <si>
+    <t>Travis Barnett</t>
+  </si>
+  <si>
+    <t>travis.barnett@fticonsulting.com</t>
+  </si>
+  <si>
+    <t>61864301394</t>
+  </si>
+  <si>
+    <t>Corporate Finance</t>
+  </si>
+  <si>
+    <t>Managing Director</t>
+  </si>
+  <si>
+    <t>FTI Consulting</t>
+  </si>
+  <si>
+    <t>Josefin Müntzing Alm</t>
+  </si>
+  <si>
+    <t>josefin.muntzing-alm@fylgia.se</t>
+  </si>
+  <si>
+    <t>46707997871</t>
+  </si>
+  <si>
+    <t>Bankrupcy</t>
+  </si>
+  <si>
+    <t>Fylgia</t>
+  </si>
+  <si>
+    <t>Coralie Darrigade</t>
+  </si>
+  <si>
+    <t>cdarrigade@gbsdisputes.com</t>
+  </si>
+  <si>
+    <t>33623152578</t>
+  </si>
+  <si>
+    <t>Commercial Arbitration</t>
+  </si>
+  <si>
+    <t>Gaillard Banifatemi Shelbaya Disputes</t>
+  </si>
+  <si>
+    <t>Alessandro De Ferrariis</t>
+  </si>
+  <si>
+    <t>adeferrariis@gop.it</t>
+  </si>
+  <si>
+    <t>3906478751</t>
+  </si>
+  <si>
+    <t>Gianni, Origoni, Grippo, Cappelli &amp; Partners</t>
+  </si>
+  <si>
+    <t>Romain Rard</t>
+  </si>
+  <si>
+    <t>romain.rard@gide.com</t>
+  </si>
+  <si>
+    <t>3222311140</t>
+  </si>
+  <si>
+    <t>EU Regulatory</t>
+  </si>
+  <si>
+    <t>Gide Loyrette Nouel</t>
+  </si>
+  <si>
+    <t>Loris Marghieri</t>
+  </si>
+  <si>
+    <t>loris.marghieri@gide.com</t>
+  </si>
+  <si>
+    <t>2120522489013</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Melchior Glatthard</t>
+  </si>
+  <si>
+    <t>melchior.glatthard@glatthard.law</t>
+  </si>
+  <si>
+    <t>41339511010</t>
+  </si>
+  <si>
+    <t>Private Clients</t>
+  </si>
+  <si>
+    <t>Glatthard Advokatur &amp; Notariat AG</t>
+  </si>
+  <si>
+    <t>Carl-johan Ask</t>
+  </si>
+  <si>
+    <t>carl-johan.ask@glimstedt.se</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>GLIMSTEDT</t>
+  </si>
+  <si>
+    <t>Sergio Pérez Fiatt</t>
+  </si>
+  <si>
+    <t>sp@glalegal.com</t>
+  </si>
+  <si>
+    <t>50688211289</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Global Legal Advisors</t>
+  </si>
+  <si>
+    <t>María Pascual Guiteras</t>
+  </si>
+  <si>
+    <t>mpascual@gonzalezfranco.com</t>
+  </si>
+  <si>
+    <t>9348724778</t>
+  </si>
+  <si>
+    <t>Gonzalez Franco Abogados Penalistas</t>
+  </si>
+  <si>
+    <t>Henrik Saugmandsgaard Øe</t>
+  </si>
+  <si>
+    <t>hoe@gorrissenfederspiel.com</t>
+  </si>
+  <si>
+    <t>Gorrissen Federspiel</t>
+  </si>
+  <si>
+    <t>Aleksandra Finelli</t>
+  </si>
+  <si>
+    <t>aleksandra.finelli@gowlingwlg.com</t>
+  </si>
+  <si>
+    <t>14163697209</t>
+  </si>
+  <si>
+    <t>Gowling WLG</t>
+  </si>
+  <si>
+    <t>Guo Lizheng</t>
+  </si>
+  <si>
+    <t>guolizheng@grandall.com.cn</t>
+  </si>
+  <si>
+    <t>Grandall Law</t>
+  </si>
+  <si>
+    <t>Dan Berger</t>
+  </si>
+  <si>
+    <t>dan.berger@halfords.com.au</t>
+  </si>
+  <si>
+    <t>61292648388</t>
+  </si>
+  <si>
+    <t>Halfords IP</t>
+  </si>
+  <si>
+    <t>Amy Zhang</t>
+  </si>
+  <si>
+    <t>amy.zhang@harmers.com.au</t>
+  </si>
+  <si>
+    <t>61292674322</t>
+  </si>
+  <si>
+    <t>Harmers Workplace Lawyers</t>
+  </si>
+  <si>
+    <t>Gian Massetti</t>
+  </si>
+  <si>
+    <t>gian.massetti@hassans.gi</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>Hassans</t>
+  </si>
+  <si>
+    <t>Matthew Gourlay</t>
+  </si>
+  <si>
+    <t>mgourlay@hhllp.ca</t>
+  </si>
+  <si>
+    <t>14163685000</t>
+  </si>
+  <si>
+    <t>Criminal Litigation</t>
+  </si>
+  <si>
+    <t>Henein Hutchison Robitaille</t>
+  </si>
+  <si>
+    <t>Daniel Möritz</t>
+  </si>
+  <si>
+    <t>daniel.moeritz@hengeler.com</t>
+  </si>
+  <si>
+    <t>4989383388126</t>
+  </si>
+  <si>
+    <t>Hengeler Mueller</t>
+  </si>
+  <si>
+    <t>Louise Le Guilchet</t>
+  </si>
+  <si>
+    <t>lleguilchet@henriotavocats.com</t>
+  </si>
+  <si>
+    <t>159035703</t>
+  </si>
+  <si>
+    <t>Business Litigation</t>
+  </si>
+  <si>
+    <t>Henriot &amp; Associés</t>
+  </si>
+  <si>
+    <t>Hannah Cassidy</t>
+  </si>
+  <si>
+    <t>hannah.cassidy@hsfkramer.com</t>
+  </si>
+  <si>
+    <t>85221014133</t>
+  </si>
+  <si>
+    <t>Regulatory</t>
+  </si>
+  <si>
+    <t>Herbert Smith Freehills Kramer</t>
+  </si>
+  <si>
+    <t>Angelique Perdaems</t>
+  </si>
+  <si>
+    <t>perdaems@hertoghsadvocaten.nl</t>
+  </si>
+  <si>
+    <t>310885202233</t>
+  </si>
+  <si>
+    <t>the Netherlands</t>
+  </si>
+  <si>
+    <t>Hertoghs Advocaten</t>
+  </si>
+  <si>
+    <t>John Temple-cole</t>
+  </si>
+  <si>
+    <t>johntemplecole@hka.com</t>
+  </si>
+  <si>
+    <t>61292559100</t>
+  </si>
+  <si>
+    <t>HKA</t>
+  </si>
+  <si>
+    <t>Aldo Boni De Nobili</t>
+  </si>
+  <si>
+    <t>aldo.bonidenobili@hoganlovells.com</t>
+  </si>
+  <si>
+    <t>861065829521</t>
+  </si>
+  <si>
+    <t>Hogan Lovells</t>
+  </si>
+  <si>
+    <t>Eduard De Zordi</t>
+  </si>
+  <si>
+    <t>eduard.de_zordi@homburger.ch</t>
+  </si>
+  <si>
+    <t>41432221000</t>
+  </si>
+  <si>
+    <t>Homburger AG</t>
+  </si>
+  <si>
+    <t>Agnès Braka‑calas</t>
+  </si>
+  <si>
+    <t>agnes.braka-calas@hugheshubbard.com</t>
+  </si>
+  <si>
+    <t>330144058058</t>
+  </si>
+  <si>
+    <t>Hughes Hubbard &amp; Reed LLP</t>
+  </si>
+  <si>
+    <t>Tom Taylor</t>
+  </si>
+  <si>
+    <t>tom@hugolawgroup.com.au</t>
+  </si>
+  <si>
+    <t>251049640</t>
+  </si>
+  <si>
+    <t>Criminal Defense</t>
+  </si>
+  <si>
+    <t>Hugo Law</t>
+  </si>
+  <si>
+    <t>Anna pateraki</t>
+  </si>
+  <si>
+    <t>apateraki@hunton.com</t>
+  </si>
+  <si>
+    <t>3226435840</t>
+  </si>
+  <si>
+    <t>Hunton Andrews Kurth</t>
+  </si>
+  <si>
+    <t>Alex Neoh</t>
+  </si>
+  <si>
+    <t>alex@intellect-worldwide.com</t>
+  </si>
+  <si>
+    <t>60123613100</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Intellect Group of IP Companies</t>
+  </si>
+  <si>
+    <t>Jose Maria Vicetto</t>
+  </si>
+  <si>
+    <t>juanvicetto@izquierdo.com.ar</t>
+  </si>
+  <si>
+    <t>541143151410</t>
+  </si>
+  <si>
+    <t>Izquierdo &amp; Vicetto</t>
+  </si>
+  <si>
+    <t>Marta Pereira Da Cruz</t>
+  </si>
+  <si>
+    <t>martapcruz@jpcruz.pt</t>
+  </si>
+  <si>
+    <t>351213475020</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>J. Pereira da Cruz</t>
+  </si>
+  <si>
+    <t>Thom Dieben</t>
+  </si>
+  <si>
+    <t>dieben@jahae.nl</t>
+  </si>
+  <si>
+    <t>31648799926</t>
+  </si>
+  <si>
+    <t>JahaeRaymakers</t>
+  </si>
+  <si>
+    <t>Rodrigo Gil</t>
+  </si>
+  <si>
+    <t>rgil@janagil.com</t>
+  </si>
+  <si>
+    <t>56227577810</t>
+  </si>
+  <si>
+    <t>Jana &amp; Gil Dispute Resolution</t>
+  </si>
+  <si>
+    <t>Adrien Fourmon</t>
+  </si>
+  <si>
+    <t>afourmon@jeantet.fr</t>
+  </si>
+  <si>
+    <t>330145058008</t>
+  </si>
+  <si>
+    <t>JEANTET</t>
+  </si>
+  <si>
+    <t>Yuna Lesteven</t>
+  </si>
+  <si>
+    <t>lesteven@joshua-avocats.com</t>
+  </si>
+  <si>
+    <t>183640624</t>
+  </si>
+  <si>
+    <t>Commercial Contracts</t>
+  </si>
+  <si>
+    <t>Joshua Société d'avocats</t>
+  </si>
+  <si>
+    <t>Oren-olivier Puder</t>
+  </si>
+  <si>
+    <t>opuder@avocats.ch</t>
+  </si>
+  <si>
+    <t>41228397000</t>
+  </si>
+  <si>
+    <t>Fintech</t>
+  </si>
+  <si>
+    <t>Junod Halpérin</t>
+  </si>
+  <si>
+    <t>Sebastian Siebenhaar</t>
+  </si>
+  <si>
+    <t>sebastian.siebenhaar@kadorpartner.com</t>
+  </si>
+  <si>
+    <t>49892015252</t>
+  </si>
+  <si>
+    <t>Kador &amp; Partner</t>
+  </si>
+  <si>
+    <t>Kirsten Fox</t>
+  </si>
+  <si>
+    <t>kirsten.fox@kantenwein.de</t>
+  </si>
+  <si>
+    <t>49898996860</t>
+  </si>
+  <si>
+    <t>Tax Planning</t>
+  </si>
+  <si>
+    <t>KANTENWEIN SPATSCHECK WIDMAYER VAN BEVERN</t>
+  </si>
+  <si>
+    <t>Aivo Arula</t>
+  </si>
+  <si>
+    <t>aivo.arula@kaosaar.ee</t>
+  </si>
+  <si>
+    <t>3727383051</t>
+  </si>
+  <si>
+    <t>KÄOSAAR</t>
+  </si>
+  <si>
+    <t>Isis Miranda</t>
+  </si>
+  <si>
+    <t>imiranda@katzylopez.com</t>
+  </si>
+  <si>
+    <t>5072232733</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>katz &amp; Lopez</t>
+  </si>
+  <si>
+    <t>Massimiliano Maestretti</t>
+  </si>
+  <si>
+    <t>massimiliano.maestretti@kellerhals-carrard.ch</t>
+  </si>
+  <si>
+    <t>41582003100</t>
+  </si>
+  <si>
+    <t>Sports</t>
+  </si>
+  <si>
+    <t>Kellerhals Carrard Zürich KlG</t>
+  </si>
+  <si>
+    <t>Eduardo Frutos</t>
+  </si>
+  <si>
+    <t>efrutos@keplerkarst.com</t>
+  </si>
+  <si>
+    <t>31911095710</t>
+  </si>
+  <si>
+    <t>KEPLER KARST LAW</t>
+  </si>
+  <si>
+    <t>Mathias Zinggeler</t>
+  </si>
+  <si>
+    <t>zinggeler@keplaw.ch</t>
+  </si>
+  <si>
+    <t>41227186161</t>
+  </si>
+  <si>
+    <t>Keppeler Avocats</t>
+  </si>
+  <si>
+    <t>Horst Ebhardt</t>
+  </si>
+  <si>
+    <t>horst.ebhardt@kinstellar.com</t>
+  </si>
+  <si>
+    <t>43138607029</t>
+  </si>
+  <si>
+    <t>-----</t>
+  </si>
+  <si>
+    <t>Kinstellar</t>
+  </si>
+  <si>
+    <t>Anita Borisova</t>
+  </si>
+  <si>
+    <t>anita.borisova@kinstellar.com</t>
+  </si>
+  <si>
+    <t>35987683397611</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Managing Associate</t>
+  </si>
+  <si>
+    <t>Nicole Lehmbruck</t>
+  </si>
+  <si>
+    <t>lehmbruck@klp-strafrecht.de</t>
+  </si>
+  <si>
+    <t>82145511811</t>
+  </si>
+  <si>
+    <t>Kirchner Lehmbruck Partner</t>
+  </si>
+  <si>
+    <t>Andris Rimsa</t>
+  </si>
+  <si>
+    <t>andris.rimsa@kirkland.com</t>
+  </si>
+  <si>
+    <t>3228818209</t>
+  </si>
+  <si>
+    <t>Kirkland &amp; Ellis</t>
+  </si>
+  <si>
+    <t>Katja Giese</t>
+  </si>
+  <si>
+    <t>katja.giese@kliemt.de</t>
+  </si>
+  <si>
+    <t>490892123103300</t>
+  </si>
+  <si>
+    <t>Kliemt.HR Lawyers</t>
+  </si>
+  <si>
+    <t>Gavin Schar</t>
+  </si>
+  <si>
+    <t>grs@khl.co.za</t>
+  </si>
+  <si>
+    <t>270116696065</t>
+  </si>
+  <si>
+    <t>Knowles Husain Lindsay</t>
+  </si>
+  <si>
+    <t>Adam Domański</t>
+  </si>
+  <si>
+    <t>a.domanski@kondrackicelej.pl</t>
+  </si>
+  <si>
+    <t>48221210808</t>
+  </si>
+  <si>
+    <t>Kondracki Celej Adwokaci</t>
+  </si>
+  <si>
+    <t>Bruno Arboit</t>
+  </si>
+  <si>
+    <t>bruno.arboit@kroll.com</t>
+  </si>
+  <si>
+    <t>85222810168</t>
+  </si>
+  <si>
+    <t>Kroll</t>
+  </si>
+  <si>
+    <t>Cathrine Rømer Christensen</t>
+  </si>
+  <si>
+    <t>crch@kromannreumert.com</t>
+  </si>
+  <si>
+    <t>Kromann Reumert</t>
+  </si>
+  <si>
+    <t>Alicja Piotrowicz</t>
+  </si>
+  <si>
+    <t>apiotrowicz@kulikowski.pl</t>
+  </si>
+  <si>
+    <t>226215202</t>
+  </si>
+  <si>
+    <t>Kulikowska &amp; Kulikowski</t>
+  </si>
+  <si>
+    <t>Robert Bradshaw</t>
+  </si>
+  <si>
+    <t>rbradshaw@lalive.law</t>
+  </si>
+  <si>
+    <t>442038801540</t>
+  </si>
+  <si>
+    <t>LALIVE</t>
+  </si>
+  <si>
+    <t>Noel Kim</t>
+  </si>
+  <si>
+    <t>noel.kim@laminarip.com</t>
+  </si>
+  <si>
+    <t>61283791281</t>
+  </si>
+  <si>
+    <t>Laminar IP</t>
+  </si>
+  <si>
+    <t>Odette Murara</t>
+  </si>
+  <si>
+    <t>odemurara@landmarkadvocates.com</t>
+  </si>
+  <si>
+    <t>250798971918</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Landmark Advocates</t>
+  </si>
+  <si>
+    <t>Félix Bernard</t>
+  </si>
+  <si>
+    <t>felix.bernard@langlois.ca</t>
+  </si>
+  <si>
+    <t>14388447809</t>
+  </si>
+  <si>
+    <t>Langlois Lawyers</t>
+  </si>
+  <si>
+    <t>Lars Kjølbye</t>
+  </si>
+  <si>
+    <t>lars.kjolbye@lw.com</t>
+  </si>
+  <si>
+    <t>3227886252</t>
+  </si>
+  <si>
+    <t>Latham &amp; Watkins</t>
+  </si>
+  <si>
+    <t>Ben Fong</t>
+  </si>
+  <si>
+    <t>ben.fong@lavan.com.au</t>
+  </si>
+  <si>
+    <t>61892886825</t>
+  </si>
+  <si>
+    <t>Lavan</t>
+  </si>
+  <si>
+    <t>Billy Wu</t>
+  </si>
+  <si>
+    <t>billywu@lcs.com.tw</t>
+  </si>
+  <si>
+    <t>886227298000</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>LCS &amp; Partners</t>
+  </si>
+  <si>
+    <t>Morgan Gizardin</t>
+  </si>
+  <si>
+    <t>morgan.gizardin@le16law.com</t>
+  </si>
+  <si>
+    <t>33186955790</t>
+  </si>
+  <si>
+    <t>Le 16 Law AARPI</t>
+  </si>
+  <si>
+    <t>Celia Hsieh</t>
+  </si>
+  <si>
+    <t>celiahsieh@leeandli.com</t>
+  </si>
+  <si>
+    <t>8862276380002129</t>
+  </si>
+  <si>
+    <t>Lee and Li</t>
+  </si>
+  <si>
+    <t>Rodrigo Cunha</t>
+  </si>
+  <si>
+    <t>rodrigo.cunha@lefosse.com</t>
+  </si>
+  <si>
+    <t>551130246100</t>
+  </si>
+  <si>
+    <t>Lefosse advogados</t>
+  </si>
+  <si>
+    <t>Lukas Aebi</t>
+  </si>
+  <si>
+    <t>lukas.aebi@lenzstaehelin.com</t>
+  </si>
+  <si>
+    <t>41584508000</t>
+  </si>
+  <si>
+    <t>Lenz &amp; Staehelin</t>
+  </si>
+  <si>
+    <t>Guillaume Jarry</t>
+  </si>
+  <si>
+    <t>gjarry@lerins.com</t>
+  </si>
+  <si>
+    <t>330142848470</t>
+  </si>
+  <si>
+    <t>Venture Capital</t>
+  </si>
+  <si>
+    <t>LERINS</t>
+  </si>
+  <si>
+    <t>Timothy M Duggan</t>
+  </si>
+  <si>
+    <t>tduggan@lddclawyers.com</t>
+  </si>
+  <si>
+    <t>4165127440229</t>
+  </si>
+  <si>
+    <t>LEVITT DI LELLA DUGGAN &amp; CHAPLICK LLP</t>
+  </si>
+  <si>
+    <t>Fabien François</t>
+  </si>
+  <si>
+    <t>ff@lexthielen.com</t>
+  </si>
+  <si>
+    <t>35226260202</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Lex Thielen &amp; Associes</t>
+  </si>
+  <si>
+    <t>3225511572</t>
+  </si>
+  <si>
+    <t>Sonia Ryser</t>
+  </si>
+  <si>
+    <t>ryser@loccapionryser.ch</t>
+  </si>
+  <si>
+    <t>410223193200</t>
+  </si>
+  <si>
+    <t>Locca Pion et Ryser</t>
+  </si>
+  <si>
+    <t>Paul Fruitman</t>
+  </si>
+  <si>
+    <t>pfruitman@lolg.ca</t>
+  </si>
+  <si>
+    <t>4165962870</t>
+  </si>
+  <si>
+    <t>Construction Disputes</t>
+  </si>
+  <si>
+    <t>LOLG</t>
+  </si>
+  <si>
+    <t>Ana María Rubiano Delgado</t>
+  </si>
+  <si>
+    <t>anamaria.rubiano@lopezasociados.net</t>
+  </si>
+  <si>
+    <t>5713406944</t>
+  </si>
+  <si>
+    <t>López &amp; Asociados</t>
+  </si>
+  <si>
+    <t>Ehsan Shirzadi</t>
+  </si>
+  <si>
+    <t>ehsan.shirzadi@loyensloeff.com</t>
+  </si>
+  <si>
+    <t>Loyens &amp; Loeff</t>
+  </si>
+  <si>
+    <t>Victor Madeira Filho</t>
+  </si>
+  <si>
+    <t>victor.madeira@mvga.com.br</t>
+  </si>
+  <si>
+    <t>551130644900</t>
+  </si>
+  <si>
+    <t>Project Finance</t>
+  </si>
+  <si>
+    <t>Madeira, Valentim &amp; Gallardo Advogados</t>
+  </si>
+  <si>
+    <t>Laurence Crittin</t>
+  </si>
+  <si>
+    <t>laurence.crittin@mangeat.ch</t>
+  </si>
+  <si>
+    <t>41223192200</t>
+  </si>
+  <si>
+    <t>Mangeat</t>
+  </si>
+  <si>
+    <t>Niklas Bogefors</t>
+  </si>
+  <si>
+    <t>niklas.bogefors@msa.se</t>
+  </si>
+  <si>
+    <t>46709777871</t>
+  </si>
+  <si>
+    <t>Mannheimer Swartling</t>
+  </si>
+  <si>
+    <t>Daniel Francisco Di Paola</t>
+  </si>
+  <si>
+    <t>ddp@marval.com</t>
+  </si>
+  <si>
+    <t>Marval O´Farrell Mairal</t>
+  </si>
+  <si>
+    <t>André Franco Perdiza</t>
+  </si>
+  <si>
+    <t>andre.perdiza@mattosfilho.com.br</t>
+  </si>
+  <si>
+    <t>5511975981714</t>
+  </si>
+  <si>
+    <t>Private Equity</t>
+  </si>
+  <si>
+    <t>Mattos Filho</t>
+  </si>
+  <si>
+    <t>Catherine Derrig</t>
+  </si>
+  <si>
+    <t>catherine.derrig@mccannfitzgerald.com</t>
+  </si>
+  <si>
+    <t>McCann FitzGerald</t>
+  </si>
+  <si>
+    <t>Herve Le Lay</t>
+  </si>
+  <si>
+    <t>hlelay@mcl-arbitration.com</t>
+  </si>
+  <si>
+    <t>330140701171</t>
+  </si>
+  <si>
+    <t>Commercial Disputes</t>
+  </si>
+  <si>
+    <t>MCL Arbitration</t>
+  </si>
+  <si>
+    <t>Horacio M De Uriarte</t>
+  </si>
+  <si>
+    <t>hdeuriarte@macf.com.mx</t>
+  </si>
+  <si>
+    <t>525552017487</t>
+  </si>
+  <si>
+    <t>Mijares, Angoitia, Cortés y Fuentes</t>
+  </si>
+  <si>
+    <t>William Charles</t>
+  </si>
+  <si>
+    <t>wcharles@milbank.com</t>
+  </si>
+  <si>
+    <t>442076153076</t>
+  </si>
+  <si>
+    <t>Arbitration</t>
+  </si>
+  <si>
+    <t>Milbank</t>
+  </si>
+  <si>
+    <t>Davide Mencacci</t>
+  </si>
+  <si>
+    <t>dmencacci@milbank.com</t>
+  </si>
+  <si>
+    <t>85229714870</t>
+  </si>
+  <si>
+    <t>International Restructuring</t>
+  </si>
+  <si>
+    <t>Milbank LLP</t>
+  </si>
+  <si>
+    <t>Andrew Brown</t>
+  </si>
+  <si>
+    <t>abrown@millsoakley.com.au</t>
+  </si>
+  <si>
+    <t>Mills Oakley</t>
+  </si>
+  <si>
+    <t>Garth Williams</t>
+  </si>
+  <si>
+    <t>garth.williams@minterellison.com</t>
+  </si>
+  <si>
+    <t>MinterEllison</t>
+  </si>
+  <si>
+    <t>Nicola Benz</t>
+  </si>
+  <si>
+    <t>nicola.benz@mll-legal.com</t>
+  </si>
+  <si>
+    <t>41585520490</t>
+  </si>
+  <si>
+    <t>Technology Contracts</t>
+  </si>
+  <si>
+    <t>MLL Legal</t>
+  </si>
+  <si>
+    <t>Daniel Schoch</t>
+  </si>
+  <si>
+    <t>daniel.schoch@mll-legal.com</t>
+  </si>
+  <si>
+    <t>MLL Legal AG</t>
+  </si>
+  <si>
+    <t>Anna Núñez</t>
+  </si>
+  <si>
+    <t>anunez@molins.eu</t>
+  </si>
+  <si>
+    <t>934152244</t>
+  </si>
+  <si>
+    <t>Anti Money Laundering</t>
+  </si>
+  <si>
+    <t>Molins Criminal Defense</t>
+  </si>
+  <si>
+    <t>Dorothée Hever</t>
+  </si>
+  <si>
+    <t>dhever@mondovi.eu</t>
+  </si>
+  <si>
+    <t>330188832230</t>
+  </si>
+  <si>
+    <t>Mondovì Avocats</t>
+  </si>
+  <si>
+    <t>Evin Durmaz</t>
+  </si>
+  <si>
+    <t>edurmaz@mbk.law</t>
+  </si>
+  <si>
+    <t>41223102266</t>
+  </si>
+  <si>
+    <t>Monfrini Bitton Klein</t>
+  </si>
+  <si>
+    <t>Milagros Caballero</t>
+  </si>
+  <si>
+    <t>milagros.caballero@morimor.com</t>
+  </si>
+  <si>
+    <t>5072657777</t>
+  </si>
+  <si>
+    <t>Morgan &amp; Morgan</t>
+  </si>
+  <si>
+    <t>Martin Timcsák</t>
+  </si>
+  <si>
+    <t>martin.timcsak@mstpartners.sk</t>
+  </si>
+  <si>
+    <t>421259308086</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>MST Partners</t>
+  </si>
+  <si>
+    <t>Roberto Dallafior</t>
+  </si>
+  <si>
+    <t>dallafior@ndlegal.ch</t>
+  </si>
+  <si>
+    <t>41442504540</t>
+  </si>
+  <si>
+    <t>Corporate Disputes</t>
+  </si>
+  <si>
+    <t>Nater Dallafior Attorneys At Law</t>
+  </si>
+  <si>
+    <t>Jaco Belder</t>
+  </si>
+  <si>
+    <t>jaco.belder@nautadutilh.com</t>
+  </si>
+  <si>
+    <t>31207171692</t>
+  </si>
+  <si>
+    <t>Cross Border Corporate</t>
+  </si>
+  <si>
+    <t>NautaDutilh</t>
+  </si>
+  <si>
+    <t>Francisco Muruzeta</t>
+  </si>
+  <si>
+    <t>fmuruzet@nyc.com.ar</t>
+  </si>
+  <si>
+    <t>Nicholson y Cano</t>
+  </si>
+  <si>
+    <t>Nicolas Birkhäuser</t>
+  </si>
+  <si>
+    <t>nicolas.birkhaeuser@nkf.ch</t>
+  </si>
+  <si>
+    <t>41588008476</t>
+  </si>
+  <si>
+    <t>Niederer Kraft Frey</t>
+  </si>
+  <si>
+    <t>Marcel Meier</t>
+  </si>
+  <si>
+    <t>marcel.meier@nkf.ch</t>
+  </si>
+  <si>
+    <t>41588008525</t>
+  </si>
+  <si>
+    <t>International Tax</t>
+  </si>
+  <si>
+    <t>Niederer Kraft Frey SA</t>
+  </si>
+  <si>
+    <t>Peter Bräutigam</t>
+  </si>
+  <si>
+    <t>peter.braeutigam@noerr.com</t>
+  </si>
+  <si>
+    <t>498928628125</t>
+  </si>
+  <si>
+    <t>NoerrPartGmbB</t>
+  </si>
+  <si>
+    <t>Sergio Olivar</t>
+  </si>
+  <si>
+    <t>solivar@nye.com.mx</t>
+  </si>
+  <si>
+    <t>525552843300</t>
+  </si>
+  <si>
+    <t>Infrastructure</t>
+  </si>
+  <si>
+    <t>NORIEGA Y ESCOBEDO</t>
+  </si>
+  <si>
+    <t>Ruben Pescara</t>
+  </si>
+  <si>
+    <t>r.pescara@nmlex.it</t>
+  </si>
+  <si>
+    <t>39026575181</t>
+  </si>
+  <si>
+    <t>Nunziante Magrone</t>
+  </si>
+  <si>
+    <t>Sofia Bassova</t>
+  </si>
+  <si>
+    <t>sbassova@obersonabels.com</t>
+  </si>
+  <si>
+    <t>41582588888</t>
+  </si>
+  <si>
+    <t>Tax Litigtion</t>
+  </si>
+  <si>
+    <t>Oberson Abels</t>
+  </si>
+  <si>
+    <t>Filip Opoka</t>
+  </si>
+  <si>
+    <t>filip.opoka@octolegal.com</t>
+  </si>
+  <si>
+    <t>48600446939</t>
+  </si>
+  <si>
+    <t>Octo Legal</t>
+  </si>
+  <si>
+    <t>Laura martínez-sanz Collados</t>
+  </si>
+  <si>
+    <t>l.martinez-sanz@oliva-ayala.com</t>
+  </si>
+  <si>
+    <t>34913911290</t>
+  </si>
+  <si>
+    <t>Oliva-Ayala Abogados</t>
+  </si>
+  <si>
+    <t>James Dixon</t>
+  </si>
+  <si>
+    <t>james.dixon@ontier.co.uk</t>
+  </si>
+  <si>
+    <t>2071831701</t>
+  </si>
+  <si>
+    <t>Cross Border Disputes</t>
+  </si>
+  <si>
+    <t>Ontier</t>
+  </si>
+  <si>
+    <t>Sonny Parhar</t>
+  </si>
+  <si>
+    <t>sonny@originlaw.ca</t>
+  </si>
+  <si>
+    <t>604265849</t>
+  </si>
+  <si>
+    <t>Associate Counsel</t>
+  </si>
+  <si>
+    <t>Origin Law Group</t>
+  </si>
+  <si>
+    <t>Harald Nygård Bergh</t>
+  </si>
+  <si>
+    <t>hbe@osloeconomics.no</t>
+  </si>
+  <si>
+    <t>4799255481</t>
+  </si>
+  <si>
+    <t>Oslo Economics</t>
+  </si>
+  <si>
+    <t>Giulio Federico</t>
+  </si>
+  <si>
+    <t>giulio.federico@oxera.com</t>
+  </si>
+  <si>
+    <t>3227930700</t>
+  </si>
+  <si>
+    <t>Oxera</t>
+  </si>
+  <si>
+    <t>Olga Bischof</t>
+  </si>
+  <si>
+    <t>obischof@pcb-byrne.com</t>
+  </si>
+  <si>
+    <t>2078421681</t>
+  </si>
+  <si>
+    <t>PCB Byrne</t>
+  </si>
+  <si>
+    <t>Christophe Berclaz</t>
+  </si>
+  <si>
+    <t>christophe.berclaz@pestalozzilaw.com</t>
+  </si>
+  <si>
+    <t>41229999600</t>
+  </si>
+  <si>
+    <t>Pestalozzi </t>
+  </si>
+  <si>
+    <t>Jennifer (eun Kyung) Yoo</t>
+  </si>
+  <si>
+    <t>jenniferyoo@peterandkim.com</t>
+  </si>
+  <si>
+    <t>8225382900</t>
+  </si>
+  <si>
+    <t>Peter &amp; Kim</t>
+  </si>
+  <si>
+    <t>Luiz Felipe Fleury Vaz Guimaraes</t>
+  </si>
+  <si>
+    <t>lguimaraes@pn.com.br</t>
+  </si>
+  <si>
+    <t>551132476299</t>
+  </si>
+  <si>
+    <t>Pinheiro Neto Advogados</t>
+  </si>
+  <si>
+    <t>Stephen Eccles</t>
+  </si>
+  <si>
+    <t>stephen.eccles@pinneytalfourd.co.uk</t>
+  </si>
+  <si>
+    <t>1708463202</t>
+  </si>
+  <si>
+    <t>Pinney Talfourd LLP</t>
+  </si>
+  <si>
+    <t>Catherine Workman</t>
+  </si>
+  <si>
+    <t>catherine.workman@pinsentmasons.com</t>
+  </si>
+  <si>
+    <t>97143739700</t>
+  </si>
+  <si>
+    <t>the UAE</t>
+  </si>
+  <si>
+    <t>PPP</t>
+  </si>
+  <si>
+    <t>Pinsent Masons</t>
+  </si>
+  <si>
+    <t>Sascha Kuhn</t>
+  </si>
+  <si>
+    <t>skuhn@pohlmann-company.com</t>
+  </si>
+  <si>
+    <t>491744877000</t>
+  </si>
+  <si>
+    <t>Mediation</t>
+  </si>
+  <si>
+    <t>Pohlmann &amp; Company</t>
+  </si>
+  <si>
+    <t>Erika Serrano</t>
+  </si>
+  <si>
+    <t>erika.serrano@phrlegal.com</t>
+  </si>
+  <si>
+    <t>576013257300</t>
+  </si>
+  <si>
+    <t>Environmental</t>
+  </si>
+  <si>
+    <t>Posse Herrera Ruiz</t>
+  </si>
+  <si>
+    <t>Bo Schmidt Pedersen</t>
+  </si>
+  <si>
+    <t>bop@poulschmith.dk</t>
+  </si>
+  <si>
+    <t>Contruction</t>
+  </si>
+  <si>
+    <t>Poul Schimth</t>
+  </si>
+  <si>
+    <t>Jose Saras</t>
+  </si>
+  <si>
+    <t>jsaras@preiskel.com</t>
+  </si>
+  <si>
+    <t>442073325651</t>
+  </si>
+  <si>
+    <t>Preiskel &amp; Co LLP</t>
+  </si>
+  <si>
+    <t>Christian Peintner</t>
+  </si>
+  <si>
+    <t>christian.peintner@psp-bz.it</t>
+  </si>
+  <si>
+    <t>390471977708</t>
+  </si>
+  <si>
+    <t>PSP Partner</t>
+  </si>
+  <si>
+    <t>Ivan Ćirović</t>
+  </si>
+  <si>
+    <t>ivanc@psr.rs</t>
+  </si>
+  <si>
+    <t>381113020725</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Audit &amp; Assurance</t>
+  </si>
+  <si>
+    <t>PSR</t>
+  </si>
+  <si>
+    <t>Falko Daub</t>
+  </si>
+  <si>
+    <t>daub@pwwl.de</t>
+  </si>
+  <si>
+    <t>493020629530</t>
+  </si>
+  <si>
+    <t>Pusch Wahlig Workplace Law</t>
+  </si>
+  <si>
+    <t>Leo Kitchen</t>
+  </si>
+  <si>
+    <t>leokitchen@quinnemanuel.com</t>
+  </si>
+  <si>
+    <t>442076532088</t>
+  </si>
+  <si>
+    <t>quinn emanuel</t>
+  </si>
+  <si>
+    <t>Damian Scattini</t>
+  </si>
+  <si>
+    <t>damianscattini@quinnemanuel.com</t>
+  </si>
+  <si>
+    <t>61291463888</t>
+  </si>
+  <si>
+    <t>Quinn Emanuel Trial Lawyers</t>
+  </si>
+  <si>
+    <t>Denise Jong</t>
+  </si>
+  <si>
+    <t>denise.jong@reedsmith.com</t>
+  </si>
+  <si>
+    <t>Reed Smith LLP</t>
+  </si>
+  <si>
+    <t>Pierre Bonamy</t>
+  </si>
+  <si>
+    <t>pierre.bonamy@rmt.fr</t>
+  </si>
+  <si>
+    <t>33153534444</t>
+  </si>
+  <si>
+    <t>Reinhart Marville Torre</t>
+  </si>
+  <si>
+    <t>Stéphanie Beaudoin</t>
+  </si>
+  <si>
+    <t>sbeaudoin@rsslex.com</t>
+  </si>
+  <si>
+    <t>5143937474</t>
+  </si>
+  <si>
+    <t>Robinson Sheppard Shapiro</t>
+  </si>
+  <si>
+    <t>Francesca Isabelle G Calderon</t>
+  </si>
+  <si>
+    <t>francesca.calderon@romulo.com</t>
+  </si>
+  <si>
+    <t>63285559697</t>
+  </si>
+  <si>
+    <t>the Philippines</t>
+  </si>
+  <si>
+    <t>Romulo Buenaventura Law</t>
+  </si>
+  <si>
+    <t>Rainer Hilli</t>
+  </si>
+  <si>
+    <t>rainer.hilli@roschier.com</t>
+  </si>
+  <si>
+    <t>358407698217</t>
+  </si>
+  <si>
+    <t>Roschier Attorneys Ltd</t>
+  </si>
+  <si>
+    <t>Sara Paradisi</t>
+  </si>
+  <si>
+    <t>sara.paradisi@rosenblatt.law</t>
+  </si>
+  <si>
+    <t>4402046147100</t>
+  </si>
+  <si>
+    <t>Rosenblatt Law</t>
+  </si>
+  <si>
+    <t>Tobias Bakeberg</t>
+  </si>
+  <si>
+    <t>tobias.bakeberg@ebnerstolz.de</t>
+  </si>
+  <si>
+    <t>494037097574</t>
+  </si>
+  <si>
+    <t>RSM International Association</t>
+  </si>
+  <si>
+    <t>Albert Righini</t>
+  </si>
+  <si>
+    <t>arighini@rvmh.ch</t>
+  </si>
+  <si>
+    <t>41228884020</t>
+  </si>
+  <si>
+    <t>RVMH Avocats</t>
+  </si>
+  <si>
+    <t>Aleksandra Dobrzyńska-grezel</t>
+  </si>
+  <si>
+    <t>aleksandra.dobrzynska-grezel@rzmlaw.com</t>
+  </si>
+  <si>
+    <t>48225204390</t>
+  </si>
+  <si>
+    <t>Rymarz, Zdort, Maruta</t>
+  </si>
+  <si>
+    <t>Marcel Barberis</t>
+  </si>
+  <si>
+    <t>marcel.barberis@sagliettibianco.com</t>
+  </si>
+  <si>
+    <t>39011533834</t>
+  </si>
+  <si>
+    <t>Saglietti Bianco</t>
+  </si>
+  <si>
+    <t>Imad Fattal</t>
+  </si>
+  <si>
+    <t>if@lawyersgeneva.ch</t>
+  </si>
+  <si>
+    <t>41223202211</t>
+  </si>
+  <si>
+    <t>Saint-Léger Avocats</t>
+  </si>
+  <si>
+    <t>Ashimizo Afadameh-adeyemi</t>
+  </si>
+  <si>
+    <t>a.afadameh@sapphirelegalgroup.com</t>
+  </si>
+  <si>
+    <t>234809629987612</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Sapphire &amp; Breckinridge</t>
+  </si>
+  <si>
+    <t>Tabea Bänteli</t>
+  </si>
+  <si>
+    <t>tabea.baenteli@swlegal.ch</t>
+  </si>
+  <si>
+    <t>41442153643</t>
+  </si>
+  <si>
+    <t>Schellenberg Wittmer AG</t>
+  </si>
+  <si>
+    <t>Charles Poncelet</t>
+  </si>
+  <si>
+    <t>charles.poncelet@schoups.be</t>
+  </si>
+  <si>
+    <t>3232609860</t>
+  </si>
+  <si>
+    <t>Schoups</t>
+  </si>
+  <si>
+    <t>Claudia Wolzt</t>
+  </si>
+  <si>
+    <t>wolzt@schwarz-schoenherr.com</t>
+  </si>
+  <si>
+    <t>4315124243</t>
+  </si>
+  <si>
+    <t>Schwarz Schönherr Rechtsanwälte</t>
+  </si>
+  <si>
+    <t>Nicolas Cunningham</t>
+  </si>
+  <si>
+    <t>ncunningham@secretariat-intl.com</t>
+  </si>
+  <si>
+    <t>15149149227</t>
+  </si>
+  <si>
+    <t>Secretariat Advisors</t>
+  </si>
+  <si>
+    <t>Martin Biebl</t>
+  </si>
+  <si>
+    <t>m.biebl@seitzpartner.de</t>
+  </si>
+  <si>
+    <t>4989356276104</t>
+  </si>
+  <si>
+    <t>Seitz</t>
+  </si>
+  <si>
+    <t>Andreas Kyllingstad</t>
+  </si>
+  <si>
+    <t>a.kyllingstad@selmer.no</t>
+  </si>
+  <si>
+    <t>4748297886</t>
+  </si>
+  <si>
+    <t>senior lawyer</t>
+  </si>
+  <si>
+    <t>Selmer </t>
+  </si>
+  <si>
+    <t>Johan Tönnesen</t>
+  </si>
+  <si>
+    <t>johan.tonnesen@setterwalls.se</t>
+  </si>
+  <si>
+    <t>46859889013</t>
+  </si>
+  <si>
+    <t>Setterwalls </t>
+  </si>
+  <si>
+    <t>Saresh Mahendaren</t>
+  </si>
+  <si>
+    <t>saresh.mahendaren@shearndelamore.com</t>
+  </si>
+  <si>
+    <t>60320272751</t>
+  </si>
+  <si>
+    <t>Shearn Delamore &amp; Co</t>
+  </si>
+  <si>
+    <t>Joana Ribeiro Pereira</t>
+  </si>
+  <si>
+    <t>joana.pereira@spsadvogados.com</t>
+  </si>
+  <si>
+    <t>351217803640</t>
+  </si>
+  <si>
+    <t>Silveira, Prates &amp; Associados</t>
+  </si>
+  <si>
+    <t>Patrick Boylan</t>
+  </si>
+  <si>
+    <t>patrick.boylan@simmons-simmons.com</t>
+  </si>
+  <si>
+    <t>442078253553</t>
+  </si>
+  <si>
+    <t>Simmons &amp; Simmons</t>
+  </si>
+  <si>
+    <t>Bill Loutit</t>
+  </si>
+  <si>
+    <t>bill.loutit@simpsongrierson.com</t>
+  </si>
+  <si>
+    <t>6499775092</t>
+  </si>
+  <si>
+    <t>Simpson Grierson</t>
+  </si>
+  <si>
+    <t>Enide Perez</t>
+  </si>
+  <si>
+    <t>perez@svs.law</t>
+  </si>
+  <si>
+    <t>31104364311</t>
+  </si>
+  <si>
+    <t>Criminal Tax</t>
+  </si>
+  <si>
+    <t>Sjöcrona van Stigt Advocaten</t>
+  </si>
+  <si>
+    <t>Lorna Nsoatabe</t>
+  </si>
+  <si>
+    <t>lorna.nsoatabe@slaughterandmay.com</t>
+  </si>
+  <si>
+    <t>32027379415</t>
+  </si>
+  <si>
+    <t>Slaughter May</t>
+  </si>
+  <si>
+    <t>Mateusz Blocher</t>
+  </si>
+  <si>
+    <t>mateusz.blocher@skslegal.pl</t>
+  </si>
+  <si>
+    <t>48226087314</t>
+  </si>
+  <si>
+    <t>Sołtysiński, Kawecki &amp; Szlęzak</t>
+  </si>
+  <si>
+    <t>Marcin Balicki</t>
+  </si>
+  <si>
+    <t>m.balicki@spcg.pl</t>
+  </si>
+  <si>
+    <t>48124272424</t>
+  </si>
+  <si>
+    <t>SPCG Law </t>
+  </si>
+  <si>
+    <t>Gauthier Lamour</t>
+  </si>
+  <si>
+    <t>glamour@squairlaw.com</t>
+  </si>
+  <si>
+    <t>330181695960</t>
+  </si>
+  <si>
+    <t>Squair</t>
+  </si>
+  <si>
+    <t>Nina Monempour</t>
+  </si>
+  <si>
+    <t>nmonempour@squairlaw.com</t>
+  </si>
+  <si>
+    <t>SquairLaw</t>
+  </si>
+  <si>
+    <t>Joana Correia Da Fonseca</t>
+  </si>
+  <si>
+    <t>joana.fonseca@srslegal.pt</t>
+  </si>
+  <si>
+    <t>351910008917</t>
+  </si>
+  <si>
+    <t>SRS Legal</t>
+  </si>
+  <si>
+    <t>James Collins</t>
+  </si>
+  <si>
+    <t>james.collins@stephensonharwood.com</t>
+  </si>
+  <si>
+    <t>442078092687</t>
+  </si>
+  <si>
+    <t>Stephenson Harwood</t>
+  </si>
+  <si>
+    <t>Hugh Cameron</t>
+  </si>
+  <si>
+    <t>hcameron@stewartmckelvey.com</t>
+  </si>
+  <si>
+    <t>Stewart McKelvey</t>
+  </si>
+  <si>
+    <t>Jan-jaap Koningsveld</t>
+  </si>
+  <si>
+    <t>jan-jaap.koningsveld@stibbe.com</t>
+  </si>
+  <si>
+    <t>31205460439</t>
+  </si>
+  <si>
+    <t>Stibbe</t>
+  </si>
+  <si>
+    <t>Anica Theunissen</t>
+  </si>
+  <si>
+    <t>anica@sstlaw.co.za</t>
+  </si>
+  <si>
+    <t>27123619823</t>
+  </si>
+  <si>
+    <t>Trusts &amp; Estates</t>
+  </si>
+  <si>
+    <t>Stroebel Singh Theunissen Incorporated</t>
+  </si>
+  <si>
+    <t>Thomas Liebscher</t>
+  </si>
+  <si>
+    <t>thomas.liebscher@sza.de</t>
+  </si>
+  <si>
+    <t>4962142570</t>
+  </si>
+  <si>
+    <t>SZA Schilling, Zutt &amp; Anschütz</t>
+  </si>
+  <si>
+    <t>Thomas Nägele</t>
+  </si>
+  <si>
+    <t>thomas.naegele@sza.de</t>
+  </si>
+  <si>
+    <t>496214257222</t>
+  </si>
+  <si>
+    <t>SZA SCHILLING, ZUTT &amp; ANSCHÜTZ </t>
+  </si>
+  <si>
+    <t>Marina Matousekova</t>
+  </si>
+  <si>
+    <t>marina.matousekova@talma.legal</t>
+  </si>
+  <si>
+    <t>33188400676</t>
+  </si>
+  <si>
+    <t>TALMA </t>
+  </si>
+  <si>
+    <t>Ingeri Luik-tamme</t>
+  </si>
+  <si>
+    <t>ingeri.luik-tamme@tgsbaltic.com</t>
+  </si>
+  <si>
+    <t>3725233278</t>
+  </si>
+  <si>
+    <t>TEGOS</t>
+  </si>
+  <si>
+    <t>Martin Bürkle</t>
+  </si>
+  <si>
+    <t>m.buerkle@thouvenin.com</t>
+  </si>
+  <si>
+    <t>41444214545</t>
+  </si>
+  <si>
+    <t>Joint Ventures</t>
+  </si>
+  <si>
+    <t>Thouvenin Rechtsanwälte</t>
+  </si>
+  <si>
+    <t>Manish Aggarwal</t>
+  </si>
+  <si>
+    <t>manish.aggarwal@threecrownsllp.com</t>
+  </si>
+  <si>
+    <t>442035307963</t>
+  </si>
+  <si>
+    <t>Three Crowns LLP</t>
+  </si>
+  <si>
+    <t>Danilo Lambert Vieira De Sousa</t>
+  </si>
+  <si>
+    <t>dsousa@tozzinifreire.com.br</t>
+  </si>
+  <si>
+    <t>551150865360</t>
+  </si>
+  <si>
+    <t>Tozzini Freire Advogados</t>
+  </si>
+  <si>
+    <t>Manuela Demarche Mello</t>
+  </si>
+  <si>
+    <t>manuela.demarche@trenchrossi.com</t>
+  </si>
+  <si>
+    <t>551130486793</t>
+  </si>
+  <si>
+    <t>Trench Rossi Watanabe</t>
+  </si>
+  <si>
+    <t>Jonathan Haag</t>
+  </si>
+  <si>
+    <t>jonathan@tungsten-associates.com</t>
+  </si>
+  <si>
+    <t>16786431323</t>
+  </si>
+  <si>
+    <t>president</t>
+  </si>
+  <si>
+    <t>Tungsten Associates</t>
+  </si>
+  <si>
+    <t>Guillermo Canalejo</t>
+  </si>
+  <si>
+    <t>guillermo.canalejo@uria.com</t>
+  </si>
+  <si>
+    <t>Uría Menéndez Abogados</t>
+  </si>
+  <si>
+    <t>Pieter Pecinovsky</t>
+  </si>
+  <si>
+    <t>pieter.pecinovsky@vow.be</t>
+  </si>
+  <si>
+    <t>3226440511</t>
+  </si>
+  <si>
+    <t>Of Counsel</t>
+  </si>
+  <si>
+    <t>Van Olmen &amp; Wynant</t>
+  </si>
+  <si>
+    <t>Bruno Leandro Palhares Perez</t>
+  </si>
+  <si>
+    <t>bruno.perez@veirano.com.br</t>
+  </si>
+  <si>
+    <t>551123135875</t>
+  </si>
+  <si>
+    <t>Veirano Advogados</t>
+  </si>
+  <si>
+    <t>German Sanchez</t>
+  </si>
+  <si>
+    <t>gsanchez@via.es</t>
+  </si>
+  <si>
+    <t>914358832</t>
+  </si>
+  <si>
+    <t>VÍA Consultores</t>
+  </si>
+  <si>
+    <t>Henrik Borna</t>
+  </si>
+  <si>
+    <t>henrik.borna@vinge.se</t>
+  </si>
+  <si>
+    <t>Vinge</t>
+  </si>
+  <si>
+    <t>Julia Aeschbacher</t>
+  </si>
+  <si>
+    <t>julia.aeschbacher@walderwyss.com</t>
+  </si>
+  <si>
+    <t>41586585197</t>
+  </si>
+  <si>
+    <t>Walder Wyss</t>
+  </si>
+  <si>
+    <t>Felipe Emmanuel De Figueiredo</t>
+  </si>
+  <si>
+    <t>ffigueiredo@warde.com.br</t>
+  </si>
+  <si>
+    <t>551130658207</t>
+  </si>
+  <si>
+    <t>Warde Advogados</t>
+  </si>
+  <si>
+    <t>Jan Ciećwierz</t>
+  </si>
+  <si>
+    <t>jan.ciecwierz@wardynski.com.pl</t>
+  </si>
+  <si>
+    <t>48224378200</t>
+  </si>
+  <si>
+    <t>Wardynski &amp; Partners</t>
+  </si>
+  <si>
+    <t>Anne-catherine Hahn</t>
+  </si>
+  <si>
+    <t>ac.hahn@wartmann-merker.ch</t>
+  </si>
+  <si>
+    <t>41442121511</t>
+  </si>
+  <si>
+    <t>Wartmann Merker</t>
+  </si>
+  <si>
+    <t>Robert Williams</t>
+  </si>
+  <si>
+    <t>robertwilliams@wfw.com</t>
+  </si>
+  <si>
+    <t>61434077293</t>
+  </si>
+  <si>
+    <t>Hotels</t>
+  </si>
+  <si>
+    <t>Watson Farley &amp; Williams</t>
+  </si>
+  <si>
+    <t>Ahmed Rajan</t>
+  </si>
+  <si>
+    <t>ahmed.rajan@webberwentzel.com</t>
+  </si>
+  <si>
+    <t>271153056410</t>
+  </si>
+  <si>
+    <t>Webber Wentzel</t>
+  </si>
+  <si>
+    <t>Guillaume Bonnard</t>
+  </si>
+  <si>
+    <t>guillaume.bonnard@weil.com</t>
+  </si>
+  <si>
+    <t>33144219797</t>
+  </si>
+  <si>
+    <t>Weil</t>
+  </si>
+  <si>
+    <t>Beat Walti</t>
+  </si>
+  <si>
+    <t>b.walti@wengervieli.ch</t>
+  </si>
+  <si>
+    <t>41589585384</t>
+  </si>
+  <si>
+    <t>Wenger Vieli AG</t>
+  </si>
+  <si>
+    <t>Tobias Thielmann</t>
+  </si>
+  <si>
+    <t>thielmann@strafrecht.de</t>
+  </si>
+  <si>
+    <t>4901252671574450</t>
+  </si>
+  <si>
+    <t>Wessing &amp; Partner</t>
+  </si>
+  <si>
+    <t>Ashleigh Cole</t>
+  </si>
+  <si>
+    <t>ashleigh.cole@whitecase.com</t>
+  </si>
+  <si>
+    <t>61384868052</t>
+  </si>
+  <si>
+    <t>White &amp; Case</t>
+  </si>
+  <si>
+    <t>Eirik Edvardsen</t>
+  </si>
+  <si>
+    <t>eed@wiersholm.no</t>
+  </si>
+  <si>
+    <t>Wiersholms</t>
+  </si>
+  <si>
+    <t>Andreas fjærvoll-larsen</t>
+  </si>
+  <si>
+    <t>afl@wr.no</t>
+  </si>
+  <si>
+    <t>4795933614</t>
+  </si>
+  <si>
+    <t>Wikborg Rein Advokatfirma</t>
+  </si>
+  <si>
+    <t>Colette brady</t>
+  </si>
+  <si>
+    <t>colette.brady@williamfry.com</t>
+  </si>
+  <si>
+    <t>35314896516</t>
+  </si>
+  <si>
+    <t>William Fry</t>
+  </si>
+  <si>
+    <t>Sey-hyo Lee</t>
+  </si>
+  <si>
+    <t>shlee@winston.com</t>
+  </si>
+  <si>
+    <t>12122946655</t>
+  </si>
+  <si>
+    <t>Winston &amp; Strawn LLP</t>
+  </si>
+  <si>
+    <t>Anna Tan</t>
+  </si>
+  <si>
+    <t>anna.tan@wongpartnership.com</t>
+  </si>
+  <si>
+    <t>6564168030</t>
+  </si>
+  <si>
+    <t>WongPartnership</t>
+  </si>
+  <si>
+    <t>Danielle Cooksley</t>
+  </si>
+  <si>
+    <t>danielle.cooksley@wynne-jones.com</t>
+  </si>
+  <si>
+    <t>4402031467888</t>
+  </si>
+  <si>
+    <t>Wynne-Jones</t>
+  </si>
+  <si>
+    <t>Julian Ashby</t>
+  </si>
+  <si>
+    <t>jashby@yendallhunter.com</t>
+  </si>
+  <si>
+    <t>4402037948490</t>
+  </si>
+  <si>
+    <t>Yendall Hunter Limited</t>
+  </si>
+  <si>
+    <t>Michael Blank</t>
+  </si>
+  <si>
+    <t>michael.blank@ypog.law</t>
+  </si>
+  <si>
+    <t>49307675975110</t>
+  </si>
+  <si>
+    <t>YPOG</t>
+  </si>
+  <si>
+    <t>Angeline Cheah Yin Leng</t>
+  </si>
+  <si>
+    <t>angelinecheah@ziclegal.com</t>
+  </si>
+  <si>
+    <t>6043753110</t>
+  </si>
+  <si>
+    <t>Zaid Ibrahim &amp; CO</t>
+  </si>
+  <si>
+    <t>Sönke Schwartz</t>
+  </si>
+  <si>
+    <t>schwartz@zs-forensic.com</t>
+  </si>
+  <si>
+    <t>491735236895</t>
+  </si>
+  <si>
+    <t>Ziehms &amp; Schwartz</t>
+  </si>
+  <si>
+    <t>Ong Boo Seng</t>
+  </si>
+  <si>
+    <t>booseng.ong@zicoip.com</t>
+  </si>
+  <si>
+    <t>60378905898</t>
+  </si>
+  <si>
+    <t>https://www.zicoip.com/our-team</t>
+  </si>
+  <si>
+    <t>ZICO IP</t>
+  </si>
+  <si>
+    <t>Tran Thi Ngan</t>
+  </si>
+  <si>
+    <t>ngan.tran@bizlink.vn</t>
+  </si>
+  <si>
+    <t>840917929166</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Due DIligence</t>
+  </si>
+  <si>
+    <t>https://bizlink.vn/partners/ms.-tran-thi-ngan.html</t>
+  </si>
+  <si>
+    <t>BIZLINK</t>
+  </si>
+  <si>
+    <t>Kornjan Tangkrisanakajorn</t>
+  </si>
+  <si>
+    <t>kornjan@thanathippartners.com</t>
+  </si>
+  <si>
+    <t>6620898998</t>
+  </si>
+  <si>
+    <t>Thainland</t>
+  </si>
+  <si>
+    <t>https://www.thanathippartners.com/our-team#partners-y2</t>
+  </si>
+  <si>
+    <t>Thanathip Partners</t>
+  </si>
+  <si>
+    <t>Harjean Kaur</t>
+  </si>
+  <si>
+    <t>harjean@advocatus.sg</t>
+  </si>
+  <si>
+    <t>6566039203</t>
+  </si>
+  <si>
+    <t>https://www.advocatus.sg/Overview</t>
+  </si>
+  <si>
+    <t>Advocatus Law LLP</t>
+  </si>
+  <si>
+    <t>Patrick Johnson</t>
+  </si>
+  <si>
+    <t>patrick.johnson@bclplaw.com</t>
+  </si>
+  <si>
+    <t>61483054296</t>
+  </si>
+  <si>
+    <t>https://www.bclplaw.com/en-US/people/patrick-johnson.html</t>
+  </si>
+  <si>
+    <t>Dimas Coetsier</t>
+  </si>
+  <si>
+    <t>dimas.coetsier@aoshearman.com</t>
+  </si>
+  <si>
+    <t>3232877541</t>
+  </si>
+  <si>
+    <t>Jürgen Toome</t>
+  </si>
+  <si>
+    <t>jyrgen@aaa.ee</t>
+  </si>
+  <si>
+    <t>Olivier Moreau</t>
+  </si>
+  <si>
+    <t>moreau@chatainassocies.com</t>
+  </si>
+  <si>
+    <t>33140538385</t>
+  </si>
+  <si>
+    <t>Insurance Litigation</t>
+  </si>
+  <si>
+    <t>Nathalie Allen</t>
+  </si>
+  <si>
+    <t>nathalie.allen@addleshawgoddard.com</t>
+  </si>
+  <si>
+    <t>4402077885050</t>
+  </si>
+  <si>
+    <t>Cécile Ferouelle</t>
+  </si>
+  <si>
+    <t>cecile.ferouelle@advant-altana.com</t>
+  </si>
+  <si>
+    <t>330179979322</t>
+  </si>
+  <si>
+    <t>Rachel Bernasconi</t>
+  </si>
+  <si>
+    <t>rbernasconi@seyfarth.com</t>
+  </si>
+  <si>
+    <t>61282560416</t>
+  </si>
+  <si>
+    <t>Elizabeth Atkins</t>
+  </si>
+  <si>
+    <t>elizabeth.atkins@akingump.com</t>
+  </si>
+  <si>
+    <t>442070129817</t>
+  </si>
+  <si>
+    <t>Marcello Bellitto</t>
+  </si>
+  <si>
+    <t>mbellitto@alixpartners.com</t>
+  </si>
+  <si>
+    <t>393346314562</t>
+  </si>
+  <si>
+    <t>Michael Baur</t>
+  </si>
+  <si>
+    <t>mbaur@alixpartners.com</t>
+  </si>
+  <si>
+    <t>491728933087</t>
+  </si>
+  <si>
+    <t>Giffy Pardede</t>
+  </si>
+  <si>
+    <t>giffy.pardede@agasia.law</t>
+  </si>
+  <si>
+    <t>Urban Kropivšek</t>
+  </si>
+  <si>
+    <t>urban.kropivsek@andric.si</t>
+  </si>
+  <si>
+    <t>Insolvency</t>
+  </si>
+  <si>
+    <t>Grant Nicholson</t>
+  </si>
+  <si>
+    <t>grant.nicholson@ah.co.nz</t>
+  </si>
+  <si>
+    <t>6493562621</t>
+  </si>
+  <si>
+    <t>Antoineportelange</t>
+  </si>
+  <si>
+    <t>antoine.portelange@arendt.com</t>
+  </si>
+  <si>
+    <t>3524078789267</t>
+  </si>
+  <si>
+    <t>Mita Kartohadiprodjo</t>
+  </si>
+  <si>
+    <t>mita.kartohadiprodjo@ahp.id</t>
+  </si>
+  <si>
+    <t>622125559972</t>
+  </si>
+  <si>
+    <t>Luiza Wyrębkowska</t>
+  </si>
+  <si>
+    <t>luiza.wyrebkowska@b2rlaw.com</t>
+  </si>
+  <si>
+    <t>48223754046</t>
+  </si>
+  <si>
+    <t>Adam Dawson</t>
+  </si>
+  <si>
+    <t>adam.dawson@bakerbotts.com</t>
+  </si>
+  <si>
+    <t>3228917319</t>
+  </si>
+  <si>
+    <t>Eric Meier</t>
+  </si>
+  <si>
+    <t>eric.meier@bakermckenzie.com</t>
+  </si>
+  <si>
+    <t>Corrado Rampini</t>
+  </si>
+  <si>
+    <t>corrado.rampini@baerkarrer.ch</t>
+  </si>
+  <si>
+    <t>41796199857</t>
+  </si>
+  <si>
+    <t>Nicolà Barandun</t>
+  </si>
+  <si>
+    <t>nicola.barandun@barandun-law.ch</t>
+  </si>
+  <si>
+    <t>41442665616</t>
+  </si>
+  <si>
+    <t>Alberto Ferreiro</t>
+  </si>
+  <si>
+    <t>a.ferreiro@barrilero.es</t>
+  </si>
+  <si>
+    <t>Sung Kwan Ban</t>
+  </si>
+  <si>
+    <t>sungkwan.ban@barunlaw.com</t>
+  </si>
+  <si>
+    <t>234792693</t>
+  </si>
+  <si>
+    <t>White Collar Defense</t>
+  </si>
+  <si>
+    <t>José Miguel Tuirán Salas</t>
+  </si>
+  <si>
+    <t>mtuiran@basham.com.mx</t>
+  </si>
+  <si>
+    <t>528113408817</t>
+  </si>
+  <si>
+    <t>Tax Consulting</t>
+  </si>
+  <si>
+    <t>Enrico Moretti</t>
+  </si>
+  <si>
+    <t>em@bmlaw.ch</t>
+  </si>
+  <si>
+    <t>Brigit Morrison</t>
+  </si>
+  <si>
+    <t>brigit.morrison@bellgully.com</t>
+  </si>
+  <si>
+    <t>6499168921</t>
+  </si>
+  <si>
+    <t>Jason M Berall</t>
+  </si>
+  <si>
+    <t>berallj@bennettjones.com</t>
+  </si>
+  <si>
+    <t>4167775480</t>
+  </si>
+  <si>
+    <t>Stanislas Richoillez</t>
+  </si>
+  <si>
+    <t>richoillez@bg2v.com</t>
+  </si>
+  <si>
+    <t>33148886055</t>
+  </si>
+  <si>
+    <t>Camille De Verdelhan</t>
+  </si>
+  <si>
+    <t>verdelhan@bg2v.com</t>
+  </si>
+  <si>
+    <t>33171703435</t>
+  </si>
+  <si>
+    <t>Christopher Maierhöfer</t>
+  </si>
+  <si>
+    <t>christopher.maierhoefer@twobirds.com</t>
+  </si>
+  <si>
+    <t>Alain Massicotte</t>
+  </si>
+  <si>
+    <t>alain.massicotte@blakes.com</t>
+  </si>
+  <si>
+    <t>15149824007</t>
+  </si>
+  <si>
+    <t>Pia Hesse</t>
+  </si>
+  <si>
+    <t>pia.hesse@blomstein.com</t>
+  </si>
+  <si>
+    <t>Maude Khadam-al-jame</t>
+  </si>
+  <si>
+    <t>mk@bonnard-lawson.com</t>
+  </si>
+  <si>
+    <t>41223222500</t>
+  </si>
+  <si>
+    <t>Brian Dingle</t>
+  </si>
+  <si>
+    <t>bdingle@blg.com</t>
+  </si>
+  <si>
+    <t>Mark Bosley</t>
+  </si>
+  <si>
+    <t>mbosley@thinkbrg.com</t>
+  </si>
+  <si>
+    <t>447767250868</t>
+  </si>
+  <si>
+    <t>Albrecht Von Breitenbuch</t>
+  </si>
+  <si>
+    <t>albrecht.breitenbuch@bclplaw.com</t>
+  </si>
+  <si>
+    <t>49030684096161</t>
+  </si>
+  <si>
+    <t>Ida Holst Bekker-jensen</t>
+  </si>
+  <si>
+    <t>ih@buddeschou.dk</t>
+  </si>
+  <si>
+    <t>Lisa Digernes</t>
+  </si>
+  <si>
+    <t>ld@bull.no</t>
+  </si>
+  <si>
+    <t>4747772116</t>
+  </si>
+  <si>
+    <t>Colm Hanley</t>
+  </si>
+  <si>
+    <t>chanley@byrnewallaceshields.com</t>
+  </si>
+  <si>
+    <t>Emanuel Callejas</t>
+  </si>
+  <si>
+    <t>emanuel.callejas@carrillolaw.com</t>
+  </si>
+  <si>
+    <t>50224215741</t>
+  </si>
+  <si>
+    <t>Raquel Frías Rivera</t>
+  </si>
+  <si>
+    <t>raquel.frias@caseslacambra.com</t>
+  </si>
+  <si>
+    <t>34644258220</t>
+  </si>
+  <si>
+    <t>Jed Blackburn</t>
+  </si>
+  <si>
+    <t>jblackburn@cassels.com</t>
+  </si>
+  <si>
+    <t>4168606725</t>
+  </si>
+  <si>
+    <t>Heidi Paalanen-koev</t>
+  </si>
+  <si>
+    <t>heidi.paalanen-koev@castren.fi</t>
+  </si>
+  <si>
+    <t>358405026713</t>
+  </si>
+  <si>
+    <t>Harald Stingl</t>
+  </si>
+  <si>
+    <t>harald.stingl@cerhahempel.com</t>
+  </si>
+  <si>
+    <t>Alison Goldthorp</t>
+  </si>
+  <si>
+    <t>alison.goldthorp@crsblaw.com</t>
+  </si>
+  <si>
+    <t>Laurent Legein</t>
+  </si>
+  <si>
+    <t>llegein@cgsh.com</t>
+  </si>
+  <si>
+    <t>3222872122</t>
+  </si>
+  <si>
+    <t>Timothy Baker</t>
+  </si>
+  <si>
+    <t>timothy.baker@cdhlegal.com</t>
+  </si>
+  <si>
+    <t>270214816308</t>
+  </si>
+  <si>
+    <t>Fei Kwok</t>
+  </si>
+  <si>
+    <t>fei.kwok@clydeco.com</t>
+  </si>
+  <si>
+    <t>85222872668</t>
+  </si>
+  <si>
+    <t>Babita Ambekar</t>
+  </si>
+  <si>
+    <t>babita.ambekar@cms-cmno.com</t>
+  </si>
+  <si>
+    <t>Anna Walker</t>
+  </si>
+  <si>
+    <t>anna.walker@controlrisks.com</t>
+  </si>
+  <si>
+    <t>442079401959</t>
+  </si>
+  <si>
+    <t>Paul Mccann</t>
+  </si>
+  <si>
+    <t>p.mccann@cornwallsnsw.com.au</t>
+  </si>
+  <si>
+    <t>Sam Mcgrath</t>
+  </si>
+  <si>
+    <t>smcgrath@cowellclarke.com.au</t>
+  </si>
+  <si>
+    <t>Rohan Saha</t>
+  </si>
+  <si>
+    <t>rsaha@cravath.com</t>
+  </si>
+  <si>
+    <t>442074531060</t>
+  </si>
+  <si>
+    <t>Kate Mcgrann</t>
+  </si>
+  <si>
+    <t>kmcgrann@cmblaw.ca</t>
+  </si>
+  <si>
+    <t>4162170850</t>
+  </si>
+  <si>
+    <t>Jaime Moya</t>
+  </si>
+  <si>
+    <t>jaime.moya@cuatrecasas.com</t>
+  </si>
+  <si>
+    <t>Elias benhamou</t>
+  </si>
+  <si>
+    <t>ebenhamou@dwpv.com</t>
+  </si>
+  <si>
+    <t>5148416427</t>
+  </si>
+  <si>
+    <t>Christopher Bona</t>
+  </si>
+  <si>
+    <t>christopher.bona@delphi.se</t>
+  </si>
+  <si>
+    <t>46709252627</t>
+  </si>
+  <si>
+    <t>Christiane Meneghini Silva De Siqueira</t>
+  </si>
+  <si>
+    <t>cmsiqueira@demarest.com.br</t>
+  </si>
+  <si>
+    <t>551133561854</t>
+  </si>
+  <si>
+    <t>Leila Hawa</t>
+  </si>
+  <si>
+    <t>leila.hawa@desgouttes.ch</t>
+  </si>
+  <si>
+    <t>Rosemary Kanan</t>
+  </si>
+  <si>
+    <t>rosemary.kanan@deutschmiller.com</t>
+  </si>
+  <si>
+    <t>292107745</t>
+  </si>
+  <si>
+    <t>Laurent geelhand</t>
+  </si>
+  <si>
+    <t>laurent.geelhand@dlapiper.com</t>
+  </si>
+  <si>
+    <t>32025001642</t>
+  </si>
+  <si>
+    <t>Anna Jones</t>
+  </si>
+  <si>
+    <t>anna.jones@doane.gt.ca</t>
+  </si>
+  <si>
+    <t>17788411149</t>
+  </si>
+  <si>
+    <t>Florian Kremslehner</t>
+  </si>
+  <si>
+    <t>florian.kremslehner@dorda.at</t>
+  </si>
+  <si>
+    <t>Milcíades M Rodríguez</t>
+  </si>
+  <si>
+    <t>m.rodriguez@drr-law.com</t>
+  </si>
+  <si>
+    <t>Tax Advisory</t>
+  </si>
+  <si>
+    <t>Carolina Serra</t>
+  </si>
+  <si>
+    <t>cserra@beccarvarela.com</t>
+  </si>
+  <si>
+    <t>Michael Röhsner</t>
+  </si>
+  <si>
+    <t>michael.roehsner@eversheds-sutherland.at</t>
+  </si>
+  <si>
+    <t>Data Protection</t>
+  </si>
+  <si>
+    <t>Roberto Baumgarten Kuster</t>
+  </si>
+  <si>
+    <t>roberto.kuster@faleck.com.br</t>
+  </si>
+  <si>
+    <t>Business Disputes</t>
+  </si>
+  <si>
+    <t>Christian paquette</t>
+  </si>
+  <si>
+    <t>cpaquette@fasken.com</t>
+  </si>
+  <si>
+    <t>Jamie G Knight</t>
+  </si>
+  <si>
+    <t>jknight@filion.on.ca</t>
+  </si>
+  <si>
+    <t>14164085509</t>
+  </si>
+  <si>
+    <t>Abdelmajeed Zwairi</t>
+  </si>
+  <si>
+    <t>telazwairi@maslaw.com</t>
+  </si>
+  <si>
+    <t>97142622217</t>
+  </si>
+  <si>
+    <t>https://maslaw.com/profile/abdelmajeed-zwairi/</t>
+  </si>
+  <si>
+    <t>MAS Law</t>
+  </si>
+  <si>
+    <t>Sarah Cassidy</t>
+  </si>
+  <si>
+    <t>sarah.cassidy@dilloneustace.ie</t>
+  </si>
+  <si>
+    <t>35316731708</t>
+  </si>
+  <si>
+    <t>Asset Management and Investment Funds</t>
+  </si>
+  <si>
+    <t>https://www.dilloneustace.com/people/sarah-cassidy/</t>
+  </si>
+  <si>
+    <t>Dillon Eustace</t>
+  </si>
+  <si>
+    <t>Conal Keane</t>
+  </si>
+  <si>
+    <t>conal.keane@dilloneustace.ie</t>
+  </si>
+  <si>
+    <t>13458144054</t>
+  </si>
+  <si>
+    <t>the Cayman Islands</t>
+  </si>
+  <si>
+    <t>Commercial Litigation and Dispute Resolution (Cayman)</t>
+  </si>
+  <si>
+    <t>https://www.dilloneustace.com/people/conal-keane/</t>
+  </si>
+  <si>
+    <t>Nugraha Bratakusumah S Ant S H</t>
+  </si>
+  <si>
+    <t>nugraha.bratakusumah@nm-advocates.com</t>
+  </si>
+  <si>
+    <t>6281292060110</t>
+  </si>
+  <si>
+    <t>https://nm-advocates.com/our-people/nugraha-bratakusumah-s-ant-s-h/</t>
+  </si>
+  <si>
+    <t>Nurmansyah And Muzdalifah</t>
+  </si>
+  <si>
+    <t>Adelhart Krüger</t>
+  </si>
+  <si>
+    <t>adelhartk@kisch-ip.com</t>
+  </si>
+  <si>
+    <t>27113243158</t>
+  </si>
+  <si>
+    <t>https://www.kisch-ip.com/Directors/2/AdelhartKr%C3%BCger</t>
+  </si>
+  <si>
+    <t>KISCH IP</t>
+  </si>
+  <si>
+    <t>Jacinta Conway</t>
+  </si>
+  <si>
+    <t>jacinta.conway@arthurcox.com</t>
+  </si>
+  <si>
+    <t>35319201775</t>
+  </si>
+  <si>
+    <t>https://www.arthurcox.com/people/jacinta-conway/</t>
+  </si>
+  <si>
+    <t>Arthur Cox</t>
+  </si>
+  <si>
+    <t>Rosemary Lundy</t>
+  </si>
+  <si>
+    <t>rosemary.lundy@arthurcox.com</t>
+  </si>
+  <si>
+    <t>442890262673</t>
+  </si>
+  <si>
+    <t>https://www.arthurcox.com/people/rosemary-lundy/</t>
+  </si>
+  <si>
+    <t>F Peter Müller</t>
+  </si>
+  <si>
+    <t>peter.mueller@mspartner.de</t>
+  </si>
+  <si>
+    <t>49892199120</t>
+  </si>
+  <si>
+    <t>European Patent and Trademark Attorney</t>
+  </si>
+  <si>
+    <t>https://www.mspartner.de/team/f-peter-mueller/?lang=en</t>
+  </si>
+  <si>
+    <t>MSP</t>
+  </si>
+  <si>
+    <t>Glen Agar</t>
+  </si>
+  <si>
+    <t>gwa@tdslaw.com</t>
+  </si>
+  <si>
+    <t>2049342590</t>
+  </si>
+  <si>
+    <t>Corporate &amp; Commercial</t>
+  </si>
+  <si>
+    <t>https://www.tdslaw.com/lawyers/glen-agar/</t>
+  </si>
+  <si>
+    <t>Thompson Dorfman Sweatman</t>
+  </si>
+  <si>
+    <t>Dr Christoph Schreiber</t>
+  </si>
+  <si>
+    <t>cschreiber@dompatent.de</t>
+  </si>
+  <si>
+    <t>4922191652228</t>
+  </si>
+  <si>
+    <t>https://www.dompatent.de/en/patentanwalt/dr-christoph-schreiber-2/</t>
+  </si>
+  <si>
+    <t>Dompatent</t>
+  </si>
+  <si>
+    <t>Vydmantas Grigoravičius</t>
+  </si>
+  <si>
+    <t>vydmantas.grigoravicius@cobalt.legal</t>
+  </si>
+  <si>
+    <t>37065096378</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Construction, Zoning &amp; Planning</t>
+  </si>
+  <si>
+    <t>https://www.cobalt.legal/people/vydmantas-grigoravicius/</t>
+  </si>
+  <si>
+    <t>Cobalt</t>
+  </si>
+  <si>
+    <t>Liina Linsi</t>
+  </si>
+  <si>
+    <t>liina.linsi@cobalt.legal</t>
+  </si>
+  <si>
+    <t>3725038939</t>
+  </si>
+  <si>
+    <t>Arbitration &amp; Mediation</t>
+  </si>
+  <si>
+    <t>https://www.cobalt.legal/people/liina-linsi/</t>
+  </si>
+  <si>
+    <t>Byung-chul Choi</t>
+  </si>
+  <si>
+    <t>bcchoi@shinkim.com</t>
+  </si>
+  <si>
+    <t>8223161717</t>
+  </si>
+  <si>
+    <t>https://www.shinkim.com/eng/member/view/3948</t>
+  </si>
+  <si>
+    <t>Senior Advisor</t>
+  </si>
+  <si>
+    <t>ShinAndKim</t>
+  </si>
+  <si>
+    <t>Vincenzo Armenio</t>
+  </si>
+  <si>
+    <t>vincenzo.armenio@grplex.com</t>
+  </si>
+  <si>
+    <t>https://www.grplex.com/en/the-lawyers/permalink/vincenzo-armenio/peopleid/94#peopleid94</t>
+  </si>
+  <si>
+    <t>Jeanelle Cachia</t>
+  </si>
+  <si>
+    <t>jeanelle.cachia@vba.mt</t>
+  </si>
+  <si>
+    <t>35627229236</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>https://www.vba.mt/our-people/</t>
+  </si>
+  <si>
+    <t>VB Advocates</t>
+  </si>
+  <si>
+    <t>Lynette Koh</t>
+  </si>
+  <si>
+    <t>lynette.koh@helmsmanlaw.com</t>
+  </si>
+  <si>
+    <t>6569782070</t>
+  </si>
+  <si>
+    <t>https://www.helmsmanlaw.com/people</t>
+  </si>
+  <si>
+    <t>Helmsman</t>
+  </si>
+  <si>
+    <t>John Turner</t>
+  </si>
+  <si>
+    <t>john.turner@ellisons.com</t>
+  </si>
+  <si>
+    <t>1206719321</t>
+  </si>
+  <si>
+    <t>https://ellisons.com/team/john-turner/</t>
+  </si>
+  <si>
+    <t>Ellisons Solicitors</t>
+  </si>
+  <si>
+    <t>aaron schwirian *****</t>
+  </si>
+  <si>
+    <t>aaron.schwirian@controlrisks.com</t>
+  </si>
+  <si>
+    <t>12024493330</t>
+  </si>
+  <si>
+    <t>https://www.controlrisks.com/who-we-are/our-experts/expert-bio/aaron-schwirian</t>
+  </si>
+  <si>
+    <t>Harjit Sangra</t>
+  </si>
+  <si>
+    <t>hsangra@sangramoller.com</t>
+  </si>
+  <si>
+    <t>6046923022</t>
+  </si>
+  <si>
+    <t>https://www.sangra.com/people/lawyers/harjit-sangra</t>
+  </si>
+  <si>
+    <t>Sangra</t>
+  </si>
+  <si>
+    <t>Alastair Holland</t>
+  </si>
+  <si>
+    <t>alastair.holland@duncancotterill.com</t>
+  </si>
+  <si>
+    <t>64202720699203164</t>
+  </si>
+  <si>
+    <t>https://duncancotterill.com/people/alastair-holland/</t>
+  </si>
+  <si>
+    <t>Duncan Cotterill</t>
+  </si>
+  <si>
+    <t>Joshua Anderson</t>
+  </si>
+  <si>
+    <t>joshua.anderson@allens.com.au</t>
+  </si>
+  <si>
+    <t>61396138920</t>
+  </si>
+  <si>
+    <t>Disputes &amp;amp; Investigations</t>
+  </si>
+  <si>
+    <t>https://www.allens.com.au/people/a/joshua-anderson/?_t_tags=siteid%3a44ff325a-a3e9-4d69-9f7b-2991f6bb436b%2clanguage%3aen&amp;_t_hit.id=Allens_Cms_Core_Models_Pages_PeoplePage/_8e30bcd8-d45b-4b17-82cb-c1fa342b24bf_en&amp;_t_hit.pos=9</t>
+  </si>
+  <si>
+    <t>Allens</t>
+  </si>
+  <si>
+    <t>Luis Jorge Akle Arronte</t>
+  </si>
+  <si>
+    <t>aklearrontej@gtlaw.com</t>
+  </si>
+  <si>
+    <t>525550290061</t>
+  </si>
+  <si>
+    <t>ENVIRONMENTAL</t>
+  </si>
+  <si>
+    <t>https://www.gtlaw.com/en/professionals/a/akle-arronte-luis-jorge</t>
+  </si>
+  <si>
+    <t>Greenberg Traurig</t>
+  </si>
+  <si>
+    <t>Marwa Al-siyabi</t>
+  </si>
+  <si>
+    <t>marwa.alsiyabi@gtlaw.com</t>
+  </si>
+  <si>
+    <t>966112501257</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>CORPORATE</t>
+  </si>
+  <si>
+    <t>https://www.gtlaw.com/en/professionals/a/al-siyabi-marwa</t>
+  </si>
+  <si>
+    <t>Shareholder</t>
+  </si>
+  <si>
+    <t>Dr Luis Correia Da Silva And</t>
+  </si>
+  <si>
+    <t>luis.correia@oxera.com</t>
+  </si>
+  <si>
+    <t>4402077766600</t>
+  </si>
+  <si>
+    <t>https://www.oxera.com/people/dr-luis-correia-da-silva/</t>
+  </si>
+  <si>
+    <t>Anders Sandgaard</t>
+  </si>
+  <si>
+    <t>as@aera-ip.com</t>
+  </si>
+  <si>
+    <t>4560652760</t>
+  </si>
+  <si>
+    <t>https://aera-ip.com/team/as/</t>
+  </si>
+  <si>
+    <t>Aera</t>
+  </si>
+  <si>
+    <t>Dr Stephan Bauer Ll M</t>
+  </si>
+  <si>
+    <t>stephan.bauer@esche.de</t>
+  </si>
+  <si>
+    <t>4904036805363</t>
+  </si>
+  <si>
+    <t>https://www.esche.de/en/team/stephan-bauer</t>
+  </si>
+  <si>
+    <t>Esche</t>
+  </si>
+  <si>
+    <t>Kaichang Zhou</t>
+  </si>
+  <si>
+    <t>kaichang.zhou@huiyelaw.com</t>
+  </si>
+  <si>
+    <t>862152897608</t>
+  </si>
+  <si>
+    <t>https://www.huiyelaw.com/zyry-16.html</t>
+  </si>
+  <si>
+    <t>Yahal Baumel</t>
+  </si>
+  <si>
+    <t>yahal@arnontl.com</t>
+  </si>
+  <si>
+    <t>972747886161</t>
+  </si>
+  <si>
+    <t>https://arnontl.com/team/yahal-baumel/</t>
+  </si>
+  <si>
+    <t>Aron Tadmor Levy</t>
+  </si>
+  <si>
+    <t>Randy Bassi</t>
+  </si>
+  <si>
+    <t>rbassi@cassels.com</t>
+  </si>
+  <si>
+    <t>7783726793</t>
+  </si>
+  <si>
+    <t>https://cassels.com/our_team/randy-bassi/</t>
+  </si>
+  <si>
+    <t>Ahmed Al Barwani</t>
+  </si>
+  <si>
+    <t>a.albarwani@tamimi.com</t>
+  </si>
+  <si>
+    <t>918040160000</t>
+  </si>
+  <si>
+    <t>https://www.tamimi.com/find-a-lawyer/ahmed-al-barwani/</t>
+  </si>
+  <si>
+    <t>Al Tamimi</t>
+  </si>
+  <si>
+    <t>Chunzi Wang</t>
+  </si>
+  <si>
+    <t>chunzi.wang@hankunlaw.com</t>
+  </si>
+  <si>
+    <t>862160800224</t>
+  </si>
+  <si>
+    <t>https://www.hankunlaw.com/en/portal/article/index/cid/2/id/12332.html</t>
+  </si>
+  <si>
+    <t>Hakun Law</t>
+  </si>
+  <si>
+    <t>Michael Beck</t>
+  </si>
+  <si>
+    <t>michael.beck@walkersglobal.com</t>
+  </si>
+  <si>
+    <t>13459144248</t>
+  </si>
+  <si>
+    <t>https://www.walkersglobal.com/en/People/b/Beck-Michael</t>
+  </si>
+  <si>
+    <t>Walkers</t>
+  </si>
+  <si>
+    <t>Joshua Bradbury</t>
+  </si>
+  <si>
+    <t>joshua.bradbury@walkersglobal.com</t>
+  </si>
+  <si>
+    <t>14412421563</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>https://www.walkersglobal.com/en/People/b/Bradbury-Joshua</t>
+  </si>
+  <si>
+    <t>Danielle Brouard</t>
+  </si>
+  <si>
+    <t>danielle.brouard@walkersglobal.com</t>
+  </si>
+  <si>
+    <t>4401481748913</t>
+  </si>
+  <si>
+    <t>Guernsey</t>
+  </si>
+  <si>
+    <t>https://www.walkersglobal.com/en/People/b/Brouard-Danielle</t>
+  </si>
+  <si>
+    <t>Kevin Ackhurst</t>
+  </si>
+  <si>
+    <t>sabraham@stikeman.com</t>
+  </si>
+  <si>
+    <t>https://stikeman.com/en-ca/people/a/kevin-ackhurst</t>
+  </si>
+  <si>
+    <t>Stikeman Elliott</t>
+  </si>
+  <si>
+    <t>Agnieszka Gul-czajkowska</t>
+  </si>
+  <si>
+    <t>ag.gul-czajkowska@schoenherr.eu</t>
+  </si>
+  <si>
+    <t>48222230920</t>
+  </si>
+  <si>
+    <t>https://www.schoenherr.eu/people/detail/agnieszka-gul-czajkowska</t>
+  </si>
+  <si>
+    <t>Schoenherr</t>
+  </si>
+  <si>
+    <t>Dominik Hofmarcher</t>
+  </si>
+  <si>
+    <t>d.hofmarcher@schoenherr.eu</t>
+  </si>
+  <si>
+    <t>43664800603279</t>
+  </si>
+  <si>
+    <t>https://www.schoenherr.eu/people/detail/dominik-hofmarcher</t>
+  </si>
+  <si>
+    <t>Elizaveta Bazarova</t>
+  </si>
+  <si>
+    <t>elizaveta.bazarova@whitecase.com</t>
+  </si>
+  <si>
+    <t>442075321346</t>
+  </si>
+  <si>
+    <t>https://www.whitecase.com/people/elizaveta-bazarova</t>
+  </si>
+  <si>
+    <t>White And Case</t>
+  </si>
+  <si>
+    <t>Abdulmajeed Abolaji</t>
+  </si>
+  <si>
+    <t>abdulmajeed.abolaji@dentons.com</t>
+  </si>
+  <si>
+    <t>23402012797030</t>
+  </si>
+  <si>
+    <t>https://www.dentonsacaslaw.com/en/abdulmajeed-abolaji</t>
+  </si>
+  <si>
+    <t>Dentons</t>
+  </si>
+  <si>
+    <t>Alex Petrenko</t>
+  </si>
+  <si>
+    <t>apetrenko@cwilson.com</t>
+  </si>
+  <si>
+    <t>6046433179</t>
+  </si>
+  <si>
+    <t>https://www.cwilson.com/people/alex-petrenko/</t>
+  </si>
+  <si>
+    <t>Clark Wilson</t>
+  </si>
+  <si>
+    <t>adenike oyeledun *****</t>
+  </si>
+  <si>
+    <t>adenike.oyeledun@templars-law.com</t>
+  </si>
+  <si>
+    <t>23414611290</t>
+  </si>
+  <si>
+    <t>https://www.templars-law.com/our-people/adenike-oyeledun/</t>
+  </si>
+  <si>
+    <t>TEMPLARS</t>
+  </si>
+  <si>
+    <t>Ding Ling</t>
+  </si>
+  <si>
+    <t>ling.ding@tahota.com</t>
+  </si>
+  <si>
+    <t>862886625656</t>
+  </si>
+  <si>
+    <t>https://www.tahota.com/EN/05/3fcd1d30259d4a5b.aspx</t>
+  </si>
+  <si>
+    <t>Tahota Law</t>
+  </si>
+  <si>
+    <t>Sorin Vlădescu</t>
+  </si>
+  <si>
+    <t>sorin.vladescu@tuca.ro</t>
+  </si>
+  <si>
+    <t>40212048890</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>https://www.tuca.ro/attorneys/sorin-vladescu</t>
+  </si>
+  <si>
+    <t>Tuca Zbarcea</t>
+  </si>
+  <si>
+    <t>Anas Al-tarawneh</t>
+  </si>
+  <si>
+    <t>anas.altarawneh@hfw.com</t>
+  </si>
+  <si>
+    <t>97144230556</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>https://www.hfw.com/people/anas-al-tarawneh/</t>
+  </si>
+  <si>
+    <t>HFW</t>
+  </si>
+  <si>
+    <t>Sammy Beedan Registered Foreign Lawyer</t>
+  </si>
+  <si>
+    <t>sammy.beedan@hfw.com</t>
+  </si>
+  <si>
+    <t>85239837707</t>
+  </si>
+  <si>
+    <t>https://www.hfw.com/people/sammy-beedan/</t>
+  </si>
+  <si>
+    <t>Maria Aholainen</t>
+  </si>
+  <si>
+    <t>maria.aholainen@hannessnellman.com</t>
+  </si>
+  <si>
+    <t>358407755010</t>
+  </si>
+  <si>
+    <t>https://www.hannessnellman.com/people/maria-aholainen/</t>
+  </si>
+  <si>
+    <t>Hannes Snellman</t>
+  </si>
+  <si>
+    <t>Bhieman Anandakumar</t>
+  </si>
+  <si>
+    <t>bhieman.anandakumar@hilldickinson.com</t>
+  </si>
+  <si>
+    <t>282652965764740</t>
+  </si>
+  <si>
+    <t>https://www.hilldickinson.com/people/bhieman-anandakumar</t>
+  </si>
+  <si>
+    <t>Hill Dickinson</t>
+  </si>
+  <si>
+    <t>Mark Aspinall</t>
+  </si>
+  <si>
+    <t>mark.aspinall@hilldickinson.com</t>
+  </si>
+  <si>
+    <t>244280292072809373</t>
+  </si>
+  <si>
+    <t>london  city</t>
+  </si>
+  <si>
+    <t>https://www.hilldickinson.com/people/mark-aspinall</t>
+  </si>
+  <si>
+    <t>Hon John R Baird P C</t>
+  </si>
+  <si>
+    <t>bairdj@bennettjones.com</t>
+  </si>
+  <si>
+    <t>4167775767</t>
+  </si>
+  <si>
+    <t>https://www.bennettjones.com/People/B/Baird-John</t>
+  </si>
+  <si>
+    <t>Advisor</t>
+  </si>
+  <si>
+    <t>Bennett Jones</t>
+  </si>
+  <si>
+    <t>Feargal Brennan</t>
+  </si>
+  <si>
+    <t>managingpartner@byrnewallaceshields.com</t>
+  </si>
+  <si>
+    <t>35316915276</t>
+  </si>
+  <si>
+    <t>Capital Markets - Equity Capital</t>
+  </si>
+  <si>
+    <t>https://byrnewallaceshields.com/about-us/our-team/feargal-brennan.html</t>
+  </si>
+  <si>
+    <t>Byrne Wallace</t>
+  </si>
+  <si>
+    <t>Josephine Ong</t>
+  </si>
+  <si>
+    <t>josephine_ong@ramdwong.com.sg</t>
+  </si>
+  <si>
+    <t>6563249117</t>
+  </si>
+  <si>
+    <t>https://www.ramdwong.com.sg/#lawyersprofile</t>
+  </si>
+  <si>
+    <t>Ramdas And Wong</t>
+  </si>
+  <si>
+    <t>Lucinda Frantz</t>
+  </si>
+  <si>
+    <t>frantz@bhf.com.au</t>
+  </si>
+  <si>
+    <t>61292663403</t>
+  </si>
+  <si>
+    <t>https://www.bhf.com.au/people/lucinda-frantz</t>
+  </si>
+  <si>
+    <t>Banki Haddock Fiora</t>
+  </si>
+  <si>
+    <t>Ieva Dosinaitė</t>
+  </si>
+  <si>
+    <t>ieva.dosinaite@ellex.legal</t>
+  </si>
+  <si>
+    <t>37065239002</t>
+  </si>
+  <si>
+    <t>Blockchain and Digital Assets</t>
+  </si>
+  <si>
+    <t>https://ellex.legal/expert/ieva-dosinaite/</t>
+  </si>
+  <si>
+    <t>Ellex</t>
+  </si>
+  <si>
+    <t>Anne Sophie Kierkegaard Vilsbøll</t>
+  </si>
+  <si>
+    <t>akv@horten.dk</t>
+  </si>
+  <si>
+    <t>4533344385</t>
+  </si>
+  <si>
+    <t>https://en.horten.dk/people/anne-sophie-kierkegaard-vilsboell</t>
+  </si>
+  <si>
+    <t>Cathy Russo</t>
+  </si>
+  <si>
+    <t>cathy.russo@mk.com.au</t>
+  </si>
+  <si>
+    <t>61732350403</t>
+  </si>
+  <si>
+    <t>https://mk.com.au/people/cathy-russo/</t>
+  </si>
+  <si>
+    <t>Managing Principal</t>
+  </si>
+  <si>
+    <t>Macpherson Kelley</t>
+  </si>
+  <si>
+    <t>Chengen Duan</t>
+  </si>
+  <si>
+    <t>chengenduan@zhongziip.com</t>
+  </si>
+  <si>
+    <t>1066256516</t>
+  </si>
+  <si>
+    <t>https://www.zhongzi.com.cn/EN/04-10477.aspx</t>
+  </si>
+  <si>
+    <t>Zhongzi Law</t>
+  </si>
+  <si>
+    <t>Stephen J Melvin</t>
+  </si>
+  <si>
+    <t>smelvin@higgsjohnson.com</t>
+  </si>
+  <si>
+    <t>2423761459</t>
+  </si>
+  <si>
+    <t>https://higgsjohnson.com/person/stephen-j-melvin/</t>
+  </si>
+  <si>
+    <t>Zhu Liting</t>
+  </si>
+  <si>
+    <t>email：zhuliting@grandwaylaw.com</t>
+  </si>
+  <si>
+    <t>862123122000862123122100</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>https://www.grandwaylaw.com/en/zhuanyetuandui/743.html</t>
+  </si>
+  <si>
+    <t>GrandwayLaw</t>
+  </si>
+  <si>
+    <t>Tim Clark</t>
+  </si>
+  <si>
+    <t>tim.clark@blandy.co.uk</t>
+  </si>
+  <si>
+    <t>1189516825</t>
+  </si>
+  <si>
+    <t>Employment</t>
+  </si>
+  <si>
+    <t>https://www.blandy.co.uk/about/find-a-solicitor/tim-clark</t>
+  </si>
+  <si>
+    <t>Blandy And Blandy</t>
+  </si>
+  <si>
+    <t>Gilberto Comi</t>
+  </si>
+  <si>
+    <t>gcomi@carnelutti.com</t>
+  </si>
+  <si>
+    <t>390265585259</t>
+  </si>
+  <si>
+    <t>https://www.carnelutti.com/people/comi-gilberto/</t>
+  </si>
+  <si>
+    <t>Carnelutti Law</t>
+  </si>
+  <si>
+    <t>Rim Khirddine</t>
+  </si>
+  <si>
+    <t>rkhirddine@winston.com</t>
+  </si>
+  <si>
+    <t>33153648126</t>
+  </si>
+  <si>
+    <t>https://www.winston.com/en/professionals/khirddine-rim</t>
+  </si>
+  <si>
+    <t>Winston And Strawn</t>
+  </si>
+  <si>
+    <t>Tahir Bashir</t>
+  </si>
+  <si>
+    <t>tahir.bashir@spencer-west.com</t>
+  </si>
+  <si>
+    <t>442079258080</t>
+  </si>
+  <si>
+    <t>England, Scotland, the Channel Islands</t>
+  </si>
+  <si>
+    <t>Commercial Litigation &amp; Dispute Resolution</t>
+  </si>
+  <si>
+    <t>https://www.spencer-west.com/team/tahir-bashir/</t>
+  </si>
+  <si>
+    <t>Spencer West</t>
+  </si>
+  <si>
+    <t>Anne-marie Hamer</t>
+  </si>
+  <si>
+    <t>anne-marie.hamer@spencer-west.com</t>
+  </si>
+  <si>
+    <t>------</t>
+  </si>
+  <si>
+    <t>https://www.spencer-west.com/team/anne-marie-hamer/</t>
+  </si>
+  <si>
+    <t>Andrew Childs Finance</t>
+  </si>
+  <si>
+    <t>andrew.childs@sherrards.com</t>
+  </si>
+  <si>
+    <t>441727738985</t>
+  </si>
+  <si>
+    <t>https://sherrards.com/people/andrew-childs/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sherrards  </t>
+  </si>
+  <si>
+    <t>Bernd Dankowski</t>
+  </si>
+  <si>
+    <t>b.dankowski@npp.de</t>
+  </si>
+  <si>
+    <t>4904033446557</t>
+  </si>
+  <si>
+    <t>Business graduate</t>
+  </si>
+  <si>
+    <t>https://npp.de/ceemes/en/personen/geschaeftsfuehrung.html</t>
+  </si>
+  <si>
+    <t>NPP Legal</t>
+  </si>
+  <si>
+    <t>Maiju Airisniemi</t>
+  </si>
+  <si>
+    <t>maiju.airisniemi@roschier.com</t>
+  </si>
+  <si>
+    <t>358205066740</t>
+  </si>
+  <si>
+    <t>https://www.roschier.com/people/maiju-airisniemi</t>
+  </si>
+  <si>
+    <t>Roschier</t>
+  </si>
+  <si>
+    <t>Diana Barnea</t>
+  </si>
+  <si>
+    <t>dianap@gornitzky.com</t>
+  </si>
+  <si>
+    <t>https://www.gornitzky.com/attorneys/diana-barnea/</t>
+  </si>
+  <si>
+    <t>Charles Kaplan</t>
+  </si>
+  <si>
+    <t>ckaplan@asafoandco.com</t>
+  </si>
+  <si>
+    <t>Energy &amp;amp; Power | Infrastructure, Transportation &amp;amp; Logistics | Mining</t>
+  </si>
+  <si>
+    <t>https://www.asafoandco.com/people/charles-kaplan/</t>
+  </si>
+  <si>
+    <t>Asafo And Co</t>
+  </si>
+  <si>
+    <t>Ferdinand Billy Kongere</t>
+  </si>
+  <si>
+    <t>bkongere@mmcasafo.com</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Dispute Resolution &amp;amp; International Arbitration | Labour &amp;amp; Employment</t>
+  </si>
+  <si>
+    <t>https://www.asafoandco.com/people/ferdinand-billy-kongere/</t>
+  </si>
+  <si>
+    <t>Cristina Cecere</t>
+  </si>
+  <si>
+    <t>cristina.cecere@dwft.au</t>
+  </si>
+  <si>
+    <t>61881241915</t>
+  </si>
+  <si>
+    <t>https://www.dwfoxtucker.com.au/our-people/cristina-cecere</t>
+  </si>
+  <si>
+    <t>DW Fox Tucker</t>
+  </si>
+  <si>
+    <t>Lene Lausen</t>
+  </si>
+  <si>
+    <t>lel@clemenslaw.com</t>
+  </si>
+  <si>
+    <t>4520435313</t>
+  </si>
+  <si>
+    <t>https://clemenslaw.dk/en/medarbejdere/lene-lausen/</t>
+  </si>
+  <si>
+    <t>Clemens Law</t>
+  </si>
+  <si>
+    <t>Mihai Coada</t>
+  </si>
+  <si>
+    <t>mihai.coada@wolftheiss.com</t>
+  </si>
+  <si>
+    <t>40213088136</t>
+  </si>
+  <si>
+    <t>https://www.wolftheiss.com/lawyer/mihai-coada/</t>
+  </si>
+  <si>
+    <t>Wolf Theiss</t>
+  </si>
+  <si>
+    <t>Timea Csajagi</t>
+  </si>
+  <si>
+    <t>timea.csajagi@wolftheiss.com</t>
+  </si>
+  <si>
+    <t>3614848800</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>https://www.wolftheiss.com/lawyer/timea-csajagi/</t>
+  </si>
+  <si>
+    <t>Pauline Tam Po Lin</t>
+  </si>
+  <si>
+    <t>pauline@hyleung.com</t>
+  </si>
+  <si>
+    <t>85235654945</t>
+  </si>
+  <si>
+    <t>https://hyleung.com/team-members/pauline-tam/</t>
+  </si>
+  <si>
+    <t>HY Leung And Co</t>
+  </si>
+  <si>
+    <t>Ashley Hamp-gonsalves</t>
+  </si>
+  <si>
+    <t>ahampgonsalves@bwbllp.ca</t>
+  </si>
+  <si>
+    <t>9024288344</t>
+  </si>
+  <si>
+    <t>https://bwbllp.ca/lawyer/ashley-hamp-gonsalves</t>
+  </si>
+  <si>
+    <t>BWB LLP</t>
+  </si>
+  <si>
+    <t>Mikkel Kleis</t>
+  </si>
+  <si>
+    <t>mkl@patrade-legal.dk</t>
+  </si>
+  <si>
+    <t>4589309727</t>
+  </si>
+  <si>
+    <t>https://www.patrade.com/contact/mikkel-kleis</t>
+  </si>
+  <si>
+    <t>Arnesen IP</t>
+  </si>
+  <si>
+    <t>Guillermo Moreno M</t>
+  </si>
+  <si>
+    <t>gmoreno@s-s.mx</t>
+  </si>
+  <si>
+    <t>525552795400</t>
+  </si>
+  <si>
+    <t>https://www.santamarinasteta.mx/en/equipo-sys/guillermo-moreno-m/</t>
+  </si>
+  <si>
+    <t>Santamarina And Steta</t>
+  </si>
+  <si>
+    <t>Monique Adams</t>
+  </si>
+  <si>
+    <t>monique.adams@ogier.com</t>
+  </si>
+  <si>
+    <t>12848527400</t>
+  </si>
+  <si>
+    <t>the British Virgin Islands</t>
+  </si>
+  <si>
+    <t>Corporate and Fiduciary</t>
+  </si>
+  <si>
+    <t>https://www.ogier.com/people/monique-adams/</t>
+  </si>
+  <si>
+    <t>Ogier</t>
+  </si>
+  <si>
+    <t>Hélène Arvis</t>
+  </si>
+  <si>
+    <t>helene.arvis@ogier.com</t>
+  </si>
+  <si>
+    <t>35227122059</t>
+  </si>
+  <si>
+    <t>https://www.ogier.com/people/helene-arvis/</t>
+  </si>
+  <si>
+    <t>Monika Drobnicki</t>
+  </si>
+  <si>
+    <t>mdrobnicki@dalelessmann.com</t>
+  </si>
+  <si>
+    <t>4163697808</t>
+  </si>
+  <si>
+    <t>https://www.dalelessmann.com/monika-drobnicki/</t>
+  </si>
+  <si>
+    <t>Dale And Lessmann</t>
+  </si>
+  <si>
+    <t>John Alkalak</t>
+  </si>
+  <si>
+    <t>johna@ebnlaw.co.il</t>
+  </si>
+  <si>
+    <t>97237770160</t>
+  </si>
+  <si>
+    <t>https://www.ebnlaw.co.il/team-members/john-alkalak/</t>
+  </si>
+  <si>
+    <t>EBN</t>
+  </si>
+  <si>
+    <t>Yusuke Saito</t>
+  </si>
+  <si>
+    <t>yusuke.saito@bkl.co.kr</t>
+  </si>
+  <si>
+    <t>82234047593</t>
+  </si>
+  <si>
+    <t>https://www.bkl.co.kr/law/member/memberView.do?lang=en&amp;memberNo=508&amp;logFunction=goView</t>
+  </si>
+  <si>
+    <t>Bae Kim And Lee</t>
+  </si>
+  <si>
+    <t>Geoff Adair</t>
+  </si>
+  <si>
+    <t>geoff.adair@blakes.com</t>
+  </si>
+  <si>
+    <t>14032609601</t>
+  </si>
+  <si>
+    <t>https://www.blakes.com/people/find-a-person/geoff-adair/</t>
+  </si>
+  <si>
+    <t>Ellyn Ai</t>
+  </si>
+  <si>
+    <t>ellyn.ai@fangdalaw.com</t>
+  </si>
+  <si>
+    <t>8613126883192</t>
+  </si>
+  <si>
+    <t>https://www.fangdalaw.com/people/ellyn-ai/</t>
+  </si>
+  <si>
+    <t>Fangda Partners</t>
+  </si>
+  <si>
+    <t>Werner Eyskens</t>
+  </si>
+  <si>
+    <t>weyskens@crowell.com</t>
+  </si>
+  <si>
+    <t>2322214287020</t>
+  </si>
+  <si>
+    <t>International Dispute Resolution</t>
+  </si>
+  <si>
+    <t>https://www.crowell.com/en/professionals/werner-eyskens</t>
+  </si>
+  <si>
+    <t>Crowell And Moring</t>
+  </si>
+  <si>
+    <t>Christiin Sangvik‑jebsen</t>
+  </si>
+  <si>
+    <t>csj@acapo-onsagers.no</t>
+  </si>
+  <si>
+    <t>472024200020372046</t>
+  </si>
+  <si>
+    <t>https://www.acapo-onsagers.com/en/about-us/our-consultants/christiin-sangvik-jebsen</t>
+  </si>
+  <si>
+    <t>Onsagers</t>
+  </si>
+  <si>
+    <t>Fatma Muça</t>
+  </si>
+  <si>
+    <t>fatmamuca@lawfirmhh.com</t>
+  </si>
+  <si>
+    <t>35542280171</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>https://lawfirmhh.com/av-fatma-muca/</t>
+  </si>
+  <si>
+    <t>Haxhia &amp; Hajdari</t>
+  </si>
+  <si>
+    <t>Milena Varga</t>
+  </si>
+  <si>
+    <t>milena.varga@contrast.law</t>
+  </si>
+  <si>
+    <t>32022750075</t>
+  </si>
+  <si>
+    <t>https://www.contrast.law/en/team/milena-varga/</t>
+  </si>
+  <si>
+    <t>Contrast</t>
+  </si>
+  <si>
+    <t>Davorin Marinković</t>
+  </si>
+  <si>
+    <t>davorin.marinkovic@dimitrijevicpartners.com</t>
+  </si>
+  <si>
+    <t>38751962600</t>
+  </si>
+  <si>
+    <t>Bosnia &amp; Herzegovina</t>
+  </si>
+  <si>
+    <t>https://dimitrijevicpartners.com/team/</t>
+  </si>
+  <si>
+    <t>Dimitrijević and Partners</t>
+  </si>
+  <si>
+    <t>Cristiano Diogo De Faria</t>
+  </si>
+  <si>
+    <t>cfaria@lacazmartins.com.br</t>
+  </si>
+  <si>
+    <t>551138970178</t>
+  </si>
+  <si>
+    <t>https://www.lacazmartins.com.br/en/equipe/cristiano-diogo-de-faria/</t>
+  </si>
+  <si>
+    <t>Lacaz Martins, Pereira Neto, GurevichAndSchoueri</t>
+  </si>
+  <si>
+    <t>Daniel Pinheiro Pereira</t>
+  </si>
+  <si>
+    <t>dpp@lippert.com.br</t>
+  </si>
+  <si>
+    <t>5133022632</t>
+  </si>
+  <si>
+    <t>https://www.lippert.com.br/pt-br/equipe/daniel-pinheiro-pereira</t>
+  </si>
+  <si>
+    <t>Lippert</t>
+  </si>
+  <si>
+    <t>Aline Nunes</t>
+  </si>
+  <si>
+    <t>aline.nunes@maneira.adv.br</t>
+  </si>
+  <si>
+    <t>552122229008</t>
+  </si>
+  <si>
+    <t>https://www.maneira.adv.br/equipe/aline-nunes/</t>
+  </si>
+  <si>
+    <t>Maneira</t>
+  </si>
+  <si>
+    <t>Luciano Guimarães Da Silveira</t>
+  </si>
+  <si>
+    <t>luciano@mange.adv.br</t>
+  </si>
+  <si>
+    <t>31062062</t>
+  </si>
+  <si>
+    <t>Corporate Recovery</t>
+  </si>
+  <si>
+    <t>https://www.mange.adv.br/equipe</t>
+  </si>
+  <si>
+    <t>Mange</t>
+  </si>
+  <si>
+    <t>Fernanda Burle</t>
+  </si>
+  <si>
+    <t>burle@mjab.adv.br</t>
+  </si>
+  <si>
+    <t>556137718000</t>
+  </si>
+  <si>
+    <t>International</t>
+  </si>
+  <si>
+    <t>https://mjab.adv.br/en/equipe/integrantes/fernanda-burle-5/</t>
+  </si>
+  <si>
+    <t>MJ Alves Burle e Viana Advogados</t>
+  </si>
+  <si>
+    <t>Luanna Perdiz De Jesus</t>
+  </si>
+  <si>
+    <t>luanna@perdiz.adv.br</t>
+  </si>
+  <si>
+    <t>556132272010</t>
+  </si>
+  <si>
+    <t>https://perdiz.adv.br/language/en/lawyer/</t>
+  </si>
+  <si>
+    <t>Perdiz de Jesus Advogados Associados</t>
+  </si>
+  <si>
+    <t>Eduardo Soto</t>
+  </si>
+  <si>
+    <t>esoto@sotofrugis.com.br</t>
+  </si>
+  <si>
+    <t>551155555230</t>
+  </si>
+  <si>
+    <t>https://sotofrugis.com.br/en/cv_soto_en/</t>
+  </si>
+  <si>
+    <t>Soto Frugis</t>
+  </si>
+  <si>
+    <t>Joel Luís Thomaz Bastos</t>
+  </si>
+  <si>
+    <t>joel@twk.com.br</t>
+  </si>
+  <si>
+    <t>551135525002</t>
+  </si>
+  <si>
+    <t>Debt Restructuring</t>
+  </si>
+  <si>
+    <t>https://twk.bpsinternet.com.br/en/professionals/#</t>
+  </si>
+  <si>
+    <t>TWK</t>
+  </si>
+  <si>
+    <t>Rossitsa Voutcheva</t>
+  </si>
+  <si>
+    <t>rossitsa.voutcheva@ivlawfirm.com</t>
+  </si>
+  <si>
+    <t>35929814953</t>
+  </si>
+  <si>
+    <t>https://ivlawfirm.com/en/team/rossitsa-voutcheva/</t>
+  </si>
+  <si>
+    <t>Ilieva VoutchevaAndCo</t>
+  </si>
+  <si>
+    <t>Tommy Nkongho Agbor</t>
+  </si>
+  <si>
+    <t>nkongho.agbor@kouengouambattang.com</t>
+  </si>
+  <si>
+    <t>237694744216</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Cross Border Commercial</t>
+  </si>
+  <si>
+    <t>https://kmnlaw.cm/lawyers/agbor_nkongho</t>
+  </si>
+  <si>
+    <t>Kouengoua and Mbattang Law</t>
+  </si>
+  <si>
+    <t>Maureen Littlejohn</t>
+  </si>
+  <si>
+    <t>mlittlejohn@dwpv.com</t>
+  </si>
+  <si>
+    <t>4163676916</t>
+  </si>
+  <si>
+    <t>https://www.dwpv.com/our-people/maureen-littlejohn</t>
+  </si>
+  <si>
+    <t>DWPV</t>
+  </si>
+  <si>
+    <t>Alberto Dalgalarrando B</t>
+  </si>
+  <si>
+    <t>adalgalarrando@dryc.cl</t>
+  </si>
+  <si>
+    <t>56223830000</t>
+  </si>
+  <si>
+    <t>https://dryc.cl/en/abogados/alberto-dalgalarrando-b/</t>
+  </si>
+  <si>
+    <t>Dalgalarrando &amp; Cía</t>
+  </si>
+  <si>
+    <t>Ana Novaković Stipaničev</t>
+  </si>
+  <si>
+    <t>ana.novakovic@kps-law.com</t>
+  </si>
+  <si>
+    <t>38515576575</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>https://kps-law.com/en/team/</t>
+  </si>
+  <si>
+    <t>Kovačević Prpić Simeunović</t>
+  </si>
+  <si>
+    <t>Charlotte Vinding Christensen</t>
+  </si>
+  <si>
+    <t>cvc@elverdam.dk</t>
+  </si>
+  <si>
+    <t>4520279032</t>
+  </si>
+  <si>
+    <t>https://elverdam.com/professionals/cvc.html</t>
+  </si>
+  <si>
+    <t>Elverdam</t>
+  </si>
+  <si>
+    <t>Xavier Castro Muñoz</t>
+  </si>
+  <si>
+    <t>xcastro@lex.ec</t>
+  </si>
+  <si>
+    <t>59342681020</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>https://consulegisabogados.com/en/xavier-castro-munoz-en/</t>
+  </si>
+  <si>
+    <t>Consulegis</t>
+  </si>
+  <si>
+    <t>Sara Hinton</t>
+  </si>
+  <si>
+    <t>sara.hinton@ibrachy.com</t>
+  </si>
+  <si>
+    <t>20233381099</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>https://www.ibrachy.com/?page_id=895</t>
+  </si>
+  <si>
+    <t>Senior Partner</t>
+  </si>
+  <si>
+    <t>I&amp;P</t>
+  </si>
+  <si>
+    <t>Ahmed Elbastawissy</t>
+  </si>
+  <si>
+    <t>aelbastawissy@mkhodeir.com</t>
+  </si>
+  <si>
+    <t>20225272629</t>
+  </si>
+  <si>
+    <t>https://mkhodeir.com/partners.html</t>
+  </si>
+  <si>
+    <t>Khodeir &amp; Partners</t>
+  </si>
+  <si>
+    <t>Mario Ernesto Ayala</t>
+  </si>
+  <si>
+    <t>alejandro.faillace@lexatlas.com</t>
+  </si>
+  <si>
+    <t>50322636712</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>https://lexatlas.com/en/mario-ernesto-ayala-en/</t>
+  </si>
+  <si>
+    <t>Lex Atlas</t>
+  </si>
+  <si>
+    <t>Thomas De Leeuwe</t>
+  </si>
+  <si>
+    <t>t.deleeuwe@habrakenrutten.com</t>
+  </si>
+  <si>
+    <t>310650291435</t>
+  </si>
+  <si>
+    <t>https://www.habrakenrutten.com/team/thomas-de-leeuwe</t>
+  </si>
+  <si>
+    <t>Habraken Rutten</t>
+  </si>
+  <si>
+    <t>Christina Griebeler</t>
+  </si>
+  <si>
+    <t>christina.griebeler@kallan-legal.de</t>
+  </si>
+  <si>
+    <t>496997401239</t>
+  </si>
+  <si>
+    <t>https://www.kallan-legal.de/en/ansprechpartner/griebeler_christina.php</t>
+  </si>
+  <si>
+    <t>Kallan</t>
+  </si>
+  <si>
+    <t>Gerassimos Apergis</t>
+  </si>
+  <si>
+    <t>mfa@dryllerakis.gr</t>
+  </si>
+  <si>
+    <t>302110003456</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>https://www.dryllerakis.gr/our-people/gerassimos-apergis/</t>
+  </si>
+  <si>
+    <t>DRYLLERAKIS</t>
+  </si>
+  <si>
+    <t>Alejandro Solares Solares</t>
+  </si>
+  <si>
+    <t>alejandro.solares@lexatlas.com</t>
+  </si>
+  <si>
+    <t>50223171515</t>
+  </si>
+  <si>
+    <t>https://lexatlas.com/en/alejandro-solares-solares-en/</t>
+  </si>
+  <si>
+    <t>Balázs Várszeghi</t>
+  </si>
+  <si>
+    <t>balazs.varszeghi@erdospartners.com</t>
+  </si>
+  <si>
+    <t>36707084038</t>
+  </si>
+  <si>
+    <t>https://erdospartners.com/en/#varszegi_balazs</t>
+  </si>
+  <si>
+    <t>Erdős</t>
+  </si>
+  <si>
+    <t>Akshay Bhagchandani</t>
+  </si>
+  <si>
+    <t>akshay.bhagchandani@desaidiwanji.com</t>
+  </si>
+  <si>
+    <t>919873607591</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>https://www.desaidiwanji.com/partners-profile/Akshay-Bhagchandani</t>
+  </si>
+  <si>
+    <t>Desai &amp; Diwanji’s</t>
+  </si>
+  <si>
+    <t>Mark Felton</t>
+  </si>
+  <si>
+    <t>mark@amoryssolicitors.com</t>
+  </si>
+  <si>
+    <t>12874341</t>
+  </si>
+  <si>
+    <t>https://www.propertylawyers.ie/about-property-lawyers/mark-felton/?_gl=1*op1a6m*_up*MQ..&amp;gclid=Cj0KCQiAkoe9BhDYARIsAH85cDOfPd_SbZ89yyj_ti4_481rJbfRUKZvX_denuZ7jC72G38F8wMb9bIaAjRnEALw_wcB</t>
+  </si>
+  <si>
+    <t>Property Lawyers</t>
+  </si>
+  <si>
+    <t>Ella Gera</t>
+  </si>
+  <si>
+    <t>ella.gera@gottliebgera.com</t>
+  </si>
+  <si>
+    <t>97299744900</t>
+  </si>
+  <si>
+    <t>https://www.gottliebgera.com/attorneys/ella-gera/</t>
+  </si>
+  <si>
+    <t>Gottlieb Gera EngelAndCo</t>
+  </si>
+  <si>
+    <t>Carlo Montella</t>
+  </si>
+  <si>
+    <t>carlo.montella@greenhorseadvisory.com</t>
+  </si>
+  <si>
+    <t>390249576100</t>
+  </si>
+  <si>
+    <t>https://www.greenhorselegaladvisory.com/team/carlo-montella/</t>
+  </si>
+  <si>
+    <t>Green Horse Legal</t>
+  </si>
+  <si>
+    <t>Eric Gumbo</t>
+  </si>
+  <si>
+    <t>egumbo@gallp.co.ke</t>
+  </si>
+  <si>
+    <t>254204400509</t>
+  </si>
+  <si>
+    <t>https://gallp.co.ke/teams-pt/eric-gumbo/</t>
+  </si>
+  <si>
+    <t>G&amp;A Advocates</t>
+  </si>
+  <si>
+    <t>Young-hee Jo</t>
+  </si>
+  <si>
+    <t>e. yhjo@labpartners.co.kr</t>
+  </si>
+  <si>
+    <t>82269560270</t>
+  </si>
+  <si>
+    <t>https://labpartners.co.kr/en/2018/05/peoples/3535/</t>
+  </si>
+  <si>
+    <t>LAB Partners</t>
+  </si>
+  <si>
+    <t>Aisha Al Nesef</t>
+  </si>
+  <si>
+    <t>aisha.alnesef@icbkuwait.com.kw</t>
+  </si>
+  <si>
+    <t>96522205344</t>
+  </si>
+  <si>
+    <t>https://icbkuwait.com.kw/our-team</t>
+  </si>
+  <si>
+    <t>International Counsel Bureau</t>
+  </si>
+  <si>
+    <t>Rabeh F Matar</t>
+  </si>
+  <si>
+    <t>rabeh.matar@levantlp.com</t>
+  </si>
+  <si>
+    <t>9611360136</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>https://www.levantlp.com/team</t>
+  </si>
+  <si>
+    <t>Levant Law</t>
+  </si>
+  <si>
+    <t>Ella U Sio Wai</t>
+  </si>
+  <si>
+    <t>ella.u@joselupi.com</t>
+  </si>
+  <si>
+    <t>85328389184</t>
+  </si>
+  <si>
+    <t>Macau</t>
+  </si>
+  <si>
+    <t>https://joselupi.com/en/people/ella-u-sio-wai/</t>
+  </si>
+  <si>
+    <t>José LupiAndAssociates</t>
+  </si>
+  <si>
+    <t>Leong Wai Lun</t>
+  </si>
+  <si>
+    <t>wailun@foongpartners.com</t>
+  </si>
+  <si>
+    <t>60364190823</t>
+  </si>
+  <si>
+    <t>https://foongpartners.com/people-wailun.php</t>
+  </si>
+  <si>
+    <t>Foong &amp; Partners</t>
+  </si>
+  <si>
+    <t>Biljana Miloshevska</t>
+  </si>
+  <si>
+    <t>biljana@konstantinovic-milosevski.mk</t>
+  </si>
+  <si>
+    <t>389070252899</t>
+  </si>
+  <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
+    <t>https://konstantinovic-milosevski.mk/our-team/</t>
+  </si>
+  <si>
+    <t>Konstantinovic &amp; Milosevski</t>
+  </si>
+  <si>
+    <t>Ramon R Benedetti V</t>
+  </si>
+  <si>
+    <t>ramon@estudiobenedetti.com</t>
+  </si>
+  <si>
+    <t>5073215100</t>
+  </si>
+  <si>
+    <t>https://estudiobenedetti.com/en/our-team/</t>
+  </si>
+  <si>
+    <t>Estudio Benedetti</t>
+  </si>
+  <si>
+    <t>Kazimierz Jeleński</t>
+  </si>
+  <si>
+    <t>k.jelenski@djm.pl</t>
+  </si>
+  <si>
+    <t>48224360601</t>
+  </si>
+  <si>
+    <t>https://djm.pl/en/team/kazimierz-jelenski/</t>
+  </si>
+  <si>
+    <t>Dubiński Jeleński Masiarz i Wspólnicy</t>
+  </si>
+  <si>
+    <t>Michał Konieczny</t>
+  </si>
+  <si>
+    <t>michal.konieczny@kwkr.pl</t>
+  </si>
+  <si>
+    <t>48502326374</t>
+  </si>
+  <si>
+    <t>https://kwkr.pl/en/zespol/michal-konieczny-en/</t>
+  </si>
+  <si>
+    <t>KWKR Law</t>
+  </si>
+  <si>
+    <t>Nikola Rodic</t>
+  </si>
+  <si>
+    <t>nikola.rodic@ilaw.rs</t>
+  </si>
+  <si>
+    <t>381113622292</t>
+  </si>
+  <si>
+    <t>https://www.advokatskakancelarija.com/en/tim/</t>
+  </si>
+  <si>
+    <t>IsailovićAndPartners</t>
+  </si>
+  <si>
+    <t>Mia Kalas</t>
+  </si>
+  <si>
+    <t>mia.kalas@selih.si</t>
+  </si>
+  <si>
+    <t>38613007650</t>
+  </si>
+  <si>
+    <t>https://selih.si/en/</t>
+  </si>
+  <si>
+    <t>ŠelihAndPartnerji</t>
+  </si>
+  <si>
+    <t>Bertrand Betsy</t>
+  </si>
+  <si>
+    <t>bertrand.b@lexel.mg</t>
+  </si>
+  <si>
+    <t>2610202222942</t>
+  </si>
+  <si>
+    <t>Sotuh Africa</t>
+  </si>
+  <si>
+    <t>http://www.lexel.mg/en/#</t>
+  </si>
+  <si>
+    <t>Lexel</t>
+  </si>
+  <si>
+    <t>Javier Leyva Olarte</t>
+  </si>
+  <si>
+    <t>javier.leyva@lesayra.com</t>
+  </si>
+  <si>
+    <t>34609309249</t>
+  </si>
+  <si>
+    <t>https://lesayra.com/en/team</t>
+  </si>
+  <si>
+    <t>Lesayra</t>
+  </si>
+  <si>
+    <t>Ingela Sundelin</t>
+  </si>
+  <si>
+    <t>ingela.sundelin@hellstromlaw.com</t>
+  </si>
+  <si>
+    <t>460702315111</t>
+  </si>
+  <si>
+    <t>https://www.hellstromlaw.com/en/our-people/</t>
+  </si>
+  <si>
+    <t>Hellström</t>
+  </si>
+  <si>
+    <t>Roman Kramařík</t>
+  </si>
+  <si>
+    <t>roman.kramarik@jsk.cz</t>
+  </si>
+  <si>
+    <t>420226227612</t>
+  </si>
+  <si>
+    <t>the Czech Republic</t>
+  </si>
+  <si>
+    <t>https://www.jsk.cz/team/roman-kramarik</t>
+  </si>
+  <si>
+    <t>JŠK Advokátní</t>
+  </si>
+  <si>
+    <t>Jurian Snijders</t>
+  </si>
+  <si>
+    <t>j.snijders@fizadvocaten.nl</t>
+  </si>
+  <si>
+    <t>31646876792</t>
+  </si>
+  <si>
+    <t>https://fizadvocaten.nl/team/jurian-snijders/</t>
+  </si>
+  <si>
+    <t>FIZ advocaten</t>
+  </si>
+  <si>
+    <t>Rob Van Eldik</t>
+  </si>
+  <si>
+    <t>vaneldik@paltheoberman.nl</t>
+  </si>
+  <si>
+    <t>31203446100</t>
+  </si>
+  <si>
+    <t>https://paltheoberman.nl/en/rob-van-eldik/</t>
+  </si>
+  <si>
+    <t>Palthe Oberman</t>
+  </si>
+  <si>
+    <t>Nicholas Sinanan</t>
+  </si>
+  <si>
+    <t>nsinanan@jcscaribbeanlaw.com</t>
+  </si>
+  <si>
+    <t>18682254111</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>https://www.jcscaribbeanlaw.com/our-team/nicholas-sinanan/</t>
+  </si>
+  <si>
+    <t>JCS CARIBBEAN LAW</t>
+  </si>
+  <si>
+    <t>Onur Taktak</t>
+  </si>
+  <si>
+    <t>onur.taktak@ccaolaw.com</t>
+  </si>
+  <si>
+    <t>902123495000</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>https://ccaolaw.com/team-member/onur-taktak/</t>
+  </si>
+  <si>
+    <t>CCAO Law</t>
+  </si>
+  <si>
+    <t>Gürkan Erdebil</t>
+  </si>
+  <si>
+    <t>gurkan.erdebil@schindhelm.com</t>
+  </si>
+  <si>
+    <t>902122742020</t>
+  </si>
+  <si>
+    <t>https://tr.schindhelm.com/en/team/p/guerkan-erdebil-rechtsanwalt-istanbul</t>
+  </si>
+  <si>
+    <t>GEMS Schindhelm</t>
+  </si>
+  <si>
+    <t>Mustafa Doğan İnal</t>
+  </si>
+  <si>
+    <t>m.inal@lexist.com.tr</t>
+  </si>
+  <si>
+    <t>902122700004</t>
+  </si>
+  <si>
+    <t>https://www.lexist.com.tr/en/ex_team/mustafa-dogan-inal-2/</t>
+  </si>
+  <si>
+    <t>Lexist Law</t>
+  </si>
+  <si>
+    <t>Eda Beltan Deveau</t>
+  </si>
+  <si>
+    <t>eda.beltan@kecolegal.com</t>
+  </si>
+  <si>
+    <t>902122844190</t>
+  </si>
+  <si>
+    <t>https://www.kecolegal.com/en/our-people/eda-beltan-deveau</t>
+  </si>
+  <si>
+    <t>KECO Legal</t>
+  </si>
+  <si>
+    <t>Kudrat Egamberdiev</t>
+  </si>
+  <si>
+    <t>k.egamberdiev@digests.uz</t>
+  </si>
+  <si>
+    <t>998881008822</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>https://digests.uz/staff/kudrat-egamberdiev/</t>
+  </si>
+  <si>
+    <t>DIGESTS</t>
+  </si>
+  <si>
+    <t>Pham Quoc Tuan</t>
+  </si>
+  <si>
+    <t>tuan.pham@dimac-law.com</t>
+  </si>
+  <si>
+    <t>842838224860</t>
+  </si>
+  <si>
+    <t>https://dimac-law.com/luat-su/pham-quoc-tuan-249.html</t>
+  </si>
+  <si>
+    <t>DIMAC</t>
   </si>
 </sst>
 </file>

--- a/src/main/resources/baseFiles/excel/Sheet.xlsx
+++ b/src/main/resources/baseFiles/excel/Sheet.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5000" uniqueCount="2236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5010" uniqueCount="2241">
   <si>
     <t>Name</t>
   </si>
@@ -6735,6 +6735,21 @@
   </si>
   <si>
     <t>DIMAC</t>
+  </si>
+  <si>
+    <t>Abi Frederick</t>
+  </si>
+  <si>
+    <t>abi.frederick@lewissilkin.com</t>
+  </si>
+  <si>
+    <t>962854</t>
+  </si>
+  <si>
+    <t>https://www.lewissilkin.com/experts/abi-frederick</t>
+  </si>
+  <si>
+    <t>Lewiss Silkin</t>
   </si>
 </sst>
 </file>
@@ -7841,7 +7856,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:J3"/>
@@ -7893,6 +7908,38 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s" s="1">
+        <v>2236</v>
+      </c>
+      <c r="B2" t="s" s="1">
+        <v>2237</v>
+      </c>
+      <c r="C2" t="s" s="1">
+        <v>2238</v>
+      </c>
+      <c r="D2" t="s" s="1">
+        <v>113</v>
+      </c>
+      <c r="E2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F2" t="s" s="2">
+        <v>2239</v>
+      </c>
+      <c r="G2" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s" s="3">
+        <v>152</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>2240</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="+32 2 551 15 72" tooltip="https://liedekerke.com/en/lawyers/tel:+3225511572"/>

--- a/src/main/resources/baseFiles/excel/Sheet.xlsx
+++ b/src/main/resources/baseFiles/excel/Sheet.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5010" uniqueCount="2241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5030" uniqueCount="2251">
   <si>
     <t>Name</t>
   </si>
@@ -6750,6 +6750,36 @@
   </si>
   <si>
     <t>Lewiss Silkin</t>
+  </si>
+  <si>
+    <t>Dalia Abbate</t>
+  </si>
+  <si>
+    <t>dabbate@pglex.it</t>
+  </si>
+  <si>
+    <t>3920022030305</t>
+  </si>
+  <si>
+    <t>https://pglex.it/en/professionals/dalia-abbate/</t>
+  </si>
+  <si>
+    <t>Pedersoli</t>
+  </si>
+  <si>
+    <t>Anthony M C Alexander</t>
+  </si>
+  <si>
+    <t>aalexander@dwpv.com</t>
+  </si>
+  <si>
+    <t>4163676920</t>
+  </si>
+  <si>
+    <t>https://www.dwpv.com/our-people/anthony-alexander</t>
+  </si>
+  <si>
+    <t>Davies Ward Phillips And Vineberg</t>
   </si>
 </sst>
 </file>
@@ -7910,22 +7940,22 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="1">
-        <v>2236</v>
+        <v>2246</v>
       </c>
       <c r="B2" t="s" s="1">
-        <v>2237</v>
+        <v>2247</v>
       </c>
       <c r="C2" t="s" s="1">
-        <v>2238</v>
+        <v>2248</v>
       </c>
       <c r="D2" t="s" s="1">
-        <v>113</v>
+        <v>157</v>
       </c>
       <c r="E2" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>2239</v>
+        <v>2249</v>
       </c>
       <c r="G2" t="s" s="2">
         <v>16</v>
@@ -7934,10 +7964,10 @@
         <v>17</v>
       </c>
       <c r="I2" t="s" s="3">
-        <v>152</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>2240</v>
+        <v>2250</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/baseFiles/excel/Sheet.xlsx
+++ b/src/main/resources/baseFiles/excel/Sheet.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5030" uniqueCount="2251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5260" uniqueCount="2354">
   <si>
     <t>Name</t>
   </si>
@@ -6780,6 +6780,315 @@
   </si>
   <si>
     <t>Davies Ward Phillips And Vineberg</t>
+  </si>
+  <si>
+    <t>Mirva Arvola</t>
+  </si>
+  <si>
+    <t>mirva.arvola@dittmar.fi</t>
+  </si>
+  <si>
+    <t>358204020136203055</t>
+  </si>
+  <si>
+    <t>https://www.dittmar.fi/people/mirva-arvola/</t>
+  </si>
+  <si>
+    <t>Dittmar And Indrenius</t>
+  </si>
+  <si>
+    <t>Benjamin T Aberant</t>
+  </si>
+  <si>
+    <t>baberant@mccarthy.ca</t>
+  </si>
+  <si>
+    <t>1403260364114166018335</t>
+  </si>
+  <si>
+    <t>https://www.mccarthy.ca/en/people/benjamin-aberant</t>
+  </si>
+  <si>
+    <t>McCarthy Tetrault</t>
+  </si>
+  <si>
+    <t>Robert J Brant</t>
+  </si>
+  <si>
+    <t>rbrant@mccarthy.ca</t>
+  </si>
+  <si>
+    <t>14166018433447900218150</t>
+  </si>
+  <si>
+    <t>https://www.mccarthy.ca/en/people/robert-brant</t>
+  </si>
+  <si>
+    <t>Ben Duggan</t>
+  </si>
+  <si>
+    <t>ben.duggan@dwft.au</t>
+  </si>
+  <si>
+    <t>61881241881</t>
+  </si>
+  <si>
+    <t>https://www.dwfoxtucker.com.au/our-people/ben-duggan</t>
+  </si>
+  <si>
+    <t>Daniel Ajzensztejn</t>
+  </si>
+  <si>
+    <t>d.ajzensztejn@taylorwessing.com</t>
+  </si>
+  <si>
+    <t>4940368030</t>
+  </si>
+  <si>
+    <t>https://www.taylorwessing.com/en/people/germany/hamburg/daniel-ajzensztejn</t>
+  </si>
+  <si>
+    <t>Taylor Wessing</t>
+  </si>
+  <si>
+    <t>William Belcher</t>
+  </si>
+  <si>
+    <t>w.belcher@taylorwessing.com</t>
+  </si>
+  <si>
+    <t>442073004221</t>
+  </si>
+  <si>
+    <t>https://www.taylorwessing.com/en/people/united-kingdom/london/william-belcher</t>
+  </si>
+  <si>
+    <t>Michiel Boer</t>
+  </si>
+  <si>
+    <t>m.boer@taylorwessing.com</t>
+  </si>
+  <si>
+    <t>31880243264</t>
+  </si>
+  <si>
+    <t>https://www.taylorwessing.com/en/people/netherlands/amsterdam/michiel-boer</t>
+  </si>
+  <si>
+    <t>Torsten Braner Ll M</t>
+  </si>
+  <si>
+    <t>t.braner@taylorwessing.com</t>
+  </si>
+  <si>
+    <t>3613270407</t>
+  </si>
+  <si>
+    <t>https://www.taylorwessing.com/en/people/hungary/budapest/torsten-braner</t>
+  </si>
+  <si>
+    <t>Raimund Cancola</t>
+  </si>
+  <si>
+    <t>r.cancola@taylorwessing.com</t>
+  </si>
+  <si>
+    <t>431716550</t>
+  </si>
+  <si>
+    <t>https://www.taylorwessing.com/en/people/austria/vienna/raimund-cancola</t>
+  </si>
+  <si>
+    <t>Dr Jingjing Cao Ll M (muc)</t>
+  </si>
+  <si>
+    <t>j.cao@taylorwessing.com</t>
+  </si>
+  <si>
+    <t>862162477247</t>
+  </si>
+  <si>
+    <t>https://www.taylorwessing.com/en/people/china/shanghai/jingjing-cao</t>
+  </si>
+  <si>
+    <t>Roberto Alimonti</t>
+  </si>
+  <si>
+    <t>roberto.alimonti@oxera.com</t>
+  </si>
+  <si>
+    <t>390690258084</t>
+  </si>
+  <si>
+    <t>https://www.oxera.com/people/roberto-alimonti/</t>
+  </si>
+  <si>
+    <t>Dr Dorian Beauchêne</t>
+  </si>
+  <si>
+    <t>dorian.beauchene@oxera.com</t>
+  </si>
+  <si>
+    <t>330187165131</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>https://www.oxera.com/people/dr-dorian-beauchene/</t>
+  </si>
+  <si>
+    <t>Joseph Bell He/him</t>
+  </si>
+  <si>
+    <t>joseph.bell@oxera.com</t>
+  </si>
+  <si>
+    <t>Not Found</t>
+  </si>
+  <si>
+    <t>https://www.oxera.com/people/joseph-bell/</t>
+  </si>
+  <si>
+    <t>Robert Catherall He/him</t>
+  </si>
+  <si>
+    <t>robert.catherall@oxera.com</t>
+  </si>
+  <si>
+    <t>4402077766647</t>
+  </si>
+  <si>
+    <t>https://www.oxera.com/people/robert-catherall/</t>
+  </si>
+  <si>
+    <t>Stéphane Dewulf</t>
+  </si>
+  <si>
+    <t>stephane.dewulf@oxera.com</t>
+  </si>
+  <si>
+    <t>32027930713</t>
+  </si>
+  <si>
+    <t>https://www.oxera.com/people/stephane-dewulf/</t>
+  </si>
+  <si>
+    <t>Le Hong Minh</t>
+  </si>
+  <si>
+    <t>minh.le@spruson.com</t>
+  </si>
+  <si>
+    <t>6563337200</t>
+  </si>
+  <si>
+    <t>Patents: Engineering &amp; ICT, Designs</t>
+  </si>
+  <si>
+    <t>https://www.spruson.com/our-people/le-hong-minh/</t>
+  </si>
+  <si>
+    <t>Spruson And Ferguson</t>
+  </si>
+  <si>
+    <t>Marolita Setiati Anwar</t>
+  </si>
+  <si>
+    <t>marolita.anwar@spruson.com</t>
+  </si>
+  <si>
+    <t>62212523853</t>
+  </si>
+  <si>
+    <t>Patents: Engineering, Designs</t>
+  </si>
+  <si>
+    <t>https://www.spruson.com/our-people/marolita-setiati-anwar/</t>
+  </si>
+  <si>
+    <t>Andrew Davey</t>
+  </si>
+  <si>
+    <t>andrew.davey@spruson.com</t>
+  </si>
+  <si>
+    <t>61390670900</t>
+  </si>
+  <si>
+    <t>Patents | Engineering &amp; ICT</t>
+  </si>
+  <si>
+    <t>https://www.spruson.com/our-people/andrew-davey/</t>
+  </si>
+  <si>
+    <t>Charis Lam</t>
+  </si>
+  <si>
+    <t>charis.lam@spruson.com</t>
+  </si>
+  <si>
+    <t>85221619999</t>
+  </si>
+  <si>
+    <t>Trade Marks</t>
+  </si>
+  <si>
+    <t>https://www.spruson.com/our-people/charis-lam/</t>
+  </si>
+  <si>
+    <t>James Ballaam</t>
+  </si>
+  <si>
+    <t>james.ballaam@chattertons.com</t>
+  </si>
+  <si>
+    <t>1780750677</t>
+  </si>
+  <si>
+    <t>Commercial Property and Agriculture</t>
+  </si>
+  <si>
+    <t>https://www.chattertons.com/site/people/profile/james.ballaam</t>
+  </si>
+  <si>
+    <t>Chattertons</t>
+  </si>
+  <si>
+    <t>Rodrigo Carvalho</t>
+  </si>
+  <si>
+    <t>rcarvalho@winston.com</t>
+  </si>
+  <si>
+    <t>551134436316</t>
+  </si>
+  <si>
+    <t>https://www.winston.com/en/professionals/carvalho-rodrigo</t>
+  </si>
+  <si>
+    <t>Augustin Charoy</t>
+  </si>
+  <si>
+    <t>acharoy@winston.com</t>
+  </si>
+  <si>
+    <t>33153648341</t>
+  </si>
+  <si>
+    <t>https://www.winston.com/en/professionals/charoy-augustin</t>
+  </si>
+  <si>
+    <t>Kim Nielsen</t>
+  </si>
+  <si>
+    <t>kn@clemenslaw.com</t>
+  </si>
+  <si>
+    <t>4520254014</t>
+  </si>
+  <si>
+    <t>https://clemenslaw.dk/en/medarbejdere/kim-nielsen/</t>
   </si>
 </sst>
 </file>
@@ -7886,7 +8195,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:J3"/>
@@ -7940,22 +8249,22 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="1">
-        <v>2246</v>
+        <v>2336</v>
       </c>
       <c r="B2" t="s" s="1">
-        <v>2247</v>
+        <v>2337</v>
       </c>
       <c r="C2" t="s" s="1">
-        <v>2248</v>
+        <v>2338</v>
       </c>
       <c r="D2" t="s" s="1">
-        <v>157</v>
+        <v>113</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>38</v>
+        <v>2339</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>2249</v>
+        <v>2340</v>
       </c>
       <c r="G2" t="s" s="2">
         <v>16</v>
@@ -7967,7 +8276,103 @@
         <v>26</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>2250</v>
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="1">
+        <v>2342</v>
+      </c>
+      <c r="B3" t="s" s="1">
+        <v>2343</v>
+      </c>
+      <c r="C3" t="s" s="1">
+        <v>2344</v>
+      </c>
+      <c r="D3" t="s" s="1">
+        <v>420</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F3" t="s" s="2">
+        <v>2345</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="1">
+        <v>2346</v>
+      </c>
+      <c r="B4" t="s" s="1">
+        <v>2347</v>
+      </c>
+      <c r="C4" t="s" s="1">
+        <v>2348</v>
+      </c>
+      <c r="D4" t="s" s="1">
+        <v>107</v>
+      </c>
+      <c r="E4" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F4" t="s" s="2">
+        <v>2349</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s" s="3">
+        <v>1197</v>
+      </c>
+      <c r="J4" t="s" s="2">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="1">
+        <v>2350</v>
+      </c>
+      <c r="B5" t="s" s="1">
+        <v>2351</v>
+      </c>
+      <c r="C5" t="s" s="1">
+        <v>2352</v>
+      </c>
+      <c r="D5" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="E5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F5" t="s" s="2">
+        <v>2353</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J5" t="s" s="2">
+        <v>1863</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/baseFiles/excel/Sheet.xlsx
+++ b/src/main/resources/baseFiles/excel/Sheet.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5260" uniqueCount="2354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6350" uniqueCount="2793">
   <si>
     <t>Name</t>
   </si>
@@ -7089,6 +7089,1323 @@
   </si>
   <si>
     <t>https://clemenslaw.dk/en/medarbejdere/kim-nielsen/</t>
+  </si>
+  <si>
+    <t>Alejandra Baldizón Castellón</t>
+  </si>
+  <si>
+    <t>alejandra.baldizon@garciabodan.com</t>
+  </si>
+  <si>
+    <t>50588447227</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>https://garciabodan.com/en/profiles/maria-alejandra-baldizon-castellon/</t>
+  </si>
+  <si>
+    <t>Garcia Bodan</t>
+  </si>
+  <si>
+    <t>Andrés Cofiño Guzmán</t>
+  </si>
+  <si>
+    <t>andres.cofino@garciabodan.com</t>
+  </si>
+  <si>
+    <t>50222617081</t>
+  </si>
+  <si>
+    <t>https://garciabodan.com/en/profiles/andres-cofino-guzman/</t>
+  </si>
+  <si>
+    <t>Dania Navarrete Chávez</t>
+  </si>
+  <si>
+    <t>dania.navarrete@garciabodan.com</t>
+  </si>
+  <si>
+    <t>50584353006</t>
+  </si>
+  <si>
+    <t>https://garciabodan.com/en/profiles/dania-raquel-navarrete-chavez/</t>
+  </si>
+  <si>
+    <t>David Claros Flores</t>
+  </si>
+  <si>
+    <t>david.claros@garciabodan.com</t>
+  </si>
+  <si>
+    <t>50377373299</t>
+  </si>
+  <si>
+    <t>https://garciabodan.com/en/profiles/david-ernesto-claros-flores/</t>
+  </si>
+  <si>
+    <t>Gabriela Aguirre Barahona</t>
+  </si>
+  <si>
+    <t>gabriela.aguirre@garciabodan.com</t>
+  </si>
+  <si>
+    <t>50433438719</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>https://garciabodan.com/en/profiles/gabriela-maria-aguirre-barahona/</t>
+  </si>
+  <si>
+    <t>Ligia López De Luna</t>
+  </si>
+  <si>
+    <t>ligia.lopez@garciabodan.com</t>
+  </si>
+  <si>
+    <t>https://garciabodan.com/en/profiles/ligia-lopez-de-luna/</t>
+  </si>
+  <si>
+    <t>Manuel S García Garrido</t>
+  </si>
+  <si>
+    <t>msgarcia@iparkman.com.mx</t>
+  </si>
+  <si>
+    <t>element.getText()</t>
+  </si>
+  <si>
+    <t>https://i-parkman.mx/en/ourteam/manuel-garcia-en/</t>
+  </si>
+  <si>
+    <t>Ibañez Parkman</t>
+  </si>
+  <si>
+    <t>José Álvarez Márquez</t>
+  </si>
+  <si>
+    <t>jalvarez@iparkman.com.mx</t>
+  </si>
+  <si>
+    <t>https://i-parkman.mx/en/ourteam/jose-alvarez-marquez-en/</t>
+  </si>
+  <si>
+    <t>Eduardo Castillo Batiz Canessi</t>
+  </si>
+  <si>
+    <t>eduardo.castillo@iparkman.com.mx</t>
+  </si>
+  <si>
+    <t>5552505912</t>
+  </si>
+  <si>
+    <t>https://i-parkman.mx/en/ourteam/eduardo-castillo-batiz-canessi-en/</t>
+  </si>
+  <si>
+    <t>Guillermo Garay</t>
+  </si>
+  <si>
+    <t>ggaray@ksa.mx</t>
+  </si>
+  <si>
+    <t>Mergers and Acquisitions</t>
+  </si>
+  <si>
+    <t>https://ksa.mx/en/team/socios/garay-espinosa-guillermo</t>
+  </si>
+  <si>
+    <t>Kuri Breña</t>
+  </si>
+  <si>
+    <t>Federico Vergara M</t>
+  </si>
+  <si>
+    <t>fvergara@nhg.com.mx</t>
+  </si>
+  <si>
+    <t>525541703092</t>
+  </si>
+  <si>
+    <t>https://www.nhg.mx/en_gb/team_member/federico-vergara-m/</t>
+  </si>
+  <si>
+    <t>Nader Hayaux And Goebel</t>
+  </si>
+  <si>
+    <t>Paul Miller</t>
+  </si>
+  <si>
+    <t>paul.miller@deutschmiller.com</t>
+  </si>
+  <si>
+    <t>61292107773</t>
+  </si>
+  <si>
+    <t>https://www.deutschmiller.com/our-people/paul-miller/</t>
+  </si>
+  <si>
+    <t>Shane Anderton</t>
+  </si>
+  <si>
+    <t>shane.anderton@deutschmiller.com</t>
+  </si>
+  <si>
+    <t>61292107774</t>
+  </si>
+  <si>
+    <t>https://www.deutschmiller.com/our-people/shane-anderton/</t>
+  </si>
+  <si>
+    <t>Amilcar Peredo</t>
+  </si>
+  <si>
+    <t>peredo@basham.com.mx</t>
+  </si>
+  <si>
+    <t>525552610499</t>
+  </si>
+  <si>
+    <t>Antitrust</t>
+  </si>
+  <si>
+    <t>https://basham.com.mx/en/lawyers/peredo-rivera-amilcar/</t>
+  </si>
+  <si>
+    <t>Basham Ringe And Correa</t>
+  </si>
+  <si>
+    <t>Paul Carrazzo</t>
+  </si>
+  <si>
+    <t>p.carrazzo@baumgartners.com.au</t>
+  </si>
+  <si>
+    <t>398519011</t>
+  </si>
+  <si>
+    <t>Business due diligence</t>
+  </si>
+  <si>
+    <t>https://www.baumgartners.com.au/people/paul-carrazzo</t>
+  </si>
+  <si>
+    <t>Baumgartners</t>
+  </si>
+  <si>
+    <t>Jeremy Horne</t>
+  </si>
+  <si>
+    <t>jeremyh@prasadcpa.com</t>
+  </si>
+  <si>
+    <t>18885508227</t>
+  </si>
+  <si>
+    <t>https://www.prasadcpa.com/our-team/jeremy-horne/</t>
+  </si>
+  <si>
+    <t>Prasad And Company</t>
+  </si>
+  <si>
+    <t>Audrey Ah Keng</t>
+  </si>
+  <si>
+    <t>aahkeng@ensafrica.com</t>
+  </si>
+  <si>
+    <t>ASIA</t>
+  </si>
+  <si>
+    <t>https://www.ensafrica.com/people/detail/1635/audrey-ah-keng/</t>
+  </si>
+  <si>
+    <t>ENSAfrica</t>
+  </si>
+  <si>
+    <t>Jeffery Onions Kc</t>
+  </si>
+  <si>
+    <t>jonions@oeclaw.co.uk</t>
+  </si>
+  <si>
+    <t>https://www.oeclaw.co.uk/barristers/profile/jeffery-onions-kc</t>
+  </si>
+  <si>
+    <t>barrister</t>
+  </si>
+  <si>
+    <t>One Essex Court</t>
+  </si>
+  <si>
+    <t>Maryanne Loughnan</t>
+  </si>
+  <si>
+    <t>loughnan@vicbar.com.au</t>
+  </si>
+  <si>
+    <t>61392258146</t>
+  </si>
+  <si>
+    <t>https://www.youngslist.com.au/lawyer/maryanne-loughnan/</t>
+  </si>
+  <si>
+    <t>Young List</t>
+  </si>
+  <si>
+    <t>Richard Abraha</t>
+  </si>
+  <si>
+    <t>richard.abrahams@keystonelaw.co.uk</t>
+  </si>
+  <si>
+    <t>2033193700</t>
+  </si>
+  <si>
+    <t>Financial claims arising on divorce</t>
+  </si>
+  <si>
+    <t>https://www.keystonelaw.com/lawyers/richard-abrahams</t>
+  </si>
+  <si>
+    <t>Keystone Law</t>
+  </si>
+  <si>
+    <t>Arne Seemann Berg</t>
+  </si>
+  <si>
+    <t>asb@kvale.no</t>
+  </si>
+  <si>
+    <t>4740557720</t>
+  </si>
+  <si>
+    <t>https://www.kvale.no/en/our-team/lawyer/arne-seemann-berg-en/</t>
+  </si>
+  <si>
+    <t>Kvale</t>
+  </si>
+  <si>
+    <t>Fre Ik A Borch</t>
+  </si>
+  <si>
+    <t>borch@ladv.no</t>
+  </si>
+  <si>
+    <t>4722937309</t>
+  </si>
+  <si>
+    <t>Norwegian</t>
+  </si>
+  <si>
+    <t>https://langsethadvokat.no/en/advokater/fredrik-a-borch/</t>
+  </si>
+  <si>
+    <t>Langseth Advokat</t>
+  </si>
+  <si>
+    <t>Daniel Guillén Jiménez</t>
+  </si>
+  <si>
+    <t>email dguillen@latamlex.com</t>
+  </si>
+  <si>
+    <t>50622083636</t>
+  </si>
+  <si>
+    <t>Corporate  / Mergers / Acquisitions</t>
+  </si>
+  <si>
+    <t>https://latamlex.com/en/detalle-perfil/?id_=241</t>
+  </si>
+  <si>
+    <t>Latam Lex</t>
+  </si>
+  <si>
+    <t>Luis Ernesto Guandique Mejía</t>
+  </si>
+  <si>
+    <t>leguandique@latamlex.com</t>
+  </si>
+  <si>
+    <t>50325257800</t>
+  </si>
+  <si>
+    <t>Constitutional</t>
+  </si>
+  <si>
+    <t>https://latamlex.com/en/detalle-perfil/?id_=263</t>
+  </si>
+  <si>
+    <t>María Gabriela Coronado Díaz</t>
+  </si>
+  <si>
+    <t>gcoronado@latamlex.com</t>
+  </si>
+  <si>
+    <t>50223869393</t>
+  </si>
+  <si>
+    <t>https://latamlex.com/en/detalle-perfil/?id_=258</t>
+  </si>
+  <si>
+    <t>Dennis Matamoros Batson</t>
+  </si>
+  <si>
+    <t>dmatamoros@latamlex.com</t>
+  </si>
+  <si>
+    <t>50422310323</t>
+  </si>
+  <si>
+    <t>Administrative</t>
+  </si>
+  <si>
+    <t>https://latamlex.com/en/detalle-perfil/?id_=282</t>
+  </si>
+  <si>
+    <t>Ana Patricia Carrión Lacayo</t>
+  </si>
+  <si>
+    <t>acarrion@latamlex.com</t>
+  </si>
+  <si>
+    <t>50522770767</t>
+  </si>
+  <si>
+    <t>https://latamlex.com/en/detalle-perfil/?id_=261</t>
+  </si>
+  <si>
+    <t>Adalberto Fraga Verissimo Junior</t>
+  </si>
+  <si>
+    <t>adalberto.junior@lbca.com.br</t>
+  </si>
+  <si>
+    <t>551121495400</t>
+  </si>
+  <si>
+    <t>ESG</t>
+  </si>
+  <si>
+    <t>https://lbca.com.br/_profissionais/adalberto-fraga-verissimo-junior/</t>
+  </si>
+  <si>
+    <t>LBCA</t>
+  </si>
+  <si>
+    <t>Kristin Filtvedt</t>
+  </si>
+  <si>
+    <t>kristin.filtvedt@legalis.no</t>
+  </si>
+  <si>
+    <t>22402306</t>
+  </si>
+  <si>
+    <t>https://legalis.no/advokater/kristin-filtvedt</t>
+  </si>
+  <si>
+    <t>Legalis</t>
+  </si>
+  <si>
+    <t>Garth St E W P Erson S C</t>
+  </si>
+  <si>
+    <t>garth.patterson@bb.lexcaribbean.com</t>
+  </si>
+  <si>
+    <t>12462625392</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>Commercial Litigation, Restructuring &amp; Insolvency</t>
+  </si>
+  <si>
+    <t>https://lexcaribbean.com/attorneys/garth-patterson/</t>
+  </si>
+  <si>
+    <t>Lex Caribbean</t>
+  </si>
+  <si>
+    <t>Li Jingsheng</t>
+  </si>
+  <si>
+    <t>lijingsheng@longanlaw.com</t>
+  </si>
+  <si>
+    <t>1085328000</t>
+  </si>
+  <si>
+    <t>https://www.longanlaw.com/en/professionals/10156.html/</t>
+  </si>
+  <si>
+    <t>LonganLaw</t>
+  </si>
+  <si>
+    <t>Stella Hu</t>
+  </si>
+  <si>
+    <t>stella.hu@mishconkaras.com.hk</t>
+  </si>
+  <si>
+    <t>85237613937</t>
+  </si>
+  <si>
+    <t>https://www.mishconkaras.com.hk/people/stella-hu</t>
+  </si>
+  <si>
+    <t>Mishcon Karas</t>
+  </si>
+  <si>
+    <t>James Cousins</t>
+  </si>
+  <si>
+    <t>james.cousins@mourant.com</t>
+  </si>
+  <si>
+    <t>441481739329</t>
+  </si>
+  <si>
+    <t>Guernsey, Jersey, London</t>
+  </si>
+  <si>
+    <t>https://www.mourant.com/profile/view/52323/James-Cousins</t>
+  </si>
+  <si>
+    <t>Mourant</t>
+  </si>
+  <si>
+    <t>Jan Dobrzensky</t>
+  </si>
+  <si>
+    <t>jan.dobrzensky@mourant.com</t>
+  </si>
+  <si>
+    <t>3522600825032</t>
+  </si>
+  <si>
+    <t>https://www.mourant.com/profile/view/62867/Jan-Dobrzensky</t>
+  </si>
+  <si>
+    <t>Sara Galletly</t>
+  </si>
+  <si>
+    <t>sara.galletly@mourant.com</t>
+  </si>
+  <si>
+    <t>13458149233</t>
+  </si>
+  <si>
+    <t>https://www.mourant.com/profile/view/9877/Sara-Galletly</t>
+  </si>
+  <si>
+    <t>Jennifer Jenkins</t>
+  </si>
+  <si>
+    <t>jennifer.jenkins@mourant.com</t>
+  </si>
+  <si>
+    <t>12848521709</t>
+  </si>
+  <si>
+    <t>BVI</t>
+  </si>
+  <si>
+    <t>https://www.mourant.com/profile/view/46407/Jennifer-Jenkins</t>
+  </si>
+  <si>
+    <t>Jingzhong Zhang</t>
+  </si>
+  <si>
+    <t>email zhangjz@tclawfirm.com</t>
+  </si>
+  <si>
+    <t>8657187901509</t>
+  </si>
+  <si>
+    <t>https://en.tclawfirm.com/content-13.html</t>
+  </si>
+  <si>
+    <t>TCLaw</t>
+  </si>
+  <si>
+    <t>Robin Abraham</t>
+  </si>
+  <si>
+    <t>robin.abraham@cliffordchance.com</t>
+  </si>
+  <si>
+    <t>81366326332</t>
+  </si>
+  <si>
+    <t>https://www.cliffordchance.com/people_and_places/people/partners/gb/robin_abraham.html</t>
+  </si>
+  <si>
+    <t>CliffordChance</t>
+  </si>
+  <si>
+    <t>Fahad Abuhimed</t>
+  </si>
+  <si>
+    <t>fahad.abuhimed@ashcliffordchance.com</t>
+  </si>
+  <si>
+    <t>https://www.cliffordchance.com/people_and_places/people/partners/sa/fahad-abuhimed.html</t>
+  </si>
+  <si>
+    <t>Charles Ada</t>
+  </si>
+  <si>
+    <t>astrella.kaye@cliffordchance.com</t>
+  </si>
+  <si>
+    <t>https://www.cliffordchance.com/people_and_places/people/partners/it/charles_adams.html</t>
+  </si>
+  <si>
+    <t>Jaime Almenar</t>
+  </si>
+  <si>
+    <t>jaime.almenar@cliffordchance.com</t>
+  </si>
+  <si>
+    <t>https://www.cliffordchance.com/people_and_places/people/partners/es/jaime-almenar.html</t>
+  </si>
+  <si>
+    <t>Mohammed Al-shukairy</t>
+  </si>
+  <si>
+    <t>mo.al-shukairy@cliffordchance.com</t>
+  </si>
+  <si>
+    <t>https://www.cliffordchance.com/people_and_places/people/partners/ae/mohammed_al-shukairy.html</t>
+  </si>
+  <si>
+    <t>Cosmin Anghel</t>
+  </si>
+  <si>
+    <t>cosmin.anghel@cliffordchancebadea.com</t>
+  </si>
+  <si>
+    <t>https://www.cliffordchance.com/people_and_places/people/partners/ro/cosmin-anghel.html</t>
+  </si>
+  <si>
+    <t>Kate Apostolova</t>
+  </si>
+  <si>
+    <t>kate.apostolova@cliffordchance.com</t>
+  </si>
+  <si>
+    <t>https://www.cliffordchance.com/people_and_places/people/partners/au/kate-apostolova.html</t>
+  </si>
+  <si>
+    <t>Scott Bache</t>
+  </si>
+  <si>
+    <t>scott.bache@cliffordchance.com</t>
+  </si>
+  <si>
+    <t>https://www.cliffordchance.com/people_and_places/people/partners/cn/scott_bache.html</t>
+  </si>
+  <si>
+    <t>Julia Baedorff</t>
+  </si>
+  <si>
+    <t>julia.baedorff@cliffordchance.com</t>
+  </si>
+  <si>
+    <t>https://www.cliffordchance.com/people_and_places/people/partners/de/julia-baedorff.html</t>
+  </si>
+  <si>
+    <t>Guido Bergervoet</t>
+  </si>
+  <si>
+    <t>guido.bergervoet@cliffordchance.com</t>
+  </si>
+  <si>
+    <t>https://www.cliffordchance.com/people_and_places/people/partners/nl/guido_bergervoet.html</t>
+  </si>
+  <si>
+    <t>Marc Besen</t>
+  </si>
+  <si>
+    <t>marc.besen@cliffordchance.com</t>
+  </si>
+  <si>
+    <t>Düsseldorf</t>
+  </si>
+  <si>
+    <t>https://www.cliffordchance.com/people_and_places/people/partners/de/marc_besen.html</t>
+  </si>
+  <si>
+    <t>Wim Aerts</t>
+  </si>
+  <si>
+    <t>wim.aerts@cliffordchance.com</t>
+  </si>
+  <si>
+    <t>https://www.cliffordchance.com/people_and_places/people/lawyers/be/wim-aerts.html</t>
+  </si>
+  <si>
+    <t>Antonio Arenas Torres</t>
+  </si>
+  <si>
+    <t>antonio.arenastorres@cliffordchance.com</t>
+  </si>
+  <si>
+    <t>https://www.cliffordchance.com/people_and_places/people/lawyers/lu/antonio-arenas-torres.html</t>
+  </si>
+  <si>
+    <t>Chihiro Ashizawa</t>
+  </si>
+  <si>
+    <t>chihiro.ashizawa@cliffordchance.com</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>https://www.cliffordchance.com/people_and_places/people/lawyers/jp/chihiro-ashizawa.html</t>
+  </si>
+  <si>
+    <t>Fang Bao</t>
+  </si>
+  <si>
+    <t>fang.bao@cliffordchance.com</t>
+  </si>
+  <si>
+    <t>https://www.cliffordchance.com/people_and_places/people/lawyers/cn/fang-bao.html</t>
+  </si>
+  <si>
+    <t>Kacper Bardan</t>
+  </si>
+  <si>
+    <t>kacper.bardan@cliffordchance.com</t>
+  </si>
+  <si>
+    <t>https://www.cliffordchance.com/people_and_places/people/lawyers/pl/kacper-bardan.html</t>
+  </si>
+  <si>
+    <t>Louis-auguste Barthout</t>
+  </si>
+  <si>
+    <t>louis-auguste.barthout@cliffordchance.com</t>
+  </si>
+  <si>
+    <t>https://www.cliffordchance.com/people_and_places/people/lawyers/fr/louis-auguste-barthout.html</t>
+  </si>
+  <si>
+    <t>Julian Acratopulo</t>
+  </si>
+  <si>
+    <t>julian.acratopulo@cliffordchance.com</t>
+  </si>
+  <si>
+    <t>https://www.cliffordchance.com/people_and_places/people/partners/gb/julian_acratopulo.html</t>
+  </si>
+  <si>
+    <t>Abdullah Alajlan</t>
+  </si>
+  <si>
+    <t>abdullah.alajlan@ashcliffordchance.com</t>
+  </si>
+  <si>
+    <t>https://www.cliffordchance.com/people_and_places/people/partners/sa/abdullah-alajlan.html</t>
+  </si>
+  <si>
+    <t>Luis Alonso</t>
+  </si>
+  <si>
+    <t>luis.alonso@cliffordchance.com</t>
+  </si>
+  <si>
+    <t>https://www.cliffordchance.com/people_and_places/people/partners/es/luis_alonso.html</t>
+  </si>
+  <si>
+    <t>Lynn Ammar</t>
+  </si>
+  <si>
+    <t>lynn.ammar@cliffordchance.com</t>
+  </si>
+  <si>
+    <t>https://www.cliffordchance.com/people_and_places/people/partners/ae/lynn-ammar.html</t>
+  </si>
+  <si>
+    <t>Stefan Behrens</t>
+  </si>
+  <si>
+    <t>stefan.behrens@cliffordchance.com</t>
+  </si>
+  <si>
+    <t>https://www.cliffordchance.com/people_and_places/people/partners/de/stefan_behrens.html</t>
+  </si>
+  <si>
+    <t>Alex Bidlake</t>
+  </si>
+  <si>
+    <t>alex.bidlake@cliffordchance.com</t>
+  </si>
+  <si>
+    <t>https://www.cliffordchance.com/people_and_places/people/partners/cn/alex-bidlake.html</t>
+  </si>
+  <si>
+    <t>Jonathan Donald Astbury</t>
+  </si>
+  <si>
+    <t>jonathan.astbury@cliffordchance.com</t>
+  </si>
+  <si>
+    <t>https://www.cliffordchance.com/people_and_places/people/lawyers/it/jonathan-donald-astbury.html</t>
+  </si>
+  <si>
+    <t>Peter Aude K</t>
+  </si>
+  <si>
+    <t>peter.audesirk@cliffordchance.com</t>
+  </si>
+  <si>
+    <t>https://www.cliffordchance.com/people_and_places/people/lawyers/lu/peter-audesirk.html</t>
+  </si>
+  <si>
+    <t>Nicole Backhouse</t>
+  </si>
+  <si>
+    <t>nicole.backhouse@cliffordchance.com</t>
+  </si>
+  <si>
+    <t>https://www.cliffordchance.com/people_and_places/people/lawyers/au/nicole-backhouse.html</t>
+  </si>
+  <si>
+    <t>Nivi Balaji</t>
+  </si>
+  <si>
+    <t>nivi.balaji@cliffordchance.com</t>
+  </si>
+  <si>
+    <t>https://www.cliffordchance.com/people_and_places/people/lawyers/be/nivi-balaji.html</t>
+  </si>
+  <si>
+    <t>M Hew Ball</t>
+  </si>
+  <si>
+    <t>matthew.ball@cliffordchance.com</t>
+  </si>
+  <si>
+    <t>https://www.cliffordchance.com/people_and_places/people/lawyers/jp/matthew-ball.html</t>
+  </si>
+  <si>
+    <t>Marcin Bartnicki</t>
+  </si>
+  <si>
+    <t>marcin.bartnicki@cliffordchance.com</t>
+  </si>
+  <si>
+    <t>https://www.cliffordchance.com/people_and_places/people/lawyers/pl/marcin-bartnicki.html</t>
+  </si>
+  <si>
+    <t>Thomas Baudesson</t>
+  </si>
+  <si>
+    <t>thomas.baudesson@cliffordchance.com</t>
+  </si>
+  <si>
+    <t>https://www.cliffordchance.com/people_and_places/people/lawyers/fr/thomas-baudesson.html</t>
+  </si>
+  <si>
+    <t>Alexan U Achim</t>
+  </si>
+  <si>
+    <t>alexandru.achim@cliffordchancebadea.com</t>
+  </si>
+  <si>
+    <t>https://www.cliffordchance.com/people_and_places/people/lawyers/ro/alexandru-achim.html</t>
+  </si>
+  <si>
+    <t>Liesbeth Buiter</t>
+  </si>
+  <si>
+    <t>liesbeth.buiter@cliffordchance.com</t>
+  </si>
+  <si>
+    <t>496971991645</t>
+  </si>
+  <si>
+    <t>https://www.cliffordchance.com/people_and_places/people/partners/nl/liesbeth_buiter.html</t>
+  </si>
+  <si>
+    <t>Mel Chan</t>
+  </si>
+  <si>
+    <t>mel.chan@cliffordchance.com</t>
+  </si>
+  <si>
+    <t>https://www.cliffordchance.com/people_and_places/people/partners/sg/mel-chan.html</t>
+  </si>
+  <si>
+    <t>Nicolas Cookson</t>
+  </si>
+  <si>
+    <t>nicolas.cookson@cliffordchance.com</t>
+  </si>
+  <si>
+    <t>2128783273</t>
+  </si>
+  <si>
+    <t>https://www.cliffordchance.com/people_and_places/people/partners/de/nicolas-cookson.html</t>
+  </si>
+  <si>
+    <t>Frédéric Giancarli</t>
+  </si>
+  <si>
+    <t>frederic.giancarli@cliffordchance.com</t>
+  </si>
+  <si>
+    <t>34915909440</t>
+  </si>
+  <si>
+    <t>https://www.cliffordchance.com/people_and_places/people/partners/ma/frederic-giancarli.html</t>
+  </si>
+  <si>
+    <t>Deniz Göçük</t>
+  </si>
+  <si>
+    <t>deniz.gocuk@cepartners.com.tr</t>
+  </si>
+  <si>
+    <t>https://www.cliffordchance.com/people_and_places/people/partners/tr/deniz-goecuek.html</t>
+  </si>
+  <si>
+    <t>Kelly Gregory</t>
+  </si>
+  <si>
+    <t>kelly.gregory@cliffordchance.com</t>
+  </si>
+  <si>
+    <t>33144055114</t>
+  </si>
+  <si>
+    <t>https://www.cliffordchance.com/people_and_places/people/partners/cn/kelly_gregory.html</t>
+  </si>
+  <si>
+    <t>Emil Holub</t>
+  </si>
+  <si>
+    <t>emil.holub@cliffordchanceprague.com</t>
+  </si>
+  <si>
+    <t>https://www.cliffordchance.com/people_and_places/people/partners/cz/emil_holub.html</t>
+  </si>
+  <si>
+    <t>An Ew Callaghan</t>
+  </si>
+  <si>
+    <t>andrew.callaghan@morganlewis.com</t>
+  </si>
+  <si>
+    <t>442032015035</t>
+  </si>
+  <si>
+    <t>https://www.morganlewis.com/bios/andrewcallaghan</t>
+  </si>
+  <si>
+    <t>Morgan Lewis</t>
+  </si>
+  <si>
+    <t>Nicolas Capelli</t>
+  </si>
+  <si>
+    <t>nicolas.capelli@morganlewis.com</t>
+  </si>
+  <si>
+    <t>33144094610</t>
+  </si>
+  <si>
+    <t>https://www.morganlewis.com/bios/nicolascapelli</t>
+  </si>
+  <si>
+    <t>Mathilde Carle</t>
+  </si>
+  <si>
+    <t>mathilde.carle@morganlewis.com</t>
+  </si>
+  <si>
+    <t>33144094652</t>
+  </si>
+  <si>
+    <t>https://www.morganlewis.com/bios/mathildecarle</t>
+  </si>
+  <si>
+    <t>Adam C Abrah</t>
+  </si>
+  <si>
+    <t>adam.abrahms@morganlewis.com</t>
+  </si>
+  <si>
+    <t>13109071066</t>
+  </si>
+  <si>
+    <t>Century City</t>
+  </si>
+  <si>
+    <t>https://www.morganlewis.com/bios/adamabrahms</t>
+  </si>
+  <si>
+    <t>Jane Accomando</t>
+  </si>
+  <si>
+    <t>jane.accomando@morganlewis.com</t>
+  </si>
+  <si>
+    <t>12027395815</t>
+  </si>
+  <si>
+    <t>Washington, DC</t>
+  </si>
+  <si>
+    <t>https://www.morganlewis.com/bios/jaccomando</t>
+  </si>
+  <si>
+    <t>Jonathan M Albano</t>
+  </si>
+  <si>
+    <t>jonathan.albano@morganlewis.com</t>
+  </si>
+  <si>
+    <t>16179518360</t>
+  </si>
+  <si>
+    <t>Boston</t>
+  </si>
+  <si>
+    <t>https://www.morganlewis.com/bios/jonathanalbano</t>
+  </si>
+  <si>
+    <t>Faiz Ahmad</t>
+  </si>
+  <si>
+    <t>faiz.ahmad@skadden.com</t>
+  </si>
+  <si>
+    <t>13026513250</t>
+  </si>
+  <si>
+    <t>Wilmington</t>
+  </si>
+  <si>
+    <t>https://www.skadden.com/professionals/a/ahmad-faiz</t>
+  </si>
+  <si>
+    <t>Skadden</t>
+  </si>
+  <si>
+    <t>Agnesine (nesa) Amamoo</t>
+  </si>
+  <si>
+    <t>nesa.amamoo@skadden.com</t>
+  </si>
+  <si>
+    <t>12127352993</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>https://www.skadden.com/professionals/a/amamoo-agnesine-nesa</t>
+  </si>
+  <si>
+    <t>Kady D (kady) Ashley</t>
+  </si>
+  <si>
+    <t>katherine.ashley@skadden.com</t>
+  </si>
+  <si>
+    <t>12023717706</t>
+  </si>
+  <si>
+    <t>Washington, D.C.</t>
+  </si>
+  <si>
+    <t>Mergers and Acquisitions; Corporate Governance</t>
+  </si>
+  <si>
+    <t>https://www.skadden.com/professionals/a/ashley-katherine-d</t>
+  </si>
+  <si>
+    <t>Michael Albrecht Vom Kolke</t>
+  </si>
+  <si>
+    <t>michael.albrechtvomkolke@skadden.com</t>
+  </si>
+  <si>
+    <t>4969742200</t>
+  </si>
+  <si>
+    <t>White Collar Defense and Investigations</t>
+  </si>
+  <si>
+    <t>https://www.skadden.com/professionals/a/albrecht-vom-kolke-michael</t>
+  </si>
+  <si>
+    <t>Iacovos Antoniou</t>
+  </si>
+  <si>
+    <t>iacovos.antoniou@skadden.com</t>
+  </si>
+  <si>
+    <t>442075197000</t>
+  </si>
+  <si>
+    <t>Antitrust/Competition</t>
+  </si>
+  <si>
+    <t>https://www.skadden.com/professionals/a/antoniou-iacovos</t>
+  </si>
+  <si>
+    <t>Jacqueline Arena</t>
+  </si>
+  <si>
+    <t>jacqueline.arena@skadden.com</t>
+  </si>
+  <si>
+    <t>85237404866</t>
+  </si>
+  <si>
+    <t>https://www.skadden.com/professionals/a/arena-jacqueline</t>
+  </si>
+  <si>
+    <t>Louis Artime</t>
+  </si>
+  <si>
+    <t>louis.artime@skadden.com</t>
+  </si>
+  <si>
+    <t>81335682628</t>
+  </si>
+  <si>
+    <t>https://www.skadden.com/professionals/a/artime-louis</t>
+  </si>
+  <si>
+    <t>Valentin Autret</t>
+  </si>
+  <si>
+    <t>valentin.autret@skadden.com</t>
+  </si>
+  <si>
+    <t>33155271111</t>
+  </si>
+  <si>
+    <t>International Litigation and Arbitration</t>
+  </si>
+  <si>
+    <t>https://www.skadden.com/professionals/a/autret-valentin</t>
+  </si>
+  <si>
+    <t>Curtis M Dombek</t>
+  </si>
+  <si>
+    <t>cdombek@sheppardmullin.com</t>
+  </si>
+  <si>
+    <t>3202290790212136175595</t>
+  </si>
+  <si>
+    <t>https://www.sheppardmullin.com/cdombek</t>
+  </si>
+  <si>
+    <t>Sheppard Mullin</t>
+  </si>
+  <si>
+    <t>Harris Gao</t>
+  </si>
+  <si>
+    <t>hgao@sheppardmullin.com</t>
+  </si>
+  <si>
+    <t>862123216007</t>
+  </si>
+  <si>
+    <t>https://www.sheppardmullin.com/hgao</t>
+  </si>
+  <si>
+    <t>Oliver Heinisch</t>
+  </si>
+  <si>
+    <t>oheinisch@sheppardmullin.com</t>
+  </si>
+  <si>
+    <t>442031787833</t>
+  </si>
+  <si>
+    <t>https://www.sheppardmullin.com/oheinisch</t>
+  </si>
+  <si>
+    <t>Paul J Kim</t>
+  </si>
+  <si>
+    <t>pkim@sheppardmullin.com</t>
+  </si>
+  <si>
+    <t>82260303009</t>
+  </si>
+  <si>
+    <t>https://www.sheppardmullin.com/pkim</t>
+  </si>
+  <si>
+    <t>Yoo Kyung Moon</t>
+  </si>
+  <si>
+    <t>ymoon@sheppardmullin.com</t>
+  </si>
+  <si>
+    <t>82260303065</t>
+  </si>
+  <si>
+    <t>https://www.sheppardmullin.com/ymoon</t>
+  </si>
+  <si>
+    <t>Niya Tang</t>
+  </si>
+  <si>
+    <t>ntang@sheppardmullin.com</t>
+  </si>
+  <si>
+    <t>12128960653</t>
+  </si>
+  <si>
+    <t>https://www.sheppardmullin.com/ntang</t>
+  </si>
+  <si>
+    <t>Dimitris Vallindas</t>
+  </si>
+  <si>
+    <t>dvallindas@sheppardmullin.com</t>
+  </si>
+  <si>
+    <t>32022907912</t>
+  </si>
+  <si>
+    <t>https://www.sheppardmullin.com/dvallindas</t>
+  </si>
+  <si>
+    <t>Alwaleed Albazaie</t>
+  </si>
+  <si>
+    <t>alwaleed.albazaie@ashcliffordchance.com</t>
+  </si>
+  <si>
+    <t>https://www.cliffordchance.com/people_and_places/people/partners/sa/alwaleed-albazaie.html</t>
+  </si>
+  <si>
+    <t>Zayed Al Jamil</t>
+  </si>
+  <si>
+    <t>zayed.aljamil@cliffordchance.com</t>
+  </si>
+  <si>
+    <t>https://www.cliffordchance.com/people_and_places/people/partners/gb/zayed-al_jamil.html</t>
+  </si>
+  <si>
+    <t>Samir Azzouzi</t>
+  </si>
+  <si>
+    <t>samir.azzouzi@cliffordchance.com</t>
+  </si>
+  <si>
+    <t>https://www.cliffordchance.com/people_and_places/people/partners/es/samir_azzouzi.html</t>
+  </si>
+  <si>
+    <t>Jeremy Barker</t>
+  </si>
+  <si>
+    <t>jeremy.barker@cliffordchance.com</t>
+  </si>
+  <si>
+    <t>https://www.cliffordchance.com/people_and_places/people/partners/ae/jeremy-barker.html</t>
+  </si>
+  <si>
+    <t>Marc Benzler</t>
+  </si>
+  <si>
+    <t>marc.benzler@cliffordchance.com</t>
+  </si>
+  <si>
+    <t>https://www.cliffordchance.com/people_and_places/people/partners/de/marc_benzler.html</t>
+  </si>
+  <si>
+    <t>Josselin Badoc</t>
+  </si>
+  <si>
+    <t>josselin.badoc@cliffordchance.com</t>
+  </si>
+  <si>
+    <t>https://www.cliffordchance.com/people_and_places/people/lawyers/lu/josselin-badoc.html</t>
+  </si>
+  <si>
+    <t>Paolo Ballerini</t>
+  </si>
+  <si>
+    <t>paolo.ballerini@cliffordchance.com</t>
+  </si>
+  <si>
+    <t>https://www.cliffordchance.com/people_and_places/people/lawyers/it/paolo-ballerini.html</t>
+  </si>
+  <si>
+    <t>Marcus Berghouse</t>
+  </si>
+  <si>
+    <t>marcus.berghouse@cliffordchance.com</t>
+  </si>
+  <si>
+    <t>https://www.cliffordchance.com/people_and_places/people/lawyers/au/marcus-berghouse.html</t>
+  </si>
+  <si>
+    <t>Anna Biała</t>
+  </si>
+  <si>
+    <t>anna.biala@cliffordchance.com</t>
+  </si>
+  <si>
+    <t>https://www.cliffordchance.com/people_and_places/people/lawyers/pl/anna-biala.html</t>
+  </si>
+  <si>
+    <t>Auriane Bijon</t>
+  </si>
+  <si>
+    <t>auriane.bijon@cliffordchance.com</t>
+  </si>
+  <si>
+    <t>https://www.cliffordchance.com/people_and_places/people/lawyers/fr/auriane-bijon.html</t>
+  </si>
+  <si>
+    <t>Jonathan Blondeel</t>
+  </si>
+  <si>
+    <t>jonathan.blondeel@cliffordchance.com</t>
+  </si>
+  <si>
+    <t>https://www.cliffordchance.com/people_and_places/people/lawyers/be/jonathan-blondeel.html</t>
+  </si>
+  <si>
+    <t>Mark Chan</t>
+  </si>
+  <si>
+    <t>mark.chan@cliffordchance.com</t>
+  </si>
+  <si>
+    <t>https://www.cliffordchance.com/people_and_places/people/partners/cn/mark_chan.html</t>
+  </si>
+  <si>
+    <t>Chloe Cheng</t>
+  </si>
+  <si>
+    <t>chloe.cheng@cliffordchance.com</t>
+  </si>
+  <si>
+    <t>https://www.cliffordchance.com/people_and_places/people/partners/sg/chloe-cheng.html</t>
   </si>
 </sst>
 </file>
@@ -8195,7 +9512,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:J3"/>
@@ -8249,22 +9566,22 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="1">
-        <v>2336</v>
+        <v>2754</v>
       </c>
       <c r="B2" t="s" s="1">
-        <v>2337</v>
+        <v>2755</v>
       </c>
       <c r="C2" t="s" s="1">
-        <v>2338</v>
+        <v>2537</v>
       </c>
       <c r="D2" t="s" s="1">
-        <v>113</v>
+        <v>1620</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>2339</v>
+        <v>38</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>2340</v>
+        <v>2756</v>
       </c>
       <c r="G2" t="s" s="2">
         <v>16</v>
@@ -8276,27 +9593,27 @@
         <v>26</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>2341</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="1">
-        <v>2342</v>
+        <v>2757</v>
       </c>
       <c r="B3" t="s" s="1">
-        <v>2343</v>
+        <v>2758</v>
       </c>
       <c r="C3" t="s" s="1">
-        <v>2344</v>
+        <v>2537</v>
       </c>
       <c r="D3" t="s" s="1">
-        <v>420</v>
+        <v>113</v>
       </c>
       <c r="E3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>2345</v>
+        <v>2759</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>16</v>
@@ -8308,27 +9625,27 @@
         <v>26</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>1813</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="1">
-        <v>2346</v>
+        <v>2760</v>
       </c>
       <c r="B4" t="s" s="1">
-        <v>2347</v>
+        <v>2761</v>
       </c>
       <c r="C4" t="s" s="1">
-        <v>2348</v>
+        <v>2537</v>
       </c>
       <c r="D4" t="s" s="1">
-        <v>107</v>
+        <v>238</v>
       </c>
       <c r="E4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>2349</v>
+        <v>2762</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>16</v>
@@ -8337,30 +9654,30 @@
         <v>17</v>
       </c>
       <c r="I4" t="s" s="3">
-        <v>1197</v>
+        <v>26</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>1813</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="1">
-        <v>2350</v>
+        <v>2763</v>
       </c>
       <c r="B5" t="s" s="1">
-        <v>2351</v>
+        <v>2764</v>
       </c>
       <c r="C5" t="s" s="1">
-        <v>2352</v>
+        <v>2537</v>
       </c>
       <c r="D5" t="s" s="1">
-        <v>84</v>
+        <v>972</v>
       </c>
       <c r="E5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>2353</v>
+        <v>2765</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>16</v>
@@ -8372,7 +9689,295 @@
         <v>26</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>1863</v>
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="1">
+        <v>2766</v>
+      </c>
+      <c r="B6" t="s" s="1">
+        <v>2767</v>
+      </c>
+      <c r="C6" t="s" s="1">
+        <v>2537</v>
+      </c>
+      <c r="D6" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="E6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s" s="2">
+        <v>2768</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="1">
+        <v>2769</v>
+      </c>
+      <c r="B7" t="s" s="1">
+        <v>2770</v>
+      </c>
+      <c r="C7" t="s" s="1">
+        <v>2537</v>
+      </c>
+      <c r="D7" t="s" s="1">
+        <v>785</v>
+      </c>
+      <c r="E7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s" s="2">
+        <v>2771</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s" s="3">
+        <v>96</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="1">
+        <v>2772</v>
+      </c>
+      <c r="B8" t="s" s="1">
+        <v>2773</v>
+      </c>
+      <c r="C8" t="s" s="1">
+        <v>2537</v>
+      </c>
+      <c r="D8" t="s" s="1">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s" s="2">
+        <v>2774</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s" s="3">
+        <v>96</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="1">
+        <v>2775</v>
+      </c>
+      <c r="B9" t="s" s="1">
+        <v>2776</v>
+      </c>
+      <c r="C9" t="s" s="1">
+        <v>2537</v>
+      </c>
+      <c r="D9" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F9" t="s" s="2">
+        <v>2777</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s" s="3">
+        <v>96</v>
+      </c>
+      <c r="J9" t="s" s="2">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="1">
+        <v>2778</v>
+      </c>
+      <c r="B10" t="s" s="1">
+        <v>2779</v>
+      </c>
+      <c r="C10" t="s" s="1">
+        <v>2537</v>
+      </c>
+      <c r="D10" t="s" s="1">
+        <v>204</v>
+      </c>
+      <c r="E10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s" s="2">
+        <v>2780</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s" s="3">
+        <v>96</v>
+      </c>
+      <c r="J10" t="s" s="2">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="1">
+        <v>2781</v>
+      </c>
+      <c r="B11" t="s" s="1">
+        <v>2782</v>
+      </c>
+      <c r="C11" t="s" s="1">
+        <v>2537</v>
+      </c>
+      <c r="D11" t="s" s="1">
+        <v>107</v>
+      </c>
+      <c r="E11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>2783</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s" s="3">
+        <v>96</v>
+      </c>
+      <c r="J11" t="s" s="2">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="1">
+        <v>2784</v>
+      </c>
+      <c r="B12" t="s" s="1">
+        <v>2785</v>
+      </c>
+      <c r="C12" t="s" s="1">
+        <v>2537</v>
+      </c>
+      <c r="D12" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>2786</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I12" t="s" s="3">
+        <v>96</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="1">
+        <v>2787</v>
+      </c>
+      <c r="B13" t="s" s="1">
+        <v>2788</v>
+      </c>
+      <c r="C13" t="s" s="1">
+        <v>2634</v>
+      </c>
+      <c r="D13" t="s" s="1">
+        <v>348</v>
+      </c>
+      <c r="E13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F13" t="s" s="2">
+        <v>2789</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I13" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J13" t="s" s="2">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="1">
+        <v>2790</v>
+      </c>
+      <c r="B14" t="s" s="1">
+        <v>2791</v>
+      </c>
+      <c r="C14" t="s" s="1">
+        <v>2634</v>
+      </c>
+      <c r="D14" t="s" s="1">
+        <v>145</v>
+      </c>
+      <c r="E14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>2792</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I14" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>2539</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/baseFiles/excel/Sheet.xlsx
+++ b/src/main/resources/baseFiles/excel/Sheet.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="827">
   <si>
     <t>Name</t>
   </si>
@@ -87,6 +87,2427 @@
   </si>
   <si>
     <t>Liedekerke</t>
+  </si>
+  <si>
+    <t>Bart Franceus</t>
+  </si>
+  <si>
+    <t>bart.franceus@aoshearman.com</t>
+  </si>
+  <si>
+    <t>3232877446</t>
+  </si>
+  <si>
+    <t>Labour &amp; Employment</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Senior Associate</t>
+  </si>
+  <si>
+    <t>A&amp;O Shearman</t>
+  </si>
+  <si>
+    <t>Nathalie Allen</t>
+  </si>
+  <si>
+    <t>nathalie.allen@addleshawgoddard.com</t>
+  </si>
+  <si>
+    <t>44020778850512</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Commercial Arbitration</t>
+  </si>
+  <si>
+    <t>https://www.addleshawgoddard.com/en/our-people/a/nathalie-allen/</t>
+  </si>
+  <si>
+    <t>Partner</t>
+  </si>
+  <si>
+    <t>Addleshaw Goddard</t>
+  </si>
+  <si>
+    <t>Eckart Budelmann</t>
+  </si>
+  <si>
+    <t>eckart.budelmann@aglaw.com</t>
+  </si>
+  <si>
+    <t>4904087406012</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Cross Border M&amp;A</t>
+  </si>
+  <si>
+    <t>Chloé Girard</t>
+  </si>
+  <si>
+    <t>chloe.girard@advant-altana.com</t>
+  </si>
+  <si>
+    <t>33179979300</t>
+  </si>
+  <si>
+    <t>Dispute Resolution</t>
+  </si>
+  <si>
+    <t>Counsel</t>
+  </si>
+  <si>
+    <t>Advant Altana</t>
+  </si>
+  <si>
+    <t>Eileen Yeo</t>
+  </si>
+  <si>
+    <t>eileen@advocatus.sg</t>
+  </si>
+  <si>
+    <t>6566039200</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>White Collar Crime</t>
+  </si>
+  <si>
+    <t>https://www.advocatus.sg/Overview</t>
+  </si>
+  <si>
+    <t>Advocatus Law LLP</t>
+  </si>
+  <si>
+    <t>E Scott Morvillo</t>
+  </si>
+  <si>
+    <t>smorvillo@seyfarth.com</t>
+  </si>
+  <si>
+    <t>12122186481</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>White Collar Defense</t>
+  </si>
+  <si>
+    <t>Akerman LLP</t>
+  </si>
+  <si>
+    <t>Christopher Beardmore</t>
+  </si>
+  <si>
+    <t>christopher.beardmore@akingump.com</t>
+  </si>
+  <si>
+    <t>442070129704</t>
+  </si>
+  <si>
+    <t>Private Equity</t>
+  </si>
+  <si>
+    <t>Akin</t>
+  </si>
+  <si>
+    <t>Jingli Jiang</t>
+  </si>
+  <si>
+    <t>jjiang@akingump.com</t>
+  </si>
+  <si>
+    <t>85236943</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Regulatory</t>
+  </si>
+  <si>
+    <t>Michael Baur</t>
+  </si>
+  <si>
+    <t>mbaur@alixpartners.com</t>
+  </si>
+  <si>
+    <t>49172893308711</t>
+  </si>
+  <si>
+    <t>https://www.alixpartners.com/our-people/28366/michael-baur/</t>
+  </si>
+  <si>
+    <t>Managing Director</t>
+  </si>
+  <si>
+    <t>AlixPartners</t>
+  </si>
+  <si>
+    <t>Desmond Liew</t>
+  </si>
+  <si>
+    <t>desmond.liew@rahmatlim.com</t>
+  </si>
+  <si>
+    <t>60322993998</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Allen &amp; Gledhill</t>
+  </si>
+  <si>
+    <t>Jessica Hanning</t>
+  </si>
+  <si>
+    <t>jessica.hanning@ah.co.nz</t>
+  </si>
+  <si>
+    <t>6439645842</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Commercial Litigation</t>
+  </si>
+  <si>
+    <t>Anthony Harper</t>
+  </si>
+  <si>
+    <t>Antoine Portelange</t>
+  </si>
+  <si>
+    <t>antoine.portelange@arendt.com</t>
+  </si>
+  <si>
+    <t>352407878926712</t>
+  </si>
+  <si>
+    <t>Funds &amp; Investment</t>
+  </si>
+  <si>
+    <t>https://www.arendt.com/about-us/our-people/antoine-portelange/</t>
+  </si>
+  <si>
+    <t>Arendt &amp; Medernach</t>
+  </si>
+  <si>
+    <t>Stéphane badey</t>
+  </si>
+  <si>
+    <t>stephane.badey@arendt.com</t>
+  </si>
+  <si>
+    <t>3522609107743</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Muhammad Iqsan Sirie</t>
+  </si>
+  <si>
+    <t>iqsan.sirie@ahp.id</t>
+  </si>
+  <si>
+    <t>622125557805</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>M&amp;A</t>
+  </si>
+  <si>
+    <t>Assegaf Hamzah &amp; Partners</t>
+  </si>
+  <si>
+    <t>Luiza Wyrębkowska</t>
+  </si>
+  <si>
+    <t>luiza.wyrebkowska@b2rlaw.com</t>
+  </si>
+  <si>
+    <t>4822375404610</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>https://b2rlaw.com/pl/team/luiza-wyrebkowska/</t>
+  </si>
+  <si>
+    <t>B2RLAW</t>
+  </si>
+  <si>
+    <t>Catriona Hatton</t>
+  </si>
+  <si>
+    <t>catriona.hatton@bakerbotts.com</t>
+  </si>
+  <si>
+    <t>3228917310</t>
+  </si>
+  <si>
+    <t>Competition</t>
+  </si>
+  <si>
+    <t>Baker Botts</t>
+  </si>
+  <si>
+    <t>François-xavier Naime</t>
+  </si>
+  <si>
+    <t>francois-xavier.naime@bakermckenzie.com</t>
+  </si>
+  <si>
+    <t>Baker McKenzie</t>
+  </si>
+  <si>
+    <t>Dieter Dubs</t>
+  </si>
+  <si>
+    <t>dieter.dubs@baerkarrer.ch</t>
+  </si>
+  <si>
+    <t>41582615000</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Bär &amp; Karrer</t>
+  </si>
+  <si>
+    <t>Remy Bärlocher</t>
+  </si>
+  <si>
+    <t>remy.baerlocher@barandun-law.ch</t>
+  </si>
+  <si>
+    <t>41442665646</t>
+  </si>
+  <si>
+    <t>Tax</t>
+  </si>
+  <si>
+    <t>Barandun AG</t>
+  </si>
+  <si>
+    <t>Maria Garcia</t>
+  </si>
+  <si>
+    <t>maria.garcia@barrilero.es</t>
+  </si>
+  <si>
+    <t>34944793400</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Barrilero and Associates</t>
+  </si>
+  <si>
+    <t>Sang Yup Byon</t>
+  </si>
+  <si>
+    <t>sybyon@barunlaw.com</t>
+  </si>
+  <si>
+    <t>234795725</t>
+  </si>
+  <si>
+    <t>Korea (South)</t>
+  </si>
+  <si>
+    <t>Infrastructure</t>
+  </si>
+  <si>
+    <t>Barun Law LLC</t>
+  </si>
+  <si>
+    <t>Juan Carlos Hernández Campos</t>
+  </si>
+  <si>
+    <t>jhernandez@basham.com.mx</t>
+  </si>
+  <si>
+    <t>525552610496</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Trademarks</t>
+  </si>
+  <si>
+    <t>Basham, Ringe y Correa</t>
+  </si>
+  <si>
+    <t>Sarah Coopman</t>
+  </si>
+  <si>
+    <t>sc@bmlaw.ch</t>
+  </si>
+  <si>
+    <t>41442154477</t>
+  </si>
+  <si>
+    <t>Commercial</t>
+  </si>
+  <si>
+    <t>Baumgartner Mächler Rechtsanwälte AG</t>
+  </si>
+  <si>
+    <t>Campbell Pentney</t>
+  </si>
+  <si>
+    <t>campbell.pentney@bellgully.com</t>
+  </si>
+  <si>
+    <t>6499168917</t>
+  </si>
+  <si>
+    <t>Bell Gully</t>
+  </si>
+  <si>
+    <t>Jason M Berall</t>
+  </si>
+  <si>
+    <t>berallj@bennettjones.com</t>
+  </si>
+  <si>
+    <t>4167775489</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Bankruptcy</t>
+  </si>
+  <si>
+    <t>https://www.bennettjones.com/beralljasonm</t>
+  </si>
+  <si>
+    <t>Bennett Jones LLP</t>
+  </si>
+  <si>
+    <t>Rémi Dias</t>
+  </si>
+  <si>
+    <t>rdias@bg2v.com</t>
+  </si>
+  <si>
+    <t>33179356821</t>
+  </si>
+  <si>
+    <t>Corporate Tax</t>
+  </si>
+  <si>
+    <t>BG2V</t>
+  </si>
+  <si>
+    <t>Julien Vernet</t>
+  </si>
+  <si>
+    <t>vernet@bg2v.com</t>
+  </si>
+  <si>
+    <t>33148886060</t>
+  </si>
+  <si>
+    <t>Founding Partner</t>
+  </si>
+  <si>
+    <t>BG2V </t>
+  </si>
+  <si>
+    <t>Claus Becker</t>
+  </si>
+  <si>
+    <t>claus.becker@twobirds.com</t>
+  </si>
+  <si>
+    <t>Patents</t>
+  </si>
+  <si>
+    <t>Bird &amp; Bird</t>
+  </si>
+  <si>
+    <t>Ha Thi Mai Anh</t>
+  </si>
+  <si>
+    <t>maianh.ha@bizlink.vn</t>
+  </si>
+  <si>
+    <t>84934293895</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Corporate</t>
+  </si>
+  <si>
+    <t>https://bizlink.vn/partners/Do_Dzung.html</t>
+  </si>
+  <si>
+    <t>BIZLINK</t>
+  </si>
+  <si>
+    <t>Aletha Pangman</t>
+  </si>
+  <si>
+    <t>aletha.pangman@blakes.com</t>
+  </si>
+  <si>
+    <t>16046314607</t>
+  </si>
+  <si>
+    <t>Corporate Finance</t>
+  </si>
+  <si>
+    <t>Blakes</t>
+  </si>
+  <si>
+    <t>Tobias Ackermann</t>
+  </si>
+  <si>
+    <t>tobias.ackermann@blomstein.com</t>
+  </si>
+  <si>
+    <t>4930214802700</t>
+  </si>
+  <si>
+    <t>Blomstein mbb</t>
+  </si>
+  <si>
+    <t>Stéphane Lagonico</t>
+  </si>
+  <si>
+    <t>sl@bonnard-lawson.com</t>
+  </si>
+  <si>
+    <t>410213481188</t>
+  </si>
+  <si>
+    <t>Trusts &amp; Estates</t>
+  </si>
+  <si>
+    <t>Bonnard Lawson</t>
+  </si>
+  <si>
+    <t>André Dufour</t>
+  </si>
+  <si>
+    <t>adufour@blg.com</t>
+  </si>
+  <si>
+    <t>Borden Ladner Gervais LLP</t>
+  </si>
+  <si>
+    <t>Alberto Carpani</t>
+  </si>
+  <si>
+    <t>acarpani@thinkbrg.com</t>
+  </si>
+  <si>
+    <t>447788442664</t>
+  </si>
+  <si>
+    <t>TMT</t>
+  </si>
+  <si>
+    <t>Director</t>
+  </si>
+  <si>
+    <t>BRG</t>
+  </si>
+  <si>
+    <t>Dirk Ehleben</t>
+  </si>
+  <si>
+    <t>dirk.ehleben@bclplaw.com</t>
+  </si>
+  <si>
+    <t>49030684096136</t>
+  </si>
+  <si>
+    <t>Real Estate</t>
+  </si>
+  <si>
+    <t>Bryan Cave Leighton Paisner</t>
+  </si>
+  <si>
+    <t>Ida Holst Bekker-jensen</t>
+  </si>
+  <si>
+    <t>ih@buddeschou.dk</t>
+  </si>
+  <si>
+    <t>457025099</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Litigation</t>
+  </si>
+  <si>
+    <t>https://buddeschou.dk/en/our-experts/ida-holst-bekker-jensen/</t>
+  </si>
+  <si>
+    <t>Budde Schou A/S</t>
+  </si>
+  <si>
+    <t>Tom G Eilertsen</t>
+  </si>
+  <si>
+    <t>te@bull.no</t>
+  </si>
+  <si>
+    <t>4790792550</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Bull &amp; Co </t>
+  </si>
+  <si>
+    <t>Daniel Holohan</t>
+  </si>
+  <si>
+    <t>dholohan@byrnewallaceshields.com</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Byrne Wallace Shields LLP</t>
+  </si>
+  <si>
+    <t>Emanuel Callejas</t>
+  </si>
+  <si>
+    <t>emanuel.callejas@carrillolaw.com</t>
+  </si>
+  <si>
+    <t>5022421574110</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Insolvency</t>
+  </si>
+  <si>
+    <t>https://www.terralex.org/persons/1138</t>
+  </si>
+  <si>
+    <t>Carrillo &amp; Asociados</t>
+  </si>
+  <si>
+    <t>Alberto Gil</t>
+  </si>
+  <si>
+    <t>alberto.gil@caseslacambra.com</t>
+  </si>
+  <si>
+    <t>376389504</t>
+  </si>
+  <si>
+    <t>International Tax</t>
+  </si>
+  <si>
+    <t>Cases &amp; Lacambra</t>
+  </si>
+  <si>
+    <t>Lucas Blair</t>
+  </si>
+  <si>
+    <t>lblair@cassels.com</t>
+  </si>
+  <si>
+    <t>4168606447</t>
+  </si>
+  <si>
+    <t>Cassels</t>
+  </si>
+  <si>
+    <t>Jerker Pitkänen</t>
+  </si>
+  <si>
+    <t>jerker.pitkanen@castren.fi</t>
+  </si>
+  <si>
+    <t>358407335558</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>Castrén &amp; Snellman</t>
+  </si>
+  <si>
+    <t>Candemir Baltalı</t>
+  </si>
+  <si>
+    <t>candemir.baltali@ccaolaw.com</t>
+  </si>
+  <si>
+    <t>902123495000</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Banking &amp; Finance</t>
+  </si>
+  <si>
+    <t>https://ccaolaw.com/team-member/candemir-baltali/</t>
+  </si>
+  <si>
+    <t>CCAO Law</t>
+  </si>
+  <si>
+    <t>Harald Stingl</t>
+  </si>
+  <si>
+    <t>harald.stingl@cerhahempel.com</t>
+  </si>
+  <si>
+    <t>43151435411</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>https://www.cerhahempel.com/lawyers/harald-stingl-llm</t>
+  </si>
+  <si>
+    <t>CERHA HEMPEL</t>
+  </si>
+  <si>
+    <t>Caroline Greenwell</t>
+  </si>
+  <si>
+    <t>caroline.greenwell@crsblaw.com</t>
+  </si>
+  <si>
+    <t>Commercial Disputes</t>
+  </si>
+  <si>
+    <t>Charles Russell Speechlys</t>
+  </si>
+  <si>
+    <t>Nicholas Levy</t>
+  </si>
+  <si>
+    <t>nlevy@cgsh.com</t>
+  </si>
+  <si>
+    <t>3222872311</t>
+  </si>
+  <si>
+    <t>EU Competition</t>
+  </si>
+  <si>
+    <t>Cleary Gottlieb Steen &amp; Hamilton</t>
+  </si>
+  <si>
+    <t>Gretchen Barkhuizen-barbosa</t>
+  </si>
+  <si>
+    <t>gretchen.barkhuizen@cdhlegal.com</t>
+  </si>
+  <si>
+    <t>270115621250</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Cliffe Dekker Hofmeyr</t>
+  </si>
+  <si>
+    <t>Matthew Lam</t>
+  </si>
+  <si>
+    <t>matthew.lam@clydeco.com</t>
+  </si>
+  <si>
+    <t>85222872825</t>
+  </si>
+  <si>
+    <t>Clyde &amp; Co</t>
+  </si>
+  <si>
+    <t>Ben Booker-moore</t>
+  </si>
+  <si>
+    <t>ben.booker-moore@cms-cmno.com</t>
+  </si>
+  <si>
+    <t>CMS</t>
+  </si>
+  <si>
+    <t>Roberto González Torre</t>
+  </si>
+  <si>
+    <t>rgonzalez@lex.ec</t>
+  </si>
+  <si>
+    <t>59342681020</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>https://consulegisabogados.com/en/roberto-gonzalez-torre/</t>
+  </si>
+  <si>
+    <t>Consulegis</t>
+  </si>
+  <si>
+    <t>Milena Varga</t>
+  </si>
+  <si>
+    <t>milena.varga@contrast.law</t>
+  </si>
+  <si>
+    <t>32022750075</t>
+  </si>
+  <si>
+    <t>https://www.contrast.law/en/team/milena-varga/</t>
+  </si>
+  <si>
+    <t>Contrast</t>
+  </si>
+  <si>
+    <t>Ben Wilkinson</t>
+  </si>
+  <si>
+    <t>ben.wilkinson@controlrisks.com</t>
+  </si>
+  <si>
+    <t>442079702261</t>
+  </si>
+  <si>
+    <t>Oil &amp; Gas</t>
+  </si>
+  <si>
+    <t>Control Risks</t>
+  </si>
+  <si>
+    <t>Sophie Inwood</t>
+  </si>
+  <si>
+    <t>s.inwood@cornwalls.com.au</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Cornwalls</t>
+  </si>
+  <si>
+    <t>Richard Mcneil</t>
+  </si>
+  <si>
+    <t>rmcneil@cowellclarke.com.au</t>
+  </si>
+  <si>
+    <t>Property</t>
+  </si>
+  <si>
+    <t>Cowell Clarke</t>
+  </si>
+  <si>
+    <t>Philip Stopford</t>
+  </si>
+  <si>
+    <t>pstopford@cravath.com</t>
+  </si>
+  <si>
+    <t>442074531050</t>
+  </si>
+  <si>
+    <t>Cravath, Swaine &amp; Moore</t>
+  </si>
+  <si>
+    <t>Matthew Scott</t>
+  </si>
+  <si>
+    <t>mscott@cmblaw.ca</t>
+  </si>
+  <si>
+    <t>4162170870</t>
+  </si>
+  <si>
+    <t>Crawley MacKewn Brush</t>
+  </si>
+  <si>
+    <t>Juan Carlos Puentes</t>
+  </si>
+  <si>
+    <t>juancarlos.puentes@cuatrecasas.com</t>
+  </si>
+  <si>
+    <t>576015802470</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Project Finance</t>
+  </si>
+  <si>
+    <t>Cuatrecasas</t>
+  </si>
+  <si>
+    <t>Felipe Dalgalarrando H</t>
+  </si>
+  <si>
+    <t>fdalgalarrando@dryc.cl</t>
+  </si>
+  <si>
+    <t>56223830000</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>https://dryc.cl/en/abogados/felipe-dalgalarrando/</t>
+  </si>
+  <si>
+    <t>Dalgalarrando &amp; Cía</t>
+  </si>
+  <si>
+    <t>Elias benhamou</t>
+  </si>
+  <si>
+    <t>ebenhamou@dwpv.com</t>
+  </si>
+  <si>
+    <t>51484164279</t>
+  </si>
+  <si>
+    <t>https://www.dwpv.com/en/People/Elias-Benhamou</t>
+  </si>
+  <si>
+    <t>Davies</t>
+  </si>
+  <si>
+    <t>Oscar Brandin</t>
+  </si>
+  <si>
+    <t>oscar.brandin@delphi.se</t>
+  </si>
+  <si>
+    <t>46709252633</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Delphi </t>
+  </si>
+  <si>
+    <t>Christiano Chagas Monteiro De Melo</t>
+  </si>
+  <si>
+    <t>cchagas@demarest.com.br</t>
+  </si>
+  <si>
+    <t>551133562004</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Demarest</t>
+  </si>
+  <si>
+    <t>Jean-paul Vulliéty</t>
+  </si>
+  <si>
+    <t>jpvulliety@desgouttes.ch</t>
+  </si>
+  <si>
+    <t>41227043050</t>
+  </si>
+  <si>
+    <t>Contracts</t>
+  </si>
+  <si>
+    <t>Des Gouttes &amp; Associés</t>
+  </si>
+  <si>
+    <t>Aneesh Gupte</t>
+  </si>
+  <si>
+    <t>aneesh.gupte@desaidiwanji.com</t>
+  </si>
+  <si>
+    <t>919873607591</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>https://www.desaidiwanji.com/partners-profile/Aneesh-Gupte</t>
+  </si>
+  <si>
+    <t>Desai &amp; Diwanji’s</t>
+  </si>
+  <si>
+    <t>Simon Correggia</t>
+  </si>
+  <si>
+    <t>simon.correggia@deutschmiller.com</t>
+  </si>
+  <si>
+    <t>292107767</t>
+  </si>
+  <si>
+    <t>Special Counsel</t>
+  </si>
+  <si>
+    <t>Deutsch Miller</t>
+  </si>
+  <si>
+    <t>Khamza Babadjanov</t>
+  </si>
+  <si>
+    <t>k.babadjanov@digests.uz</t>
+  </si>
+  <si>
+    <t>99888100882211</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>https://digests.uz/staff/khamza-babadjanov/</t>
+  </si>
+  <si>
+    <t>Managing Partner</t>
+  </si>
+  <si>
+    <t>DIGESTS</t>
+  </si>
+  <si>
+    <t>Tanja Savičić</t>
+  </si>
+  <si>
+    <t>tanja.savicic@dimitrijevicpartners.com</t>
+  </si>
+  <si>
+    <t>38765918526</t>
+  </si>
+  <si>
+    <t>Bosnia &amp; Herzegovina</t>
+  </si>
+  <si>
+    <t>https://dimitrijevicpartners.com/team/</t>
+  </si>
+  <si>
+    <t>Dimitrijević and Partners</t>
+  </si>
+  <si>
+    <t>Daniel colgan</t>
+  </si>
+  <si>
+    <t>daniel.colgan@dlapiper.com</t>
+  </si>
+  <si>
+    <t>3225006504</t>
+  </si>
+  <si>
+    <t>DLA Piper</t>
+  </si>
+  <si>
+    <t>Anna Jones</t>
+  </si>
+  <si>
+    <t>anna.jones@doane.gt.ca</t>
+  </si>
+  <si>
+    <t>1778841114910</t>
+  </si>
+  <si>
+    <t>https://www.doanegrantthornton.ca/meet-our-people/anna-jones/</t>
+  </si>
+  <si>
+    <t>Doane Grant Thornton LLP</t>
+  </si>
+  <si>
+    <t>Florian Kremslehner</t>
+  </si>
+  <si>
+    <t>florian.kremslehner@dorda.at</t>
+  </si>
+  <si>
+    <t>431533479518</t>
+  </si>
+  <si>
+    <t>Arbitration</t>
+  </si>
+  <si>
+    <t>http://www.dorda.at/en/dr-florian-kremslehner</t>
+  </si>
+  <si>
+    <t>DORDA</t>
+  </si>
+  <si>
+    <t>Milcíades M Rodríguez</t>
+  </si>
+  <si>
+    <t>m.rodriguez@drr-law.com</t>
+  </si>
+  <si>
+    <t>809508719</t>
+  </si>
+  <si>
+    <t>the Dominican Republic</t>
+  </si>
+  <si>
+    <t>Tax Advisory</t>
+  </si>
+  <si>
+    <t>https://drr-law.com/en/personal/milciades-m-rodriguez/</t>
+  </si>
+  <si>
+    <t>DRR Law</t>
+  </si>
+  <si>
+    <t>Aliki Damilakis</t>
+  </si>
+  <si>
+    <t>ald@dryllerakis.gr</t>
+  </si>
+  <si>
+    <t>30211000345611</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>https://www.dryllerakis.gr/our-people/aliki-damilakis/</t>
+  </si>
+  <si>
+    <t>Senior Partner</t>
+  </si>
+  <si>
+    <t>DRYLLERAKIS</t>
+  </si>
+  <si>
+    <t>Tomasz Masiarz</t>
+  </si>
+  <si>
+    <t>t.masiarz@djm.pl</t>
+  </si>
+  <si>
+    <t>48224360601</t>
+  </si>
+  <si>
+    <t>Capital Markets</t>
+  </si>
+  <si>
+    <t>https://djm.pl/en/team/tomasz-masiarz/</t>
+  </si>
+  <si>
+    <t>Dubiński Jeleński Masiarz i Wspólnicy</t>
+  </si>
+  <si>
+    <t>Jean-philippe Groleau</t>
+  </si>
+  <si>
+    <t>jpgroleau@dwpv.com</t>
+  </si>
+  <si>
+    <t>51484165839</t>
+  </si>
+  <si>
+    <t>https://www.dwpv.com/our-people/jean-philippe-groleau</t>
+  </si>
+  <si>
+    <t>DWPV</t>
+  </si>
+  <si>
+    <t>Hans Elverdam</t>
+  </si>
+  <si>
+    <t>hme@elverdam.dk</t>
+  </si>
+  <si>
+    <t>4520112236</t>
+  </si>
+  <si>
+    <t>https://elverdam.com/professionals/hme.html</t>
+  </si>
+  <si>
+    <t>Elverdam</t>
+  </si>
+  <si>
+    <t>Zita Albert</t>
+  </si>
+  <si>
+    <t>zita.albert@erdospartners.com</t>
+  </si>
+  <si>
+    <t>36309831525</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>https://erdospartners.com/en/</t>
+  </si>
+  <si>
+    <t>Erdős</t>
+  </si>
+  <si>
+    <t>Casiana Silveyra Perdriel</t>
+  </si>
+  <si>
+    <t>csilveyraperdriel@beccarvarela.com</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Estudio Beccar Varela</t>
+  </si>
+  <si>
+    <t>Diana Carolina Leandro</t>
+  </si>
+  <si>
+    <t>dleandro@estudiobenedetti.com</t>
+  </si>
+  <si>
+    <t>5073215100</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Trademark Litigation</t>
+  </si>
+  <si>
+    <t>https://estudiobenedetti.com/en/our-team/</t>
+  </si>
+  <si>
+    <t>Estudio Benedetti</t>
+  </si>
+  <si>
+    <t>Silva Palzer</t>
+  </si>
+  <si>
+    <t>silva.palzer@eversheds-sutherland.at</t>
+  </si>
+  <si>
+    <t>43151620125</t>
+  </si>
+  <si>
+    <t>Eversheds Sutherland</t>
+  </si>
+  <si>
+    <t>Ronan Ramos Jr</t>
+  </si>
+  <si>
+    <t>ronan.junior@faleck.com.br</t>
+  </si>
+  <si>
+    <t>551130524233</t>
+  </si>
+  <si>
+    <t>Mediation</t>
+  </si>
+  <si>
+    <t>Faleck &amp; Associados</t>
+  </si>
+  <si>
+    <t>Emilie paquin-holmested</t>
+  </si>
+  <si>
+    <t>epaquin@fasken.com</t>
+  </si>
+  <si>
+    <t>Fasken</t>
+  </si>
+  <si>
+    <t>Jamie G Knight</t>
+  </si>
+  <si>
+    <t>jknight@filion.on.ca</t>
+  </si>
+  <si>
+    <t>1416408550910</t>
+  </si>
+  <si>
+    <t>https://filion.on.ca/lawyers/james-g-knight/</t>
+  </si>
+  <si>
+    <t>Filion Wakely Thorup Angeletti</t>
+  </si>
+  <si>
+    <t>Ángel Blesa</t>
+  </si>
+  <si>
+    <t>angel.blesa@filslegal.com</t>
+  </si>
+  <si>
+    <t>34935951409</t>
+  </si>
+  <si>
+    <t>Tax Planning</t>
+  </si>
+  <si>
+    <t>Fils Legal</t>
+  </si>
+  <si>
+    <t>Youri Tonino</t>
+  </si>
+  <si>
+    <t>y.tonino@fizadvocaten.nl</t>
+  </si>
+  <si>
+    <t>31646876792</t>
+  </si>
+  <si>
+    <t>the Netherlands</t>
+  </si>
+  <si>
+    <t>Restructuring</t>
+  </si>
+  <si>
+    <t>https://fizadvocaten.nl/team/youri-tonino/</t>
+  </si>
+  <si>
+    <t>FIZ advocaten</t>
+  </si>
+  <si>
+    <t>Juan Pablo Philippi</t>
+  </si>
+  <si>
+    <t>jpp@fkeconomics.com</t>
+  </si>
+  <si>
+    <t>56942740884</t>
+  </si>
+  <si>
+    <t>FK Economics</t>
+  </si>
+  <si>
+    <t>Christian Bochmann Ll M</t>
+  </si>
+  <si>
+    <t>christian.bochmann@fgs.de</t>
+  </si>
+  <si>
+    <t>49403070850</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>Flick Gocke Schaumburg</t>
+  </si>
+  <si>
+    <t>Khor Wei Min</t>
+  </si>
+  <si>
+    <t>weimin@foongpartners.com</t>
+  </si>
+  <si>
+    <t>60364190829</t>
+  </si>
+  <si>
+    <t>https://foongpartners.com/people-weimin.php</t>
+  </si>
+  <si>
+    <t>Foong &amp; Partners</t>
+  </si>
+  <si>
+    <t>Christian Nicholls</t>
+  </si>
+  <si>
+    <t>cnicholls@forensicrisk.com</t>
+  </si>
+  <si>
+    <t>447860837620</t>
+  </si>
+  <si>
+    <t>Accounting</t>
+  </si>
+  <si>
+    <t>FRA</t>
+  </si>
+  <si>
+    <t>Farid Sigari-majd</t>
+  </si>
+  <si>
+    <t>farid.sigari@freshfields.com</t>
+  </si>
+  <si>
+    <t>431515150</t>
+  </si>
+  <si>
+    <t>Corporate Restructuring</t>
+  </si>
+  <si>
+    <t>Freshfields</t>
+  </si>
+  <si>
+    <t>John Batchelor</t>
+  </si>
+  <si>
+    <t>john.batchelor@fticonsulting.com</t>
+  </si>
+  <si>
+    <t>61396040628</t>
+  </si>
+  <si>
+    <t>Corporate Recovery</t>
+  </si>
+  <si>
+    <t>FTI Consulting</t>
+  </si>
+  <si>
+    <t>Johan Norén</t>
+  </si>
+  <si>
+    <t>johan.noren@fylgia.se</t>
+  </si>
+  <si>
+    <t>4684425300</t>
+  </si>
+  <si>
+    <t>Fylgia</t>
+  </si>
+  <si>
+    <t>Ken Melly</t>
+  </si>
+  <si>
+    <t>kmelly@gallp.co.ke</t>
+  </si>
+  <si>
+    <t>254204400509</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>https://gallp.co.ke/teams-pt/ken-melly/</t>
+  </si>
+  <si>
+    <t>G&amp;A Advocates</t>
+  </si>
+  <si>
+    <t>Anders Junker-nilsson</t>
+  </si>
+  <si>
+    <t>ajunkernilsson@gbsdisputes.com</t>
+  </si>
+  <si>
+    <t>33772389890</t>
+  </si>
+  <si>
+    <t>Cross Border Commercial</t>
+  </si>
+  <si>
+    <t>Gaillard Banifatemi Shelbaya Disputes</t>
+  </si>
+  <si>
+    <t>Senem Kathrin Güçlüer</t>
+  </si>
+  <si>
+    <t>senem.gucluer@schindhelm.com</t>
+  </si>
+  <si>
+    <t>902122742020</t>
+  </si>
+  <si>
+    <t>https://tr.schindhelm.com/en/team/p/senem-kathrin-gueclueer-rechtsanwaeltin-istanbul</t>
+  </si>
+  <si>
+    <t>GEMS Schindhelm</t>
+  </si>
+  <si>
+    <t>Simone D’avolio</t>
+  </si>
+  <si>
+    <t>sdavolio@gop.it</t>
+  </si>
+  <si>
+    <t>3906478751</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Gianni, Origoni, Grippo, Cappelli &amp; Partners</t>
+  </si>
+  <si>
+    <t>Benoit Pape</t>
+  </si>
+  <si>
+    <t>benoit.pape@gide.com</t>
+  </si>
+  <si>
+    <t>2120522489028</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Gide Loyrette Nouel</t>
+  </si>
+  <si>
+    <t>Niklaus Glatthard</t>
+  </si>
+  <si>
+    <t>niklaus.glatthard@glatthard.law</t>
+  </si>
+  <si>
+    <t>41583112028</t>
+  </si>
+  <si>
+    <t>Private Clients</t>
+  </si>
+  <si>
+    <t>Glatthard Advokatur &amp; Notariat AG</t>
+  </si>
+  <si>
+    <t>Cecilia Malm</t>
+  </si>
+  <si>
+    <t>cecilia.malm@glimstedt.se</t>
+  </si>
+  <si>
+    <t>GLIMSTEDT</t>
+  </si>
+  <si>
+    <t>Jakob Krogsøe</t>
+  </si>
+  <si>
+    <t>jak@gorrissenfederspiel.com</t>
+  </si>
+  <si>
+    <t>Gorrissen Federspiel</t>
+  </si>
+  <si>
+    <t>Mark Giavedoni</t>
+  </si>
+  <si>
+    <t>mark.giavedoni@gowlingwlg.com</t>
+  </si>
+  <si>
+    <t>19055402493</t>
+  </si>
+  <si>
+    <t>Gowling WLG</t>
+  </si>
+  <si>
+    <t>He Lifeng</t>
+  </si>
+  <si>
+    <t>helifeng@grandall.com.cn</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Grandall Law</t>
+  </si>
+  <si>
+    <t>Sander Simonetti</t>
+  </si>
+  <si>
+    <t>s.simonetti@habrakenrutten.com</t>
+  </si>
+  <si>
+    <t>310643216606</t>
+  </si>
+  <si>
+    <t>https://www.habrakenrutten.com/team/sander-simonetti</t>
+  </si>
+  <si>
+    <t>Habraken Rutten</t>
+  </si>
+  <si>
+    <t>Anthony Cowle</t>
+  </si>
+  <si>
+    <t>anthony.cowle@halfords.com.au</t>
+  </si>
+  <si>
+    <t>61292648388</t>
+  </si>
+  <si>
+    <t>Halfords IP</t>
+  </si>
+  <si>
+    <t>Gilbert Licudi</t>
+  </si>
+  <si>
+    <t>gilbert.licudi@hassans.gi</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>Hassans</t>
+  </si>
+  <si>
+    <t>Dritan Jahaj</t>
+  </si>
+  <si>
+    <t>dritanjahaj@lawfirmhh.com</t>
+  </si>
+  <si>
+    <t>35542280170</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Criminal</t>
+  </si>
+  <si>
+    <t>https://lawfirmhh.com/av-dritan-jahaj/</t>
+  </si>
+  <si>
+    <t>Haxhia &amp; Hajdari</t>
+  </si>
+  <si>
+    <t>Alex Smith</t>
+  </si>
+  <si>
+    <t>asmith@hhllp.ca</t>
+  </si>
+  <si>
+    <t>14163685000</t>
+  </si>
+  <si>
+    <t>Henein Hutchison Robitaille</t>
+  </si>
+  <si>
+    <t>Christoph Roth</t>
+  </si>
+  <si>
+    <t>christoph.roth@hengeler.com</t>
+  </si>
+  <si>
+    <t>4989383388196</t>
+  </si>
+  <si>
+    <t>Hengeler Mueller</t>
+  </si>
+  <si>
+    <t>Peiwen Chen</t>
+  </si>
+  <si>
+    <t>peiwen.chen@hsfkramer.com</t>
+  </si>
+  <si>
+    <t>6568689825</t>
+  </si>
+  <si>
+    <t>Joint Ventures</t>
+  </si>
+  <si>
+    <t>Herbert Smith Freehills Kramer</t>
+  </si>
+  <si>
+    <t>Roelof Vos</t>
+  </si>
+  <si>
+    <t>vos@hertoghsadvocaten.nl</t>
+  </si>
+  <si>
+    <t>310885202252</t>
+  </si>
+  <si>
+    <t>Hertoghs Advocaten</t>
+  </si>
+  <si>
+    <t>Phil Kienstra</t>
+  </si>
+  <si>
+    <t>philipkienstra@hka.com</t>
+  </si>
+  <si>
+    <t>61730316800</t>
+  </si>
+  <si>
+    <t>HKA</t>
+  </si>
+  <si>
+    <t>Grace Guo</t>
+  </si>
+  <si>
+    <t>grace.guo@hoganlovells.com</t>
+  </si>
+  <si>
+    <t>861065829488</t>
+  </si>
+  <si>
+    <t>Hogan Lovells</t>
+  </si>
+  <si>
+    <t>Dilber Devitre</t>
+  </si>
+  <si>
+    <t>dilber.devitre@homburger.ch</t>
+  </si>
+  <si>
+    <t>41432221000</t>
+  </si>
+  <si>
+    <t>Homburger AG</t>
+  </si>
+  <si>
+    <t>Rhidian David</t>
+  </si>
+  <si>
+    <t>rhidian.david@hugheshubbard.com</t>
+  </si>
+  <si>
+    <t>330144057613</t>
+  </si>
+  <si>
+    <t>Hughes Hubbard &amp; Reed LLP</t>
+  </si>
+  <si>
+    <t>Helen Christinson</t>
+  </si>
+  <si>
+    <t>helen@hugolawgroup.com.au</t>
+  </si>
+  <si>
+    <t>296961361</t>
+  </si>
+  <si>
+    <t>Hugo Law</t>
+  </si>
+  <si>
+    <t>Simon collier</t>
+  </si>
+  <si>
+    <t>scollier@hunton.com</t>
+  </si>
+  <si>
+    <t>4402072205744</t>
+  </si>
+  <si>
+    <t>Hunton Andrews Kurth</t>
+  </si>
+  <si>
+    <t>Tamara Boyadzhieva</t>
+  </si>
+  <si>
+    <t>tamara.kovacheva@ivlawfirm.com</t>
+  </si>
+  <si>
+    <t>35929814953</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>https://ivlawfirm.com/en/team/tamara-kovacheva-2/</t>
+  </si>
+  <si>
+    <t>Ilieva VoutchevaAndCo</t>
+  </si>
+  <si>
+    <t>Dillon Loh</t>
+  </si>
+  <si>
+    <t>enquiry@intellect-worldwide.com</t>
+  </si>
+  <si>
+    <t>6042291100</t>
+  </si>
+  <si>
+    <t>Intellect Group of IP Companies</t>
+  </si>
+  <si>
+    <t>Abdulwahab Al-fahad</t>
+  </si>
+  <si>
+    <t>abdulwahab@icbkuwait.com.kw</t>
+  </si>
+  <si>
+    <t>96522205344</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>https://icbkuwait.com.kw/our-team</t>
+  </si>
+  <si>
+    <t>International Counsel Bureau</t>
+  </si>
+  <si>
+    <t>Ana Zoric</t>
+  </si>
+  <si>
+    <t>ana.zoric@ilaw.rs</t>
+  </si>
+  <si>
+    <t>381113622292</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Corporate M&amp;A</t>
+  </si>
+  <si>
+    <t>https://www.advokatskakancelarija.com/en/tim/</t>
+  </si>
+  <si>
+    <t>IsailovićAndPartners</t>
+  </si>
+  <si>
+    <t>Gustavo Enrique Vicetto</t>
+  </si>
+  <si>
+    <t>gvicetto@izquierdo.com.ar</t>
+  </si>
+  <si>
+    <t>541143151410</t>
+  </si>
+  <si>
+    <t>Izquierdo &amp; Vicetto</t>
+  </si>
+  <si>
+    <t>Beatriz Pereira Da Cruz</t>
+  </si>
+  <si>
+    <t>beatrizcruz@jpcruz.pt</t>
+  </si>
+  <si>
+    <t>351213475020</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>J. Pereira da Cruz</t>
+  </si>
+  <si>
+    <t>Francisco Grob</t>
+  </si>
+  <si>
+    <t>fgrob@janagil.com</t>
+  </si>
+  <si>
+    <t>56227577809</t>
+  </si>
+  <si>
+    <t>International Arbitration</t>
+  </si>
+  <si>
+    <t>Jana &amp; Gil Dispute Resolution</t>
+  </si>
+  <si>
+    <t>Sonji Pierre Chase</t>
+  </si>
+  <si>
+    <t>spierrechase@jcscaribbeanlaw.com</t>
+  </si>
+  <si>
+    <t>18682254111</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>https://www.jcscaribbeanlaw.com/our-team/sonji-pierre-chase/</t>
+  </si>
+  <si>
+    <t>JCS CARIBBEAN LAW</t>
+  </si>
+  <si>
+    <t>Alexae fournier- De faÿ</t>
+  </si>
+  <si>
+    <t>afournierdefay@jeantet.fr</t>
+  </si>
+  <si>
+    <t>330145058008</t>
+  </si>
+  <si>
+    <t>JEANTET</t>
+  </si>
+  <si>
+    <t>Helen Guan Qiwen</t>
+  </si>
+  <si>
+    <t>helen.guan@joselupi.com</t>
+  </si>
+  <si>
+    <t>85328389184</t>
+  </si>
+  <si>
+    <t>Macau</t>
+  </si>
+  <si>
+    <t>https://joselupi.com/en/people/helen-guan-qiwen/</t>
+  </si>
+  <si>
+    <t>José LupiAndAssociates</t>
+  </si>
+  <si>
+    <t>Eva Nováková</t>
+  </si>
+  <si>
+    <t>eva.novakova@jsk.cz</t>
+  </si>
+  <si>
+    <t>420226227612</t>
+  </si>
+  <si>
+    <t>the Czech Republic</t>
+  </si>
+  <si>
+    <t>Insurance</t>
+  </si>
+  <si>
+    <t>https://www.jsk.cz/team/eva-novakova</t>
+  </si>
+  <si>
+    <t>JŠK Advokátní</t>
+  </si>
+  <si>
+    <t>Abi Frederick</t>
+  </si>
+  <si>
+    <t>abi.frederick@lewissilkin.com</t>
+  </si>
+  <si>
+    <t>4402070748324</t>
+  </si>
+  <si>
+    <t>https://www.lewissilkin.com/experts/abi-frederick</t>
+  </si>
+  <si>
+    <t>Lewiss Silkin</t>
+  </si>
+  <si>
+    <t>Emilia Alakurtti</t>
+  </si>
+  <si>
+    <t>emilia.alakurtti@magnussonlaw.com</t>
+  </si>
+  <si>
+    <t>358400244170</t>
+  </si>
+  <si>
+    <t>Corporate and M&amp;A</t>
+  </si>
+  <si>
+    <t>https://www.magnussonlaw.com/people/emilia-alakurtti/</t>
+  </si>
+  <si>
+    <t>Magnusson Law</t>
+  </si>
+  <si>
+    <t>Shaun Folpp</t>
+  </si>
+  <si>
+    <t>sfolpp@campbellslegal.com</t>
+  </si>
+  <si>
+    <t>5061187</t>
+  </si>
+  <si>
+    <t>Not Found</t>
+  </si>
+  <si>
+    <t>https://www.campbellslegal.com/person/shaun-folpp/</t>
+  </si>
+  <si>
+    <t>Campbells Legal</t>
+  </si>
+  <si>
+    <t>Paolo Baruffi</t>
+  </si>
+  <si>
+    <t>pbaruffi@carnelutti.com</t>
+  </si>
+  <si>
+    <t>390265585310</t>
+  </si>
+  <si>
+    <t>https://www.carnelutti.com/people/baruffi-paolo/</t>
+  </si>
+  <si>
+    <t>Carnelutti Law</t>
+  </si>
+  <si>
+    <t>cschreiber *****</t>
+  </si>
+  <si>
+    <t>cschreiber@dompatent.de</t>
+  </si>
+  <si>
+    <t>4922191652228</t>
+  </si>
+  <si>
+    <t>https://www.dompatent.de/en/patentanwalt/dr-christoph-schreiber-2/</t>
+  </si>
+  <si>
+    <t>Dompatent</t>
+  </si>
+  <si>
+    <t>Eunice Chow</t>
+  </si>
+  <si>
+    <t>echow@sangra.com</t>
+  </si>
+  <si>
+    <t>6046923024</t>
+  </si>
+  <si>
+    <t>https://www.sangra.com/people/lawyers/eunice-chow</t>
+  </si>
+  <si>
+    <t>Sangra</t>
+  </si>
+  <si>
+    <t>James Cousins</t>
+  </si>
+  <si>
+    <t>james.cousins@mourant.com</t>
+  </si>
+  <si>
+    <t>441481739329</t>
+  </si>
+  <si>
+    <t>Guernsey, Jersey, London</t>
+  </si>
+  <si>
+    <t>https://www.mourant.com/profile/view/52323/James-Cousins</t>
+  </si>
+  <si>
+    <t>Mourant</t>
+  </si>
+  <si>
+    <t>Ryan Baker</t>
+  </si>
+  <si>
+    <t>rbaker@stewartmckelvey.com</t>
+  </si>
+  <si>
+    <t>19024441760</t>
+  </si>
+  <si>
+    <t>https://stewartmckelvey.com/people/baker-ryan/</t>
+  </si>
+  <si>
+    <t>StewartMcKelvey</t>
+  </si>
+  <si>
+    <t>Manisha Bhula</t>
+  </si>
+  <si>
+    <t>manisha.bhula@blandy.co.uk</t>
+  </si>
+  <si>
+    <t>1189516814</t>
+  </si>
+  <si>
+    <t>Residential Property</t>
+  </si>
+  <si>
+    <t>https://www.blandy.co.uk</t>
+  </si>
+  <si>
+    <t>Blandy And Blandy</t>
+  </si>
+  <si>
+    <t>Guillermo Garay</t>
+  </si>
+  <si>
+    <t>ggaray@ksa.mx</t>
+  </si>
+  <si>
+    <t>525552925930</t>
+  </si>
+  <si>
+    <t>Mergers and Acquisitions</t>
+  </si>
+  <si>
+    <t>https://ksa.mx/en/team/socios/garay-espinosa-guillermo</t>
+  </si>
+  <si>
+    <t>Kuri Breña</t>
+  </si>
+  <si>
+    <t>Peter Bachmann</t>
+  </si>
+  <si>
+    <t>peter.bachmann@noerr.com</t>
+  </si>
+  <si>
+    <t>498928628277</t>
+  </si>
+  <si>
+    <t>Regulatory and Governmental Affairs</t>
+  </si>
+  <si>
+    <t>https://www.noerr.com/en/professionals/bachmann-peter</t>
+  </si>
+  <si>
+    <t>Noerr</t>
+  </si>
+  <si>
+    <t>Michael Albrecht Vom Kolke</t>
+  </si>
+  <si>
+    <t>michael.albrechtvomkolke@skadden.com</t>
+  </si>
+  <si>
+    <t>4969742200</t>
+  </si>
+  <si>
+    <t>White Collar Defense and Investigations</t>
+  </si>
+  <si>
+    <t>https://www.skadden.com/professionals/a/albrecht-vom-kolke-michael</t>
+  </si>
+  <si>
+    <t>Skadden</t>
+  </si>
+  <si>
+    <t>enrico delguerra *****</t>
+  </si>
+  <si>
+    <t>enrico.delguerra@pavia-ansaldo.it</t>
+  </si>
+  <si>
+    <t>390285581</t>
+  </si>
+  <si>
+    <t>https://www.pavia-ansaldo.it/en/enrico-del-guerra/</t>
+  </si>
+  <si>
+    <t>Pavia And Ansaldo</t>
+  </si>
+  <si>
+    <t>Ahmed Jaafir</t>
+  </si>
+  <si>
+    <t>a.jaafir@tamimi.com</t>
+  </si>
+  <si>
+    <t>97444572777</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>https://www.tamimi.com/find-a-lawyer/ahmed-jaafir/</t>
+  </si>
+  <si>
+    <t>Al Tamimi</t>
+  </si>
+  <si>
+    <t>Jesse De Bruyn</t>
+  </si>
+  <si>
+    <t>jdebruyn@cassidylevy.com</t>
+  </si>
+  <si>
+    <t>32028831220</t>
+  </si>
+  <si>
+    <t>https://www.cassidylevy.com/person/jesse-de-bruyn/</t>
+  </si>
+  <si>
+    <t>Cassidy Levy Kent</t>
+  </si>
+  <si>
+    <t>Monique Adams</t>
+  </si>
+  <si>
+    <t>monique.adams@ogier.com</t>
+  </si>
+  <si>
+    <t>12848527400</t>
+  </si>
+  <si>
+    <t>the British Virgin Islands</t>
+  </si>
+  <si>
+    <t>Corporate and Fiduciary</t>
+  </si>
+  <si>
+    <t>https://www.ogier.com/people/monique-adams/</t>
+  </si>
+  <si>
+    <t>Ogier</t>
+  </si>
+  <si>
+    <t>Angilynn Baraud</t>
+  </si>
+  <si>
+    <t>angilynn.baraud@ogier.com</t>
+  </si>
+  <si>
+    <t>13458151707</t>
+  </si>
+  <si>
+    <t>the Cayman Islands</t>
+  </si>
+  <si>
+    <t>https://www.ogier.com/people/angilynn-baraud/</t>
+  </si>
+  <si>
+    <t>Rafi Azim-khan</t>
+  </si>
+  <si>
+    <t>rafi@crowell.com</t>
+  </si>
+  <si>
+    <t>244207413130720</t>
+  </si>
+  <si>
+    <t>Privacy and Cybersecurity</t>
+  </si>
+  <si>
+    <t>https://www.crowell.com/en/professionals/rafi-azim-khan</t>
+  </si>
+  <si>
+    <t>Crowell And Moring</t>
+  </si>
+  <si>
+    <t>Scott T Williams</t>
+  </si>
+  <si>
+    <t>scwilliams@crowell.com</t>
+  </si>
+  <si>
+    <t>Health Care</t>
+  </si>
+  <si>
+    <t>https://www.crowell.com/en/professionals/scott-t-williams</t>
+  </si>
+  <si>
+    <t>Chris Stevens</t>
+  </si>
+  <si>
+    <t>cstevens@werksmans.com</t>
+  </si>
+  <si>
+    <t>27115358467</t>
+  </si>
+  <si>
+    <t>Mining &amp; Resources</t>
+  </si>
+  <si>
+    <t>https://werksmans.com/team-members/chris-stevens/</t>
+  </si>
+  <si>
+    <t>Head</t>
+  </si>
+  <si>
+    <t>Werksmans</t>
+  </si>
+  <si>
+    <t>Constantino Pérez</t>
+  </si>
+  <si>
+    <t>cperez@ga-p.com</t>
+  </si>
+  <si>
+    <t>16467363075</t>
+  </si>
+  <si>
+    <t>https://ga-p.com/en/person/constantino-perez/</t>
+  </si>
+  <si>
+    <t>Gomez Acebo And Pombo</t>
+  </si>
+  <si>
+    <t>Pekka Ristikaarto</t>
+  </si>
+  <si>
+    <t>pekka.ristikaarto@kolster.com</t>
+  </si>
+  <si>
+    <t>504871525</t>
+  </si>
+  <si>
+    <t>https://www.kolster.fi/en/experts/ristikaarto-pekka</t>
+  </si>
+  <si>
+    <t>Kolster</t>
+  </si>
+  <si>
+    <t>Kate Anderson</t>
+  </si>
+  <si>
+    <t>kate.anderson@collascrill.com</t>
+  </si>
+  <si>
+    <t>442423</t>
+  </si>
+  <si>
+    <t>https://www.collascrill.com/people/team-members/kate-anderson/</t>
+  </si>
+  <si>
+    <t>Collas Crill</t>
+  </si>
+  <si>
+    <t>Liam Mccabe</t>
+  </si>
+  <si>
+    <t>liam.mccabe@williamfry.com</t>
+  </si>
+  <si>
+    <t>35316395318</t>
+  </si>
+  <si>
+    <t>https://www.williamfry.com/people/liam-mccabe/</t>
+  </si>
+  <si>
+    <t>Chair</t>
+  </si>
+  <si>
+    <t>William Fry</t>
+  </si>
+  <si>
+    <t>Anja Feder Grundtjernlien</t>
+  </si>
+  <si>
+    <t>aru@kvale.no</t>
+  </si>
+  <si>
+    <t>4792644176</t>
+  </si>
+  <si>
+    <t>Real estate/Planning and Building</t>
+  </si>
+  <si>
+    <t>https://www.kvale.no/en/our-team/associates/anja-feder-grundtjernlien-en/</t>
+  </si>
+  <si>
+    <t>Kvale</t>
+  </si>
+  <si>
+    <t>Jay Choksi</t>
+  </si>
+  <si>
+    <t>jay.choksi@mzmlegal.com</t>
+  </si>
+  <si>
+    <t>912222643333</t>
+  </si>
+  <si>
+    <t>https://mzmlegal.com/team/</t>
+  </si>
+  <si>
+    <t>MZM Legal</t>
+  </si>
+  <si>
+    <t>Catalina Jaramillo Hernández</t>
+  </si>
+  <si>
+    <t>cjaramillo@bu.com.co</t>
+  </si>
+  <si>
+    <t>5760134620118364</t>
+  </si>
+  <si>
+    <t>https://www.bu.com.co/en/abogados/catalina-jaramillo-hernandez</t>
+  </si>
+  <si>
+    <t>Brigrard Urrutia</t>
+  </si>
+  <si>
+    <t>Yves Delacroix</t>
+  </si>
+  <si>
+    <t>y.delacroix@liedekerke.com</t>
+  </si>
+  <si>
+    <t>3225511574</t>
+  </si>
+  <si>
+    <t>https://liedekerke.com/en/lawyers/delacroix-yves</t>
+  </si>
+  <si>
+    <t>Alexander B Wintervold</t>
+  </si>
+  <si>
+    <t>awi@wr.no</t>
+  </si>
+  <si>
+    <t>4795075706</t>
+  </si>
+  <si>
+    <t>https://www.wr.no/en/people/alexander-b-wintervold</t>
+  </si>
+  <si>
+    <t>Managing Associate</t>
+  </si>
+  <si>
+    <t>WikborgRein</t>
+  </si>
+  <si>
+    <t>Johannes Egelhof</t>
+  </si>
+  <si>
+    <t>johannes.egelhof@bnt.eu</t>
+  </si>
+  <si>
+    <t>49911569610</t>
+  </si>
+  <si>
+    <t>https://bnt.eu/attorneys/johannes-egelhof/</t>
+  </si>
+  <si>
+    <t>BNT</t>
+  </si>
+  <si>
+    <t>Ovidiu Văleanu</t>
+  </si>
+  <si>
+    <t>ovidiu.valeanu@bnt.eu</t>
+  </si>
+  <si>
+    <t>40723239347</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>https://bnt.eu/attorneys/ovidiu-valeanu/</t>
   </si>
 </sst>
 </file>
@@ -1193,7 +3614,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:J3"/>
@@ -1201,16 +3622,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="27.6666666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.8916666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.6666666666667" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.775" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28.225" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.225" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.8916666666667" style="2" customWidth="1"/>
-    <col min="8" max="8" width="23.1083333333333" style="2" customWidth="1"/>
-    <col min="9" max="9" width="19" style="3" customWidth="1"/>
-    <col min="10" max="10" width="26.225" style="2" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="27.6666666666667"/>
+    <col min="2" max="2" customWidth="true" style="1" width="31.8916666666667"/>
+    <col min="3" max="3" customWidth="true" style="1" width="27.6666666666667"/>
+    <col min="4" max="4" customWidth="true" style="1" width="20.775"/>
+    <col min="5" max="5" customWidth="true" style="2" width="28.225"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.225"/>
+    <col min="7" max="7" customWidth="true" style="2" width="19.8916666666667"/>
+    <col min="8" max="8" customWidth="true" style="2" width="23.1083333333333"/>
+    <col min="9" max="9" customWidth="true" style="3" width="19.0"/>
+    <col min="10" max="10" customWidth="true" style="2" width="26.225"/>
   </cols>
   <sheetData>
     <row r="1" ht="21.6" customHeight="1" spans="1:10">
@@ -1245,49 +3666,4997 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" ht="30" spans="1:10">
-      <c r="A2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1" t="s">
+    <row r="2">
+      <c r="A2" t="s" s="1">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s" s="1">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s" s="1">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s" s="1">
         <v>13</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s" s="1">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="1">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s" s="1">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s" s="1">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F4" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J4" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="1">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s" s="1">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s" s="3">
+        <v>44</v>
+      </c>
+      <c r="J5" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s" s="1">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="F6" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="C7" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="D7" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="E7" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="F7" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="B8" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="C8" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="D8" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="E8" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="F8" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s" s="3">
+        <v>44</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="B9" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="C9" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="D9" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="E9" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="F9" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J9" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="B10" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="D10" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="E10" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="F10" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s" s="3">
+        <v>73</v>
+      </c>
+      <c r="J10" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="B11" t="s" s="1">
+        <v>76</v>
+      </c>
+      <c r="C11" t="s" s="1">
+        <v>77</v>
+      </c>
+      <c r="D11" t="s" s="1">
+        <v>78</v>
+      </c>
+      <c r="E11" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J11" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B12" t="s" s="1">
+        <v>81</v>
+      </c>
+      <c r="C12" t="s" s="1">
+        <v>82</v>
+      </c>
+      <c r="D12" t="s" s="1">
+        <v>83</v>
+      </c>
+      <c r="E12" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I12" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="1">
+        <v>86</v>
+      </c>
+      <c r="B13" t="s" s="1">
+        <v>87</v>
+      </c>
+      <c r="C13" t="s" s="1">
+        <v>88</v>
+      </c>
+      <c r="D13" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="E13" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F13" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I13" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="J13" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="1">
+        <v>92</v>
+      </c>
+      <c r="B14" t="s" s="1">
+        <v>93</v>
+      </c>
+      <c r="C14" t="s" s="1">
+        <v>94</v>
+      </c>
+      <c r="D14" t="s" s="1">
+        <v>95</v>
+      </c>
+      <c r="E14" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I14" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="1">
+        <v>96</v>
+      </c>
+      <c r="B15" t="s" s="1">
+        <v>97</v>
+      </c>
+      <c r="C15" t="s" s="1">
+        <v>98</v>
+      </c>
+      <c r="D15" t="s" s="1">
+        <v>99</v>
+      </c>
+      <c r="E15" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I15" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J15" t="s" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="1">
+        <v>102</v>
+      </c>
+      <c r="B16" t="s" s="1">
+        <v>103</v>
+      </c>
+      <c r="C16" t="s" s="1">
+        <v>104</v>
+      </c>
+      <c r="D16" t="s" s="1">
+        <v>105</v>
+      </c>
+      <c r="E16" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I16" t="s" s="3">
+        <v>44</v>
+      </c>
+      <c r="J16" t="s" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="1">
+        <v>109</v>
+      </c>
+      <c r="B17" t="s" s="1">
+        <v>110</v>
+      </c>
+      <c r="C17" t="s" s="1">
+        <v>111</v>
+      </c>
+      <c r="D17" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I17" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J17" t="s" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="1">
+        <v>114</v>
+      </c>
+      <c r="B18" t="s" s="1">
+        <v>115</v>
+      </c>
+      <c r="C18" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="E18" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I18" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J18" t="s" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="1">
+        <v>117</v>
+      </c>
+      <c r="B19" t="s" s="1">
+        <v>118</v>
+      </c>
+      <c r="C19" t="s" s="1">
+        <v>119</v>
+      </c>
+      <c r="D19" t="s" s="1">
+        <v>120</v>
+      </c>
+      <c r="E19" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I19" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J19" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="1">
+        <v>122</v>
+      </c>
+      <c r="B20" t="s" s="1">
+        <v>123</v>
+      </c>
+      <c r="C20" t="s" s="1">
+        <v>124</v>
+      </c>
+      <c r="D20" t="s" s="1">
+        <v>120</v>
+      </c>
+      <c r="E20" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I20" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J20" t="s" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="1">
+        <v>127</v>
+      </c>
+      <c r="B21" t="s" s="1">
+        <v>128</v>
+      </c>
+      <c r="C21" t="s" s="1">
+        <v>129</v>
+      </c>
+      <c r="D21" t="s" s="1">
+        <v>130</v>
+      </c>
+      <c r="E21" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="F21" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I21" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J21" t="s" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="1">
+        <v>132</v>
+      </c>
+      <c r="B22" t="s" s="1">
+        <v>133</v>
+      </c>
+      <c r="C22" t="s" s="1">
+        <v>134</v>
+      </c>
+      <c r="D22" t="s" s="1">
+        <v>135</v>
+      </c>
+      <c r="E22" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I22" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J22" t="s" s="2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="1">
+        <v>138</v>
+      </c>
+      <c r="B23" t="s" s="1">
+        <v>139</v>
+      </c>
+      <c r="C23" t="s" s="1">
+        <v>140</v>
+      </c>
+      <c r="D23" t="s" s="1">
+        <v>141</v>
+      </c>
+      <c r="E23" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I23" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J23" t="s" s="2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="1">
+        <v>144</v>
+      </c>
+      <c r="B24" t="s" s="1">
+        <v>145</v>
+      </c>
+      <c r="C24" t="s" s="1">
+        <v>146</v>
+      </c>
+      <c r="D24" t="s" s="1">
+        <v>120</v>
+      </c>
+      <c r="E24" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I24" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J24" t="s" s="2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="1">
+        <v>149</v>
+      </c>
+      <c r="B25" t="s" s="1">
+        <v>150</v>
+      </c>
+      <c r="C25" t="s" s="1">
+        <v>151</v>
+      </c>
+      <c r="D25" t="s" s="1">
+        <v>83</v>
+      </c>
+      <c r="E25" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I25" t="s" s="3">
+        <v>44</v>
+      </c>
+      <c r="J25" t="s" s="2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="1">
+        <v>153</v>
+      </c>
+      <c r="B26" t="s" s="1">
+        <v>154</v>
+      </c>
+      <c r="C26" t="s" s="1">
+        <v>155</v>
+      </c>
+      <c r="D26" t="s" s="1">
+        <v>156</v>
+      </c>
+      <c r="E26" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I26" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J26" t="s" s="2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="1">
+        <v>160</v>
+      </c>
+      <c r="B27" t="s" s="1">
+        <v>161</v>
+      </c>
+      <c r="C27" t="s" s="1">
+        <v>162</v>
+      </c>
+      <c r="D27" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="E27" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="F27" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I27" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J27" t="s" s="2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="1">
+        <v>165</v>
+      </c>
+      <c r="B28" t="s" s="1">
+        <v>166</v>
+      </c>
+      <c r="C28" t="s" s="1">
+        <v>167</v>
+      </c>
+      <c r="D28" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="E28" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I28" t="s" s="3">
+        <v>168</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="1">
+        <v>170</v>
+      </c>
+      <c r="B29" t="s" s="1">
+        <v>171</v>
+      </c>
+      <c r="C29" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="D29" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="E29" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I29" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="1">
+        <v>174</v>
+      </c>
+      <c r="B30" t="s" s="1">
+        <v>175</v>
+      </c>
+      <c r="C30" t="s" s="1">
+        <v>176</v>
+      </c>
+      <c r="D30" t="s" s="1">
+        <v>177</v>
+      </c>
+      <c r="E30" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="F30" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I30" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J30" t="s" s="2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="1">
+        <v>181</v>
+      </c>
+      <c r="B31" t="s" s="1">
+        <v>182</v>
+      </c>
+      <c r="C31" t="s" s="1">
+        <v>183</v>
+      </c>
+      <c r="D31" t="s" s="1">
+        <v>156</v>
+      </c>
+      <c r="E31" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I31" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="1">
+        <v>186</v>
+      </c>
+      <c r="B32" t="s" s="1">
+        <v>187</v>
+      </c>
+      <c r="C32" t="s" s="1">
+        <v>188</v>
+      </c>
+      <c r="D32" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="E32" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I32" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="1">
+        <v>190</v>
+      </c>
+      <c r="B33" t="s" s="1">
+        <v>191</v>
+      </c>
+      <c r="C33" t="s" s="1">
+        <v>192</v>
+      </c>
+      <c r="D33" t="s" s="1">
+        <v>120</v>
+      </c>
+      <c r="E33" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I33" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="1">
+        <v>195</v>
+      </c>
+      <c r="B34" t="s" s="1">
+        <v>196</v>
+      </c>
+      <c r="C34" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="D34" t="s" s="1">
+        <v>156</v>
+      </c>
+      <c r="E34" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I34" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="1">
+        <v>198</v>
+      </c>
+      <c r="B35" t="s" s="1">
+        <v>199</v>
+      </c>
+      <c r="C35" t="s" s="1">
+        <v>200</v>
+      </c>
+      <c r="D35" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="E35" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I35" t="s" s="3">
+        <v>202</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="1">
+        <v>204</v>
+      </c>
+      <c r="B36" t="s" s="1">
+        <v>205</v>
+      </c>
+      <c r="C36" t="s" s="1">
+        <v>206</v>
+      </c>
+      <c r="D36" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="E36" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I36" t="s" s="3">
+        <v>44</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="1">
+        <v>209</v>
+      </c>
+      <c r="B37" t="s" s="1">
+        <v>210</v>
+      </c>
+      <c r="C37" t="s" s="1">
+        <v>211</v>
+      </c>
+      <c r="D37" t="s" s="1">
+        <v>212</v>
+      </c>
+      <c r="E37" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I37" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="1">
+        <v>216</v>
+      </c>
+      <c r="B38" t="s" s="1">
+        <v>217</v>
+      </c>
+      <c r="C38" t="s" s="1">
+        <v>218</v>
+      </c>
+      <c r="D38" t="s" s="1">
+        <v>219</v>
+      </c>
+      <c r="E38" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="14" t="s">
+      <c r="F38" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I38" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="1">
+        <v>221</v>
+      </c>
+      <c r="B39" t="s" s="1">
+        <v>222</v>
+      </c>
+      <c r="C39" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="D39" t="s" s="1">
+        <v>223</v>
+      </c>
+      <c r="E39" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I39" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="1">
+        <v>225</v>
+      </c>
+      <c r="B40" t="s" s="1">
+        <v>226</v>
+      </c>
+      <c r="C40" t="s" s="1">
+        <v>227</v>
+      </c>
+      <c r="D40" t="s" s="1">
+        <v>228</v>
+      </c>
+      <c r="E40" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I40" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="1">
+        <v>232</v>
+      </c>
+      <c r="B41" t="s" s="1">
+        <v>233</v>
+      </c>
+      <c r="C41" t="s" s="1">
+        <v>234</v>
+      </c>
+      <c r="D41" t="s" s="1">
+        <v>130</v>
+      </c>
+      <c r="E41" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I41" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="1">
+        <v>237</v>
+      </c>
+      <c r="B42" t="s" s="1">
+        <v>238</v>
+      </c>
+      <c r="C42" t="s" s="1">
+        <v>239</v>
+      </c>
+      <c r="D42" t="s" s="1">
+        <v>156</v>
+      </c>
+      <c r="E42" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I42" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="1">
+        <v>241</v>
+      </c>
+      <c r="B43" t="s" s="1">
+        <v>242</v>
+      </c>
+      <c r="C43" t="s" s="1">
+        <v>243</v>
+      </c>
+      <c r="D43" t="s" s="1">
+        <v>244</v>
+      </c>
+      <c r="E43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I43" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="1">
+        <v>246</v>
+      </c>
+      <c r="B44" t="s" s="1">
+        <v>247</v>
+      </c>
+      <c r="C44" t="s" s="1">
+        <v>248</v>
+      </c>
+      <c r="D44" t="s" s="1">
+        <v>249</v>
+      </c>
+      <c r="E44" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I44" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="1">
+        <v>253</v>
+      </c>
+      <c r="B45" t="s" s="1">
+        <v>254</v>
+      </c>
+      <c r="C45" t="s" s="1">
+        <v>255</v>
+      </c>
+      <c r="D45" t="s" s="1">
+        <v>256</v>
+      </c>
+      <c r="E45" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I45" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="1">
+        <v>259</v>
+      </c>
+      <c r="B46" t="s" s="1">
+        <v>260</v>
+      </c>
+      <c r="C46" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="D46" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="E46" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I46" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="1">
+        <v>263</v>
+      </c>
+      <c r="B47" t="s" s="1">
+        <v>264</v>
+      </c>
+      <c r="C47" t="s" s="1">
+        <v>265</v>
+      </c>
+      <c r="D47" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="E47" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I47" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="1">
+        <v>268</v>
+      </c>
+      <c r="B48" t="s" s="1">
+        <v>269</v>
+      </c>
+      <c r="C48" t="s" s="1">
+        <v>270</v>
+      </c>
+      <c r="D48" t="s" s="1">
+        <v>271</v>
+      </c>
+      <c r="E48" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I48" t="s" s="3">
+        <v>202</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="1">
+        <v>273</v>
+      </c>
+      <c r="B49" t="s" s="1">
+        <v>274</v>
+      </c>
+      <c r="C49" t="s" s="1">
+        <v>275</v>
+      </c>
+      <c r="D49" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="E49" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I49" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="1">
+        <v>277</v>
+      </c>
+      <c r="B50" t="s" s="1">
+        <v>278</v>
+      </c>
+      <c r="C50" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="D50" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="E50" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I50" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="1">
+        <v>280</v>
+      </c>
+      <c r="B51" t="s" s="1">
+        <v>281</v>
+      </c>
+      <c r="C51" t="s" s="1">
+        <v>282</v>
+      </c>
+      <c r="D51" t="s" s="1">
+        <v>283</v>
+      </c>
+      <c r="E51" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I51" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="1">
+        <v>286</v>
+      </c>
+      <c r="B52" t="s" s="1">
+        <v>287</v>
+      </c>
+      <c r="C52" t="s" s="1">
+        <v>288</v>
+      </c>
+      <c r="D52" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="E52" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I52" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="1">
+        <v>291</v>
+      </c>
+      <c r="B53" t="s" s="1">
+        <v>292</v>
+      </c>
+      <c r="C53" t="s" s="1">
+        <v>293</v>
+      </c>
+      <c r="D53" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="E53" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I53" t="s" s="3">
+        <v>202</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="1">
+        <v>296</v>
+      </c>
+      <c r="B54" t="s" s="1">
+        <v>297</v>
+      </c>
+      <c r="C54" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="D54" t="s" s="1">
+        <v>298</v>
+      </c>
+      <c r="E54" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I54" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="1">
+        <v>300</v>
+      </c>
+      <c r="B55" t="s" s="1">
+        <v>301</v>
+      </c>
+      <c r="C55" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="D55" t="s" s="1">
+        <v>298</v>
+      </c>
+      <c r="E55" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I55" t="s" s="3">
+        <v>202</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="1">
+        <v>304</v>
+      </c>
+      <c r="B56" t="s" s="1">
+        <v>305</v>
+      </c>
+      <c r="C56" t="s" s="1">
+        <v>306</v>
+      </c>
+      <c r="D56" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="E56" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I56" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="1">
+        <v>308</v>
+      </c>
+      <c r="B57" t="s" s="1">
+        <v>309</v>
+      </c>
+      <c r="C57" t="s" s="1">
+        <v>310</v>
+      </c>
+      <c r="D57" t="s" s="1">
+        <v>156</v>
+      </c>
+      <c r="E57" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I57" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="1">
+        <v>312</v>
+      </c>
+      <c r="B58" t="s" s="1">
+        <v>313</v>
+      </c>
+      <c r="C58" t="s" s="1">
+        <v>314</v>
+      </c>
+      <c r="D58" t="s" s="1">
+        <v>315</v>
+      </c>
+      <c r="E58" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I58" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="1">
+        <v>318</v>
+      </c>
+      <c r="B59" t="s" s="1">
+        <v>319</v>
+      </c>
+      <c r="C59" t="s" s="1">
+        <v>320</v>
+      </c>
+      <c r="D59" t="s" s="1">
+        <v>321</v>
+      </c>
+      <c r="E59" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I59" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="1">
+        <v>324</v>
+      </c>
+      <c r="B60" t="s" s="1">
+        <v>325</v>
+      </c>
+      <c r="C60" t="s" s="1">
+        <v>326</v>
+      </c>
+      <c r="D60" t="s" s="1">
+        <v>156</v>
+      </c>
+      <c r="E60" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I60" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="1">
+        <v>329</v>
+      </c>
+      <c r="B61" t="s" s="1">
+        <v>330</v>
+      </c>
+      <c r="C61" t="s" s="1">
+        <v>331</v>
+      </c>
+      <c r="D61" t="s" s="1">
+        <v>332</v>
+      </c>
+      <c r="E61" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I61" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="1">
+        <v>334</v>
+      </c>
+      <c r="B62" t="s" s="1">
+        <v>335</v>
+      </c>
+      <c r="C62" t="s" s="1">
+        <v>336</v>
+      </c>
+      <c r="D62" t="s" s="1">
+        <v>337</v>
+      </c>
+      <c r="E62" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I62" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="1">
+        <v>339</v>
+      </c>
+      <c r="B63" t="s" s="1">
+        <v>340</v>
+      </c>
+      <c r="C63" t="s" s="1">
+        <v>341</v>
+      </c>
+      <c r="D63" t="s" s="1">
+        <v>120</v>
+      </c>
+      <c r="E63" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I63" t="s" s="3">
+        <v>44</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="1">
+        <v>344</v>
+      </c>
+      <c r="B64" t="s" s="1">
+        <v>345</v>
+      </c>
+      <c r="C64" t="s" s="1">
+        <v>346</v>
+      </c>
+      <c r="D64" t="s" s="1">
+        <v>347</v>
+      </c>
+      <c r="E64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I64" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="1">
+        <v>350</v>
+      </c>
+      <c r="B65" t="s" s="1">
+        <v>351</v>
+      </c>
+      <c r="C65" t="s" s="1">
+        <v>352</v>
+      </c>
+      <c r="D65" t="s" s="1">
+        <v>298</v>
+      </c>
+      <c r="E65" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I65" t="s" s="3">
+        <v>353</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="1">
+        <v>355</v>
+      </c>
+      <c r="B66" t="s" s="1">
+        <v>356</v>
+      </c>
+      <c r="C66" t="s" s="1">
+        <v>357</v>
+      </c>
+      <c r="D66" t="s" s="1">
+        <v>358</v>
+      </c>
+      <c r="E66" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I66" t="s" s="3">
+        <v>360</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="1">
+        <v>362</v>
+      </c>
+      <c r="B67" t="s" s="1">
+        <v>363</v>
+      </c>
+      <c r="C67" t="s" s="1">
+        <v>364</v>
+      </c>
+      <c r="D67" t="s" s="1">
+        <v>365</v>
+      </c>
+      <c r="E67" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I67" t="s" s="3">
+        <v>44</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="1">
+        <v>368</v>
+      </c>
+      <c r="B68" t="s" s="1">
+        <v>369</v>
+      </c>
+      <c r="C68" t="s" s="1">
+        <v>370</v>
+      </c>
+      <c r="D68" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="E68" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I68" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="1">
+        <v>372</v>
+      </c>
+      <c r="B69" t="s" s="1">
+        <v>373</v>
+      </c>
+      <c r="C69" t="s" s="1">
+        <v>374</v>
+      </c>
+      <c r="D69" t="s" s="1">
+        <v>156</v>
+      </c>
+      <c r="E69" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I69" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="1">
+        <v>377</v>
+      </c>
+      <c r="B70" t="s" s="1">
+        <v>378</v>
+      </c>
+      <c r="C70" t="s" s="1">
+        <v>379</v>
+      </c>
+      <c r="D70" t="s" s="1">
+        <v>256</v>
+      </c>
+      <c r="E70" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I70" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="1">
+        <v>383</v>
+      </c>
+      <c r="B71" t="s" s="1">
+        <v>384</v>
+      </c>
+      <c r="C71" t="s" s="1">
+        <v>385</v>
+      </c>
+      <c r="D71" t="s" s="1">
+        <v>386</v>
+      </c>
+      <c r="E71" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I71" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="1">
+        <v>390</v>
+      </c>
+      <c r="B72" t="s" s="1">
+        <v>391</v>
+      </c>
+      <c r="C72" t="s" s="1">
+        <v>392</v>
+      </c>
+      <c r="D72" t="s" s="1">
+        <v>393</v>
+      </c>
+      <c r="E72" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I72" t="s" s="3">
+        <v>395</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="1">
+        <v>397</v>
+      </c>
+      <c r="B73" t="s" s="1">
+        <v>398</v>
+      </c>
+      <c r="C73" t="s" s="1">
+        <v>399</v>
+      </c>
+      <c r="D73" t="s" s="1">
+        <v>105</v>
+      </c>
+      <c r="E73" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I73" t="s" s="3">
+        <v>360</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="1">
+        <v>403</v>
+      </c>
+      <c r="B74" t="s" s="1">
+        <v>404</v>
+      </c>
+      <c r="C74" t="s" s="1">
+        <v>405</v>
+      </c>
+      <c r="D74" t="s" s="1">
+        <v>156</v>
+      </c>
+      <c r="E74" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I74" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="1">
+        <v>408</v>
+      </c>
+      <c r="B75" t="s" s="1">
+        <v>409</v>
+      </c>
+      <c r="C75" t="s" s="1">
+        <v>410</v>
+      </c>
+      <c r="D75" t="s" s="1">
+        <v>212</v>
+      </c>
+      <c r="E75" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I75" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="1">
+        <v>413</v>
+      </c>
+      <c r="B76" t="s" s="1">
+        <v>414</v>
+      </c>
+      <c r="C76" t="s" s="1">
+        <v>415</v>
+      </c>
+      <c r="D76" t="s" s="1">
+        <v>416</v>
+      </c>
+      <c r="E76" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I76" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="1">
+        <v>419</v>
+      </c>
+      <c r="B77" t="s" s="1">
+        <v>420</v>
+      </c>
+      <c r="C77" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="D77" t="s" s="1">
+        <v>421</v>
+      </c>
+      <c r="E77" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I77" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="1">
+        <v>423</v>
+      </c>
+      <c r="B78" t="s" s="1">
+        <v>424</v>
+      </c>
+      <c r="C78" t="s" s="1">
+        <v>425</v>
+      </c>
+      <c r="D78" t="s" s="1">
+        <v>426</v>
+      </c>
+      <c r="E78" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I78" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="1">
+        <v>430</v>
+      </c>
+      <c r="B79" t="s" s="1">
+        <v>431</v>
+      </c>
+      <c r="C79" t="s" s="1">
+        <v>432</v>
+      </c>
+      <c r="D79" t="s" s="1">
+        <v>256</v>
+      </c>
+      <c r="E79" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I79" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="1">
+        <v>434</v>
+      </c>
+      <c r="B80" t="s" s="1">
+        <v>435</v>
+      </c>
+      <c r="C80" t="s" s="1">
+        <v>436</v>
+      </c>
+      <c r="D80" t="s" s="1">
+        <v>337</v>
+      </c>
+      <c r="E80" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I80" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="1">
+        <v>439</v>
+      </c>
+      <c r="B81" t="s" s="1">
+        <v>440</v>
+      </c>
+      <c r="C81" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="D81" t="s" s="1">
+        <v>156</v>
+      </c>
+      <c r="E81" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I81" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="1">
+        <v>442</v>
+      </c>
+      <c r="B82" t="s" s="1">
+        <v>443</v>
+      </c>
+      <c r="C82" t="s" s="1">
+        <v>444</v>
+      </c>
+      <c r="D82" t="s" s="1">
+        <v>156</v>
+      </c>
+      <c r="E82" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I82" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="1">
+        <v>447</v>
+      </c>
+      <c r="B83" t="s" s="1">
+        <v>448</v>
+      </c>
+      <c r="C83" t="s" s="1">
+        <v>449</v>
+      </c>
+      <c r="D83" t="s" s="1">
+        <v>130</v>
+      </c>
+      <c r="E83" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I83" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="1">
+        <v>452</v>
+      </c>
+      <c r="B84" t="s" s="1">
+        <v>453</v>
+      </c>
+      <c r="C84" t="s" s="1">
+        <v>454</v>
+      </c>
+      <c r="D84" t="s" s="1">
+        <v>455</v>
+      </c>
+      <c r="E84" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I84" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="1">
+        <v>459</v>
+      </c>
+      <c r="B85" t="s" s="1">
+        <v>460</v>
+      </c>
+      <c r="C85" t="s" s="1">
+        <v>461</v>
+      </c>
+      <c r="D85" t="s" s="1">
+        <v>321</v>
+      </c>
+      <c r="E85" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I85" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="1">
+        <v>463</v>
+      </c>
+      <c r="B86" t="s" s="1">
+        <v>464</v>
+      </c>
+      <c r="C86" t="s" s="1">
+        <v>465</v>
+      </c>
+      <c r="D86" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="E86" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I86" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="1">
+        <v>468</v>
+      </c>
+      <c r="B87" t="s" s="1">
+        <v>469</v>
+      </c>
+      <c r="C87" t="s" s="1">
+        <v>470</v>
+      </c>
+      <c r="D87" t="s" s="1">
+        <v>78</v>
+      </c>
+      <c r="E87" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I87" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="1">
+        <v>473</v>
+      </c>
+      <c r="B88" t="s" s="1">
+        <v>474</v>
+      </c>
+      <c r="C88" t="s" s="1">
+        <v>475</v>
+      </c>
+      <c r="D88" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="E88" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I88" t="s" s="3">
+        <v>202</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="1">
+        <v>478</v>
+      </c>
+      <c r="B89" t="s" s="1">
+        <v>479</v>
+      </c>
+      <c r="C89" t="s" s="1">
+        <v>480</v>
+      </c>
+      <c r="D89" t="s" s="1">
+        <v>256</v>
+      </c>
+      <c r="E89" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I89" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="1">
+        <v>483</v>
+      </c>
+      <c r="B90" t="s" s="1">
+        <v>484</v>
+      </c>
+      <c r="C90" t="s" s="1">
+        <v>485</v>
+      </c>
+      <c r="D90" t="s" s="1">
+        <v>298</v>
+      </c>
+      <c r="E90" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I90" t="s" s="3">
+        <v>73</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="1">
+        <v>488</v>
+      </c>
+      <c r="B91" t="s" s="1">
+        <v>489</v>
+      </c>
+      <c r="C91" t="s" s="1">
+        <v>490</v>
+      </c>
+      <c r="D91" t="s" s="1">
+        <v>332</v>
+      </c>
+      <c r="E91" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I91" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="1">
+        <v>492</v>
+      </c>
+      <c r="B92" t="s" s="1">
+        <v>493</v>
+      </c>
+      <c r="C92" t="s" s="1">
+        <v>494</v>
+      </c>
+      <c r="D92" t="s" s="1">
+        <v>495</v>
+      </c>
+      <c r="E92" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I92" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="1">
+        <v>498</v>
+      </c>
+      <c r="B93" t="s" s="1">
+        <v>499</v>
+      </c>
+      <c r="C93" t="s" s="1">
+        <v>500</v>
+      </c>
+      <c r="D93" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="E93" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I93" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="1">
+        <v>503</v>
+      </c>
+      <c r="B94" t="s" s="1">
+        <v>504</v>
+      </c>
+      <c r="C94" t="s" s="1">
+        <v>505</v>
+      </c>
+      <c r="D94" t="s" s="1">
+        <v>249</v>
+      </c>
+      <c r="E94" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I94" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="1">
+        <v>508</v>
+      </c>
+      <c r="B95" t="s" s="1">
+        <v>509</v>
+      </c>
+      <c r="C95" t="s" s="1">
+        <v>510</v>
+      </c>
+      <c r="D95" t="s" s="1">
+        <v>511</v>
+      </c>
+      <c r="E95" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="F95" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I95" t="s" s="3">
+        <v>44</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="1">
+        <v>513</v>
+      </c>
+      <c r="B96" t="s" s="1">
+        <v>514</v>
+      </c>
+      <c r="C96" t="s" s="1">
+        <v>515</v>
+      </c>
+      <c r="D96" t="s" s="1">
+        <v>516</v>
+      </c>
+      <c r="E96" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="F96" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I96" t="s" s="3">
+        <v>44</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="1">
+        <v>518</v>
+      </c>
+      <c r="B97" t="s" s="1">
+        <v>519</v>
+      </c>
+      <c r="C97" t="s" s="1">
+        <v>520</v>
+      </c>
+      <c r="D97" t="s" s="1">
+        <v>120</v>
+      </c>
+      <c r="E97" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="F97" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I97" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="1">
+        <v>523</v>
+      </c>
+      <c r="B98" t="s" s="1">
+        <v>524</v>
+      </c>
+      <c r="C98" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="D98" t="s" s="1">
+        <v>332</v>
+      </c>
+      <c r="E98" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="F98" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I98" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="1">
+        <v>526</v>
+      </c>
+      <c r="B99" t="s" s="1">
+        <v>527</v>
+      </c>
+      <c r="C99" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="D99" t="s" s="1">
+        <v>212</v>
+      </c>
+      <c r="E99" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="F99" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I99" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="1">
+        <v>529</v>
+      </c>
+      <c r="B100" t="s" s="1">
+        <v>530</v>
+      </c>
+      <c r="C100" t="s" s="1">
+        <v>531</v>
+      </c>
+      <c r="D100" t="s" s="1">
+        <v>156</v>
+      </c>
+      <c r="E100" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="F100" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I100" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="1">
+        <v>533</v>
+      </c>
+      <c r="B101" t="s" s="1">
+        <v>534</v>
+      </c>
+      <c r="C101" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="D101" t="s" s="1">
+        <v>535</v>
+      </c>
+      <c r="E101" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="F101" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I101" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="1">
+        <v>537</v>
+      </c>
+      <c r="B102" t="s" s="1">
+        <v>538</v>
+      </c>
+      <c r="C102" t="s" s="1">
+        <v>539</v>
+      </c>
+      <c r="D102" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="E102" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="F102" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I102" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="1">
+        <v>542</v>
+      </c>
+      <c r="B103" t="s" s="1">
+        <v>543</v>
+      </c>
+      <c r="C103" t="s" s="1">
+        <v>544</v>
+      </c>
+      <c r="D103" t="s" s="1">
+        <v>298</v>
+      </c>
+      <c r="E103" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="F103" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I103" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="1">
+        <v>546</v>
+      </c>
+      <c r="B104" t="s" s="1">
+        <v>547</v>
+      </c>
+      <c r="C104" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="D104" t="s" s="1">
+        <v>548</v>
+      </c>
+      <c r="E104" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="F104" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I104" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="1">
+        <v>550</v>
+      </c>
+      <c r="B105" t="s" s="1">
+        <v>551</v>
+      </c>
+      <c r="C105" t="s" s="1">
+        <v>552</v>
+      </c>
+      <c r="D105" t="s" s="1">
+        <v>553</v>
+      </c>
+      <c r="E105" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="F105" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I105" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="1">
+        <v>557</v>
+      </c>
+      <c r="B106" t="s" s="1">
+        <v>558</v>
+      </c>
+      <c r="C106" t="s" s="1">
+        <v>559</v>
+      </c>
+      <c r="D106" t="s" s="1">
+        <v>156</v>
+      </c>
+      <c r="E106" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="F106" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I106" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="1">
+        <v>561</v>
+      </c>
+      <c r="B107" t="s" s="1">
+        <v>562</v>
+      </c>
+      <c r="C107" t="s" s="1">
+        <v>563</v>
+      </c>
+      <c r="D107" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="E107" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="F107" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I107" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="1">
+        <v>565</v>
+      </c>
+      <c r="B108" t="s" s="1">
+        <v>566</v>
+      </c>
+      <c r="C108" t="s" s="1">
+        <v>567</v>
+      </c>
+      <c r="D108" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="E108" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="F108" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I108" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="1">
+        <v>570</v>
+      </c>
+      <c r="B109" t="s" s="1">
+        <v>571</v>
+      </c>
+      <c r="C109" t="s" s="1">
+        <v>572</v>
+      </c>
+      <c r="D109" t="s" s="1">
+        <v>455</v>
+      </c>
+      <c r="E109" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="F109" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I109" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="1">
+        <v>574</v>
+      </c>
+      <c r="B110" t="s" s="1">
+        <v>575</v>
+      </c>
+      <c r="C110" t="s" s="1">
+        <v>576</v>
+      </c>
+      <c r="D110" t="s" s="1">
+        <v>298</v>
+      </c>
+      <c r="E110" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="F110" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G110" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I110" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="1">
+        <v>578</v>
+      </c>
+      <c r="B111" t="s" s="1">
+        <v>579</v>
+      </c>
+      <c r="C111" t="s" s="1">
+        <v>580</v>
+      </c>
+      <c r="D111" t="s" s="1">
+        <v>535</v>
+      </c>
+      <c r="E111" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="F111" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G111" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I111" t="s" s="3">
+        <v>44</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="1">
+        <v>582</v>
+      </c>
+      <c r="B112" t="s" s="1">
+        <v>583</v>
+      </c>
+      <c r="C112" t="s" s="1">
+        <v>584</v>
+      </c>
+      <c r="D112" t="s" s="1">
+        <v>120</v>
+      </c>
+      <c r="E112" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="F112" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G112" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I112" t="s" s="3">
+        <v>44</v>
+      </c>
+      <c r="J112" t="s" s="2">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="1">
+        <v>586</v>
+      </c>
+      <c r="B113" t="s" s="1">
+        <v>587</v>
+      </c>
+      <c r="C113" t="s" s="1">
+        <v>588</v>
+      </c>
+      <c r="D113" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="E113" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="F113" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G113" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H113" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I113" t="s" s="3">
+        <v>44</v>
+      </c>
+      <c r="J113" t="s" s="2">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="1">
+        <v>590</v>
+      </c>
+      <c r="B114" t="s" s="1">
+        <v>591</v>
+      </c>
+      <c r="C114" t="s" s="1">
+        <v>592</v>
+      </c>
+      <c r="D114" t="s" s="1">
+        <v>298</v>
+      </c>
+      <c r="E114" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="F114" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G114" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H114" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I114" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J114" t="s" s="2">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="1">
+        <v>594</v>
+      </c>
+      <c r="B115" t="s" s="1">
+        <v>595</v>
+      </c>
+      <c r="C115" t="s" s="1">
+        <v>596</v>
+      </c>
+      <c r="D115" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="E115" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="F115" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G115" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H115" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I115" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J115" t="s" s="2">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="1">
+        <v>598</v>
+      </c>
+      <c r="B116" t="s" s="1">
+        <v>599</v>
+      </c>
+      <c r="C116" t="s" s="1">
+        <v>600</v>
+      </c>
+      <c r="D116" t="s" s="1">
+        <v>601</v>
+      </c>
+      <c r="E116" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="F116" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="G116" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H116" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I116" t="s" s="3">
+        <v>360</v>
+      </c>
+      <c r="J116" t="s" s="2">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="1">
+        <v>604</v>
+      </c>
+      <c r="B117" t="s" s="1">
+        <v>605</v>
+      </c>
+      <c r="C117" t="s" s="1">
+        <v>606</v>
+      </c>
+      <c r="D117" t="s" s="1">
+        <v>78</v>
+      </c>
+      <c r="E117" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F117" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G117" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H117" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I117" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J117" t="s" s="2">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="1">
+        <v>608</v>
+      </c>
+      <c r="B118" t="s" s="1">
+        <v>609</v>
+      </c>
+      <c r="C118" t="s" s="1">
+        <v>610</v>
+      </c>
+      <c r="D118" t="s" s="1">
+        <v>611</v>
+      </c>
+      <c r="E118" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F118" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="G118" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H118" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I118" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J118" t="s" s="2">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="1">
+        <v>614</v>
+      </c>
+      <c r="B119" t="s" s="1">
+        <v>615</v>
+      </c>
+      <c r="C119" t="s" s="1">
+        <v>616</v>
+      </c>
+      <c r="D119" t="s" s="1">
+        <v>617</v>
+      </c>
+      <c r="E119" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="F119" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="G119" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H119" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I119" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J119" t="s" s="2">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="1">
+        <v>621</v>
+      </c>
+      <c r="B120" t="s" s="1">
+        <v>622</v>
+      </c>
+      <c r="C120" t="s" s="1">
+        <v>623</v>
+      </c>
+      <c r="D120" t="s" s="1">
+        <v>421</v>
+      </c>
+      <c r="E120" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="F120" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G120" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H120" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I120" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J120" t="s" s="2">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="1">
+        <v>625</v>
+      </c>
+      <c r="B121" t="s" s="1">
+        <v>626</v>
+      </c>
+      <c r="C121" t="s" s="1">
+        <v>627</v>
+      </c>
+      <c r="D121" t="s" s="1">
+        <v>628</v>
+      </c>
+      <c r="E121" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="F121" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G121" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H121" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I121" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J121" t="s" s="2">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="1">
+        <v>630</v>
+      </c>
+      <c r="B122" t="s" s="1">
+        <v>631</v>
+      </c>
+      <c r="C122" t="s" s="1">
+        <v>632</v>
+      </c>
+      <c r="D122" t="s" s="1">
+        <v>321</v>
+      </c>
+      <c r="E122" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="F122" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G122" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H122" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I122" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J122" t="s" s="2">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="1">
+        <v>635</v>
+      </c>
+      <c r="B123" t="s" s="1">
+        <v>636</v>
+      </c>
+      <c r="C123" t="s" s="1">
+        <v>637</v>
+      </c>
+      <c r="D123" t="s" s="1">
+        <v>638</v>
+      </c>
+      <c r="E123" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="F123" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="G123" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H123" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I123" t="s" s="3">
+        <v>395</v>
+      </c>
+      <c r="J123" t="s" s="2">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="1">
+        <v>641</v>
+      </c>
+      <c r="B124" t="s" s="1">
+        <v>642</v>
+      </c>
+      <c r="C124" t="s" s="1">
+        <v>643</v>
+      </c>
+      <c r="D124" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="E124" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="F124" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G124" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H124" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I124" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J124" t="s" s="2">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="1">
+        <v>645</v>
+      </c>
+      <c r="B125" t="s" s="1">
+        <v>646</v>
+      </c>
+      <c r="C125" t="s" s="1">
+        <v>647</v>
+      </c>
+      <c r="D125" t="s" s="1">
+        <v>648</v>
+      </c>
+      <c r="E125" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="F125" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="G125" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H125" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I125" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="J125" t="s" s="2">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="1">
+        <v>651</v>
+      </c>
+      <c r="B126" t="s" s="1">
+        <v>652</v>
+      </c>
+      <c r="C126" t="s" s="1">
+        <v>653</v>
+      </c>
+      <c r="D126" t="s" s="1">
+        <v>654</v>
+      </c>
+      <c r="E126" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="F126" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="G126" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H126" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I126" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J126" t="s" s="2">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="1">
+        <v>658</v>
+      </c>
+      <c r="B127" t="s" s="1">
+        <v>659</v>
+      </c>
+      <c r="C127" t="s" s="1">
+        <v>660</v>
+      </c>
+      <c r="D127" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="E127" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="F127" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="G127" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H127" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I127" t="s" s="3">
+        <v>202</v>
+      </c>
+      <c r="J127" t="s" s="2">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="1">
+        <v>663</v>
+      </c>
+      <c r="B128" t="s" s="1">
+        <v>664</v>
+      </c>
+      <c r="C128" t="s" s="1">
+        <v>665</v>
+      </c>
+      <c r="D128" t="s" s="1">
+        <v>244</v>
+      </c>
+      <c r="E128" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="F128" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="G128" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H128" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I128" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="J128" t="s" s="2">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s" s="1">
+        <v>669</v>
+      </c>
+      <c r="B129" t="s" s="1">
+        <v>670</v>
+      </c>
+      <c r="C129" t="s" s="1">
+        <v>671</v>
+      </c>
+      <c r="D129" t="s" s="1">
+        <v>672</v>
+      </c>
+      <c r="E129" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="F129" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="G129" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H129" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I129" t="s" s="3">
+        <v>360</v>
+      </c>
+      <c r="J129" t="s" s="2">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s" s="1">
+        <v>675</v>
+      </c>
+      <c r="B130" t="s" s="1">
+        <v>676</v>
+      </c>
+      <c r="C130" t="s" s="1">
+        <v>677</v>
+      </c>
+      <c r="D130" t="s" s="1">
+        <v>511</v>
+      </c>
+      <c r="E130" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="F130" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="G130" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H130" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I130" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J130" t="s" s="2">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s" s="1">
+        <v>680</v>
+      </c>
+      <c r="B131" t="s" s="1">
+        <v>681</v>
+      </c>
+      <c r="C131" t="s" s="1">
+        <v>682</v>
+      </c>
+      <c r="D131" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="E131" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="F131" t="s" s="2">
+        <v>683</v>
+      </c>
+      <c r="G131" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H131" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I131" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J131" t="s" s="2">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s" s="1">
+        <v>685</v>
+      </c>
+      <c r="B132" t="s" s="1">
+        <v>686</v>
+      </c>
+      <c r="C132" t="s" s="1">
+        <v>687</v>
+      </c>
+      <c r="D132" t="s" s="1">
+        <v>156</v>
+      </c>
+      <c r="E132" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="F132" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="G132" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H132" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I132" t="s" s="3">
+        <v>44</v>
+      </c>
+      <c r="J132" t="s" s="2">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s" s="1">
+        <v>690</v>
+      </c>
+      <c r="B133" t="s" s="1">
+        <v>691</v>
+      </c>
+      <c r="C133" t="s" s="1">
+        <v>692</v>
+      </c>
+      <c r="D133" t="s" s="1">
+        <v>693</v>
+      </c>
+      <c r="E133" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="F133" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="G133" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H133" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I133" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J133" t="s" s="2">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s" s="1">
+        <v>696</v>
+      </c>
+      <c r="B134" t="s" s="1">
+        <v>697</v>
+      </c>
+      <c r="C134" t="s" s="1">
+        <v>698</v>
+      </c>
+      <c r="D134" t="s" s="1">
+        <v>156</v>
+      </c>
+      <c r="E134" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="F134" t="s" s="2">
+        <v>699</v>
+      </c>
+      <c r="G134" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H134" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I134" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J134" t="s" s="2">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s" s="1">
+        <v>701</v>
+      </c>
+      <c r="B135" t="s" s="1">
+        <v>702</v>
+      </c>
+      <c r="C135" t="s" s="1">
+        <v>703</v>
+      </c>
+      <c r="D135" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="E135" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="F135" t="s" s="2">
+        <v>705</v>
+      </c>
+      <c r="G135" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H135" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I135" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J135" t="s" s="2">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s" s="1">
+        <v>707</v>
+      </c>
+      <c r="B136" t="s" s="1">
+        <v>708</v>
+      </c>
+      <c r="C136" t="s" s="1">
+        <v>709</v>
+      </c>
+      <c r="D136" t="s" s="1">
+        <v>141</v>
+      </c>
+      <c r="E136" t="s" s="2">
+        <v>710</v>
+      </c>
+      <c r="F136" t="s" s="2">
+        <v>711</v>
+      </c>
+      <c r="G136" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H136" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I136" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J136" t="s" s="2">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s" s="1">
+        <v>713</v>
+      </c>
+      <c r="B137" t="s" s="1">
+        <v>714</v>
+      </c>
+      <c r="C137" t="s" s="1">
+        <v>715</v>
+      </c>
+      <c r="D137" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="E137" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="F137" t="s" s="2">
+        <v>717</v>
+      </c>
+      <c r="G137" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H137" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I137" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J137" t="s" s="2">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s" s="1">
+        <v>719</v>
+      </c>
+      <c r="B138" t="s" s="1">
+        <v>720</v>
+      </c>
+      <c r="C138" t="s" s="1">
+        <v>721</v>
+      </c>
+      <c r="D138" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="E138" t="s" s="2">
+        <v>722</v>
+      </c>
+      <c r="F138" t="s" s="2">
+        <v>723</v>
+      </c>
+      <c r="G138" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H138" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I138" t="s" s="3">
+        <v>44</v>
+      </c>
+      <c r="J138" t="s" s="2">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s" s="1">
+        <v>725</v>
+      </c>
+      <c r="B139" t="s" s="1">
+        <v>726</v>
+      </c>
+      <c r="C139" t="s" s="1">
+        <v>727</v>
+      </c>
+      <c r="D139" t="s" s="1">
+        <v>511</v>
+      </c>
+      <c r="E139" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="F139" t="s" s="2">
+        <v>728</v>
+      </c>
+      <c r="G139" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H139" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I139" t="s" s="3">
+        <v>24</v>
+      </c>
+      <c r="J139" t="s" s="2">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s" s="1">
+        <v>730</v>
+      </c>
+      <c r="B140" t="s" s="1">
+        <v>731</v>
+      </c>
+      <c r="C140" t="s" s="1">
+        <v>732</v>
+      </c>
+      <c r="D140" t="s" s="1">
+        <v>733</v>
+      </c>
+      <c r="E140" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="F140" t="s" s="2">
+        <v>734</v>
+      </c>
+      <c r="G140" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H140" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I140" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J140" t="s" s="2">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s" s="1">
+        <v>736</v>
+      </c>
+      <c r="B141" t="s" s="1">
+        <v>737</v>
+      </c>
+      <c r="C141" t="s" s="1">
+        <v>738</v>
+      </c>
+      <c r="D141" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="E141" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="F141" t="s" s="2">
+        <v>739</v>
+      </c>
+      <c r="G141" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H141" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I141" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="J141" t="s" s="2">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s" s="1">
+        <v>741</v>
+      </c>
+      <c r="B142" t="s" s="1">
+        <v>742</v>
+      </c>
+      <c r="C142" t="s" s="1">
+        <v>743</v>
+      </c>
+      <c r="D142" t="s" s="1">
+        <v>744</v>
+      </c>
+      <c r="E142" t="s" s="2">
+        <v>745</v>
+      </c>
+      <c r="F142" t="s" s="2">
+        <v>746</v>
+      </c>
+      <c r="G142" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H142" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I142" t="s" s="3">
+        <v>73</v>
+      </c>
+      <c r="J142" t="s" s="2">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s" s="1">
+        <v>748</v>
+      </c>
+      <c r="B143" t="s" s="1">
+        <v>749</v>
+      </c>
+      <c r="C143" t="s" s="1">
+        <v>750</v>
+      </c>
+      <c r="D143" t="s" s="1">
+        <v>751</v>
+      </c>
+      <c r="E143" t="s" s="2">
+        <v>745</v>
+      </c>
+      <c r="F143" t="s" s="2">
+        <v>752</v>
+      </c>
+      <c r="G143" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H143" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I143" t="s" s="3">
+        <v>202</v>
+      </c>
+      <c r="J143" t="s" s="2">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s" s="1">
+        <v>753</v>
+      </c>
+      <c r="B144" t="s" s="1">
+        <v>754</v>
+      </c>
+      <c r="C144" t="s" s="1">
+        <v>755</v>
+      </c>
+      <c r="D144" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="E144" t="s" s="2">
+        <v>756</v>
+      </c>
+      <c r="F144" t="s" s="2">
+        <v>757</v>
+      </c>
+      <c r="G144" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H144" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I144" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J144" t="s" s="2">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s" s="1">
+        <v>759</v>
+      </c>
+      <c r="B145" t="s" s="1">
+        <v>760</v>
+      </c>
+      <c r="C145" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="D145" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="E145" t="s" s="2">
+        <v>761</v>
+      </c>
+      <c r="F145" t="s" s="2">
+        <v>762</v>
+      </c>
+      <c r="G145" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H145" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I145" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J145" t="s" s="2">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s" s="1">
+        <v>763</v>
+      </c>
+      <c r="B146" t="s" s="1">
+        <v>764</v>
+      </c>
+      <c r="C146" t="s" s="1">
+        <v>765</v>
+      </c>
+      <c r="D146" t="s" s="1">
+        <v>271</v>
+      </c>
+      <c r="E146" t="s" s="2">
+        <v>766</v>
+      </c>
+      <c r="F146" t="s" s="2">
+        <v>767</v>
+      </c>
+      <c r="G146" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H146" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I146" t="s" s="3">
+        <v>768</v>
+      </c>
+      <c r="J146" t="s" s="2">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s" s="1">
+        <v>770</v>
+      </c>
+      <c r="B147" t="s" s="1">
+        <v>771</v>
+      </c>
+      <c r="C147" t="s" s="1">
+        <v>772</v>
+      </c>
+      <c r="D147" t="s" s="1">
+        <v>130</v>
+      </c>
+      <c r="E147" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="F147" t="s" s="2">
+        <v>773</v>
+      </c>
+      <c r="G147" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H147" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I147" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J147" t="s" s="2">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s" s="1">
+        <v>775</v>
+      </c>
+      <c r="B148" t="s" s="1">
+        <v>776</v>
+      </c>
+      <c r="C148" t="s" s="1">
+        <v>777</v>
+      </c>
+      <c r="D148" t="s" s="1">
+        <v>244</v>
+      </c>
+      <c r="E148" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="F148" t="s" s="2">
+        <v>778</v>
+      </c>
+      <c r="G148" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H148" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I148" t="s" s="3">
+        <v>202</v>
+      </c>
+      <c r="J148" t="s" s="2">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s" s="1">
+        <v>780</v>
+      </c>
+      <c r="B149" t="s" s="1">
+        <v>781</v>
+      </c>
+      <c r="C149" t="s" s="1">
+        <v>782</v>
+      </c>
+      <c r="D149" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="E149" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="F149" t="s" s="2">
+        <v>783</v>
+      </c>
+      <c r="G149" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H149" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I149" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J149" t="s" s="2">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s" s="1">
+        <v>785</v>
+      </c>
+      <c r="B150" t="s" s="1">
+        <v>786</v>
+      </c>
+      <c r="C150" t="s" s="1">
+        <v>787</v>
+      </c>
+      <c r="D150" t="s" s="1">
+        <v>223</v>
+      </c>
+      <c r="E150" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="F150" t="s" s="2">
+        <v>788</v>
+      </c>
+      <c r="G150" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H150" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I150" t="s" s="3">
+        <v>789</v>
+      </c>
+      <c r="J150" t="s" s="2">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s" s="1">
+        <v>791</v>
+      </c>
+      <c r="B151" t="s" s="1">
+        <v>792</v>
+      </c>
+      <c r="C151" t="s" s="1">
+        <v>793</v>
+      </c>
+      <c r="D151" t="s" s="1">
+        <v>219</v>
+      </c>
+      <c r="E151" t="s" s="2">
+        <v>794</v>
+      </c>
+      <c r="F151" t="s" s="2">
+        <v>795</v>
+      </c>
+      <c r="G151" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H151" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I151" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="J151" t="s" s="2">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s" s="1">
+        <v>797</v>
+      </c>
+      <c r="B152" t="s" s="1">
+        <v>798</v>
+      </c>
+      <c r="C152" t="s" s="1">
+        <v>799</v>
+      </c>
+      <c r="D152" t="s" s="1">
+        <v>347</v>
+      </c>
+      <c r="E152" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="F152" t="s" s="2">
+        <v>800</v>
+      </c>
+      <c r="G152" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H152" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I152" t="s" s="3">
+        <v>24</v>
+      </c>
+      <c r="J152" t="s" s="2">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s" s="1">
+        <v>802</v>
+      </c>
+      <c r="B153" t="s" s="1">
+        <v>803</v>
+      </c>
+      <c r="C153" t="s" s="1">
+        <v>804</v>
+      </c>
+      <c r="D153" t="s" s="1">
+        <v>315</v>
+      </c>
+      <c r="E153" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="F153" t="s" s="2">
+        <v>805</v>
+      </c>
+      <c r="G153" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H153" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I153" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J153" t="s" s="2">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s" s="1">
+        <v>807</v>
+      </c>
+      <c r="B154" t="s" s="1">
+        <v>808</v>
+      </c>
+      <c r="C154" t="s" s="1">
+        <v>809</v>
+      </c>
+      <c r="D154" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="E154" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="F154" t="s" s="2">
+        <v>810</v>
+      </c>
+      <c r="G154" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H154" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I154" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J154" t="s" s="2">
         <v>19</v>
       </c>
     </row>
-    <row r="3" ht="30" spans="1:10">
-      <c r="A3" s="8"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="14"/>
+    <row r="155">
+      <c r="A155" t="s" s="1">
+        <v>811</v>
+      </c>
+      <c r="B155" t="s" s="1">
+        <v>812</v>
+      </c>
+      <c r="C155" t="s" s="1">
+        <v>813</v>
+      </c>
+      <c r="D155" t="s" s="1">
+        <v>219</v>
+      </c>
+      <c r="E155" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="F155" t="s" s="2">
+        <v>814</v>
+      </c>
+      <c r="G155" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H155" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I155" t="s" s="3">
+        <v>815</v>
+      </c>
+      <c r="J155" t="s" s="2">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s" s="1">
+        <v>817</v>
+      </c>
+      <c r="B156" t="s" s="1">
+        <v>818</v>
+      </c>
+      <c r="C156" t="s" s="1">
+        <v>819</v>
+      </c>
+      <c r="D156" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="E156" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="F156" t="s" s="2">
+        <v>820</v>
+      </c>
+      <c r="G156" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H156" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I156" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J156" t="s" s="2">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s" s="1">
+        <v>822</v>
+      </c>
+      <c r="B157" t="s" s="1">
+        <v>823</v>
+      </c>
+      <c r="C157" t="s" s="1">
+        <v>824</v>
+      </c>
+      <c r="D157" t="s" s="1">
+        <v>825</v>
+      </c>
+      <c r="E157" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="F157" t="s" s="2">
+        <v>826</v>
+      </c>
+      <c r="G157" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H157" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I157" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J157" t="s" s="2">
+        <v>821</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/src/main/resources/baseFiles/excel/Sheet.xlsx
+++ b/src/main/resources/baseFiles/excel/Sheet.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1990" uniqueCount="890">
   <si>
     <t>Name</t>
   </si>
@@ -87,6 +87,2616 @@
   </si>
   <si>
     <t>Liedekerke</t>
+  </si>
+  <si>
+    <t>Erik Østergaard-nielsen</t>
+  </si>
+  <si>
+    <t>eon@northadvokater.dk</t>
+  </si>
+  <si>
+    <t>4521720460</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Corporate</t>
+  </si>
+  <si>
+    <t>https://www.northadvokater.dk/teamet-bag-north-advokater/</t>
+  </si>
+  <si>
+    <t>Partner</t>
+  </si>
+  <si>
+    <t>North Lawyers</t>
+  </si>
+  <si>
+    <t>Oscar Podda</t>
+  </si>
+  <si>
+    <t>o.podda@nmlex.it</t>
+  </si>
+  <si>
+    <t>39026575181</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Insolvency</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Founding Partner</t>
+  </si>
+  <si>
+    <t>Nunziante Magrone</t>
+  </si>
+  <si>
+    <t>Corrado Rosano</t>
+  </si>
+  <si>
+    <t>c.rosano@nmlex.it</t>
+  </si>
+  <si>
+    <t>3906695181</t>
+  </si>
+  <si>
+    <t>Real Estate</t>
+  </si>
+  <si>
+    <t>Fabio Capezzone</t>
+  </si>
+  <si>
+    <t>f.capezzone@nmlex.it</t>
+  </si>
+  <si>
+    <t>Tax</t>
+  </si>
+  <si>
+    <t>Sébastien Bettschart</t>
+  </si>
+  <si>
+    <t>sbettschart@obersonabels.com</t>
+  </si>
+  <si>
+    <t>41582588888</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Private Equity</t>
+  </si>
+  <si>
+    <t>Oberson Abels</t>
+  </si>
+  <si>
+    <t>Nicolas Buchel</t>
+  </si>
+  <si>
+    <t>nbuchel@obersonabels.com</t>
+  </si>
+  <si>
+    <t>VAT</t>
+  </si>
+  <si>
+    <t>Counsel</t>
+  </si>
+  <si>
+    <t>Vanessa Déglise</t>
+  </si>
+  <si>
+    <t>vdeglise@obersonabels.com</t>
+  </si>
+  <si>
+    <t>Pensions</t>
+  </si>
+  <si>
+    <t>Maciej Wesołowski</t>
+  </si>
+  <si>
+    <t>maciej.wesolowski@octolegal.com</t>
+  </si>
+  <si>
+    <t>48600446939</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Regulatory</t>
+  </si>
+  <si>
+    <t>Octo Legal</t>
+  </si>
+  <si>
+    <t>Piotr Witecki</t>
+  </si>
+  <si>
+    <t>piotr.witecki@octolegal.com</t>
+  </si>
+  <si>
+    <t>Commercial Contracts</t>
+  </si>
+  <si>
+    <t>Michał Miąskiewicz</t>
+  </si>
+  <si>
+    <t>michal.miaskiewicz@octolegal.com</t>
+  </si>
+  <si>
+    <t>Arbitration</t>
+  </si>
+  <si>
+    <t>Rafael alcácer Guirao</t>
+  </si>
+  <si>
+    <t>r.alcacer@oliva-ayala.com</t>
+  </si>
+  <si>
+    <t>34913911290</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Criminal</t>
+  </si>
+  <si>
+    <t>Oliva-Ayala Abogados</t>
+  </si>
+  <si>
+    <t>Íñigo ortiz De Urbina Gimeno</t>
+  </si>
+  <si>
+    <t>i.ortizdeurbina@oliva-ayala.com</t>
+  </si>
+  <si>
+    <t>Economic Crime</t>
+  </si>
+  <si>
+    <t>Gustavo A Alcocer Lugo</t>
+  </si>
+  <si>
+    <t>gustavo.alcocer@olivares.mx</t>
+  </si>
+  <si>
+    <t>525553223000</t>
+  </si>
+  <si>
+    <t>México</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>https://www.olivares.mx/gustavo-a-alcocer/</t>
+  </si>
+  <si>
+    <t>OLIVARES</t>
+  </si>
+  <si>
+    <t>Daniel Sánchez Y Bejar</t>
+  </si>
+  <si>
+    <t>daniel.sanchez@olivares.mx</t>
+  </si>
+  <si>
+    <t>https://www.olivares.mx/daniel-sanchez/</t>
+  </si>
+  <si>
+    <t>Víctor Ramírez Landeros</t>
+  </si>
+  <si>
+    <t>victor.ramirez@olivares.mx</t>
+  </si>
+  <si>
+    <t>Trademarks</t>
+  </si>
+  <si>
+    <t>https://www.olivares.mx/victor-ramirez/</t>
+  </si>
+  <si>
+    <t>Oliver Cain</t>
+  </si>
+  <si>
+    <t>oliver.cain@ontier.co.uk</t>
+  </si>
+  <si>
+    <t>2071831701</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>Cross Border Litigation</t>
+  </si>
+  <si>
+    <t>Ontier</t>
+  </si>
+  <si>
+    <t>Luca Pardo</t>
+  </si>
+  <si>
+    <t>lpardo@ontier.net</t>
+  </si>
+  <si>
+    <t>390276008792</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Senior Partner</t>
+  </si>
+  <si>
+    <t>Guido Tancredi</t>
+  </si>
+  <si>
+    <t>gtancredi@ontier.net</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>Senior Associate</t>
+  </si>
+  <si>
+    <t>Asheesh Arora</t>
+  </si>
+  <si>
+    <t>asheesh@originlaw.ca</t>
+  </si>
+  <si>
+    <t>604265849</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Commercial Litigation</t>
+  </si>
+  <si>
+    <t>Associate Counsel</t>
+  </si>
+  <si>
+    <t>Origin Law Group</t>
+  </si>
+  <si>
+    <t>Ragnhild Haugli Bråten</t>
+  </si>
+  <si>
+    <t>rbr@osloeconomics.no</t>
+  </si>
+  <si>
+    <t>4799714482</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>Oslo Economics</t>
+  </si>
+  <si>
+    <t>Christoffer Bugge</t>
+  </si>
+  <si>
+    <t>cbu@osloeconomics.no</t>
+  </si>
+  <si>
+    <t>4798636221</t>
+  </si>
+  <si>
+    <t>Asbjørn Englund</t>
+  </si>
+  <si>
+    <t>aen@osloeconomics.no</t>
+  </si>
+  <si>
+    <t>4791318802</t>
+  </si>
+  <si>
+    <t>Competition</t>
+  </si>
+  <si>
+    <t>Nicole Robins</t>
+  </si>
+  <si>
+    <t>nicole.robins@oxera.com</t>
+  </si>
+  <si>
+    <t>32027930714</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Oxera</t>
+  </si>
+  <si>
+    <t>Joseph Bell</t>
+  </si>
+  <si>
+    <t>joseph.bell@oxera.com</t>
+  </si>
+  <si>
+    <t>4401865253056</t>
+  </si>
+  <si>
+    <t>Hélène Bourguignon</t>
+  </si>
+  <si>
+    <t>helene.bourguignon@oxera.com</t>
+  </si>
+  <si>
+    <t>330187165132</t>
+  </si>
+  <si>
+    <t>Alexander Gaigl</t>
+  </si>
+  <si>
+    <t>alexander.gaigl@oxera.com</t>
+  </si>
+  <si>
+    <t>49030767599107</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Roberto Alimonti</t>
+  </si>
+  <si>
+    <t>roberto.alimonti@oxera.com</t>
+  </si>
+  <si>
+    <t>390690258084</t>
+  </si>
+  <si>
+    <t>Carlos Pascual Pons</t>
+  </si>
+  <si>
+    <t>carlos.pascual@oxera.com</t>
+  </si>
+  <si>
+    <t>34910193577</t>
+  </si>
+  <si>
+    <t>Commercial</t>
+  </si>
+  <si>
+    <t>Nicole Rosenboom</t>
+  </si>
+  <si>
+    <t>nicole.rosenboom@oxera.com</t>
+  </si>
+  <si>
+    <t>310208888385</t>
+  </si>
+  <si>
+    <t>the Netherlands</t>
+  </si>
+  <si>
+    <t>Emma Brooks</t>
+  </si>
+  <si>
+    <t>ebrooks@pcb-byrne.com</t>
+  </si>
+  <si>
+    <t>2078421648</t>
+  </si>
+  <si>
+    <t>White Collar Crime</t>
+  </si>
+  <si>
+    <t>PCB Byrne</t>
+  </si>
+  <si>
+    <t>Ben Davies</t>
+  </si>
+  <si>
+    <t>bdavies@pcb-byrne.com</t>
+  </si>
+  <si>
+    <t>2078421651</t>
+  </si>
+  <si>
+    <t>Litigation</t>
+  </si>
+  <si>
+    <t>Catherine Eason</t>
+  </si>
+  <si>
+    <t>ceason@pcb-byrne.com</t>
+  </si>
+  <si>
+    <t>2078421672</t>
+  </si>
+  <si>
+    <t>Lara Dorigo</t>
+  </si>
+  <si>
+    <t>lara.dorigo@pestalozzilaw.com</t>
+  </si>
+  <si>
+    <t>41442179215</t>
+  </si>
+  <si>
+    <t>TMT</t>
+  </si>
+  <si>
+    <t>Pestalozzi </t>
+  </si>
+  <si>
+    <t>Sarah Drukarch</t>
+  </si>
+  <si>
+    <t>sarah.drukarch@pestalozzilaw.com</t>
+  </si>
+  <si>
+    <t>41442179323</t>
+  </si>
+  <si>
+    <t>Christophe Emonet</t>
+  </si>
+  <si>
+    <t>christophe.emonet@pestalozzilaw.com</t>
+  </si>
+  <si>
+    <t>41229999610</t>
+  </si>
+  <si>
+    <t>Luiz Roberto Peroba Barbosa</t>
+  </si>
+  <si>
+    <t>lperoba@pn.com.br</t>
+  </si>
+  <si>
+    <t>551132478959</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Tax Consulting</t>
+  </si>
+  <si>
+    <t>Pinheiro Neto Advogados</t>
+  </si>
+  <si>
+    <t>Marcello Alfredo Bernardes</t>
+  </si>
+  <si>
+    <t>mbernardes@pn.com.br</t>
+  </si>
+  <si>
+    <t>552125061622</t>
+  </si>
+  <si>
+    <t>Contracts</t>
+  </si>
+  <si>
+    <t>Marcello Lobo</t>
+  </si>
+  <si>
+    <t>mlobo@pn.com.br</t>
+  </si>
+  <si>
+    <t>552125061609</t>
+  </si>
+  <si>
+    <t>Debt Finance</t>
+  </si>
+  <si>
+    <t>Michael Sheville</t>
+  </si>
+  <si>
+    <t>michael.sheville@pinneytalfourd.co.uk</t>
+  </si>
+  <si>
+    <t>1708511000</t>
+  </si>
+  <si>
+    <t>Divorce</t>
+  </si>
+  <si>
+    <t>Pinney Talfourd LLP</t>
+  </si>
+  <si>
+    <t>Daniel Pfaff</t>
+  </si>
+  <si>
+    <t>dpfaff@pohlmann-company.com</t>
+  </si>
+  <si>
+    <t>4989217584186</t>
+  </si>
+  <si>
+    <t>Pohlmann &amp; Company</t>
+  </si>
+  <si>
+    <t>Jaime Enrique Gómez</t>
+  </si>
+  <si>
+    <t>jaime.gomez@phrlegal.com</t>
+  </si>
+  <si>
+    <t>576013257300</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Tax Planning</t>
+  </si>
+  <si>
+    <t>Posse Herrera Ruiz</t>
+  </si>
+  <si>
+    <t>Jesus Albarran</t>
+  </si>
+  <si>
+    <t>jesus.albarran@phrlegal.com</t>
+  </si>
+  <si>
+    <t>Capital Markets</t>
+  </si>
+  <si>
+    <t>José Alejandro Torres</t>
+  </si>
+  <si>
+    <t>josealejandro.torres@phrlegal.com</t>
+  </si>
+  <si>
+    <t>Bodil Søes Petersen</t>
+  </si>
+  <si>
+    <t>pet@poulschmith.dk</t>
+  </si>
+  <si>
+    <t>Poul Schimth</t>
+  </si>
+  <si>
+    <t>Boris Frederiksen</t>
+  </si>
+  <si>
+    <t>bor@poulschmith.dk</t>
+  </si>
+  <si>
+    <t>Restructuring</t>
+  </si>
+  <si>
+    <t>Carina Vang Kristoffersen</t>
+  </si>
+  <si>
+    <t>cavk@poulschmith.dk</t>
+  </si>
+  <si>
+    <t>M&amp;A</t>
+  </si>
+  <si>
+    <t>Sharon Dunning</t>
+  </si>
+  <si>
+    <t>sharon.dunning@amoryssolicitors.com</t>
+  </si>
+  <si>
+    <t>12874341</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>https://www.propertylawyers.ie/about-property-lawyers/sharon-dunning/?_gl=1*q2i4tv*_up*MQ..&amp;gclid=Cj0KCQiAkoe9BhDYARIsAH85cDOfPd_SbZ89yyj_ti4_481rJbfRUKZvX_denuZ7jC72G38F8wMb9bIaAjRnEALw_wcB</t>
+  </si>
+  <si>
+    <t>Property Lawyers</t>
+  </si>
+  <si>
+    <t>Annemarie Glynn</t>
+  </si>
+  <si>
+    <t>annemarie@amoryssolicitors.com</t>
+  </si>
+  <si>
+    <t>https://www.propertylawyers.ie/about-property-lawyers/annemarie-glynn/?_gl=1*mg93n8*_up*MQ..&amp;gclid=Cj0KCQiAkoe9BhDYARIsAH85cDOfPd_SbZ89yyj_ti4_481rJbfRUKZvX_denuZ7jC72G38F8wMb9bIaAjRnEALw_wcB</t>
+  </si>
+  <si>
+    <t>Stephanie Seidner</t>
+  </si>
+  <si>
+    <t>stephanie.seidner@psp-bz.it</t>
+  </si>
+  <si>
+    <t>390471977708</t>
+  </si>
+  <si>
+    <t>Labour &amp; Employment</t>
+  </si>
+  <si>
+    <t>PSP Partner</t>
+  </si>
+  <si>
+    <t>Josef Radl</t>
+  </si>
+  <si>
+    <t>josef.radl@psp-bz.it</t>
+  </si>
+  <si>
+    <t>390472766090</t>
+  </si>
+  <si>
+    <t>Christian Unterhauser</t>
+  </si>
+  <si>
+    <t>christian.unterhauser@psp-bz.it</t>
+  </si>
+  <si>
+    <t>390471819770</t>
+  </si>
+  <si>
+    <t>Anna Franziska Hauer</t>
+  </si>
+  <si>
+    <t>hauer@pwwl.de</t>
+  </si>
+  <si>
+    <t>496934876390</t>
+  </si>
+  <si>
+    <t>Immigration</t>
+  </si>
+  <si>
+    <t>Pusch Wahlig Workplace Law</t>
+  </si>
+  <si>
+    <t>Thorben Klopp</t>
+  </si>
+  <si>
+    <t>klopp@pwwl.de</t>
+  </si>
+  <si>
+    <t>494030068720</t>
+  </si>
+  <si>
+    <t>Alexander Lorenz</t>
+  </si>
+  <si>
+    <t>lorenz@pwwl.de</t>
+  </si>
+  <si>
+    <t>Hadrien Bourrellis</t>
+  </si>
+  <si>
+    <t>hadrien.bourrellis@rmt.fr</t>
+  </si>
+  <si>
+    <t>33153534444</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Reinhart Marville Torre</t>
+  </si>
+  <si>
+    <t>Aki J Viitala</t>
+  </si>
+  <si>
+    <t>ajv@ekkoadvokat.no</t>
+  </si>
+  <si>
+    <t>932910713</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>https://reklamasjonsportalen.no/menneskene/aki-j-viitala/</t>
+  </si>
+  <si>
+    <t>Reklamasjonsportalen</t>
+  </si>
+  <si>
+    <t>Marcus Hytten Nilssen</t>
+  </si>
+  <si>
+    <t>mhn@ekkoadvokat.no</t>
+  </si>
+  <si>
+    <t>https://reklamasjonsportalen.no/menneskene/marcus-hytten-nilssen/</t>
+  </si>
+  <si>
+    <t>Fabienne Beauvais</t>
+  </si>
+  <si>
+    <t>fbeauvais@rsslex.com</t>
+  </si>
+  <si>
+    <t>5143937478</t>
+  </si>
+  <si>
+    <t>Insurance</t>
+  </si>
+  <si>
+    <t>Robinson Sheppard Shapiro</t>
+  </si>
+  <si>
+    <t>Justin Beeby</t>
+  </si>
+  <si>
+    <t>jbeeby@rsslex.com</t>
+  </si>
+  <si>
+    <t>5143934048</t>
+  </si>
+  <si>
+    <t>Insurance Litigation</t>
+  </si>
+  <si>
+    <t>Ingrid Boghossian</t>
+  </si>
+  <si>
+    <t>iboghossian@rsslex.com</t>
+  </si>
+  <si>
+    <t>5143937423</t>
+  </si>
+  <si>
+    <t>Jens Bengtsson</t>
+  </si>
+  <si>
+    <t>jens.bengtsson@roschier.com</t>
+  </si>
+  <si>
+    <t>46855319014</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Roschier Attorneys Ltd</t>
+  </si>
+  <si>
+    <t>Pontus Enquist</t>
+  </si>
+  <si>
+    <t>pontus.enquist@roschier.com</t>
+  </si>
+  <si>
+    <t>46727004603</t>
+  </si>
+  <si>
+    <t>Erik Ficks</t>
+  </si>
+  <si>
+    <t>erik.ficks@roschier.com</t>
+  </si>
+  <si>
+    <t>46761289092</t>
+  </si>
+  <si>
+    <t>Tom Spiller</t>
+  </si>
+  <si>
+    <t>tom.spiller@rosenblatt.law</t>
+  </si>
+  <si>
+    <t>4402046147100</t>
+  </si>
+  <si>
+    <t>Commercial Disputes</t>
+  </si>
+  <si>
+    <t>Rosenblatt Law</t>
+  </si>
+  <si>
+    <t>Elizabeth Weeks</t>
+  </si>
+  <si>
+    <t>elizabeth.weeks@rosenblatt.law</t>
+  </si>
+  <si>
+    <t>Dispute Resolution</t>
+  </si>
+  <si>
+    <t>Madeleine Binkley</t>
+  </si>
+  <si>
+    <t>madeleine.binkley@rosenblatt.law</t>
+  </si>
+  <si>
+    <t>Karsten Bender</t>
+  </si>
+  <si>
+    <t>karsten.bender@ebnerstolz.de</t>
+  </si>
+  <si>
+    <t>4971120491195</t>
+  </si>
+  <si>
+    <t>RSM International Association</t>
+  </si>
+  <si>
+    <t>Thorsten Benthien</t>
+  </si>
+  <si>
+    <t>thorsten.benthien@ebnerstolz.de</t>
+  </si>
+  <si>
+    <t>494037097168</t>
+  </si>
+  <si>
+    <t>Due Diligence</t>
+  </si>
+  <si>
+    <t>Alexander Bohn</t>
+  </si>
+  <si>
+    <t>alexander.bohn@ebnerstolz.de</t>
+  </si>
+  <si>
+    <t>4922120643487</t>
+  </si>
+  <si>
+    <t>Tax Auditing</t>
+  </si>
+  <si>
+    <t>Guillaume Vodoz</t>
+  </si>
+  <si>
+    <t>gvodoz@rvmh.ch</t>
+  </si>
+  <si>
+    <t>41228884020</t>
+  </si>
+  <si>
+    <t>Banking &amp; Finance</t>
+  </si>
+  <si>
+    <t>RVMH Avocats</t>
+  </si>
+  <si>
+    <t>Philippe Müller</t>
+  </si>
+  <si>
+    <t>phmuller@rvmh.ch</t>
+  </si>
+  <si>
+    <t>Pierre-damien Eggly</t>
+  </si>
+  <si>
+    <t>peggly@rvmh.ch</t>
+  </si>
+  <si>
+    <t>Criminal Litigation</t>
+  </si>
+  <si>
+    <t>Marek Durski</t>
+  </si>
+  <si>
+    <t>marek.durski@rzmlaw.com</t>
+  </si>
+  <si>
+    <t>48225204435</t>
+  </si>
+  <si>
+    <t>Rymarz, Zdort, Maruta</t>
+  </si>
+  <si>
+    <t>Łukasz Dynysiuk</t>
+  </si>
+  <si>
+    <t>lukasz.dynysiuk@rzmlaw.com</t>
+  </si>
+  <si>
+    <t>48225204058</t>
+  </si>
+  <si>
+    <t>Piotr Fedorowicz</t>
+  </si>
+  <si>
+    <t>piotr.fedorowicz@rzmlaw.com</t>
+  </si>
+  <si>
+    <t>48225204378</t>
+  </si>
+  <si>
+    <t>Carlotta Gobino</t>
+  </si>
+  <si>
+    <t>carlotta.gobino@sagliettibianco.com</t>
+  </si>
+  <si>
+    <t>39011533834</t>
+  </si>
+  <si>
+    <t>Saglietti Bianco</t>
+  </si>
+  <si>
+    <t>Denis Cinieri</t>
+  </si>
+  <si>
+    <t>denis.cinieri@sagliettibianco.com</t>
+  </si>
+  <si>
+    <t>Pierre Savoy</t>
+  </si>
+  <si>
+    <t>ps@lawyersgeneva.ch</t>
+  </si>
+  <si>
+    <t>41223202211</t>
+  </si>
+  <si>
+    <t>Saint-Léger Avocats</t>
+  </si>
+  <si>
+    <t>Sophie Bastardoz</t>
+  </si>
+  <si>
+    <t>sophie.bastardoz@swlegal.ch</t>
+  </si>
+  <si>
+    <t>41227078136</t>
+  </si>
+  <si>
+    <t>Schellenberg Wittmer AG</t>
+  </si>
+  <si>
+    <t>Karina Beaud</t>
+  </si>
+  <si>
+    <t>karina.beaud@swlegal.ch</t>
+  </si>
+  <si>
+    <t>41227078057</t>
+  </si>
+  <si>
+    <t>Philip Andrea Berti</t>
+  </si>
+  <si>
+    <t>philipandrea.berti@swlegal.ch</t>
+  </si>
+  <si>
+    <t>41442153656</t>
+  </si>
+  <si>
+    <t>Markus Grötschl</t>
+  </si>
+  <si>
+    <t>groetschl@schwarz-schoenherr.com</t>
+  </si>
+  <si>
+    <t>4315124243</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Schwarz Schönherr Rechtsanwälte</t>
+  </si>
+  <si>
+    <t>Hortensia Ballestas</t>
+  </si>
+  <si>
+    <t>ballestas@schwarz-schoenherr.com</t>
+  </si>
+  <si>
+    <t>Ivy Tse</t>
+  </si>
+  <si>
+    <t>itse@secretariat-intl.com</t>
+  </si>
+  <si>
+    <t>16473133318</t>
+  </si>
+  <si>
+    <t>Managing Director</t>
+  </si>
+  <si>
+    <t>Secretariat Advisors</t>
+  </si>
+  <si>
+    <t>Georges Bader</t>
+  </si>
+  <si>
+    <t>gbader@secretariat-intl.com</t>
+  </si>
+  <si>
+    <t>15147171670</t>
+  </si>
+  <si>
+    <t>Etienne Berge</t>
+  </si>
+  <si>
+    <t>eberge@secretariat-intl.com</t>
+  </si>
+  <si>
+    <t>12633804324</t>
+  </si>
+  <si>
+    <t>Stephen Garner</t>
+  </si>
+  <si>
+    <t>sgarner@secretariat-intl.com</t>
+  </si>
+  <si>
+    <t>4407300232105</t>
+  </si>
+  <si>
+    <t>Infrastructure</t>
+  </si>
+  <si>
+    <t>Marcel Etschenberg</t>
+  </si>
+  <si>
+    <t>metschenberg@secretariat-intl.com</t>
+  </si>
+  <si>
+    <t>4915140516611</t>
+  </si>
+  <si>
+    <t>Corporate Compliance</t>
+  </si>
+  <si>
+    <t>Corinna Bihn</t>
+  </si>
+  <si>
+    <t>c.bihn@seitzpartner.de</t>
+  </si>
+  <si>
+    <t>4922156960510</t>
+  </si>
+  <si>
+    <t>Seitz</t>
+  </si>
+  <si>
+    <t>Jeremy Bister</t>
+  </si>
+  <si>
+    <t>j.bister@seitzpartner.de</t>
+  </si>
+  <si>
+    <t>4922156960575</t>
+  </si>
+  <si>
+    <t>Matthias Böglmüller</t>
+  </si>
+  <si>
+    <t>m.boeglmueller@seitzpartner.de</t>
+  </si>
+  <si>
+    <t>4989356276160</t>
+  </si>
+  <si>
+    <t>Corporate Restructuring</t>
+  </si>
+  <si>
+    <t>Anja Fanebust</t>
+  </si>
+  <si>
+    <t>a.fanebust@selmer.no</t>
+  </si>
+  <si>
+    <t>4741367798</t>
+  </si>
+  <si>
+    <t>Selmer </t>
+  </si>
+  <si>
+    <t>Anja Lange</t>
+  </si>
+  <si>
+    <t>a.lange@selmer.no</t>
+  </si>
+  <si>
+    <t>4797572936</t>
+  </si>
+  <si>
+    <t>Data Protection</t>
+  </si>
+  <si>
+    <t>senior lawyer</t>
+  </si>
+  <si>
+    <t>Are Fagerhaug</t>
+  </si>
+  <si>
+    <t>a.fagerhaug@selmer.no</t>
+  </si>
+  <si>
+    <t>4798267017</t>
+  </si>
+  <si>
+    <t>Erik Thimfors</t>
+  </si>
+  <si>
+    <t>erik.thimfors@setterwalls.se</t>
+  </si>
+  <si>
+    <t>46317011796</t>
+  </si>
+  <si>
+    <t>Setterwalls </t>
+  </si>
+  <si>
+    <t>Emmelie Tedfelt</t>
+  </si>
+  <si>
+    <t>emmelie.tedfelt@setterwalls.se</t>
+  </si>
+  <si>
+    <t>46317011753</t>
+  </si>
+  <si>
+    <t>Angelica Ström</t>
+  </si>
+  <si>
+    <t>angelica.strom@setterwalls.se</t>
+  </si>
+  <si>
+    <t>46859889139</t>
+  </si>
+  <si>
+    <t>Compliance</t>
+  </si>
+  <si>
+    <t>Jeremy Hoyland</t>
+  </si>
+  <si>
+    <t>jeremy.hoyland@simmons-simmons.com</t>
+  </si>
+  <si>
+    <t>442076282020</t>
+  </si>
+  <si>
+    <t>Simmons &amp; Simmons</t>
+  </si>
+  <si>
+    <t>Mahrie Webb</t>
+  </si>
+  <si>
+    <t>mahrie.webb@simmons-simmons.com</t>
+  </si>
+  <si>
+    <t>442078252077</t>
+  </si>
+  <si>
+    <t>Funds &amp; Investment</t>
+  </si>
+  <si>
+    <t>Alexander Brown</t>
+  </si>
+  <si>
+    <t>alexander.brown@simmons-simmons.com</t>
+  </si>
+  <si>
+    <t>442078254954</t>
+  </si>
+  <si>
+    <t>Hans De Jong</t>
+  </si>
+  <si>
+    <t>dejong@svs.law</t>
+  </si>
+  <si>
+    <t>31104364311</t>
+  </si>
+  <si>
+    <t>Sjöcrona van Stigt Advocaten</t>
+  </si>
+  <si>
+    <t>Léon De Jager</t>
+  </si>
+  <si>
+    <t>dejager@svs.law</t>
+  </si>
+  <si>
+    <t>Tax Litigation</t>
+  </si>
+  <si>
+    <t>Linda Van Der Hut</t>
+  </si>
+  <si>
+    <t>vanderhut@svs.law</t>
+  </si>
+  <si>
+    <t>31703467472</t>
+  </si>
+  <si>
+    <t>Kerry O Connell</t>
+  </si>
+  <si>
+    <t>kerry.oconnell@slaughterandmay.com</t>
+  </si>
+  <si>
+    <t>32027379412</t>
+  </si>
+  <si>
+    <t>EU Competition</t>
+  </si>
+  <si>
+    <t>Slaughter May</t>
+  </si>
+  <si>
+    <t>Jonathan Slade</t>
+  </si>
+  <si>
+    <t>jonathan.slade@slaughterandmay.com</t>
+  </si>
+  <si>
+    <t>32027379436</t>
+  </si>
+  <si>
+    <t>Warwick Brennand</t>
+  </si>
+  <si>
+    <t>warwick.brennand@slaughterandmay.com</t>
+  </si>
+  <si>
+    <t>4402070903451</t>
+  </si>
+  <si>
+    <t>Joint Venture</t>
+  </si>
+  <si>
+    <t>Graziela Vicari Mellis</t>
+  </si>
+  <si>
+    <t>gmellis@sotofrugis.com.br</t>
+  </si>
+  <si>
+    <t>551155555230</t>
+  </si>
+  <si>
+    <t>https://sotofrugis.com.br/cv_mellis_en</t>
+  </si>
+  <si>
+    <t>Soto Frugis</t>
+  </si>
+  <si>
+    <t>Leonardo Pardini</t>
+  </si>
+  <si>
+    <t>lpardini@sotofrugis.com.br</t>
+  </si>
+  <si>
+    <t>https://sotofrugis.com.br/en/cv_pardini_en/</t>
+  </si>
+  <si>
+    <t>Michał Dawidowicz</t>
+  </si>
+  <si>
+    <t>michal.dawidowicz@skslegal.pl</t>
+  </si>
+  <si>
+    <t>48226087160</t>
+  </si>
+  <si>
+    <t>Sołtysiński, Kawecki &amp; Szlęzak</t>
+  </si>
+  <si>
+    <t>Mateusz Bartosiak</t>
+  </si>
+  <si>
+    <t>m.bartosiak@spcg.pl</t>
+  </si>
+  <si>
+    <t>48124272424</t>
+  </si>
+  <si>
+    <t>SPCG Law </t>
+  </si>
+  <si>
+    <t>Anthony Gioe De Stefano</t>
+  </si>
+  <si>
+    <t>agioedestefano@squairlaw.com</t>
+  </si>
+  <si>
+    <t>330181695960</t>
+  </si>
+  <si>
+    <t>Squair</t>
+  </si>
+  <si>
+    <t>Olivier Maizou</t>
+  </si>
+  <si>
+    <t>omaizou@squairlaw.com</t>
+  </si>
+  <si>
+    <t>Amandine Rossignol</t>
+  </si>
+  <si>
+    <t>arossignol@squairlaw.com</t>
+  </si>
+  <si>
+    <t>Business Contracts</t>
+  </si>
+  <si>
+    <t>Quentin Maujeul</t>
+  </si>
+  <si>
+    <t>qmaujeul@squairlaw.com</t>
+  </si>
+  <si>
+    <t>Patents</t>
+  </si>
+  <si>
+    <t>SquairLaw</t>
+  </si>
+  <si>
+    <t>Joana Brisson Lopes</t>
+  </si>
+  <si>
+    <t>joana.brissonlopes@srslegal.pt</t>
+  </si>
+  <si>
+    <t>351937237851</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>managing-associate</t>
+  </si>
+  <si>
+    <t>SRS Legal</t>
+  </si>
+  <si>
+    <t>Helen Conlan</t>
+  </si>
+  <si>
+    <t>helen.conlan@stephensonharwood.com</t>
+  </si>
+  <si>
+    <t>442078092205</t>
+  </si>
+  <si>
+    <t>Stephenson Harwood</t>
+  </si>
+  <si>
+    <t>Dani Azmi</t>
+  </si>
+  <si>
+    <t>hardani.azmi@stephensonharwood.com</t>
+  </si>
+  <si>
+    <t>442078092410</t>
+  </si>
+  <si>
+    <t>Spencer Campbell</t>
+  </si>
+  <si>
+    <t>scampbell@stewartmckelvey.com</t>
+  </si>
+  <si>
+    <t>Environmental</t>
+  </si>
+  <si>
+    <t>Stewart McKelvey</t>
+  </si>
+  <si>
+    <t>Tyana R Caplan</t>
+  </si>
+  <si>
+    <t>tcaplan@stewartmckelvey.com</t>
+  </si>
+  <si>
+    <t>Janet Carpenter</t>
+  </si>
+  <si>
+    <t>jcarpenter@stewartmckelvey.com</t>
+  </si>
+  <si>
+    <t>Cybersecurity</t>
+  </si>
+  <si>
+    <t>Monique Van Der Linden</t>
+  </si>
+  <si>
+    <t>monique.vanderlinden@stibbe.com</t>
+  </si>
+  <si>
+    <t>31205460055</t>
+  </si>
+  <si>
+    <t>Anti Money Laundering</t>
+  </si>
+  <si>
+    <t>Stibbe</t>
+  </si>
+  <si>
+    <t>Nima Lorjé</t>
+  </si>
+  <si>
+    <t>nima.lorje@stibbe.com</t>
+  </si>
+  <si>
+    <t>31205460353</t>
+  </si>
+  <si>
+    <t>Rut Molenaar-wingens</t>
+  </si>
+  <si>
+    <t>rut.molenaar-wingens@stibbe.com</t>
+  </si>
+  <si>
+    <t>31205460598</t>
+  </si>
+  <si>
+    <t>Sabrina Lai Cheong</t>
+  </si>
+  <si>
+    <t>sabrina.laicheong@stibbe.com</t>
+  </si>
+  <si>
+    <t>35226618118</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Joint Ventures</t>
+  </si>
+  <si>
+    <t>Alison Allen</t>
+  </si>
+  <si>
+    <t>alisonallen@stoneking.co.uk</t>
+  </si>
+  <si>
+    <t>1225324407</t>
+  </si>
+  <si>
+    <t>Trusts &amp; Estates</t>
+  </si>
+  <si>
+    <t>https://www.stoneking.co.uk/our-people/alison-allen</t>
+  </si>
+  <si>
+    <t>Chair</t>
+  </si>
+  <si>
+    <t>Stone King</t>
+  </si>
+  <si>
+    <t>Ylva Skoglösa</t>
+  </si>
+  <si>
+    <t>yms@aera-ip.com</t>
+  </si>
+  <si>
+    <t>453139209646735130384</t>
+  </si>
+  <si>
+    <t>https://aera-ip.com/team/yms/</t>
+  </si>
+  <si>
+    <t>Aera</t>
+  </si>
+  <si>
+    <t>Pierre Bernard (external Energy )</t>
+  </si>
+  <si>
+    <t>pbernard@philippelaw.eu</t>
+  </si>
+  <si>
+    <t>3222503980</t>
+  </si>
+  <si>
+    <t>https://philippelaw.eu/en/lawyer/pierre-bernard-external-energy-advisor/</t>
+  </si>
+  <si>
+    <t>Of Counsel</t>
+  </si>
+  <si>
+    <t>Philippe &amp; Partners</t>
+  </si>
+  <si>
+    <t>Botolf Botolfsen</t>
+  </si>
+  <si>
+    <t>botolfsen@ladv.no</t>
+  </si>
+  <si>
+    <t>4722937310</t>
+  </si>
+  <si>
+    <t>https://langsethadvokat.no/en/advokater/botolf-botolfsen-jr/</t>
+  </si>
+  <si>
+    <t>Langseth Advokat</t>
+  </si>
+  <si>
+    <t>Bernardo Charruff</t>
+  </si>
+  <si>
+    <t>bernardo.charruff@tavaresoffice.com.br</t>
+  </si>
+  <si>
+    <t>https://www.tavaresoffice.com.br/member/bernardo-charruff-2/</t>
+  </si>
+  <si>
+    <t>Tavares</t>
+  </si>
+  <si>
+    <t>Darren J Abernethy</t>
+  </si>
+  <si>
+    <t>abernethyd@gtlaw.com</t>
+  </si>
+  <si>
+    <t>14156551261</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>DATA PRIVACY &amp; CYBERSECURITY</t>
+  </si>
+  <si>
+    <t>https://www.gtlaw.com/en/professionals/a/abernethy-darren</t>
+  </si>
+  <si>
+    <t>Shareholder</t>
+  </si>
+  <si>
+    <t>Greenberg Traurig</t>
+  </si>
+  <si>
+    <t>Víctor Felipe Callarisa Rivera</t>
+  </si>
+  <si>
+    <t>callarisav@gtlaw.com</t>
+  </si>
+  <si>
+    <t>525550290073</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>CORPORATE</t>
+  </si>
+  <si>
+    <t>https://www.gtlaw.com/en/professionals/c/callarisa-rivera-victor-felipe</t>
+  </si>
+  <si>
+    <t>Dante Campiverdi</t>
+  </si>
+  <si>
+    <t>dante.campiverdi@gtlaw.com</t>
+  </si>
+  <si>
+    <t>MERGERS &amp; ACQUISITIONS</t>
+  </si>
+  <si>
+    <t>https://www.gtlaw.com/en/professionals/c/campiverdi-dante</t>
+  </si>
+  <si>
+    <t>Hanni Avinery</t>
+  </si>
+  <si>
+    <t>hanni@meitar.com</t>
+  </si>
+  <si>
+    <t>97236103157</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>https://meitar.com/en/people/avinery-hanni/</t>
+  </si>
+  <si>
+    <t>Meitar Law</t>
+  </si>
+  <si>
+    <t>Andrei Dumitrescu</t>
+  </si>
+  <si>
+    <t>andrei.dumitrescu@zrvp.ro</t>
+  </si>
+  <si>
+    <t>40213110517</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>https://zrvp.ro/our-people/andrei-dumitrescu/</t>
+  </si>
+  <si>
+    <t>Zamfirescu Racoti Predoiu</t>
+  </si>
+  <si>
+    <t>Thomas Escher</t>
+  </si>
+  <si>
+    <t>tescher@dompatent.de</t>
+  </si>
+  <si>
+    <t>4922191652233</t>
+  </si>
+  <si>
+    <t>https://www.dompatent.de/en/patentanwalt/dr-thomas-escher-2/</t>
+  </si>
+  <si>
+    <t>Dompatent</t>
+  </si>
+  <si>
+    <t>Satjivan S Aujla</t>
+  </si>
+  <si>
+    <t>satjivan.aujla@conyers.com</t>
+  </si>
+  <si>
+    <t>14412987887</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>https://www.conyers.com/people/view/satjivan-aujla/</t>
+  </si>
+  <si>
+    <t>Conyers</t>
+  </si>
+  <si>
+    <t>Mauricio Da Rocha</t>
+  </si>
+  <si>
+    <t>mauricio.darocha@conyers.com</t>
+  </si>
+  <si>
+    <t>13458147252</t>
+  </si>
+  <si>
+    <t>the Cayman Islands</t>
+  </si>
+  <si>
+    <t>https://www.conyers.com/people/view/mauricio-da-rocha/</t>
+  </si>
+  <si>
+    <t>Eric Flaye</t>
+  </si>
+  <si>
+    <t>eric.flaye@conyers.com</t>
+  </si>
+  <si>
+    <t>442075620341</t>
+  </si>
+  <si>
+    <t>https://www.conyers.com/people/view/eric-flaye/</t>
+  </si>
+  <si>
+    <t>Allyson Baker</t>
+  </si>
+  <si>
+    <t>abaker@cwilson.com</t>
+  </si>
+  <si>
+    <t>6048917732</t>
+  </si>
+  <si>
+    <t>https://www.cwilson.com/people/allyson-baker/</t>
+  </si>
+  <si>
+    <t>Clark Wilson</t>
+  </si>
+  <si>
+    <t>Reidun Rosså Korsberg</t>
+  </si>
+  <si>
+    <t>reidun.korsberg@patent.no</t>
+  </si>
+  <si>
+    <t>4797705455</t>
+  </si>
+  <si>
+    <t>European Trade Mark and Design Attorney.</t>
+  </si>
+  <si>
+    <t>https://www.patent.no/en/medarbeidere/reidun-rossa-korsberg/</t>
+  </si>
+  <si>
+    <t>Håmsø</t>
+  </si>
+  <si>
+    <t>Richard J Temko</t>
+  </si>
+  <si>
+    <t>richard.temko@dechert.com</t>
+  </si>
+  <si>
+    <t>3225355430</t>
+  </si>
+  <si>
+    <t>https://www.dechert.com/content/dechert/en/people/t/richard-temko.html</t>
+  </si>
+  <si>
+    <t>Dechert LLP</t>
+  </si>
+  <si>
+    <t>Olivia Bernardeau-paupe</t>
+  </si>
+  <si>
+    <t>olivia.bernardeaupaupe@dechert.com</t>
+  </si>
+  <si>
+    <t>33157578043</t>
+  </si>
+  <si>
+    <t>INTELLECTUAL PROPERTY</t>
+  </si>
+  <si>
+    <t>https://www.dechert.com/content/dechert/en/people/b/olivia-bernardeau-paupe.html</t>
+  </si>
+  <si>
+    <t>Federico G Pappalardo</t>
+  </si>
+  <si>
+    <t>federico.pappalardo@dechert.com</t>
+  </si>
+  <si>
+    <t>498921216311</t>
+  </si>
+  <si>
+    <t>https://www.dechert.com/content/dechert/en/people/p/federico-pappalardo.html</t>
+  </si>
+  <si>
+    <t>Knut Engh Andenæs</t>
+  </si>
+  <si>
+    <t>knan@wiersholm.no</t>
+  </si>
+  <si>
+    <t>4721021118</t>
+  </si>
+  <si>
+    <t>https://wiersholm.no/mennesker/knan/</t>
+  </si>
+  <si>
+    <t>Wiersholm</t>
+  </si>
+  <si>
+    <t>Lukáš Syrový</t>
+  </si>
+  <si>
+    <t>lukas.syrovy@havelpartners.cz</t>
+  </si>
+  <si>
+    <t>the Czech Republic</t>
+  </si>
+  <si>
+    <t>https://www.havelpartners.com/team/lukas-syrovy/</t>
+  </si>
+  <si>
+    <t>Havel Partners</t>
+  </si>
+  <si>
+    <t>Natasha Rickards Baugh</t>
+  </si>
+  <si>
+    <t>natasha.rickards@mfg.com.jm</t>
+  </si>
+  <si>
+    <t>8769225860</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Private Clients,</t>
+  </si>
+  <si>
+    <t>https://myersfletcher.com/attorney/natasha-rickards-baugh/</t>
+  </si>
+  <si>
+    <t>Myers Fletcher And Gordon</t>
+  </si>
+  <si>
+    <t>Björn Djupmark</t>
+  </si>
+  <si>
+    <t>bjorn.djupmark@titovlaw.se</t>
+  </si>
+  <si>
+    <t>46739838633</t>
+  </si>
+  <si>
+    <t>https://www.titovlaw.se/en/17/21/bjorn-djupmark/</t>
+  </si>
+  <si>
+    <t>Titov</t>
+  </si>
+  <si>
+    <t>marco jannon *****</t>
+  </si>
+  <si>
+    <t>marco.jannon@pavia-ansaldo.it</t>
+  </si>
+  <si>
+    <t>390285581</t>
+  </si>
+  <si>
+    <t>https://www.pavia-ansaldo.it/en/marco-jannon/</t>
+  </si>
+  <si>
+    <t>Pavia And Ansaldo</t>
+  </si>
+  <si>
+    <t>felipe sesma *****</t>
+  </si>
+  <si>
+    <t>felipe.sesma@pavia-ansaldo.es</t>
+  </si>
+  <si>
+    <t>34934943160</t>
+  </si>
+  <si>
+    <t>https://www.pavia-ansaldo.it/en/felipe-sesma-garcia/</t>
+  </si>
+  <si>
+    <t>edel conway *****</t>
+  </si>
+  <si>
+    <t>edel.conway@holmeslaw.ie</t>
+  </si>
+  <si>
+    <t>35316768928</t>
+  </si>
+  <si>
+    <t>https://holmeslaw.ie/people/edel-conway</t>
+  </si>
+  <si>
+    <t>Holmes</t>
+  </si>
+  <si>
+    <t>Angelo Bonetta</t>
+  </si>
+  <si>
+    <t>angelo.bonetta@belex.com</t>
+  </si>
+  <si>
+    <t>3902771131</t>
+  </si>
+  <si>
+    <t>Litigation &amp; Dispute Resolution</t>
+  </si>
+  <si>
+    <t>https://www.belex.com/en/professional/angelo-bonetta/</t>
+  </si>
+  <si>
+    <t>-----</t>
+  </si>
+  <si>
+    <t>BonelliErede</t>
+  </si>
+  <si>
+    <t>Libby Amos-stone</t>
+  </si>
+  <si>
+    <t>libby.amos-stone@arnoldporter.com</t>
+  </si>
+  <si>
+    <t>4402077866193</t>
+  </si>
+  <si>
+    <t>https://www.arnoldporter.com/en/people/a/amos-libby</t>
+  </si>
+  <si>
+    <t>Arnold And Porter</t>
+  </si>
+  <si>
+    <t>Lazarinka Naydenova</t>
+  </si>
+  <si>
+    <t>lazarinka.naydenova@arnoldporter.com</t>
+  </si>
+  <si>
+    <t>32022907839</t>
+  </si>
+  <si>
+    <t>https://www.arnoldporter.com/en/people/n/naydenova-lazarinka</t>
+  </si>
+  <si>
+    <t>Cecilie Sletskov-hjorth</t>
+  </si>
+  <si>
+    <t>cesh@njordlaw.com</t>
+  </si>
+  <si>
+    <t>4540959584</t>
+  </si>
+  <si>
+    <t>https://www.njordlaw.com/cecilie-sletskov-hjorth</t>
+  </si>
+  <si>
+    <t>cecilie sletskov-hjorth</t>
+  </si>
+  <si>
+    <t>Njord</t>
+  </si>
+  <si>
+    <t>Karolina Ullman</t>
+  </si>
+  <si>
+    <t>karolina.ullman@njordlaw.ee</t>
+  </si>
+  <si>
+    <t>3726676444</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>https://www.njordlaw.com/karolina-ullman</t>
+  </si>
+  <si>
+    <t>karolina ullman</t>
+  </si>
+  <si>
+    <t>asha kumar *****</t>
+  </si>
+  <si>
+    <t>asha.kumar@keystonelaw.co.uk</t>
+  </si>
+  <si>
+    <t>2033193700</t>
+  </si>
+  <si>
+    <t>https://www.keystonelaw.com/lawyers/asha-kumar</t>
+  </si>
+  <si>
+    <t>Keystone Law</t>
+  </si>
+  <si>
+    <t>Asamah Kadiri San</t>
+  </si>
+  <si>
+    <t>asamah.kadiri@jee.africa</t>
+  </si>
+  <si>
+    <t>3020890218782</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>https://jee.africa/people/asamah-kadiri-san</t>
+  </si>
+  <si>
+    <t>Jackson Etti And Edu</t>
+  </si>
+  <si>
+    <t>Paolo Castiglia</t>
+  </si>
+  <si>
+    <t>castiglia@pcapatlaw.it</t>
+  </si>
+  <si>
+    <t>390258300013</t>
+  </si>
+  <si>
+    <t>Electrotechnics, Physics, Mechanics, Optics, Thermodynamics.</t>
+  </si>
+  <si>
+    <t>https://www.pcapatlaw.it/en/portfolio-items/paolo-castiglia/</t>
+  </si>
+  <si>
+    <t>Porta &amp; Consulenti Associati</t>
+  </si>
+  <si>
+    <t>Timothy Baron</t>
+  </si>
+  <si>
+    <t>tim.baron@mcmillan.ca</t>
+  </si>
+  <si>
+    <t>4168657054</t>
+  </si>
+  <si>
+    <t>https://mcmillan.ca/people/timothy-baron/</t>
+  </si>
+  <si>
+    <t>McMillan</t>
+  </si>
+  <si>
+    <t>Daniel Parodi</t>
+  </si>
+  <si>
+    <t>daniel.parodi@ppulegal.com</t>
+  </si>
+  <si>
+    <t>56224293852</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Aviation Finance, Banking, Finance and Capital Markets, Infrastructure and Projects</t>
+  </si>
+  <si>
+    <t>https://ppulegal.com/en/bd-abogados/daniel-parodi-2/</t>
+  </si>
+  <si>
+    <t>Pulegal</t>
+  </si>
+  <si>
+    <t>Davide Montanaro</t>
+  </si>
+  <si>
+    <t>d.montanaro@panetta.it</t>
+  </si>
+  <si>
+    <t>390668210129</t>
+  </si>
+  <si>
+    <t>https://panetta.it/persone/davide-montanaro/</t>
+  </si>
+  <si>
+    <t>Panetta Consulting Group</t>
+  </si>
+  <si>
+    <t>Mindaugas Bliuvas</t>
+  </si>
+  <si>
+    <t>mindaugas.bliuvas@cobalt.legal</t>
+  </si>
+  <si>
+    <t>37068797993</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>AML and Sanctions</t>
+  </si>
+  <si>
+    <t>https://www.cobalt.legal/people/mindaugas-bliuvas/</t>
+  </si>
+  <si>
+    <t>Cobalt</t>
+  </si>
+  <si>
+    <t>Monika Koolmeister</t>
+  </si>
+  <si>
+    <t>monika.koolmeister@cobalt.legal</t>
+  </si>
+  <si>
+    <t>3726651888</t>
+  </si>
+  <si>
+    <t>https://www.cobalt.legal/people/monika-koolmeister/</t>
+  </si>
+  <si>
+    <t>Joseph Bell He/him</t>
+  </si>
+  <si>
+    <t>4402077766600</t>
+  </si>
+  <si>
+    <t>Not Found</t>
+  </si>
+  <si>
+    <t>https://www.oxera.com/people/joseph-bell/</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>https://www.oxera.com/people/dr-helene-bourguignon/</t>
+  </si>
+  <si>
+    <t>Matthew Bell</t>
+  </si>
+  <si>
+    <t>matthew.bell@frontier-economics.com</t>
+  </si>
+  <si>
+    <t>4402070317000</t>
+  </si>
+  <si>
+    <t>https://www.frontier-economics.com/uk/en/about/people/people-i1320-matthew-bell/</t>
+  </si>
+  <si>
+    <t>Director</t>
+  </si>
+  <si>
+    <t>Frontier</t>
+  </si>
+  <si>
+    <t>Marius Benden</t>
+  </si>
+  <si>
+    <t>hallo@frontier-economics.com</t>
+  </si>
+  <si>
+    <t>49221337130</t>
+  </si>
+  <si>
+    <t>https://www.frontier-economics.com/uk/en/about/people/people-i1322-marius-benden/</t>
+  </si>
+  <si>
+    <t>André Du Plessis</t>
+  </si>
+  <si>
+    <t>andred@kisch-ip.com</t>
+  </si>
+  <si>
+    <t>27113243007</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>https://www.kisch-ip.com/Directors/14/Andr%C3%A9duPlessis</t>
+  </si>
+  <si>
+    <t>KISCH IP</t>
+  </si>
+  <si>
+    <t>Toby Allan</t>
+  </si>
+  <si>
+    <t>tallan@mccarthy.ca</t>
+  </si>
+  <si>
+    <t>14032603547</t>
+  </si>
+  <si>
+    <t>https://www.mccarthy.ca/en/people/toby-allan</t>
+  </si>
+  <si>
+    <t>McCarthy Tetrault</t>
+  </si>
+  <si>
+    <t>Amit Bechler</t>
+  </si>
+  <si>
+    <t>abechler@fbclawyers.com</t>
+  </si>
+  <si>
+    <t>97236944162</t>
+  </si>
+  <si>
+    <t>Labor &amp; Employment</t>
+  </si>
+  <si>
+    <t>https://www.fbclawyers.com/lawyer/amit-bechler/</t>
+  </si>
+  <si>
+    <t>Fischer</t>
+  </si>
+  <si>
+    <t>Sandra J Lightbourn</t>
+  </si>
+  <si>
+    <t>slightbourn@higgsjohnson.com</t>
+  </si>
+  <si>
+    <t>12423626268</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>Real Estate &amp; Development</t>
+  </si>
+  <si>
+    <t>https://higgsjohnson.com/person/sandra-j-lightbourn/</t>
+  </si>
+  <si>
+    <t>Higgs And Johnson</t>
+  </si>
+  <si>
+    <t>József Antal</t>
+  </si>
+  <si>
+    <t>jozsef.antal@kinstellar.com</t>
+  </si>
+  <si>
+    <t>3620120428204433</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>https://www.kinstellar.com/our-team/detail/antal-jozsef</t>
+  </si>
+  <si>
+    <t>Special Counsel</t>
+  </si>
+  <si>
+    <t>Kinstellar</t>
+  </si>
+  <si>
+    <t>Michal Silberstein</t>
+  </si>
+  <si>
+    <t>michalsi@gornitzky.com</t>
+  </si>
+  <si>
+    <t>97237109191</t>
+  </si>
+  <si>
+    <t>https://www.gornitzky.com/attorneys/michal-silberstein/</t>
+  </si>
+  <si>
+    <t>Gornitzky And Co</t>
+  </si>
+  <si>
+    <t>Rubén Soto</t>
+  </si>
+  <si>
+    <t>rsoto@aem.cl</t>
+  </si>
+  <si>
+    <t>56222461222</t>
+  </si>
+  <si>
+    <t>https://www.aem.cl/staff-member/ruben-soto-carvajal-en/</t>
+  </si>
+  <si>
+    <t>Aguayo Ecclefield And Martinez</t>
+  </si>
+  <si>
+    <t>Francisco Aparicio Marina</t>
+  </si>
+  <si>
+    <t>faparicio@finreg360.com</t>
+  </si>
+  <si>
+    <t>34910496459</t>
+  </si>
+  <si>
+    <t>https://finreg360.com/quienes-somos/</t>
+  </si>
+  <si>
+    <t>francisco aparicio marina</t>
+  </si>
+  <si>
+    <t>Finreg 360</t>
+  </si>
+  <si>
+    <t>Alexandra Kellert</t>
+  </si>
+  <si>
+    <t>alexandra.kellert@controlrisks.com</t>
+  </si>
+  <si>
+    <t>4407862662260</t>
+  </si>
+  <si>
+    <t>https://www.controlrisks.com/who-we-are/our-experts/expert-bio/alexandra-kellert</t>
+  </si>
+  <si>
+    <t>Control Risks</t>
+  </si>
+  <si>
+    <t>Alison Smith</t>
+  </si>
+  <si>
+    <t>alison.smith@controlrisks.com</t>
+  </si>
+  <si>
+    <t>18329375048</t>
+  </si>
+  <si>
+    <t>https://www.controlrisks.com/who-we-are/our-experts/expert-bio/alison-smith</t>
+  </si>
+  <si>
+    <t>Ana Krznaric</t>
+  </si>
+  <si>
+    <t>ana.krznaric@controlrisks.com</t>
+  </si>
+  <si>
+    <t>491722501493</t>
+  </si>
+  <si>
+    <t>https://www.controlrisks.com/who-we-are/our-experts/expert-bio/ana-krznaric</t>
+  </si>
+  <si>
+    <t>Adrien Guidet</t>
+  </si>
+  <si>
+    <t>aguidet@asafoandco.com</t>
+  </si>
+  <si>
+    <t>Banking ; Insurance</t>
+  </si>
+  <si>
+    <t>https://www.asafoandco.com/people/adrien-guidet/</t>
+  </si>
+  <si>
+    <t>Asafo And Co</t>
+  </si>
+  <si>
+    <t>Isaiah Mungai Kamau</t>
+  </si>
+  <si>
+    <t>imungai@mmcasafo.com</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Banking, Finance ; FinTech | M;A, Private Equity ; Funds | Project Development ; PPP | Project Finance | Real Estate</t>
+  </si>
+  <si>
+    <t>https://www.asafoandco.com/people/isaiah-mungai-kamau/</t>
+  </si>
+  <si>
+    <t>Patrick Daum</t>
+  </si>
+  <si>
+    <t>patrick.daum@bardehle.de</t>
+  </si>
+  <si>
+    <t>49211478130</t>
+  </si>
+  <si>
+    <t>https://www.bardehle.com/en/team/daum-patrick</t>
+  </si>
+  <si>
+    <t>BARDEHLE PAGENBERG</t>
+  </si>
+  <si>
+    <t>Axel Munier</t>
+  </si>
+  <si>
+    <t>munier@bardehle.fr</t>
+  </si>
+  <si>
+    <t>33153051500</t>
+  </si>
+  <si>
+    <t>https://www.bardehle.com/en/team/munier-axel</t>
+  </si>
+  <si>
+    <t>Steve Athle</t>
+  </si>
+  <si>
+    <t>steve.athle@awa.com</t>
+  </si>
+  <si>
+    <t>46705401925</t>
+  </si>
+  <si>
+    <t>https://www.awa.com/en/people/athle-steve/</t>
+  </si>
+  <si>
+    <t>AWA</t>
+  </si>
+  <si>
+    <t>Sissel Bøe-sollund</t>
+  </si>
+  <si>
+    <t>sissel.boe-sollund@awa.com</t>
+  </si>
+  <si>
+    <t>4740452445</t>
+  </si>
+  <si>
+    <t>https://www.awa.com/en/people/boe-sollund-sissel/</t>
+  </si>
+  <si>
+    <t>Stefan Borch Bilfeldt</t>
+  </si>
+  <si>
+    <t>stefan.borch-bilfeldt@awa.com</t>
+  </si>
+  <si>
+    <t>4543313329</t>
+  </si>
+  <si>
+    <t>https://www.awa.com/en/people/borch-bilfeldt-stefan/</t>
+  </si>
+  <si>
+    <t>Christoph Hecht</t>
+  </si>
+  <si>
+    <t>christoph.hecht@isarpatent.com</t>
+  </si>
+  <si>
+    <t>490893816100</t>
+  </si>
+  <si>
+    <t>https://www.isarpatent.com/patentanwalt-christoph-hecht/</t>
+  </si>
+  <si>
+    <t>Managing Counsel</t>
+  </si>
+  <si>
+    <t>Reinhard Skuhra Weise &amp; Partner GbR</t>
+  </si>
+  <si>
+    <t>Christina Kwok</t>
+  </si>
+  <si>
+    <t>ckwok@patentable.com</t>
+  </si>
+  <si>
+    <t>6046693432</t>
+  </si>
+  <si>
+    <t>https://patentable.com/lawyers/christina-kwok/</t>
+  </si>
+  <si>
+    <t>Oyen Wiggs</t>
+  </si>
+  <si>
+    <t>Tim Logan</t>
+  </si>
+  <si>
+    <t>tim.logan@ellisons.com</t>
+  </si>
+  <si>
+    <t>1206719608</t>
+  </si>
+  <si>
+    <t>https://ellisons.com/team/tim-logan/</t>
+  </si>
+  <si>
+    <t>Ellisons Solicitors</t>
+  </si>
+  <si>
+    <t>Paula Airas</t>
+  </si>
+  <si>
+    <t>paula.airas@roschier.com</t>
+  </si>
+  <si>
+    <t>358205066568</t>
+  </si>
+  <si>
+    <t>https://www.roschier.com/people/paula-airas</t>
+  </si>
+  <si>
+    <t>Roschier</t>
+  </si>
+  <si>
+    <t>Charles Davies</t>
+  </si>
+  <si>
+    <t>cdavies@applebyglobal.com</t>
+  </si>
+  <si>
+    <t>441624647622</t>
+  </si>
+  <si>
+    <t>https://www.applebyglobal.com/people/charles-davies/</t>
+  </si>
+  <si>
+    <t>Appleby Global</t>
+  </si>
+  <si>
+    <t>James Daniel</t>
+  </si>
+  <si>
+    <t>james.daniel@mourant.com</t>
+  </si>
+  <si>
+    <t>441534676332</t>
+  </si>
+  <si>
+    <t>Guernsey, Jersey, London</t>
+  </si>
+  <si>
+    <t>https://www.mourant.com/profile/view/3651/James-Daniel</t>
+  </si>
+  <si>
+    <t>Mourant</t>
+  </si>
+  <si>
+    <t>Lara Forte</t>
+  </si>
+  <si>
+    <t>lara.forte@mourant.com</t>
+  </si>
+  <si>
+    <t>3522600825074</t>
+  </si>
+  <si>
+    <t>https://www.mourant.com/profile/view/67730/Lara-Forte</t>
+  </si>
+  <si>
+    <t>hbenmoshe *****</t>
+  </si>
+  <si>
+    <t>hbenmoshe@barlaw.co.il</t>
+  </si>
+  <si>
+    <t>97236400600</t>
+  </si>
+  <si>
+    <t>https://barlaw.co.il/attorneys/ben-moshe-hagit/</t>
+  </si>
+  <si>
+    <t>Barnea And Co</t>
+  </si>
+  <si>
+    <t>Maria Aholainen</t>
+  </si>
+  <si>
+    <t>maria.aholainen@hannessnellman.com</t>
+  </si>
+  <si>
+    <t>358407755010</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>https://www.hannessnellman.com/people/maria-aholainen/</t>
+  </si>
+  <si>
+    <t>Hannes Snellman</t>
+  </si>
+  <si>
+    <t>Anna-marie Curran</t>
+  </si>
+  <si>
+    <t>amcurran@algoodbody.com</t>
+  </si>
+  <si>
+    <t>35316492227</t>
+  </si>
+  <si>
+    <t>Competition &amp; Procurement</t>
+  </si>
+  <si>
+    <t>https://www.algoodbody.com/our-people/anna-marie-curran</t>
+  </si>
+  <si>
+    <t>AL Goodbody</t>
+  </si>
+  <si>
+    <t>Catherine Irvine</t>
+  </si>
+  <si>
+    <t>cirvine@algoodbody.com</t>
+  </si>
+  <si>
+    <t>442890727480</t>
+  </si>
+  <si>
+    <t>Corporate and M&amp;A</t>
+  </si>
+  <si>
+    <t>https://www.algoodbody.com/our-people/catherine-irvine</t>
+  </si>
+  <si>
+    <t>Adenike Oyeledun</t>
+  </si>
+  <si>
+    <t>adenike.oyeledun@templars-law.com</t>
+  </si>
+  <si>
+    <t>23414611290</t>
+  </si>
+  <si>
+    <t>Corporate &amp; Commercial</t>
+  </si>
+  <si>
+    <t>https://www.templars-law.com/our-people/adenike-oyeledun/</t>
+  </si>
+  <si>
+    <t>TEMPLARS</t>
   </si>
 </sst>
 </file>
@@ -1193,7 +3803,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:J3"/>
@@ -1201,16 +3811,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="27.6666666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.8916666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.6666666666667" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.775" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28.225" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.225" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.8916666666667" style="2" customWidth="1"/>
-    <col min="8" max="8" width="23.1083333333333" style="2" customWidth="1"/>
-    <col min="9" max="9" width="19" style="3" customWidth="1"/>
-    <col min="10" max="10" width="26.225" style="2" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="27.6666666666667"/>
+    <col min="2" max="2" customWidth="true" style="1" width="31.8916666666667"/>
+    <col min="3" max="3" customWidth="true" style="1" width="27.6666666666667"/>
+    <col min="4" max="4" customWidth="true" style="1" width="20.775"/>
+    <col min="5" max="5" customWidth="true" style="2" width="28.225"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.225"/>
+    <col min="7" max="7" customWidth="true" style="2" width="19.8916666666667"/>
+    <col min="8" max="8" customWidth="true" style="2" width="23.1083333333333"/>
+    <col min="9" max="9" customWidth="true" style="3" width="19.0"/>
+    <col min="10" max="10" customWidth="true" style="2" width="26.225"/>
   </cols>
   <sheetData>
     <row r="1" ht="21.6" customHeight="1" spans="1:10">
@@ -1245,49 +3855,6309 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" ht="30" spans="1:10">
-      <c r="A2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1" t="s">
+    <row r="2">
+      <c r="A2" t="s" s="1">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s" s="1">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s" s="1">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="1">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s" s="1">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s" s="3">
+        <v>34</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="1">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s" s="1">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s" s="1">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F4" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s" s="3">
+        <v>34</v>
+      </c>
+      <c r="J4" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="1">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s" s="1">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s" s="1">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F5" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J5" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="1">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="D6" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="E6" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="F6" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="E7" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s" s="3">
+        <v>52</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="E8" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="F8" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s" s="3">
+        <v>52</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="C9" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="D9" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="E9" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="F9" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J9" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="B10" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="C10" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="D10" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="E10" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="F10" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J10" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="B11" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="C11" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="D11" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="E11" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s" s="3">
+        <v>52</v>
+      </c>
+      <c r="J11" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="B12" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="C12" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="D12" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="E12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I12" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="B13" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="C13" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="D13" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="E13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F13" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I13" t="s" s="3">
+        <v>52</v>
+      </c>
+      <c r="J13" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="1">
+        <v>77</v>
+      </c>
+      <c r="B14" t="s" s="1">
+        <v>78</v>
+      </c>
+      <c r="C14" t="s" s="1">
+        <v>79</v>
+      </c>
+      <c r="D14" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="E14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I14" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="B15" t="s" s="1">
+        <v>85</v>
+      </c>
+      <c r="C15" t="s" s="1">
+        <v>79</v>
+      </c>
+      <c r="D15" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="E15" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I15" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J15" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="1">
+        <v>87</v>
+      </c>
+      <c r="B16" t="s" s="1">
+        <v>88</v>
+      </c>
+      <c r="C16" t="s" s="1">
+        <v>79</v>
+      </c>
+      <c r="D16" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="E16" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I16" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J16" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="1">
+        <v>91</v>
+      </c>
+      <c r="B17" t="s" s="1">
+        <v>92</v>
+      </c>
+      <c r="C17" t="s" s="1">
+        <v>93</v>
+      </c>
+      <c r="D17" t="s" s="1">
+        <v>94</v>
+      </c>
+      <c r="E17" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I17" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J17" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="1">
+        <v>97</v>
+      </c>
+      <c r="B18" t="s" s="1">
+        <v>98</v>
+      </c>
+      <c r="C18" t="s" s="1">
+        <v>99</v>
+      </c>
+      <c r="D18" t="s" s="1">
+        <v>31</v>
+      </c>
+      <c r="E18" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I18" t="s" s="3">
+        <v>101</v>
+      </c>
+      <c r="J18" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="1">
+        <v>102</v>
+      </c>
+      <c r="B19" t="s" s="1">
+        <v>103</v>
+      </c>
+      <c r="C19" t="s" s="1">
+        <v>99</v>
+      </c>
+      <c r="D19" t="s" s="1">
+        <v>31</v>
+      </c>
+      <c r="E19" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I19" t="s" s="3">
+        <v>105</v>
+      </c>
+      <c r="J19" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="1">
+        <v>106</v>
+      </c>
+      <c r="B20" t="s" s="1">
+        <v>107</v>
+      </c>
+      <c r="C20" t="s" s="1">
+        <v>108</v>
+      </c>
+      <c r="D20" t="s" s="1">
+        <v>109</v>
+      </c>
+      <c r="E20" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I20" t="s" s="3">
+        <v>111</v>
+      </c>
+      <c r="J20" t="s" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="1">
+        <v>113</v>
+      </c>
+      <c r="B21" t="s" s="1">
+        <v>114</v>
+      </c>
+      <c r="C21" t="s" s="1">
+        <v>115</v>
+      </c>
+      <c r="D21" t="s" s="1">
+        <v>116</v>
+      </c>
+      <c r="E21" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="F21" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I21" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J21" t="s" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="1">
+        <v>119</v>
+      </c>
+      <c r="B22" t="s" s="1">
+        <v>120</v>
+      </c>
+      <c r="C22" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="D22" t="s" s="1">
+        <v>116</v>
+      </c>
+      <c r="E22" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I22" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J22" t="s" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="1">
+        <v>122</v>
+      </c>
+      <c r="B23" t="s" s="1">
+        <v>123</v>
+      </c>
+      <c r="C23" t="s" s="1">
+        <v>124</v>
+      </c>
+      <c r="D23" t="s" s="1">
+        <v>116</v>
+      </c>
+      <c r="E23" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I23" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J23" t="s" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="1">
+        <v>126</v>
+      </c>
+      <c r="B24" t="s" s="1">
+        <v>127</v>
+      </c>
+      <c r="C24" t="s" s="1">
+        <v>128</v>
+      </c>
+      <c r="D24" t="s" s="1">
         <v>13</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E24" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I24" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J24" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="1">
+        <v>131</v>
+      </c>
+      <c r="B25" t="s" s="1">
+        <v>132</v>
+      </c>
+      <c r="C25" t="s" s="1">
+        <v>133</v>
+      </c>
+      <c r="D25" t="s" s="1">
+        <v>94</v>
+      </c>
+      <c r="E25" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I25" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J25" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="1">
+        <v>134</v>
+      </c>
+      <c r="B26" t="s" s="1">
+        <v>135</v>
+      </c>
+      <c r="C26" t="s" s="1">
+        <v>136</v>
+      </c>
+      <c r="D26" t="s" s="1">
+        <v>94</v>
+      </c>
+      <c r="E26" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I26" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J26" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="1">
+        <v>137</v>
+      </c>
+      <c r="B27" t="s" s="1">
+        <v>138</v>
+      </c>
+      <c r="C27" t="s" s="1">
+        <v>139</v>
+      </c>
+      <c r="D27" t="s" s="1">
+        <v>140</v>
+      </c>
+      <c r="E27" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="F27" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I27" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J27" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="1">
+        <v>141</v>
+      </c>
+      <c r="B28" t="s" s="1">
+        <v>142</v>
+      </c>
+      <c r="C28" t="s" s="1">
+        <v>143</v>
+      </c>
+      <c r="D28" t="s" s="1">
+        <v>31</v>
+      </c>
+      <c r="E28" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I28" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="1">
+        <v>144</v>
+      </c>
+      <c r="B29" t="s" s="1">
+        <v>145</v>
+      </c>
+      <c r="C29" t="s" s="1">
+        <v>146</v>
+      </c>
+      <c r="D29" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="E29" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I29" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="1">
+        <v>148</v>
+      </c>
+      <c r="B30" t="s" s="1">
+        <v>149</v>
+      </c>
+      <c r="C30" t="s" s="1">
+        <v>150</v>
+      </c>
+      <c r="D30" t="s" s="1">
+        <v>151</v>
+      </c>
+      <c r="E30" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="F30" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I30" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J30" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="1">
+        <v>152</v>
+      </c>
+      <c r="B31" t="s" s="1">
+        <v>153</v>
+      </c>
+      <c r="C31" t="s" s="1">
+        <v>154</v>
+      </c>
+      <c r="D31" t="s" s="1">
+        <v>94</v>
+      </c>
+      <c r="E31" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I31" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="1">
+        <v>157</v>
+      </c>
+      <c r="B32" t="s" s="1">
+        <v>158</v>
+      </c>
+      <c r="C32" t="s" s="1">
+        <v>159</v>
+      </c>
+      <c r="D32" t="s" s="1">
+        <v>94</v>
+      </c>
+      <c r="E32" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I32" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="1">
+        <v>161</v>
+      </c>
+      <c r="B33" t="s" s="1">
+        <v>162</v>
+      </c>
+      <c r="C33" t="s" s="1">
+        <v>163</v>
+      </c>
+      <c r="D33" t="s" s="1">
+        <v>94</v>
+      </c>
+      <c r="E33" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I33" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="1">
+        <v>164</v>
+      </c>
+      <c r="B34" t="s" s="1">
+        <v>165</v>
+      </c>
+      <c r="C34" t="s" s="1">
+        <v>166</v>
+      </c>
+      <c r="D34" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="E34" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I34" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="1">
+        <v>169</v>
+      </c>
+      <c r="B35" t="s" s="1">
+        <v>170</v>
+      </c>
+      <c r="C35" t="s" s="1">
+        <v>171</v>
+      </c>
+      <c r="D35" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="E35" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I35" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="1">
+        <v>172</v>
+      </c>
+      <c r="B36" t="s" s="1">
+        <v>173</v>
+      </c>
+      <c r="C36" t="s" s="1">
+        <v>174</v>
+      </c>
+      <c r="D36" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="E36" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I36" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="1">
+        <v>175</v>
+      </c>
+      <c r="B37" t="s" s="1">
+        <v>176</v>
+      </c>
+      <c r="C37" t="s" s="1">
+        <v>177</v>
+      </c>
+      <c r="D37" t="s" s="1">
+        <v>178</v>
+      </c>
+      <c r="E37" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I37" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="1">
+        <v>181</v>
+      </c>
+      <c r="B38" t="s" s="1">
+        <v>182</v>
+      </c>
+      <c r="C38" t="s" s="1">
+        <v>183</v>
+      </c>
+      <c r="D38" t="s" s="1">
+        <v>178</v>
+      </c>
+      <c r="E38" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I38" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="1">
+        <v>185</v>
+      </c>
+      <c r="B39" t="s" s="1">
+        <v>186</v>
+      </c>
+      <c r="C39" t="s" s="1">
+        <v>187</v>
+      </c>
+      <c r="D39" t="s" s="1">
+        <v>178</v>
+      </c>
+      <c r="E39" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I39" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="1">
+        <v>189</v>
+      </c>
+      <c r="B40" t="s" s="1">
+        <v>190</v>
+      </c>
+      <c r="C40" t="s" s="1">
+        <v>191</v>
+      </c>
+      <c r="D40" t="s" s="1">
+        <v>94</v>
+      </c>
+      <c r="E40" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I40" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="1">
+        <v>194</v>
+      </c>
+      <c r="B41" t="s" s="1">
+        <v>195</v>
+      </c>
+      <c r="C41" t="s" s="1">
+        <v>196</v>
+      </c>
+      <c r="D41" t="s" s="1">
+        <v>140</v>
+      </c>
+      <c r="E41" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I41" t="s" s="3">
+        <v>52</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="1">
+        <v>198</v>
+      </c>
+      <c r="B42" t="s" s="1">
+        <v>199</v>
+      </c>
+      <c r="C42" t="s" s="1">
+        <v>200</v>
+      </c>
+      <c r="D42" t="s" s="1">
+        <v>201</v>
+      </c>
+      <c r="E42" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I42" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="1">
+        <v>204</v>
+      </c>
+      <c r="B43" t="s" s="1">
+        <v>205</v>
+      </c>
+      <c r="C43" t="s" s="1">
+        <v>200</v>
+      </c>
+      <c r="D43" t="s" s="1">
+        <v>201</v>
+      </c>
+      <c r="E43" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I43" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="1">
+        <v>207</v>
+      </c>
+      <c r="B44" t="s" s="1">
+        <v>208</v>
+      </c>
+      <c r="C44" t="s" s="1">
+        <v>200</v>
+      </c>
+      <c r="D44" t="s" s="1">
+        <v>201</v>
+      </c>
+      <c r="E44" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I44" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="1">
+        <v>209</v>
+      </c>
+      <c r="B45" t="s" s="1">
+        <v>210</v>
+      </c>
+      <c r="C45" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="D45" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="E45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I45" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="1">
+        <v>212</v>
+      </c>
+      <c r="B46" t="s" s="1">
+        <v>213</v>
+      </c>
+      <c r="C46" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="D46" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="E46" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I46" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="1">
+        <v>215</v>
+      </c>
+      <c r="B47" t="s" s="1">
+        <v>216</v>
+      </c>
+      <c r="C47" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="D47" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="E47" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I47" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="1">
+        <v>218</v>
+      </c>
+      <c r="B48" t="s" s="1">
+        <v>219</v>
+      </c>
+      <c r="C48" t="s" s="1">
+        <v>220</v>
+      </c>
+      <c r="D48" t="s" s="1">
+        <v>221</v>
+      </c>
+      <c r="E48" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I48" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="1">
+        <v>224</v>
+      </c>
+      <c r="B49" t="s" s="1">
+        <v>225</v>
+      </c>
+      <c r="C49" t="s" s="1">
+        <v>220</v>
+      </c>
+      <c r="D49" t="s" s="1">
+        <v>221</v>
+      </c>
+      <c r="E49" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I49" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="1">
+        <v>227</v>
+      </c>
+      <c r="B50" t="s" s="1">
+        <v>228</v>
+      </c>
+      <c r="C50" t="s" s="1">
+        <v>229</v>
+      </c>
+      <c r="D50" t="s" s="1">
+        <v>31</v>
+      </c>
+      <c r="E50" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I50" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="1">
+        <v>232</v>
+      </c>
+      <c r="B51" t="s" s="1">
+        <v>233</v>
+      </c>
+      <c r="C51" t="s" s="1">
+        <v>234</v>
+      </c>
+      <c r="D51" t="s" s="1">
+        <v>31</v>
+      </c>
+      <c r="E51" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I51" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="1">
+        <v>235</v>
+      </c>
+      <c r="B52" t="s" s="1">
+        <v>236</v>
+      </c>
+      <c r="C52" t="s" s="1">
+        <v>237</v>
+      </c>
+      <c r="D52" t="s" s="1">
+        <v>31</v>
+      </c>
+      <c r="E52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I52" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="1">
+        <v>238</v>
+      </c>
+      <c r="B53" t="s" s="1">
+        <v>239</v>
+      </c>
+      <c r="C53" t="s" s="1">
+        <v>240</v>
+      </c>
+      <c r="D53" t="s" s="1">
+        <v>140</v>
+      </c>
+      <c r="E53" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I53" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="1">
+        <v>243</v>
+      </c>
+      <c r="B54" t="s" s="1">
+        <v>244</v>
+      </c>
+      <c r="C54" t="s" s="1">
+        <v>245</v>
+      </c>
+      <c r="D54" t="s" s="1">
+        <v>140</v>
+      </c>
+      <c r="E54" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I54" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="1">
+        <v>246</v>
+      </c>
+      <c r="B55" t="s" s="1">
+        <v>247</v>
+      </c>
+      <c r="C55" t="s" s="1">
+        <v>240</v>
+      </c>
+      <c r="D55" t="s" s="1">
+        <v>140</v>
+      </c>
+      <c r="E55" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I55" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="1">
+        <v>248</v>
+      </c>
+      <c r="B56" t="s" s="1">
+        <v>249</v>
+      </c>
+      <c r="C56" t="s" s="1">
+        <v>250</v>
+      </c>
+      <c r="D56" t="s" s="1">
+        <v>251</v>
+      </c>
+      <c r="E56" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I56" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="1">
+        <v>253</v>
+      </c>
+      <c r="B57" t="s" s="1">
+        <v>254</v>
+      </c>
+      <c r="C57" t="s" s="1">
+        <v>255</v>
+      </c>
+      <c r="D57" t="s" s="1">
+        <v>116</v>
+      </c>
+      <c r="E57" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I57" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="1">
+        <v>259</v>
+      </c>
+      <c r="B58" t="s" s="1">
+        <v>260</v>
+      </c>
+      <c r="C58" t="s" s="1">
+        <v>255</v>
+      </c>
+      <c r="D58" t="s" s="1">
+        <v>116</v>
+      </c>
+      <c r="E58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I58" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="1">
+        <v>262</v>
+      </c>
+      <c r="B59" t="s" s="1">
+        <v>263</v>
+      </c>
+      <c r="C59" t="s" s="1">
+        <v>264</v>
+      </c>
+      <c r="D59" t="s" s="1">
+        <v>109</v>
+      </c>
+      <c r="E59" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I59" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="1">
+        <v>267</v>
+      </c>
+      <c r="B60" t="s" s="1">
+        <v>268</v>
+      </c>
+      <c r="C60" t="s" s="1">
+        <v>269</v>
+      </c>
+      <c r="D60" t="s" s="1">
+        <v>109</v>
+      </c>
+      <c r="E60" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I60" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="1">
+        <v>271</v>
+      </c>
+      <c r="B61" t="s" s="1">
+        <v>272</v>
+      </c>
+      <c r="C61" t="s" s="1">
+        <v>273</v>
+      </c>
+      <c r="D61" t="s" s="1">
+        <v>109</v>
+      </c>
+      <c r="E61" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I61" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="1">
+        <v>274</v>
+      </c>
+      <c r="B62" t="s" s="1">
+        <v>275</v>
+      </c>
+      <c r="C62" t="s" s="1">
+        <v>276</v>
+      </c>
+      <c r="D62" t="s" s="1">
+        <v>277</v>
+      </c>
+      <c r="E62" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I62" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="1">
+        <v>279</v>
+      </c>
+      <c r="B63" t="s" s="1">
+        <v>280</v>
+      </c>
+      <c r="C63" t="s" s="1">
+        <v>281</v>
+      </c>
+      <c r="D63" t="s" s="1">
+        <v>277</v>
+      </c>
+      <c r="E63" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I63" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="1">
+        <v>282</v>
+      </c>
+      <c r="B64" t="s" s="1">
+        <v>283</v>
+      </c>
+      <c r="C64" t="s" s="1">
+        <v>284</v>
+      </c>
+      <c r="D64" t="s" s="1">
+        <v>277</v>
+      </c>
+      <c r="E64" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I64" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="1">
+        <v>285</v>
+      </c>
+      <c r="B65" t="s" s="1">
+        <v>286</v>
+      </c>
+      <c r="C65" t="s" s="1">
+        <v>287</v>
+      </c>
+      <c r="D65" t="s" s="1">
+        <v>94</v>
+      </c>
+      <c r="E65" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I65" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="1">
+        <v>290</v>
+      </c>
+      <c r="B66" t="s" s="1">
+        <v>291</v>
+      </c>
+      <c r="C66" t="s" s="1">
+        <v>287</v>
+      </c>
+      <c r="D66" t="s" s="1">
+        <v>94</v>
+      </c>
+      <c r="E66" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I66" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="1">
+        <v>293</v>
+      </c>
+      <c r="B67" t="s" s="1">
+        <v>294</v>
+      </c>
+      <c r="C67" t="s" s="1">
+        <v>287</v>
+      </c>
+      <c r="D67" t="s" s="1">
+        <v>94</v>
+      </c>
+      <c r="E67" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I67" t="s" s="3">
+        <v>105</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="1">
+        <v>295</v>
+      </c>
+      <c r="B68" t="s" s="1">
+        <v>296</v>
+      </c>
+      <c r="C68" t="s" s="1">
+        <v>297</v>
+      </c>
+      <c r="D68" t="s" s="1">
+        <v>140</v>
+      </c>
+      <c r="E68" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I68" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="1">
+        <v>299</v>
+      </c>
+      <c r="B69" t="s" s="1">
+        <v>300</v>
+      </c>
+      <c r="C69" t="s" s="1">
+        <v>301</v>
+      </c>
+      <c r="D69" t="s" s="1">
+        <v>140</v>
+      </c>
+      <c r="E69" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I69" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="1">
+        <v>303</v>
+      </c>
+      <c r="B70" t="s" s="1">
+        <v>304</v>
+      </c>
+      <c r="C70" t="s" s="1">
+        <v>305</v>
+      </c>
+      <c r="D70" t="s" s="1">
+        <v>140</v>
+      </c>
+      <c r="E70" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I70" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="1">
+        <v>307</v>
+      </c>
+      <c r="B71" t="s" s="1">
+        <v>308</v>
+      </c>
+      <c r="C71" t="s" s="1">
+        <v>309</v>
+      </c>
+      <c r="D71" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="E71" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I71" t="s" s="3">
+        <v>34</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="1">
+        <v>312</v>
+      </c>
+      <c r="B72" t="s" s="1">
+        <v>313</v>
+      </c>
+      <c r="C72" t="s" s="1">
+        <v>309</v>
+      </c>
+      <c r="D72" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="E72" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I72" t="s" s="3">
+        <v>34</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="1">
+        <v>314</v>
+      </c>
+      <c r="B73" t="s" s="1">
+        <v>315</v>
+      </c>
+      <c r="C73" t="s" s="1">
+        <v>309</v>
+      </c>
+      <c r="D73" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="E73" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I73" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="1">
+        <v>317</v>
+      </c>
+      <c r="B74" t="s" s="1">
+        <v>318</v>
+      </c>
+      <c r="C74" t="s" s="1">
+        <v>319</v>
+      </c>
+      <c r="D74" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="E74" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I74" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="1">
+        <v>321</v>
+      </c>
+      <c r="B75" t="s" s="1">
+        <v>322</v>
+      </c>
+      <c r="C75" t="s" s="1">
+        <v>323</v>
+      </c>
+      <c r="D75" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="E75" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I75" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="1">
+        <v>324</v>
+      </c>
+      <c r="B76" t="s" s="1">
+        <v>325</v>
+      </c>
+      <c r="C76" t="s" s="1">
+        <v>326</v>
+      </c>
+      <c r="D76" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="E76" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I76" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="1">
+        <v>327</v>
+      </c>
+      <c r="B77" t="s" s="1">
+        <v>328</v>
+      </c>
+      <c r="C77" t="s" s="1">
+        <v>329</v>
+      </c>
+      <c r="D77" t="s" s="1">
+        <v>31</v>
+      </c>
+      <c r="E77" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I77" t="s" s="3">
+        <v>105</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="1">
+        <v>331</v>
+      </c>
+      <c r="B78" t="s" s="1">
+        <v>332</v>
+      </c>
+      <c r="C78" t="s" s="1">
+        <v>329</v>
+      </c>
+      <c r="D78" t="s" s="1">
+        <v>31</v>
+      </c>
+      <c r="E78" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I78" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="1">
+        <v>333</v>
+      </c>
+      <c r="B79" t="s" s="1">
+        <v>334</v>
+      </c>
+      <c r="C79" t="s" s="1">
+        <v>335</v>
+      </c>
+      <c r="D79" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="E79" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I79" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="1">
+        <v>337</v>
+      </c>
+      <c r="B80" t="s" s="1">
+        <v>338</v>
+      </c>
+      <c r="C80" t="s" s="1">
+        <v>339</v>
+      </c>
+      <c r="D80" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="E80" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I80" t="s" s="3">
+        <v>105</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="1">
+        <v>341</v>
+      </c>
+      <c r="B81" t="s" s="1">
+        <v>342</v>
+      </c>
+      <c r="C81" t="s" s="1">
+        <v>343</v>
+      </c>
+      <c r="D81" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="E81" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I81" t="s" s="3">
+        <v>105</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="1">
+        <v>344</v>
+      </c>
+      <c r="B82" t="s" s="1">
+        <v>345</v>
+      </c>
+      <c r="C82" t="s" s="1">
+        <v>346</v>
+      </c>
+      <c r="D82" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="E82" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I82" t="s" s="3">
+        <v>105</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="1">
+        <v>347</v>
+      </c>
+      <c r="B83" t="s" s="1">
+        <v>348</v>
+      </c>
+      <c r="C83" t="s" s="1">
+        <v>349</v>
+      </c>
+      <c r="D83" t="s" s="1">
+        <v>350</v>
+      </c>
+      <c r="E83" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I83" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="1">
+        <v>352</v>
+      </c>
+      <c r="B84" t="s" s="1">
+        <v>353</v>
+      </c>
+      <c r="C84" t="s" s="1">
+        <v>349</v>
+      </c>
+      <c r="D84" t="s" s="1">
+        <v>350</v>
+      </c>
+      <c r="E84" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I84" t="s" s="3">
+        <v>52</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="1">
+        <v>354</v>
+      </c>
+      <c r="B85" t="s" s="1">
+        <v>355</v>
+      </c>
+      <c r="C85" t="s" s="1">
+        <v>356</v>
+      </c>
+      <c r="D85" t="s" s="1">
+        <v>109</v>
+      </c>
+      <c r="E85" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I85" t="s" s="3">
+        <v>357</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="1">
+        <v>359</v>
+      </c>
+      <c r="B86" t="s" s="1">
+        <v>360</v>
+      </c>
+      <c r="C86" t="s" s="1">
+        <v>361</v>
+      </c>
+      <c r="D86" t="s" s="1">
+        <v>109</v>
+      </c>
+      <c r="E86" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I86" t="s" s="3">
+        <v>357</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="1">
+        <v>362</v>
+      </c>
+      <c r="B87" t="s" s="1">
+        <v>363</v>
+      </c>
+      <c r="C87" t="s" s="1">
+        <v>364</v>
+      </c>
+      <c r="D87" t="s" s="1">
+        <v>109</v>
+      </c>
+      <c r="E87" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I87" t="s" s="3">
+        <v>357</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="1">
+        <v>365</v>
+      </c>
+      <c r="B88" t="s" s="1">
+        <v>366</v>
+      </c>
+      <c r="C88" t="s" s="1">
+        <v>367</v>
+      </c>
+      <c r="D88" t="s" s="1">
+        <v>94</v>
+      </c>
+      <c r="E88" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I88" t="s" s="3">
+        <v>357</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="1">
+        <v>369</v>
+      </c>
+      <c r="B89" t="s" s="1">
+        <v>370</v>
+      </c>
+      <c r="C89" t="s" s="1">
+        <v>371</v>
+      </c>
+      <c r="D89" t="s" s="1">
+        <v>140</v>
+      </c>
+      <c r="E89" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I89" t="s" s="3">
+        <v>357</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="1">
+        <v>373</v>
+      </c>
+      <c r="B90" t="s" s="1">
+        <v>374</v>
+      </c>
+      <c r="C90" t="s" s="1">
+        <v>375</v>
+      </c>
+      <c r="D90" t="s" s="1">
+        <v>140</v>
+      </c>
+      <c r="E90" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I90" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="1">
+        <v>377</v>
+      </c>
+      <c r="B91" t="s" s="1">
+        <v>378</v>
+      </c>
+      <c r="C91" t="s" s="1">
+        <v>379</v>
+      </c>
+      <c r="D91" t="s" s="1">
+        <v>140</v>
+      </c>
+      <c r="E91" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I91" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="1">
+        <v>380</v>
+      </c>
+      <c r="B92" t="s" s="1">
+        <v>381</v>
+      </c>
+      <c r="C92" t="s" s="1">
+        <v>382</v>
+      </c>
+      <c r="D92" t="s" s="1">
+        <v>140</v>
+      </c>
+      <c r="E92" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I92" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="1">
+        <v>384</v>
+      </c>
+      <c r="B93" t="s" s="1">
+        <v>385</v>
+      </c>
+      <c r="C93" t="s" s="1">
+        <v>386</v>
+      </c>
+      <c r="D93" t="s" s="1">
+        <v>116</v>
+      </c>
+      <c r="E93" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I93" t="s" s="3">
+        <v>105</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="1">
+        <v>388</v>
+      </c>
+      <c r="B94" t="s" s="1">
+        <v>389</v>
+      </c>
+      <c r="C94" t="s" s="1">
+        <v>390</v>
+      </c>
+      <c r="D94" t="s" s="1">
+        <v>116</v>
+      </c>
+      <c r="E94" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I94" t="s" s="3">
+        <v>392</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="1">
+        <v>393</v>
+      </c>
+      <c r="B95" t="s" s="1">
+        <v>394</v>
+      </c>
+      <c r="C95" t="s" s="1">
+        <v>395</v>
+      </c>
+      <c r="D95" t="s" s="1">
+        <v>116</v>
+      </c>
+      <c r="E95" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F95" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I95" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="1">
+        <v>396</v>
+      </c>
+      <c r="B96" t="s" s="1">
+        <v>397</v>
+      </c>
+      <c r="C96" t="s" s="1">
+        <v>398</v>
+      </c>
+      <c r="D96" t="s" s="1">
+        <v>277</v>
+      </c>
+      <c r="E96" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="F96" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I96" t="s" s="3">
+        <v>105</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="1">
+        <v>400</v>
+      </c>
+      <c r="B97" t="s" s="1">
+        <v>401</v>
+      </c>
+      <c r="C97" t="s" s="1">
+        <v>402</v>
+      </c>
+      <c r="D97" t="s" s="1">
+        <v>277</v>
+      </c>
+      <c r="E97" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="F97" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I97" t="s" s="3">
+        <v>105</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="1">
+        <v>403</v>
+      </c>
+      <c r="B98" t="s" s="1">
+        <v>404</v>
+      </c>
+      <c r="C98" t="s" s="1">
+        <v>405</v>
+      </c>
+      <c r="D98" t="s" s="1">
+        <v>277</v>
+      </c>
+      <c r="E98" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="F98" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I98" t="s" s="3">
+        <v>52</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="1">
+        <v>407</v>
+      </c>
+      <c r="B99" t="s" s="1">
+        <v>408</v>
+      </c>
+      <c r="C99" t="s" s="1">
+        <v>409</v>
+      </c>
+      <c r="D99" t="s" s="1">
+        <v>94</v>
+      </c>
+      <c r="E99" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="F99" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I99" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="1">
+        <v>411</v>
+      </c>
+      <c r="B100" t="s" s="1">
+        <v>412</v>
+      </c>
+      <c r="C100" t="s" s="1">
+        <v>413</v>
+      </c>
+      <c r="D100" t="s" s="1">
+        <v>94</v>
+      </c>
+      <c r="E100" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="F100" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I100" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="1">
+        <v>415</v>
+      </c>
+      <c r="B101" t="s" s="1">
+        <v>416</v>
+      </c>
+      <c r="C101" t="s" s="1">
+        <v>417</v>
+      </c>
+      <c r="D101" t="s" s="1">
+        <v>94</v>
+      </c>
+      <c r="E101" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="F101" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I101" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="1">
+        <v>418</v>
+      </c>
+      <c r="B102" t="s" s="1">
+        <v>419</v>
+      </c>
+      <c r="C102" t="s" s="1">
+        <v>420</v>
+      </c>
+      <c r="D102" t="s" s="1">
+        <v>151</v>
+      </c>
+      <c r="E102" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F102" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I102" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="1">
+        <v>422</v>
+      </c>
+      <c r="B103" t="s" s="1">
+        <v>423</v>
+      </c>
+      <c r="C103" t="s" s="1">
+        <v>420</v>
+      </c>
+      <c r="D103" t="s" s="1">
+        <v>151</v>
+      </c>
+      <c r="E103" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="F103" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I103" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="1">
+        <v>425</v>
+      </c>
+      <c r="B104" t="s" s="1">
+        <v>426</v>
+      </c>
+      <c r="C104" t="s" s="1">
+        <v>427</v>
+      </c>
+      <c r="D104" t="s" s="1">
+        <v>151</v>
+      </c>
+      <c r="E104" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F104" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I104" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="1">
+        <v>428</v>
+      </c>
+      <c r="B105" t="s" s="1">
+        <v>429</v>
+      </c>
+      <c r="C105" t="s" s="1">
+        <v>430</v>
+      </c>
+      <c r="D105" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="E105" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="F105" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I105" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="1">
+        <v>433</v>
+      </c>
+      <c r="B106" t="s" s="1">
+        <v>434</v>
+      </c>
+      <c r="C106" t="s" s="1">
+        <v>435</v>
+      </c>
+      <c r="D106" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="E106" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="F106" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I106" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="1">
+        <v>436</v>
+      </c>
+      <c r="B107" t="s" s="1">
+        <v>437</v>
+      </c>
+      <c r="C107" t="s" s="1">
+        <v>438</v>
+      </c>
+      <c r="D107" t="s" s="1">
+        <v>94</v>
+      </c>
+      <c r="E107" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="F107" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I107" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="1">
+        <v>440</v>
+      </c>
+      <c r="B108" t="s" s="1">
+        <v>441</v>
+      </c>
+      <c r="C108" t="s" s="1">
+        <v>442</v>
+      </c>
+      <c r="D108" t="s" s="1">
+        <v>178</v>
+      </c>
+      <c r="E108" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="F108" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I108" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="1">
+        <v>445</v>
+      </c>
+      <c r="B109" t="s" s="1">
+        <v>446</v>
+      </c>
+      <c r="C109" t="s" s="1">
+        <v>442</v>
+      </c>
+      <c r="D109" t="s" s="1">
+        <v>178</v>
+      </c>
+      <c r="E109" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="F109" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I109" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="1">
+        <v>448</v>
+      </c>
+      <c r="B110" t="s" s="1">
+        <v>449</v>
+      </c>
+      <c r="C110" t="s" s="1">
+        <v>450</v>
+      </c>
+      <c r="D110" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="E110" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="F110" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G110" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I110" t="s" s="3">
+        <v>52</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="1">
+        <v>452</v>
+      </c>
+      <c r="B111" t="s" s="1">
+        <v>453</v>
+      </c>
+      <c r="C111" t="s" s="1">
+        <v>454</v>
+      </c>
+      <c r="D111" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="E111" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="F111" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G111" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I111" t="s" s="3">
+        <v>105</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="1">
+        <v>456</v>
+      </c>
+      <c r="B112" t="s" s="1">
+        <v>457</v>
+      </c>
+      <c r="C112" t="s" s="1">
+        <v>458</v>
+      </c>
+      <c r="D112" t="s" s="1">
+        <v>251</v>
+      </c>
+      <c r="E112" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="F112" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G112" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I112" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J112" t="s" s="2">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="1">
+        <v>460</v>
+      </c>
+      <c r="B113" t="s" s="1">
+        <v>461</v>
+      </c>
+      <c r="C113" t="s" s="1">
+        <v>458</v>
+      </c>
+      <c r="D113" t="s" s="1">
+        <v>251</v>
+      </c>
+      <c r="E113" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="F113" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G113" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H113" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I113" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J113" t="s" s="2">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="1">
+        <v>462</v>
+      </c>
+      <c r="B114" t="s" s="1">
+        <v>463</v>
+      </c>
+      <c r="C114" t="s" s="1">
+        <v>458</v>
+      </c>
+      <c r="D114" t="s" s="1">
+        <v>251</v>
+      </c>
+      <c r="E114" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="F114" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G114" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H114" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I114" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J114" t="s" s="2">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="1">
+        <v>465</v>
+      </c>
+      <c r="B115" t="s" s="1">
+        <v>466</v>
+      </c>
+      <c r="C115" t="s" s="1">
+        <v>458</v>
+      </c>
+      <c r="D115" t="s" s="1">
+        <v>251</v>
+      </c>
+      <c r="E115" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="F115" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G115" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H115" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I115" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J115" t="s" s="2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="1">
+        <v>469</v>
+      </c>
+      <c r="B116" t="s" s="1">
+        <v>470</v>
+      </c>
+      <c r="C116" t="s" s="1">
+        <v>471</v>
+      </c>
+      <c r="D116" t="s" s="1">
+        <v>472</v>
+      </c>
+      <c r="E116" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="F116" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G116" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H116" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I116" t="s" s="3">
+        <v>473</v>
+      </c>
+      <c r="J116" t="s" s="2">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="1">
+        <v>475</v>
+      </c>
+      <c r="B117" t="s" s="1">
+        <v>476</v>
+      </c>
+      <c r="C117" t="s" s="1">
+        <v>477</v>
+      </c>
+      <c r="D117" t="s" s="1">
+        <v>94</v>
+      </c>
+      <c r="E117" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" ht="30" spans="1:10">
-      <c r="A3" s="8"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="14"/>
+      <c r="F117" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G117" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H117" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I117" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J117" t="s" s="2">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="1">
+        <v>479</v>
+      </c>
+      <c r="B118" t="s" s="1">
+        <v>480</v>
+      </c>
+      <c r="C118" t="s" s="1">
+        <v>481</v>
+      </c>
+      <c r="D118" t="s" s="1">
+        <v>94</v>
+      </c>
+      <c r="E118" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="F118" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G118" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H118" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I118" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J118" t="s" s="2">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="1">
+        <v>482</v>
+      </c>
+      <c r="B119" t="s" s="1">
+        <v>483</v>
+      </c>
+      <c r="C119" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="D119" t="s" s="1">
+        <v>109</v>
+      </c>
+      <c r="E119" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="F119" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G119" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H119" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I119" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J119" t="s" s="2">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="1">
+        <v>486</v>
+      </c>
+      <c r="B120" t="s" s="1">
+        <v>487</v>
+      </c>
+      <c r="C120" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="D120" t="s" s="1">
+        <v>109</v>
+      </c>
+      <c r="E120" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="F120" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G120" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H120" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I120" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J120" t="s" s="2">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="1">
+        <v>488</v>
+      </c>
+      <c r="B121" t="s" s="1">
+        <v>489</v>
+      </c>
+      <c r="C121" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="D121" t="s" s="1">
+        <v>109</v>
+      </c>
+      <c r="E121" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="F121" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G121" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H121" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I121" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J121" t="s" s="2">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="1">
+        <v>491</v>
+      </c>
+      <c r="B122" t="s" s="1">
+        <v>492</v>
+      </c>
+      <c r="C122" t="s" s="1">
+        <v>493</v>
+      </c>
+      <c r="D122" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="E122" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="F122" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G122" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H122" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I122" t="s" s="3">
+        <v>52</v>
+      </c>
+      <c r="J122" t="s" s="2">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="1">
+        <v>496</v>
+      </c>
+      <c r="B123" t="s" s="1">
+        <v>497</v>
+      </c>
+      <c r="C123" t="s" s="1">
+        <v>498</v>
+      </c>
+      <c r="D123" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="E123" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="F123" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G123" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H123" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I123" t="s" s="3">
+        <v>52</v>
+      </c>
+      <c r="J123" t="s" s="2">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="1">
+        <v>499</v>
+      </c>
+      <c r="B124" t="s" s="1">
+        <v>500</v>
+      </c>
+      <c r="C124" t="s" s="1">
+        <v>501</v>
+      </c>
+      <c r="D124" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="E124" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="F124" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G124" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H124" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I124" t="s" s="3">
+        <v>52</v>
+      </c>
+      <c r="J124" t="s" s="2">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="1">
+        <v>502</v>
+      </c>
+      <c r="B125" t="s" s="1">
+        <v>503</v>
+      </c>
+      <c r="C125" t="s" s="1">
+        <v>504</v>
+      </c>
+      <c r="D125" t="s" s="1">
+        <v>505</v>
+      </c>
+      <c r="E125" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="F125" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G125" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H125" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I125" t="s" s="3">
+        <v>52</v>
+      </c>
+      <c r="J125" t="s" s="2">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="1">
+        <v>507</v>
+      </c>
+      <c r="B126" t="s" s="1">
+        <v>508</v>
+      </c>
+      <c r="C126" t="s" s="1">
+        <v>509</v>
+      </c>
+      <c r="D126" t="s" s="1">
+        <v>94</v>
+      </c>
+      <c r="E126" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="F126" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="G126" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H126" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I126" t="s" s="3">
+        <v>512</v>
+      </c>
+      <c r="J126" t="s" s="2">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="1">
+        <v>514</v>
+      </c>
+      <c r="B127" t="s" s="1">
+        <v>515</v>
+      </c>
+      <c r="C127" t="s" s="1">
+        <v>516</v>
+      </c>
+      <c r="D127" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="E127" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="F127" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="G127" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H127" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I127" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J127" t="s" s="2">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="1">
+        <v>519</v>
+      </c>
+      <c r="B128" t="s" s="1">
+        <v>520</v>
+      </c>
+      <c r="C128" t="s" s="1">
+        <v>521</v>
+      </c>
+      <c r="D128" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="E128" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="F128" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="G128" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H128" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I128" t="s" s="3">
+        <v>523</v>
+      </c>
+      <c r="J128" t="s" s="2">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s" s="1">
+        <v>525</v>
+      </c>
+      <c r="B129" t="s" s="1">
+        <v>526</v>
+      </c>
+      <c r="C129" t="s" s="1">
+        <v>527</v>
+      </c>
+      <c r="D129" t="s" s="1">
+        <v>116</v>
+      </c>
+      <c r="E129" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="F129" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="G129" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H129" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I129" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J129" t="s" s="2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s" s="1">
+        <v>530</v>
+      </c>
+      <c r="B130" t="s" s="1">
+        <v>531</v>
+      </c>
+      <c r="C130" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="D130" t="s" s="1">
+        <v>178</v>
+      </c>
+      <c r="E130" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="F130" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="G130" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H130" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I130" t="s" s="3">
+        <v>101</v>
+      </c>
+      <c r="J130" t="s" s="2">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s" s="1">
+        <v>534</v>
+      </c>
+      <c r="B131" t="s" s="1">
+        <v>535</v>
+      </c>
+      <c r="C131" t="s" s="1">
+        <v>536</v>
+      </c>
+      <c r="D131" t="s" s="1">
+        <v>537</v>
+      </c>
+      <c r="E131" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="F131" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="G131" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H131" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I131" t="s" s="3">
+        <v>540</v>
+      </c>
+      <c r="J131" t="s" s="2">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s" s="1">
+        <v>542</v>
+      </c>
+      <c r="B132" t="s" s="1">
+        <v>543</v>
+      </c>
+      <c r="C132" t="s" s="1">
+        <v>544</v>
+      </c>
+      <c r="D132" t="s" s="1">
+        <v>545</v>
+      </c>
+      <c r="E132" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="F132" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="G132" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H132" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I132" t="s" s="3">
+        <v>540</v>
+      </c>
+      <c r="J132" t="s" s="2">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s" s="1">
+        <v>548</v>
+      </c>
+      <c r="B133" t="s" s="1">
+        <v>549</v>
+      </c>
+      <c r="C133" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="D133" t="s" s="1">
+        <v>31</v>
+      </c>
+      <c r="E133" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="F133" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="G133" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H133" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I133" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J133" t="s" s="2">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s" s="1">
+        <v>552</v>
+      </c>
+      <c r="B134" t="s" s="1">
+        <v>553</v>
+      </c>
+      <c r="C134" t="s" s="1">
+        <v>554</v>
+      </c>
+      <c r="D134" t="s" s="1">
+        <v>555</v>
+      </c>
+      <c r="E134" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="F134" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="G134" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H134" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I134" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J134" t="s" s="2">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s" s="1">
+        <v>558</v>
+      </c>
+      <c r="B135" t="s" s="1">
+        <v>559</v>
+      </c>
+      <c r="C135" t="s" s="1">
+        <v>560</v>
+      </c>
+      <c r="D135" t="s" s="1">
+        <v>561</v>
+      </c>
+      <c r="E135" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="F135" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="G135" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H135" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I135" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J135" t="s" s="2">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s" s="1">
+        <v>564</v>
+      </c>
+      <c r="B136" t="s" s="1">
+        <v>565</v>
+      </c>
+      <c r="C136" t="s" s="1">
+        <v>566</v>
+      </c>
+      <c r="D136" t="s" s="1">
+        <v>140</v>
+      </c>
+      <c r="E136" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="F136" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="G136" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H136" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I136" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J136" t="s" s="2">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s" s="1">
+        <v>569</v>
+      </c>
+      <c r="B137" t="s" s="1">
+        <v>570</v>
+      </c>
+      <c r="C137" t="s" s="1">
+        <v>571</v>
+      </c>
+      <c r="D137" t="s" s="1">
+        <v>572</v>
+      </c>
+      <c r="E137" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="F137" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="G137" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H137" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I137" t="s" s="3">
+        <v>105</v>
+      </c>
+      <c r="J137" t="s" s="2">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s" s="1">
+        <v>575</v>
+      </c>
+      <c r="B138" t="s" s="1">
+        <v>576</v>
+      </c>
+      <c r="C138" t="s" s="1">
+        <v>577</v>
+      </c>
+      <c r="D138" t="s" s="1">
+        <v>578</v>
+      </c>
+      <c r="E138" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="F138" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="G138" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H138" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I138" t="s" s="3">
+        <v>105</v>
+      </c>
+      <c r="J138" t="s" s="2">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s" s="1">
+        <v>580</v>
+      </c>
+      <c r="B139" t="s" s="1">
+        <v>581</v>
+      </c>
+      <c r="C139" t="s" s="1">
+        <v>582</v>
+      </c>
+      <c r="D139" t="s" s="1">
+        <v>94</v>
+      </c>
+      <c r="E139" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="F139" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="G139" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H139" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I139" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J139" t="s" s="2">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s" s="1">
+        <v>584</v>
+      </c>
+      <c r="B140" t="s" s="1">
+        <v>585</v>
+      </c>
+      <c r="C140" t="s" s="1">
+        <v>586</v>
+      </c>
+      <c r="D140" t="s" s="1">
+        <v>109</v>
+      </c>
+      <c r="E140" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="F140" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="G140" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H140" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I140" t="s" s="3">
+        <v>111</v>
+      </c>
+      <c r="J140" t="s" s="2">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s" s="1">
+        <v>589</v>
+      </c>
+      <c r="B141" t="s" s="1">
+        <v>590</v>
+      </c>
+      <c r="C141" t="s" s="1">
+        <v>591</v>
+      </c>
+      <c r="D141" t="s" s="1">
+        <v>116</v>
+      </c>
+      <c r="E141" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="F141" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="G141" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H141" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I141" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J141" t="s" s="2">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s" s="1">
+        <v>595</v>
+      </c>
+      <c r="B142" t="s" s="1">
+        <v>596</v>
+      </c>
+      <c r="C142" t="s" s="1">
+        <v>597</v>
+      </c>
+      <c r="D142" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="E142" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="F142" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="G142" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H142" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I142" t="s" s="3">
+        <v>52</v>
+      </c>
+      <c r="J142" t="s" s="2">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s" s="1">
+        <v>600</v>
+      </c>
+      <c r="B143" t="s" s="1">
+        <v>601</v>
+      </c>
+      <c r="C143" t="s" s="1">
+        <v>602</v>
+      </c>
+      <c r="D143" t="s" s="1">
+        <v>251</v>
+      </c>
+      <c r="E143" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="F143" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="G143" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H143" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I143" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J143" t="s" s="2">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s" s="1">
+        <v>605</v>
+      </c>
+      <c r="B144" t="s" s="1">
+        <v>606</v>
+      </c>
+      <c r="C144" t="s" s="1">
+        <v>607</v>
+      </c>
+      <c r="D144" t="s" s="1">
+        <v>140</v>
+      </c>
+      <c r="E144" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="F144" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="G144" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H144" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I144" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J144" t="s" s="2">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s" s="1">
+        <v>609</v>
+      </c>
+      <c r="B145" t="s" s="1">
+        <v>610</v>
+      </c>
+      <c r="C145" t="s" s="1">
+        <v>611</v>
+      </c>
+      <c r="D145" t="s" s="1">
+        <v>116</v>
+      </c>
+      <c r="E145" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="F145" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="G145" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H145" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I145" t="s" s="3">
+        <v>52</v>
+      </c>
+      <c r="J145" t="s" s="2">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s" s="1">
+        <v>614</v>
+      </c>
+      <c r="B146" t="s" s="1">
+        <v>615</v>
+      </c>
+      <c r="C146" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="D146" t="s" s="1">
+        <v>616</v>
+      </c>
+      <c r="E146" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="F146" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="G146" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H146" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I146" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J146" t="s" s="2">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s" s="1">
+        <v>619</v>
+      </c>
+      <c r="B147" t="s" s="1">
+        <v>620</v>
+      </c>
+      <c r="C147" t="s" s="1">
+        <v>621</v>
+      </c>
+      <c r="D147" t="s" s="1">
+        <v>622</v>
+      </c>
+      <c r="E147" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="F147" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="G147" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H147" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I147" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J147" t="s" s="2">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s" s="1">
+        <v>626</v>
+      </c>
+      <c r="B148" t="s" s="1">
+        <v>627</v>
+      </c>
+      <c r="C148" t="s" s="1">
+        <v>628</v>
+      </c>
+      <c r="D148" t="s" s="1">
+        <v>277</v>
+      </c>
+      <c r="E148" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="F148" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="G148" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H148" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I148" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J148" t="s" s="2">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s" s="1">
+        <v>631</v>
+      </c>
+      <c r="B149" t="s" s="1">
+        <v>632</v>
+      </c>
+      <c r="C149" t="s" s="1">
+        <v>633</v>
+      </c>
+      <c r="D149" t="s" s="1">
+        <v>31</v>
+      </c>
+      <c r="E149" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="F149" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="G149" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H149" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I149" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J149" t="s" s="2">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s" s="1">
+        <v>636</v>
+      </c>
+      <c r="B150" t="s" s="1">
+        <v>637</v>
+      </c>
+      <c r="C150" t="s" s="1">
+        <v>638</v>
+      </c>
+      <c r="D150" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="E150" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="F150" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="G150" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H150" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I150" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J150" t="s" s="2">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s" s="1">
+        <v>640</v>
+      </c>
+      <c r="B151" t="s" s="1">
+        <v>641</v>
+      </c>
+      <c r="C151" t="s" s="1">
+        <v>642</v>
+      </c>
+      <c r="D151" t="s" s="1">
+        <v>221</v>
+      </c>
+      <c r="E151" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="F151" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="G151" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H151" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I151" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J151" t="s" s="2">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s" s="1">
+        <v>645</v>
+      </c>
+      <c r="B152" t="s" s="1">
+        <v>646</v>
+      </c>
+      <c r="C152" t="s" s="1">
+        <v>647</v>
+      </c>
+      <c r="D152" t="s" s="1">
+        <v>31</v>
+      </c>
+      <c r="E152" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="F152" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="G152" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H152" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I152" t="s" s="3">
+        <v>650</v>
+      </c>
+      <c r="J152" t="s" s="2">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s" s="1">
+        <v>652</v>
+      </c>
+      <c r="B153" t="s" s="1">
+        <v>653</v>
+      </c>
+      <c r="C153" t="s" s="1">
+        <v>654</v>
+      </c>
+      <c r="D153" t="s" s="1">
+        <v>94</v>
+      </c>
+      <c r="E153" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="F153" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="G153" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H153" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I153" t="s" s="3">
+        <v>52</v>
+      </c>
+      <c r="J153" t="s" s="2">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s" s="1">
+        <v>657</v>
+      </c>
+      <c r="B154" t="s" s="1">
+        <v>658</v>
+      </c>
+      <c r="C154" t="s" s="1">
+        <v>659</v>
+      </c>
+      <c r="D154" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="E154" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="F154" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="G154" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H154" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I154" t="s" s="3">
+        <v>105</v>
+      </c>
+      <c r="J154" t="s" s="2">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s" s="1">
+        <v>661</v>
+      </c>
+      <c r="B155" t="s" s="1">
+        <v>662</v>
+      </c>
+      <c r="C155" t="s" s="1">
+        <v>663</v>
+      </c>
+      <c r="D155" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="E155" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="F155" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="G155" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H155" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I155" t="s" s="3">
+        <v>665</v>
+      </c>
+      <c r="J155" t="s" s="2">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s" s="1">
+        <v>667</v>
+      </c>
+      <c r="B156" t="s" s="1">
+        <v>668</v>
+      </c>
+      <c r="C156" t="s" s="1">
+        <v>669</v>
+      </c>
+      <c r="D156" t="s" s="1">
+        <v>670</v>
+      </c>
+      <c r="E156" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="F156" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="G156" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H156" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I156" t="s" s="3">
+        <v>672</v>
+      </c>
+      <c r="J156" t="s" s="2">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s" s="1">
+        <v>673</v>
+      </c>
+      <c r="B157" t="s" s="1">
+        <v>674</v>
+      </c>
+      <c r="C157" t="s" s="1">
+        <v>675</v>
+      </c>
+      <c r="D157" t="s" s="1">
+        <v>94</v>
+      </c>
+      <c r="E157" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="F157" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="G157" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H157" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I157" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="J157" t="s" s="2">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s" s="1">
+        <v>678</v>
+      </c>
+      <c r="B158" t="s" s="1">
+        <v>679</v>
+      </c>
+      <c r="C158" t="s" s="1">
+        <v>680</v>
+      </c>
+      <c r="D158" t="s" s="1">
+        <v>681</v>
+      </c>
+      <c r="E158" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="F158" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="G158" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H158" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I158" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J158" t="s" s="2">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s" s="1">
+        <v>684</v>
+      </c>
+      <c r="B159" t="s" s="1">
+        <v>685</v>
+      </c>
+      <c r="C159" t="s" s="1">
+        <v>686</v>
+      </c>
+      <c r="D159" t="s" s="1">
+        <v>31</v>
+      </c>
+      <c r="E159" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="F159" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="G159" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H159" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I159" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J159" t="s" s="2">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s" s="1">
+        <v>690</v>
+      </c>
+      <c r="B160" t="s" s="1">
+        <v>691</v>
+      </c>
+      <c r="C160" t="s" s="1">
+        <v>692</v>
+      </c>
+      <c r="D160" t="s" s="1">
+        <v>109</v>
+      </c>
+      <c r="E160" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="F160" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="G160" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H160" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I160" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J160" t="s" s="2">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s" s="1">
+        <v>695</v>
+      </c>
+      <c r="B161" t="s" s="1">
+        <v>696</v>
+      </c>
+      <c r="C161" t="s" s="1">
+        <v>697</v>
+      </c>
+      <c r="D161" t="s" s="1">
+        <v>698</v>
+      </c>
+      <c r="E161" t="s" s="2">
+        <v>699</v>
+      </c>
+      <c r="F161" t="s" s="2">
+        <v>700</v>
+      </c>
+      <c r="G161" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H161" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I161" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J161" t="s" s="2">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s" s="1">
+        <v>702</v>
+      </c>
+      <c r="B162" t="s" s="1">
+        <v>703</v>
+      </c>
+      <c r="C162" t="s" s="1">
+        <v>704</v>
+      </c>
+      <c r="D162" t="s" s="1">
+        <v>31</v>
+      </c>
+      <c r="E162" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="F162" t="s" s="2">
+        <v>705</v>
+      </c>
+      <c r="G162" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H162" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I162" t="s" s="3">
+        <v>52</v>
+      </c>
+      <c r="J162" t="s" s="2">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s" s="1">
+        <v>707</v>
+      </c>
+      <c r="B163" t="s" s="1">
+        <v>708</v>
+      </c>
+      <c r="C163" t="s" s="1">
+        <v>709</v>
+      </c>
+      <c r="D163" t="s" s="1">
+        <v>710</v>
+      </c>
+      <c r="E163" t="s" s="2">
+        <v>711</v>
+      </c>
+      <c r="F163" t="s" s="2">
+        <v>712</v>
+      </c>
+      <c r="G163" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H163" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I163" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J163" t="s" s="2">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s" s="1">
+        <v>714</v>
+      </c>
+      <c r="B164" t="s" s="1">
+        <v>715</v>
+      </c>
+      <c r="C164" t="s" s="1">
+        <v>716</v>
+      </c>
+      <c r="D164" t="s" s="1">
+        <v>670</v>
+      </c>
+      <c r="E164" t="s" s="2">
+        <v>711</v>
+      </c>
+      <c r="F164" t="s" s="2">
+        <v>717</v>
+      </c>
+      <c r="G164" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H164" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I164" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J164" t="s" s="2">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s" s="1">
+        <v>718</v>
+      </c>
+      <c r="B165" t="s" s="1">
+        <v>132</v>
+      </c>
+      <c r="C165" t="s" s="1">
+        <v>719</v>
+      </c>
+      <c r="D165" t="s" s="1">
+        <v>720</v>
+      </c>
+      <c r="E165" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="F165" t="s" s="2">
+        <v>721</v>
+      </c>
+      <c r="G165" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H165" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I165" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J165" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s" s="1">
+        <v>134</v>
+      </c>
+      <c r="B166" t="s" s="1">
+        <v>135</v>
+      </c>
+      <c r="C166" t="s" s="1">
+        <v>136</v>
+      </c>
+      <c r="D166" t="s" s="1">
+        <v>722</v>
+      </c>
+      <c r="E166" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="F166" t="s" s="2">
+        <v>723</v>
+      </c>
+      <c r="G166" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H166" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I166" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J166" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s" s="1">
+        <v>724</v>
+      </c>
+      <c r="B167" t="s" s="1">
+        <v>725</v>
+      </c>
+      <c r="C167" t="s" s="1">
+        <v>726</v>
+      </c>
+      <c r="D167" t="s" s="1">
+        <v>94</v>
+      </c>
+      <c r="E167" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="F167" t="s" s="2">
+        <v>727</v>
+      </c>
+      <c r="G167" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H167" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I167" t="s" s="3">
+        <v>728</v>
+      </c>
+      <c r="J167" t="s" s="2">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s" s="1">
+        <v>730</v>
+      </c>
+      <c r="B168" t="s" s="1">
+        <v>731</v>
+      </c>
+      <c r="C168" t="s" s="1">
+        <v>732</v>
+      </c>
+      <c r="D168" t="s" s="1">
+        <v>140</v>
+      </c>
+      <c r="E168" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="F168" t="s" s="2">
+        <v>733</v>
+      </c>
+      <c r="G168" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H168" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I168" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="J168" t="s" s="2">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s" s="1">
+        <v>734</v>
+      </c>
+      <c r="B169" t="s" s="1">
+        <v>735</v>
+      </c>
+      <c r="C169" t="s" s="1">
+        <v>736</v>
+      </c>
+      <c r="D169" t="s" s="1">
+        <v>737</v>
+      </c>
+      <c r="E169" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="F169" t="s" s="2">
+        <v>738</v>
+      </c>
+      <c r="G169" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H169" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I169" t="s" s="3">
+        <v>728</v>
+      </c>
+      <c r="J169" t="s" s="2">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s" s="1">
+        <v>740</v>
+      </c>
+      <c r="B170" t="s" s="1">
+        <v>741</v>
+      </c>
+      <c r="C170" t="s" s="1">
+        <v>742</v>
+      </c>
+      <c r="D170" t="s" s="1">
+        <v>109</v>
+      </c>
+      <c r="E170" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="F170" t="s" s="2">
+        <v>743</v>
+      </c>
+      <c r="G170" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H170" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I170" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J170" t="s" s="2">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s" s="1">
+        <v>745</v>
+      </c>
+      <c r="B171" t="s" s="1">
+        <v>746</v>
+      </c>
+      <c r="C171" t="s" s="1">
+        <v>747</v>
+      </c>
+      <c r="D171" t="s" s="1">
+        <v>555</v>
+      </c>
+      <c r="E171" t="s" s="2">
+        <v>748</v>
+      </c>
+      <c r="F171" t="s" s="2">
+        <v>749</v>
+      </c>
+      <c r="G171" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H171" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I171" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J171" t="s" s="2">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s" s="1">
+        <v>751</v>
+      </c>
+      <c r="B172" t="s" s="1">
+        <v>752</v>
+      </c>
+      <c r="C172" t="s" s="1">
+        <v>753</v>
+      </c>
+      <c r="D172" t="s" s="1">
+        <v>754</v>
+      </c>
+      <c r="E172" t="s" s="2">
+        <v>755</v>
+      </c>
+      <c r="F172" t="s" s="2">
+        <v>756</v>
+      </c>
+      <c r="G172" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H172" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I172" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J172" t="s" s="2">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s" s="1">
+        <v>758</v>
+      </c>
+      <c r="B173" t="s" s="1">
+        <v>759</v>
+      </c>
+      <c r="C173" t="s" s="1">
+        <v>760</v>
+      </c>
+      <c r="D173" t="s" s="1">
+        <v>761</v>
+      </c>
+      <c r="E173" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="F173" t="s" s="2">
+        <v>762</v>
+      </c>
+      <c r="G173" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H173" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I173" t="s" s="3">
+        <v>763</v>
+      </c>
+      <c r="J173" t="s" s="2">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s" s="1">
+        <v>765</v>
+      </c>
+      <c r="B174" t="s" s="1">
+        <v>766</v>
+      </c>
+      <c r="C174" t="s" s="1">
+        <v>767</v>
+      </c>
+      <c r="D174" t="s" s="1">
+        <v>555</v>
+      </c>
+      <c r="E174" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="F174" t="s" s="2">
+        <v>768</v>
+      </c>
+      <c r="G174" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H174" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I174" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J174" t="s" s="2">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s" s="1">
+        <v>770</v>
+      </c>
+      <c r="B175" t="s" s="1">
+        <v>771</v>
+      </c>
+      <c r="C175" t="s" s="1">
+        <v>772</v>
+      </c>
+      <c r="D175" t="s" s="1">
+        <v>698</v>
+      </c>
+      <c r="E175" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="F175" t="s" s="2">
+        <v>773</v>
+      </c>
+      <c r="G175" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H175" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I175" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J175" t="s" s="2">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s" s="1">
+        <v>775</v>
+      </c>
+      <c r="B176" t="s" s="1">
+        <v>776</v>
+      </c>
+      <c r="C176" t="s" s="1">
+        <v>777</v>
+      </c>
+      <c r="D176" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="E176" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="F176" t="s" s="2">
+        <v>778</v>
+      </c>
+      <c r="G176" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H176" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I176" t="s" s="3">
+        <v>779</v>
+      </c>
+      <c r="J176" t="s" s="2">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s" s="1">
+        <v>781</v>
+      </c>
+      <c r="B177" t="s" s="1">
+        <v>782</v>
+      </c>
+      <c r="C177" t="s" s="1">
+        <v>783</v>
+      </c>
+      <c r="D177" t="s" s="1">
+        <v>94</v>
+      </c>
+      <c r="E177" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="F177" t="s" s="2">
+        <v>784</v>
+      </c>
+      <c r="G177" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H177" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I177" t="s" s="3">
+        <v>728</v>
+      </c>
+      <c r="J177" t="s" s="2">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s" s="1">
+        <v>786</v>
+      </c>
+      <c r="B178" t="s" s="1">
+        <v>787</v>
+      </c>
+      <c r="C178" t="s" s="1">
+        <v>788</v>
+      </c>
+      <c r="D178" t="s" s="1">
+        <v>537</v>
+      </c>
+      <c r="E178" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="F178" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="G178" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H178" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I178" t="s" s="3">
+        <v>728</v>
+      </c>
+      <c r="J178" t="s" s="2">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s" s="1">
+        <v>790</v>
+      </c>
+      <c r="B179" t="s" s="1">
+        <v>791</v>
+      </c>
+      <c r="C179" t="s" s="1">
+        <v>792</v>
+      </c>
+      <c r="D179" t="s" s="1">
+        <v>140</v>
+      </c>
+      <c r="E179" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="F179" t="s" s="2">
+        <v>793</v>
+      </c>
+      <c r="G179" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H179" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I179" t="s" s="3">
+        <v>728</v>
+      </c>
+      <c r="J179" t="s" s="2">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s" s="1">
+        <v>794</v>
+      </c>
+      <c r="B180" t="s" s="1">
+        <v>795</v>
+      </c>
+      <c r="C180" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="D180" t="s" s="1">
+        <v>251</v>
+      </c>
+      <c r="E180" t="s" s="2">
+        <v>796</v>
+      </c>
+      <c r="F180" t="s" s="2">
+        <v>797</v>
+      </c>
+      <c r="G180" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H180" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I180" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J180" t="s" s="2">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s" s="1">
+        <v>799</v>
+      </c>
+      <c r="B181" t="s" s="1">
+        <v>800</v>
+      </c>
+      <c r="C181" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="D181" t="s" s="1">
+        <v>801</v>
+      </c>
+      <c r="E181" t="s" s="2">
+        <v>802</v>
+      </c>
+      <c r="F181" t="s" s="2">
+        <v>803</v>
+      </c>
+      <c r="G181" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H181" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I181" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J181" t="s" s="2">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s" s="1">
+        <v>804</v>
+      </c>
+      <c r="B182" t="s" s="1">
+        <v>805</v>
+      </c>
+      <c r="C182" t="s" s="1">
+        <v>806</v>
+      </c>
+      <c r="D182" t="s" s="1">
+        <v>140</v>
+      </c>
+      <c r="E182" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="F182" t="s" s="2">
+        <v>807</v>
+      </c>
+      <c r="G182" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H182" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I182" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J182" t="s" s="2">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s" s="1">
+        <v>809</v>
+      </c>
+      <c r="B183" t="s" s="1">
+        <v>810</v>
+      </c>
+      <c r="C183" t="s" s="1">
+        <v>811</v>
+      </c>
+      <c r="D183" t="s" s="1">
+        <v>251</v>
+      </c>
+      <c r="E183" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="F183" t="s" s="2">
+        <v>812</v>
+      </c>
+      <c r="G183" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H183" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I183" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J183" t="s" s="2">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s" s="1">
+        <v>813</v>
+      </c>
+      <c r="B184" t="s" s="1">
+        <v>814</v>
+      </c>
+      <c r="C184" t="s" s="1">
+        <v>815</v>
+      </c>
+      <c r="D184" t="s" s="1">
+        <v>277</v>
+      </c>
+      <c r="E184" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="F184" t="s" s="2">
+        <v>816</v>
+      </c>
+      <c r="G184" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H184" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I184" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J184" t="s" s="2">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s" s="1">
+        <v>818</v>
+      </c>
+      <c r="B185" t="s" s="1">
+        <v>819</v>
+      </c>
+      <c r="C185" t="s" s="1">
+        <v>820</v>
+      </c>
+      <c r="D185" t="s" s="1">
+        <v>116</v>
+      </c>
+      <c r="E185" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="F185" t="s" s="2">
+        <v>821</v>
+      </c>
+      <c r="G185" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H185" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I185" t="s" s="3">
+        <v>52</v>
+      </c>
+      <c r="J185" t="s" s="2">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s" s="1">
+        <v>822</v>
+      </c>
+      <c r="B186" t="s" s="1">
+        <v>823</v>
+      </c>
+      <c r="C186" t="s" s="1">
+        <v>824</v>
+      </c>
+      <c r="D186" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="E186" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="F186" t="s" s="2">
+        <v>825</v>
+      </c>
+      <c r="G186" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H186" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I186" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J186" t="s" s="2">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s" s="1">
+        <v>826</v>
+      </c>
+      <c r="B187" t="s" s="1">
+        <v>827</v>
+      </c>
+      <c r="C187" t="s" s="1">
+        <v>828</v>
+      </c>
+      <c r="D187" t="s" s="1">
+        <v>140</v>
+      </c>
+      <c r="E187" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="F187" t="s" s="2">
+        <v>829</v>
+      </c>
+      <c r="G187" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H187" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I187" t="s" s="3">
+        <v>830</v>
+      </c>
+      <c r="J187" t="s" s="2">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s" s="1">
+        <v>832</v>
+      </c>
+      <c r="B188" t="s" s="1">
+        <v>833</v>
+      </c>
+      <c r="C188" t="s" s="1">
+        <v>834</v>
+      </c>
+      <c r="D188" t="s" s="1">
+        <v>109</v>
+      </c>
+      <c r="E188" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="F188" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="G188" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H188" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I188" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J188" t="s" s="2">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s" s="1">
+        <v>837</v>
+      </c>
+      <c r="B189" t="s" s="1">
+        <v>838</v>
+      </c>
+      <c r="C189" t="s" s="1">
+        <v>839</v>
+      </c>
+      <c r="D189" t="s" s="1">
+        <v>94</v>
+      </c>
+      <c r="E189" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="F189" t="s" s="2">
+        <v>840</v>
+      </c>
+      <c r="G189" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H189" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I189" t="s" s="3">
+        <v>101</v>
+      </c>
+      <c r="J189" t="s" s="2">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s" s="1">
+        <v>842</v>
+      </c>
+      <c r="B190" t="s" s="1">
+        <v>843</v>
+      </c>
+      <c r="C190" t="s" s="1">
+        <v>844</v>
+      </c>
+      <c r="D190" t="s" s="1">
+        <v>221</v>
+      </c>
+      <c r="E190" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="F190" t="s" s="2">
+        <v>845</v>
+      </c>
+      <c r="G190" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H190" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I190" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J190" t="s" s="2">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s" s="1">
+        <v>847</v>
+      </c>
+      <c r="B191" t="s" s="1">
+        <v>848</v>
+      </c>
+      <c r="C191" t="s" s="1">
+        <v>849</v>
+      </c>
+      <c r="D191" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="E191" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="F191" t="s" s="2">
+        <v>850</v>
+      </c>
+      <c r="G191" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H191" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I191" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J191" t="s" s="2">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s" s="1">
+        <v>852</v>
+      </c>
+      <c r="B192" t="s" s="1">
+        <v>853</v>
+      </c>
+      <c r="C192" t="s" s="1">
+        <v>854</v>
+      </c>
+      <c r="D192" t="s" s="1">
+        <v>855</v>
+      </c>
+      <c r="E192" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="F192" t="s" s="2">
+        <v>856</v>
+      </c>
+      <c r="G192" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H192" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I192" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J192" t="s" s="2">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s" s="1">
+        <v>858</v>
+      </c>
+      <c r="B193" t="s" s="1">
+        <v>859</v>
+      </c>
+      <c r="C193" t="s" s="1">
+        <v>860</v>
+      </c>
+      <c r="D193" t="s" s="1">
+        <v>505</v>
+      </c>
+      <c r="E193" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="F193" t="s" s="2">
+        <v>861</v>
+      </c>
+      <c r="G193" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H193" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I193" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J193" t="s" s="2">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s" s="1">
+        <v>862</v>
+      </c>
+      <c r="B194" t="s" s="1">
+        <v>863</v>
+      </c>
+      <c r="C194" t="s" s="1">
+        <v>864</v>
+      </c>
+      <c r="D194" t="s" s="1">
+        <v>555</v>
+      </c>
+      <c r="E194" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="F194" t="s" s="2">
+        <v>865</v>
+      </c>
+      <c r="G194" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H194" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I194" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J194" t="s" s="2">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s" s="1">
+        <v>867</v>
+      </c>
+      <c r="B195" t="s" s="1">
+        <v>868</v>
+      </c>
+      <c r="C195" t="s" s="1">
+        <v>869</v>
+      </c>
+      <c r="D195" t="s" s="1">
+        <v>870</v>
+      </c>
+      <c r="E195" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="F195" t="s" s="2">
+        <v>871</v>
+      </c>
+      <c r="G195" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H195" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I195" t="s" s="3">
+        <v>52</v>
+      </c>
+      <c r="J195" t="s" s="2">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s" s="1">
+        <v>873</v>
+      </c>
+      <c r="B196" t="s" s="1">
+        <v>874</v>
+      </c>
+      <c r="C196" t="s" s="1">
+        <v>875</v>
+      </c>
+      <c r="D196" t="s" s="1">
+        <v>221</v>
+      </c>
+      <c r="E196" t="s" s="2">
+        <v>876</v>
+      </c>
+      <c r="F196" t="s" s="2">
+        <v>877</v>
+      </c>
+      <c r="G196" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H196" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I196" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J196" t="s" s="2">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s" s="1">
+        <v>879</v>
+      </c>
+      <c r="B197" t="s" s="1">
+        <v>880</v>
+      </c>
+      <c r="C197" t="s" s="1">
+        <v>881</v>
+      </c>
+      <c r="D197" t="s" s="1">
+        <v>537</v>
+      </c>
+      <c r="E197" t="s" s="2">
+        <v>882</v>
+      </c>
+      <c r="F197" t="s" s="2">
+        <v>883</v>
+      </c>
+      <c r="G197" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H197" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I197" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J197" t="s" s="2">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s" s="1">
+        <v>884</v>
+      </c>
+      <c r="B198" t="s" s="1">
+        <v>885</v>
+      </c>
+      <c r="C198" t="s" s="1">
+        <v>886</v>
+      </c>
+      <c r="D198" t="s" s="1">
+        <v>681</v>
+      </c>
+      <c r="E198" t="s" s="2">
+        <v>887</v>
+      </c>
+      <c r="F198" t="s" s="2">
+        <v>888</v>
+      </c>
+      <c r="G198" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H198" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I198" t="s" s="3">
+        <v>830</v>
+      </c>
+      <c r="J198" t="s" s="2">
+        <v>889</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/src/main/resources/baseFiles/excel/Sheet.xlsx
+++ b/src/main/resources/baseFiles/excel/Sheet.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9707"/>
+    <workbookView windowWidth="30240" windowHeight="14460"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,66 +27,777 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Practice Area</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>Manager</t>
-  </si>
-  <si>
-    <t>Specialism</t>
-  </si>
-  <si>
-    <t>Title at Firm</t>
-  </si>
-  <si>
-    <t>Company</t>
-  </si>
-  <si>
-    <t>Etienne Kairis</t>
-  </si>
-  <si>
-    <t>e.kairis@liedekerke.com</t>
-  </si>
-  <si>
-    <t>+32 2 551 15 72</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="257">
+  <si>
+    <t>Aaron Cole</t>
+  </si>
+  <si>
+    <t>aaron.cole@ashurst.com</t>
+  </si>
+  <si>
+    <t>442078591302</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>https://www.ashurst.com/en/people/aaron-cole/</t>
+  </si>
+  <si>
+    <t>Karine Frois</t>
+  </si>
+  <si>
+    <t>Legal</t>
+  </si>
+  <si>
+    <t>Counsel</t>
+  </si>
+  <si>
+    <t>Ashurst</t>
+  </si>
+  <si>
+    <t>Adam Kidane</t>
+  </si>
+  <si>
+    <t>adam.kidane@ashurst.com</t>
+  </si>
+  <si>
+    <t>3226419949</t>
   </si>
   <si>
     <t>Belgium</t>
   </si>
   <si>
-    <t>Intellectual Property</t>
-  </si>
-  <si>
-    <t>https://liedekerke.com/en/lawyers/kairis-etienne</t>
-  </si>
-  <si>
-    <t>Karine Frois</t>
-  </si>
-  <si>
-    <t>Legal</t>
-  </si>
-  <si>
-    <t>Co-managing Partner</t>
-  </si>
-  <si>
-    <t>Liedekerke</t>
+    <t>https://www.ashurst.com/en/people/adam-kidane/</t>
+  </si>
+  <si>
+    <t>Senior Associate</t>
+  </si>
+  <si>
+    <t>Adnand Sulejmani</t>
+  </si>
+  <si>
+    <t>adnand.sulejmani@ashurst.com</t>
+  </si>
+  <si>
+    <t>35228133283</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>https://www.ashurst.com/en/people/adnand-sulejmani/</t>
+  </si>
+  <si>
+    <t>Thijs Van Aerde</t>
+  </si>
+  <si>
+    <t>thijs.vanaerde@nautadutilh.com</t>
+  </si>
+  <si>
+    <t>31207171521</t>
+  </si>
+  <si>
+    <t>the Netherlands</t>
+  </si>
+  <si>
+    <t>https://www.nautadutilh.com/en/our-people/aerde-thijs/</t>
+  </si>
+  <si>
+    <t>Associate Partner</t>
+  </si>
+  <si>
+    <t>Nauta Dutilh</t>
+  </si>
+  <si>
+    <t>Meliha Dacic</t>
+  </si>
+  <si>
+    <t>meliha.dacic@nautadutilh.com</t>
+  </si>
+  <si>
+    <t>35226122969</t>
+  </si>
+  <si>
+    <t>https://www.nautadutilh.com/en/our-people/dacic-meliha/</t>
+  </si>
+  <si>
+    <t>Partner</t>
+  </si>
+  <si>
+    <t>Karel De Smet</t>
+  </si>
+  <si>
+    <t>karel.desmet@nautadutilh.com</t>
+  </si>
+  <si>
+    <t>3225668232</t>
+  </si>
+  <si>
+    <t>https://www.nautadutilh.com/en/our-people/de-smet-karel/</t>
+  </si>
+  <si>
+    <t>Marc Orval</t>
+  </si>
+  <si>
+    <t>marc.orval@nautadutilh.com</t>
+  </si>
+  <si>
+    <t>https://www.nautadutilh.com/en/our-people/orval-marc/</t>
+  </si>
+  <si>
+    <t>Elizabeth Van Schilfgaarde</t>
+  </si>
+  <si>
+    <t>elizabeth.vanschilfgaarde@nautadutilh.com</t>
+  </si>
+  <si>
+    <t>12122182964</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>https://www.nautadutilh.com/en/our-people/schilfgaarde-elizabeth/</t>
+  </si>
+  <si>
+    <t>Managing Partner</t>
+  </si>
+  <si>
+    <t>Willianne Van Zandwijk</t>
+  </si>
+  <si>
+    <t>willianne.vanzandwijk@nautadutilh.com</t>
+  </si>
+  <si>
+    <t>442077869107</t>
+  </si>
+  <si>
+    <t>https://www.nautadutilh.com/en/our-people/zandwijk-willianne/</t>
+  </si>
+  <si>
+    <t>Jaco Belder</t>
+  </si>
+  <si>
+    <t>jaco.belder@nautadutilh.com</t>
+  </si>
+  <si>
+    <t>31207171692</t>
+  </si>
+  <si>
+    <t>https://www.nautadutilh.com/en/our-people/belder-jaco/</t>
+  </si>
+  <si>
+    <t>Thierry Duquesne</t>
+  </si>
+  <si>
+    <t>thierry.duquesne@nautadutilh.com</t>
+  </si>
+  <si>
+    <t>3225668512</t>
+  </si>
+  <si>
+    <t>https://www.nautadutilh.com/en/our-people/duquesne-thierry/</t>
+  </si>
+  <si>
+    <t>Gustav Ahlgren</t>
+  </si>
+  <si>
+    <t>gustav.ahlgren@lindahl.se</t>
+  </si>
+  <si>
+    <t>46734158215</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Capital Markets | Public M&amp;A</t>
+  </si>
+  <si>
+    <t>https://www.lindahl.se/en/contact-us/our-people/gustav-ahlgren</t>
+  </si>
+  <si>
+    <t>Lindahl</t>
+  </si>
+  <si>
+    <t>Jesper Almqvist</t>
+  </si>
+  <si>
+    <t>jesper.almqvist@morrislaw.se</t>
+  </si>
+  <si>
+    <t>460733950096</t>
+  </si>
+  <si>
+    <t>https://www.morrislaw.se/en/employee/jesper-almqvist</t>
+  </si>
+  <si>
+    <t>Morris Law</t>
+  </si>
+  <si>
+    <t>Poul Guo (quach)/郭保罗</t>
+  </si>
+  <si>
+    <t>poul.guo@moalemweitemeyer.com</t>
+  </si>
+  <si>
+    <t>4570701505</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>mailto:poul.guo@moalemweitemeyer.com</t>
+  </si>
+  <si>
+    <t>Moalem Weitemeyer</t>
+  </si>
+  <si>
+    <t>Matthew H Ahrens</t>
+  </si>
+  <si>
+    <t>mahrens@milbank.com</t>
+  </si>
+  <si>
+    <t>12125305882</t>
+  </si>
+  <si>
+    <t>https://www.milbank.com/en/professionals/matthew-h-ahrens.html</t>
+  </si>
+  <si>
+    <t>Milbank</t>
+  </si>
+  <si>
+    <t>John M Beahn</t>
+  </si>
+  <si>
+    <t>jbeahn@milbank.com</t>
+  </si>
+  <si>
+    <t>12028357520</t>
+  </si>
+  <si>
+    <t>Washington, DC</t>
+  </si>
+  <si>
+    <t>https://www.milbank.com/en/professionals/john-beahn.html</t>
+  </si>
+  <si>
+    <t>Claire Bridcut</t>
+  </si>
+  <si>
+    <t>cbridcut@milbank.com</t>
+  </si>
+  <si>
+    <t>442076153084</t>
+  </si>
+  <si>
+    <t>https://www.milbank.com/en/professionals/claire-bridcut.html</t>
+  </si>
+  <si>
+    <t>David Cho</t>
+  </si>
+  <si>
+    <t>dcho@milbank.com</t>
+  </si>
+  <si>
+    <t>82261372611</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>https://www.milbank.com/en/professionals/david-cho.html</t>
+  </si>
+  <si>
+    <t>Mathias Eisen</t>
+  </si>
+  <si>
+    <t>meisen@milbank.com</t>
+  </si>
+  <si>
+    <t>4969719143434</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>https://www.milbank.com/en/professionals/dr-mathias-eisen.html</t>
+  </si>
+  <si>
+    <t>Fabiana Y Sakai</t>
+  </si>
+  <si>
+    <t>fsakai@milbank.com</t>
+  </si>
+  <si>
+    <t>551139277781</t>
+  </si>
+  <si>
+    <t>São Paulo</t>
+  </si>
+  <si>
+    <t>https://www.milbank.com/en/professionals/fabiana-y-sakai.html</t>
+  </si>
+  <si>
+    <t>Carlos J Fernández-lugo</t>
+  </si>
+  <si>
+    <t>cfl@mcvpr.com</t>
+  </si>
+  <si>
+    <t>7872505669</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>https://www.mcvpr.com/attorneys-Carlos-Fernandez-Lugo</t>
+  </si>
+  <si>
+    <t>Chair</t>
+  </si>
+  <si>
+    <t>McConnell Valdés</t>
+  </si>
+  <si>
+    <t>Anne Marie Abrahamson</t>
+  </si>
+  <si>
+    <t>ama@mazanti.dk</t>
+  </si>
+  <si>
+    <t>4521549010</t>
+  </si>
+  <si>
+    <t>https://www.mazanti.dk/en/our-people/anne-marie-abrahamson/</t>
+  </si>
+  <si>
+    <t>Mazanti-Andersen</t>
+  </si>
+  <si>
+    <t>Silvia Cossu</t>
+  </si>
+  <si>
+    <t>silvia.cossu@lexia.it</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>https://www.lexia.it/en/professionista/silvia-cossu/</t>
+  </si>
+  <si>
+    <t>LEXIA</t>
+  </si>
+  <si>
+    <t>Georgi Spasov</t>
+  </si>
+  <si>
+    <t>georgi.spasov@sbn-law.com</t>
+  </si>
+  <si>
+    <t>35929801808</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>https://adriala.com/lawyers/</t>
+  </si>
+  <si>
+    <t>Knezović &amp; Associates</t>
+  </si>
+  <si>
+    <t>Josip Madirazza</t>
+  </si>
+  <si>
+    <t>jmadirazza@madirazza.hr</t>
+  </si>
+  <si>
+    <t>38514877280</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Predrag Baroš</t>
+  </si>
+  <si>
+    <t>predrag.baros@bblegal.ba</t>
+  </si>
+  <si>
+    <t>38751961780</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina, Banja Luka</t>
+  </si>
+  <si>
+    <t>Pedro Ivo Mello</t>
+  </si>
+  <si>
+    <t>pedroivo@raphaelmiranda.adv.br</t>
+  </si>
+  <si>
+    <t>552138063650</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>https://rmadv.com.br/site/en/perfil/pedro-ivo-mello/</t>
+  </si>
+  <si>
+    <t>Founding Partner</t>
+  </si>
+  <si>
+    <t>RMADV Advogados</t>
+  </si>
+  <si>
+    <t>Lambadarios Law</t>
+  </si>
+  <si>
+    <t>c.lambadarios@lambadarioslaw.gr</t>
+  </si>
+  <si>
+    <t>302103231135</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>https://www.lambadarioslaw.gr/person/constantinos-lambadarios/</t>
+  </si>
+  <si>
+    <t>Marcin Bęben</t>
+  </si>
+  <si>
+    <t>m.beben@kochanski.pl</t>
+  </si>
+  <si>
+    <t>48223269600</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>https://www.kochanski.pl/en/marcin-beben-2/</t>
+  </si>
+  <si>
+    <t>Kochański &amp; Partners</t>
+  </si>
+  <si>
+    <t>Juliana Scalissi Martins Gaspar</t>
+  </si>
+  <si>
+    <t>juliana.scalissi@robortella.com.br</t>
+  </si>
+  <si>
+    <t>551131740200</t>
+  </si>
+  <si>
+    <t>https://www.robortella.com.br/en/our-team/</t>
+  </si>
+  <si>
+    <t>Robortella e Peres</t>
+  </si>
+  <si>
+    <t>Addington Bexley Chinake</t>
+  </si>
+  <si>
+    <t>abc@chinake.law</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>https://kantorimmerman.co.zw/partners/</t>
+  </si>
+  <si>
+    <t>Senior Partner</t>
+  </si>
+  <si>
+    <t>Kantor &amp; Immerman</t>
+  </si>
+  <si>
+    <t>Alexander Grägg</t>
+  </si>
+  <si>
+    <t>gragg@kntr.se</t>
+  </si>
+  <si>
+    <t>46703373719</t>
+  </si>
+  <si>
+    <t>https://kntr.se/team/</t>
+  </si>
+  <si>
+    <t>Kanter</t>
+  </si>
+  <si>
+    <t>Bernardo Lucas Joanes Barbosa</t>
+  </si>
+  <si>
+    <t>bernardo.joanes@rennopenteado.com.br</t>
+  </si>
+  <si>
+    <t>https://rennopenteado.com.br/en/profissional/bernardo-lucas-joanes-barbosa/</t>
+  </si>
+  <si>
+    <t>Rennó Penteado Sampaio Advogados</t>
+  </si>
+  <si>
+    <t>A Kaan Başer Ll M</t>
+  </si>
+  <si>
+    <t>kbaser@morogluarseven.com</t>
+  </si>
+  <si>
+    <t>902123774700</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>https://www.morogluarseven.com/attorneys/a-kaan-baser/</t>
+  </si>
+  <si>
+    <t>Moroğlu Arseven</t>
+  </si>
+  <si>
+    <t>Elina Belouli</t>
+  </si>
+  <si>
+    <t>e.belouli@zeya.com</t>
+  </si>
+  <si>
+    <t>302106967157</t>
+  </si>
+  <si>
+    <t>Private Clients</t>
+  </si>
+  <si>
+    <t>https://www.zeya.com/our-people/elina-belouli</t>
+  </si>
+  <si>
+    <t>Zepos And Yannopoulos</t>
+  </si>
+  <si>
+    <t>Maria Bozinaki</t>
+  </si>
+  <si>
+    <t>m.bozinaki@zeya.com</t>
+  </si>
+  <si>
+    <t>302106967349</t>
+  </si>
+  <si>
+    <t>Commercial &amp; Consumer</t>
+  </si>
+  <si>
+    <t>https://www.zeya.com/our-people/maria-bozinaki</t>
+  </si>
+  <si>
+    <t>Charlotte Thorsen</t>
+  </si>
+  <si>
+    <t>cth@gorrissenfederspiel.com</t>
+  </si>
+  <si>
+    <t>4527804022</t>
+  </si>
+  <si>
+    <t>https://gorrissenfederspiel.com/employees/charlotte-thorsen/</t>
+  </si>
+  <si>
+    <t>Gorrissen Federspiel</t>
+  </si>
+  <si>
+    <t>Bård Sandstad</t>
+  </si>
+  <si>
+    <t>b.sandstad@haavind.no</t>
+  </si>
+  <si>
+    <t>4793281796</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>https://haavind.no/en/people/baard-sandstad/</t>
+  </si>
+  <si>
+    <t>Haavind</t>
+  </si>
+  <si>
+    <t>Peter Habraken</t>
+  </si>
+  <si>
+    <t>e p.habraken@habrakenrutten.com</t>
+  </si>
+  <si>
+    <t>310622420767</t>
+  </si>
+  <si>
+    <t>https://www.habrakenrutten.com/team/peter-habraken</t>
+  </si>
+  <si>
+    <t>Habraken Rutten</t>
+  </si>
+  <si>
+    <t>Sjoerd Rutten</t>
+  </si>
+  <si>
+    <t>s.rutten@habrakenrutten.com</t>
+  </si>
+  <si>
+    <t>310653913799</t>
+  </si>
+  <si>
+    <t>https://www.habrakenrutten.com/team/sjoerd-rutten</t>
+  </si>
+  <si>
+    <t>Wolfgang Berger</t>
+  </si>
+  <si>
+    <t>wolfgang.berger@haslinger-nagele.com</t>
+  </si>
+  <si>
+    <t>4317186680622</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Environmental &amp; Technology</t>
+  </si>
+  <si>
+    <t>https://www.haslinger-nagele.com/en/team/wolfgang-berger/</t>
+  </si>
+  <si>
+    <t>Haslinger Nagele</t>
+  </si>
+  <si>
+    <t>Nitzan Hirsch-falk</t>
+  </si>
+  <si>
+    <t>nitzan@h-f.co</t>
+  </si>
+  <si>
+    <t>97237944888</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>https://h-f.co/team/nitzan-hirsch-falk/</t>
+  </si>
+  <si>
+    <t>H-F &amp; Co</t>
+  </si>
+  <si>
+    <t>Gabriel Ayache</t>
+  </si>
+  <si>
+    <t>gayache@joffeassocies.com</t>
+  </si>
+  <si>
+    <t>330143182030</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>https://www.joffeassocies.com/en/avocat/gabriel-ayache/</t>
+  </si>
+  <si>
+    <t>associates</t>
+  </si>
+  <si>
+    <t>Joffe &amp; Associés</t>
+  </si>
+  <si>
+    <t>petar *****</t>
+  </si>
+  <si>
+    <t>petar@jsplaw.co.rs</t>
+  </si>
+  <si>
+    <t>38163245432</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>https://jsplaw.co.rs/partners/</t>
+  </si>
+  <si>
+    <t>Joksovic Stojanovic &amp; Partners</t>
+  </si>
+  <si>
+    <t>Alex Petrović</t>
+  </si>
+  <si>
+    <t>alex@jsplaw.co.rs</t>
+  </si>
+  <si>
+    <t>381621660320</t>
+  </si>
+  <si>
+    <t>Nicolo Juvara</t>
+  </si>
+  <si>
+    <t>n.juvara@molinarilex.it</t>
+  </si>
+  <si>
+    <t>39029974371</t>
+  </si>
+  <si>
+    <t>Corporate and Commercial</t>
+  </si>
+  <si>
+    <t>https://www.molinarilex.it/en/people</t>
+  </si>
+  <si>
+    <t>Molinari</t>
+  </si>
+  <si>
+    <t>Nelson Wilians Fratoni Rodrigues</t>
+  </si>
+  <si>
+    <t>nelson@nwadv.com.br</t>
+  </si>
+  <si>
+    <t>54560186</t>
+  </si>
+  <si>
+    <t>https://nwadv.com.br/en/profissionais/nelson-wilians-fratoni-rodrigues</t>
+  </si>
+  <si>
+    <t>Nelson Wilians &amp; Advogados</t>
+  </si>
+  <si>
+    <t>Joey Boland</t>
+  </si>
+  <si>
+    <t>jboland@rbk.ie</t>
+  </si>
+  <si>
+    <t>3532090206480600</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>https://www.rbk.ie/about/our-team/joey-boland</t>
+  </si>
+  <si>
+    <t>RBK</t>
   </si>
 </sst>
 </file>
@@ -94,63 +805,24 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Candara"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="24"/>
-      <color rgb="FFCC1013"/>
-      <name val="helvetica"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="13.5"/>
-      <color rgb="FF111111"/>
-      <name val="helvetica"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="13.5"/>
-      <color rgb="FFCC1013"/>
-      <name val="helvetica"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF111111"/>
-      <name val="helvetica"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9.8"/>
-      <color rgb="FF6A8759"/>
-      <name val="Courier New"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -158,14 +830,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -173,7 +845,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -181,7 +853,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -189,7 +861,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -197,7 +869,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -205,14 +877,14 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -220,7 +892,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -228,7 +900,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -236,14 +908,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -251,47 +923,47 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -300,12 +972,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -491,82 +1157,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -581,15 +1177,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -678,8 +1265,10 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -688,172 +1277,146 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -862,7 +1425,7 @@
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
     <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
     <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
     <cellStyle name="Note" xfId="8" builtinId="10"/>
     <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
@@ -906,7 +1469,221 @@
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -916,7 +1693,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -926,44 +1703,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -993,12 +1770,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1087,6 +1864,13 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1095,13 +1879,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1166,90 +1943,55 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J1"/>
+  <sheetPr/>
+  <dimension ref="A2:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:J3"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="2"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="27.6666666666667"/>
-    <col min="2" max="2" customWidth="true" style="1" width="31.8916666666667"/>
-    <col min="3" max="3" customWidth="true" style="1" width="27.6666666666667"/>
-    <col min="4" max="4" customWidth="true" style="1" width="20.775"/>
-    <col min="5" max="5" customWidth="true" style="2" width="28.225"/>
-    <col min="6" max="6" customWidth="true" style="2" width="14.225"/>
-    <col min="7" max="7" customWidth="true" style="2" width="19.8916666666667"/>
-    <col min="8" max="8" customWidth="true" style="2" width="23.1083333333333"/>
-    <col min="9" max="9" customWidth="true" style="3" width="19.0"/>
-    <col min="10" max="10" customWidth="true" style="2" width="26.225"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="16.8"/>
   <sheetData>
-    <row r="1" ht="21.6" customHeight="1" spans="1:10">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>251</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
+      <c r="B2" t="s" s="0">
+        <v>252</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
+      <c r="C2" t="s" s="0">
+        <v>253</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
+      <c r="D2" t="s" s="0">
+        <v>254</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>5</v>
+      <c r="F2" t="s" s="0">
+        <v>255</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G2" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H2" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>8</v>
+      <c r="I2" t="s" s="0">
+        <v>32</v>
       </c>
-      <c r="J1" s="12" t="s">
-        <v>9</v>
+      <c r="J2" t="s" s="0">
+        <v>256</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="+32 2 551 15 72" tooltip="https://liedekerke.com/en/lawyers/tel:+3225511572"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/baseFiles/excel/Sheet.xlsx
+++ b/src/main/resources/baseFiles/excel/Sheet.xlsx
@@ -1218,34 +1218,34 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" t="s" s="0">
         <v>9</v>
       </c>
     </row>

--- a/src/main/resources/baseFiles/excel/Sheet.xlsx
+++ b/src/main/resources/baseFiles/excel/Sheet.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="67">
   <si>
     <t>Name</t>
   </si>
@@ -57,6 +57,177 @@
   </si>
   <si>
     <t>Firm</t>
+  </si>
+  <si>
+    <t>Ferenc Baumgartner</t>
+  </si>
+  <si>
+    <t>ferenc.baumgartner@bdo.hu</t>
+  </si>
+  <si>
+    <t>3612353010</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>AUDIT &amp; ASSURANCE</t>
+  </si>
+  <si>
+    <t>https://www.bdo.hu/en-gb/our-people/ferenc-baumgartner</t>
+  </si>
+  <si>
+    <t>Karine Frois</t>
+  </si>
+  <si>
+    <t>Legal</t>
+  </si>
+  <si>
+    <t>Managing Director</t>
+  </si>
+  <si>
+    <t>BDO</t>
+  </si>
+  <si>
+    <t>Miklós Bencze</t>
+  </si>
+  <si>
+    <t>miklos.bencze@bdo.hu</t>
+  </si>
+  <si>
+    <t>8398874238714466962</t>
+  </si>
+  <si>
+    <t>FDI</t>
+  </si>
+  <si>
+    <t>https://www.bdo.hu/en-gb/our-people/miklos-bencze</t>
+  </si>
+  <si>
+    <t>Zoltán Boldis</t>
+  </si>
+  <si>
+    <t>laszlo.babicz@bdo.hu</t>
+  </si>
+  <si>
+    <t>361202353010</t>
+  </si>
+  <si>
+    <t>Corporate Finance</t>
+  </si>
+  <si>
+    <t>https://www.bdo.hu/en-gb/our-people/boldis-zoltan</t>
+  </si>
+  <si>
+    <t>Director</t>
+  </si>
+  <si>
+    <t>Elizabeth Acland</t>
+  </si>
+  <si>
+    <t>elizabeth.acland@bdo.co.uk</t>
+  </si>
+  <si>
+    <t>7970130005</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>Valuations Partner</t>
+  </si>
+  <si>
+    <t>https://www.bdo.co.uk/en-gb/our-people/elizabeth-acland</t>
+  </si>
+  <si>
+    <t>Partner</t>
+  </si>
+  <si>
+    <t>Filip Nygren</t>
+  </si>
+  <si>
+    <t>e filip.nygren@aswlaw.com</t>
+  </si>
+  <si>
+    <t>14412940138</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>Senior Associate Dispute Resolution</t>
+  </si>
+  <si>
+    <t>https://aswlaw.com/filip-nygren/</t>
+  </si>
+  <si>
+    <t>Senior Associate</t>
+  </si>
+  <si>
+    <t>ASW Law</t>
+  </si>
+  <si>
+    <t>Abu Oghenetega</t>
+  </si>
+  <si>
+    <t>oghenetega.abu@aluko-oyebode.com</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>https://www.aluko-oyebode.com/?p=5952</t>
+  </si>
+  <si>
+    <t>Aluko &amp; Oyebode</t>
+  </si>
+  <si>
+    <t>Paula Querol Abenia</t>
+  </si>
+  <si>
+    <t>34917689630</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>https://www.davispolk.com/lawyers/paula-querol</t>
+  </si>
+  <si>
+    <t>Counsel</t>
+  </si>
+  <si>
+    <t>Davis Polk And Wardwell</t>
+  </si>
+  <si>
+    <t>Benjamin Amos</t>
+  </si>
+  <si>
+    <t>442074181378</t>
+  </si>
+  <si>
+    <t>https://www.davispolk.com/lawyers/benjamin-amos</t>
+  </si>
+  <si>
+    <t>Phil Anscombe</t>
+  </si>
+  <si>
+    <t>442074181067</t>
+  </si>
+  <si>
+    <t>https://www.davispolk.com/lawyers/phil-anscombe</t>
+  </si>
+  <si>
+    <t>Ester Del Valle Izquierdo</t>
+  </si>
+  <si>
+    <t>34917689650</t>
+  </si>
+  <si>
+    <t>https://www.davispolk.com/lawyers/ester-del-valle-izquierdo</t>
   </si>
 </sst>
 </file>
@@ -1209,7 +1380,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J2" sqref="A2:J256"/>
@@ -1249,6 +1420,70 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s" s="0">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/src/main/resources/baseFiles/excel/Sheet.xlsx
+++ b/src/main/resources/baseFiles/excel/Sheet.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="63">
   <si>
     <t>Name</t>
   </si>
@@ -57,6 +57,165 @@
   </si>
   <si>
     <t>Firm</t>
+  </si>
+  <si>
+    <t>Peev plamen</t>
+  </si>
+  <si>
+    <t>peev@peterkapartners.bg</t>
+  </si>
+  <si>
+    <t>420225396300</t>
+  </si>
+  <si>
+    <t>the Czech Republic</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>https://www.peterkapartners.com/en/localteams/all/</t>
+  </si>
+  <si>
+    <t>Karine Frois</t>
+  </si>
+  <si>
+    <t>Legal</t>
+  </si>
+  <si>
+    <t>Partner</t>
+  </si>
+  <si>
+    <t>Peterka And Partners</t>
+  </si>
+  <si>
+    <t>Jernej Jeraj</t>
+  </si>
+  <si>
+    <t>jernej.jeraj@pfp.law</t>
+  </si>
+  <si>
+    <t>38682052111</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Corporate / M&amp;A, Commercial , Insolvency  and Restructuring, Employment , Real Estate and Construction</t>
+  </si>
+  <si>
+    <t>https://pfp.law/team/</t>
+  </si>
+  <si>
+    <t>PFP Law</t>
+  </si>
+  <si>
+    <t>Tomaž Petrovič</t>
+  </si>
+  <si>
+    <t>tomaz.petrovic@pfp.law</t>
+  </si>
+  <si>
+    <t>Corporate / M&amp;A, Commercial , Real Estate and Construction , PPP and Public Procurement, Dispute Resolution, Competition</t>
+  </si>
+  <si>
+    <t>Ivan Markov</t>
+  </si>
+  <si>
+    <t>ivan.markov@penkov-markov.eu</t>
+  </si>
+  <si>
+    <t>359029713935</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>https://penkov-markov.eu/en/team/member/ivan-markov</t>
+  </si>
+  <si>
+    <t>PM&amp;P</t>
+  </si>
+  <si>
+    <t>Bogdan C Stoica</t>
+  </si>
+  <si>
+    <t>bogdan.stoica@pnsa.ro</t>
+  </si>
+  <si>
+    <t>40213177919</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>https://pnsa.ro/team/partn/Bogdan_Stoica.asp</t>
+  </si>
+  <si>
+    <t>Popovici Niţu StoicaAndAsociaţii</t>
+  </si>
+  <si>
+    <t>Kazimierz Gródek</t>
+  </si>
+  <si>
+    <t>kgrodek@porwisz.pl</t>
+  </si>
+  <si>
+    <t>48122933600</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>https://porwisz.pl/en/our-team/partners/kazimierz-grodek</t>
+  </si>
+  <si>
+    <t>Porwisz and Partners</t>
+  </si>
+  <si>
+    <t>Danica Gligorijević</t>
+  </si>
+  <si>
+    <t>dgligorijevic@pricapartners.com</t>
+  </si>
+  <si>
+    <t>381113031885</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>https://pricapartners.com/people/danica-gligorijevic/</t>
+  </si>
+  <si>
+    <t>PricaAndPartners</t>
+  </si>
+  <si>
+    <t>Mihajlo Prica</t>
+  </si>
+  <si>
+    <t>mprica@pricapartners.com</t>
+  </si>
+  <si>
+    <t>https://pricapartners.com/people/mihajlo-prica/</t>
+  </si>
+  <si>
+    <t>Mihai Rădulescu</t>
+  </si>
+  <si>
+    <t>m.radulescu@rmlegal.ro</t>
+  </si>
+  <si>
+    <t>40212339446</t>
+  </si>
+  <si>
+    <t>http://radulescu-musoi.ro/profile-mihai-radulescu/</t>
+  </si>
+  <si>
+    <t>Senior Partner</t>
+  </si>
+  <si>
+    <t>Rădulescu And Mușoi</t>
   </si>
 </sst>
 </file>
@@ -1209,7 +1368,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J2" sqref="A2:J256"/>
@@ -1249,6 +1408,38 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/src/main/resources/baseFiles/excel/Sheet.xlsx
+++ b/src/main/resources/baseFiles/excel/Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="14440"/>
+    <workbookView windowWidth="29940" windowHeight="13180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="578">
   <si>
     <t>Name</t>
   </si>
@@ -59,163 +59,1708 @@
     <t>Firm</t>
   </si>
   <si>
-    <t>Peev plamen</t>
-  </si>
-  <si>
-    <t>peev@peterkapartners.bg</t>
-  </si>
-  <si>
-    <t>420225396300</t>
+    <t>Lawrence Abramson</t>
+  </si>
+  <si>
+    <t>lawrence.abramson@keystonelaw.co.uk</t>
+  </si>
+  <si>
+    <t>2033193700</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>Contractual and other forms of commercial disputes</t>
+  </si>
+  <si>
+    <t>https://www.keystonelaw.com/lawyers/lawrence-abramson</t>
+  </si>
+  <si>
+    <t>Karine Frois</t>
+  </si>
+  <si>
+    <t>Legal</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Keystone Law</t>
+  </si>
+  <si>
+    <t>Eirik Rødsand</t>
+  </si>
+  <si>
+    <t>eir@acapo-onsagers.no</t>
+  </si>
+  <si>
+    <t>472024200020372042</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>https://www.acapo-onsagers.com/en/about-us/our-consultants/eirik-rodsand</t>
+  </si>
+  <si>
+    <t>Partner</t>
+  </si>
+  <si>
+    <t>Onsagers</t>
+  </si>
+  <si>
+    <t>Federica Baccigalupi</t>
+  </si>
+  <si>
+    <t>fbaccigalupi@pglex.it</t>
+  </si>
+  <si>
+    <t>39200220303051</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>https://pglex.it/en/professionals/federica-baccigalupi/</t>
+  </si>
+  <si>
+    <t>Counsel</t>
+  </si>
+  <si>
+    <t>Pedersoli</t>
+  </si>
+  <si>
+    <t>Annechien Beijering-beck</t>
+  </si>
+  <si>
+    <t>annechien.beijering@nysingh.nl</t>
+  </si>
+  <si>
+    <t>31887520073</t>
+  </si>
+  <si>
+    <t>the Netherlands</t>
+  </si>
+  <si>
+    <t>https://www.nysingh.nl/en/specialists/annechien-beijering-beck/</t>
+  </si>
+  <si>
+    <t>Nysingh advocaten-notarissen N.V.</t>
+  </si>
+  <si>
+    <t>Rasmus Munk Nielsen</t>
+  </si>
+  <si>
+    <t>rmn@clemenslaw.com</t>
+  </si>
+  <si>
+    <t>4520429333</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>https://clemenslaw.dk/en/medarbejdere/rasmus-munk-nielsen/</t>
+  </si>
+  <si>
+    <t>Clemens Law</t>
+  </si>
+  <si>
+    <t>John Boyle</t>
+  </si>
+  <si>
+    <t>john.boyle@mccannfitzgerald.com</t>
+  </si>
+  <si>
+    <t>35316119110</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>https://www.mccannfitzgerald.com/people/john-boyle</t>
+  </si>
+  <si>
+    <t>Senior Associate</t>
+  </si>
+  <si>
+    <t>Mccann Fitz Gerald</t>
+  </si>
+  <si>
+    <t>Emil Degerholm Senior Counsel</t>
+  </si>
+  <si>
+    <t>emil.degerholm@hpp.fi</t>
+  </si>
+  <si>
+    <t>35820402056620212820</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>https://hppattorneys.com/expert/degerholm-emil/</t>
+  </si>
+  <si>
+    <t>Senior Counsel</t>
+  </si>
+  <si>
+    <t>HPP Attorneys</t>
+  </si>
+  <si>
+    <t>Julian Ellison</t>
+  </si>
+  <si>
+    <t>jellison@mayerbrown.com</t>
+  </si>
+  <si>
+    <t>3225025517</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>https://www.mayerbrown.com/en/people/e/ellison-julian</t>
+  </si>
+  <si>
+    <t>Mayer Brown</t>
+  </si>
+  <si>
+    <t>Bernina Butt</t>
+  </si>
+  <si>
+    <t>bbutt@mayerbrown.com</t>
+  </si>
+  <si>
+    <t>496979411099</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>https://www.mayerbrown.com/en/people/b/butt-bernina</t>
+  </si>
+  <si>
+    <t>Raid Abu-manneh</t>
+  </si>
+  <si>
+    <t>rabu-manneh@mayerbrown.com</t>
+  </si>
+  <si>
+    <t>442031303773</t>
+  </si>
+  <si>
+    <t>https://www.mayerbrown.com/en/people/a/abumanneh-raid</t>
+  </si>
+  <si>
+    <t>James Bergstrom</t>
+  </si>
+  <si>
+    <t>james.bergstrom@ogier.com</t>
+  </si>
+  <si>
+    <t>13458151855</t>
+  </si>
+  <si>
+    <t>the Cayman Islands</t>
+  </si>
+  <si>
+    <t>https://www.ogier.com/people/james-bergstrom/</t>
+  </si>
+  <si>
+    <t>Ogier</t>
+  </si>
+  <si>
+    <t>Jamie Biddle</t>
+  </si>
+  <si>
+    <t>jamie.biddle@ogier.com</t>
+  </si>
+  <si>
+    <t>441534511434</t>
+  </si>
+  <si>
+    <t>Jersey</t>
+  </si>
+  <si>
+    <t>Consulting</t>
+  </si>
+  <si>
+    <t>https://www.ogier.com/people/jamie-biddle/</t>
+  </si>
+  <si>
+    <t>Director</t>
+  </si>
+  <si>
+    <t>Nicholas Burkill</t>
+  </si>
+  <si>
+    <t>nicholas.burkill@ogier.com</t>
+  </si>
+  <si>
+    <t>12848527372</t>
+  </si>
+  <si>
+    <t>the British Virgin Islands</t>
+  </si>
+  <si>
+    <t>https://www.ogier.com/people/nicholas-burkill/</t>
+  </si>
+  <si>
+    <t>Benedetta Antinucci</t>
+  </si>
+  <si>
+    <t>bantinucci@legance.it</t>
+  </si>
+  <si>
+    <t>39028963071</t>
+  </si>
+  <si>
+    <t>Tax</t>
+  </si>
+  <si>
+    <t>https://www.legance.com/professionals/benedetta-antinucci/</t>
+  </si>
+  <si>
+    <t>Legance</t>
+  </si>
+  <si>
+    <t>Claire Clarke</t>
+  </si>
+  <si>
+    <t>claire.clarke@blandy.co.uk</t>
+  </si>
+  <si>
+    <t>1189516908</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>https://www.blandy.co.uk/about/find-a-solicitor/claire-clarke</t>
+  </si>
+  <si>
+    <t>Blandy And Blandy</t>
+  </si>
+  <si>
+    <t>Sebastian Hestnes Andresen</t>
+  </si>
+  <si>
+    <t>seha@wiersholm.no</t>
+  </si>
+  <si>
+    <t>4721021142</t>
+  </si>
+  <si>
+    <t>https://wiersholm.no/mennesker/seha/</t>
+  </si>
+  <si>
+    <t>Wiersholm</t>
+  </si>
+  <si>
+    <t>Christian Poulsson</t>
+  </si>
+  <si>
+    <t>cpo@kvale.no</t>
+  </si>
+  <si>
+    <t>4741578657</t>
+  </si>
+  <si>
+    <t>Dispute resolution</t>
+  </si>
+  <si>
+    <t>https://www.kvale.no/en/our-team/partner/christian-poulsson-en/</t>
+  </si>
+  <si>
+    <t>Kvale</t>
+  </si>
+  <si>
+    <t>Ligita Biliūnė</t>
+  </si>
+  <si>
+    <t>ligita.kuliesaite@magnussonlaw.com</t>
+  </si>
+  <si>
+    <t>37052487388</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Corporate and M&amp;A</t>
+  </si>
+  <si>
+    <t>https://www.magnussonlaw.com/people/ligita-biliune/</t>
+  </si>
+  <si>
+    <t>Magnusson Law</t>
+  </si>
+  <si>
+    <t>Lisa Düppe</t>
+  </si>
+  <si>
+    <t>lisa.duppe@magnussonlaw.com</t>
+  </si>
+  <si>
+    <t>4684637500</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Dispute Resolution</t>
+  </si>
+  <si>
+    <t>https://www.magnussonlaw.com/people/lisa-duppe/</t>
+  </si>
+  <si>
+    <t>Maria Bozinaki</t>
+  </si>
+  <si>
+    <t>m.bozinaki@zeya.com</t>
+  </si>
+  <si>
+    <t>302106967349</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Commercial &amp; Consumer</t>
+  </si>
+  <si>
+    <t>https://www.zeya.com/our-people/maria-bozinaki</t>
+  </si>
+  <si>
+    <t>Zepos And Yannopoulos</t>
+  </si>
+  <si>
+    <t>Lizzy Firmin</t>
+  </si>
+  <si>
+    <t>lizzy.firmin@ellisons.com</t>
+  </si>
+  <si>
+    <t>1206719640</t>
+  </si>
+  <si>
+    <t>https://ellisons.com/team/lizzy-firmin/</t>
+  </si>
+  <si>
+    <t>Ellisons Solicitors</t>
+  </si>
+  <si>
+    <t>Vytas Simanavičius</t>
+  </si>
+  <si>
+    <t>info@inac.lt</t>
+  </si>
+  <si>
+    <t>https://metida.com/team/vytas-simanavicius/</t>
+  </si>
+  <si>
+    <t>METIDA</t>
+  </si>
+  <si>
+    <t>Mahmoud Shaltout</t>
+  </si>
+  <si>
+    <t>mss@zulficarpartners.com</t>
+  </si>
+  <si>
+    <t>20224612170</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>https://zulficarpartners.com/profiles/mahmoud-shaltout/</t>
+  </si>
+  <si>
+    <t>Founding Partner</t>
+  </si>
+  <si>
+    <t>Zulficar &amp; Partners</t>
+  </si>
+  <si>
+    <t>Otto Lindholm</t>
+  </si>
+  <si>
+    <t>otto.lindholm@dottirlaw.com</t>
+  </si>
+  <si>
+    <t>358503787358</t>
+  </si>
+  <si>
+    <t>https://www.dottirlaw.com/team/otto-lindholm</t>
+  </si>
+  <si>
+    <t>Dottir</t>
+  </si>
+  <si>
+    <t>Anja Hegerberg</t>
+  </si>
+  <si>
+    <t>a.hegerberg@haavind.no</t>
+  </si>
+  <si>
+    <t>92408237</t>
+  </si>
+  <si>
+    <t>https://haavind.no/en/people/anja-hegerberg/</t>
+  </si>
+  <si>
+    <t>Haavind</t>
+  </si>
+  <si>
+    <t>Waldemar Gujski</t>
+  </si>
+  <si>
+    <t>gujski@dt.com.pl</t>
+  </si>
+  <si>
+    <t>48228270166</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>https://dt.com.pl/team/411/gujski-waldemar</t>
+  </si>
+  <si>
+    <t>Drzewiecki Tomaszek</t>
+  </si>
+  <si>
+    <t>Aleksander Källkvist</t>
+  </si>
+  <si>
+    <t>aleksander.kallkvist@maqs.com</t>
+  </si>
+  <si>
+    <t>343367984</t>
+  </si>
+  <si>
+    <t>https://maqs.com/en/person/aleksander-kallkvist</t>
+  </si>
+  <si>
+    <t>MAQS</t>
+  </si>
+  <si>
+    <t>Henrik Nedergaard Thomsen</t>
+  </si>
+  <si>
+    <t>hnt@nnlaw.dk</t>
+  </si>
+  <si>
+    <t>4533114545</t>
+  </si>
+  <si>
+    <t>https://www.nnlaw.dk/en/medarbejdere/henrik-nedergaard-thomsen</t>
+  </si>
+  <si>
+    <t>Nielsen Nørager</t>
+  </si>
+  <si>
+    <t>Tony Anderson</t>
+  </si>
+  <si>
+    <t>tanderson@mltaikins.com</t>
+  </si>
+  <si>
+    <t>16046085775</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>https://www.mltaikins.com/people/tony-anderson/</t>
+  </si>
+  <si>
+    <t>MLT Aikins</t>
+  </si>
+  <si>
+    <t>Stephanie Anderson</t>
+  </si>
+  <si>
+    <t>stephanie.anderson@blakes.com</t>
+  </si>
+  <si>
+    <t>14168632521</t>
+  </si>
+  <si>
+    <t>https://www.blakes.com/people/find-a-person/stephanie-anderson/</t>
+  </si>
+  <si>
+    <t>Blakes</t>
+  </si>
+  <si>
+    <t>Are Herrem</t>
+  </si>
+  <si>
+    <t>a.herrem@selmer.no</t>
+  </si>
+  <si>
+    <t>4790199147</t>
+  </si>
+  <si>
+    <t>https://selmer.no/en/people/are-herrem</t>
+  </si>
+  <si>
+    <t>Selmer</t>
+  </si>
+  <si>
+    <t>David Heems</t>
+  </si>
+  <si>
+    <t>d.heems@houthoff.com</t>
+  </si>
+  <si>
+    <t>31206056952</t>
+  </si>
+  <si>
+    <t>Litigation</t>
+  </si>
+  <si>
+    <t>https://www.houthoff.com/people/david-heems/</t>
+  </si>
+  <si>
+    <t>Houthoof</t>
+  </si>
+  <si>
+    <t>Adam Howard</t>
+  </si>
+  <si>
+    <t>amhoward@winston.com</t>
+  </si>
+  <si>
+    <t>442070118765</t>
+  </si>
+  <si>
+    <t>https://www.winston.com/en/professionals/howard-adam</t>
+  </si>
+  <si>
+    <t>Winston And Strawn</t>
+  </si>
+  <si>
+    <t>Grine Lahreche</t>
+  </si>
+  <si>
+    <t>glahreche@winston.com</t>
+  </si>
+  <si>
+    <t>33153648228</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>https://www.winston.com/en/professionals/lahreche-grine</t>
+  </si>
+  <si>
+    <t>Eveline Fetter</t>
+  </si>
+  <si>
+    <t>e.fetter@lvdk.com</t>
+  </si>
+  <si>
+    <t>31202050544</t>
+  </si>
+  <si>
+    <t>https://lvdk.com/staff-member/eveline-fetter/</t>
+  </si>
+  <si>
+    <t>Lemstra Van der Korst</t>
+  </si>
+  <si>
+    <t>Lambadarios Law</t>
+  </si>
+  <si>
+    <t>s.anagnostou@lambadarioslaw.gr</t>
+  </si>
+  <si>
+    <t>302103231135</t>
+  </si>
+  <si>
+    <t>https://www.lambadarioslaw.gr/person/smaro-anagnostou/</t>
+  </si>
+  <si>
+    <t>Adéle Franck</t>
+  </si>
+  <si>
+    <t>adele.franck@cirio.se</t>
+  </si>
+  <si>
+    <t>46733342271</t>
+  </si>
+  <si>
+    <t>https://cirio.se/en/people/adele-henriksson</t>
+  </si>
+  <si>
+    <t>Cirio</t>
+  </si>
+  <si>
+    <t>Albert Agustinoy</t>
+  </si>
+  <si>
+    <t>albert.agustinoy@cuatrecasas.com</t>
+  </si>
+  <si>
+    <t>34932905500</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>TECHNOLOGY AND TELECOMMUNICATIONS</t>
+  </si>
+  <si>
+    <t>https://www.cuatrecasas.com/en/global/lawyers/albert-agustinoy</t>
+  </si>
+  <si>
+    <t>Cuatrecasas</t>
+  </si>
+  <si>
+    <t>Christian Vollmer</t>
+  </si>
+  <si>
+    <t>cvo@aera-ip.com</t>
+  </si>
+  <si>
+    <t>491713187323</t>
+  </si>
+  <si>
+    <t>Patents</t>
+  </si>
+  <si>
+    <t>https://aera-ip.com/team/cvo/</t>
+  </si>
+  <si>
+    <t>Aera</t>
+  </si>
+  <si>
+    <t>Marjut Honkasalo</t>
+  </si>
+  <si>
+    <t>marjut.honkasalo@kolster.com</t>
+  </si>
+  <si>
+    <t>505242413</t>
+  </si>
+  <si>
+    <t>https://www.kolster.fi/en/experts/honkasalo-marjut</t>
+  </si>
+  <si>
+    <t>Kolster</t>
+  </si>
+  <si>
+    <t>Hilton Sue</t>
+  </si>
+  <si>
+    <t>hsue@patentable.com</t>
+  </si>
+  <si>
+    <t>6046693432</t>
+  </si>
+  <si>
+    <t>https://patentable.com/lawyers/hilton-sue/</t>
+  </si>
+  <si>
+    <t>Oyen Wiggs</t>
+  </si>
+  <si>
+    <t>Kevin Atkins</t>
+  </si>
+  <si>
+    <t>kevin.atkins@bclplaw.com</t>
+  </si>
+  <si>
+    <t>4402034004693</t>
+  </si>
+  <si>
+    <t>https://www.bclplaw.com/en-US/people/kevin-atkins.html</t>
+  </si>
+  <si>
+    <t>BCLP Law</t>
+  </si>
+  <si>
+    <t>Klaus Banke</t>
+  </si>
+  <si>
+    <t>klaus.banke@bclplaw.com</t>
+  </si>
+  <si>
+    <t>49069970861212</t>
+  </si>
+  <si>
+    <t>https://www.bclplaw.com/en-US/people/klaus-banke.html</t>
+  </si>
+  <si>
+    <t>Didier Bruere-dawson</t>
+  </si>
+  <si>
+    <t>didier.bruere-dawson@bclplaw.com</t>
+  </si>
+  <si>
+    <t>330144177633</t>
+  </si>
+  <si>
+    <t>https://www.bclplaw.com/en-US/people/didier-bruere-dawson.html</t>
+  </si>
+  <si>
+    <t>Anna Palmérus</t>
+  </si>
+  <si>
+    <t>anna.palmerus@vinge.se</t>
+  </si>
+  <si>
+    <t>460106141513</t>
+  </si>
+  <si>
+    <t>https://www.vinge.se/en/our-people/anna-palmerus/</t>
+  </si>
+  <si>
+    <t>Managing Partner</t>
+  </si>
+  <si>
+    <t>Vinge</t>
+  </si>
+  <si>
+    <t>Juliana Kovac</t>
+  </si>
+  <si>
+    <t>kovac@flichy.com</t>
+  </si>
+  <si>
+    <t>330156623000</t>
+  </si>
+  <si>
+    <t>https://www.flichygrange.com/juliana-kovac.htm</t>
+  </si>
+  <si>
+    <t>FLICHY GRANGÉ</t>
+  </si>
+  <si>
+    <t>Juli Mansnérus</t>
+  </si>
+  <si>
+    <t>juli.mansnerus@dittmar.fi</t>
+  </si>
+  <si>
+    <t>358442724727</t>
+  </si>
+  <si>
+    <t>https://www.dittmar.fi/people/juli-mansnerus/</t>
+  </si>
+  <si>
+    <t>Dittmar And Indrenius</t>
+  </si>
+  <si>
+    <t>Mag Stefan Gaug (manchester)</t>
+  </si>
+  <si>
+    <t>stefan.gaug@bpv-huegel.com</t>
+  </si>
+  <si>
+    <t>431260500</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>https://www.bpv-huegel.com/en/jurist/mag-stefan-gaug-ll-m-manchester/</t>
+  </si>
+  <si>
+    <t>Hügel</t>
+  </si>
+  <si>
+    <t>Jan Brölmann</t>
+  </si>
+  <si>
+    <t>j.brolmann@habrakenrutten.com</t>
+  </si>
+  <si>
+    <t>310647043567</t>
+  </si>
+  <si>
+    <t>https://www.habrakenrutten.com/team/jan-brolmann</t>
+  </si>
+  <si>
+    <t>Habraken Rutten</t>
+  </si>
+  <si>
+    <t>Parul Anand</t>
+  </si>
+  <si>
+    <t>parul.anand@bdo.co.uk</t>
+  </si>
+  <si>
+    <t>7503668800</t>
+  </si>
+  <si>
+    <t>https://www.bdo.co.uk/en-gb/our-people/parul-anand</t>
+  </si>
+  <si>
+    <t>BDO</t>
+  </si>
+  <si>
+    <t>David Serras Pereira</t>
+  </si>
+  <si>
+    <t>dserraspereira@jgsa.pt</t>
+  </si>
+  <si>
+    <t>351213812690</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Intellectual Property (PTO, Trademarks, Patents, Copyrights)</t>
+  </si>
+  <si>
+    <t>https://www.jgsa.pt/en/team/David-Serras-Pereira/41/#!detail</t>
+  </si>
+  <si>
+    <t>JGSA</t>
+  </si>
+  <si>
+    <t>Véronique Dahan</t>
+  </si>
+  <si>
+    <t>vdahan@joffeassocies.com</t>
+  </si>
+  <si>
+    <t>330143182030</t>
+  </si>
+  <si>
+    <t>https://www.joffeassocies.com/en/avocat/veronique-dahan/</t>
+  </si>
+  <si>
+    <t>Joffe &amp; Associés</t>
+  </si>
+  <si>
+    <t>Marianne Rytter</t>
+  </si>
+  <si>
+    <t>marianne.rytter@legalis.no</t>
+  </si>
+  <si>
+    <t>22402325</t>
+  </si>
+  <si>
+    <t>https://legalis.no/advokater/marianne-rytter</t>
+  </si>
+  <si>
+    <t>Legalis</t>
+  </si>
+  <si>
+    <t>Jonas Rubien</t>
+  </si>
+  <si>
+    <t>jor@patrade-legal.dk</t>
+  </si>
+  <si>
+    <t>4589309731</t>
+  </si>
+  <si>
+    <t>https://www.patrade.com/contact/jonas-rubien</t>
+  </si>
+  <si>
+    <t>Arnesen IP</t>
+  </si>
+  <si>
+    <t>Michael Beck</t>
+  </si>
+  <si>
+    <t>michael.beck@walkersglobal.com</t>
+  </si>
+  <si>
+    <t>13459144248</t>
+  </si>
+  <si>
+    <t>https://www.walkersglobal.com/en/People/b/Beck-Michael</t>
+  </si>
+  <si>
+    <t>Walkers</t>
+  </si>
+  <si>
+    <t>Jamie Bookless</t>
+  </si>
+  <si>
+    <t>jamie.bookless@walkersglobal.com</t>
+  </si>
+  <si>
+    <t>4401481748926</t>
+  </si>
+  <si>
+    <t>Guernsey</t>
+  </si>
+  <si>
+    <t>https://www.walkersglobal.com/en/People/b/Bookless-Jamie</t>
+  </si>
+  <si>
+    <t>Joshua Bradbury</t>
+  </si>
+  <si>
+    <t>joshua.bradbury@walkersglobal.com</t>
+  </si>
+  <si>
+    <t>14412421563</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>https://www.walkersglobal.com/en/People/b/Bradbury-Joshua</t>
+  </si>
+  <si>
+    <t>Susan Bartlett</t>
+  </si>
+  <si>
+    <t>susan.bartlett@blakemorgan.co.uk</t>
+  </si>
+  <si>
+    <t>2380857356</t>
+  </si>
+  <si>
+    <t>https://www.blakemorgan.co.uk/people/susan-bartlett/</t>
+  </si>
+  <si>
+    <t>Blake Morgan</t>
+  </si>
+  <si>
+    <t>Björn Andersson</t>
+  </si>
+  <si>
+    <t>bjorn.andersson@bodstrom.se</t>
+  </si>
+  <si>
+    <t>103300033</t>
+  </si>
+  <si>
+    <t>https://www.bodstrom.se/medarbetare/</t>
+  </si>
+  <si>
+    <t>Thomas Bodström</t>
+  </si>
+  <si>
+    <t>Ane Gjøystdal</t>
+  </si>
+  <si>
+    <t>agj@clp.no</t>
+  </si>
+  <si>
+    <t>4722877100</t>
+  </si>
+  <si>
+    <t>https://www.clp.no/en/people/ane-gjoystdal</t>
+  </si>
+  <si>
+    <t>CLP Law</t>
+  </si>
+  <si>
+    <t>Arnout Groen</t>
+  </si>
+  <si>
+    <t>arnout@acr.amsterdam</t>
+  </si>
+  <si>
+    <t>31205224420</t>
+  </si>
+  <si>
+    <t>https://acr.amsterdam/en/people/arnout-groen</t>
+  </si>
+  <si>
+    <t>AC&amp;R</t>
+  </si>
+  <si>
+    <t>Piotr Kochański Senior Managing Partner</t>
+  </si>
+  <si>
+    <t>p.kochanski@kochanski.pl</t>
+  </si>
+  <si>
+    <t>48223269600</t>
+  </si>
+  <si>
+    <t>https://www.kochanski.pl/en/piotr-kochanski-2/</t>
+  </si>
+  <si>
+    <t>Kochański &amp; Partners</t>
+  </si>
+  <si>
+    <t>Richard Gibbs</t>
+  </si>
+  <si>
+    <t>rgibbs@marks-clerk.com</t>
+  </si>
+  <si>
+    <t>441412215767</t>
+  </si>
+  <si>
+    <t>Scotland</t>
+  </si>
+  <si>
+    <t>https://www.marks-clerk.com/our-people/richard-gibbs/</t>
+  </si>
+  <si>
+    <t>Marks &amp; Clerk</t>
+  </si>
+  <si>
+    <t>Reinder Van Dijk Partner</t>
+  </si>
+  <si>
+    <t>reinder@oxera.com</t>
+  </si>
+  <si>
+    <t>4402077766600</t>
+  </si>
+  <si>
+    <t>Not Found</t>
+  </si>
+  <si>
+    <t>https://www.oxera.com/people/reinder-van-dijk/</t>
+  </si>
+  <si>
+    <t>Oxera</t>
+  </si>
+  <si>
+    <t>Shane Dorney Principal And Head Of Finance</t>
+  </si>
+  <si>
+    <t>shane.dorney@oxera.com</t>
+  </si>
+  <si>
+    <t>4401865253219</t>
+  </si>
+  <si>
+    <t>https://www.oxera.com/people/shane-dorney/</t>
+  </si>
+  <si>
+    <t>Principal</t>
+  </si>
+  <si>
+    <t>Abril Gascón</t>
+  </si>
+  <si>
+    <t>agascon@broseta.com</t>
+  </si>
+  <si>
+    <t>34914323144</t>
+  </si>
+  <si>
+    <t>https://www.broseta.com/en/profesional/abril-gascon-2/</t>
+  </si>
+  <si>
+    <t>Broseta</t>
+  </si>
+  <si>
+    <t>Sylvina Beleva</t>
+  </si>
+  <si>
+    <t>sylvina.beleva@dpc.bg</t>
+  </si>
+  <si>
+    <t>35924214201</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>https://www.dpc.bg/team-members/sylvina-beleva</t>
+  </si>
+  <si>
+    <t>Dimitrov Petrov &amp; Co</t>
+  </si>
+  <si>
+    <t>Thomas Liebscher</t>
+  </si>
+  <si>
+    <t>thomas.liebscher@sza.de</t>
+  </si>
+  <si>
+    <t>4962142570</t>
+  </si>
+  <si>
+    <t>corporate ﻿﻿m&amp;a﻿﻿litigation &amp; arbitration﻿﻿</t>
+  </si>
+  <si>
+    <t>https://www.sza.de/en/professionals/prof-dr-thomas-liebscher</t>
+  </si>
+  <si>
+    <t>SZA</t>
+  </si>
+  <si>
+    <t>Ricardo Alonso</t>
+  </si>
+  <si>
+    <t>r.alonso@ga-p.com</t>
+  </si>
+  <si>
+    <t>34915829100</t>
+  </si>
+  <si>
+    <t>mailto:r.alonso@ga-p.com</t>
+  </si>
+  <si>
+    <t>Gomez Acebo And Pombo</t>
+  </si>
+  <si>
+    <t>Gemma Badger</t>
+  </si>
+  <si>
+    <t>gemma.badger@hilldickinson.com</t>
+  </si>
+  <si>
+    <t>244280291134877959</t>
+  </si>
+  <si>
+    <t>https://www.hilldickinson.com/people/gemma-badger</t>
+  </si>
+  <si>
+    <t>Hill Dickinson</t>
+  </si>
+  <si>
+    <t>Kleopatra Diamanti</t>
+  </si>
+  <si>
+    <t>kleopatra.diamanti@hilldickinson.com</t>
+  </si>
+  <si>
+    <t>2302104284770</t>
+  </si>
+  <si>
+    <t>https://www.hilldickinson.com/people/kleopatra-diamanti</t>
+  </si>
+  <si>
+    <t>Rpc Legal</t>
+  </si>
+  <si>
+    <t>oliver.bray@rpclegal.com</t>
+  </si>
+  <si>
+    <t>442030606277</t>
+  </si>
+  <si>
+    <t>https://www.rpclegal.com/people/oliver-bray/</t>
+  </si>
+  <si>
+    <t>Senior Partner</t>
+  </si>
+  <si>
+    <t>RPC Legal</t>
+  </si>
+  <si>
+    <t>Guillaume Brajeux Partner</t>
+  </si>
+  <si>
+    <t>guillaume.brajeux@hfw.com</t>
+  </si>
+  <si>
+    <t>33144944050</t>
+  </si>
+  <si>
+    <t>https://www.hfw.com/people/guillaume-brajeux/</t>
+  </si>
+  <si>
+    <t>HFW</t>
+  </si>
+  <si>
+    <t>Michael Buisset Partner</t>
+  </si>
+  <si>
+    <t>michael.buisset@hfw.com</t>
+  </si>
+  <si>
+    <t>410223224801</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>https://www.hfw.com/people/michael-buisset/</t>
+  </si>
+  <si>
+    <t>Aileen Camacho Vallejo Partner</t>
+  </si>
+  <si>
+    <t>aileen.camacho@hfw.com</t>
+  </si>
+  <si>
+    <t>17137064909</t>
+  </si>
+  <si>
+    <t>https://www.hfw.com/people/aileen-camacho-vallejo/</t>
+  </si>
+  <si>
+    <t>Amy Tagoe</t>
+  </si>
+  <si>
+    <t>amytagoe@msbsolicitors.co.uk</t>
+  </si>
+  <si>
+    <t>1518297791</t>
+  </si>
+  <si>
+    <t>Employment</t>
+  </si>
+  <si>
+    <t>https://www.msbsolicitors.co.uk/our-people/amy-tagoe</t>
+  </si>
+  <si>
+    <t>MSB Solicitors</t>
+  </si>
+  <si>
+    <t>Benoit Forêt</t>
+  </si>
+  <si>
+    <t>bfo@astrealaw.be</t>
+  </si>
+  <si>
+    <t>23232871103</t>
+  </si>
+  <si>
+    <t>https://www.astrealaw.be/en/team/benoit-foret</t>
+  </si>
+  <si>
+    <t>Astrea</t>
+  </si>
+  <si>
+    <t>David A Cameron (retired)</t>
+  </si>
+  <si>
+    <t>dcameron@bwbllp.ca</t>
+  </si>
+  <si>
+    <t>9024288390</t>
+  </si>
+  <si>
+    <t>https://bwbllp.ca/lawyer/david-cameron-retired</t>
+  </si>
+  <si>
+    <t>BWB LLP</t>
+  </si>
+  <si>
+    <t>Jesús Sánchez Ugarte</t>
+  </si>
+  <si>
+    <t>jsanchez@ksa.mx</t>
+  </si>
+  <si>
+    <t>525552925930</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Foreign Investment</t>
+  </si>
+  <si>
+    <t>https://ksa.mx/en/team/socios/jesus-sanchez</t>
+  </si>
+  <si>
+    <t>Kuri Breña</t>
+  </si>
+  <si>
+    <t>Philippe Rignault</t>
+  </si>
+  <si>
+    <t>prignault@delcade.fr</t>
+  </si>
+  <si>
+    <t>330175431856</t>
+  </si>
+  <si>
+    <t>https://www.delcade.com/equipe/philippe-rignault-2/</t>
+  </si>
+  <si>
+    <t>Delcade</t>
+  </si>
+  <si>
+    <t>Filip Čabart</t>
+  </si>
+  <si>
+    <t>filip.cabart@havelpartners.cz</t>
   </si>
   <si>
     <t>the Czech Republic</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>https://www.peterkapartners.com/en/localteams/all/</t>
-  </si>
-  <si>
-    <t>Karine Frois</t>
-  </si>
-  <si>
-    <t>Legal</t>
-  </si>
-  <si>
-    <t>Partner</t>
-  </si>
-  <si>
-    <t>Peterka And Partners</t>
-  </si>
-  <si>
-    <t>Jernej Jeraj</t>
-  </si>
-  <si>
-    <t>jernej.jeraj@pfp.law</t>
-  </si>
-  <si>
-    <t>38682052111</t>
-  </si>
-  <si>
-    <t>Slovenia</t>
-  </si>
-  <si>
-    <t>Corporate / M&amp;A, Commercial , Insolvency  and Restructuring, Employment , Real Estate and Construction</t>
-  </si>
-  <si>
-    <t>https://pfp.law/team/</t>
-  </si>
-  <si>
-    <t>PFP Law</t>
-  </si>
-  <si>
-    <t>Tomaž Petrovič</t>
-  </si>
-  <si>
-    <t>tomaz.petrovic@pfp.law</t>
-  </si>
-  <si>
-    <t>Corporate / M&amp;A, Commercial , Real Estate and Construction , PPP and Public Procurement, Dispute Resolution, Competition</t>
-  </si>
-  <si>
-    <t>Ivan Markov</t>
-  </si>
-  <si>
-    <t>ivan.markov@penkov-markov.eu</t>
-  </si>
-  <si>
-    <t>359029713935</t>
-  </si>
-  <si>
-    <t>Bulgaria</t>
-  </si>
-  <si>
-    <t>https://penkov-markov.eu/en/team/member/ivan-markov</t>
-  </si>
-  <si>
-    <t>PM&amp;P</t>
-  </si>
-  <si>
-    <t>Bogdan C Stoica</t>
-  </si>
-  <si>
-    <t>bogdan.stoica@pnsa.ro</t>
-  </si>
-  <si>
-    <t>40213177919</t>
+    <t>https://www.havelpartners.com/team/filip-cabart/</t>
+  </si>
+  <si>
+    <t>Havel Partners</t>
+  </si>
+  <si>
+    <t>Colette Brady</t>
+  </si>
+  <si>
+    <t>colette.brady@williamfry.com</t>
+  </si>
+  <si>
+    <t>35314896516</t>
+  </si>
+  <si>
+    <t>https://www.williamfry.com/people/colette-brady/</t>
+  </si>
+  <si>
+    <t>William Fry</t>
+  </si>
+  <si>
+    <t>Aisling O’gorman</t>
+  </si>
+  <si>
+    <t>aisling.ogorman@williamfry.com</t>
+  </si>
+  <si>
+    <t>35316395167</t>
+  </si>
+  <si>
+    <t>https://www.williamfry.com/people/aisling-ogorman/</t>
+  </si>
+  <si>
+    <t>Kate L Agyemang</t>
+  </si>
+  <si>
+    <t>kagyemang@blg.com</t>
+  </si>
+  <si>
+    <t>6137873555</t>
+  </si>
+  <si>
+    <t>https://www.blg.com/en/people/a/agyemang-kate</t>
+  </si>
+  <si>
+    <t>BLG Law</t>
+  </si>
+  <si>
+    <t>Dominik Stella</t>
+  </si>
+  <si>
+    <t>dominik.stella@schindlerattorneys.com</t>
+  </si>
+  <si>
+    <t>4315122613400</t>
+  </si>
+  <si>
+    <t>Employment and Labor  | Pensions &amp; Benefits | Litigation | Data Protection</t>
+  </si>
+  <si>
+    <t>https://www.schindlerattorneys.com/en/team/mag-dominik-stella-counsel/</t>
+  </si>
+  <si>
+    <t>Schindler Attorneys</t>
+  </si>
+  <si>
+    <t>Richard G Sharman</t>
+  </si>
+  <si>
+    <t>richard.sharman@hklaw.com</t>
+  </si>
+  <si>
+    <t>442070719913</t>
+  </si>
+  <si>
+    <t>https://www.hklaw.com/en/professionals/s/sharman-richard</t>
+  </si>
+  <si>
+    <t>Holland And Knight</t>
+  </si>
+  <si>
+    <t>Mercedes Barcena</t>
+  </si>
+  <si>
+    <t>mercedes.barcena@hklaw.com</t>
+  </si>
+  <si>
+    <t>525536028079</t>
+  </si>
+  <si>
+    <t>https://www.hklaw.com/en/professionals/b/barcena-mercedes</t>
+  </si>
+  <si>
+    <t>Advisor</t>
+  </si>
+  <si>
+    <t>Guy Hollingworth</t>
+  </si>
+  <si>
+    <t>ghollingworth@oeclaw.co.uk</t>
+  </si>
+  <si>
+    <t>4402075832000</t>
+  </si>
+  <si>
+    <t>Mediation</t>
+  </si>
+  <si>
+    <t>https://www.oeclaw.co.uk/barristers/profile/guy-hollingworth</t>
+  </si>
+  <si>
+    <t>Mediator</t>
+  </si>
+  <si>
+    <t>One Essex Court</t>
+  </si>
+  <si>
+    <t>Edit Földvári</t>
+  </si>
+  <si>
+    <t>foldvari@sbgk.hu</t>
+  </si>
+  <si>
+    <t>3614611000</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>https://sbgk.hu/en/staff/szabadalmi-ugyvivok/edit-f%C3%B6ldv%C3%A1ri</t>
+  </si>
+  <si>
+    <t>SBGK</t>
+  </si>
+  <si>
+    <t>Joe Cleary</t>
+  </si>
+  <si>
+    <t>jcleary@rbk.ie</t>
+  </si>
+  <si>
+    <t>3532090206480600</t>
+  </si>
+  <si>
+    <t>https://www.rbk.ie/about/our-team/joe-cleary</t>
+  </si>
+  <si>
+    <t>RBK</t>
+  </si>
+  <si>
+    <t>Emad El Shalakany</t>
+  </si>
+  <si>
+    <t>ess@shalakany.com</t>
+  </si>
+  <si>
+    <t>20227288888</t>
+  </si>
+  <si>
+    <t>https://shalakany.com/people/emad-el-shalakany/</t>
+  </si>
+  <si>
+    <t>Shalakany</t>
+  </si>
+  <si>
+    <t>Danilo Narvaez</t>
+  </si>
+  <si>
+    <t>narvaez@vaneps.com</t>
+  </si>
+  <si>
+    <t>59994613400155</t>
+  </si>
+  <si>
+    <t>Curaçao</t>
+  </si>
+  <si>
+    <t>Insolvency &amp; Restructuring Corporate/M&amp;A Corporate &amp; Commercial Dispute Resolution</t>
+  </si>
+  <si>
+    <t>https://www.vaneps.com/people/danilo-narvaez-2/</t>
+  </si>
+  <si>
+    <t>Vaneps</t>
+  </si>
+  <si>
+    <t>Adnan Vejzovic</t>
+  </si>
+  <si>
+    <t>advej@bahr.no</t>
+  </si>
+  <si>
+    <t>4790555064</t>
+  </si>
+  <si>
+    <t>https://bahr.no/people/adnan-vejzovic</t>
+  </si>
+  <si>
+    <t>BAHR</t>
+  </si>
+  <si>
+    <t>Carmen Bănățeanu</t>
+  </si>
+  <si>
+    <t>c.banateanu@rmlegal.ro</t>
+  </si>
+  <si>
+    <t>40723530413</t>
   </si>
   <si>
     <t>Romania</t>
   </si>
   <si>
-    <t>https://pnsa.ro/team/partn/Bogdan_Stoica.asp</t>
-  </si>
-  <si>
-    <t>Popovici Niţu StoicaAndAsociaţii</t>
-  </si>
-  <si>
-    <t>Kazimierz Gródek</t>
-  </si>
-  <si>
-    <t>kgrodek@porwisz.pl</t>
-  </si>
-  <si>
-    <t>48122933600</t>
-  </si>
-  <si>
-    <t>Poland</t>
-  </si>
-  <si>
-    <t>https://porwisz.pl/en/our-team/partners/kazimierz-grodek</t>
-  </si>
-  <si>
-    <t>Porwisz and Partners</t>
-  </si>
-  <si>
-    <t>Danica Gligorijević</t>
-  </si>
-  <si>
-    <t>dgligorijevic@pricapartners.com</t>
-  </si>
-  <si>
-    <t>381113031885</t>
-  </si>
-  <si>
-    <t>Serbia</t>
-  </si>
-  <si>
-    <t>https://pricapartners.com/people/danica-gligorijevic/</t>
-  </si>
-  <si>
-    <t>PricaAndPartners</t>
-  </si>
-  <si>
-    <t>Mihajlo Prica</t>
-  </si>
-  <si>
-    <t>mprica@pricapartners.com</t>
-  </si>
-  <si>
-    <t>https://pricapartners.com/people/mihajlo-prica/</t>
-  </si>
-  <si>
-    <t>Mihai Rădulescu</t>
-  </si>
-  <si>
-    <t>m.radulescu@rmlegal.ro</t>
-  </si>
-  <si>
-    <t>40212339446</t>
-  </si>
-  <si>
-    <t>http://radulescu-musoi.ro/profile-mihai-radulescu/</t>
-  </si>
-  <si>
-    <t>Senior Partner</t>
+    <t>http://radulescu-musoi.ro/profile-carmen-banateanu/</t>
   </si>
   <si>
     <t>Rădulescu And Mușoi</t>
+  </si>
+  <si>
+    <t>Shir Arviv</t>
+  </si>
+  <si>
+    <t>shirar@gornitzky.com</t>
+  </si>
+  <si>
+    <t>97237109191</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>White Collar Crime</t>
+  </si>
+  <si>
+    <t>https://www.gornitzky.com/attorneys/shir-arviv/</t>
+  </si>
+  <si>
+    <t>Mediator, Associate</t>
+  </si>
+  <si>
+    <t>Gornitzky And Co</t>
+  </si>
+  <si>
+    <t>Unity Sakhe</t>
+  </si>
+  <si>
+    <t>unity@kantorimmerman.co.zw</t>
+  </si>
+  <si>
+    <t>2638677004581</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>https://kantorimmerman.co.zw/partners/</t>
+  </si>
+  <si>
+    <t>Kantor &amp; Immerman</t>
+  </si>
+  <si>
+    <t>Daniel O Connor</t>
+  </si>
+  <si>
+    <t>daniel.oconnor@careyolsen.com</t>
+  </si>
+  <si>
+    <t>4401534822249</t>
+  </si>
+  <si>
+    <t>https://www.careyolsen.com/people/daniel-oconnor</t>
+  </si>
+  <si>
+    <t>Carey Olsen</t>
+  </si>
+  <si>
+    <t>Denis Olarou</t>
+  </si>
+  <si>
+    <t>denis.olarou@careyolsen.com</t>
+  </si>
+  <si>
+    <t>13457492031</t>
+  </si>
+  <si>
+    <t>https://www.careyolsen.com/people/denis-olarou</t>
+  </si>
+  <si>
+    <t>Sam Stevens</t>
+  </si>
+  <si>
+    <t>sam.stevens@careyolsen.com</t>
+  </si>
+  <si>
+    <t>14415424523</t>
+  </si>
+  <si>
+    <t>https://www.careyolsen.com/people/sam-stevens</t>
+  </si>
+  <si>
+    <t>Grzegorz Patek</t>
+  </si>
+  <si>
+    <t>grzegorz.patek@kondrat.pl</t>
+  </si>
+  <si>
+    <t>48228321234</t>
+  </si>
+  <si>
+    <t>https://kondrat.pl/en/essential_grid/grzegorz-patek-en/</t>
+  </si>
+  <si>
+    <t>ATTORNEY-AT-LAW, TAX ADVISER</t>
+  </si>
+  <si>
+    <t>Kondrat</t>
+  </si>
+  <si>
+    <t>Felix Blobel</t>
+  </si>
+  <si>
+    <t>felix.blobel@noerr.com</t>
+  </si>
+  <si>
+    <t>493020942163</t>
+  </si>
+  <si>
+    <t>Private Equity &amp; Venture Capital</t>
+  </si>
+  <si>
+    <t>https://www.noerr.com/en/professionals/blobel-felix</t>
+  </si>
+  <si>
+    <t>Noerr</t>
+  </si>
+  <si>
+    <t>Randeep Bubbra</t>
+  </si>
+  <si>
+    <t>rbubbra@wfw.com</t>
+  </si>
+  <si>
+    <t>442071552833</t>
+  </si>
+  <si>
+    <t>https://www.wfw.com/people/randeep-bubbra/</t>
+  </si>
+  <si>
+    <t>Watson Farley And Williams</t>
+  </si>
+  <si>
+    <t>Laura Cadenas</t>
+  </si>
+  <si>
+    <t>lcadenas@wfw.com</t>
+  </si>
+  <si>
+    <t>34915156306</t>
+  </si>
+  <si>
+    <t>https://www.wfw.com/people/laura-cadenas-zamora/</t>
+  </si>
+  <si>
+    <t>Jörn Fingerhuth</t>
+  </si>
+  <si>
+    <t>jfingerhuth@wfw.com</t>
+  </si>
+  <si>
+    <t>4989237086108</t>
+  </si>
+  <si>
+    <t>https://www.wfw.com/people/jorn-fingerhuth/</t>
   </si>
 </sst>
 </file>
@@ -1368,10 +2913,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="A2:J256"/>
+      <selection activeCell="A2" sqref="A2:J160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1410,34 +2955,3330 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>14</v>
       </c>
       <c r="F2" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="J4" t="s" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J5" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J6" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="J7" t="s" s="0">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="J8" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="G2" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s" s="0">
+      <c r="B9" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="J2" t="s" s="0">
+      <c r="C9" t="s" s="0">
         <v>62</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="J9" t="s" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J10" t="s" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H11" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J11" t="s" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="G12" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H12" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I12" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J12" t="s" s="0">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="F13" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="G13" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I13" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="J13" t="s" s="0">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="G14" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H14" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I14" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J14" t="s" s="0">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="F15" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="G15" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H15" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I15" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="J15" t="s" s="0">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="F16" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="G16" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H16" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I16" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J16" t="s" s="0">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F17" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="G17" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H17" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I17" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="J17" t="s" s="0">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="F18" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="G18" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H18" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I18" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J18" t="s" s="0">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="F19" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="G19" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H19" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I19" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="J19" t="s" s="0">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="F20" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="G20" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H20" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I20" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="J20" t="s" s="0">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="F21" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="G21" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H21" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I21" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="J21" t="s" s="0">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F22" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="G22" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H22" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I22" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J22" t="s" s="0">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F23" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="G23" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H23" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I23" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="J23" t="s" s="0">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="E24" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F24" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="G24" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H24" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I24" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="J24" t="s" s="0">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F25" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="G25" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H25" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I25" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J25" t="s" s="0">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="E26" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F26" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="G26" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H26" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I26" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="J26" t="s" s="0">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="E27" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F27" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="G27" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H27" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I27" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J27" t="s" s="0">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D28" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="E28" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F28" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="G28" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H28" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I28" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="J28" t="s" s="0">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="E29" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F29" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="G29" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H29" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I29" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J29" t="s" s="0">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="D30" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="E30" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F30" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="G30" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H30" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I30" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="J30" t="s" s="0">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="D31" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="E31" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F31" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="G31" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H31" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I31" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="J31" t="s" s="0">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="D32" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="E32" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F32" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="G32" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H32" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I32" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J32" t="s" s="0">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="D33" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="E33" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="F33" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="G33" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H33" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I33" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J33" t="s" s="0">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="D34" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E34" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F34" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="G34" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H34" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I34" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J34" t="s" s="0">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="D35" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="E35" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F35" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="G35" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H35" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I35" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J35" t="s" s="0">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="D36" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="E36" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F36" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="G36" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H36" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I36" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="J36" t="s" s="0">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>217</v>
+      </c>
+      <c r="D37" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="E37" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F37" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="G37" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H37" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I37" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="J37" t="s" s="0">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="D38" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="E38" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F38" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="G38" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H38" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I38" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="J38" t="s" s="0">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="D39" t="s" s="0">
+        <v>227</v>
+      </c>
+      <c r="E39" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="F39" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="G39" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H39" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I39" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J39" t="s" s="0">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="D40" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="E40" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="F40" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="G40" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H40" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I40" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J40" t="s" s="0">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>237</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>239</v>
+      </c>
+      <c r="D41" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="E41" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F41" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="G41" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H41" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I41" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J41" t="s" s="0">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="D42" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="E42" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F42" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="G42" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H42" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I42" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J42" t="s" s="0">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>248</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="D43" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E43" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F43" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="G43" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H43" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I43" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J43" t="s" s="0">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>253</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="D44" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="E44" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F44" t="s" s="0">
+        <v>255</v>
+      </c>
+      <c r="G44" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H44" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I44" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J44" t="s" s="0">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>256</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>257</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>258</v>
+      </c>
+      <c r="D45" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="E45" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F45" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="G45" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H45" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I45" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J45" t="s" s="0">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>262</v>
+      </c>
+      <c r="D46" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="E46" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F46" t="s" s="0">
+        <v>263</v>
+      </c>
+      <c r="G46" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H46" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I46" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="J46" t="s" s="0">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>266</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>267</v>
+      </c>
+      <c r="C47" t="s" s="0">
+        <v>268</v>
+      </c>
+      <c r="D47" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="E47" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F47" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="G47" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H47" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I47" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J47" t="s" s="0">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>271</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="C48" t="s" s="0">
+        <v>273</v>
+      </c>
+      <c r="D48" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="E48" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F48" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="G48" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H48" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I48" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J48" t="s" s="0">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>276</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>277</v>
+      </c>
+      <c r="C49" t="s" s="0">
+        <v>278</v>
+      </c>
+      <c r="D49" t="s" s="0">
+        <v>279</v>
+      </c>
+      <c r="E49" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F49" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="G49" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H49" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I49" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J49" t="s" s="0">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>283</v>
+      </c>
+      <c r="C50" t="s" s="0">
+        <v>284</v>
+      </c>
+      <c r="D50" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="E50" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F50" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="G50" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H50" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I50" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J50" t="s" s="0">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>287</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>288</v>
+      </c>
+      <c r="C51" t="s" s="0">
+        <v>289</v>
+      </c>
+      <c r="D51" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E51" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="F51" t="s" s="0">
+        <v>290</v>
+      </c>
+      <c r="G51" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H51" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I51" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J51" t="s" s="0">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="C52" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="D52" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="E52" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="F52" t="s" s="0">
+        <v>297</v>
+      </c>
+      <c r="G52" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H52" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I52" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="J52" t="s" s="0">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>299</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="C53" t="s" s="0">
+        <v>301</v>
+      </c>
+      <c r="D53" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="E53" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F53" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="G53" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H53" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I53" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J53" t="s" s="0">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>305</v>
+      </c>
+      <c r="C54" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="D54" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="E54" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F54" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="G54" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H54" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I54" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J54" t="s" s="0">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="C55" t="s" s="0">
+        <v>311</v>
+      </c>
+      <c r="D55" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="E55" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F55" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="G55" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H55" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I55" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J55" t="s" s="0">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>314</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>315</v>
+      </c>
+      <c r="C56" t="s" s="0">
+        <v>316</v>
+      </c>
+      <c r="D56" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="E56" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F56" t="s" s="0">
+        <v>317</v>
+      </c>
+      <c r="G56" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H56" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I56" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="J56" t="s" s="0">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>319</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>320</v>
+      </c>
+      <c r="C57" t="s" s="0">
+        <v>321</v>
+      </c>
+      <c r="D57" t="s" s="0">
+        <v>322</v>
+      </c>
+      <c r="E57" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F57" t="s" s="0">
+        <v>323</v>
+      </c>
+      <c r="G57" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H57" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I57" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J57" t="s" s="0">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>325</v>
+      </c>
+      <c r="C58" t="s" s="0">
+        <v>326</v>
+      </c>
+      <c r="D58" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="E58" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F58" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="G58" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H58" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I58" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="J58" t="s" s="0">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>329</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>330</v>
+      </c>
+      <c r="C59" t="s" s="0">
+        <v>331</v>
+      </c>
+      <c r="D59" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E59" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F59" t="s" s="0">
+        <v>332</v>
+      </c>
+      <c r="G59" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H59" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I59" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="J59" t="s" s="0">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>334</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>335</v>
+      </c>
+      <c r="C60" t="s" s="0">
+        <v>336</v>
+      </c>
+      <c r="D60" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="E60" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F60" t="s" s="0">
+        <v>337</v>
+      </c>
+      <c r="G60" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H60" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I60" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J60" t="s" s="0">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>339</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>340</v>
+      </c>
+      <c r="C61" t="s" s="0">
+        <v>341</v>
+      </c>
+      <c r="D61" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="E61" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F61" t="s" s="0">
+        <v>342</v>
+      </c>
+      <c r="G61" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H61" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I61" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="J61" t="s" s="0">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>344</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>345</v>
+      </c>
+      <c r="C62" t="s" s="0">
+        <v>346</v>
+      </c>
+      <c r="D62" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="E62" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F62" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="G62" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H62" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I62" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J62" t="s" s="0">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>349</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>350</v>
+      </c>
+      <c r="C63" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="D63" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="E63" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F63" t="s" s="0">
+        <v>352</v>
+      </c>
+      <c r="G63" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H63" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I63" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="J63" t="s" s="0">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>354</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>355</v>
+      </c>
+      <c r="C64" t="s" s="0">
+        <v>356</v>
+      </c>
+      <c r="D64" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="E64" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="F64" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="G64" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H64" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I64" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J64" t="s" s="0">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>360</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>361</v>
+      </c>
+      <c r="C65" t="s" s="0">
+        <v>362</v>
+      </c>
+      <c r="D65" t="s" s="0">
+        <v>363</v>
+      </c>
+      <c r="E65" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F65" t="s" s="0">
+        <v>364</v>
+      </c>
+      <c r="G65" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H65" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I65" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J65" t="s" s="0">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>366</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>367</v>
+      </c>
+      <c r="C66" t="s" s="0">
+        <v>368</v>
+      </c>
+      <c r="D66" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E66" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F66" t="s" s="0">
+        <v>369</v>
+      </c>
+      <c r="G66" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H66" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I66" t="s" s="0">
+        <v>370</v>
+      </c>
+      <c r="J66" t="s" s="0">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>371</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>372</v>
+      </c>
+      <c r="C67" t="s" s="0">
+        <v>373</v>
+      </c>
+      <c r="D67" t="s" s="0">
+        <v>227</v>
+      </c>
+      <c r="E67" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F67" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="G67" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H67" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I67" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="J67" t="s" s="0">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>376</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>377</v>
+      </c>
+      <c r="C68" t="s" s="0">
+        <v>378</v>
+      </c>
+      <c r="D68" t="s" s="0">
+        <v>379</v>
+      </c>
+      <c r="E68" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F68" t="s" s="0">
+        <v>380</v>
+      </c>
+      <c r="G68" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H68" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I68" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="J68" t="s" s="0">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>382</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>383</v>
+      </c>
+      <c r="C69" t="s" s="0">
+        <v>384</v>
+      </c>
+      <c r="D69" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="E69" t="s" s="0">
+        <v>385</v>
+      </c>
+      <c r="F69" t="s" s="0">
+        <v>386</v>
+      </c>
+      <c r="G69" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H69" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I69" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J69" t="s" s="0">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="C70" t="s" s="0">
+        <v>390</v>
+      </c>
+      <c r="D70" t="s" s="0">
+        <v>227</v>
+      </c>
+      <c r="E70" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F70" t="s" s="0">
+        <v>391</v>
+      </c>
+      <c r="G70" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H70" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I70" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="J70" t="s" s="0">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>393</v>
+      </c>
+      <c r="B71" t="s" s="0">
+        <v>394</v>
+      </c>
+      <c r="C71" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="D71" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E71" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F71" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="G71" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H71" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I71" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="J71" t="s" s="0">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="B72" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="C72" t="s" s="0">
+        <v>400</v>
+      </c>
+      <c r="D72" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="E72" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F72" t="s" s="0">
+        <v>401</v>
+      </c>
+      <c r="G72" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H72" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I72" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="J72" t="s" s="0">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="0">
+        <v>402</v>
+      </c>
+      <c r="B73" t="s" s="0">
+        <v>403</v>
+      </c>
+      <c r="C73" t="s" s="0">
+        <v>404</v>
+      </c>
+      <c r="D73" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E73" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F73" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="G73" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H73" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I73" t="s" s="0">
+        <v>406</v>
+      </c>
+      <c r="J73" t="s" s="0">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="0">
+        <v>408</v>
+      </c>
+      <c r="B74" t="s" s="0">
+        <v>409</v>
+      </c>
+      <c r="C74" t="s" s="0">
+        <v>410</v>
+      </c>
+      <c r="D74" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="E74" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F74" t="s" s="0">
+        <v>411</v>
+      </c>
+      <c r="G74" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H74" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I74" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J74" t="s" s="0">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="0">
+        <v>413</v>
+      </c>
+      <c r="B75" t="s" s="0">
+        <v>414</v>
+      </c>
+      <c r="C75" t="s" s="0">
+        <v>415</v>
+      </c>
+      <c r="D75" t="s" s="0">
+        <v>416</v>
+      </c>
+      <c r="E75" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F75" t="s" s="0">
+        <v>417</v>
+      </c>
+      <c r="G75" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H75" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I75" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J75" t="s" s="0">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="0">
+        <v>418</v>
+      </c>
+      <c r="B76" t="s" s="0">
+        <v>419</v>
+      </c>
+      <c r="C76" t="s" s="0">
+        <v>420</v>
+      </c>
+      <c r="D76" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E76" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F76" t="s" s="0">
+        <v>421</v>
+      </c>
+      <c r="G76" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H76" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I76" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J76" t="s" s="0">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="0">
+        <v>422</v>
+      </c>
+      <c r="B77" t="s" s="0">
+        <v>423</v>
+      </c>
+      <c r="C77" t="s" s="0">
+        <v>424</v>
+      </c>
+      <c r="D77" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E77" t="s" s="0">
+        <v>425</v>
+      </c>
+      <c r="F77" t="s" s="0">
+        <v>426</v>
+      </c>
+      <c r="G77" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H77" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I77" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J77" t="s" s="0">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="0">
+        <v>428</v>
+      </c>
+      <c r="B78" t="s" s="0">
+        <v>429</v>
+      </c>
+      <c r="C78" t="s" s="0">
+        <v>430</v>
+      </c>
+      <c r="D78" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="E78" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F78" t="s" s="0">
+        <v>431</v>
+      </c>
+      <c r="G78" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H78" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I78" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="J78" t="s" s="0">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="0">
+        <v>433</v>
+      </c>
+      <c r="B79" t="s" s="0">
+        <v>434</v>
+      </c>
+      <c r="C79" t="s" s="0">
+        <v>435</v>
+      </c>
+      <c r="D79" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="E79" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F79" t="s" s="0">
+        <v>436</v>
+      </c>
+      <c r="G79" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H79" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I79" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="J79" t="s" s="0">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="0">
+        <v>438</v>
+      </c>
+      <c r="B80" t="s" s="0">
+        <v>439</v>
+      </c>
+      <c r="C80" t="s" s="0">
+        <v>440</v>
+      </c>
+      <c r="D80" t="s" s="0">
+        <v>441</v>
+      </c>
+      <c r="E80" t="s" s="0">
+        <v>442</v>
+      </c>
+      <c r="F80" t="s" s="0">
+        <v>443</v>
+      </c>
+      <c r="G80" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H80" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I80" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J80" t="s" s="0">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="0">
+        <v>445</v>
+      </c>
+      <c r="B81" t="s" s="0">
+        <v>446</v>
+      </c>
+      <c r="C81" t="s" s="0">
+        <v>447</v>
+      </c>
+      <c r="D81" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="E81" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F81" t="s" s="0">
+        <v>448</v>
+      </c>
+      <c r="G81" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H81" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I81" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J81" t="s" s="0">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="0">
+        <v>450</v>
+      </c>
+      <c r="B82" t="s" s="0">
+        <v>451</v>
+      </c>
+      <c r="C82" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D82" t="s" s="0">
+        <v>452</v>
+      </c>
+      <c r="E82" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F82" t="s" s="0">
+        <v>453</v>
+      </c>
+      <c r="G82" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H82" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I82" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J82" t="s" s="0">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="0">
+        <v>455</v>
+      </c>
+      <c r="B83" t="s" s="0">
+        <v>456</v>
+      </c>
+      <c r="C83" t="s" s="0">
+        <v>457</v>
+      </c>
+      <c r="D83" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="E83" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F83" t="s" s="0">
+        <v>458</v>
+      </c>
+      <c r="G83" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H83" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I83" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J83" t="s" s="0">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="0">
+        <v>460</v>
+      </c>
+      <c r="B84" t="s" s="0">
+        <v>461</v>
+      </c>
+      <c r="C84" t="s" s="0">
+        <v>462</v>
+      </c>
+      <c r="D84" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E84" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F84" t="s" s="0">
+        <v>463</v>
+      </c>
+      <c r="G84" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H84" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I84" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J84" t="s" s="0">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="0">
+        <v>464</v>
+      </c>
+      <c r="B85" t="s" s="0">
+        <v>465</v>
+      </c>
+      <c r="C85" t="s" s="0">
+        <v>466</v>
+      </c>
+      <c r="D85" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="E85" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F85" t="s" s="0">
+        <v>467</v>
+      </c>
+      <c r="G85" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H85" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I85" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="J85" t="s" s="0">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="0">
+        <v>469</v>
+      </c>
+      <c r="B86" t="s" s="0">
+        <v>470</v>
+      </c>
+      <c r="C86" t="s" s="0">
+        <v>471</v>
+      </c>
+      <c r="D86" t="s" s="0">
+        <v>279</v>
+      </c>
+      <c r="E86" t="s" s="0">
+        <v>472</v>
+      </c>
+      <c r="F86" t="s" s="0">
+        <v>473</v>
+      </c>
+      <c r="G86" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H86" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I86" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J86" t="s" s="0">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="0">
+        <v>475</v>
+      </c>
+      <c r="B87" t="s" s="0">
+        <v>476</v>
+      </c>
+      <c r="C87" t="s" s="0">
+        <v>477</v>
+      </c>
+      <c r="D87" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E87" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F87" t="s" s="0">
+        <v>478</v>
+      </c>
+      <c r="G87" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H87" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I87" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J87" t="s" s="0">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="0">
+        <v>480</v>
+      </c>
+      <c r="B88" t="s" s="0">
+        <v>481</v>
+      </c>
+      <c r="C88" t="s" s="0">
+        <v>482</v>
+      </c>
+      <c r="D88" t="s" s="0">
+        <v>441</v>
+      </c>
+      <c r="E88" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F88" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="G88" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H88" t="s" s="0">
+        <v>484</v>
+      </c>
+      <c r="I88" t="s" s="0">
+        <v>484</v>
+      </c>
+      <c r="J88" t="s" s="0">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>485</v>
+      </c>
+      <c r="B89" t="s" s="0">
+        <v>486</v>
+      </c>
+      <c r="C89" t="s" s="0">
+        <v>487</v>
+      </c>
+      <c r="D89" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E89" t="s" s="0">
+        <v>488</v>
+      </c>
+      <c r="F89" t="s" s="0">
+        <v>489</v>
+      </c>
+      <c r="G89" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H89" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I89" t="s" s="0">
+        <v>490</v>
+      </c>
+      <c r="J89" t="s" s="0">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>492</v>
+      </c>
+      <c r="B90" t="s" s="0">
+        <v>493</v>
+      </c>
+      <c r="C90" t="s" s="0">
+        <v>494</v>
+      </c>
+      <c r="D90" t="s" s="0">
+        <v>495</v>
+      </c>
+      <c r="E90" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F90" t="s" s="0">
+        <v>496</v>
+      </c>
+      <c r="G90" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H90" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I90" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="J90" t="s" s="0">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="0">
+        <v>498</v>
+      </c>
+      <c r="B91" t="s" s="0">
+        <v>499</v>
+      </c>
+      <c r="C91" t="s" s="0">
+        <v>500</v>
+      </c>
+      <c r="D91" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="E91" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F91" t="s" s="0">
+        <v>501</v>
+      </c>
+      <c r="G91" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H91" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I91" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="J91" t="s" s="0">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="0">
+        <v>503</v>
+      </c>
+      <c r="B92" t="s" s="0">
+        <v>504</v>
+      </c>
+      <c r="C92" t="s" s="0">
+        <v>505</v>
+      </c>
+      <c r="D92" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="E92" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F92" t="s" s="0">
+        <v>506</v>
+      </c>
+      <c r="G92" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H92" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I92" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="J92" t="s" s="0">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="0">
+        <v>508</v>
+      </c>
+      <c r="B93" t="s" s="0">
+        <v>509</v>
+      </c>
+      <c r="C93" t="s" s="0">
+        <v>510</v>
+      </c>
+      <c r="D93" t="s" s="0">
+        <v>511</v>
+      </c>
+      <c r="E93" t="s" s="0">
+        <v>512</v>
+      </c>
+      <c r="F93" t="s" s="0">
+        <v>513</v>
+      </c>
+      <c r="G93" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H93" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I93" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="J93" t="s" s="0">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="0">
+        <v>515</v>
+      </c>
+      <c r="B94" t="s" s="0">
+        <v>516</v>
+      </c>
+      <c r="C94" t="s" s="0">
+        <v>517</v>
+      </c>
+      <c r="D94" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="E94" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F94" t="s" s="0">
+        <v>518</v>
+      </c>
+      <c r="G94" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H94" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I94" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="J94" t="s" s="0">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="0">
+        <v>520</v>
+      </c>
+      <c r="B95" t="s" s="0">
+        <v>521</v>
+      </c>
+      <c r="C95" t="s" s="0">
+        <v>522</v>
+      </c>
+      <c r="D95" t="s" s="0">
+        <v>523</v>
+      </c>
+      <c r="E95" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F95" t="s" s="0">
+        <v>524</v>
+      </c>
+      <c r="G95" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H95" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I95" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J95" t="s" s="0">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="0">
+        <v>526</v>
+      </c>
+      <c r="B96" t="s" s="0">
+        <v>527</v>
+      </c>
+      <c r="C96" t="s" s="0">
+        <v>528</v>
+      </c>
+      <c r="D96" t="s" s="0">
+        <v>529</v>
+      </c>
+      <c r="E96" t="s" s="0">
+        <v>530</v>
+      </c>
+      <c r="F96" t="s" s="0">
+        <v>531</v>
+      </c>
+      <c r="G96" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H96" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I96" t="s" s="0">
+        <v>532</v>
+      </c>
+      <c r="J96" t="s" s="0">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="0">
+        <v>534</v>
+      </c>
+      <c r="B97" t="s" s="0">
+        <v>535</v>
+      </c>
+      <c r="C97" t="s" s="0">
+        <v>536</v>
+      </c>
+      <c r="D97" t="s" s="0">
+        <v>537</v>
+      </c>
+      <c r="E97" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F97" t="s" s="0">
+        <v>538</v>
+      </c>
+      <c r="G97" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H97" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I97" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J97" t="s" s="0">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="0">
+        <v>540</v>
+      </c>
+      <c r="B98" t="s" s="0">
+        <v>541</v>
+      </c>
+      <c r="C98" t="s" s="0">
+        <v>542</v>
+      </c>
+      <c r="D98" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="E98" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F98" t="s" s="0">
+        <v>543</v>
+      </c>
+      <c r="G98" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H98" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I98" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J98" t="s" s="0">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="0">
+        <v>545</v>
+      </c>
+      <c r="B99" t="s" s="0">
+        <v>546</v>
+      </c>
+      <c r="C99" t="s" s="0">
+        <v>547</v>
+      </c>
+      <c r="D99" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="E99" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F99" t="s" s="0">
+        <v>548</v>
+      </c>
+      <c r="G99" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H99" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I99" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J99" t="s" s="0">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="B100" t="s" s="0">
+        <v>550</v>
+      </c>
+      <c r="C100" t="s" s="0">
+        <v>551</v>
+      </c>
+      <c r="D100" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="E100" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F100" t="s" s="0">
+        <v>552</v>
+      </c>
+      <c r="G100" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H100" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I100" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J100" t="s" s="0">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="0">
+        <v>553</v>
+      </c>
+      <c r="B101" t="s" s="0">
+        <v>554</v>
+      </c>
+      <c r="C101" t="s" s="0">
+        <v>555</v>
+      </c>
+      <c r="D101" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="E101" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F101" t="s" s="0">
+        <v>556</v>
+      </c>
+      <c r="G101" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H101" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I101" t="s" s="0">
+        <v>557</v>
+      </c>
+      <c r="J101" t="s" s="0">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="0">
+        <v>559</v>
+      </c>
+      <c r="B102" t="s" s="0">
+        <v>560</v>
+      </c>
+      <c r="C102" t="s" s="0">
+        <v>561</v>
+      </c>
+      <c r="D102" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="E102" t="s" s="0">
+        <v>562</v>
+      </c>
+      <c r="F102" t="s" s="0">
+        <v>563</v>
+      </c>
+      <c r="G102" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H102" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I102" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J102" t="s" s="0">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="0">
+        <v>565</v>
+      </c>
+      <c r="B103" t="s" s="0">
+        <v>566</v>
+      </c>
+      <c r="C103" t="s" s="0">
+        <v>567</v>
+      </c>
+      <c r="D103" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E103" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F103" t="s" s="0">
+        <v>568</v>
+      </c>
+      <c r="G103" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H103" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I103" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J103" t="s" s="0">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="0">
+        <v>570</v>
+      </c>
+      <c r="B104" t="s" s="0">
+        <v>571</v>
+      </c>
+      <c r="C104" t="s" s="0">
+        <v>572</v>
+      </c>
+      <c r="D104" t="s" s="0">
+        <v>227</v>
+      </c>
+      <c r="E104" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F104" t="s" s="0">
+        <v>573</v>
+      </c>
+      <c r="G104" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H104" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I104" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J104" t="s" s="0">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="0">
+        <v>574</v>
+      </c>
+      <c r="B105" t="s" s="0">
+        <v>575</v>
+      </c>
+      <c r="C105" t="s" s="0">
+        <v>576</v>
+      </c>
+      <c r="D105" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="E105" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F105" t="s" s="0">
+        <v>577</v>
+      </c>
+      <c r="G105" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H105" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I105" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J105" t="s" s="0">
+        <v>569</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/baseFiles/excel/Sheet.xlsx
+++ b/src/main/resources/baseFiles/excel/Sheet.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Name</t>
   </si>
@@ -57,6 +57,60 @@
   </si>
   <si>
     <t>Firm</t>
+  </si>
+  <si>
+    <t>Johannes Bammer</t>
+  </si>
+  <si>
+    <t>bammer@bindergroesswang.at</t>
+  </si>
+  <si>
+    <t>43153480940</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Employment</t>
+  </si>
+  <si>
+    <t>https://www.bindergroesswang.at/en/lawyers/johannes-bammer</t>
+  </si>
+  <si>
+    <t>Karine Frois</t>
+  </si>
+  <si>
+    <t>Legal</t>
+  </si>
+  <si>
+    <t>Counsel</t>
+  </si>
+  <si>
+    <t>Binder Grösswang</t>
+  </si>
+  <si>
+    <t>Iris Pensa</t>
+  </si>
+  <si>
+    <t>iris.pensa@jadek-pensa.si</t>
+  </si>
+  <si>
+    <t>12308540</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>https://www.jadek-pensa.si/en/expert/iris-pensa/</t>
+  </si>
+  <si>
+    <t>Partner</t>
+  </si>
+  <si>
+    <t>JadekAndPensa</t>
   </si>
 </sst>
 </file>
@@ -1209,7 +1263,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:J312"/>
@@ -1218,35 +1272,67 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" t="s" s="0">
         <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/baseFiles/excel/Sheet.xlsx
+++ b/src/main/resources/baseFiles/excel/Sheet.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="77">
   <si>
     <t>Name</t>
   </si>
@@ -59,22 +59,22 @@
     <t>Firm</t>
   </si>
   <si>
-    <t>Johannes Bammer</t>
-  </si>
-  <si>
-    <t>bammer@bindergroesswang.at</t>
-  </si>
-  <si>
-    <t>43153480940</t>
-  </si>
-  <si>
-    <t>Austria</t>
-  </si>
-  <si>
-    <t>Employment</t>
-  </si>
-  <si>
-    <t>https://www.bindergroesswang.at/en/lawyers/johannes-bammer</t>
+    <t>Till Augustin</t>
+  </si>
+  <si>
+    <t>taugustin@eisenfuhr.com</t>
+  </si>
+  <si>
+    <t>49403097440</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>https://www.eisenfuhr.com/en/attorney/till-augustin</t>
   </si>
   <si>
     <t>Karine Frois</t>
@@ -83,34 +83,181 @@
     <t>Legal</t>
   </si>
   <si>
+    <t>Senior Associate</t>
+  </si>
+  <si>
+    <t>Eisenfuhr Speiser And Partner</t>
+  </si>
+  <si>
+    <t>Henning Harte-bavendamm</t>
+  </si>
+  <si>
+    <t>henning@harte-bavendamm.de</t>
+  </si>
+  <si>
+    <t>494060562930</t>
+  </si>
+  <si>
+    <t>https://www.harte-bavendamm.de/en/about/henning-harte-bavendamm</t>
+  </si>
+  <si>
+    <t>Of Counsel</t>
+  </si>
+  <si>
+    <t>HARTE-BAVENDAMM</t>
+  </si>
+  <si>
+    <t>Thorsten Bausch</t>
+  </si>
+  <si>
+    <t>tbausch@hoffmanneitle.com</t>
+  </si>
+  <si>
+    <t>4989924090</t>
+  </si>
+  <si>
+    <t>https://www.hoffmanneitle.com/de/anwalt/thorsten-bausch</t>
+  </si>
+  <si>
+    <t>Partner</t>
+  </si>
+  <si>
+    <t>Hoffmann Eitle</t>
+  </si>
+  <si>
+    <t>Matthias Bergmeister</t>
+  </si>
+  <si>
+    <t>bergmeister@maikowski-ninnemann.com</t>
+  </si>
+  <si>
+    <t>https://www.maikowski-ninnemann.com/en/mn-team/anwaelte/matthias-bergmeister</t>
+  </si>
+  <si>
+    <t>Patent Attorney, European Patent and Trademark Attorney, UPC Representative</t>
+  </si>
+  <si>
+    <t>Maikowski And Ninnemann</t>
+  </si>
+  <si>
+    <t>Marcus Danisch</t>
+  </si>
+  <si>
+    <t>info@weickmann.de</t>
+  </si>
+  <si>
+    <t>4989455630</t>
+  </si>
+  <si>
+    <t>Trademark &amp; Design</t>
+  </si>
+  <si>
+    <t>https://www.weickmann.de/en/member/marcus-danisch/</t>
+  </si>
+  <si>
+    <t>Weickmann And Weickmann</t>
+  </si>
+  <si>
+    <t>Melissa Arnold</t>
+  </si>
+  <si>
+    <t>melissa.arnold@osborneslaw.com</t>
+  </si>
+  <si>
+    <t>2045027811</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>FAMILY</t>
+  </si>
+  <si>
+    <t>https://osborneslaw.com/teams/melissa-arnold/</t>
+  </si>
+  <si>
+    <t>Osbornes Solicitors</t>
+  </si>
+  <si>
+    <t>Jan Atkinson</t>
+  </si>
+  <si>
+    <t>jan.atkinson@osborneslaw.com</t>
+  </si>
+  <si>
+    <t>PRIVATE CLIENT</t>
+  </si>
+  <si>
+    <t>https://osborneslaw.com/teams/jan-atkinson/</t>
+  </si>
+  <si>
+    <t>Philip Cockram</t>
+  </si>
+  <si>
+    <t>upminster@pinneytalfourd.co.uk</t>
+  </si>
+  <si>
+    <t>1708229444</t>
+  </si>
+  <si>
+    <t>https://www.pinneytalfourd.co.uk/profile/philip-cockram/</t>
+  </si>
+  <si>
+    <t>Managing Partner</t>
+  </si>
+  <si>
+    <t>Pinney Talfourd Solicitors</t>
+  </si>
+  <si>
+    <t>Chantal De Smedt - Quintelier</t>
+  </si>
+  <si>
+    <t>chantal.desmedt@schoups.be</t>
+  </si>
+  <si>
+    <t>3232609860</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Mediation</t>
+  </si>
+  <si>
+    <t>https://schoups.be/en/team_members/chantal-de-smedt-quintelier</t>
+  </si>
+  <si>
+    <t>Schoups</t>
+  </si>
+  <si>
+    <t>Stefaan Wauman</t>
+  </si>
+  <si>
+    <t>stefaan.wauman@schoups.be</t>
+  </si>
+  <si>
+    <t>Corporate</t>
+  </si>
+  <si>
+    <t>https://schoups.be/en/team_members/stefaan-wauman</t>
+  </si>
+  <si>
+    <t>Jean-pierre Fierens</t>
+  </si>
+  <si>
+    <t>jean-pierre.fierens@strelia.com</t>
+  </si>
+  <si>
+    <t>3226270090</t>
+  </si>
+  <si>
+    <t>https://www.strelia.com/en/lawyer/jean-pierre-fierens</t>
+  </si>
+  <si>
     <t>Counsel</t>
   </si>
   <si>
-    <t>Binder Grösswang</t>
-  </si>
-  <si>
-    <t>Iris Pensa</t>
-  </si>
-  <si>
-    <t>iris.pensa@jadek-pensa.si</t>
-  </si>
-  <si>
-    <t>12308540</t>
-  </si>
-  <si>
-    <t>Slovenia</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>https://www.jadek-pensa.si/en/expert/iris-pensa/</t>
-  </si>
-  <si>
-    <t>Partner</t>
-  </si>
-  <si>
-    <t>JadekAndPensa</t>
+    <t>Strelia</t>
   </si>
 </sst>
 </file>
@@ -1263,13 +1410,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J312"/>
+      <selection activeCell="A2" sqref="A2:J293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <cols>
+    <col min="19" max="19" customWidth="true" width="8.8515625"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s" s="0">
@@ -1303,38 +1453,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="G2" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="J2" t="s" s="0">
-        <v>27</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/src/main/resources/baseFiles/excel/Sheet.xlsx
+++ b/src/main/resources/baseFiles/excel/Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29100" windowHeight="13480"/>
+    <workbookView windowWidth="29100" windowHeight="14460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1211,8 +1211,8 @@
   <sheetPr/>
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A424" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>

--- a/src/main/resources/baseFiles/excel/Sheet.xlsx
+++ b/src/main/resources/baseFiles/excel/Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29100" windowHeight="14460"/>
+    <workbookView windowWidth="30240" windowHeight="14440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1212,13 +1212,10 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J41"/>
+      <selection activeCell="J2" sqref="A2:J256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
-  <cols>
-    <col min="19" max="19" width="8.8515625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">

--- a/src/main/resources/baseFiles/excel/Sheet.xlsx
+++ b/src/main/resources/baseFiles/excel/Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="14440"/>
+    <workbookView windowWidth="29100" windowHeight="13480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1212,7 +1212,7 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="A2:J256"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>

--- a/src/main/resources/baseFiles/excel/Sheet.xlsx
+++ b/src/main/resources/baseFiles/excel/Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29100" windowHeight="13480"/>
+    <workbookView windowWidth="29100" windowHeight="14540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Name</t>
   </si>
@@ -58,6 +58,9 @@
   <si>
     <t>Firm</t>
   </si>
+  <si>
+    <t/>
+  </si>
 </sst>
 </file>
 
@@ -222,12 +225,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -548,7 +557,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -572,16 +581,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -590,92 +599,93 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1209,10 +1219,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A2" sqref="A2:J422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1249,6 +1259,17 @@
         <v>9</v>
       </c>
     </row>
+    <row r="102" spans="11:13">
+      <c r="K102" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L102" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M102" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/src/main/resources/baseFiles/excel/Sheet.xlsx
+++ b/src/main/resources/baseFiles/excel/Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29100" windowHeight="14540"/>
+    <workbookView windowWidth="24680" windowHeight="13160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1222,7 +1222,7 @@
   <dimension ref="A1:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J422"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>

--- a/src/main/resources/baseFiles/excel/Sheet.xlsx
+++ b/src/main/resources/baseFiles/excel/Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24680" windowHeight="13160"/>
+    <workbookView windowWidth="29100" windowHeight="14540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="77">
   <si>
     <t>Name</t>
   </si>
@@ -60,6 +60,204 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>Brian Bustos</t>
+  </si>
+  <si>
+    <t>bbustos@cariola.cl</t>
+  </si>
+  <si>
+    <t>56223683549</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>https://www.cariola.cl/en/team/brian-bustos/</t>
+  </si>
+  <si>
+    <t>Karine Frois</t>
+  </si>
+  <si>
+    <t>Legal</t>
+  </si>
+  <si>
+    <t>Senior Associate</t>
+  </si>
+  <si>
+    <t>Cariola Diez Perez-Cotapos</t>
+  </si>
+  <si>
+    <t>Korneel Decroix</t>
+  </si>
+  <si>
+    <t>korneel.decroix@eubelius.com</t>
+  </si>
+  <si>
+    <t>3225433535</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>https://www.eubelius.com/en/attorneys/korneel-decroix</t>
+  </si>
+  <si>
+    <t>Partner</t>
+  </si>
+  <si>
+    <t>Eubelius</t>
+  </si>
+  <si>
+    <t>Aigerim Sabit Bikmaz</t>
+  </si>
+  <si>
+    <t>abikmaz@gratanet.com</t>
+  </si>
+  <si>
+    <t>905336166199</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>https://gratanet.com/employees/aigerim-sabit-bikmaz</t>
+  </si>
+  <si>
+    <t>GRATA International</t>
+  </si>
+  <si>
+    <t>Cleo Loizou</t>
+  </si>
+  <si>
+    <t>cloizou@gratanet.com</t>
+  </si>
+  <si>
+    <t>35799117437</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>https://gratanet.com/employees/cleo-loizou</t>
+  </si>
+  <si>
+    <t>Joeben T De Jesus</t>
+  </si>
+  <si>
+    <t>jjesus@gratanet.com</t>
+  </si>
+  <si>
+    <t>639178005884</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>https://gratanet.com/employees/joeben-t-de-jesus</t>
+  </si>
+  <si>
+    <t>Daria Buonfiglio</t>
+  </si>
+  <si>
+    <t>daria.buonfiglio@greenhorseadvisory.com</t>
+  </si>
+  <si>
+    <t>390236577810</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>https://www.greenhorselegaladvisory.com/team/daria-buonfiglio/</t>
+  </si>
+  <si>
+    <t>Head</t>
+  </si>
+  <si>
+    <t>Green Horse Legal</t>
+  </si>
+  <si>
+    <t>Dennis Engman</t>
+  </si>
+  <si>
+    <t>dennis.engman@hellstromlaw.com</t>
+  </si>
+  <si>
+    <t>460709550919</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>https://www.hellstromlaw.com/en/our-people/</t>
+  </si>
+  <si>
+    <t>Hellström</t>
+  </si>
+  <si>
+    <t>Pilar Arzuaga</t>
+  </si>
+  <si>
+    <t>parzuaga@mwe.com</t>
+  </si>
+  <si>
+    <t>442075701412</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>https://www.mwe.com/people/pilar-arzuaga/</t>
+  </si>
+  <si>
+    <t>McDermott Will And Emery</t>
+  </si>
+  <si>
+    <t>Carsten Böhm</t>
+  </si>
+  <si>
+    <t>cbohm@mwe.com</t>
+  </si>
+  <si>
+    <t>498912712321</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>https://www.mwe.com/people/boehm-carsten/</t>
+  </si>
+  <si>
+    <t>Stanislas Chenu</t>
+  </si>
+  <si>
+    <t>schenu@mwe.com</t>
+  </si>
+  <si>
+    <t>33181696780</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>https://www.mwe.com/people/stanislas-chenu/</t>
+  </si>
+  <si>
+    <t>Counsel</t>
+  </si>
+  <si>
+    <t>Alfonso Annibale De Marco</t>
+  </si>
+  <si>
+    <t>amarco@mwe.com</t>
+  </si>
+  <si>
+    <t>390278627304</t>
+  </si>
+  <si>
+    <t>https://www.mwe.com/people/alfonso-annibale-de-marco/</t>
   </si>
 </sst>
 </file>
@@ -1219,55 +1417,172 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M102"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" t="s" s="0">
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="11:13">
-      <c r="K102" s="1" t="s">
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="E2" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="L102" s="1" t="s">
+      <c r="F2" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="E3" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="M102" s="1" t="s">
+      <c r="F3" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s" s="0">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="E4" t="s" s="0">
         <v>10</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="J4" t="s" s="0">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J5" t="s" s="0">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/baseFiles/excel/Sheet.xlsx
+++ b/src/main/resources/baseFiles/excel/Sheet.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3225" uniqueCount="1588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4081" uniqueCount="1888">
   <si>
     <t>Name</t>
   </si>
@@ -4791,6 +4791,906 @@
   </si>
   <si>
     <t>HCR Legal</t>
+  </si>
+  <si>
+    <t>Gabriel Saba</t>
+  </si>
+  <si>
+    <t>gsaba@bafur.com.pe</t>
+  </si>
+  <si>
+    <t>https://www.bafur.com.pe/en/abogados/gabriel-saba-2/</t>
+  </si>
+  <si>
+    <t>Julia Santoro</t>
+  </si>
+  <si>
+    <t>julia.santoro@car-law.com.br</t>
+  </si>
+  <si>
+    <t>551145507803</t>
+  </si>
+  <si>
+    <t>Regulatory</t>
+  </si>
+  <si>
+    <t>https://www.car-law.com.br/our-team/julia-santoro/</t>
+  </si>
+  <si>
+    <t>Heidi Laniado Hollihan</t>
+  </si>
+  <si>
+    <t>hlaniado@lex.ec</t>
+  </si>
+  <si>
+    <t>International Arbitration</t>
+  </si>
+  <si>
+    <t>https://consulegisabogados.com/en/heidi-laniado-hollihan-en/</t>
+  </si>
+  <si>
+    <t>Michelle Dávila León</t>
+  </si>
+  <si>
+    <t>m.davila@cvmabogados.com.pe</t>
+  </si>
+  <si>
+    <t>David Meiler</t>
+  </si>
+  <si>
+    <t>dmeiler@demarest.com.br</t>
+  </si>
+  <si>
+    <t>Oil &amp; Gas</t>
+  </si>
+  <si>
+    <t>https://www.demarest.com.br/profissional/david-meiler-2/</t>
+  </si>
+  <si>
+    <t>Vanessa Machado Silveira</t>
+  </si>
+  <si>
+    <t>vsilveira@farrocoabreu.com.br</t>
+  </si>
+  <si>
+    <t>https://www.farrocoabreu.com.br/en/lawyers/vanessa-machado-silveira/</t>
+  </si>
+  <si>
+    <t>John Anthony Hayar Fuscella</t>
+  </si>
+  <si>
+    <t>jfuscella@fifsa.com.br</t>
+  </si>
+  <si>
+    <t>551141181011</t>
+  </si>
+  <si>
+    <t>https://fifsa.com.br/en/archive-profissionais/joao-antonio-hayar-fuscella/</t>
+  </si>
+  <si>
+    <t>Corporate Recovery</t>
+  </si>
+  <si>
+    <t>Antonio Meca</t>
+  </si>
+  <si>
+    <t>antonio.meca@fticonsulting.com</t>
+  </si>
+  <si>
+    <t>https://www.fticonsulting.com/experts/antonio-meca</t>
+  </si>
+  <si>
+    <t>Edgardo Portaro V O  </t>
+  </si>
+  <si>
+    <t>eportaro@gsalegal.pe</t>
+  </si>
+  <si>
+    <t>mining and natural resources practice</t>
+  </si>
+  <si>
+    <t>https://gsalegal.pe/en/equipo/edgardo-portaro-van/</t>
+  </si>
+  <si>
+    <t>Owen Burke</t>
+  </si>
+  <si>
+    <t>oburke@hayes-solicitors.ie</t>
+  </si>
+  <si>
+    <t>Private Clients</t>
+  </si>
+  <si>
+    <t>https://hayes-solicitors.ie/team/owen-burke/</t>
+  </si>
+  <si>
+    <t>Dima Zalyalyeyev</t>
+  </si>
+  <si>
+    <t>zalyalyeyevd@herzoglaw.co.il</t>
+  </si>
+  <si>
+    <t>97236922020</t>
+  </si>
+  <si>
+    <t>Technology Regulation</t>
+  </si>
+  <si>
+    <t>https://herzoglaw.co.il/en/our-team/dima-zalyalyeyev/</t>
+  </si>
+  <si>
+    <t>Moran Yemini</t>
+  </si>
+  <si>
+    <t>yemini@herzoglaw.co.il</t>
+  </si>
+  <si>
+    <t>97236927433</t>
+  </si>
+  <si>
+    <t>https://herzoglaw.co.il/en/our-team/moran-yemini/</t>
+  </si>
+  <si>
+    <t>Teija Lius</t>
+  </si>
+  <si>
+    <t>teija.lius@hpp.fi</t>
+  </si>
+  <si>
+    <t>358405599872</t>
+  </si>
+  <si>
+    <t>https://hppattorneys.com/expert/lius-teija/</t>
+  </si>
+  <si>
+    <t>Vanessa A Oliveira</t>
+  </si>
+  <si>
+    <t>vaos@i2a.legal</t>
+  </si>
+  <si>
+    <t>Marcela Mancia</t>
+  </si>
+  <si>
+    <t>mmancia@ideasips.com</t>
+  </si>
+  <si>
+    <t>50325665260</t>
+  </si>
+  <si>
+    <t>Gabriela Silvério Palhuca</t>
+  </si>
+  <si>
+    <t>gabrielapalhuca@lacazmartins.com.br</t>
+  </si>
+  <si>
+    <t>1138970173</t>
+  </si>
+  <si>
+    <t>Infrastructure</t>
+  </si>
+  <si>
+    <t>https://www.lacazmartins.com.br/en/equipe/gabriela-silverio-palhuca/</t>
+  </si>
+  <si>
+    <t>Neşem Nazlı Aksoy</t>
+  </si>
+  <si>
+    <t>n.aksoy@lexist.com.tr</t>
+  </si>
+  <si>
+    <t>https://lexist.com.tr/our-team/nesem-nazli-aksoy/</t>
+  </si>
+  <si>
+    <t>Norman Day</t>
+  </si>
+  <si>
+    <t>norman.day@lexstone.je</t>
+  </si>
+  <si>
+    <t>447561897856</t>
+  </si>
+  <si>
+    <t>commercial and banking matters</t>
+  </si>
+  <si>
+    <t>Rafel Korff Wagner</t>
+  </si>
+  <si>
+    <t>rkw@lippert.com.br</t>
+  </si>
+  <si>
+    <t>https://www.lippert.com.br/pt-br/equipe/rafael-korff-wagner</t>
+  </si>
+  <si>
+    <t>Leonardo Bianco</t>
+  </si>
+  <si>
+    <t>lob@lrilaw.com.br</t>
+  </si>
+  <si>
+    <t>Bruno Chedid</t>
+  </si>
+  <si>
+    <t>bruno.chedid@mattosfilho.com.br</t>
+  </si>
+  <si>
+    <t>5521991855235</t>
+  </si>
+  <si>
+    <t>Mining</t>
+  </si>
+  <si>
+    <t>https://www.mattosfilho.com.br/profissional/bruno-rodrigues-chedid/</t>
+  </si>
+  <si>
+    <t>Alison Bond</t>
+  </si>
+  <si>
+    <t>albond@mccarthy.ca</t>
+  </si>
+  <si>
+    <t>14166018359</t>
+  </si>
+  <si>
+    <t>Corporate Commercial Litigation</t>
+  </si>
+  <si>
+    <t>https://www.mccarthy.ca/en/people/alison-bond</t>
+  </si>
+  <si>
+    <t>Bruce Chapple</t>
+  </si>
+  <si>
+    <t>bruce.chapple@mcmillan.ca</t>
+  </si>
+  <si>
+    <t>4168657024</t>
+  </si>
+  <si>
+    <t>https://mcmillan.ca/people/bruce-chapple/</t>
+  </si>
+  <si>
+    <t>Fiorenza Resta</t>
+  </si>
+  <si>
+    <t>fiorenza.resta@pavia-ansaldo.it</t>
+  </si>
+  <si>
+    <t>3906695161</t>
+  </si>
+  <si>
+    <t>https://www.pavia-ansaldo.it/en/fiorenza-resta</t>
+  </si>
+  <si>
+    <t>Diego Filipe Casseb</t>
+  </si>
+  <si>
+    <t>dcasseb@pn.com.br</t>
+  </si>
+  <si>
+    <t>551132476226</t>
+  </si>
+  <si>
+    <t>Per Jørgen Nygreen</t>
+  </si>
+  <si>
+    <t>pjn@pv.eu</t>
+  </si>
+  <si>
+    <t>4523482425</t>
+  </si>
+  <si>
+    <t>Patents</t>
+  </si>
+  <si>
+    <t>https://www.pv.eu/our-experts/per-joergen-nygreen/</t>
+  </si>
+  <si>
+    <t>Jaime Salas</t>
+  </si>
+  <si>
+    <t>jsalas@relegal.cl</t>
+  </si>
+  <si>
+    <t>Mergers and Acquisitions;</t>
+  </si>
+  <si>
+    <t>Omri Sender</t>
+  </si>
+  <si>
+    <t>omri.sender@s-horowitz.com</t>
+  </si>
+  <si>
+    <t>https://s-horowitz.com/team_member/dr-omri-sender/</t>
+  </si>
+  <si>
+    <t>Clemens Harsch</t>
+  </si>
+  <si>
+    <t>c.harsch@saxinger.com</t>
+  </si>
+  <si>
+    <t>43732603030515</t>
+  </si>
+  <si>
+    <t>Banking and Finance</t>
+  </si>
+  <si>
+    <t>https://at.schindhelm.com/en/team/p/mag-clemens-harsch-lawyer-linz</t>
+  </si>
+  <si>
+    <t>Preben Helverschou</t>
+  </si>
+  <si>
+    <t>p.helverschou@selmer.no</t>
+  </si>
+  <si>
+    <t>4792059672</t>
+  </si>
+  <si>
+    <t>https://selmer.no/en/people/preben-helverschou</t>
+  </si>
+  <si>
+    <t>David Knipe</t>
+  </si>
+  <si>
+    <t>david.knipe@sintons.co.uk</t>
+  </si>
+  <si>
+    <t>1912267926</t>
+  </si>
+  <si>
+    <t>Personal Injury</t>
+  </si>
+  <si>
+    <t>https://sintons.co.uk/our-people/david-knipe/</t>
+  </si>
+  <si>
+    <t>Eduardo Mariotti</t>
+  </si>
+  <si>
+    <t>emariotti@tozzinifreire.com.br</t>
+  </si>
+  <si>
+    <t>Cristian Divan Baldani</t>
+  </si>
+  <si>
+    <t>cristian.baldani@veirano.com.br</t>
+  </si>
+  <si>
+    <t>Rodrigo Jesuino Bittencourt</t>
+  </si>
+  <si>
+    <t>rbittencourt@warde.com.br</t>
+  </si>
+  <si>
+    <t>Kristian Elvestad Ottesen</t>
+  </si>
+  <si>
+    <t>keo@wiersholm.no</t>
+  </si>
+  <si>
+    <t>Private Equity</t>
+  </si>
+  <si>
+    <t>Philipp Busch</t>
+  </si>
+  <si>
+    <t>philipp.busch@ypog.law</t>
+  </si>
+  <si>
+    <t>Lynette Ankunda</t>
+  </si>
+  <si>
+    <t>lankunda@cristaladvocates.com</t>
+  </si>
+  <si>
+    <t>256414671274</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>https://cristaladvocates.com/the-team/</t>
+  </si>
+  <si>
+    <t>Cristal Advocates</t>
+  </si>
+  <si>
+    <t>Linda Beairsto</t>
+  </si>
+  <si>
+    <t>lbeairsto@mccarthy.ca</t>
+  </si>
+  <si>
+    <t>14166018268</t>
+  </si>
+  <si>
+    <t>MT❯Align</t>
+  </si>
+  <si>
+    <t>https://www.mccarthy.ca/en/people/linda-beairsto</t>
+  </si>
+  <si>
+    <t>President MT❯Align</t>
+  </si>
+  <si>
+    <t>McCarthy Tetraukt</t>
+  </si>
+  <si>
+    <t>Yassir Alnaji</t>
+  </si>
+  <si>
+    <t>yalnaji@mltaikins.com</t>
+  </si>
+  <si>
+    <t>12049574687</t>
+  </si>
+  <si>
+    <t>Corporate Governance</t>
+  </si>
+  <si>
+    <t>https://www.mltaikins.com/people/yassir-alnaji/</t>
+  </si>
+  <si>
+    <t>MLT Aikins</t>
+  </si>
+  <si>
+    <t>Maria Cassidy</t>
+  </si>
+  <si>
+    <t>maria.cassidy@forbeshare.com</t>
+  </si>
+  <si>
+    <t>4402070143220</t>
+  </si>
+  <si>
+    <t>Marketing and Business Development Manager</t>
+  </si>
+  <si>
+    <t>https://forbeshare.com/?tshowcase=maria-cassidy</t>
+  </si>
+  <si>
+    <t>Forbes Hare</t>
+  </si>
+  <si>
+    <t>Cathy Georgiou</t>
+  </si>
+  <si>
+    <t>cathy.georgiou@economideslegal.com</t>
+  </si>
+  <si>
+    <t>35725866480</t>
+  </si>
+  <si>
+    <t>litigation and dispute resolution</t>
+  </si>
+  <si>
+    <t>https://www.economideslegal.com/en/team/#cathy-georgiou</t>
+  </si>
+  <si>
+    <t>Senior Advocate</t>
+  </si>
+  <si>
+    <t>E&amp;G Economides LLC</t>
+  </si>
+  <si>
+    <t>Tomasz Chełstowski</t>
+  </si>
+  <si>
+    <t>t.chelstowski@djm.pl</t>
+  </si>
+  <si>
+    <t>49224360601</t>
+  </si>
+  <si>
+    <t>litigation</t>
+  </si>
+  <si>
+    <t>https://djm.pl/en/team/tomasz-chelstowski/</t>
+  </si>
+  <si>
+    <t>Dubinski Jelenski Masiarz &amp; Partners</t>
+  </si>
+  <si>
+    <t>Nicholas Ørum Keller</t>
+  </si>
+  <si>
+    <t>nik@dslaw.dk</t>
+  </si>
+  <si>
+    <t>4528155880</t>
+  </si>
+  <si>
+    <t>https://dreiststorgaard.dk/en/about-us/meet-our-team/#popup_content</t>
+  </si>
+  <si>
+    <t>Dreist Storgaard</t>
+  </si>
+  <si>
+    <t>David P Fendley</t>
+  </si>
+  <si>
+    <t>david.fendley@mcmillan.ca</t>
+  </si>
+  <si>
+    <t>4035318739</t>
+  </si>
+  <si>
+    <t>Financial  Mergers &amp; Acquisitions</t>
+  </si>
+  <si>
+    <t>https://mcmillan.ca/people/david-fendley/</t>
+  </si>
+  <si>
+    <t>Liliana Callirgos</t>
+  </si>
+  <si>
+    <t>lcallirgos@bafur.com.pe</t>
+  </si>
+  <si>
+    <t>https://www.bafur.com.pe/en/abogados/liliana-callirgos-2/</t>
+  </si>
+  <si>
+    <t>Mariana Somensi</t>
+  </si>
+  <si>
+    <t>mariana.somensi@car-law.com.br</t>
+  </si>
+  <si>
+    <t>551131792912</t>
+  </si>
+  <si>
+    <t>aeronautical</t>
+  </si>
+  <si>
+    <t>https://www.car-law.com.br/our-team/mariana-somensi/</t>
+  </si>
+  <si>
+    <t>Jorge Vaca Sánchez</t>
+  </si>
+  <si>
+    <t>jvaca@lex.ec</t>
+  </si>
+  <si>
+    <t>https://consulegisabogados.com/en/jorge-vaca-sanchez-en/</t>
+  </si>
+  <si>
+    <t>Douglas Mota</t>
+  </si>
+  <si>
+    <t>dmota@demarest.com.br</t>
+  </si>
+  <si>
+    <t>https://www.demarest.com.br/profissional/douglas-mota/</t>
+  </si>
+  <si>
+    <t>Marcus Furlan</t>
+  </si>
+  <si>
+    <t>mfurlan@fifsa.com.br</t>
+  </si>
+  <si>
+    <t>551141181012</t>
+  </si>
+  <si>
+    <t>https://fifsa.com.br/en/archive-profissionais/marcus-furlan/</t>
+  </si>
+  <si>
+    <t>Cendrine Delivré</t>
+  </si>
+  <si>
+    <t>cdelivre@franklin-paris.com</t>
+  </si>
+  <si>
+    <t>Public</t>
+  </si>
+  <si>
+    <t>https://www.franklin-paris.com/en/avocats/cendrine-delivre-3/</t>
+  </si>
+  <si>
+    <t>Clara Kaplan</t>
+  </si>
+  <si>
+    <t>clara.kaplan@fticonsulting.com</t>
+  </si>
+  <si>
+    <t>Elvira Castañeda V</t>
+  </si>
+  <si>
+    <t>ecastaneda@gsalegal.com</t>
+  </si>
+  <si>
+    <t>sponsorship of judicial labor</t>
+  </si>
+  <si>
+    <t>https://gsalegal.pe/en/equipo/elvira-castaneda-v/</t>
+  </si>
+  <si>
+    <t>Pamela Fitzpatrick</t>
+  </si>
+  <si>
+    <t>pfitzpatrick@hayes-solicitors.ie</t>
+  </si>
+  <si>
+    <t>https://hayes-solicitors.ie/team/pamela-fitzpatrick/</t>
+  </si>
+  <si>
+    <t>Dudu Hillel</t>
+  </si>
+  <si>
+    <t>hilleld@herzoglaw.co.il</t>
+  </si>
+  <si>
+    <t>https://herzoglaw.co.il/en/our-team/dudu-hillel/</t>
+  </si>
+  <si>
+    <t>Moshe Yacov</t>
+  </si>
+  <si>
+    <t>yaacovm@herzoglaw.co.il</t>
+  </si>
+  <si>
+    <t>https://herzoglaw.co.il/en/our-team/moshe-yacov/</t>
+  </si>
+  <si>
+    <t>Melissa Mora Martin</t>
+  </si>
+  <si>
+    <t>mmora@ideasips.com</t>
+  </si>
+  <si>
+    <t>5062288579720</t>
+  </si>
+  <si>
+    <t>Intellectual Property realm</t>
+  </si>
+  <si>
+    <t>Süreyya Korkmaz</t>
+  </si>
+  <si>
+    <t>s.korkmaz@lexist.com.tr</t>
+  </si>
+  <si>
+    <t>https://lexist.com.tr/our-team/sureyya-korkmaz/</t>
+  </si>
+  <si>
+    <t>Zana Pejic</t>
+  </si>
+  <si>
+    <t>zana.pejic@lexstone.je</t>
+  </si>
+  <si>
+    <t>corporate restructuring</t>
+  </si>
+  <si>
+    <t>Teresa Porto Da Silveira</t>
+  </si>
+  <si>
+    <t>tps@lippert.com.br</t>
+  </si>
+  <si>
+    <t>https://www.lippert.com.br/pt-br/equipe/teresa-porto-da-silveira</t>
+  </si>
+  <si>
+    <t>Bruno Tuca</t>
+  </si>
+  <si>
+    <t>btuca@mattosfilho.com.br</t>
+  </si>
+  <si>
+    <t>5511982700977</t>
+  </si>
+  <si>
+    <t>https://www.mattosfilho.com.br/profissional/bruno-mastriani-simoes-tuca/</t>
+  </si>
+  <si>
+    <t>Audrey Bouffard-Nesbitt</t>
+  </si>
+  <si>
+    <t>abouffardnesbitt@mccarthy.ca</t>
+  </si>
+  <si>
+    <t>14032603574</t>
+  </si>
+  <si>
+    <t>Secured Lending &amp; Project Finance</t>
+  </si>
+  <si>
+    <t>https://www.mccarthy.ca/en/people/audrey-bouffard-nesbitt</t>
+  </si>
+  <si>
+    <t>Carina Chiu</t>
+  </si>
+  <si>
+    <t>carina.chiu@mcmillan.ca</t>
+  </si>
+  <si>
+    <t>6046917416</t>
+  </si>
+  <si>
+    <t>Litigation &amp; Dispute Resolution</t>
+  </si>
+  <si>
+    <t>https://mcmillan.ca/people/carina-chiu/</t>
+  </si>
+  <si>
+    <t>Francesco Vitella</t>
+  </si>
+  <si>
+    <t>francesco.vitella@pavia-ansaldo.it</t>
+  </si>
+  <si>
+    <t>https://www.pavia-ansaldo.it/en/francesco-vitella/</t>
+  </si>
+  <si>
+    <t>Elina Cunha</t>
+  </si>
+  <si>
+    <t>ecunha@pn.com.br</t>
+  </si>
+  <si>
+    <t>552125061656</t>
+  </si>
+  <si>
+    <t>Patricio Vera</t>
+  </si>
+  <si>
+    <t>pvera@relegal.cl</t>
+  </si>
+  <si>
+    <t>Eliya Zunz Koller</t>
+  </si>
+  <si>
+    <t>eliyaz@s-horowitz.com</t>
+  </si>
+  <si>
+    <t>97235670614</t>
+  </si>
+  <si>
+    <t>Environmental</t>
+  </si>
+  <si>
+    <t>https://s-horowitz.com/team_member/eliya-zunz-koller/</t>
+  </si>
+  <si>
+    <t>Dominique Schichtle</t>
+  </si>
+  <si>
+    <t>d.schichtle@saxinger.com</t>
+  </si>
+  <si>
+    <t>43662275575602</t>
+  </si>
+  <si>
+    <t>IP/IT</t>
+  </si>
+  <si>
+    <t>https://at.schindhelm.com/en/team/p/mag-dominique-schichtle-rechtsanwalt</t>
+  </si>
+  <si>
+    <t>Remi Christoffer Dramstad</t>
+  </si>
+  <si>
+    <t>r.dramstad@selmer.no</t>
+  </si>
+  <si>
+    <t>4741441564</t>
+  </si>
+  <si>
+    <t>https://selmer.no/en/people/remi-christoffer-dramstad</t>
+  </si>
+  <si>
+    <t>Emma Pern</t>
+  </si>
+  <si>
+    <t>emma.pern@sintons.co.uk</t>
+  </si>
+  <si>
+    <t>1912263704</t>
+  </si>
+  <si>
+    <t>https://sintons.co.uk/our-people/emma-pern/</t>
+  </si>
+  <si>
+    <t>555130252229</t>
+  </si>
+  <si>
+    <t>Daniel Augusto Malatesta</t>
+  </si>
+  <si>
+    <t>daniel.malatesta@veirano.com.br</t>
+  </si>
+  <si>
+    <t>Kristian Martin Lind</t>
+  </si>
+  <si>
+    <t>kml@wiersholm.no</t>
+  </si>
+  <si>
+    <t>Wolfram Dickersbach</t>
+  </si>
+  <si>
+    <t>wolfram.dickersbach@ypog.law</t>
+  </si>
+  <si>
+    <t>Francis Ateenyi</t>
+  </si>
+  <si>
+    <t>fateenyi@cristaladvocates.com</t>
+  </si>
+  <si>
+    <t>Mergers &amp; Acquisitions</t>
+  </si>
+  <si>
+    <t>Erin Bokshowan</t>
+  </si>
+  <si>
+    <t>ebokshowan@mltaikins.com</t>
+  </si>
+  <si>
+    <t>13069757111</t>
+  </si>
+  <si>
+    <t>Corporate &amp; Commercial</t>
+  </si>
+  <si>
+    <t>https://www.mltaikins.com/people/erin-bokshowan/</t>
+  </si>
+  <si>
+    <t>Michael Doyle</t>
+  </si>
+  <si>
+    <t>michael.doyle@forbeshare.com</t>
+  </si>
+  <si>
+    <t>https://forbeshare.com/team/michael-doyle/</t>
+  </si>
+  <si>
+    <t>Marilyn Theodotou</t>
+  </si>
+  <si>
+    <t>marilyn.theodotou@economideslegal.com</t>
+  </si>
+  <si>
+    <t>https://www.economideslegal.com/en/team/#marilyn-theodotou</t>
+  </si>
+  <si>
+    <t>Paweł Kapica</t>
+  </si>
+  <si>
+    <t>p.kapica@djm.pl</t>
+  </si>
+  <si>
+    <t>50224360601</t>
+  </si>
+  <si>
+    <t>corporate</t>
+  </si>
+  <si>
+    <t>https://djm.pl/en/team/ccccc/</t>
+  </si>
+  <si>
+    <t>Nikolaj Bak-Christensen</t>
+  </si>
+  <si>
+    <t>nbc@dslaw.dk</t>
+  </si>
+  <si>
+    <t>M&amp;A transactions</t>
+  </si>
+  <si>
+    <t>Gary C Floyd</t>
+  </si>
+  <si>
+    <t>gary.floyd@mcmillan.ca</t>
+  </si>
+  <si>
+    <t>6046916830</t>
+  </si>
+  <si>
+    <t>https://mcmillan.ca/people/gary-floyd/</t>
   </si>
 </sst>
 </file>
@@ -5422,11 +6322,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
@@ -5963,7 +6865,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:M86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
@@ -6005,22 +6907,22 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>1583</v>
+        <v>1588</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>1584</v>
+        <v>1589</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>1585</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>1586</v>
+        <v>1590</v>
       </c>
       <c r="G2" t="s" s="0">
         <v>16</v>
@@ -6032,7 +6934,2713 @@
         <v>25</v>
       </c>
       <c r="J2" t="s" s="0">
-        <v>1587</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>1591</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>1592</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>1593</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>1594</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>1595</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s" s="0">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>1596</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>1597</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>1598</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>1599</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s" s="0">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>1600</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>1601</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J5" t="s" s="0">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>1602</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>1603</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>1604</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>1605</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J6" t="s" s="0">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>1606</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>1607</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>1608</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J7" t="s" s="0">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>1609</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>1610</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>1611</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>1612</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J8" t="s" s="0">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>409</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>410</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>1613</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>412</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J9" t="s" s="0">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>1614</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>1615</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>352</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>1616</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s" s="0">
+        <v>417</v>
+      </c>
+      <c r="J10" t="s" s="0">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>1617</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>1618</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>1619</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>1620</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H11" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J11" t="s" s="0">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>1621</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>1622</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>1623</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>1624</v>
+      </c>
+      <c r="G12" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H12" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I12" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J12" t="s" s="0">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>1625</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>1626</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>1627</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>1628</v>
+      </c>
+      <c r="F13" t="s" s="0">
+        <v>1629</v>
+      </c>
+      <c r="G13" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I13" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J13" t="s" s="0">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>1630</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>1631</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>1632</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>321</v>
+      </c>
+      <c r="F14" t="s" s="0">
+        <v>1633</v>
+      </c>
+      <c r="G14" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H14" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I14" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J14" t="s" s="0">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>1634</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>1635</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>1636</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="F15" t="s" s="0">
+        <v>1637</v>
+      </c>
+      <c r="G15" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H15" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I15" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J15" t="s" s="0">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>1638</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>1639</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="F16" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="G16" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H16" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I16" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J16" t="s" s="0">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>1640</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>1641</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>1642</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>1594</v>
+      </c>
+      <c r="F17" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="G17" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H17" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I17" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J17" t="s" s="0">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>1643</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>1644</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>1645</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>1646</v>
+      </c>
+      <c r="F18" t="s" s="0">
+        <v>1647</v>
+      </c>
+      <c r="G18" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H18" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I18" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J18" t="s" s="0">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>1648</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>1649</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="F19" t="s" s="0">
+        <v>1650</v>
+      </c>
+      <c r="G19" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H19" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I19" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="J19" t="s" s="0">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>1651</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>1652</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>1653</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>1654</v>
+      </c>
+      <c r="F20" t="s" s="0">
+        <v>257</v>
+      </c>
+      <c r="G20" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H20" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I20" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J20" t="s" s="0">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>1655</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>1656</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="F21" t="s" s="0">
+        <v>1657</v>
+      </c>
+      <c r="G21" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H21" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I21" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J21" t="s" s="0">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>1658</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>1659</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>273</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="F22" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="G22" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H22" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I22" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J22" t="s" s="0">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>276</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>277</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>477</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>321</v>
+      </c>
+      <c r="F23" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="G23" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H23" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I23" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J23" t="s" s="0">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>1660</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>1661</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>1662</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="E24" t="s" s="0">
+        <v>1663</v>
+      </c>
+      <c r="F24" t="s" s="0">
+        <v>1664</v>
+      </c>
+      <c r="G24" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H24" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I24" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J24" t="s" s="0">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>1665</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>1666</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>1667</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>291</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>1668</v>
+      </c>
+      <c r="F25" t="s" s="0">
+        <v>1669</v>
+      </c>
+      <c r="G25" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H25" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I25" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J25" t="s" s="0">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>1670</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>1671</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>1672</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>291</v>
+      </c>
+      <c r="E26" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="F26" t="s" s="0">
+        <v>1673</v>
+      </c>
+      <c r="G26" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H26" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I26" t="s" s="0">
+        <v>547</v>
+      </c>
+      <c r="J26" t="s" s="0">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>1674</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>1675</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>1676</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E27" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="F27" t="s" s="0">
+        <v>1677</v>
+      </c>
+      <c r="G27" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H27" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I27" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J27" t="s" s="0">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>1678</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>1679</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>1680</v>
+      </c>
+      <c r="D28" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="E28" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="F28" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G28" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H28" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I28" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="J28" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>1681</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>1682</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>1683</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>326</v>
+      </c>
+      <c r="E29" t="s" s="0">
+        <v>1684</v>
+      </c>
+      <c r="F29" t="s" s="0">
+        <v>1685</v>
+      </c>
+      <c r="G29" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H29" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I29" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J29" t="s" s="0">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>1686</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>1687</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>332</v>
+      </c>
+      <c r="D30" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E30" t="s" s="0">
+        <v>1688</v>
+      </c>
+      <c r="F30" t="s" s="0">
+        <v>334</v>
+      </c>
+      <c r="G30" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H30" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I30" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J30" t="s" s="0">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>1689</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>1690</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>509</v>
+      </c>
+      <c r="D31" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="E31" t="s" s="0">
+        <v>1598</v>
+      </c>
+      <c r="F31" t="s" s="0">
+        <v>1691</v>
+      </c>
+      <c r="G31" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H31" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I31" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J31" t="s" s="0">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>1692</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>1693</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>1694</v>
+      </c>
+      <c r="D32" t="s" s="0">
+        <v>345</v>
+      </c>
+      <c r="E32" t="s" s="0">
+        <v>1695</v>
+      </c>
+      <c r="F32" t="s" s="0">
+        <v>1696</v>
+      </c>
+      <c r="G32" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H32" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I32" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J32" t="s" s="0">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>1697</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>1698</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>1699</v>
+      </c>
+      <c r="D33" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="E33" t="s" s="0">
+        <v>373</v>
+      </c>
+      <c r="F33" t="s" s="0">
+        <v>1700</v>
+      </c>
+      <c r="G33" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H33" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I33" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J33" t="s" s="0">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>1701</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>1702</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>1703</v>
+      </c>
+      <c r="D34" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="E34" t="s" s="0">
+        <v>1704</v>
+      </c>
+      <c r="F34" t="s" s="0">
+        <v>1705</v>
+      </c>
+      <c r="G34" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H34" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I34" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="J34" t="s" s="0">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>1706</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>1707</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D35" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="E35" t="s" s="0">
+        <v>768</v>
+      </c>
+      <c r="F35" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G35" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H35" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I35" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J35" t="s" s="0">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>1708</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>1709</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D36" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="E36" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="F36" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G36" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H36" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I36" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J36" t="s" s="0">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>1710</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>1711</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>372</v>
+      </c>
+      <c r="D37" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="E37" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F37" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G37" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H37" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I37" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J37" t="s" s="0">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>1712</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>1713</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D38" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="E38" t="s" s="0">
+        <v>1714</v>
+      </c>
+      <c r="F38" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G38" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H38" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I38" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J38" t="s" s="0">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>1715</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>1716</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D39" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="E39" t="s" s="0">
+        <v>381</v>
+      </c>
+      <c r="F39" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G39" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H39" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I39" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="J39" t="s" s="0">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>1717</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>1718</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>1719</v>
+      </c>
+      <c r="D40" t="s" s="0">
+        <v>1720</v>
+      </c>
+      <c r="E40" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F40" t="s" s="0">
+        <v>1721</v>
+      </c>
+      <c r="G40" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H40" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I40" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="J40" t="s" s="0">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>1723</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>1724</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>1725</v>
+      </c>
+      <c r="D41" t="s" s="0">
+        <v>291</v>
+      </c>
+      <c r="E41" t="s" s="0">
+        <v>1726</v>
+      </c>
+      <c r="F41" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="G41" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H41" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I41" t="s" s="0">
+        <v>1728</v>
+      </c>
+      <c r="J41" t="s" s="0">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>1730</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>1731</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>1732</v>
+      </c>
+      <c r="D42" t="s" s="0">
+        <v>291</v>
+      </c>
+      <c r="E42" t="s" s="0">
+        <v>1733</v>
+      </c>
+      <c r="F42" t="s" s="0">
+        <v>1734</v>
+      </c>
+      <c r="G42" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H42" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I42" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J42" t="s" s="0">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>1736</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>1737</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>1738</v>
+      </c>
+      <c r="D43" t="s" s="0">
+        <v>1419</v>
+      </c>
+      <c r="E43" t="s" s="0">
+        <v>1739</v>
+      </c>
+      <c r="F43" t="s" s="0">
+        <v>1740</v>
+      </c>
+      <c r="G43" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H43" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I43" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J43" t="s" s="0">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>1742</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>1743</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>1744</v>
+      </c>
+      <c r="D44" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="E44" t="s" s="0">
+        <v>1745</v>
+      </c>
+      <c r="F44" t="s" s="0">
+        <v>1746</v>
+      </c>
+      <c r="G44" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H44" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I44" t="s" s="0">
+        <v>1747</v>
+      </c>
+      <c r="J44" t="s" s="0">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>1749</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>1750</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>1751</v>
+      </c>
+      <c r="D45" t="s" s="0">
+        <v>713</v>
+      </c>
+      <c r="E45" t="s" s="0">
+        <v>1752</v>
+      </c>
+      <c r="F45" t="s" s="0">
+        <v>1753</v>
+      </c>
+      <c r="G45" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H45" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I45" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J45" t="s" s="0">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>1755</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>1756</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="D46" t="s" s="0">
+        <v>326</v>
+      </c>
+      <c r="E46" t="s" s="0">
+        <v>454</v>
+      </c>
+      <c r="F46" t="s" s="0">
+        <v>1758</v>
+      </c>
+      <c r="G46" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H46" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I46" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J46" t="s" s="0">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>1760</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>1761</v>
+      </c>
+      <c r="C47" t="s" s="0">
+        <v>1762</v>
+      </c>
+      <c r="D47" t="s" s="0">
+        <v>291</v>
+      </c>
+      <c r="E47" t="s" s="0">
+        <v>1763</v>
+      </c>
+      <c r="F47" t="s" s="0">
+        <v>1764</v>
+      </c>
+      <c r="G47" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H47" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I47" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J47" t="s" s="0">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>1765</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>1766</v>
+      </c>
+      <c r="C48" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="D48" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="E48" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="F48" t="s" s="0">
+        <v>1767</v>
+      </c>
+      <c r="G48" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H48" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I48" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J48" t="s" s="0">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>1768</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>1769</v>
+      </c>
+      <c r="C49" t="s" s="0">
+        <v>1770</v>
+      </c>
+      <c r="D49" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="E49" t="s" s="0">
+        <v>1771</v>
+      </c>
+      <c r="F49" t="s" s="0">
+        <v>1772</v>
+      </c>
+      <c r="G49" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H49" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I49" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J49" t="s" s="0">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>1773</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>1774</v>
+      </c>
+      <c r="C50" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D50" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="E50" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="F50" t="s" s="0">
+        <v>1775</v>
+      </c>
+      <c r="G50" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H50" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I50" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J50" t="s" s="0">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>1776</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>1777</v>
+      </c>
+      <c r="C51" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D51" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="E51" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="F51" t="s" s="0">
+        <v>1778</v>
+      </c>
+      <c r="G51" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H51" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I51" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J51" t="s" s="0">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>1779</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>1780</v>
+      </c>
+      <c r="C52" t="s" s="0">
+        <v>1781</v>
+      </c>
+      <c r="D52" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="E52" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="F52" t="s" s="0">
+        <v>1782</v>
+      </c>
+      <c r="G52" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H52" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I52" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J52" t="s" s="0">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>1783</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>1784</v>
+      </c>
+      <c r="C53" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="D53" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="E53" t="s" s="0">
+        <v>1785</v>
+      </c>
+      <c r="F53" t="s" s="0">
+        <v>1786</v>
+      </c>
+      <c r="G53" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H53" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I53" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J53" t="s" s="0">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>1787</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>1788</v>
+      </c>
+      <c r="C54" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D54" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="E54" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="F54" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G54" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H54" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I54" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="J54" t="s" s="0">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>1789</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>1790</v>
+      </c>
+      <c r="C55" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="D55" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="E55" t="s" s="0">
+        <v>1791</v>
+      </c>
+      <c r="F55" t="s" s="0">
+        <v>1792</v>
+      </c>
+      <c r="G55" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H55" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I55" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="J55" t="s" s="0">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>1793</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>1794</v>
+      </c>
+      <c r="C56" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="D56" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="E56" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="F56" t="s" s="0">
+        <v>1795</v>
+      </c>
+      <c r="G56" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H56" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I56" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J56" t="s" s="0">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>1796</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>1797</v>
+      </c>
+      <c r="C57" t="s" s="0">
+        <v>1627</v>
+      </c>
+      <c r="D57" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="E57" t="s" s="0">
+        <v>768</v>
+      </c>
+      <c r="F57" t="s" s="0">
+        <v>1798</v>
+      </c>
+      <c r="G57" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H57" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I57" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J57" t="s" s="0">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>1799</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>1800</v>
+      </c>
+      <c r="C58" t="s" s="0">
+        <v>1632</v>
+      </c>
+      <c r="D58" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="E58" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="F58" t="s" s="0">
+        <v>1801</v>
+      </c>
+      <c r="G58" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H58" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I58" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J58" t="s" s="0">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>1802</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>1803</v>
+      </c>
+      <c r="C59" t="s" s="0">
+        <v>1804</v>
+      </c>
+      <c r="D59" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="E59" t="s" s="0">
+        <v>1805</v>
+      </c>
+      <c r="F59" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="G59" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H59" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I59" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J59" t="s" s="0">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>1806</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>1807</v>
+      </c>
+      <c r="C60" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="D60" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="E60" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="F60" t="s" s="0">
+        <v>1808</v>
+      </c>
+      <c r="G60" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H60" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I60" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="J60" t="s" s="0">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>1809</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>1810</v>
+      </c>
+      <c r="C61" t="s" s="0">
+        <v>464</v>
+      </c>
+      <c r="D61" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="E61" t="s" s="0">
+        <v>1811</v>
+      </c>
+      <c r="F61" t="s" s="0">
+        <v>257</v>
+      </c>
+      <c r="G61" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H61" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I61" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J61" t="s" s="0">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>1812</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>1813</v>
+      </c>
+      <c r="C62" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D62" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="E62" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="F62" t="s" s="0">
+        <v>1814</v>
+      </c>
+      <c r="G62" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H62" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I62" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J62" t="s" s="0">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>1815</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>1816</v>
+      </c>
+      <c r="C63" t="s" s="0">
+        <v>1817</v>
+      </c>
+      <c r="D63" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="E63" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="F63" t="s" s="0">
+        <v>1818</v>
+      </c>
+      <c r="G63" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H63" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I63" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J63" t="s" s="0">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>1819</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>1820</v>
+      </c>
+      <c r="C64" t="s" s="0">
+        <v>1821</v>
+      </c>
+      <c r="D64" t="s" s="0">
+        <v>291</v>
+      </c>
+      <c r="E64" t="s" s="0">
+        <v>1822</v>
+      </c>
+      <c r="F64" t="s" s="0">
+        <v>1823</v>
+      </c>
+      <c r="G64" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H64" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I64" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J64" t="s" s="0">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>1824</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>1825</v>
+      </c>
+      <c r="C65" t="s" s="0">
+        <v>1826</v>
+      </c>
+      <c r="D65" t="s" s="0">
+        <v>291</v>
+      </c>
+      <c r="E65" t="s" s="0">
+        <v>1827</v>
+      </c>
+      <c r="F65" t="s" s="0">
+        <v>1828</v>
+      </c>
+      <c r="G65" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H65" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I65" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J65" t="s" s="0">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>1829</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>1830</v>
+      </c>
+      <c r="C66" t="s" s="0">
+        <v>314</v>
+      </c>
+      <c r="D66" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E66" t="s" s="0">
+        <v>315</v>
+      </c>
+      <c r="F66" t="s" s="0">
+        <v>1831</v>
+      </c>
+      <c r="G66" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H66" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I66" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J66" t="s" s="0">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>1832</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>1833</v>
+      </c>
+      <c r="C67" t="s" s="0">
+        <v>1834</v>
+      </c>
+      <c r="D67" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="E67" t="s" s="0">
+        <v>321</v>
+      </c>
+      <c r="F67" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G67" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H67" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I67" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="J67" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>1835</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>1836</v>
+      </c>
+      <c r="C68" t="s" s="0">
+        <v>332</v>
+      </c>
+      <c r="D68" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E68" t="s" s="0">
+        <v>346</v>
+      </c>
+      <c r="F68" t="s" s="0">
+        <v>334</v>
+      </c>
+      <c r="G68" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H68" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I68" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J68" t="s" s="0">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>1837</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>1838</v>
+      </c>
+      <c r="C69" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="D69" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="E69" t="s" s="0">
+        <v>1840</v>
+      </c>
+      <c r="F69" t="s" s="0">
+        <v>1841</v>
+      </c>
+      <c r="G69" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H69" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I69" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J69" t="s" s="0">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>1842</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>1843</v>
+      </c>
+      <c r="C70" t="s" s="0">
+        <v>1844</v>
+      </c>
+      <c r="D70" t="s" s="0">
+        <v>345</v>
+      </c>
+      <c r="E70" t="s" s="0">
+        <v>1845</v>
+      </c>
+      <c r="F70" t="s" s="0">
+        <v>1846</v>
+      </c>
+      <c r="G70" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H70" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I70" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J70" t="s" s="0">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>1847</v>
+      </c>
+      <c r="B71" t="s" s="0">
+        <v>1848</v>
+      </c>
+      <c r="C71" t="s" s="0">
+        <v>1849</v>
+      </c>
+      <c r="D71" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="E71" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="F71" t="s" s="0">
+        <v>1850</v>
+      </c>
+      <c r="G71" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H71" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I71" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J71" t="s" s="0">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="0">
+        <v>1851</v>
+      </c>
+      <c r="B72" t="s" s="0">
+        <v>1852</v>
+      </c>
+      <c r="C72" t="s" s="0">
+        <v>1853</v>
+      </c>
+      <c r="D72" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="E72" t="s" s="0">
+        <v>1714</v>
+      </c>
+      <c r="F72" t="s" s="0">
+        <v>1854</v>
+      </c>
+      <c r="G72" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H72" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I72" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J72" t="s" s="0">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="0">
+        <v>1706</v>
+      </c>
+      <c r="B73" t="s" s="0">
+        <v>1707</v>
+      </c>
+      <c r="C73" t="s" s="0">
+        <v>1855</v>
+      </c>
+      <c r="D73" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="E73" t="s" s="0">
+        <v>768</v>
+      </c>
+      <c r="F73" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G73" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H73" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I73" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J73" t="s" s="0">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="0">
+        <v>1856</v>
+      </c>
+      <c r="B74" t="s" s="0">
+        <v>1857</v>
+      </c>
+      <c r="C74" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D74" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="E74" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="F74" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G74" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H74" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I74" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J74" t="s" s="0">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="0">
+        <v>1858</v>
+      </c>
+      <c r="B75" t="s" s="0">
+        <v>1859</v>
+      </c>
+      <c r="C75" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D75" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="E75" t="s" s="0">
+        <v>533</v>
+      </c>
+      <c r="F75" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G75" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H75" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I75" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J75" t="s" s="0">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="0">
+        <v>1860</v>
+      </c>
+      <c r="B76" t="s" s="0">
+        <v>1861</v>
+      </c>
+      <c r="C76" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D76" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="E76" t="s" s="0">
+        <v>1714</v>
+      </c>
+      <c r="F76" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G76" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H76" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I76" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="J76" t="s" s="0">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="0">
+        <v>1862</v>
+      </c>
+      <c r="B77" t="s" s="0">
+        <v>1863</v>
+      </c>
+      <c r="C77" t="s" s="0">
+        <v>1719</v>
+      </c>
+      <c r="D77" t="s" s="0">
+        <v>1720</v>
+      </c>
+      <c r="E77" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F77" t="s" s="0">
+        <v>1721</v>
+      </c>
+      <c r="G77" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H77" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I77" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J77" t="s" s="0">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="0">
+        <v>700</v>
+      </c>
+      <c r="B78" t="s" s="0">
+        <v>701</v>
+      </c>
+      <c r="C78" t="s" s="0">
+        <v>702</v>
+      </c>
+      <c r="D78" t="s" s="0">
+        <v>291</v>
+      </c>
+      <c r="E78" t="s" s="0">
+        <v>1864</v>
+      </c>
+      <c r="F78" t="s" s="0">
+        <v>703</v>
+      </c>
+      <c r="G78" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H78" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I78" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J78" t="s" s="0">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="0">
+        <v>1865</v>
+      </c>
+      <c r="B79" t="s" s="0">
+        <v>1866</v>
+      </c>
+      <c r="C79" t="s" s="0">
+        <v>1867</v>
+      </c>
+      <c r="D79" t="s" s="0">
+        <v>291</v>
+      </c>
+      <c r="E79" t="s" s="0">
+        <v>1868</v>
+      </c>
+      <c r="F79" t="s" s="0">
+        <v>1869</v>
+      </c>
+      <c r="G79" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H79" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I79" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J79" t="s" s="0">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="0">
+        <v>1870</v>
+      </c>
+      <c r="B80" t="s" s="0">
+        <v>1871</v>
+      </c>
+      <c r="C80" t="s" s="0">
+        <v>1738</v>
+      </c>
+      <c r="D80" t="s" s="0">
+        <v>1419</v>
+      </c>
+      <c r="E80" t="s" s="0">
+        <v>1209</v>
+      </c>
+      <c r="F80" t="s" s="0">
+        <v>1872</v>
+      </c>
+      <c r="G80" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H80" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I80" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="J80" t="s" s="0">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="0">
+        <v>1873</v>
+      </c>
+      <c r="B81" t="s" s="0">
+        <v>1874</v>
+      </c>
+      <c r="C81" t="s" s="0">
+        <v>1744</v>
+      </c>
+      <c r="D81" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="E81" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="F81" t="s" s="0">
+        <v>1875</v>
+      </c>
+      <c r="G81" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H81" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I81" t="s" s="0">
+        <v>1747</v>
+      </c>
+      <c r="J81" t="s" s="0">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="0">
+        <v>1876</v>
+      </c>
+      <c r="B82" t="s" s="0">
+        <v>1877</v>
+      </c>
+      <c r="C82" t="s" s="0">
+        <v>1878</v>
+      </c>
+      <c r="D82" t="s" s="0">
+        <v>713</v>
+      </c>
+      <c r="E82" t="s" s="0">
+        <v>1879</v>
+      </c>
+      <c r="F82" t="s" s="0">
+        <v>1880</v>
+      </c>
+      <c r="G82" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H82" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I82" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J82" t="s" s="0">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="0">
+        <v>1881</v>
+      </c>
+      <c r="B83" t="s" s="0">
+        <v>1882</v>
+      </c>
+      <c r="C83" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="D83" t="s" s="0">
+        <v>326</v>
+      </c>
+      <c r="E83" t="s" s="0">
+        <v>1883</v>
+      </c>
+      <c r="F83" t="s" s="0">
+        <v>1758</v>
+      </c>
+      <c r="G83" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H83" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I83" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J83" t="s" s="0">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="0">
+        <v>1884</v>
+      </c>
+      <c r="B84" t="s" s="0">
+        <v>1885</v>
+      </c>
+      <c r="C84" t="s" s="0">
+        <v>1886</v>
+      </c>
+      <c r="D84" t="s" s="0">
+        <v>291</v>
+      </c>
+      <c r="E84" t="s" s="0">
+        <v>303</v>
+      </c>
+      <c r="F84" t="s" s="0">
+        <v>1887</v>
+      </c>
+      <c r="G84" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H84" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I84" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J84" t="s" s="0">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="5">
+        <v>10</v>
+      </c>
+      <c r="B85" t="s" s="5">
+        <v>10</v>
+      </c>
+      <c r="C85" t="s" s="5">
+        <v>10</v>
+      </c>
+      <c r="D85" t="s" s="5">
+        <v>10</v>
+      </c>
+      <c r="E85" t="s" s="5">
+        <v>10</v>
+      </c>
+      <c r="F85" t="s" s="5">
+        <v>10</v>
+      </c>
+      <c r="G85" t="s" s="5">
+        <v>10</v>
+      </c>
+      <c r="H85" t="s" s="5">
+        <v>10</v>
+      </c>
+      <c r="I85" t="s" s="5">
+        <v>10</v>
+      </c>
+      <c r="J85" t="s" s="5">
+        <v>10</v>
+      </c>
+      <c r="K85" t="s" s="5">
+        <v>10</v>
+      </c>
+      <c r="L85" t="s" s="5">
+        <v>10</v>
+      </c>
+      <c r="M85" t="s" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="B86" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="C86" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="D86" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="E86" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="F86" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="G86" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="H86" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="I86" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="J86" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="K86" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="L86" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="M86" t="s" s="6">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/baseFiles/excel/Sheet.xlsx
+++ b/src/main/resources/baseFiles/excel/Sheet.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Name</t>
   </si>
@@ -60,6 +60,48 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>Paul Josephus Jitta</t>
+  </si>
+  <si>
+    <t>p.josephusjitta@burenlegal.com</t>
+  </si>
+  <si>
+    <t>23128029203338395</t>
+  </si>
+  <si>
+    <t>the Netherlands</t>
+  </si>
+  <si>
+    <t>https://www.burenlegal.com/en/people/paul-josephus-jitta</t>
+  </si>
+  <si>
+    <t>Karine Frois</t>
+  </si>
+  <si>
+    <t>Legal</t>
+  </si>
+  <si>
+    <t>Partner</t>
+  </si>
+  <si>
+    <t>BUREN</t>
+  </si>
+  <si>
+    <t>Paul De Groen</t>
+  </si>
+  <si>
+    <t>p.degroen@declercq.com</t>
+  </si>
+  <si>
+    <t>715815335</t>
+  </si>
+  <si>
+    <t>https://declercq.com/en/team/paul-de-groen</t>
+  </si>
+  <si>
+    <t>De Clercq</t>
   </si>
 </sst>
 </file>
@@ -1219,7 +1261,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M103"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:J308"/>
@@ -1228,57 +1270,67 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" t="s" s="0">
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="11:13">
-      <c r="K102" s="1" t="s">
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="L102" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M102" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="103" spans="11:13">
-      <c r="K103" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L103" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M103" s="1" t="s">
-        <v>10</v>
+      <c r="F2" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/baseFiles/excel/Sheet.xlsx
+++ b/src/main/resources/baseFiles/excel/Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23340" windowHeight="12960"/>
+    <workbookView windowWidth="29100" windowHeight="14540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>Name</t>
   </si>
@@ -60,48 +60,6 @@
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>Paul Josephus Jitta</t>
-  </si>
-  <si>
-    <t>p.josephusjitta@burenlegal.com</t>
-  </si>
-  <si>
-    <t>23128029203338395</t>
-  </si>
-  <si>
-    <t>the Netherlands</t>
-  </si>
-  <si>
-    <t>https://www.burenlegal.com/en/people/paul-josephus-jitta</t>
-  </si>
-  <si>
-    <t>Karine Frois</t>
-  </si>
-  <si>
-    <t>Legal</t>
-  </si>
-  <si>
-    <t>Partner</t>
-  </si>
-  <si>
-    <t>BUREN</t>
-  </si>
-  <si>
-    <t>Paul De Groen</t>
-  </si>
-  <si>
-    <t>p.degroen@declercq.com</t>
-  </si>
-  <si>
-    <t>715815335</t>
-  </si>
-  <si>
-    <t>https://declercq.com/en/team/paul-de-groen</t>
-  </si>
-  <si>
-    <t>De Clercq</t>
   </si>
 </sst>
 </file>
@@ -1261,76 +1219,66 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:M100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J308"/>
+      <selection activeCell="A2" sqref="A2:J496"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="0">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="0">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="0">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s" s="0">
+    <row r="99" spans="11:13">
+      <c r="K99" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="G2" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="J2" t="s" s="0">
-        <v>24</v>
+      <c r="L99" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M99" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="11:13">
+      <c r="K100" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L100" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M100" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/baseFiles/excel/Sheet.xlsx
+++ b/src/main/resources/baseFiles/excel/Sheet.xlsx
@@ -1219,7 +1219,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M100"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:J496"/>
@@ -1228,57 +1228,35 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" t="s" s="0">
         <v>9</v>
-      </c>
-    </row>
-    <row r="99" spans="11:13">
-      <c r="K99" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L99" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M99" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="100" spans="11:13">
-      <c r="K100" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L100" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M100" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/baseFiles/excel/Sheet.xlsx
+++ b/src/main/resources/baseFiles/excel/Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29100" windowHeight="14540"/>
+    <workbookView windowWidth="24680" windowHeight="13580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="11">
   <si>
     <t>Name</t>
   </si>
@@ -225,7 +225,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -422,6 +422,16 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -681,11 +691,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1222,7 +1234,7 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J496"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>

--- a/src/main/resources/baseFiles/excel/Sheet.xlsx
+++ b/src/main/resources/baseFiles/excel/Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24680" windowHeight="13580"/>
+    <workbookView windowWidth="29100" windowHeight="14540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
@@ -58,9 +58,6 @@
   <si>
     <t>Firm</t>
   </si>
-  <si>
-    <t/>
-  </si>
 </sst>
 </file>
 
@@ -225,7 +222,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -234,12 +231,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -422,16 +413,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFFF0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -567,7 +548,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -591,16 +572,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -609,95 +590,92 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1233,41 +1211,41 @@
   <sheetPr/>
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="0">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="0">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="0">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
     </row>

--- a/src/main/resources/baseFiles/excel/Sheet.xlsx
+++ b/src/main/resources/baseFiles/excel/Sheet.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Name</t>
   </si>
@@ -58,6 +58,9 @@
   <si>
     <t>Firm</t>
   </si>
+  <si>
+    <t/>
+  </si>
 </sst>
 </file>
 
@@ -222,12 +225,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -548,7 +557,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -572,16 +581,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -590,92 +599,93 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1209,44 +1219,55 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:M102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A375" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:J409"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="0">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="0">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="0">
+      <c r="J1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="11:13">
+      <c r="K102" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L102" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M102" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/baseFiles/excel/Sheet.xlsx
+++ b/src/main/resources/baseFiles/excel/Sheet.xlsx
@@ -1219,7 +1219,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M102"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A375" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:J409"/>
@@ -1228,46 +1228,35 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" t="s" s="0">
         <v>9</v>
-      </c>
-    </row>
-    <row r="102" spans="11:13">
-      <c r="K102" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L102" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M102" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
